--- a/df_gap.xlsx
+++ b/df_gap.xlsx
@@ -3177,7 +3177,7 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>131168.0000000001</v>
+        <v>150279.9999999999</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3191,7 +3191,7 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>88255.99999999999</v>
+        <v>90147.99999999993</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3205,7 +3205,7 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>83465</v>
+        <v>81725.00000000004</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3219,7 +3219,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>107209.9999999999</v>
+        <v>138010</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3230,10 +3230,10 @@
         <v>7</v>
       </c>
       <c r="C6">
-        <v>20231.45574224496</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>121071.455742245</v>
+        <v>159764</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -3247,7 +3247,7 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>72666.00000000003</v>
+        <v>77694.99999999994</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3261,7 +3261,7 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>81683.99999999996</v>
+        <v>103431.9999999999</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3275,7 +3275,7 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>176955.0000000001</v>
+        <v>179625.0000000001</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3286,10 +3286,10 @@
         <v>11</v>
       </c>
       <c r="C10">
-        <v>15542.33666166409</v>
+        <v>1940.356708476407</v>
       </c>
       <c r="D10">
-        <v>65632.33666166407</v>
+        <v>65885.35670847645</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3300,10 +3300,10 @@
         <v>12</v>
       </c>
       <c r="C11">
-        <v>27287.78630591083</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>103959.7863059108</v>
+        <v>108901.0000000001</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -3317,7 +3317,7 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>156075</v>
+        <v>161445.0000000001</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3331,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>71075.99999999999</v>
+        <v>60215.99999999996</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -3345,7 +3345,7 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>128444.9999999999</v>
+        <v>115525</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -3359,7 +3359,7 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>98869.99999999993</v>
+        <v>106750.0000000001</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -3370,10 +3370,10 @@
         <v>17</v>
       </c>
       <c r="C16">
-        <v>23009.48454974753</v>
+        <v>29378.43349633487</v>
       </c>
       <c r="D16">
-        <v>104433.4845497476</v>
+        <v>102558.4334963349</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3384,10 +3384,10 @@
         <v>18</v>
       </c>
       <c r="C17">
-        <v>6754.916905005382</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>65587.9169050054</v>
+        <v>67268.99999999996</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -3401,7 +3401,7 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>136147.9999999999</v>
+        <v>140184</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -3415,7 +3415,7 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>103457</v>
+        <v>85274.00000000001</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -3426,10 +3426,10 @@
         <v>21</v>
       </c>
       <c r="C20">
-        <v>28104.41981178483</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>118456.4198117849</v>
+        <v>129508</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -3440,10 +3440,10 @@
         <v>22</v>
       </c>
       <c r="C21">
-        <v>27052.27957689759</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>140787.2795768977</v>
+        <v>181985</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -3454,10 +3454,10 @@
         <v>23</v>
       </c>
       <c r="C22">
-        <v>33050.52533168765</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>119266.5253316877</v>
+        <v>155983.9999999999</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>79898.99999999999</v>
+        <v>77400.00000000006</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -3485,7 +3485,7 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>125294.9999999999</v>
+        <v>162714.9999999999</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -3496,10 +3496,10 @@
         <v>26</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>25431.16261777218</v>
       </c>
       <c r="D25">
-        <v>178844.9999999999</v>
+        <v>141026.1626177721</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -3510,10 +3510,10 @@
         <v>27</v>
       </c>
       <c r="C26">
-        <v>32966.09617159567</v>
+        <v>12349.1594272887</v>
       </c>
       <c r="D26">
-        <v>141011.0961715957</v>
+        <v>137619.1594272886</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -3524,10 +3524,10 @@
         <v>28</v>
       </c>
       <c r="C27">
-        <v>11044.62613301272</v>
+        <v>0</v>
       </c>
       <c r="D27">
-        <v>103748.6261330127</v>
+        <v>103069</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -3538,10 +3538,10 @@
         <v>29</v>
       </c>
       <c r="C28">
-        <v>36161.36183124463</v>
+        <v>4963.399859136785</v>
       </c>
       <c r="D28">
-        <v>139761.3618312447</v>
+        <v>140103.3998591368</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -3555,7 +3555,7 @@
         <v>0</v>
       </c>
       <c r="D29">
-        <v>123388</v>
+        <v>155195.9999999999</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -3569,7 +3569,7 @@
         <v>0</v>
       </c>
       <c r="D30">
-        <v>132272.0000000001</v>
+        <v>137363.9999999999</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -3583,7 +3583,7 @@
         <v>0</v>
       </c>
       <c r="D31">
-        <v>65668.00000000004</v>
+        <v>63574.00000000002</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -3597,7 +3597,7 @@
         <v>0</v>
       </c>
       <c r="D32">
-        <v>68599.00000000001</v>
+        <v>76603.00000000006</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -3611,7 +3611,7 @@
         <v>0</v>
       </c>
       <c r="D33">
-        <v>74531.99999999996</v>
+        <v>64994.99999999999</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -3622,10 +3622,10 @@
         <v>35</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>7258.75675072195</v>
       </c>
       <c r="D34">
-        <v>160574.9999999999</v>
+        <v>139733.756750722</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -3639,7 +3639,7 @@
         <v>0</v>
       </c>
       <c r="D35">
-        <v>120624.0000000001</v>
+        <v>115200</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -3653,7 +3653,7 @@
         <v>0</v>
       </c>
       <c r="D36">
-        <v>98720.00000000007</v>
+        <v>118532</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -3667,7 +3667,7 @@
         <v>0</v>
       </c>
       <c r="D37">
-        <v>127503.9999999999</v>
+        <v>115189</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -3678,10 +3678,10 @@
         <v>39</v>
       </c>
       <c r="C38">
-        <v>10050.52771766383</v>
+        <v>5416.435770678378</v>
       </c>
       <c r="D38">
-        <v>104245.5277176638</v>
+        <v>101231.4357706785</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -3692,10 +3692,10 @@
         <v>40</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>8989.73719585019</v>
       </c>
       <c r="D39">
-        <v>85858</v>
+        <v>83687.73719585018</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="D40">
-        <v>159988.0000000001</v>
+        <v>151451.9999999999</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -3723,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="D41">
-        <v>88175.99999999994</v>
+        <v>85488.00000000003</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -3734,10 +3734,10 @@
         <v>43</v>
       </c>
       <c r="C42">
-        <v>33772.53698046147</v>
+        <v>41114.38254148756</v>
       </c>
       <c r="D42">
-        <v>117844.5369804615</v>
+        <v>128826.3825414875</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -3751,7 +3751,7 @@
         <v>0</v>
       </c>
       <c r="D43">
-        <v>121954.0000000001</v>
+        <v>109603</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -3765,7 +3765,7 @@
         <v>0</v>
       </c>
       <c r="D44">
-        <v>89630</v>
+        <v>109434</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -3776,10 +3776,10 @@
         <v>46</v>
       </c>
       <c r="C45">
-        <v>12876.77664314215</v>
+        <v>9444.855316410627</v>
       </c>
       <c r="D45">
-        <v>81338.77664314215</v>
+        <v>84148.85531641057</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -3790,10 +3790,10 @@
         <v>47</v>
       </c>
       <c r="C46">
-        <v>16698.28642603566</v>
+        <v>11840.53355709021</v>
       </c>
       <c r="D46">
-        <v>99085.2864260356</v>
+        <v>102861.5335570902</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -3807,7 +3807,7 @@
         <v>0</v>
       </c>
       <c r="D47">
-        <v>161764.0000000001</v>
+        <v>123436</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -3821,7 +3821,7 @@
         <v>0</v>
       </c>
       <c r="D48">
-        <v>150679.9999999999</v>
+        <v>161972.0000000001</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -3835,7 +3835,7 @@
         <v>0</v>
       </c>
       <c r="D49">
-        <v>87153.99999999993</v>
+        <v>108392</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -3849,7 +3849,7 @@
         <v>0</v>
       </c>
       <c r="D50">
-        <v>97484.00000000001</v>
+        <v>97560.00000000003</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -3863,7 +3863,7 @@
         <v>0</v>
       </c>
       <c r="D51">
-        <v>190685</v>
+        <v>196344.9999999999</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -3874,10 +3874,10 @@
         <v>53</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>5723.636581808969</v>
       </c>
       <c r="D52">
-        <v>122512.0000000001</v>
+        <v>102762.6365818089</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -3888,10 +3888,10 @@
         <v>54</v>
       </c>
       <c r="C53">
-        <v>38163.49326480384</v>
+        <v>0</v>
       </c>
       <c r="D53">
-        <v>119307.4932648038</v>
+        <v>149164.0000000001</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -3905,7 +3905,7 @@
         <v>0</v>
       </c>
       <c r="D54">
-        <v>145924.9999999999</v>
+        <v>170990</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -3919,7 +3919,7 @@
         <v>0</v>
       </c>
       <c r="D55">
-        <v>175970.0000000001</v>
+        <v>175149.9999999999</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -3933,7 +3933,7 @@
         <v>0</v>
       </c>
       <c r="D56">
-        <v>161380.0000000001</v>
+        <v>115884</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -3947,7 +3947,7 @@
         <v>0</v>
       </c>
       <c r="D57">
-        <v>102900</v>
+        <v>179419.9999999999</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -3958,10 +3958,10 @@
         <v>59</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>9118.432641600506</v>
       </c>
       <c r="D58">
-        <v>68864.99999999994</v>
+        <v>65942.43264160054</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -3975,7 +3975,7 @@
         <v>0</v>
       </c>
       <c r="D59">
-        <v>108659</v>
+        <v>82073.00000000001</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -3989,7 +3989,7 @@
         <v>0</v>
       </c>
       <c r="D60">
-        <v>63391.00000000004</v>
+        <v>63873.00000000003</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -4003,7 +4003,7 @@
         <v>0</v>
       </c>
       <c r="D61">
-        <v>126127.9999999999</v>
+        <v>82393.99999999994</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -4017,7 +4017,7 @@
         <v>0</v>
       </c>
       <c r="D62">
-        <v>108248</v>
+        <v>160696</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -4031,7 +4031,7 @@
         <v>0</v>
       </c>
       <c r="D63">
-        <v>70864</v>
+        <v>72473.99999999997</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -4042,10 +4042,10 @@
         <v>65</v>
       </c>
       <c r="C64">
-        <v>43480.31968549866</v>
+        <v>27362.86699037399</v>
       </c>
       <c r="D64">
-        <v>135595.3196854986</v>
+        <v>139052.8669903741</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -4056,10 +4056,10 @@
         <v>66</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>6431.24863562041</v>
       </c>
       <c r="D65">
-        <v>68409.99999999997</v>
+        <v>65871.24863562039</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -4070,10 +4070,10 @@
         <v>67</v>
       </c>
       <c r="C66">
-        <v>27449.11842033434</v>
+        <v>0</v>
       </c>
       <c r="D66">
-        <v>135039.1184203344</v>
+        <v>158810.0000000001</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -4087,7 +4087,7 @@
         <v>0</v>
       </c>
       <c r="D67">
-        <v>129826</v>
+        <v>128602</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="D68">
-        <v>119592</v>
+        <v>97784.00000000006</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -4112,10 +4112,10 @@
         <v>70</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>20976.16261777219</v>
       </c>
       <c r="D69">
-        <v>177649.9999999999</v>
+        <v>141026.1626177721</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -4129,7 +4129,7 @@
         <v>0</v>
       </c>
       <c r="D70">
-        <v>70872.00000000001</v>
+        <v>107425.9999999999</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -4140,10 +4140,10 @@
         <v>72</v>
       </c>
       <c r="C71">
-        <v>0</v>
+        <v>29959.82426476723</v>
       </c>
       <c r="D71">
-        <v>152164</v>
+        <v>127531.8242647672</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -4157,7 +4157,7 @@
         <v>0</v>
       </c>
       <c r="D72">
-        <v>60953.00000000004</v>
+        <v>69273.99999999999</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -4171,7 +4171,7 @@
         <v>0</v>
       </c>
       <c r="D73">
-        <v>88469.00000000004</v>
+        <v>125645.0000000001</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -4182,10 +4182,10 @@
         <v>75</v>
       </c>
       <c r="C74">
-        <v>0</v>
+        <v>4154.967754610334</v>
       </c>
       <c r="D74">
-        <v>86733.99999999999</v>
+        <v>86122.96775461041</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -4196,10 +4196,10 @@
         <v>76</v>
       </c>
       <c r="C75">
-        <v>0</v>
+        <v>31627.38196135736</v>
       </c>
       <c r="D75">
-        <v>147468.0000000001</v>
+        <v>126219.3819613574</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -4210,10 +4210,10 @@
         <v>77</v>
       </c>
       <c r="C76">
-        <v>12768.65135228353</v>
+        <v>0</v>
       </c>
       <c r="D76">
-        <v>102874.6513522835</v>
+        <v>126004</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -4227,7 +4227,7 @@
         <v>0</v>
       </c>
       <c r="D77">
-        <v>163755.0000000001</v>
+        <v>121790</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -4238,10 +4238,10 @@
         <v>79</v>
       </c>
       <c r="C78">
-        <v>236.2690942187328</v>
+        <v>13518.48179326994</v>
       </c>
       <c r="D78">
-        <v>66664.26909421879</v>
+        <v>64957.48179326989</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -4252,10 +4252,10 @@
         <v>80</v>
       </c>
       <c r="C79">
-        <v>6212.808087929043</v>
+        <v>0</v>
       </c>
       <c r="D79">
-        <v>66196.80808792901</v>
+        <v>66547</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -4266,10 +4266,10 @@
         <v>81</v>
       </c>
       <c r="C80">
-        <v>1525.937643964731</v>
+        <v>17689.4609200855</v>
       </c>
       <c r="D80">
-        <v>85089.93764396469</v>
+        <v>83115.46092008546</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -4283,7 +4283,7 @@
         <v>0</v>
       </c>
       <c r="D81">
-        <v>112480.0000000001</v>
+        <v>111150</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -4294,10 +4294,10 @@
         <v>83</v>
       </c>
       <c r="C82">
-        <v>30408.55925077102</v>
+        <v>43422.73519648072</v>
       </c>
       <c r="D82">
-        <v>139603.5592507711</v>
+        <v>138967.7351964807</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -4311,7 +4311,7 @@
         <v>0</v>
       </c>
       <c r="D83">
-        <v>106960.9999999999</v>
+        <v>119072.0000000001</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -4325,7 +4325,7 @@
         <v>0</v>
       </c>
       <c r="D84">
-        <v>114812</v>
+        <v>146064.0000000001</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -4336,10 +4336,10 @@
         <v>86</v>
       </c>
       <c r="C85">
-        <v>2672.570343637788</v>
+        <v>4824.678610737741</v>
       </c>
       <c r="D85">
-        <v>63206.57034363774</v>
+        <v>66816.67861073773</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -4350,10 +4350,10 @@
         <v>87</v>
       </c>
       <c r="C86">
-        <v>29450.61130865691</v>
+        <v>1014.990373393652</v>
       </c>
       <c r="D86">
-        <v>103770.6113086569</v>
+        <v>103831.9903733937</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -4364,10 +4364,10 @@
         <v>88</v>
       </c>
       <c r="C87">
-        <v>0</v>
+        <v>2436.292146379623</v>
       </c>
       <c r="D87">
-        <v>124593.9999999999</v>
+        <v>103606.2921463797</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -4381,7 +4381,7 @@
         <v>0</v>
       </c>
       <c r="D88">
-        <v>148365.0000000001</v>
+        <v>187580</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -4395,7 +4395,7 @@
         <v>0</v>
       </c>
       <c r="D89">
-        <v>70389.00000000003</v>
+        <v>68598.00000000001</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -4409,7 +4409,7 @@
         <v>0</v>
       </c>
       <c r="D90">
-        <v>162354.9999999999</v>
+        <v>114865</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -4423,7 +4423,7 @@
         <v>0</v>
       </c>
       <c r="D91">
-        <v>75716.99999999996</v>
+        <v>60266.99999999999</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -4437,7 +4437,7 @@
         <v>0</v>
       </c>
       <c r="D92">
-        <v>91717.99999999994</v>
+        <v>89879.99999999996</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -4451,7 +4451,7 @@
         <v>0</v>
       </c>
       <c r="D93">
-        <v>78798.00000000006</v>
+        <v>61962.99999999996</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -4462,10 +4462,10 @@
         <v>95</v>
       </c>
       <c r="C94">
-        <v>0</v>
+        <v>5017.280738253212</v>
       </c>
       <c r="D94">
-        <v>69860.00000000004</v>
+        <v>64559.28073825326</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -4479,7 +4479,7 @@
         <v>0</v>
       </c>
       <c r="D95">
-        <v>148232.0000000001</v>
+        <v>162860</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -4493,7 +4493,7 @@
         <v>0</v>
       </c>
       <c r="D96">
-        <v>76096.99999999994</v>
+        <v>69429</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -4507,7 +4507,7 @@
         <v>0</v>
       </c>
       <c r="D97">
-        <v>70129.99999999994</v>
+        <v>60765.00000000002</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -4518,10 +4518,10 @@
         <v>99</v>
       </c>
       <c r="C98">
-        <v>5530.573583407298</v>
+        <v>0</v>
       </c>
       <c r="D98">
-        <v>138610.5735834073</v>
+        <v>142875</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -4535,7 +4535,7 @@
         <v>0</v>
       </c>
       <c r="D99">
-        <v>128197</v>
+        <v>120043</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -4549,7 +4549,7 @@
         <v>0</v>
       </c>
       <c r="D100">
-        <v>136855.9999999999</v>
+        <v>119396</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -4560,10 +4560,10 @@
         <v>102</v>
       </c>
       <c r="C101">
-        <v>1370.817588675302</v>
+        <v>9884.192519500168</v>
       </c>
       <c r="D101">
-        <v>80060.81758867524</v>
+        <v>85212.19251950012</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -4574,10 +4574,10 @@
         <v>103</v>
       </c>
       <c r="C102">
-        <v>8215.931263938895</v>
+        <v>14229.42450891025</v>
       </c>
       <c r="D102">
-        <v>84721.93126393885</v>
+        <v>85389.42450891019</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -4588,10 +4588,10 @@
         <v>104</v>
       </c>
       <c r="C103">
-        <v>0</v>
+        <v>40630.47462683092</v>
       </c>
       <c r="D103">
-        <v>135144.0000000001</v>
+        <v>125006.474626831</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -4602,10 +4602,10 @@
         <v>105</v>
       </c>
       <c r="C104">
-        <v>29859.94203349446</v>
+        <v>0</v>
       </c>
       <c r="D104">
-        <v>133449.9420334944</v>
+        <v>142099.9999999999</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -4616,10 +4616,10 @@
         <v>106</v>
       </c>
       <c r="C105">
-        <v>51165.49927539169</v>
+        <v>44150.50691375337</v>
       </c>
       <c r="D105">
-        <v>141655.4992753917</v>
+        <v>136010.5069137534</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -4633,7 +4633,7 @@
         <v>0</v>
       </c>
       <c r="D106">
-        <v>160876</v>
+        <v>134955.9999999999</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -4647,7 +4647,7 @@
         <v>0</v>
       </c>
       <c r="D107">
-        <v>78314.99999999999</v>
+        <v>66440.00000000003</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -4658,10 +4658,10 @@
         <v>109</v>
       </c>
       <c r="C108">
-        <v>10822.16330461053</v>
+        <v>0</v>
       </c>
       <c r="D108">
-        <v>65610.16330461057</v>
+        <v>67135.99999999997</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -4675,7 +4675,7 @@
         <v>0</v>
       </c>
       <c r="D109">
-        <v>105356</v>
+        <v>99028</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -4689,7 +4689,7 @@
         <v>0</v>
       </c>
       <c r="D110">
-        <v>86427.99999999996</v>
+        <v>107897.9999999999</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -4700,10 +4700,10 @@
         <v>112</v>
       </c>
       <c r="C111">
-        <v>0</v>
+        <v>22272.80759767164</v>
       </c>
       <c r="D111">
-        <v>189930</v>
+        <v>141767.8075976716</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -4717,7 +4717,7 @@
         <v>0</v>
       </c>
       <c r="D112">
-        <v>121284.9999999999</v>
+        <v>105471.9999999999</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -4731,7 +4731,7 @@
         <v>0</v>
       </c>
       <c r="D113">
-        <v>71798.00000000003</v>
+        <v>72218.00000000004</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -4745,7 +4745,7 @@
         <v>0</v>
       </c>
       <c r="D114">
-        <v>79204.00000000006</v>
+        <v>92801.99999999999</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -4759,7 +4759,7 @@
         <v>0</v>
       </c>
       <c r="D115">
-        <v>116140.0000000001</v>
+        <v>117610</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -4770,10 +4770,10 @@
         <v>117</v>
       </c>
       <c r="C116">
-        <v>5078.992049361186</v>
+        <v>0</v>
       </c>
       <c r="D116">
-        <v>83894.99204936114</v>
+        <v>90137.99999999994</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -4787,7 +4787,7 @@
         <v>0</v>
       </c>
       <c r="D117">
-        <v>165507.9999999999</v>
+        <v>162979.9999999999</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -4801,7 +4801,7 @@
         <v>0</v>
       </c>
       <c r="D118">
-        <v>125469.9999999999</v>
+        <v>103015</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -4815,7 +4815,7 @@
         <v>0</v>
       </c>
       <c r="D119">
-        <v>94553.99999999994</v>
+        <v>95848.00000000007</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -4826,10 +4826,10 @@
         <v>121</v>
       </c>
       <c r="C120">
-        <v>40213.87242541868</v>
+        <v>0</v>
       </c>
       <c r="D120">
-        <v>135023.8724254187</v>
+        <v>154480.0000000001</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -4843,7 +4843,7 @@
         <v>0</v>
       </c>
       <c r="D121">
-        <v>89107.99999999999</v>
+        <v>97777.99999999999</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -4857,7 +4857,7 @@
         <v>0</v>
       </c>
       <c r="D122">
-        <v>122405</v>
+        <v>124082</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -4868,10 +4868,10 @@
         <v>124</v>
       </c>
       <c r="C123">
-        <v>0</v>
+        <v>1847.441887434637</v>
       </c>
       <c r="D123">
-        <v>67194.99999999999</v>
+        <v>66301.44188743462</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -4885,7 +4885,7 @@
         <v>0</v>
       </c>
       <c r="D124">
-        <v>73688.00000000003</v>
+        <v>96225.99999999993</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -4899,7 +4899,7 @@
         <v>0</v>
       </c>
       <c r="D125">
-        <v>77405.99999999996</v>
+        <v>74854.00000000006</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -4913,7 +4913,7 @@
         <v>0</v>
       </c>
       <c r="D126">
-        <v>115183.9999999999</v>
+        <v>97800.00000000009</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -4927,7 +4927,7 @@
         <v>0</v>
       </c>
       <c r="D127">
-        <v>109878</v>
+        <v>88612.00000000004</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -4938,10 +4938,10 @@
         <v>129</v>
       </c>
       <c r="C128">
-        <v>23124.09399825384</v>
+        <v>2827.255108721438</v>
       </c>
       <c r="D128">
-        <v>119416.0939982538</v>
+        <v>124859.2551087215</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -4955,7 +4955,7 @@
         <v>0</v>
       </c>
       <c r="D129">
-        <v>91878.00000000003</v>
+        <v>90976</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -4966,10 +4966,10 @@
         <v>131</v>
       </c>
       <c r="C130">
-        <v>28146.34032613607</v>
+        <v>22504.00562905126</v>
       </c>
       <c r="D130">
-        <v>118738.340326136</v>
+        <v>125312.0056290513</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -4983,7 +4983,7 @@
         <v>0</v>
       </c>
       <c r="D131">
-        <v>140756.0000000001</v>
+        <v>149040.0000000001</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -4997,7 +4997,7 @@
         <v>0</v>
       </c>
       <c r="D132">
-        <v>94145.99999999993</v>
+        <v>95296.00000000009</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -5011,7 +5011,7 @@
         <v>0</v>
       </c>
       <c r="D133">
-        <v>118128</v>
+        <v>157292</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -5025,7 +5025,7 @@
         <v>0</v>
       </c>
       <c r="D134">
-        <v>93918.00000000004</v>
+        <v>86877.99999999993</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -5039,7 +5039,7 @@
         <v>0</v>
       </c>
       <c r="D135">
-        <v>97620.00000000007</v>
+        <v>93844.00000000003</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -5050,10 +5050,10 @@
         <v>137</v>
       </c>
       <c r="C136">
-        <v>0</v>
+        <v>564.8348279965867</v>
       </c>
       <c r="D136">
-        <v>177300</v>
+        <v>141814.8348279967</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -5067,7 +5067,7 @@
         <v>0</v>
       </c>
       <c r="D137">
-        <v>70865.99999999999</v>
+        <v>73136.00000000003</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -5078,10 +5078,10 @@
         <v>139</v>
       </c>
       <c r="C138">
-        <v>5173.587304073</v>
+        <v>11483.54717489369</v>
       </c>
       <c r="D138">
-        <v>66376.58730407295</v>
+        <v>66734.54717489368</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -5092,10 +5092,10 @@
         <v>140</v>
       </c>
       <c r="C139">
-        <v>16292.41420225375</v>
+        <v>9264.499694044134</v>
       </c>
       <c r="D139">
-        <v>80160.4142022538</v>
+        <v>85978.49969404413</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -5106,10 +5106,10 @@
         <v>141</v>
       </c>
       <c r="C140">
-        <v>0</v>
+        <v>18588.99964153956</v>
       </c>
       <c r="D140">
-        <v>110920</v>
+        <v>103870.9996415396</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -5123,7 +5123,7 @@
         <v>0</v>
       </c>
       <c r="D141">
-        <v>94075.99999999993</v>
+        <v>147884</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -5137,7 +5137,7 @@
         <v>0</v>
       </c>
       <c r="D142">
-        <v>111137</v>
+        <v>132953.0000000001</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -5151,7 +5151,7 @@
         <v>0</v>
       </c>
       <c r="D143">
-        <v>153960.0000000001</v>
+        <v>137268.0000000001</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -5162,10 +5162,10 @@
         <v>145</v>
       </c>
       <c r="C144">
-        <v>0</v>
+        <v>20603.9459865906</v>
       </c>
       <c r="D144">
-        <v>186135.0000000001</v>
+        <v>138748.9459865907</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -5176,10 +5176,10 @@
         <v>146</v>
       </c>
       <c r="C145">
-        <v>27195.69013154061</v>
+        <v>35715.02577801479</v>
       </c>
       <c r="D145">
-        <v>134795.6901315406</v>
+        <v>139330.0257780149</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -5193,7 +5193,7 @@
         <v>0</v>
       </c>
       <c r="D146">
-        <v>84905</v>
+        <v>108521</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -5207,7 +5207,7 @@
         <v>0</v>
       </c>
       <c r="D147">
-        <v>143639.9999999999</v>
+        <v>132592.0000000001</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -5221,7 +5221,7 @@
         <v>0</v>
       </c>
       <c r="D148">
-        <v>64734.00000000003</v>
+        <v>65884.99999999997</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -5235,7 +5235,7 @@
         <v>0</v>
       </c>
       <c r="D149">
-        <v>65506</v>
+        <v>70879.00000000004</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -5246,10 +5246,10 @@
         <v>151</v>
       </c>
       <c r="C150">
-        <v>22927.32602434252</v>
+        <v>26757.32068078662</v>
       </c>
       <c r="D150">
-        <v>134992.3260243424</v>
+        <v>140812.3206807866</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -5260,10 +5260,10 @@
         <v>152</v>
       </c>
       <c r="C151">
-        <v>3178.812856113407</v>
+        <v>10381.0548977895</v>
       </c>
       <c r="D151">
-        <v>66450.81285611339</v>
+        <v>67280.05489778949</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -5274,10 +5274,10 @@
         <v>153</v>
       </c>
       <c r="C152">
-        <v>18328.39738970823</v>
+        <v>0</v>
       </c>
       <c r="D152">
-        <v>135303.3973897082</v>
+        <v>141639.9999999999</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -5291,7 +5291,7 @@
         <v>0</v>
       </c>
       <c r="D153">
-        <v>127252.0000000001</v>
+        <v>150984</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -5302,10 +5302,10 @@
         <v>155</v>
       </c>
       <c r="C154">
-        <v>6929.16893670251</v>
+        <v>697.8646271229227</v>
       </c>
       <c r="D154">
-        <v>80223.16893670248</v>
+        <v>86469.86462712298</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -5316,10 +5316,10 @@
         <v>156</v>
       </c>
       <c r="C155">
-        <v>11150.83498468097</v>
+        <v>17539.44630559552</v>
       </c>
       <c r="D155">
-        <v>63499.83498468094</v>
+        <v>67950.44630559556</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -5333,7 +5333,7 @@
         <v>0</v>
       </c>
       <c r="D156">
-        <v>107464</v>
+        <v>85074.00000000001</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -5344,10 +5344,10 @@
         <v>158</v>
       </c>
       <c r="C157">
-        <v>8975.425662638983</v>
+        <v>1583.437429937971</v>
       </c>
       <c r="D157">
-        <v>66559.42566263903</v>
+        <v>64221.43742993803</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -5361,7 +5361,7 @@
         <v>0</v>
       </c>
       <c r="D158">
-        <v>195680.0000000001</v>
+        <v>177330</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -5375,7 +5375,7 @@
         <v>0</v>
       </c>
       <c r="D159">
-        <v>61745.00000000002</v>
+        <v>79157.99999999999</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -5389,7 +5389,7 @@
         <v>0</v>
       </c>
       <c r="D160">
-        <v>121742.0000000001</v>
+        <v>94592.00000000003</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -5403,7 +5403,7 @@
         <v>0</v>
       </c>
       <c r="D161">
-        <v>78566.00000000006</v>
+        <v>105979.9999999999</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -5417,7 +5417,7 @@
         <v>0</v>
       </c>
       <c r="D162">
-        <v>183725</v>
+        <v>113905.0000000001</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -5428,10 +5428,10 @@
         <v>164</v>
       </c>
       <c r="C163">
-        <v>24225.96343098191</v>
+        <v>14037.5524842048</v>
       </c>
       <c r="D163">
-        <v>84663.96343098194</v>
+        <v>84973.5524842048</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -5445,7 +5445,7 @@
         <v>0</v>
       </c>
       <c r="D164">
-        <v>190540.0000000001</v>
+        <v>110310.0000000001</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -5459,7 +5459,7 @@
         <v>0</v>
       </c>
       <c r="D165">
-        <v>71051</v>
+        <v>61376.99999999998</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -5473,7 +5473,7 @@
         <v>0</v>
       </c>
       <c r="D166">
-        <v>169355.0000000001</v>
+        <v>130944.9999999999</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -5487,7 +5487,7 @@
         <v>0</v>
       </c>
       <c r="D167">
-        <v>92561.00000000007</v>
+        <v>101909.0000000001</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -5501,7 +5501,7 @@
         <v>0</v>
       </c>
       <c r="D168">
-        <v>105350</v>
+        <v>106400.0000000001</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -5515,7 +5515,7 @@
         <v>0</v>
       </c>
       <c r="D169">
-        <v>137582</v>
+        <v>110068.9999999999</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -5529,7 +5529,7 @@
         <v>0</v>
       </c>
       <c r="D170">
-        <v>103676</v>
+        <v>158863.9999999999</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -5543,7 +5543,7 @@
         <v>0</v>
       </c>
       <c r="D171">
-        <v>152547.9999999999</v>
+        <v>135375.9999999999</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -5554,10 +5554,10 @@
         <v>173</v>
       </c>
       <c r="C172">
-        <v>25428.57577120469</v>
+        <v>0</v>
       </c>
       <c r="D172">
-        <v>118696.5757712047</v>
+        <v>141744</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -5571,7 +5571,7 @@
         <v>0</v>
       </c>
       <c r="D173">
-        <v>149970.0000000001</v>
+        <v>105200</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -5585,7 +5585,7 @@
         <v>0</v>
       </c>
       <c r="D174">
-        <v>179214.9999999999</v>
+        <v>105840</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -5599,7 +5599,7 @@
         <v>0</v>
       </c>
       <c r="D175">
-        <v>112291.9999999999</v>
+        <v>168716</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -5613,7 +5613,7 @@
         <v>0</v>
       </c>
       <c r="D176">
-        <v>76594.99999999999</v>
+        <v>74799.00000000004</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -5624,10 +5624,10 @@
         <v>178</v>
       </c>
       <c r="C177">
-        <v>7365.235237358444</v>
+        <v>330.091616936159</v>
       </c>
       <c r="D177">
-        <v>84693.23523735847</v>
+        <v>84030.09161693613</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -5641,7 +5641,7 @@
         <v>0</v>
       </c>
       <c r="D178">
-        <v>88718.00000000007</v>
+        <v>98533.99999999999</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -5655,7 +5655,7 @@
         <v>0</v>
       </c>
       <c r="D179">
-        <v>102317</v>
+        <v>136607.0000000001</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -5666,10 +5666,10 @@
         <v>181</v>
       </c>
       <c r="C180">
-        <v>0</v>
+        <v>11314.75628219648</v>
       </c>
       <c r="D180">
-        <v>86758.00000000006</v>
+        <v>86380.75628219648</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -5683,7 +5683,7 @@
         <v>0</v>
       </c>
       <c r="D181">
-        <v>73661.00000000003</v>
+        <v>61471.99999999999</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -5694,10 +5694,10 @@
         <v>183</v>
       </c>
       <c r="C182">
-        <v>19335.39032646715</v>
+        <v>0</v>
       </c>
       <c r="D182">
-        <v>103348.3903264671</v>
+        <v>105024.9999999999</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -5711,7 +5711,7 @@
         <v>0</v>
       </c>
       <c r="D183">
-        <v>118305</v>
+        <v>110909.9999999999</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -5722,10 +5722,10 @@
         <v>185</v>
       </c>
       <c r="C184">
-        <v>42533.24283291542</v>
+        <v>17021.58762207546</v>
       </c>
       <c r="D184">
-        <v>137523.2428329155</v>
+        <v>140191.5876220754</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -5736,10 +5736,10 @@
         <v>186</v>
       </c>
       <c r="C185">
-        <v>0</v>
+        <v>3639.280738253219</v>
       </c>
       <c r="D185">
-        <v>68323.99999999997</v>
+        <v>64559.28073825326</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -5750,10 +5750,10 @@
         <v>187</v>
       </c>
       <c r="C186">
-        <v>5760.892196780442</v>
+        <v>14441.02069087005</v>
       </c>
       <c r="D186">
-        <v>63327.89219678041</v>
+        <v>66636.02069087008</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -5767,7 +5767,7 @@
         <v>0</v>
       </c>
       <c r="D187">
-        <v>106633.9999999999</v>
+        <v>86557.99999999993</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -5781,7 +5781,7 @@
         <v>0</v>
       </c>
       <c r="D188">
-        <v>78182.99999999999</v>
+        <v>70672.99999999996</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -5795,7 +5795,7 @@
         <v>0</v>
       </c>
       <c r="D189">
-        <v>94580.00000000006</v>
+        <v>75030.00000000006</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -5806,10 +5806,10 @@
         <v>191</v>
       </c>
       <c r="C190">
-        <v>25832.16143772364</v>
+        <v>0</v>
       </c>
       <c r="D190">
-        <v>98151.16143772364</v>
+        <v>120505</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -5820,10 +5820,10 @@
         <v>192</v>
       </c>
       <c r="C191">
-        <v>0</v>
+        <v>2133.891689010736</v>
       </c>
       <c r="D191">
-        <v>65496</v>
+        <v>67839.89168901078</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -5837,7 +5837,7 @@
         <v>0</v>
       </c>
       <c r="D192">
-        <v>111620</v>
+        <v>96263.00000000001</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -5851,7 +5851,7 @@
         <v>0</v>
       </c>
       <c r="D193">
-        <v>96319.99999999994</v>
+        <v>102707.0000000001</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -5862,10 +5862,10 @@
         <v>195</v>
       </c>
       <c r="C194">
-        <v>20815.85557385864</v>
+        <v>6346.756282196511</v>
       </c>
       <c r="D194">
-        <v>80977.85557385869</v>
+        <v>86380.75628219648</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -5879,7 +5879,7 @@
         <v>0</v>
       </c>
       <c r="D195">
-        <v>113764</v>
+        <v>107335</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -5890,10 +5890,10 @@
         <v>197</v>
       </c>
       <c r="C196">
-        <v>0</v>
+        <v>35053.12445754054</v>
       </c>
       <c r="D196">
-        <v>117055</v>
+        <v>105107.1244575405</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -5907,7 +5907,7 @@
         <v>0</v>
       </c>
       <c r="D197">
-        <v>108242</v>
+        <v>100966.9999999999</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -5918,10 +5918,10 @@
         <v>199</v>
       </c>
       <c r="C198">
-        <v>41903.53514960149</v>
+        <v>0</v>
       </c>
       <c r="D198">
-        <v>122263.5351496016</v>
+        <v>138700</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -5935,7 +5935,7 @@
         <v>0</v>
       </c>
       <c r="D199">
-        <v>108975</v>
+        <v>128060.0000000001</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -5949,7 +5949,7 @@
         <v>0</v>
       </c>
       <c r="D200">
-        <v>171640.0000000001</v>
+        <v>164855</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -5963,7 +5963,7 @@
         <v>0</v>
       </c>
       <c r="D201">
-        <v>129083</v>
+        <v>102680</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -5977,7 +5977,7 @@
         <v>0</v>
       </c>
       <c r="D202">
-        <v>127075.0000000001</v>
+        <v>152325</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -5988,10 +5988,10 @@
         <v>204</v>
       </c>
       <c r="C203">
-        <v>5825.925495694697</v>
+        <v>10359.37881684753</v>
       </c>
       <c r="D203">
-        <v>81347.92549569471</v>
+        <v>84217.37881684757</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -6005,7 +6005,7 @@
         <v>0</v>
       </c>
       <c r="D204">
-        <v>90524.00000000001</v>
+        <v>168452</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -6019,7 +6019,7 @@
         <v>0</v>
       </c>
       <c r="D205">
-        <v>92013.99999999997</v>
+        <v>91764</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -6033,7 +6033,7 @@
         <v>0</v>
       </c>
       <c r="D206">
-        <v>77859.99999999999</v>
+        <v>60424.00000000002</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -6047,7 +6047,7 @@
         <v>0</v>
       </c>
       <c r="D207">
-        <v>64109.00000000003</v>
+        <v>66246.99999999996</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -6058,10 +6058,10 @@
         <v>209</v>
       </c>
       <c r="C208">
-        <v>0</v>
+        <v>4505.286828514116</v>
       </c>
       <c r="D208">
-        <v>69861</v>
+        <v>66545.2868285141</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -6075,7 +6075,7 @@
         <v>0</v>
       </c>
       <c r="D209">
-        <v>135287.9999999999</v>
+        <v>141251.9999999999</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -6089,7 +6089,7 @@
         <v>0</v>
       </c>
       <c r="D210">
-        <v>86388.00000000001</v>
+        <v>77310.00000000003</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -6100,10 +6100,10 @@
         <v>212</v>
       </c>
       <c r="C211">
-        <v>36189.1737667455</v>
+        <v>36338.00830802447</v>
       </c>
       <c r="D211">
-        <v>125105.1737667455</v>
+        <v>124638.0083080245</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -6114,10 +6114,10 @@
         <v>213</v>
       </c>
       <c r="C212">
-        <v>3680.580476537507</v>
+        <v>3583.62607146769</v>
       </c>
       <c r="D212">
-        <v>80042.58047653757</v>
+        <v>85073.62607146765</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -6131,7 +6131,7 @@
         <v>0</v>
       </c>
       <c r="D213">
-        <v>144831.9999999999</v>
+        <v>169796.0000000001</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -6142,10 +6142,10 @@
         <v>215</v>
       </c>
       <c r="C214">
-        <v>1978.651813547156</v>
+        <v>12207.61149371378</v>
       </c>
       <c r="D214">
-        <v>81096.6518135472</v>
+        <v>87299.61149371379</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -6159,7 +6159,7 @@
         <v>0</v>
       </c>
       <c r="D215">
-        <v>168140.0000000001</v>
+        <v>152614.9999999999</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -6170,10 +6170,10 @@
         <v>217</v>
       </c>
       <c r="C216">
-        <v>0</v>
+        <v>25108.05794442166</v>
       </c>
       <c r="D216">
-        <v>181189.9999999999</v>
+        <v>144848.0579444217</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -6184,10 +6184,10 @@
         <v>218</v>
       </c>
       <c r="C217">
-        <v>0</v>
+        <v>53649.28534534528</v>
       </c>
       <c r="D217">
-        <v>152550.0000000001</v>
+        <v>145429.2853453453</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -6201,7 +6201,7 @@
         <v>0</v>
       </c>
       <c r="D218">
-        <v>111332</v>
+        <v>118491.9999999999</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -6215,7 +6215,7 @@
         <v>0</v>
       </c>
       <c r="D219">
-        <v>114125</v>
+        <v>112996.9999999999</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -6229,7 +6229,7 @@
         <v>0</v>
       </c>
       <c r="D220">
-        <v>101152.0000000001</v>
+        <v>137548.0000000001</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -6243,7 +6243,7 @@
         <v>0</v>
       </c>
       <c r="D221">
-        <v>74103.00000000006</v>
+        <v>72429.99999999999</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -6257,7 +6257,7 @@
         <v>0</v>
       </c>
       <c r="D222">
-        <v>153843.9999999999</v>
+        <v>138672.0000000001</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -6268,10 +6268,10 @@
         <v>224</v>
       </c>
       <c r="C223">
-        <v>38010.17117918059</v>
+        <v>27911.8893072724</v>
       </c>
       <c r="D223">
-        <v>124494.1711791805</v>
+        <v>127527.8893072725</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -6282,10 +6282,10 @@
         <v>225</v>
       </c>
       <c r="C224">
-        <v>8729.011101423253</v>
+        <v>22227.9524912898</v>
       </c>
       <c r="D224">
-        <v>83223.01110142325</v>
+        <v>83265.95249128981</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -6299,7 +6299,7 @@
         <v>0</v>
       </c>
       <c r="D225">
-        <v>125642.0000000001</v>
+        <v>127709.0000000001</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -6310,10 +6310,10 @@
         <v>227</v>
       </c>
       <c r="C226">
-        <v>6390.214977144948</v>
+        <v>0</v>
       </c>
       <c r="D226">
-        <v>63128.21497714499</v>
+        <v>68746</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -6324,10 +6324,10 @@
         <v>228</v>
       </c>
       <c r="C227">
-        <v>8059.909124536847</v>
+        <v>0</v>
       </c>
       <c r="D227">
-        <v>80703.90912453683</v>
+        <v>93952.00000000001</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -6338,10 +6338,10 @@
         <v>229</v>
       </c>
       <c r="C228">
-        <v>0</v>
+        <v>41999.38786823828</v>
       </c>
       <c r="D228">
-        <v>145955.9999999999</v>
+        <v>128623.3878682383</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -6355,7 +6355,7 @@
         <v>0</v>
       </c>
       <c r="D229">
-        <v>120580</v>
+        <v>111571</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -6369,7 +6369,7 @@
         <v>0</v>
       </c>
       <c r="D230">
-        <v>83291</v>
+        <v>113701.9999999999</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -6383,7 +6383,7 @@
         <v>0</v>
       </c>
       <c r="D231">
-        <v>89573.99999999993</v>
+        <v>80887.99999999994</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -6397,7 +6397,7 @@
         <v>0</v>
       </c>
       <c r="D232">
-        <v>97495.99999999994</v>
+        <v>88522.00000000006</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -6411,7 +6411,7 @@
         <v>0</v>
       </c>
       <c r="D233">
-        <v>156895</v>
+        <v>150315.0000000001</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -6425,7 +6425,7 @@
         <v>0</v>
       </c>
       <c r="D234">
-        <v>177050.0000000001</v>
+        <v>131964.9999999999</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -6436,10 +6436,10 @@
         <v>236</v>
       </c>
       <c r="C235">
-        <v>0</v>
+        <v>19476.38958921644</v>
       </c>
       <c r="D235">
-        <v>89703.99999999993</v>
+        <v>84080.38958921646</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -6450,10 +6450,10 @@
         <v>237</v>
       </c>
       <c r="C236">
-        <v>36545.39458057738</v>
+        <v>13222.0606257566</v>
       </c>
       <c r="D236">
-        <v>139795.3945805775</v>
+        <v>139007.0606257567</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -6467,7 +6467,7 @@
         <v>0</v>
       </c>
       <c r="D237">
-        <v>105037.9999999999</v>
+        <v>86062.00000000004</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -6481,7 +6481,7 @@
         <v>0</v>
       </c>
       <c r="D238">
-        <v>152149.9999999999</v>
+        <v>163429.9999999999</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -6495,7 +6495,7 @@
         <v>0</v>
       </c>
       <c r="D239">
-        <v>95131.99999999999</v>
+        <v>89755.99999999999</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -6509,7 +6509,7 @@
         <v>0</v>
       </c>
       <c r="D240">
-        <v>68047.00000000004</v>
+        <v>69813.00000000003</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -6520,10 +6520,10 @@
         <v>242</v>
       </c>
       <c r="C241">
-        <v>42463.16840249543</v>
+        <v>0</v>
       </c>
       <c r="D241">
-        <v>124539.1684024954</v>
+        <v>155023.9999999999</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -6537,7 +6537,7 @@
         <v>0</v>
       </c>
       <c r="D242">
-        <v>109872.0000000001</v>
+        <v>104812</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -6551,7 +6551,7 @@
         <v>0</v>
       </c>
       <c r="D243">
-        <v>114569.0000000001</v>
+        <v>85889.00000000006</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -6562,10 +6562,10 @@
         <v>245</v>
       </c>
       <c r="C244">
-        <v>0</v>
+        <v>12764.15675925039</v>
       </c>
       <c r="D244">
-        <v>182520.0000000001</v>
+        <v>146149.1567592505</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -6579,7 +6579,7 @@
         <v>0</v>
       </c>
       <c r="D245">
-        <v>139728</v>
+        <v>168336.0000000001</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -6593,7 +6593,7 @@
         <v>0</v>
       </c>
       <c r="D246">
-        <v>75608.99999999999</v>
+        <v>66978.99999999994</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -6604,10 +6604,10 @@
         <v>248</v>
       </c>
       <c r="C247">
-        <v>10884.50216573276</v>
+        <v>0</v>
       </c>
       <c r="D247">
-        <v>66574.50216573275</v>
+        <v>64377.99999999999</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -6618,10 +6618,10 @@
         <v>249</v>
       </c>
       <c r="C248">
-        <v>7832.860734128757</v>
+        <v>9642.000925811946</v>
       </c>
       <c r="D248">
-        <v>63077.86073412871</v>
+        <v>65845.00092581198</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -6635,7 +6635,7 @@
         <v>0</v>
       </c>
       <c r="D249">
-        <v>198315.0000000002</v>
+        <v>142920.0000000001</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -6649,7 +6649,7 @@
         <v>0</v>
       </c>
       <c r="D250">
-        <v>124990</v>
+        <v>111430</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -6663,7 +6663,7 @@
         <v>0</v>
       </c>
       <c r="D251">
-        <v>63280.99999999995</v>
+        <v>65324.99999999999</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -6674,10 +6674,10 @@
         <v>253</v>
       </c>
       <c r="C252">
-        <v>0</v>
+        <v>12224.0818706118</v>
       </c>
       <c r="D252">
-        <v>150779.9999999999</v>
+        <v>129148.0818706117</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -6691,7 +6691,7 @@
         <v>0</v>
       </c>
       <c r="D253">
-        <v>77645.99999999994</v>
+        <v>82898.00000000006</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -6702,10 +6702,10 @@
         <v>255</v>
       </c>
       <c r="C254">
-        <v>9410.702077567679</v>
+        <v>0</v>
       </c>
       <c r="D254">
-        <v>122278.7020775678</v>
+        <v>140019.9999999999</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -6719,7 +6719,7 @@
         <v>0</v>
       </c>
       <c r="D255">
-        <v>87948.00000000007</v>
+        <v>72369.99999999999</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -6733,7 +6733,7 @@
         <v>0</v>
       </c>
       <c r="D256">
-        <v>129732</v>
+        <v>96764.00000000001</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -6744,10 +6744,10 @@
         <v>258</v>
       </c>
       <c r="C257">
-        <v>12348.39019540579</v>
+        <v>0</v>
       </c>
       <c r="D257">
-        <v>122304.3901954057</v>
+        <v>142776.0000000001</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -6758,10 +6758,10 @@
         <v>259</v>
       </c>
       <c r="C258">
-        <v>22608.40895677998</v>
+        <v>6117.090435212376</v>
       </c>
       <c r="D258">
-        <v>118992.40895678</v>
+        <v>127265.0904352123</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -6775,7 +6775,7 @@
         <v>0</v>
       </c>
       <c r="D259">
-        <v>179255.0000000001</v>
+        <v>160170</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -6786,10 +6786,10 @@
         <v>261</v>
       </c>
       <c r="C260">
-        <v>5691.052188307294</v>
+        <v>2637.115926703751</v>
       </c>
       <c r="D260">
-        <v>63528.05218830732</v>
+        <v>68172.1159267038</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -6800,10 +6800,10 @@
         <v>262</v>
       </c>
       <c r="C261">
-        <v>0</v>
+        <v>10022.35532408846</v>
       </c>
       <c r="D261">
-        <v>89015.99999999996</v>
+        <v>84660.35532408852</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -6817,7 +6817,7 @@
         <v>0</v>
       </c>
       <c r="D262">
-        <v>110185</v>
+        <v>141955</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -6831,7 +6831,7 @@
         <v>0</v>
       </c>
       <c r="D263">
-        <v>191690.0000000001</v>
+        <v>124465</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -6842,10 +6842,10 @@
         <v>265</v>
       </c>
       <c r="C264">
-        <v>7061.111936875095</v>
+        <v>14460.08032220595</v>
       </c>
       <c r="D264">
-        <v>102294.111936875</v>
+        <v>105259.080322206</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -6859,7 +6859,7 @@
         <v>0</v>
       </c>
       <c r="D265">
-        <v>104656.0000000001</v>
+        <v>112756.0000000001</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -6870,10 +6870,10 @@
         <v>267</v>
       </c>
       <c r="C266">
-        <v>9273.626080119226</v>
+        <v>0</v>
       </c>
       <c r="D266">
-        <v>134338.6260801193</v>
+        <v>187179.9999999999</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -6884,10 +6884,10 @@
         <v>268</v>
       </c>
       <c r="C267">
-        <v>7819.910441655018</v>
+        <v>0</v>
       </c>
       <c r="D267">
-        <v>63248.910441655</v>
+        <v>69229</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -6898,10 +6898,10 @@
         <v>269</v>
       </c>
       <c r="C268">
-        <v>20905.99152582136</v>
+        <v>11998.30260279895</v>
       </c>
       <c r="D268">
-        <v>83533.99152582137</v>
+        <v>86704.30260279898</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -6915,7 +6915,7 @@
         <v>0</v>
       </c>
       <c r="D269">
-        <v>134935</v>
+        <v>183785.0000000001</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -6929,7 +6929,7 @@
         <v>0</v>
       </c>
       <c r="D270">
-        <v>62646.99999999998</v>
+        <v>69476.00000000001</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -6943,7 +6943,7 @@
         <v>0</v>
       </c>
       <c r="D271">
-        <v>154952</v>
+        <v>104304</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -6954,10 +6954,10 @@
         <v>273</v>
       </c>
       <c r="C272">
-        <v>0</v>
+        <v>10883.5910226025</v>
       </c>
       <c r="D272">
-        <v>163899.9999999999</v>
+        <v>139963.5910226026</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -6968,10 +6968,10 @@
         <v>274</v>
       </c>
       <c r="C273">
-        <v>0</v>
+        <v>4010.872694872996</v>
       </c>
       <c r="D273">
-        <v>68296.99999999999</v>
+        <v>66798.87269487302</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -6982,10 +6982,10 @@
         <v>275</v>
       </c>
       <c r="C274">
-        <v>1444.652447073378</v>
+        <v>5205.582149096044</v>
       </c>
       <c r="D274">
-        <v>62738.65244707333</v>
+        <v>66704.58214909605</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -6999,7 +6999,7 @@
         <v>0</v>
       </c>
       <c r="D275">
-        <v>117385.0000000001</v>
+        <v>181379.9999999999</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -7013,7 +7013,7 @@
         <v>0</v>
       </c>
       <c r="D276">
-        <v>123292</v>
+        <v>142796</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -7027,7 +7027,7 @@
         <v>0</v>
       </c>
       <c r="D277">
-        <v>72257.99999999996</v>
+        <v>76448.00000000006</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -7041,7 +7041,7 @@
         <v>0</v>
       </c>
       <c r="D278">
-        <v>147325</v>
+        <v>173025.0000000001</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -7055,7 +7055,7 @@
         <v>0</v>
       </c>
       <c r="D279">
-        <v>148315</v>
+        <v>143414.9999999999</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -7069,7 +7069,7 @@
         <v>0</v>
       </c>
       <c r="D280">
-        <v>77165.99999999994</v>
+        <v>74311.99999999994</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -7083,7 +7083,7 @@
         <v>0</v>
       </c>
       <c r="D281">
-        <v>68148.00000000004</v>
+        <v>62094</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -7094,10 +7094,10 @@
         <v>283</v>
       </c>
       <c r="C282">
-        <v>5986.415993222472</v>
+        <v>24788.2395121033</v>
       </c>
       <c r="D282">
-        <v>99242.41599322243</v>
+        <v>104040.2395121033</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -7108,10 +7108,10 @@
         <v>284</v>
       </c>
       <c r="C283">
-        <v>29430.16345202125</v>
+        <v>0</v>
       </c>
       <c r="D283">
-        <v>102016.1634520213</v>
+        <v>123100</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -7122,10 +7122,10 @@
         <v>285</v>
       </c>
       <c r="C284">
-        <v>5866.564694132147</v>
+        <v>18578.01573665491</v>
       </c>
       <c r="D284">
-        <v>98804.56469413216</v>
+        <v>103875.015736655</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -7136,10 +7136,10 @@
         <v>286</v>
       </c>
       <c r="C285">
-        <v>17405.63186718177</v>
+        <v>4431.44410225669</v>
       </c>
       <c r="D285">
-        <v>80785.63186718171</v>
+        <v>83769.4441022567</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -7153,7 +7153,7 @@
         <v>0</v>
       </c>
       <c r="D286">
-        <v>155392</v>
+        <v>120823.9999999999</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -7164,10 +7164,10 @@
         <v>288</v>
       </c>
       <c r="C287">
-        <v>7045.011101423268</v>
+        <v>4435.952491289776</v>
       </c>
       <c r="D287">
-        <v>83223.01110142325</v>
+        <v>83265.95249128981</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -7178,10 +7178,10 @@
         <v>289</v>
       </c>
       <c r="C288">
-        <v>10184.45631117673</v>
+        <v>2866.92745601762</v>
       </c>
       <c r="D288">
-        <v>63321.45631117673</v>
+        <v>65681.92745601761</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -7195,7 +7195,7 @@
         <v>0</v>
       </c>
       <c r="D289">
-        <v>99734.00000000006</v>
+        <v>89634.00000000006</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -7209,7 +7209,7 @@
         <v>0</v>
       </c>
       <c r="D290">
-        <v>64151.00000000004</v>
+        <v>68432.00000000006</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -7223,7 +7223,7 @@
         <v>0</v>
       </c>
       <c r="D291">
-        <v>81193.99999999996</v>
+        <v>123647</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -7234,10 +7234,10 @@
         <v>293</v>
       </c>
       <c r="C292">
-        <v>20562.03104095338</v>
+        <v>10038.12404636569</v>
       </c>
       <c r="D292">
-        <v>82570.03104095338</v>
+        <v>85392.12404636567</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -7248,10 +7248,10 @@
         <v>294</v>
       </c>
       <c r="C293">
-        <v>1694.407010687995</v>
+        <v>674.6015439651819</v>
       </c>
       <c r="D293">
-        <v>118402.4070106879</v>
+        <v>126546.6015439652</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -7265,7 +7265,7 @@
         <v>0</v>
       </c>
       <c r="D294">
-        <v>95275.99999999996</v>
+        <v>99658.99999999993</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -7276,10 +7276,10 @@
         <v>296</v>
       </c>
       <c r="C295">
-        <v>0</v>
+        <v>43082.46895171535</v>
       </c>
       <c r="D295">
-        <v>154351.9999999999</v>
+        <v>128546.4689517154</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -7293,7 +7293,7 @@
         <v>0</v>
       </c>
       <c r="D296">
-        <v>107268.0000000001</v>
+        <v>113420.0000000001</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -7307,7 +7307,7 @@
         <v>0</v>
       </c>
       <c r="D297">
-        <v>178235</v>
+        <v>140139.9999999999</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -7318,10 +7318,10 @@
         <v>299</v>
       </c>
       <c r="C298">
-        <v>0</v>
+        <v>49282.56674893349</v>
       </c>
       <c r="D298">
-        <v>153235</v>
+        <v>141692.5667489334</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -7335,7 +7335,7 @@
         <v>0</v>
       </c>
       <c r="D299">
-        <v>69382</v>
+        <v>64595.99999999995</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -7346,10 +7346,10 @@
         <v>301</v>
       </c>
       <c r="C300">
-        <v>0</v>
+        <v>13691.72606005584</v>
       </c>
       <c r="D300">
-        <v>67099.00000000004</v>
+        <v>63804.72606005584</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -7363,7 +7363,7 @@
         <v>0</v>
       </c>
       <c r="D301">
-        <v>118648.0000000001</v>
+        <v>144403.9999999999</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -7374,10 +7374,10 @@
         <v>303</v>
       </c>
       <c r="C302">
-        <v>1489.036997297866</v>
+        <v>16350.37394623049</v>
       </c>
       <c r="D302">
-        <v>99185.03699729795</v>
+        <v>105037.3739462305</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -7388,10 +7388,10 @@
         <v>304</v>
       </c>
       <c r="C303">
-        <v>0</v>
+        <v>13311.82426476722</v>
       </c>
       <c r="D303">
-        <v>135892</v>
+        <v>127531.8242647672</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -7402,10 +7402,10 @@
         <v>305</v>
       </c>
       <c r="C304">
-        <v>38421.24465089849</v>
+        <v>0</v>
       </c>
       <c r="D304">
-        <v>141881.2446508984</v>
+        <v>143240</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -7419,7 +7419,7 @@
         <v>0</v>
       </c>
       <c r="D305">
-        <v>93687.99999999991</v>
+        <v>161388.0000000001</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -7430,10 +7430,10 @@
         <v>307</v>
       </c>
       <c r="C306">
-        <v>0</v>
+        <v>6398.012197937176</v>
       </c>
       <c r="D306">
-        <v>116761.0000000001</v>
+        <v>101874.0121979372</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -7447,7 +7447,7 @@
         <v>0</v>
       </c>
       <c r="D307">
-        <v>135068.0000000001</v>
+        <v>107777</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -7458,10 +7458,10 @@
         <v>309</v>
       </c>
       <c r="C308">
-        <v>0</v>
+        <v>28782.39768027612</v>
       </c>
       <c r="D308">
-        <v>103693</v>
+        <v>102289.3976802762</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -7475,7 +7475,7 @@
         <v>0</v>
       </c>
       <c r="D309">
-        <v>82510.00000000006</v>
+        <v>98388.00000000001</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -7486,10 +7486,10 @@
         <v>311</v>
       </c>
       <c r="C310">
-        <v>9569.738053766523</v>
+        <v>0</v>
       </c>
       <c r="D310">
-        <v>65326.73805376657</v>
+        <v>68796</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -7503,7 +7503,7 @@
         <v>0</v>
       </c>
       <c r="D311">
-        <v>116284.9999999999</v>
+        <v>173940.0000000001</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -7517,7 +7517,7 @@
         <v>0</v>
       </c>
       <c r="D312">
-        <v>157714.9999999999</v>
+        <v>160180</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -7528,10 +7528,10 @@
         <v>314</v>
       </c>
       <c r="C313">
-        <v>0</v>
+        <v>41399.07882322335</v>
       </c>
       <c r="D313">
-        <v>137851.9999999999</v>
+        <v>125327.0788232234</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -7545,7 +7545,7 @@
         <v>0</v>
       </c>
       <c r="D314">
-        <v>95131.99999999999</v>
+        <v>104012</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -7556,10 +7556,10 @@
         <v>316</v>
       </c>
       <c r="C315">
-        <v>524.7706991544983</v>
+        <v>15071.77072669556</v>
       </c>
       <c r="D315">
-        <v>64565.77069915451</v>
+        <v>65819.77072669557</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -7570,10 +7570,10 @@
         <v>317</v>
       </c>
       <c r="C316">
-        <v>12271.99011095861</v>
+        <v>2713.779263702898</v>
       </c>
       <c r="D316">
-        <v>66293.99011095858</v>
+        <v>66139.77926370288</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -7587,7 +7587,7 @@
         <v>0</v>
       </c>
       <c r="D317">
-        <v>114050.0000000001</v>
+        <v>189555.0000000002</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -7598,10 +7598,10 @@
         <v>319</v>
       </c>
       <c r="C318">
-        <v>0</v>
+        <v>524.2531220896926</v>
       </c>
       <c r="D318">
-        <v>186140</v>
+        <v>141584.2531220896</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -7612,10 +7612,10 @@
         <v>320</v>
       </c>
       <c r="C319">
-        <v>6147.601742928353</v>
+        <v>14110.58892053756</v>
       </c>
       <c r="D319">
-        <v>62610.60174292832</v>
+        <v>65734.5889205376</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -7629,7 +7629,7 @@
         <v>0</v>
       </c>
       <c r="D320">
-        <v>126315</v>
+        <v>150489.9999999999</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -7640,10 +7640,10 @@
         <v>322</v>
       </c>
       <c r="C321">
-        <v>18570.78182589785</v>
+        <v>0</v>
       </c>
       <c r="D321">
-        <v>125018.7818258979</v>
+        <v>134520</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -7657,7 +7657,7 @@
         <v>0</v>
       </c>
       <c r="D322">
-        <v>119930</v>
+        <v>132545</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -7671,7 +7671,7 @@
         <v>0</v>
       </c>
       <c r="D323">
-        <v>106043</v>
+        <v>86308.99999999996</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -7685,7 +7685,7 @@
         <v>0</v>
       </c>
       <c r="D324">
-        <v>141652</v>
+        <v>95636.00000000006</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -7699,7 +7699,7 @@
         <v>0</v>
       </c>
       <c r="D325">
-        <v>76649.99999999999</v>
+        <v>67444.99999999996</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -7713,7 +7713,7 @@
         <v>0</v>
       </c>
       <c r="D326">
-        <v>79271.99999999999</v>
+        <v>61860</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -7727,7 +7727,7 @@
         <v>0</v>
       </c>
       <c r="D327">
-        <v>71454.00000000001</v>
+        <v>61159.99999999996</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -7738,10 +7738,10 @@
         <v>329</v>
       </c>
       <c r="C328">
-        <v>56.60056177683146</v>
+        <v>9657.207588847064</v>
       </c>
       <c r="D328">
-        <v>64521.60056177688</v>
+        <v>65499.20758884706</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -7752,10 +7752,10 @@
         <v>330</v>
       </c>
       <c r="C329">
-        <v>15942.77754030663</v>
+        <v>0</v>
       </c>
       <c r="D329">
-        <v>81114.7775403066</v>
+        <v>90136.00000000003</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -7766,10 +7766,10 @@
         <v>331</v>
       </c>
       <c r="C330">
-        <v>0</v>
+        <v>7217.063882922928</v>
       </c>
       <c r="D330">
-        <v>155489.9999999999</v>
+        <v>139857.063882923</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -7783,7 +7783,7 @@
         <v>0</v>
       </c>
       <c r="D331">
-        <v>160223.9999999999</v>
+        <v>148988</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -7797,7 +7797,7 @@
         <v>0</v>
       </c>
       <c r="D332">
-        <v>65612.00000000004</v>
+        <v>74703.99999999994</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -7808,10 +7808,10 @@
         <v>334</v>
       </c>
       <c r="C333">
-        <v>30469.10470600729</v>
+        <v>13449.44007003747</v>
       </c>
       <c r="D333">
-        <v>102224.1047060072</v>
+        <v>104746.4400700375</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -7825,7 +7825,7 @@
         <v>0</v>
       </c>
       <c r="D334">
-        <v>87815.00000000007</v>
+        <v>86728.99999999996</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -7836,10 +7836,10 @@
         <v>336</v>
       </c>
       <c r="C335">
-        <v>10982.25199190761</v>
+        <v>1616.866935404629</v>
       </c>
       <c r="D335">
-        <v>80740.25199190757</v>
+        <v>85982.86693540463</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -7853,7 +7853,7 @@
         <v>0</v>
       </c>
       <c r="D336">
-        <v>99507.99999999994</v>
+        <v>82229.99999999999</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -7864,10 +7864,10 @@
         <v>338</v>
       </c>
       <c r="C337">
-        <v>3061.312541128966</v>
+        <v>0</v>
       </c>
       <c r="D337">
-        <v>101924.312541129</v>
+        <v>106786</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -7881,7 +7881,7 @@
         <v>0</v>
       </c>
       <c r="D338">
-        <v>138339.9999999999</v>
+        <v>184899.9999999999</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -7892,10 +7892,10 @@
         <v>340</v>
       </c>
       <c r="C339">
-        <v>7309.1322716461</v>
+        <v>0</v>
       </c>
       <c r="D339">
-        <v>85487.13227164616</v>
+        <v>87130.00000000004</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -7909,7 +7909,7 @@
         <v>0</v>
       </c>
       <c r="D340">
-        <v>60221.99999999995</v>
+        <v>60908.99999999999</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -7923,7 +7923,7 @@
         <v>0</v>
       </c>
       <c r="D341">
-        <v>74889.00000000006</v>
+        <v>67552</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -7937,7 +7937,7 @@
         <v>0</v>
       </c>
       <c r="D342">
-        <v>128248.0000000001</v>
+        <v>167648.0000000001</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -7951,7 +7951,7 @@
         <v>0</v>
       </c>
       <c r="D343">
-        <v>162385.0000000001</v>
+        <v>190490.0000000001</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -7965,7 +7965,7 @@
         <v>0</v>
       </c>
       <c r="D344">
-        <v>99034.00000000004</v>
+        <v>106094</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -7979,7 +7979,7 @@
         <v>0</v>
       </c>
       <c r="D345">
-        <v>159895.9999999999</v>
+        <v>143856.0000000001</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -7990,10 +7990,10 @@
         <v>347</v>
       </c>
       <c r="C346">
-        <v>0</v>
+        <v>17473.53750980602</v>
       </c>
       <c r="D346">
-        <v>92113.99999999999</v>
+        <v>85551.53750980597</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -8007,7 +8007,7 @@
         <v>0</v>
       </c>
       <c r="D347">
-        <v>166550.0000000001</v>
+        <v>100229.9999999999</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -8018,10 +8018,10 @@
         <v>349</v>
       </c>
       <c r="C348">
-        <v>5654.393894703084</v>
+        <v>4328.62322080852</v>
       </c>
       <c r="D348">
-        <v>63574.39389470304</v>
+        <v>64650.62322080847</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -8032,10 +8032,10 @@
         <v>350</v>
       </c>
       <c r="C349">
-        <v>12341.21713967969</v>
+        <v>0</v>
       </c>
       <c r="D349">
-        <v>102294.2171396797</v>
+        <v>116451.9999999999</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -8049,7 +8049,7 @@
         <v>0</v>
       </c>
       <c r="D350">
-        <v>156609.9999999999</v>
+        <v>180300</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -8063,7 +8063,7 @@
         <v>0</v>
       </c>
       <c r="D351">
-        <v>87542.00000000006</v>
+        <v>84580.99999999994</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -8077,7 +8077,7 @@
         <v>0</v>
       </c>
       <c r="D352">
-        <v>144635.0000000001</v>
+        <v>160570.0000000001</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -8091,7 +8091,7 @@
         <v>0</v>
       </c>
       <c r="D353">
-        <v>153968.0000000001</v>
+        <v>137139.9999999999</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -8105,7 +8105,7 @@
         <v>0</v>
       </c>
       <c r="D354">
-        <v>103165</v>
+        <v>161210.0000000001</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -8119,7 +8119,7 @@
         <v>0</v>
       </c>
       <c r="D355">
-        <v>101824</v>
+        <v>158008.0000000001</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -8130,10 +8130,10 @@
         <v>357</v>
       </c>
       <c r="C356">
-        <v>9513.483749067978</v>
+        <v>0</v>
       </c>
       <c r="D356">
-        <v>82429.48374906795</v>
+        <v>99525.99999999999</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -8147,7 +8147,7 @@
         <v>0</v>
       </c>
       <c r="D357">
-        <v>80850.00000000001</v>
+        <v>71104</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -8158,10 +8158,10 @@
         <v>359</v>
       </c>
       <c r="C358">
-        <v>10077.30420223744</v>
+        <v>0</v>
       </c>
       <c r="D358">
-        <v>98872.30420223744</v>
+        <v>106491.9999999999</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -8175,7 +8175,7 @@
         <v>0</v>
       </c>
       <c r="D359">
-        <v>118931.9999999999</v>
+        <v>163688.0000000001</v>
       </c>
     </row>
     <row r="360" spans="1:4">
@@ -8189,7 +8189,7 @@
         <v>0</v>
       </c>
       <c r="D360">
-        <v>69562.99999999996</v>
+        <v>76213</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -8203,7 +8203,7 @@
         <v>0</v>
       </c>
       <c r="D361">
-        <v>108994</v>
+        <v>102190</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -8217,7 +8217,7 @@
         <v>0</v>
       </c>
       <c r="D362">
-        <v>138122.0000000001</v>
+        <v>117473.0000000001</v>
       </c>
     </row>
     <row r="363" spans="1:4">
@@ -8228,10 +8228,10 @@
         <v>364</v>
       </c>
       <c r="C363">
-        <v>0</v>
+        <v>7612.566748933372</v>
       </c>
       <c r="D363">
-        <v>189289.9999999999</v>
+        <v>141692.5667489334</v>
       </c>
     </row>
     <row r="364" spans="1:4">
@@ -8242,10 +8242,10 @@
         <v>365</v>
       </c>
       <c r="C364">
-        <v>13285.92238238025</v>
+        <v>0</v>
       </c>
       <c r="D364">
-        <v>80593.92238238022</v>
+        <v>97733.99999999991</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -8259,7 +8259,7 @@
         <v>0</v>
       </c>
       <c r="D365">
-        <v>60828.00000000001</v>
+        <v>63897.00000000001</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -8273,7 +8273,7 @@
         <v>0</v>
       </c>
       <c r="D366">
-        <v>127128.0000000001</v>
+        <v>141092</v>
       </c>
     </row>
     <row r="367" spans="1:4">
@@ -8287,7 +8287,7 @@
         <v>0</v>
       </c>
       <c r="D367">
-        <v>92182.00000000006</v>
+        <v>103740</v>
       </c>
     </row>
     <row r="368" spans="1:4">
@@ -8301,7 +8301,7 @@
         <v>0</v>
       </c>
       <c r="D368">
-        <v>67527.00000000001</v>
+        <v>78520</v>
       </c>
     </row>
     <row r="369" spans="1:4">
@@ -8312,10 +8312,10 @@
         <v>370</v>
       </c>
       <c r="C369">
-        <v>7035.489516894144</v>
+        <v>0</v>
       </c>
       <c r="D369">
-        <v>98284.48951689414</v>
+        <v>114051.9999999999</v>
       </c>
     </row>
     <row r="370" spans="1:4">
@@ -8329,7 +8329,7 @@
         <v>0</v>
       </c>
       <c r="D370">
-        <v>84521</v>
+        <v>116314.9999999999</v>
       </c>
     </row>
     <row r="371" spans="1:4">
@@ -8343,7 +8343,7 @@
         <v>0</v>
       </c>
       <c r="D371">
-        <v>139630.0000000001</v>
+        <v>102510</v>
       </c>
     </row>
     <row r="372" spans="1:4">
@@ -8357,7 +8357,7 @@
         <v>0</v>
       </c>
       <c r="D372">
-        <v>120799.0000000001</v>
+        <v>120559.0000000001</v>
       </c>
     </row>
     <row r="373" spans="1:4">
@@ -8371,7 +8371,7 @@
         <v>0</v>
       </c>
       <c r="D373">
-        <v>70701.99999999996</v>
+        <v>76066.99999999994</v>
       </c>
     </row>
     <row r="374" spans="1:4">
@@ -8385,7 +8385,7 @@
         <v>0</v>
       </c>
       <c r="D374">
-        <v>96094.00000000009</v>
+        <v>79675.99999999997</v>
       </c>
     </row>
     <row r="375" spans="1:4">
@@ -8396,10 +8396,10 @@
         <v>376</v>
       </c>
       <c r="C375">
-        <v>4654.855197430254</v>
+        <v>22513.0973098828</v>
       </c>
       <c r="D375">
-        <v>101135.8551974303</v>
+        <v>103835.0973098828</v>
       </c>
     </row>
     <row r="376" spans="1:4">
@@ -8410,10 +8410,10 @@
         <v>377</v>
       </c>
       <c r="C376">
-        <v>32539.88503415874</v>
+        <v>9615.917151938847</v>
       </c>
       <c r="D376">
-        <v>138374.8850341587</v>
+        <v>139175.9171519388</v>
       </c>
     </row>
     <row r="377" spans="1:4">
@@ -8427,7 +8427,7 @@
         <v>0</v>
       </c>
       <c r="D377">
-        <v>143009.9999999999</v>
+        <v>167100</v>
       </c>
     </row>
     <row r="378" spans="1:4">
@@ -8441,7 +8441,7 @@
         <v>0</v>
       </c>
       <c r="D378">
-        <v>72418</v>
+        <v>67949.00000000003</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -8455,7 +8455,7 @@
         <v>0</v>
       </c>
       <c r="D379">
-        <v>130088</v>
+        <v>133996</v>
       </c>
     </row>
     <row r="380" spans="1:4">
@@ -8469,7 +8469,7 @@
         <v>0</v>
       </c>
       <c r="D380">
-        <v>65501.99999999996</v>
+        <v>60566.99999999998</v>
       </c>
     </row>
     <row r="381" spans="1:4">
@@ -8480,10 +8480,10 @@
         <v>382</v>
       </c>
       <c r="C381">
-        <v>23788.1984983641</v>
+        <v>38335.31335222385</v>
       </c>
       <c r="D381">
-        <v>123212.1984983641</v>
+        <v>125531.3133522238</v>
       </c>
     </row>
     <row r="382" spans="1:4">
@@ -8497,7 +8497,7 @@
         <v>0</v>
       </c>
       <c r="D382">
-        <v>63125.99999999999</v>
+        <v>68986.99999999994</v>
       </c>
     </row>
     <row r="383" spans="1:4">
@@ -8511,7 +8511,7 @@
         <v>0</v>
       </c>
       <c r="D383">
-        <v>76293.00000000003</v>
+        <v>64435.99999999996</v>
       </c>
     </row>
     <row r="384" spans="1:4">
@@ -8522,10 +8522,10 @@
         <v>385</v>
       </c>
       <c r="C384">
-        <v>24493.21008213193</v>
+        <v>0</v>
       </c>
       <c r="D384">
-        <v>102761.210082132</v>
+        <v>116719.0000000001</v>
       </c>
     </row>
     <row r="385" spans="1:4">
@@ -8539,7 +8539,7 @@
         <v>0</v>
       </c>
       <c r="D385">
-        <v>98126.00000000006</v>
+        <v>103474.0000000001</v>
       </c>
     </row>
     <row r="386" spans="1:4">
@@ -8553,7 +8553,7 @@
         <v>0</v>
       </c>
       <c r="D386">
-        <v>169529.9999999999</v>
+        <v>172925</v>
       </c>
     </row>
     <row r="387" spans="1:4">
@@ -8567,7 +8567,7 @@
         <v>0</v>
       </c>
       <c r="D387">
-        <v>148530</v>
+        <v>138124.9999999999</v>
       </c>
     </row>
     <row r="388" spans="1:4">
@@ -8581,7 +8581,7 @@
         <v>0</v>
       </c>
       <c r="D388">
-        <v>100988</v>
+        <v>136030.9999999999</v>
       </c>
     </row>
     <row r="389" spans="1:4">
@@ -8595,7 +8595,7 @@
         <v>0</v>
       </c>
       <c r="D389">
-        <v>90040.00000000004</v>
+        <v>99782.00000000007</v>
       </c>
     </row>
     <row r="390" spans="1:4">
@@ -8606,10 +8606,10 @@
         <v>391</v>
       </c>
       <c r="C390">
-        <v>4594.5713198577</v>
+        <v>11114.94445859105</v>
       </c>
       <c r="D390">
-        <v>82410.57131985773</v>
+        <v>84218.944458591</v>
       </c>
     </row>
     <row r="391" spans="1:4">
@@ -8623,7 +8623,7 @@
         <v>0</v>
       </c>
       <c r="D391">
-        <v>108199.9999999999</v>
+        <v>182520.0000000001</v>
       </c>
     </row>
     <row r="392" spans="1:4">
@@ -8637,7 +8637,7 @@
         <v>0</v>
       </c>
       <c r="D392">
-        <v>161755</v>
+        <v>129130.0000000001</v>
       </c>
     </row>
     <row r="393" spans="1:4">
@@ -8651,7 +8651,7 @@
         <v>0</v>
       </c>
       <c r="D393">
-        <v>74203</v>
+        <v>65447.00000000004</v>
       </c>
     </row>
     <row r="394" spans="1:4">
@@ -8665,7 +8665,7 @@
         <v>0</v>
       </c>
       <c r="D394">
-        <v>75246.00000000006</v>
+        <v>85881.99999999999</v>
       </c>
     </row>
     <row r="395" spans="1:4">
@@ -8676,10 +8676,10 @@
         <v>396</v>
       </c>
       <c r="C395">
-        <v>2308.39912380492</v>
+        <v>6379.194345517608</v>
       </c>
       <c r="D395">
-        <v>65514.39912380494</v>
+        <v>64419.19434551763</v>
       </c>
     </row>
     <row r="396" spans="1:4">
@@ -8693,7 +8693,7 @@
         <v>0</v>
       </c>
       <c r="D396">
-        <v>102239.9999999999</v>
+        <v>146483.9999999999</v>
       </c>
     </row>
     <row r="397" spans="1:4">
@@ -8704,10 +8704,10 @@
         <v>398</v>
       </c>
       <c r="C397">
-        <v>2457.724243529054</v>
+        <v>0</v>
       </c>
       <c r="D397">
-        <v>101329.724243529</v>
+        <v>122008.0000000001</v>
       </c>
     </row>
     <row r="398" spans="1:4">
@@ -8718,10 +8718,10 @@
         <v>399</v>
       </c>
       <c r="C398">
-        <v>0</v>
+        <v>34927.07222017131</v>
       </c>
       <c r="D398">
-        <v>102727</v>
+        <v>107546.0722201714</v>
       </c>
     </row>
     <row r="399" spans="1:4">
@@ -8735,7 +8735,7 @@
         <v>0</v>
       </c>
       <c r="D399">
-        <v>162560</v>
+        <v>111916</v>
       </c>
     </row>
     <row r="400" spans="1:4">
@@ -8749,7 +8749,7 @@
         <v>0</v>
       </c>
       <c r="D400">
-        <v>127960</v>
+        <v>149395</v>
       </c>
     </row>
     <row r="401" spans="1:4">
@@ -8763,7 +8763,7 @@
         <v>0</v>
       </c>
       <c r="D401">
-        <v>77864.99999999993</v>
+        <v>73269</v>
       </c>
     </row>
     <row r="402" spans="1:4">
@@ -8774,10 +8774,10 @@
         <v>403</v>
       </c>
       <c r="C402">
-        <v>22305.14658190789</v>
+        <v>2732.38576393656</v>
       </c>
       <c r="D402">
-        <v>99466.14658190795</v>
+        <v>107196.3857639365</v>
       </c>
     </row>
     <row r="403" spans="1:4">
@@ -8791,7 +8791,7 @@
         <v>0</v>
       </c>
       <c r="D403">
-        <v>65699.00000000001</v>
+        <v>70489.99999999999</v>
       </c>
     </row>
     <row r="404" spans="1:4">
@@ -8802,10 +8802,10 @@
         <v>405</v>
       </c>
       <c r="C404">
-        <v>1198.589529971359</v>
+        <v>4028.684289578261</v>
       </c>
       <c r="D404">
-        <v>63478.58952997133</v>
+        <v>67784.68428957822</v>
       </c>
     </row>
     <row r="405" spans="1:4">
@@ -8819,7 +8819,7 @@
         <v>0</v>
       </c>
       <c r="D405">
-        <v>128350</v>
+        <v>126774.9999999999</v>
       </c>
     </row>
     <row r="406" spans="1:4">
@@ -8830,10 +8830,10 @@
         <v>407</v>
       </c>
       <c r="C406">
-        <v>21576.71164786289</v>
+        <v>0</v>
       </c>
       <c r="D406">
-        <v>123184.7116478629</v>
+        <v>128480</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -8844,10 +8844,10 @@
         <v>408</v>
       </c>
       <c r="C407">
-        <v>7882.322003908397</v>
+        <v>0</v>
       </c>
       <c r="D407">
-        <v>122362.3220039084</v>
+        <v>128311.9999999999</v>
       </c>
     </row>
     <row r="408" spans="1:4">
@@ -8861,7 +8861,7 @@
         <v>0</v>
       </c>
       <c r="D408">
-        <v>95273</v>
+        <v>111176</v>
       </c>
     </row>
     <row r="409" spans="1:4">
@@ -8875,7 +8875,7 @@
         <v>0</v>
       </c>
       <c r="D409">
-        <v>75879.99999999999</v>
+        <v>85929.99999999994</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -8886,10 +8886,10 @@
         <v>411</v>
       </c>
       <c r="C410">
-        <v>0</v>
+        <v>5340.646918483442</v>
       </c>
       <c r="D410">
-        <v>82924</v>
+        <v>85322.64691848343</v>
       </c>
     </row>
     <row r="411" spans="1:4">
@@ -8903,7 +8903,7 @@
         <v>0</v>
       </c>
       <c r="D411">
-        <v>168411.9999999999</v>
+        <v>109195.9999999999</v>
       </c>
     </row>
     <row r="412" spans="1:4">
@@ -8914,10 +8914,10 @@
         <v>413</v>
       </c>
       <c r="C412">
-        <v>0</v>
+        <v>5656.987822172494</v>
       </c>
       <c r="D412">
-        <v>123090.9999999999</v>
+        <v>105923.9878221726</v>
       </c>
     </row>
     <row r="413" spans="1:4">
@@ -8931,7 +8931,7 @@
         <v>0</v>
       </c>
       <c r="D413">
-        <v>103112.0000000001</v>
+        <v>128438</v>
       </c>
     </row>
     <row r="414" spans="1:4">
@@ -8942,10 +8942,10 @@
         <v>415</v>
       </c>
       <c r="C414">
-        <v>47902.20291448399</v>
+        <v>0</v>
       </c>
       <c r="D414">
-        <v>140807.202914484</v>
+        <v>180024.9999999999</v>
       </c>
     </row>
     <row r="415" spans="1:4">
@@ -8959,7 +8959,7 @@
         <v>0</v>
       </c>
       <c r="D415">
-        <v>96584.00000000007</v>
+        <v>98261.99999999996</v>
       </c>
     </row>
     <row r="416" spans="1:4">
@@ -8973,7 +8973,7 @@
         <v>0</v>
       </c>
       <c r="D416">
-        <v>164367.9999999999</v>
+        <v>111059.9999999999</v>
       </c>
     </row>
     <row r="417" spans="1:4">
@@ -8987,7 +8987,7 @@
         <v>0</v>
       </c>
       <c r="D417">
-        <v>101623.9999999999</v>
+        <v>89692.00000000001</v>
       </c>
     </row>
     <row r="418" spans="1:4">
@@ -9001,7 +9001,7 @@
         <v>0</v>
       </c>
       <c r="D418">
-        <v>76240.00000000001</v>
+        <v>70156.99999999994</v>
       </c>
     </row>
     <row r="419" spans="1:4">
@@ -9015,7 +9015,7 @@
         <v>0</v>
       </c>
       <c r="D419">
-        <v>126599.9999999999</v>
+        <v>148600.0000000001</v>
       </c>
     </row>
     <row r="420" spans="1:4">
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="D420">
-        <v>133859</v>
+        <v>113078</v>
       </c>
     </row>
     <row r="421" spans="1:4">
@@ -9043,7 +9043,7 @@
         <v>0</v>
       </c>
       <c r="D421">
-        <v>83161.99999999996</v>
+        <v>103463</v>
       </c>
     </row>
     <row r="422" spans="1:4">
@@ -9057,7 +9057,7 @@
         <v>0</v>
       </c>
       <c r="D422">
-        <v>90046.99999999993</v>
+        <v>114935</v>
       </c>
     </row>
     <row r="423" spans="1:4">
@@ -9068,10 +9068,10 @@
         <v>424</v>
       </c>
       <c r="C423">
-        <v>12020.70833274582</v>
+        <v>0</v>
       </c>
       <c r="D423">
-        <v>63385.70833274582</v>
+        <v>68006.99999999997</v>
       </c>
     </row>
     <row r="424" spans="1:4">
@@ -9085,7 +9085,7 @@
         <v>0</v>
       </c>
       <c r="D424">
-        <v>72170.00000000004</v>
+        <v>92614.00000000006</v>
       </c>
     </row>
     <row r="425" spans="1:4">
@@ -9099,7 +9099,7 @@
         <v>0</v>
       </c>
       <c r="D425">
-        <v>73889.99999999997</v>
+        <v>76915.00000000001</v>
       </c>
     </row>
     <row r="426" spans="1:4">
@@ -9110,10 +9110,10 @@
         <v>427</v>
       </c>
       <c r="C426">
-        <v>18344.1836487425</v>
+        <v>0</v>
       </c>
       <c r="D426">
-        <v>102351.1836487425</v>
+        <v>109287.9999999999</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -9127,7 +9127,7 @@
         <v>0</v>
       </c>
       <c r="D427">
-        <v>111590</v>
+        <v>91097.00000000006</v>
       </c>
     </row>
     <row r="428" spans="1:4">
@@ -9141,7 +9141,7 @@
         <v>0</v>
       </c>
       <c r="D428">
-        <v>151183.9999999999</v>
+        <v>92519.99999999996</v>
       </c>
     </row>
     <row r="429" spans="1:4">
@@ -9155,7 +9155,7 @@
         <v>0</v>
       </c>
       <c r="D429">
-        <v>76346.00000000006</v>
+        <v>79233.00000000001</v>
       </c>
     </row>
     <row r="430" spans="1:4">
@@ -9169,7 +9169,7 @@
         <v>0</v>
       </c>
       <c r="D430">
-        <v>191719.9999999999</v>
+        <v>153769.9999999999</v>
       </c>
     </row>
     <row r="431" spans="1:4">
@@ -9180,10 +9180,10 @@
         <v>432</v>
       </c>
       <c r="C431">
-        <v>0</v>
+        <v>8071.715795258293</v>
       </c>
       <c r="D431">
-        <v>177115.0000000001</v>
+        <v>142966.7157952582</v>
       </c>
     </row>
     <row r="432" spans="1:4">
@@ -9194,10 +9194,10 @@
         <v>433</v>
       </c>
       <c r="C432">
-        <v>0</v>
+        <v>31421.17016307949</v>
       </c>
       <c r="D432">
-        <v>181645.0000000001</v>
+        <v>138831.1701630794</v>
       </c>
     </row>
     <row r="433" spans="1:4">
@@ -9211,7 +9211,7 @@
         <v>0</v>
       </c>
       <c r="D433">
-        <v>156409.9999999999</v>
+        <v>157510</v>
       </c>
     </row>
     <row r="434" spans="1:4">
@@ -9222,10 +9222,10 @@
         <v>435</v>
       </c>
       <c r="C434">
-        <v>18800.81425949449</v>
+        <v>0</v>
       </c>
       <c r="D434">
-        <v>82680.81425949447</v>
+        <v>87105.99999999996</v>
       </c>
     </row>
     <row r="435" spans="1:4">
@@ -9239,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="D435">
-        <v>117600</v>
+        <v>121480</v>
       </c>
     </row>
     <row r="436" spans="1:4">
@@ -9250,10 +9250,10 @@
         <v>437</v>
       </c>
       <c r="C436">
-        <v>8742.543205685521</v>
+        <v>0</v>
       </c>
       <c r="D436">
-        <v>84934.54320568546</v>
+        <v>96958.00000000006</v>
       </c>
     </row>
     <row r="437" spans="1:4">
@@ -9267,7 +9267,7 @@
         <v>0</v>
       </c>
       <c r="D437">
-        <v>87580.00000000007</v>
+        <v>78295.99999999999</v>
       </c>
     </row>
     <row r="438" spans="1:4">
@@ -9278,10 +9278,10 @@
         <v>439</v>
       </c>
       <c r="C438">
-        <v>12688.76599151659</v>
+        <v>0</v>
       </c>
       <c r="D438">
-        <v>83382.76599151656</v>
+        <v>98218.00000000001</v>
       </c>
     </row>
     <row r="439" spans="1:4">
@@ -9292,10 +9292,10 @@
         <v>440</v>
       </c>
       <c r="C439">
-        <v>0</v>
+        <v>9386.167602201764</v>
       </c>
       <c r="D439">
-        <v>141287.9999999999</v>
+        <v>131974.1676022017</v>
       </c>
     </row>
     <row r="440" spans="1:4">
@@ -9309,7 +9309,7 @@
         <v>0</v>
       </c>
       <c r="D440">
-        <v>66945</v>
+        <v>63562.99999999995</v>
       </c>
     </row>
     <row r="441" spans="1:4">
@@ -9323,7 +9323,7 @@
         <v>0</v>
       </c>
       <c r="D441">
-        <v>76120.00000000007</v>
+        <v>78837</v>
       </c>
     </row>
     <row r="442" spans="1:4">
@@ -9337,7 +9337,7 @@
         <v>0</v>
       </c>
       <c r="D442">
-        <v>87362</v>
+        <v>122794.9999999999</v>
       </c>
     </row>
     <row r="443" spans="1:4">
@@ -9348,10 +9348,10 @@
         <v>444</v>
       </c>
       <c r="C443">
-        <v>6495.246643480001</v>
+        <v>10828.38108027028</v>
       </c>
       <c r="D443">
-        <v>104293.2466434799</v>
+        <v>105632.3810802703</v>
       </c>
     </row>
     <row r="444" spans="1:4">
@@ -9362,10 +9362,10 @@
         <v>445</v>
       </c>
       <c r="C444">
-        <v>23578.07457806756</v>
+        <v>34830.71472223148</v>
       </c>
       <c r="D444">
-        <v>122390.0745780675</v>
+        <v>125066.7147222315</v>
       </c>
     </row>
     <row r="445" spans="1:4">
@@ -9379,7 +9379,7 @@
         <v>0</v>
       </c>
       <c r="D445">
-        <v>132674.9999999999</v>
+        <v>171349.9999999999</v>
       </c>
     </row>
     <row r="446" spans="1:4">
@@ -9393,7 +9393,7 @@
         <v>0</v>
       </c>
       <c r="D446">
-        <v>129059</v>
+        <v>103820</v>
       </c>
     </row>
     <row r="447" spans="1:4">
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="D447">
-        <v>90815.99999999996</v>
+        <v>145364.0000000001</v>
       </c>
     </row>
     <row r="448" spans="1:4">
@@ -9421,7 +9421,7 @@
         <v>0</v>
       </c>
       <c r="D448">
-        <v>83939.99999999994</v>
+        <v>89380.00000000001</v>
       </c>
     </row>
     <row r="449" spans="1:4">
@@ -9432,10 +9432,10 @@
         <v>450</v>
       </c>
       <c r="C449">
-        <v>12908.1869984005</v>
+        <v>5685.47365590222</v>
       </c>
       <c r="D449">
-        <v>63178.18699840049</v>
+        <v>66599.47365590218</v>
       </c>
     </row>
     <row r="450" spans="1:4">
@@ -9449,7 +9449,7 @@
         <v>0</v>
       </c>
       <c r="D450">
-        <v>120209.0000000001</v>
+        <v>131356.9999999999</v>
       </c>
     </row>
     <row r="451" spans="1:4">
@@ -9463,7 +9463,7 @@
         <v>0</v>
       </c>
       <c r="D451">
-        <v>123410</v>
+        <v>179470</v>
       </c>
     </row>
     <row r="452" spans="1:4">
@@ -9477,7 +9477,7 @@
         <v>0</v>
       </c>
       <c r="D452">
-        <v>133519.9999999999</v>
+        <v>136591.9999999999</v>
       </c>
     </row>
     <row r="453" spans="1:4">
@@ -9491,7 +9491,7 @@
         <v>0</v>
       </c>
       <c r="D453">
-        <v>90314.00000000006</v>
+        <v>137366</v>
       </c>
     </row>
     <row r="454" spans="1:4">
@@ -9502,10 +9502,10 @@
         <v>455</v>
       </c>
       <c r="C454">
-        <v>2747.359939039983</v>
+        <v>3790.170057681418</v>
       </c>
       <c r="D454">
-        <v>65187.35993903997</v>
+        <v>64969.17005768147</v>
       </c>
     </row>
     <row r="455" spans="1:4">
@@ -9519,7 +9519,7 @@
         <v>0</v>
       </c>
       <c r="D455">
-        <v>156428</v>
+        <v>151764</v>
       </c>
     </row>
     <row r="456" spans="1:4">
@@ -9533,7 +9533,7 @@
         <v>0</v>
       </c>
       <c r="D456">
-        <v>115208.0000000001</v>
+        <v>89609.00000000007</v>
       </c>
     </row>
     <row r="457" spans="1:4">
@@ -9547,7 +9547,7 @@
         <v>0</v>
       </c>
       <c r="D457">
-        <v>106130.0000000001</v>
+        <v>92160.00000000007</v>
       </c>
     </row>
     <row r="458" spans="1:4">
@@ -9558,10 +9558,10 @@
         <v>459</v>
       </c>
       <c r="C458">
-        <v>0</v>
+        <v>9295.735860656394</v>
       </c>
       <c r="D458">
-        <v>94306.00000000006</v>
+        <v>84629.73586065639</v>
       </c>
     </row>
     <row r="459" spans="1:4">
@@ -9572,10 +9572,10 @@
         <v>460</v>
       </c>
       <c r="C459">
-        <v>6999.685928501669</v>
+        <v>1769.554241777107</v>
       </c>
       <c r="D459">
-        <v>103549.6859285016</v>
+        <v>105021.554241777</v>
       </c>
     </row>
     <row r="460" spans="1:4">
@@ -9586,10 +9586,10 @@
         <v>461</v>
       </c>
       <c r="C460">
-        <v>0</v>
+        <v>8116.471962089956</v>
       </c>
       <c r="D460">
-        <v>129904</v>
+        <v>105203.4719620899</v>
       </c>
     </row>
     <row r="461" spans="1:4">
@@ -9600,10 +9600,10 @@
         <v>462</v>
       </c>
       <c r="C461">
-        <v>6404.923047290053</v>
+        <v>3245.000984805141</v>
       </c>
       <c r="D461">
-        <v>85156.92304728998</v>
+        <v>86941.00098480508</v>
       </c>
     </row>
     <row r="462" spans="1:4">
@@ -9614,10 +9614,10 @@
         <v>463</v>
       </c>
       <c r="C462">
-        <v>0</v>
+        <v>22725.23451694744</v>
       </c>
       <c r="D462">
-        <v>151595.9999999999</v>
+        <v>125677.2345169474</v>
       </c>
     </row>
     <row r="463" spans="1:4">
@@ -9631,7 +9631,7 @@
         <v>0</v>
       </c>
       <c r="D463">
-        <v>76417.99999999993</v>
+        <v>79488.00000000006</v>
       </c>
     </row>
     <row r="464" spans="1:4">
@@ -9645,7 +9645,7 @@
         <v>0</v>
       </c>
       <c r="D464">
-        <v>143451.9999999999</v>
+        <v>130104</v>
       </c>
     </row>
     <row r="465" spans="1:4">
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="D465">
-        <v>177190</v>
+        <v>167120.0000000001</v>
       </c>
     </row>
     <row r="466" spans="1:4">
@@ -9673,7 +9673,7 @@
         <v>0</v>
       </c>
       <c r="D466">
-        <v>148519.9999999999</v>
+        <v>110028</v>
       </c>
     </row>
     <row r="467" spans="1:4">
@@ -9687,7 +9687,7 @@
         <v>0</v>
       </c>
       <c r="D467">
-        <v>115564.0000000001</v>
+        <v>155187.9999999999</v>
       </c>
     </row>
     <row r="468" spans="1:4">
@@ -9701,7 +9701,7 @@
         <v>0</v>
       </c>
       <c r="D468">
-        <v>77846.99999999997</v>
+        <v>74760.99999999994</v>
       </c>
     </row>
     <row r="469" spans="1:4">
@@ -9712,10 +9712,10 @@
         <v>470</v>
       </c>
       <c r="C469">
-        <v>39203.94162851536</v>
+        <v>21181.17998670781</v>
       </c>
       <c r="D469">
-        <v>141398.9416285154</v>
+        <v>143906.1799867079</v>
       </c>
     </row>
     <row r="470" spans="1:4">
@@ -9726,10 +9726,10 @@
         <v>471</v>
       </c>
       <c r="C470">
-        <v>13262.07014829114</v>
+        <v>10742.46473877174</v>
       </c>
       <c r="D470">
-        <v>104364.0701482912</v>
+        <v>106149.4647387718</v>
       </c>
     </row>
     <row r="471" spans="1:4">
@@ -9743,7 +9743,7 @@
         <v>0</v>
       </c>
       <c r="D471">
-        <v>155208.0000000001</v>
+        <v>114688</v>
       </c>
     </row>
     <row r="472" spans="1:4">
@@ -9757,7 +9757,7 @@
         <v>0</v>
       </c>
       <c r="D472">
-        <v>130363.9999999999</v>
+        <v>133640</v>
       </c>
     </row>
     <row r="473" spans="1:4">
@@ -9771,7 +9771,7 @@
         <v>0</v>
       </c>
       <c r="D473">
-        <v>137374.9999999999</v>
+        <v>152219.9999999999</v>
       </c>
     </row>
     <row r="474" spans="1:4">
@@ -9782,10 +9782,10 @@
         <v>475</v>
       </c>
       <c r="C474">
-        <v>7803.959429163544</v>
+        <v>39039.21492435427</v>
       </c>
       <c r="D474">
-        <v>125035.9594291635</v>
+        <v>129107.2149243543</v>
       </c>
     </row>
     <row r="475" spans="1:4">
@@ -9799,7 +9799,7 @@
         <v>0</v>
       </c>
       <c r="D475">
-        <v>93398.00000000009</v>
+        <v>102929.0000000001</v>
       </c>
     </row>
     <row r="476" spans="1:4">
@@ -9813,7 +9813,7 @@
         <v>0</v>
       </c>
       <c r="D476">
-        <v>74924.00000000001</v>
+        <v>92145.99999999997</v>
       </c>
     </row>
     <row r="477" spans="1:4">
@@ -9827,7 +9827,7 @@
         <v>0</v>
       </c>
       <c r="D477">
-        <v>77785</v>
+        <v>65719.00000000003</v>
       </c>
     </row>
     <row r="478" spans="1:4">
@@ -9841,7 +9841,7 @@
         <v>0</v>
       </c>
       <c r="D478">
-        <v>100348.0000000001</v>
+        <v>136651.9999999999</v>
       </c>
     </row>
     <row r="479" spans="1:4">
@@ -9855,7 +9855,7 @@
         <v>0</v>
       </c>
       <c r="D479">
-        <v>89336.00000000003</v>
+        <v>119663</v>
       </c>
     </row>
     <row r="480" spans="1:4">
@@ -9866,10 +9866,10 @@
         <v>481</v>
       </c>
       <c r="C480">
-        <v>3979.446345863951</v>
+        <v>4281.185748030242</v>
       </c>
       <c r="D480">
-        <v>83287.44634586392</v>
+        <v>86305.18574803026</v>
       </c>
     </row>
     <row r="481" spans="1:4">
@@ -9880,10 +9880,10 @@
         <v>482</v>
       </c>
       <c r="C481">
-        <v>9732.087279793996</v>
+        <v>14684.13889842023</v>
       </c>
       <c r="D481">
-        <v>82514.08727979405</v>
+        <v>84976.13889842021</v>
       </c>
     </row>
     <row r="482" spans="1:4">
@@ -9894,10 +9894,10 @@
         <v>483</v>
       </c>
       <c r="C482">
-        <v>9504.998466502468</v>
+        <v>0</v>
       </c>
       <c r="D482">
-        <v>84296.9984665025</v>
+        <v>99090.00000000006</v>
       </c>
     </row>
     <row r="483" spans="1:4">
@@ -9911,7 +9911,7 @@
         <v>0</v>
       </c>
       <c r="D483">
-        <v>90714</v>
+        <v>95869.99999999999</v>
       </c>
     </row>
     <row r="484" spans="1:4">
@@ -9925,7 +9925,7 @@
         <v>0</v>
       </c>
       <c r="D484">
-        <v>138023.0000000001</v>
+        <v>129983</v>
       </c>
     </row>
     <row r="485" spans="1:4">
@@ -9939,7 +9939,7 @@
         <v>0</v>
       </c>
       <c r="D485">
-        <v>108272</v>
+        <v>127092.0000000001</v>
       </c>
     </row>
     <row r="486" spans="1:4">
@@ -9953,7 +9953,7 @@
         <v>0</v>
       </c>
       <c r="D486">
-        <v>79923.00000000004</v>
+        <v>61797.00000000002</v>
       </c>
     </row>
     <row r="487" spans="1:4">
@@ -9967,7 +9967,7 @@
         <v>0</v>
       </c>
       <c r="D487">
-        <v>192669.9999999999</v>
+        <v>175659.9999999999</v>
       </c>
     </row>
     <row r="488" spans="1:4">
@@ -9981,7 +9981,7 @@
         <v>0</v>
       </c>
       <c r="D488">
-        <v>97875.99999999997</v>
+        <v>162063.9999999999</v>
       </c>
     </row>
     <row r="489" spans="1:4">
@@ -9992,10 +9992,10 @@
         <v>490</v>
       </c>
       <c r="C489">
-        <v>11644.17681874378</v>
+        <v>0</v>
       </c>
       <c r="D489">
-        <v>65171.17681874374</v>
+        <v>69326.00000000004</v>
       </c>
     </row>
     <row r="490" spans="1:4">
@@ -10009,7 +10009,7 @@
         <v>0</v>
       </c>
       <c r="D490">
-        <v>131689.9999999999</v>
+        <v>99029.00000000006</v>
       </c>
     </row>
     <row r="491" spans="1:4">
@@ -10020,10 +10020,10 @@
         <v>492</v>
       </c>
       <c r="C491">
-        <v>0</v>
+        <v>34001.54263215121</v>
       </c>
       <c r="D491">
-        <v>118771</v>
+        <v>105030.5426321512</v>
       </c>
     </row>
     <row r="492" spans="1:4">
@@ -10034,10 +10034,10 @@
         <v>493</v>
       </c>
       <c r="C492">
-        <v>26120.28908453973</v>
+        <v>0</v>
       </c>
       <c r="D492">
-        <v>142625.2890845398</v>
+        <v>142664.9999999999</v>
       </c>
     </row>
     <row r="493" spans="1:4">
@@ -10051,7 +10051,7 @@
         <v>0</v>
       </c>
       <c r="D493">
-        <v>151530.0000000001</v>
+        <v>105395.0000000001</v>
       </c>
     </row>
     <row r="494" spans="1:4">
@@ -10062,10 +10062,10 @@
         <v>495</v>
       </c>
       <c r="C494">
-        <v>10746.51799330472</v>
+        <v>40509.9418963308</v>
       </c>
       <c r="D494">
-        <v>123950.5179933048</v>
+        <v>126905.9418963308</v>
       </c>
     </row>
     <row r="495" spans="1:4">
@@ -10079,7 +10079,7 @@
         <v>0</v>
       </c>
       <c r="D495">
-        <v>120013.9999999999</v>
+        <v>101738.0000000001</v>
       </c>
     </row>
     <row r="496" spans="1:4">
@@ -10090,10 +10090,10 @@
         <v>497</v>
       </c>
       <c r="C496">
-        <v>8679.387865636949</v>
+        <v>5714.672840086831</v>
       </c>
       <c r="D496">
-        <v>81069.38786563696</v>
+        <v>87086.67284008677</v>
       </c>
     </row>
     <row r="497" spans="1:4">
@@ -10104,10 +10104,10 @@
         <v>498</v>
       </c>
       <c r="C497">
-        <v>0</v>
+        <v>1274.730756165591</v>
       </c>
       <c r="D497">
-        <v>67727.99999999996</v>
+        <v>67267.73075616555</v>
       </c>
     </row>
     <row r="498" spans="1:4">
@@ -10118,10 +10118,10 @@
         <v>499</v>
       </c>
       <c r="C498">
-        <v>0</v>
+        <v>19410.7822130841</v>
       </c>
       <c r="D498">
-        <v>90923.99999999999</v>
+        <v>84326.78221308411</v>
       </c>
     </row>
     <row r="499" spans="1:4">
@@ -10135,7 +10135,7 @@
         <v>0</v>
       </c>
       <c r="D499">
-        <v>139765.9999999999</v>
+        <v>132980</v>
       </c>
     </row>
     <row r="500" spans="1:4">
@@ -10146,10 +10146,10 @@
         <v>501</v>
       </c>
       <c r="C500">
-        <v>324.2762542025303</v>
+        <v>400.6842937915062</v>
       </c>
       <c r="D500">
-        <v>102421.2762542025</v>
+        <v>106205.6842937915</v>
       </c>
     </row>
     <row r="501" spans="1:4">
@@ -10163,7 +10163,7 @@
         <v>0</v>
       </c>
       <c r="D501">
-        <v>136019.0000000001</v>
+        <v>102935</v>
       </c>
     </row>
     <row r="502" spans="1:4">
@@ -10177,7 +10177,7 @@
         <v>0</v>
       </c>
       <c r="D502">
-        <v>75131.00000000006</v>
+        <v>77451.99999999993</v>
       </c>
     </row>
     <row r="503" spans="1:4">
@@ -10191,7 +10191,7 @@
         <v>0</v>
       </c>
       <c r="D503">
-        <v>70386.00000000001</v>
+        <v>79611.99999999993</v>
       </c>
     </row>
     <row r="504" spans="1:4">
@@ -10205,7 +10205,7 @@
         <v>0</v>
       </c>
       <c r="D504">
-        <v>62121.00000000005</v>
+        <v>66392.99999999997</v>
       </c>
     </row>
     <row r="505" spans="1:4">
@@ -10219,7 +10219,7 @@
         <v>0</v>
       </c>
       <c r="D505">
-        <v>122161</v>
+        <v>115582</v>
       </c>
     </row>
     <row r="506" spans="1:4">
@@ -10233,7 +10233,7 @@
         <v>0</v>
       </c>
       <c r="D506">
-        <v>101900</v>
+        <v>87953.99999999994</v>
       </c>
     </row>
     <row r="507" spans="1:4">
@@ -10247,7 +10247,7 @@
         <v>0</v>
       </c>
       <c r="D507">
-        <v>94759.99999999996</v>
+        <v>133913.0000000001</v>
       </c>
     </row>
     <row r="508" spans="1:4">
@@ -10261,7 +10261,7 @@
         <v>0</v>
       </c>
       <c r="D508">
-        <v>66435</v>
+        <v>77181.00000000003</v>
       </c>
     </row>
     <row r="509" spans="1:4">
@@ -10275,7 +10275,7 @@
         <v>0</v>
       </c>
       <c r="D509">
-        <v>105092</v>
+        <v>75621.99999999994</v>
       </c>
     </row>
     <row r="510" spans="1:4">
@@ -10289,7 +10289,7 @@
         <v>0</v>
       </c>
       <c r="D510">
-        <v>98416.00000000003</v>
+        <v>137371.9999999999</v>
       </c>
     </row>
     <row r="511" spans="1:4">
@@ -10300,10 +10300,10 @@
         <v>512</v>
       </c>
       <c r="C511">
-        <v>0</v>
+        <v>22426.91288090697</v>
       </c>
       <c r="D511">
-        <v>86380.00000000006</v>
+        <v>86774.91288090694</v>
       </c>
     </row>
     <row r="512" spans="1:4">
@@ -10317,7 +10317,7 @@
         <v>0</v>
       </c>
       <c r="D512">
-        <v>157714.9999999999</v>
+        <v>150410</v>
       </c>
     </row>
     <row r="513" spans="1:4">
@@ -10328,10 +10328,10 @@
         <v>514</v>
       </c>
       <c r="C513">
-        <v>0</v>
+        <v>23866.46198649189</v>
       </c>
       <c r="D513">
-        <v>95576.00000000006</v>
+        <v>84882.46198649189</v>
       </c>
     </row>
     <row r="514" spans="1:4">
@@ -10342,10 +10342,10 @@
         <v>515</v>
       </c>
       <c r="C514">
-        <v>0</v>
+        <v>13671.9685305906</v>
       </c>
       <c r="D514">
-        <v>67768.00000000004</v>
+        <v>67618.96853059057</v>
       </c>
     </row>
     <row r="515" spans="1:4">
@@ -10356,10 +10356,10 @@
         <v>516</v>
       </c>
       <c r="C515">
-        <v>16723.38267658823</v>
+        <v>0</v>
       </c>
       <c r="D515">
-        <v>83707.38267658827</v>
+        <v>95784.00000000007</v>
       </c>
     </row>
     <row r="516" spans="1:4">
@@ -10370,10 +10370,10 @@
         <v>517</v>
       </c>
       <c r="C516">
-        <v>2182.635773452508</v>
+        <v>0</v>
       </c>
       <c r="D516">
-        <v>102305.6357734526</v>
+        <v>114445</v>
       </c>
     </row>
     <row r="517" spans="1:4">
@@ -10384,10 +10384,10 @@
         <v>518</v>
       </c>
       <c r="C517">
-        <v>51365.19003241356</v>
+        <v>0</v>
       </c>
       <c r="D517">
-        <v>142040.1900324135</v>
+        <v>185099.9999999999</v>
       </c>
     </row>
     <row r="518" spans="1:4">
@@ -10401,7 +10401,7 @@
         <v>0</v>
       </c>
       <c r="D518">
-        <v>91298.00000000004</v>
+        <v>112004.0000000001</v>
       </c>
     </row>
     <row r="519" spans="1:4">
@@ -10415,7 +10415,7 @@
         <v>0</v>
       </c>
       <c r="D519">
-        <v>73906.99999999999</v>
+        <v>76711.00000000004</v>
       </c>
     </row>
     <row r="520" spans="1:4">
@@ -10429,7 +10429,7 @@
         <v>0</v>
       </c>
       <c r="D520">
-        <v>110332.9999999999</v>
+        <v>136787.0000000001</v>
       </c>
     </row>
     <row r="521" spans="1:4">
@@ -10443,7 +10443,7 @@
         <v>0</v>
       </c>
       <c r="D521">
-        <v>80638</v>
+        <v>107678</v>
       </c>
     </row>
     <row r="522" spans="1:4">
@@ -10454,10 +10454,10 @@
         <v>523</v>
       </c>
       <c r="C522">
-        <v>37310.22985819142</v>
+        <v>0</v>
       </c>
       <c r="D522">
-        <v>137770.2298581914</v>
+        <v>167994.9999999999</v>
       </c>
     </row>
     <row r="523" spans="1:4">
@@ -10468,10 +10468,10 @@
         <v>524</v>
       </c>
       <c r="C523">
-        <v>40939.57530829443</v>
+        <v>32148.76888468048</v>
       </c>
       <c r="D523">
-        <v>134384.5753082944</v>
+        <v>140473.7688846804</v>
       </c>
     </row>
     <row r="524" spans="1:4">
@@ -10485,7 +10485,7 @@
         <v>0</v>
       </c>
       <c r="D524">
-        <v>92388</v>
+        <v>109366.0000000001</v>
       </c>
     </row>
     <row r="525" spans="1:4">
@@ -10499,7 +10499,7 @@
         <v>0</v>
       </c>
       <c r="D525">
-        <v>141255.9999999999</v>
+        <v>126067.9999999999</v>
       </c>
     </row>
     <row r="526" spans="1:4">
@@ -10510,10 +10510,10 @@
         <v>527</v>
       </c>
       <c r="C526">
-        <v>0</v>
+        <v>954.5904516137816</v>
       </c>
       <c r="D526">
-        <v>111021.9999999999</v>
+        <v>104464.5904516139</v>
       </c>
     </row>
     <row r="527" spans="1:4">
@@ -10524,10 +10524,10 @@
         <v>528</v>
       </c>
       <c r="C527">
-        <v>32331.10394740196</v>
+        <v>21417.26631002882</v>
       </c>
       <c r="D527">
-        <v>102352.1039474019</v>
+        <v>105688.2663100288</v>
       </c>
     </row>
     <row r="528" spans="1:4">
@@ -10538,10 +10538,10 @@
         <v>529</v>
       </c>
       <c r="C528">
-        <v>21841.25210774888</v>
+        <v>3619.483068128204</v>
       </c>
       <c r="D528">
-        <v>83449.25210774886</v>
+        <v>86071.48306812815</v>
       </c>
     </row>
     <row r="529" spans="1:4">
@@ -10555,7 +10555,7 @@
         <v>0</v>
       </c>
       <c r="D529">
-        <v>77119.99999999997</v>
+        <v>74097.99999999994</v>
       </c>
     </row>
     <row r="530" spans="1:4">
@@ -10566,10 +10566,10 @@
         <v>531</v>
       </c>
       <c r="C530">
-        <v>0</v>
+        <v>18577.39013862111</v>
       </c>
       <c r="D530">
-        <v>96532.00000000006</v>
+        <v>86671.39013862109</v>
       </c>
     </row>
     <row r="531" spans="1:4">
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="D531">
-        <v>87859.99999999994</v>
+        <v>126698</v>
       </c>
     </row>
     <row r="532" spans="1:4">
@@ -10597,7 +10597,7 @@
         <v>0</v>
       </c>
       <c r="D532">
-        <v>161030</v>
+        <v>186475.0000000001</v>
       </c>
     </row>
     <row r="533" spans="1:4">
@@ -10611,7 +10611,7 @@
         <v>0</v>
       </c>
       <c r="D533">
-        <v>76879.00000000003</v>
+        <v>61507.00000000001</v>
       </c>
     </row>
     <row r="534" spans="1:4">
@@ -10625,7 +10625,7 @@
         <v>0</v>
       </c>
       <c r="D534">
-        <v>130000.0000000001</v>
+        <v>160425</v>
       </c>
     </row>
     <row r="535" spans="1:4">
@@ -10639,7 +10639,7 @@
         <v>0</v>
       </c>
       <c r="D535">
-        <v>155360</v>
+        <v>154780</v>
       </c>
     </row>
     <row r="536" spans="1:4">
@@ -10653,7 +10653,7 @@
         <v>0</v>
       </c>
       <c r="D536">
-        <v>170494.9999999999</v>
+        <v>169659.9999999999</v>
       </c>
     </row>
     <row r="537" spans="1:4">
@@ -10664,10 +10664,10 @@
         <v>538</v>
       </c>
       <c r="C537">
-        <v>18083.28007977782</v>
+        <v>13513.89412561408</v>
       </c>
       <c r="D537">
-        <v>84299.28007977785</v>
+        <v>84737.89412561411</v>
       </c>
     </row>
     <row r="538" spans="1:4">
@@ -10681,7 +10681,7 @@
         <v>0</v>
       </c>
       <c r="D538">
-        <v>107688.0000000001</v>
+        <v>136952</v>
       </c>
     </row>
     <row r="539" spans="1:4">
@@ -10695,7 +10695,7 @@
         <v>0</v>
       </c>
       <c r="D539">
-        <v>63248.99999999999</v>
+        <v>71995.00000000004</v>
       </c>
     </row>
     <row r="540" spans="1:4">
@@ -10709,7 +10709,7 @@
         <v>0</v>
       </c>
       <c r="D540">
-        <v>72686.00000000001</v>
+        <v>108794</v>
       </c>
     </row>
     <row r="541" spans="1:4">
@@ -10720,10 +10720,10 @@
         <v>542</v>
       </c>
       <c r="C541">
-        <v>18356.75643456279</v>
+        <v>30712.36687559415</v>
       </c>
       <c r="D541">
-        <v>101019.7564345628</v>
+        <v>102536.3668755941</v>
       </c>
     </row>
     <row r="542" spans="1:4">
@@ -10734,10 +10734,10 @@
         <v>543</v>
       </c>
       <c r="C542">
-        <v>7627.7573894366</v>
+        <v>12577.87701180069</v>
       </c>
       <c r="D542">
-        <v>65043.75738943661</v>
+        <v>64129.87701180064</v>
       </c>
     </row>
     <row r="543" spans="1:4">
@@ -10748,10 +10748,10 @@
         <v>544</v>
       </c>
       <c r="C543">
-        <v>44295.43374187406</v>
+        <v>0</v>
       </c>
       <c r="D543">
-        <v>139830.4337418741</v>
+        <v>165949.9999999999</v>
       </c>
     </row>
     <row r="544" spans="1:4">
@@ -10762,10 +10762,10 @@
         <v>545</v>
       </c>
       <c r="C544">
-        <v>0</v>
+        <v>6737.197229969228</v>
       </c>
       <c r="D544">
-        <v>90046.00000000004</v>
+        <v>86883.19722996924</v>
       </c>
     </row>
     <row r="545" spans="1:4">
@@ -10779,7 +10779,7 @@
         <v>0</v>
       </c>
       <c r="D545">
-        <v>60974.00000000003</v>
+        <v>64864.99999999999</v>
       </c>
     </row>
     <row r="546" spans="1:4">
@@ -10790,10 +10790,10 @@
         <v>547</v>
       </c>
       <c r="C546">
-        <v>2291.909059237252</v>
+        <v>0</v>
       </c>
       <c r="D546">
-        <v>122895.9090592372</v>
+        <v>154796.0000000001</v>
       </c>
     </row>
     <row r="547" spans="1:4">
@@ -10807,7 +10807,7 @@
         <v>0</v>
       </c>
       <c r="D547">
-        <v>70227.99999999997</v>
+        <v>63655.99999999999</v>
       </c>
     </row>
     <row r="548" spans="1:4">
@@ -10818,10 +10818,10 @@
         <v>549</v>
       </c>
       <c r="C548">
-        <v>0</v>
+        <v>33957.93921606295</v>
       </c>
       <c r="D548">
-        <v>169244.9999999999</v>
+        <v>136967.939216063</v>
       </c>
     </row>
     <row r="549" spans="1:4">
@@ -10832,10 +10832,10 @@
         <v>550</v>
       </c>
       <c r="C549">
-        <v>0</v>
+        <v>33721.55969827314</v>
       </c>
       <c r="D549">
-        <v>148024.9999999999</v>
+        <v>137261.5596982731</v>
       </c>
     </row>
     <row r="550" spans="1:4">
@@ -10849,7 +10849,7 @@
         <v>0</v>
       </c>
       <c r="D550">
-        <v>130430.0000000001</v>
+        <v>116879</v>
       </c>
     </row>
     <row r="551" spans="1:4">
@@ -10863,7 +10863,7 @@
         <v>0</v>
       </c>
       <c r="D551">
-        <v>89441.99999999993</v>
+        <v>91896.00000000006</v>
       </c>
     </row>
     <row r="552" spans="1:4">
@@ -10874,10 +10874,10 @@
         <v>553</v>
       </c>
       <c r="C552">
-        <v>18269.00692476881</v>
+        <v>0</v>
       </c>
       <c r="D552">
-        <v>138934.0069247688</v>
+        <v>170789.9999999999</v>
       </c>
     </row>
     <row r="553" spans="1:4">
@@ -10891,7 +10891,7 @@
         <v>0</v>
       </c>
       <c r="D553">
-        <v>103189.9999999999</v>
+        <v>125152.9999999999</v>
       </c>
     </row>
     <row r="554" spans="1:4">
@@ -10905,7 +10905,7 @@
         <v>0</v>
       </c>
       <c r="D554">
-        <v>133940</v>
+        <v>130271.9999999999</v>
       </c>
     </row>
     <row r="555" spans="1:4">
@@ -10919,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="D555">
-        <v>66101.99999999994</v>
+        <v>73326.00000000006</v>
       </c>
     </row>
     <row r="556" spans="1:4">
@@ -10930,10 +10930,10 @@
         <v>557</v>
       </c>
       <c r="C556">
-        <v>8768.375226415214</v>
+        <v>9376.261856425808</v>
       </c>
       <c r="D556">
-        <v>66518.37522641517</v>
+        <v>66688.26185642576</v>
       </c>
     </row>
     <row r="557" spans="1:4">
@@ -10947,7 +10947,7 @@
         <v>0</v>
       </c>
       <c r="D557">
-        <v>89501.99999999997</v>
+        <v>93874.00000000007</v>
       </c>
     </row>
     <row r="558" spans="1:4">
@@ -10961,7 +10961,7 @@
         <v>0</v>
       </c>
       <c r="D558">
-        <v>95618</v>
+        <v>108544</v>
       </c>
     </row>
     <row r="559" spans="1:4">
@@ -10975,7 +10975,7 @@
         <v>0</v>
       </c>
       <c r="D559">
-        <v>61056.99999999997</v>
+        <v>60471.99999999996</v>
       </c>
     </row>
     <row r="560" spans="1:4">
@@ -10989,7 +10989,7 @@
         <v>0</v>
       </c>
       <c r="D560">
-        <v>98630</v>
+        <v>132577.9999999999</v>
       </c>
     </row>
     <row r="561" spans="1:4">
@@ -11003,7 +11003,7 @@
         <v>0</v>
       </c>
       <c r="D561">
-        <v>147012.0000000001</v>
+        <v>110588</v>
       </c>
     </row>
     <row r="562" spans="1:4">
@@ -11017,7 +11017,7 @@
         <v>0</v>
       </c>
       <c r="D562">
-        <v>138025.9999999999</v>
+        <v>101161.9999999999</v>
       </c>
     </row>
     <row r="563" spans="1:4">
@@ -11028,10 +11028,10 @@
         <v>564</v>
       </c>
       <c r="C563">
-        <v>24032.2524071659</v>
+        <v>0</v>
       </c>
       <c r="D563">
-        <v>102570.2524071659</v>
+        <v>115339.0000000001</v>
       </c>
     </row>
     <row r="564" spans="1:4">
@@ -11045,7 +11045,7 @@
         <v>0</v>
       </c>
       <c r="D564">
-        <v>111944</v>
+        <v>97591.99999999999</v>
       </c>
     </row>
     <row r="565" spans="1:4">
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="D565">
-        <v>83265.99999999994</v>
+        <v>85419.99999999994</v>
       </c>
     </row>
     <row r="566" spans="1:4">
@@ -11073,7 +11073,7 @@
         <v>0</v>
       </c>
       <c r="D566">
-        <v>149559.9999999999</v>
+        <v>135688</v>
       </c>
     </row>
     <row r="567" spans="1:4">
@@ -11087,7 +11087,7 @@
         <v>0</v>
       </c>
       <c r="D567">
-        <v>125231.9999999999</v>
+        <v>96047.99999999997</v>
       </c>
     </row>
     <row r="568" spans="1:4">
@@ -11101,7 +11101,7 @@
         <v>0</v>
       </c>
       <c r="D568">
-        <v>65757</v>
+        <v>62680.00000000003</v>
       </c>
     </row>
     <row r="569" spans="1:4">
@@ -11115,7 +11115,7 @@
         <v>0</v>
       </c>
       <c r="D569">
-        <v>121631</v>
+        <v>93848.00000000009</v>
       </c>
     </row>
     <row r="570" spans="1:4">
@@ -11129,7 +11129,7 @@
         <v>0</v>
       </c>
       <c r="D570">
-        <v>96239.00000000006</v>
+        <v>112376</v>
       </c>
     </row>
     <row r="571" spans="1:4">
@@ -11143,7 +11143,7 @@
         <v>0</v>
       </c>
       <c r="D571">
-        <v>118294</v>
+        <v>111352.0000000001</v>
       </c>
     </row>
     <row r="572" spans="1:4">
@@ -11154,10 +11154,10 @@
         <v>573</v>
       </c>
       <c r="C572">
-        <v>7010.751796910554</v>
+        <v>22289.85783519442</v>
       </c>
       <c r="D572">
-        <v>137425.7517969106</v>
+        <v>138889.8578351944</v>
       </c>
     </row>
     <row r="573" spans="1:4">
@@ -11168,10 +11168,10 @@
         <v>574</v>
       </c>
       <c r="C573">
-        <v>32251.88067660212</v>
+        <v>13321.836277536</v>
       </c>
       <c r="D573">
-        <v>138046.8806766022</v>
+        <v>141131.8362775359</v>
       </c>
     </row>
     <row r="574" spans="1:4">
@@ -11182,10 +11182,10 @@
         <v>575</v>
       </c>
       <c r="C574">
-        <v>20340.18902640778</v>
+        <v>11159.39980024155</v>
       </c>
       <c r="D574">
-        <v>141555.1890264078</v>
+        <v>141119.3998002415</v>
       </c>
     </row>
     <row r="575" spans="1:4">
@@ -11199,7 +11199,7 @@
         <v>0</v>
       </c>
       <c r="D575">
-        <v>91700.00000000001</v>
+        <v>97486.99999999996</v>
       </c>
     </row>
     <row r="576" spans="1:4">
@@ -11210,10 +11210,10 @@
         <v>577</v>
       </c>
       <c r="C576">
-        <v>13234.43359796353</v>
+        <v>12732.69920513324</v>
       </c>
       <c r="D576">
-        <v>65036.43359796351</v>
+        <v>64077.6992051332</v>
       </c>
     </row>
     <row r="577" spans="1:4">
@@ -11227,7 +11227,7 @@
         <v>0</v>
       </c>
       <c r="D577">
-        <v>114792</v>
+        <v>108224</v>
       </c>
     </row>
     <row r="578" spans="1:4">
@@ -11238,10 +11238,10 @@
         <v>579</v>
       </c>
       <c r="C578">
-        <v>5226.683140256224</v>
+        <v>0</v>
       </c>
       <c r="D578">
-        <v>64115.68314025623</v>
+        <v>68468.00000000001</v>
       </c>
     </row>
     <row r="579" spans="1:4">
@@ -11252,10 +11252,10 @@
         <v>580</v>
       </c>
       <c r="C579">
-        <v>0</v>
+        <v>19245.83428868632</v>
       </c>
       <c r="D579">
-        <v>134487.9999999999</v>
+        <v>130393.8342886864</v>
       </c>
     </row>
     <row r="580" spans="1:4">
@@ -11269,7 +11269,7 @@
         <v>0</v>
       </c>
       <c r="D580">
-        <v>90420</v>
+        <v>99973.99999999997</v>
       </c>
     </row>
     <row r="581" spans="1:4">
@@ -11283,7 +11283,7 @@
         <v>0</v>
       </c>
       <c r="D581">
-        <v>135730.0000000001</v>
+        <v>127355</v>
       </c>
     </row>
     <row r="582" spans="1:4">
@@ -11297,7 +11297,7 @@
         <v>0</v>
       </c>
       <c r="D582">
-        <v>160344.9999999999</v>
+        <v>179880</v>
       </c>
     </row>
     <row r="583" spans="1:4">
@@ -11311,7 +11311,7 @@
         <v>0</v>
       </c>
       <c r="D583">
-        <v>108595.9999999999</v>
+        <v>89728.99999999999</v>
       </c>
     </row>
     <row r="584" spans="1:4">
@@ -11325,7 +11325,7 @@
         <v>0</v>
       </c>
       <c r="D584">
-        <v>158635.0000000001</v>
+        <v>105829.9999999999</v>
       </c>
     </row>
     <row r="585" spans="1:4">
@@ -11339,7 +11339,7 @@
         <v>0</v>
       </c>
       <c r="D585">
-        <v>121607</v>
+        <v>88825.99999999994</v>
       </c>
     </row>
     <row r="586" spans="1:4">
@@ -11353,7 +11353,7 @@
         <v>0</v>
       </c>
       <c r="D586">
-        <v>129419.9999999999</v>
+        <v>167136.0000000001</v>
       </c>
     </row>
     <row r="587" spans="1:4">
@@ -11367,7 +11367,7 @@
         <v>0</v>
       </c>
       <c r="D587">
-        <v>67692.00000000003</v>
+        <v>65066</v>
       </c>
     </row>
     <row r="588" spans="1:4">
@@ -11381,7 +11381,7 @@
         <v>0</v>
       </c>
       <c r="D588">
-        <v>98787.99999999999</v>
+        <v>103829.9999999999</v>
       </c>
     </row>
     <row r="589" spans="1:4">
@@ -11395,7 +11395,7 @@
         <v>0</v>
       </c>
       <c r="D589">
-        <v>103644</v>
+        <v>164092.0000000001</v>
       </c>
     </row>
     <row r="590" spans="1:4">
@@ -11409,7 +11409,7 @@
         <v>0</v>
       </c>
       <c r="D590">
-        <v>95044</v>
+        <v>136588</v>
       </c>
     </row>
     <row r="591" spans="1:4">
@@ -11423,7 +11423,7 @@
         <v>0</v>
       </c>
       <c r="D591">
-        <v>110610</v>
+        <v>121309.9999999999</v>
       </c>
     </row>
     <row r="592" spans="1:4">
@@ -11437,7 +11437,7 @@
         <v>0</v>
       </c>
       <c r="D592">
-        <v>135115.9999999999</v>
+        <v>99780</v>
       </c>
     </row>
     <row r="593" spans="1:4">
@@ -11451,7 +11451,7 @@
         <v>0</v>
       </c>
       <c r="D593">
-        <v>135622.9999999999</v>
+        <v>103724.0000000001</v>
       </c>
     </row>
     <row r="594" spans="1:4">
@@ -11465,7 +11465,7 @@
         <v>0</v>
       </c>
       <c r="D594">
-        <v>160005.0000000001</v>
+        <v>187159.9999999999</v>
       </c>
     </row>
     <row r="595" spans="1:4">
@@ -11476,10 +11476,10 @@
         <v>596</v>
       </c>
       <c r="C595">
-        <v>0</v>
+        <v>39303.65081889744</v>
       </c>
       <c r="D595">
-        <v>164205.0000000001</v>
+        <v>140358.6508188974</v>
       </c>
     </row>
     <row r="596" spans="1:4">
@@ -11493,7 +11493,7 @@
         <v>0</v>
       </c>
       <c r="D596">
-        <v>128834.9999999999</v>
+        <v>164174.9999999999</v>
       </c>
     </row>
     <row r="597" spans="1:4">
@@ -11504,10 +11504,10 @@
         <v>598</v>
       </c>
       <c r="C597">
-        <v>20845.32259852234</v>
+        <v>34058.58516348568</v>
       </c>
       <c r="D597">
-        <v>103814.3225985223</v>
+        <v>108612.5851634857</v>
       </c>
     </row>
     <row r="598" spans="1:4">
@@ -11521,7 +11521,7 @@
         <v>0</v>
       </c>
       <c r="D598">
-        <v>75818.00000000006</v>
+        <v>76951.99999999996</v>
       </c>
     </row>
     <row r="599" spans="1:4">
@@ -11532,10 +11532,10 @@
         <v>600</v>
       </c>
       <c r="C599">
-        <v>0</v>
+        <v>14773.92255485638</v>
       </c>
       <c r="D599">
-        <v>142960</v>
+        <v>141053.9225548565</v>
       </c>
     </row>
     <row r="600" spans="1:4">
@@ -11549,7 +11549,7 @@
         <v>0</v>
       </c>
       <c r="D600">
-        <v>135398.0000000001</v>
+        <v>89329.99999999996</v>
       </c>
     </row>
     <row r="601" spans="1:4">
@@ -11563,7 +11563,7 @@
         <v>0</v>
       </c>
       <c r="D601">
-        <v>67207.00000000001</v>
+        <v>67911.99999999999</v>
       </c>
     </row>
     <row r="602" spans="1:4">
@@ -11577,7 +11577,7 @@
         <v>0</v>
       </c>
       <c r="D602">
-        <v>66664.99999999997</v>
+        <v>79141.99999999999</v>
       </c>
     </row>
     <row r="603" spans="1:4">
@@ -11591,7 +11591,7 @@
         <v>0</v>
       </c>
       <c r="D603">
-        <v>93684.00000000001</v>
+        <v>93454.00000000007</v>
       </c>
     </row>
     <row r="604" spans="1:4">
@@ -11605,7 +11605,7 @@
         <v>0</v>
       </c>
       <c r="D604">
-        <v>186160.0000000001</v>
+        <v>186295.0000000001</v>
       </c>
     </row>
     <row r="605" spans="1:4">
@@ -11616,10 +11616,10 @@
         <v>606</v>
       </c>
       <c r="C605">
-        <v>7156.342681795919</v>
+        <v>4625.638064196275</v>
       </c>
       <c r="D605">
-        <v>64955.34268179596</v>
+        <v>63506.63806419628</v>
       </c>
     </row>
     <row r="606" spans="1:4">
@@ -11633,7 +11633,7 @@
         <v>0</v>
       </c>
       <c r="D606">
-        <v>134272.9999999999</v>
+        <v>91498.99999999994</v>
       </c>
     </row>
     <row r="607" spans="1:4">
@@ -11644,10 +11644,10 @@
         <v>608</v>
       </c>
       <c r="C607">
-        <v>2905.202414373474</v>
+        <v>9014.164570625915</v>
       </c>
       <c r="D607">
-        <v>104078.2024143735</v>
+        <v>104352.1645706259</v>
       </c>
     </row>
     <row r="608" spans="1:4">
@@ -11661,7 +11661,7 @@
         <v>0</v>
       </c>
       <c r="D608">
-        <v>89167.99999999993</v>
+        <v>99718.99999999994</v>
       </c>
     </row>
     <row r="609" spans="1:4">
@@ -11672,10 +11672,10 @@
         <v>610</v>
       </c>
       <c r="C609">
-        <v>0</v>
+        <v>1236.518198549544</v>
       </c>
       <c r="D609">
-        <v>105429.9999999999</v>
+        <v>104692.5181985496</v>
       </c>
     </row>
     <row r="610" spans="1:4">
@@ -11689,7 +11689,7 @@
         <v>0</v>
       </c>
       <c r="D610">
-        <v>145767.9999999999</v>
+        <v>160707.9999999999</v>
       </c>
     </row>
     <row r="611" spans="1:4">
@@ -11700,10 +11700,10 @@
         <v>612</v>
       </c>
       <c r="C611">
-        <v>18931.5084821741</v>
+        <v>0</v>
       </c>
       <c r="D611">
-        <v>100328.5084821741</v>
+        <v>119871.9999999999</v>
       </c>
     </row>
     <row r="612" spans="1:4">
@@ -11714,10 +11714,10 @@
         <v>613</v>
       </c>
       <c r="C612">
-        <v>12266.98821425895</v>
+        <v>0</v>
       </c>
       <c r="D612">
-        <v>83756.98821425896</v>
+        <v>87838.00000000006</v>
       </c>
     </row>
     <row r="613" spans="1:4">
@@ -11728,10 +11728,10 @@
         <v>614</v>
       </c>
       <c r="C613">
-        <v>5129.648271660488</v>
+        <v>9297.214685722123</v>
       </c>
       <c r="D613">
-        <v>64790.64827166048</v>
+        <v>65206.2146857221</v>
       </c>
     </row>
     <row r="614" spans="1:4">
@@ -11745,7 +11745,7 @@
         <v>0</v>
       </c>
       <c r="D614">
-        <v>70895.99999999994</v>
+        <v>106644.0000000001</v>
       </c>
     </row>
     <row r="615" spans="1:4">
@@ -11759,7 +11759,7 @@
         <v>0</v>
       </c>
       <c r="D615">
-        <v>95764.00000000007</v>
+        <v>91839.99999999993</v>
       </c>
     </row>
     <row r="616" spans="1:4">
@@ -11773,7 +11773,7 @@
         <v>0</v>
       </c>
       <c r="D616">
-        <v>116664.9999999999</v>
+        <v>118800.9999999999</v>
       </c>
     </row>
     <row r="617" spans="1:4">
@@ -11784,10 +11784,10 @@
         <v>618</v>
       </c>
       <c r="C617">
-        <v>0</v>
+        <v>11079.36632996664</v>
       </c>
       <c r="D617">
-        <v>87722.00000000004</v>
+        <v>85847.36632996667</v>
       </c>
     </row>
     <row r="618" spans="1:4">
@@ -11798,10 +11798,10 @@
         <v>619</v>
       </c>
       <c r="C618">
-        <v>930.8144388132205</v>
+        <v>0</v>
       </c>
       <c r="D618">
-        <v>64941.81443881321</v>
+        <v>67390.00000000004</v>
       </c>
     </row>
     <row r="619" spans="1:4">
@@ -11812,10 +11812,10 @@
         <v>620</v>
       </c>
       <c r="C619">
-        <v>0</v>
+        <v>22811.09183529722</v>
       </c>
       <c r="D619">
-        <v>125683</v>
+        <v>106107.0918352972</v>
       </c>
     </row>
     <row r="620" spans="1:4">
@@ -11829,7 +11829,7 @@
         <v>0</v>
       </c>
       <c r="D620">
-        <v>74269.99999999994</v>
+        <v>62462.00000000001</v>
       </c>
     </row>
     <row r="621" spans="1:4">
@@ -11843,7 +11843,7 @@
         <v>0</v>
       </c>
       <c r="D621">
-        <v>139828.0000000001</v>
+        <v>101460</v>
       </c>
     </row>
     <row r="622" spans="1:4">
@@ -11857,7 +11857,7 @@
         <v>0</v>
       </c>
       <c r="D622">
-        <v>187980</v>
+        <v>179115</v>
       </c>
     </row>
     <row r="623" spans="1:4">
@@ -11871,7 +11871,7 @@
         <v>0</v>
       </c>
       <c r="D623">
-        <v>67775.99999999999</v>
+        <v>73460.99999999994</v>
       </c>
     </row>
     <row r="624" spans="1:4">
@@ -11885,7 +11885,7 @@
         <v>0</v>
       </c>
       <c r="D624">
-        <v>83338.99999999994</v>
+        <v>128167.9999999999</v>
       </c>
     </row>
     <row r="625" spans="1:4">
@@ -11899,7 +11899,7 @@
         <v>0</v>
       </c>
       <c r="D625">
-        <v>83180.00000000003</v>
+        <v>78920.00000000003</v>
       </c>
     </row>
     <row r="626" spans="1:4">
@@ -11913,7 +11913,7 @@
         <v>0</v>
       </c>
       <c r="D626">
-        <v>130547.9999999999</v>
+        <v>136616</v>
       </c>
     </row>
     <row r="627" spans="1:4">
@@ -11927,7 +11927,7 @@
         <v>0</v>
       </c>
       <c r="D627">
-        <v>102266</v>
+        <v>90422.00000000007</v>
       </c>
     </row>
     <row r="628" spans="1:4">
@@ -11941,7 +11941,7 @@
         <v>0</v>
       </c>
       <c r="D628">
-        <v>78671</v>
+        <v>76795.99999999994</v>
       </c>
     </row>
     <row r="629" spans="1:4">
@@ -11955,7 +11955,7 @@
         <v>0</v>
       </c>
       <c r="D629">
-        <v>92750.00000000003</v>
+        <v>97445</v>
       </c>
     </row>
     <row r="630" spans="1:4">
@@ -11969,7 +11969,7 @@
         <v>0</v>
       </c>
       <c r="D630">
-        <v>102051.9999999999</v>
+        <v>147367.9999999999</v>
       </c>
     </row>
     <row r="631" spans="1:4">
@@ -11980,10 +11980,10 @@
         <v>632</v>
       </c>
       <c r="C631">
-        <v>9830.772901705641</v>
+        <v>9328.640189169178</v>
       </c>
       <c r="D631">
-        <v>139610.7729017057</v>
+        <v>139783.6401891691</v>
       </c>
     </row>
     <row r="632" spans="1:4">
@@ -11994,10 +11994,10 @@
         <v>633</v>
       </c>
       <c r="C632">
-        <v>14531.92805445411</v>
+        <v>0</v>
       </c>
       <c r="D632">
-        <v>98841.92805445411</v>
+        <v>117157.0000000001</v>
       </c>
     </row>
     <row r="633" spans="1:4">
@@ -12008,10 +12008,10 @@
         <v>634</v>
       </c>
       <c r="C633">
-        <v>11783.93513111901</v>
+        <v>14644.5395920672</v>
       </c>
       <c r="D633">
-        <v>84489.93513111907</v>
+        <v>86128.53959206714</v>
       </c>
     </row>
     <row r="634" spans="1:4">
@@ -12025,7 +12025,7 @@
         <v>0</v>
       </c>
       <c r="D634">
-        <v>124260</v>
+        <v>120276</v>
       </c>
     </row>
     <row r="635" spans="1:4">
@@ -12039,7 +12039,7 @@
         <v>0</v>
       </c>
       <c r="D635">
-        <v>147355.0000000001</v>
+        <v>187629.9999999999</v>
       </c>
     </row>
     <row r="636" spans="1:4">
@@ -12053,7 +12053,7 @@
         <v>0</v>
       </c>
       <c r="D636">
-        <v>125075.0000000001</v>
+        <v>181570</v>
       </c>
     </row>
     <row r="637" spans="1:4">
@@ -12067,7 +12067,7 @@
         <v>0</v>
       </c>
       <c r="D637">
-        <v>159490.0000000001</v>
+        <v>179870.0000000001</v>
       </c>
     </row>
     <row r="638" spans="1:4">
@@ -12081,7 +12081,7 @@
         <v>0</v>
       </c>
       <c r="D638">
-        <v>120904.9999999999</v>
+        <v>107430.0000000001</v>
       </c>
     </row>
     <row r="639" spans="1:4">
@@ -12092,10 +12092,10 @@
         <v>640</v>
       </c>
       <c r="C639">
-        <v>3101.542633748206</v>
+        <v>0</v>
       </c>
       <c r="D639">
-        <v>84537.54263374822</v>
+        <v>98902.00000000007</v>
       </c>
     </row>
     <row r="640" spans="1:4">
@@ -12106,10 +12106,10 @@
         <v>641</v>
       </c>
       <c r="C640">
-        <v>7385.279752433358</v>
+        <v>42074.86851275458</v>
       </c>
       <c r="D640">
-        <v>139595.2797524333</v>
+        <v>139669.8685127546</v>
       </c>
     </row>
     <row r="641" spans="1:4">
@@ -12120,10 +12120,10 @@
         <v>642</v>
       </c>
       <c r="C641">
-        <v>11606.08975258014</v>
+        <v>12425.74590659548</v>
       </c>
       <c r="D641">
-        <v>82736.08975258008</v>
+        <v>83705.74590659542</v>
       </c>
     </row>
     <row r="642" spans="1:4">
@@ -12134,10 +12134,10 @@
         <v>643</v>
       </c>
       <c r="C642">
-        <v>46.29101490879839</v>
+        <v>12346.43561585951</v>
       </c>
       <c r="D642">
-        <v>62595.29101490879</v>
+        <v>65336.43561585947</v>
       </c>
     </row>
     <row r="643" spans="1:4">
@@ -12148,10 +12148,10 @@
         <v>644</v>
       </c>
       <c r="C643">
-        <v>20266.10762154796</v>
+        <v>13994.50299939797</v>
       </c>
       <c r="D643">
-        <v>103163.1076215479</v>
+        <v>102489.5029993979</v>
       </c>
     </row>
     <row r="644" spans="1:4">
@@ -12162,10 +12162,10 @@
         <v>645</v>
       </c>
       <c r="C644">
-        <v>12805.72890275966</v>
+        <v>5604.887937606502</v>
       </c>
       <c r="D644">
-        <v>82761.7289027597</v>
+        <v>84314.88793760653</v>
       </c>
     </row>
     <row r="645" spans="1:4">
@@ -12179,7 +12179,7 @@
         <v>0</v>
       </c>
       <c r="D645">
-        <v>68707.00000000003</v>
+        <v>78954.00000000004</v>
       </c>
     </row>
     <row r="646" spans="1:4">
@@ -12193,7 +12193,7 @@
         <v>0</v>
       </c>
       <c r="D646">
-        <v>148359.9999999999</v>
+        <v>153284.9999999999</v>
       </c>
     </row>
     <row r="647" spans="1:4">
@@ -12204,10 +12204,10 @@
         <v>648</v>
       </c>
       <c r="C647">
-        <v>4263.83009837498</v>
+        <v>0</v>
       </c>
       <c r="D647">
-        <v>84195.83009837505</v>
+        <v>85834.00000000004</v>
       </c>
     </row>
     <row r="648" spans="1:4">
@@ -12221,7 +12221,7 @@
         <v>0</v>
       </c>
       <c r="D648">
-        <v>75891.99999999996</v>
+        <v>76402</v>
       </c>
     </row>
     <row r="649" spans="1:4">
@@ -12232,10 +12232,10 @@
         <v>650</v>
       </c>
       <c r="C649">
-        <v>21734.58905501672</v>
+        <v>392.9892027615424</v>
       </c>
       <c r="D649">
-        <v>103392.5890550168</v>
+        <v>107235.9892027615</v>
       </c>
     </row>
     <row r="650" spans="1:4">
@@ -12249,7 +12249,7 @@
         <v>0</v>
       </c>
       <c r="D650">
-        <v>74749.99999999994</v>
+        <v>108832</v>
       </c>
     </row>
     <row r="651" spans="1:4">
@@ -12263,7 +12263,7 @@
         <v>0</v>
       </c>
       <c r="D651">
-        <v>162324.0000000001</v>
+        <v>104924</v>
       </c>
     </row>
     <row r="652" spans="1:4">
@@ -12277,7 +12277,7 @@
         <v>0</v>
       </c>
       <c r="D652">
-        <v>66421.99999999997</v>
+        <v>68592.99999999999</v>
       </c>
     </row>
     <row r="653" spans="1:4">
@@ -12288,10 +12288,10 @@
         <v>654</v>
       </c>
       <c r="C653">
-        <v>0</v>
+        <v>12486.45009131971</v>
       </c>
       <c r="D653">
-        <v>98445.99999999997</v>
+        <v>84294.45009131967</v>
       </c>
     </row>
     <row r="654" spans="1:4">
@@ -12305,7 +12305,7 @@
         <v>0</v>
       </c>
       <c r="D654">
-        <v>86508.00000000006</v>
+        <v>83660</v>
       </c>
     </row>
     <row r="655" spans="1:4">
@@ -12316,10 +12316,10 @@
         <v>656</v>
       </c>
       <c r="C655">
-        <v>1317.58272392246</v>
+        <v>25259.22179943313</v>
       </c>
       <c r="D655">
-        <v>103195.5827239225</v>
+        <v>105762.2217994331</v>
       </c>
     </row>
     <row r="656" spans="1:4">
@@ -12333,7 +12333,7 @@
         <v>0</v>
       </c>
       <c r="D656">
-        <v>92348.00000000007</v>
+        <v>165516.0000000001</v>
       </c>
     </row>
     <row r="657" spans="1:4">
@@ -12344,10 +12344,10 @@
         <v>658</v>
       </c>
       <c r="C657">
-        <v>0</v>
+        <v>31034.7593850477</v>
       </c>
       <c r="D657">
-        <v>181159.9999999999</v>
+        <v>137974.7593850478</v>
       </c>
     </row>
     <row r="658" spans="1:4">
@@ -12358,10 +12358,10 @@
         <v>659</v>
       </c>
       <c r="C658">
-        <v>10061.15078430211</v>
+        <v>0</v>
       </c>
       <c r="D658">
-        <v>82615.15078430212</v>
+        <v>98672.00000000009</v>
       </c>
     </row>
     <row r="659" spans="1:4">
@@ -12375,7 +12375,7 @@
         <v>0</v>
       </c>
       <c r="D659">
-        <v>129136.9999999999</v>
+        <v>107294.0000000001</v>
       </c>
     </row>
     <row r="660" spans="1:4">
@@ -12386,10 +12386,10 @@
         <v>661</v>
       </c>
       <c r="C660">
-        <v>711.5421092146935</v>
+        <v>8746.91914779364</v>
       </c>
       <c r="D660">
-        <v>64630.54210921465</v>
+        <v>64048.91914779363</v>
       </c>
     </row>
     <row r="661" spans="1:4">
@@ -12403,7 +12403,7 @@
         <v>0</v>
       </c>
       <c r="D661">
-        <v>76649</v>
+        <v>61814.99999999998</v>
       </c>
     </row>
     <row r="662" spans="1:4">
@@ -12417,7 +12417,7 @@
         <v>0</v>
       </c>
       <c r="D662">
-        <v>111190</v>
+        <v>149615</v>
       </c>
     </row>
     <row r="663" spans="1:4">
@@ -12428,10 +12428,10 @@
         <v>664</v>
       </c>
       <c r="C663">
-        <v>0</v>
+        <v>12642.68956468349</v>
       </c>
       <c r="D663">
-        <v>96336.00000000004</v>
+        <v>86198.68956468355</v>
       </c>
     </row>
     <row r="664" spans="1:4">
@@ -12445,7 +12445,7 @@
         <v>0</v>
       </c>
       <c r="D664">
-        <v>107920</v>
+        <v>99813.99999999996</v>
       </c>
     </row>
     <row r="665" spans="1:4">
@@ -12456,10 +12456,10 @@
         <v>666</v>
       </c>
       <c r="C665">
-        <v>23709.88061369587</v>
+        <v>0</v>
       </c>
       <c r="D665">
-        <v>124069.8806136958</v>
+        <v>150644.0000000001</v>
       </c>
     </row>
     <row r="666" spans="1:4">
@@ -12473,7 +12473,7 @@
         <v>0</v>
       </c>
       <c r="D666">
-        <v>89233.99999999993</v>
+        <v>80233.99999999996</v>
       </c>
     </row>
     <row r="667" spans="1:4">
@@ -12487,7 +12487,7 @@
         <v>0</v>
       </c>
       <c r="D667">
-        <v>133716.0000000001</v>
+        <v>145352.0000000001</v>
       </c>
     </row>
     <row r="668" spans="1:4">
@@ -12501,7 +12501,7 @@
         <v>0</v>
       </c>
       <c r="D668">
-        <v>85111.99999999996</v>
+        <v>88488.00000000004</v>
       </c>
     </row>
     <row r="669" spans="1:4">
@@ -12515,7 +12515,7 @@
         <v>0</v>
       </c>
       <c r="D669">
-        <v>82619.99999999994</v>
+        <v>83510.00000000001</v>
       </c>
     </row>
     <row r="670" spans="1:4">
@@ -12529,7 +12529,7 @@
         <v>0</v>
       </c>
       <c r="D670">
-        <v>112642.9999999999</v>
+        <v>126031.9999999999</v>
       </c>
     </row>
     <row r="671" spans="1:4">
@@ -12543,7 +12543,7 @@
         <v>0</v>
       </c>
       <c r="D671">
-        <v>165880</v>
+        <v>153703.9999999999</v>
       </c>
     </row>
     <row r="672" spans="1:4">
@@ -12554,10 +12554,10 @@
         <v>673</v>
       </c>
       <c r="C672">
-        <v>0</v>
+        <v>10570.42930686692</v>
       </c>
       <c r="D672">
-        <v>133996</v>
+        <v>124814.4293068669</v>
       </c>
     </row>
     <row r="673" spans="1:4">
@@ -12571,7 +12571,7 @@
         <v>0</v>
       </c>
       <c r="D673">
-        <v>185109.9999999999</v>
+        <v>161219.9999999999</v>
       </c>
     </row>
     <row r="674" spans="1:4">
@@ -12582,10 +12582,10 @@
         <v>675</v>
       </c>
       <c r="C674">
-        <v>0</v>
+        <v>39186.30146406827</v>
       </c>
       <c r="D674">
-        <v>143240</v>
+        <v>126718.3014640683</v>
       </c>
     </row>
     <row r="675" spans="1:4">
@@ -12599,7 +12599,7 @@
         <v>0</v>
       </c>
       <c r="D675">
-        <v>98068.99999999996</v>
+        <v>105739.9999999999</v>
       </c>
     </row>
     <row r="676" spans="1:4">
@@ -12610,10 +12610,10 @@
         <v>677</v>
       </c>
       <c r="C676">
-        <v>0</v>
+        <v>23685.78239228947</v>
       </c>
       <c r="D676">
-        <v>118402.0000000001</v>
+        <v>103843.7823922895</v>
       </c>
     </row>
     <row r="677" spans="1:4">
@@ -12627,7 +12627,7 @@
         <v>0</v>
       </c>
       <c r="D677">
-        <v>127366.9999999999</v>
+        <v>137236.9999999999</v>
       </c>
     </row>
     <row r="678" spans="1:4">
@@ -12638,10 +12638,10 @@
         <v>679</v>
       </c>
       <c r="C678">
-        <v>6386.481270425051</v>
+        <v>10702.10284170787</v>
       </c>
       <c r="D678">
-        <v>64615.48127042507</v>
+        <v>65902.10284170788</v>
       </c>
     </row>
     <row r="679" spans="1:4">
@@ -12652,10 +12652,10 @@
         <v>680</v>
       </c>
       <c r="C679">
-        <v>0</v>
+        <v>21086.3634263565</v>
       </c>
       <c r="D679">
-        <v>134856</v>
+        <v>125938.3634263565</v>
       </c>
     </row>
     <row r="680" spans="1:4">
@@ -12666,10 +12666,10 @@
         <v>681</v>
       </c>
       <c r="C680">
-        <v>0</v>
+        <v>13974.27446066357</v>
       </c>
       <c r="D680">
-        <v>185734.9999999999</v>
+        <v>139334.2744606636</v>
       </c>
     </row>
     <row r="681" spans="1:4">
@@ -12680,10 +12680,10 @@
         <v>682</v>
       </c>
       <c r="C681">
-        <v>3617.139279651528</v>
+        <v>40584.37340299737</v>
       </c>
       <c r="D681">
-        <v>122661.1392796515</v>
+        <v>123388.3734029973</v>
       </c>
     </row>
     <row r="682" spans="1:4">
@@ -12697,7 +12697,7 @@
         <v>0</v>
       </c>
       <c r="D682">
-        <v>89939.99999999997</v>
+        <v>99691.99999999993</v>
       </c>
     </row>
     <row r="683" spans="1:4">
@@ -12711,7 +12711,7 @@
         <v>0</v>
       </c>
       <c r="D683">
-        <v>141990.0000000001</v>
+        <v>118975</v>
       </c>
     </row>
     <row r="684" spans="1:4">
@@ -12725,7 +12725,7 @@
         <v>0</v>
       </c>
       <c r="D684">
-        <v>99452.00000000009</v>
+        <v>93962.00000000001</v>
       </c>
     </row>
     <row r="685" spans="1:4">
@@ -12736,10 +12736,10 @@
         <v>686</v>
       </c>
       <c r="C685">
-        <v>2283.075030772394</v>
+        <v>0</v>
       </c>
       <c r="D685">
-        <v>123747.0750307725</v>
+        <v>154428</v>
       </c>
     </row>
     <row r="686" spans="1:4">
@@ -12750,10 +12750,10 @@
         <v>687</v>
       </c>
       <c r="C686">
-        <v>9850.936409970724</v>
+        <v>0</v>
       </c>
       <c r="D686">
-        <v>66421.93640997075</v>
+        <v>68251.99999999997</v>
       </c>
     </row>
     <row r="687" spans="1:4">
@@ -12764,10 +12764,10 @@
         <v>688</v>
       </c>
       <c r="C687">
-        <v>19061.80373399047</v>
+        <v>8082.00906212299</v>
       </c>
       <c r="D687">
-        <v>102798.8037339905</v>
+        <v>105895.009062123</v>
       </c>
     </row>
     <row r="688" spans="1:4">
@@ -12781,7 +12781,7 @@
         <v>0</v>
       </c>
       <c r="D688">
-        <v>105471.9999999999</v>
+        <v>91380</v>
       </c>
     </row>
     <row r="689" spans="1:4">
@@ -12795,7 +12795,7 @@
         <v>0</v>
       </c>
       <c r="D689">
-        <v>116884</v>
+        <v>127288</v>
       </c>
     </row>
     <row r="690" spans="1:4">
@@ -12806,10 +12806,10 @@
         <v>691</v>
       </c>
       <c r="C690">
-        <v>4308.921562640098</v>
+        <v>6965.091279100379</v>
       </c>
       <c r="D690">
-        <v>103948.9215626402</v>
+        <v>103422.0912791003</v>
       </c>
     </row>
     <row r="691" spans="1:4">
@@ -12820,10 +12820,10 @@
         <v>692</v>
       </c>
       <c r="C691">
-        <v>6962.519766452533</v>
+        <v>19915.42549970084</v>
       </c>
       <c r="D691">
-        <v>121546.5197664524</v>
+        <v>125411.4254997008</v>
       </c>
     </row>
     <row r="692" spans="1:4">
@@ -12837,7 +12837,7 @@
         <v>0</v>
       </c>
       <c r="D692">
-        <v>63703.00000000001</v>
+        <v>61923.99999999998</v>
       </c>
     </row>
     <row r="693" spans="1:4">
@@ -12851,7 +12851,7 @@
         <v>0</v>
       </c>
       <c r="D693">
-        <v>144999.9999999999</v>
+        <v>143676</v>
       </c>
     </row>
     <row r="694" spans="1:4">
@@ -12862,10 +12862,10 @@
         <v>695</v>
       </c>
       <c r="C694">
-        <v>17315.32998312486</v>
+        <v>16579.55162818529</v>
       </c>
       <c r="D694">
-        <v>124735.3299831249</v>
+        <v>127231.5516281852</v>
       </c>
     </row>
     <row r="695" spans="1:4">
@@ -12876,10 +12876,10 @@
         <v>696</v>
       </c>
       <c r="C695">
-        <v>0</v>
+        <v>5753.329602347992</v>
       </c>
       <c r="D695">
-        <v>99299.99999999999</v>
+        <v>83161.32960234805</v>
       </c>
     </row>
     <row r="696" spans="1:4">
@@ -12893,7 +12893,7 @@
         <v>0</v>
       </c>
       <c r="D696">
-        <v>70965</v>
+        <v>76988.99999999997</v>
       </c>
     </row>
     <row r="697" spans="1:4">
@@ -12904,10 +12904,10 @@
         <v>698</v>
       </c>
       <c r="C697">
-        <v>18565.66184424763</v>
+        <v>4517.6853900735</v>
       </c>
       <c r="D697">
-        <v>84279.66184424769</v>
+        <v>87189.68539007347</v>
       </c>
     </row>
     <row r="698" spans="1:4">
@@ -12921,7 +12921,7 @@
         <v>0</v>
       </c>
       <c r="D698">
-        <v>92047.99999999999</v>
+        <v>123452</v>
       </c>
     </row>
     <row r="699" spans="1:4">
@@ -12932,10 +12932,10 @@
         <v>700</v>
       </c>
       <c r="C699">
-        <v>0</v>
+        <v>20918.05865131953</v>
       </c>
       <c r="D699">
-        <v>127580</v>
+        <v>129970.0586513195</v>
       </c>
     </row>
     <row r="700" spans="1:4">
@@ -12946,10 +12946,10 @@
         <v>701</v>
       </c>
       <c r="C700">
-        <v>0</v>
+        <v>32794.64318220534</v>
       </c>
       <c r="D700">
-        <v>153848</v>
+        <v>122842.6431822054</v>
       </c>
     </row>
     <row r="701" spans="1:4">
@@ -12963,7 +12963,7 @@
         <v>0</v>
       </c>
       <c r="D701">
-        <v>95462.00000000007</v>
+        <v>121094</v>
       </c>
     </row>
     <row r="702" spans="1:4">
@@ -12974,10 +12974,10 @@
         <v>703</v>
       </c>
       <c r="C702">
-        <v>8177.198591178239</v>
+        <v>0</v>
       </c>
       <c r="D702">
-        <v>82363.19859117824</v>
+        <v>89522.00000000004</v>
       </c>
     </row>
     <row r="703" spans="1:4">
@@ -12991,7 +12991,7 @@
         <v>0</v>
       </c>
       <c r="D703">
-        <v>83155.99999999999</v>
+        <v>80480.00000000004</v>
       </c>
     </row>
     <row r="704" spans="1:4">
@@ -13002,10 +13002,10 @@
         <v>705</v>
       </c>
       <c r="C704">
-        <v>0</v>
+        <v>8179.619705897698</v>
       </c>
       <c r="D704">
-        <v>123856</v>
+        <v>103790.6197058977</v>
       </c>
     </row>
     <row r="705" spans="1:4">
@@ -13019,7 +13019,7 @@
         <v>0</v>
       </c>
       <c r="D705">
-        <v>66116.99999999999</v>
+        <v>61149.99999999997</v>
       </c>
     </row>
     <row r="706" spans="1:4">
@@ -13030,10 +13030,10 @@
         <v>707</v>
       </c>
       <c r="C706">
-        <v>31289.45518441287</v>
+        <v>0</v>
       </c>
       <c r="D706">
-        <v>101577.4551844129</v>
+        <v>124788.9999999999</v>
       </c>
     </row>
     <row r="707" spans="1:4">
@@ -13047,7 +13047,7 @@
         <v>0</v>
       </c>
       <c r="D707">
-        <v>105284</v>
+        <v>81671.99999999994</v>
       </c>
     </row>
     <row r="708" spans="1:4">
@@ -13061,7 +13061,7 @@
         <v>0</v>
       </c>
       <c r="D708">
-        <v>141656.0000000001</v>
+        <v>154060.0000000001</v>
       </c>
     </row>
     <row r="709" spans="1:4">
@@ -13072,10 +13072,10 @@
         <v>710</v>
       </c>
       <c r="C709">
-        <v>0</v>
+        <v>14848.01200062085</v>
       </c>
       <c r="D709">
-        <v>91050.00000000007</v>
+        <v>84776.01200062082</v>
       </c>
     </row>
     <row r="710" spans="1:4">
@@ -13086,10 +13086,10 @@
         <v>711</v>
       </c>
       <c r="C710">
-        <v>6515.415081832405</v>
+        <v>2079.232704904047</v>
       </c>
       <c r="D710">
-        <v>66253.41508183246</v>
+        <v>68680.23270490406</v>
       </c>
     </row>
     <row r="711" spans="1:4">
@@ -13103,7 +13103,7 @@
         <v>0</v>
       </c>
       <c r="D711">
-        <v>129825</v>
+        <v>110610</v>
       </c>
     </row>
     <row r="712" spans="1:4">
@@ -13117,7 +13117,7 @@
         <v>0</v>
       </c>
       <c r="D712">
-        <v>156704.9999999999</v>
+        <v>149939.9999999999</v>
       </c>
     </row>
     <row r="713" spans="1:4">
@@ -13131,7 +13131,7 @@
         <v>0</v>
       </c>
       <c r="D713">
-        <v>105377.9999999999</v>
+        <v>103988.0000000001</v>
       </c>
     </row>
     <row r="714" spans="1:4">
@@ -13142,10 +13142,10 @@
         <v>715</v>
       </c>
       <c r="C714">
-        <v>1002.652671885939</v>
+        <v>121.984098218556</v>
       </c>
       <c r="D714">
-        <v>83416.65267188592</v>
+        <v>84731.98409821857</v>
       </c>
     </row>
     <row r="715" spans="1:4">
@@ -13159,7 +13159,7 @@
         <v>0</v>
       </c>
       <c r="D715">
-        <v>103418</v>
+        <v>110654</v>
       </c>
     </row>
     <row r="716" spans="1:4">
@@ -13173,7 +13173,7 @@
         <v>0</v>
       </c>
       <c r="D716">
-        <v>63917.00000000003</v>
+        <v>63232.00000000001</v>
       </c>
     </row>
     <row r="717" spans="1:4">
@@ -13187,7 +13187,7 @@
         <v>0</v>
       </c>
       <c r="D717">
-        <v>109710.0000000001</v>
+        <v>149109.9999999999</v>
       </c>
     </row>
     <row r="718" spans="1:4">
@@ -13201,7 +13201,7 @@
         <v>0</v>
       </c>
       <c r="D718">
-        <v>149260.0000000001</v>
+        <v>188209.9999999999</v>
       </c>
     </row>
     <row r="719" spans="1:4">
@@ -13215,7 +13215,7 @@
         <v>0</v>
       </c>
       <c r="D719">
-        <v>116927</v>
+        <v>115504.9999999999</v>
       </c>
     </row>
     <row r="720" spans="1:4">
@@ -13226,10 +13226,10 @@
         <v>721</v>
       </c>
       <c r="C720">
-        <v>13945.22778637988</v>
+        <v>2836.879418880504</v>
       </c>
       <c r="D720">
-        <v>64796.22778637992</v>
+        <v>65573.8794188805</v>
       </c>
     </row>
     <row r="721" spans="1:4">
@@ -13240,10 +13240,10 @@
         <v>722</v>
       </c>
       <c r="C721">
-        <v>6519.482098794426</v>
+        <v>5019.839936087737</v>
       </c>
       <c r="D721">
-        <v>65538.4820987944</v>
+        <v>65574.83993608774</v>
       </c>
     </row>
     <row r="722" spans="1:4">
@@ -13257,7 +13257,7 @@
         <v>0</v>
       </c>
       <c r="D722">
-        <v>60350.00000000003</v>
+        <v>65946.99999999997</v>
       </c>
     </row>
     <row r="723" spans="1:4">
@@ -13271,7 +13271,7 @@
         <v>0</v>
       </c>
       <c r="D723">
-        <v>95340.00000000001</v>
+        <v>73293.99999999997</v>
       </c>
     </row>
     <row r="724" spans="1:4">
@@ -13285,7 +13285,7 @@
         <v>0</v>
       </c>
       <c r="D724">
-        <v>103784.9999999999</v>
+        <v>195980.0000000001</v>
       </c>
     </row>
     <row r="725" spans="1:4">
@@ -13299,7 +13299,7 @@
         <v>0</v>
       </c>
       <c r="D725">
-        <v>91419.99999999996</v>
+        <v>83966.00000000001</v>
       </c>
     </row>
     <row r="726" spans="1:4">
@@ -13313,7 +13313,7 @@
         <v>0</v>
       </c>
       <c r="D726">
-        <v>163907.9999999999</v>
+        <v>161172.0000000001</v>
       </c>
     </row>
     <row r="727" spans="1:4">
@@ -13324,10 +13324,10 @@
         <v>728</v>
       </c>
       <c r="C727">
-        <v>22560.50155632787</v>
+        <v>6084.448770508738</v>
       </c>
       <c r="D727">
-        <v>84480.50155632786</v>
+        <v>86058.44877050877</v>
       </c>
     </row>
     <row r="728" spans="1:4">
@@ -13341,7 +13341,7 @@
         <v>0</v>
       </c>
       <c r="D728">
-        <v>68091.99999999996</v>
+        <v>66420.99999999996</v>
       </c>
     </row>
     <row r="729" spans="1:4">
@@ -13355,7 +13355,7 @@
         <v>0</v>
       </c>
       <c r="D729">
-        <v>115412.0000000001</v>
+        <v>158620</v>
       </c>
     </row>
     <row r="730" spans="1:4">
@@ -13369,7 +13369,7 @@
         <v>0</v>
       </c>
       <c r="D730">
-        <v>120874.9999999999</v>
+        <v>87628.99999999999</v>
       </c>
     </row>
     <row r="731" spans="1:4">
@@ -13383,7 +13383,7 @@
         <v>0</v>
       </c>
       <c r="D731">
-        <v>105308</v>
+        <v>98101.99999999997</v>
       </c>
     </row>
     <row r="732" spans="1:4">
@@ -13397,7 +13397,7 @@
         <v>0</v>
       </c>
       <c r="D732">
-        <v>91750.00000000007</v>
+        <v>99843.99999999993</v>
       </c>
     </row>
     <row r="733" spans="1:4">
@@ -13411,7 +13411,7 @@
         <v>0</v>
       </c>
       <c r="D733">
-        <v>68309.00000000001</v>
+        <v>78205.99999999996</v>
       </c>
     </row>
     <row r="734" spans="1:4">
@@ -13422,10 +13422,10 @@
         <v>735</v>
       </c>
       <c r="C734">
-        <v>24548.78201845066</v>
+        <v>11583.8668743842</v>
       </c>
       <c r="D734">
-        <v>102276.7820184506</v>
+        <v>103789.8668743842</v>
       </c>
     </row>
     <row r="735" spans="1:4">
@@ -13436,10 +13436,10 @@
         <v>736</v>
       </c>
       <c r="C735">
-        <v>15329.04700909092</v>
+        <v>0</v>
       </c>
       <c r="D735">
-        <v>124581.0470090909</v>
+        <v>143416.0000000001</v>
       </c>
     </row>
     <row r="736" spans="1:4">
@@ -13450,10 +13450,10 @@
         <v>737</v>
       </c>
       <c r="C736">
-        <v>619.0750307725393</v>
+        <v>11128.65829225066</v>
       </c>
       <c r="D736">
-        <v>123747.0750307725</v>
+        <v>129476.6582922506</v>
       </c>
     </row>
     <row r="737" spans="1:4">
@@ -13464,10 +13464,10 @@
         <v>738</v>
       </c>
       <c r="C737">
-        <v>10246.97707235708</v>
+        <v>0</v>
       </c>
       <c r="D737">
-        <v>63942.97707235705</v>
+        <v>63523.99999999999</v>
       </c>
     </row>
     <row r="738" spans="1:4">
@@ -13481,7 +13481,7 @@
         <v>0</v>
       </c>
       <c r="D738">
-        <v>65381.99999999996</v>
+        <v>62864.99999999999</v>
       </c>
     </row>
     <row r="739" spans="1:4">
@@ -13495,7 +13495,7 @@
         <v>0</v>
       </c>
       <c r="D739">
-        <v>97761.99999999999</v>
+        <v>83934.00000000001</v>
       </c>
     </row>
     <row r="740" spans="1:4">
@@ -13509,7 +13509,7 @@
         <v>0</v>
       </c>
       <c r="D740">
-        <v>108352.9999999999</v>
+        <v>109946</v>
       </c>
     </row>
     <row r="741" spans="1:4">
@@ -13523,7 +13523,7 @@
         <v>0</v>
       </c>
       <c r="D741">
-        <v>129388</v>
+        <v>168071.9999999999</v>
       </c>
     </row>
     <row r="742" spans="1:4">
@@ -13534,10 +13534,10 @@
         <v>743</v>
       </c>
       <c r="C742">
-        <v>16814.5669921392</v>
+        <v>12201.33935929483</v>
       </c>
       <c r="D742">
-        <v>81120.56699213924</v>
+        <v>81517.33935929484</v>
       </c>
     </row>
     <row r="743" spans="1:4">
@@ -13548,10 +13548,10 @@
         <v>744</v>
       </c>
       <c r="C743">
-        <v>9152.449943882588</v>
+        <v>0</v>
       </c>
       <c r="D743">
-        <v>136392.4499438827</v>
+        <v>163680</v>
       </c>
     </row>
     <row r="744" spans="1:4">
@@ -13562,10 +13562,10 @@
         <v>745</v>
       </c>
       <c r="C744">
-        <v>0</v>
+        <v>1173.833705319164</v>
       </c>
       <c r="D744">
-        <v>68541.99999999999</v>
+        <v>61513.83370531917</v>
       </c>
     </row>
     <row r="745" spans="1:4">
@@ -13579,7 +13579,7 @@
         <v>0</v>
       </c>
       <c r="D745">
-        <v>87107.00000000004</v>
+        <v>92785.99999999996</v>
       </c>
     </row>
     <row r="746" spans="1:4">
@@ -13593,7 +13593,7 @@
         <v>0</v>
       </c>
       <c r="D746">
-        <v>112543</v>
+        <v>103198.0000000001</v>
       </c>
     </row>
     <row r="747" spans="1:4">
@@ -13607,7 +13607,7 @@
         <v>0</v>
       </c>
       <c r="D747">
-        <v>157820</v>
+        <v>152404.9999999999</v>
       </c>
     </row>
     <row r="748" spans="1:4">
@@ -13618,10 +13618,10 @@
         <v>749</v>
       </c>
       <c r="C748">
-        <v>17029.26679000674</v>
+        <v>0</v>
       </c>
       <c r="D748">
-        <v>81579.2667900067</v>
+        <v>81450.00000000003</v>
       </c>
     </row>
     <row r="749" spans="1:4">
@@ -13632,10 +13632,10 @@
         <v>750</v>
       </c>
       <c r="C749">
-        <v>8108.43007563935</v>
+        <v>6254.403774558319</v>
       </c>
       <c r="D749">
-        <v>63424.43007563936</v>
+        <v>60518.40377455836</v>
       </c>
     </row>
     <row r="750" spans="1:4">
@@ -13646,10 +13646,10 @@
         <v>751</v>
       </c>
       <c r="C750">
-        <v>0</v>
+        <v>32623.28373138781</v>
       </c>
       <c r="D750">
-        <v>146320</v>
+        <v>120463.2837313878</v>
       </c>
     </row>
     <row r="751" spans="1:4">
@@ -13663,7 +13663,7 @@
         <v>0</v>
       </c>
       <c r="D751">
-        <v>74913.00000000003</v>
+        <v>69550.99999999997</v>
       </c>
     </row>
     <row r="752" spans="1:4">
@@ -13674,10 +13674,10 @@
         <v>753</v>
       </c>
       <c r="C752">
-        <v>26407.40147177372</v>
+        <v>11501.03857252868</v>
       </c>
       <c r="D752">
-        <v>100856.4014717737</v>
+        <v>97251.03857252868</v>
       </c>
     </row>
     <row r="753" spans="1:4">
@@ -13688,10 +13688,10 @@
         <v>754</v>
       </c>
       <c r="C753">
-        <v>15725.13660769843</v>
+        <v>14091.61067269515</v>
       </c>
       <c r="D753">
-        <v>119121.1366076984</v>
+        <v>116783.6106726951</v>
       </c>
     </row>
     <row r="754" spans="1:4">
@@ -13705,7 +13705,7 @@
         <v>0</v>
       </c>
       <c r="D754">
-        <v>147464</v>
+        <v>115272</v>
       </c>
     </row>
     <row r="755" spans="1:4">
@@ -13719,7 +13719,7 @@
         <v>0</v>
       </c>
       <c r="D755">
-        <v>155972.0000000001</v>
+        <v>123496</v>
       </c>
     </row>
     <row r="756" spans="1:4">
@@ -13733,7 +13733,7 @@
         <v>0</v>
       </c>
       <c r="D756">
-        <v>105290</v>
+        <v>81704.00000000007</v>
       </c>
     </row>
     <row r="757" spans="1:4">
@@ -13744,10 +13744,10 @@
         <v>758</v>
       </c>
       <c r="C757">
-        <v>21253.68666522518</v>
+        <v>0</v>
       </c>
       <c r="D757">
-        <v>82841.68666522515</v>
+        <v>98993.99999999991</v>
       </c>
     </row>
     <row r="758" spans="1:4">
@@ -13758,10 +13758,10 @@
         <v>759</v>
       </c>
       <c r="C758">
-        <v>12591.58951733721</v>
+        <v>29398.2025658355</v>
       </c>
       <c r="D758">
-        <v>101677.5895173372</v>
+        <v>103310.2025658354</v>
       </c>
     </row>
     <row r="759" spans="1:4">
@@ -13775,7 +13775,7 @@
         <v>0</v>
       </c>
       <c r="D759">
-        <v>113731</v>
+        <v>115144</v>
       </c>
     </row>
     <row r="760" spans="1:4">
@@ -13789,7 +13789,7 @@
         <v>0</v>
       </c>
       <c r="D760">
-        <v>170675</v>
+        <v>163924.9999999999</v>
       </c>
     </row>
     <row r="761" spans="1:4">
@@ -13803,7 +13803,7 @@
         <v>0</v>
       </c>
       <c r="D761">
-        <v>60035.00000000004</v>
+        <v>79321.99999999994</v>
       </c>
     </row>
     <row r="762" spans="1:4">
@@ -13817,7 +13817,7 @@
         <v>0</v>
       </c>
       <c r="D762">
-        <v>90023.00000000007</v>
+        <v>128170.9999999999</v>
       </c>
     </row>
     <row r="763" spans="1:4">
@@ -13831,7 +13831,7 @@
         <v>0</v>
       </c>
       <c r="D763">
-        <v>81254</v>
+        <v>82835.00000000001</v>
       </c>
     </row>
     <row r="764" spans="1:4">
@@ -13845,7 +13845,7 @@
         <v>0</v>
       </c>
       <c r="D764">
-        <v>102618</v>
+        <v>101698</v>
       </c>
     </row>
     <row r="765" spans="1:4">
@@ -13859,7 +13859,7 @@
         <v>0</v>
       </c>
       <c r="D765">
-        <v>182694.9999999999</v>
+        <v>101785</v>
       </c>
     </row>
     <row r="766" spans="1:4">
@@ -13873,7 +13873,7 @@
         <v>0</v>
       </c>
       <c r="D766">
-        <v>171039.9999999999</v>
+        <v>153705.0000000001</v>
       </c>
     </row>
     <row r="767" spans="1:4">
@@ -13884,10 +13884,10 @@
         <v>768</v>
       </c>
       <c r="C767">
-        <v>0</v>
+        <v>12115.12453384766</v>
       </c>
       <c r="D767">
-        <v>87960.00000000004</v>
+        <v>86213.1245338476</v>
       </c>
     </row>
     <row r="768" spans="1:4">
@@ -13901,7 +13901,7 @@
         <v>0</v>
       </c>
       <c r="D768">
-        <v>137664</v>
+        <v>90268.00000000003</v>
       </c>
     </row>
     <row r="769" spans="1:4">
@@ -13915,7 +13915,7 @@
         <v>0</v>
       </c>
       <c r="D769">
-        <v>192560.0000000001</v>
+        <v>169210.0000000001</v>
       </c>
     </row>
     <row r="770" spans="1:4">
@@ -13926,10 +13926,10 @@
         <v>771</v>
       </c>
       <c r="C770">
-        <v>23703.47633747153</v>
+        <v>7052.02346741005</v>
       </c>
       <c r="D770">
-        <v>122539.4763374715</v>
+        <v>125404.0234674101</v>
       </c>
     </row>
     <row r="771" spans="1:4">
@@ -13943,7 +13943,7 @@
         <v>0</v>
       </c>
       <c r="D771">
-        <v>138980.0000000001</v>
+        <v>131160</v>
       </c>
     </row>
     <row r="772" spans="1:4">
@@ -13957,7 +13957,7 @@
         <v>0</v>
       </c>
       <c r="D772">
-        <v>80945.99999999994</v>
+        <v>73422</v>
       </c>
     </row>
     <row r="773" spans="1:4">
@@ -13971,7 +13971,7 @@
         <v>0</v>
       </c>
       <c r="D773">
-        <v>103920.0000000001</v>
+        <v>162340.0000000001</v>
       </c>
     </row>
     <row r="774" spans="1:4">
@@ -13985,7 +13985,7 @@
         <v>0</v>
       </c>
       <c r="D774">
-        <v>71998</v>
+        <v>78715.00000000001</v>
       </c>
     </row>
     <row r="775" spans="1:4">
@@ -13999,7 +13999,7 @@
         <v>0</v>
       </c>
       <c r="D775">
-        <v>178270.0000000001</v>
+        <v>152360.0000000001</v>
       </c>
     </row>
     <row r="776" spans="1:4">
@@ -14013,7 +14013,7 @@
         <v>0</v>
       </c>
       <c r="D776">
-        <v>99864.00000000006</v>
+        <v>78889.99999999999</v>
       </c>
     </row>
     <row r="777" spans="1:4">
@@ -14027,7 +14027,7 @@
         <v>0</v>
       </c>
       <c r="D777">
-        <v>83869.99999999997</v>
+        <v>99796.00000000007</v>
       </c>
     </row>
     <row r="778" spans="1:4">
@@ -14038,10 +14038,10 @@
         <v>779</v>
       </c>
       <c r="C778">
-        <v>0</v>
+        <v>8833.380807930545</v>
       </c>
       <c r="D778">
-        <v>84267.99999999999</v>
+        <v>83967.38080793055</v>
       </c>
     </row>
     <row r="779" spans="1:4">
@@ -14055,7 +14055,7 @@
         <v>0</v>
       </c>
       <c r="D779">
-        <v>96931.99999999993</v>
+        <v>123977</v>
       </c>
     </row>
     <row r="780" spans="1:4">
@@ -14069,7 +14069,7 @@
         <v>0</v>
       </c>
       <c r="D780">
-        <v>75117.99999999994</v>
+        <v>108796.0000000001</v>
       </c>
     </row>
     <row r="781" spans="1:4">
@@ -14083,7 +14083,7 @@
         <v>0</v>
       </c>
       <c r="D781">
-        <v>61269.00000000005</v>
+        <v>77652.99999999997</v>
       </c>
     </row>
     <row r="782" spans="1:4">
@@ -14097,7 +14097,7 @@
         <v>0</v>
       </c>
       <c r="D782">
-        <v>73080.00000000006</v>
+        <v>78885.99999999996</v>
       </c>
     </row>
     <row r="783" spans="1:4">
@@ -14111,7 +14111,7 @@
         <v>0</v>
       </c>
       <c r="D783">
-        <v>113180.0000000001</v>
+        <v>113135.0000000001</v>
       </c>
     </row>
     <row r="784" spans="1:4">
@@ -14125,7 +14125,7 @@
         <v>0</v>
       </c>
       <c r="D784">
-        <v>102128.0000000001</v>
+        <v>109502.0000000001</v>
       </c>
     </row>
     <row r="785" spans="1:4">
@@ -14139,7 +14139,7 @@
         <v>0</v>
       </c>
       <c r="D785">
-        <v>122572.9999999999</v>
+        <v>115000.9999999999</v>
       </c>
     </row>
     <row r="786" spans="1:4">
@@ -14153,7 +14153,7 @@
         <v>0</v>
       </c>
       <c r="D786">
-        <v>72101.99999999997</v>
+        <v>79255.99999999996</v>
       </c>
     </row>
     <row r="787" spans="1:4">
@@ -14167,7 +14167,7 @@
         <v>0</v>
       </c>
       <c r="D787">
-        <v>114055</v>
+        <v>112345</v>
       </c>
     </row>
     <row r="788" spans="1:4">
@@ -14181,7 +14181,7 @@
         <v>0</v>
       </c>
       <c r="D788">
-        <v>98374.99999999994</v>
+        <v>136694.0000000001</v>
       </c>
     </row>
     <row r="789" spans="1:4">
@@ -14195,7 +14195,7 @@
         <v>0</v>
       </c>
       <c r="D789">
-        <v>164615</v>
+        <v>158040.0000000001</v>
       </c>
     </row>
     <row r="790" spans="1:4">
@@ -14206,10 +14206,10 @@
         <v>791</v>
       </c>
       <c r="C790">
-        <v>28866.04994908538</v>
+        <v>14153.04573472809</v>
       </c>
       <c r="D790">
-        <v>101608.0499490853</v>
+        <v>102807.0457347281</v>
       </c>
     </row>
     <row r="791" spans="1:4">
@@ -14223,7 +14223,7 @@
         <v>0</v>
       </c>
       <c r="D791">
-        <v>123239.9999999999</v>
+        <v>152383.9999999999</v>
       </c>
     </row>
     <row r="792" spans="1:4">
@@ -14237,7 +14237,7 @@
         <v>0</v>
       </c>
       <c r="D792">
-        <v>106006.0000000001</v>
+        <v>121009.0000000001</v>
       </c>
     </row>
     <row r="793" spans="1:4">
@@ -14251,7 +14251,7 @@
         <v>0</v>
       </c>
       <c r="D793">
-        <v>175334.9999999999</v>
+        <v>182634.9999999999</v>
       </c>
     </row>
     <row r="794" spans="1:4">
@@ -14265,7 +14265,7 @@
         <v>0</v>
       </c>
       <c r="D794">
-        <v>101980.0000000001</v>
+        <v>189219.9999999999</v>
       </c>
     </row>
     <row r="795" spans="1:4">
@@ -14279,7 +14279,7 @@
         <v>0</v>
       </c>
       <c r="D795">
-        <v>82768.00000000001</v>
+        <v>70752.00000000004</v>
       </c>
     </row>
     <row r="796" spans="1:4">
@@ -14290,10 +14290,10 @@
         <v>797</v>
       </c>
       <c r="C796">
-        <v>0</v>
+        <v>40208.98551846526</v>
       </c>
       <c r="D796">
-        <v>151685</v>
+        <v>140163.9855184652</v>
       </c>
     </row>
     <row r="797" spans="1:4">
@@ -14304,10 +14304,10 @@
         <v>798</v>
       </c>
       <c r="C797">
-        <v>23257.66273964751</v>
+        <v>565.9942165014945</v>
       </c>
       <c r="D797">
-        <v>122525.6627396475</v>
+        <v>125301.9942165015</v>
       </c>
     </row>
     <row r="798" spans="1:4">
@@ -14318,10 +14318,10 @@
         <v>799</v>
       </c>
       <c r="C798">
-        <v>0</v>
+        <v>15096.70689598662</v>
       </c>
       <c r="D798">
-        <v>116608.0000000001</v>
+        <v>107851.7068959867</v>
       </c>
     </row>
     <row r="799" spans="1:4">
@@ -14335,7 +14335,7 @@
         <v>0</v>
       </c>
       <c r="D799">
-        <v>131264</v>
+        <v>165016.0000000001</v>
       </c>
     </row>
     <row r="800" spans="1:4">
@@ -14346,10 +14346,10 @@
         <v>801</v>
       </c>
       <c r="C800">
-        <v>1685.449941244486</v>
+        <v>1206.563882779126</v>
       </c>
       <c r="D800">
-        <v>65669.4499412445</v>
+        <v>68980.56388277908</v>
       </c>
     </row>
     <row r="801" spans="1:4">
@@ -14363,7 +14363,7 @@
         <v>0</v>
       </c>
       <c r="D801">
-        <v>86971.99999999997</v>
+        <v>91357.99999999996</v>
       </c>
     </row>
     <row r="802" spans="1:4">
@@ -14374,10 +14374,10 @@
         <v>803</v>
       </c>
       <c r="C802">
-        <v>39675.36962975741</v>
+        <v>0</v>
       </c>
       <c r="D802">
-        <v>137805.3696297574</v>
+        <v>147970</v>
       </c>
     </row>
     <row r="803" spans="1:4">
@@ -14391,7 +14391,7 @@
         <v>0</v>
       </c>
       <c r="D803">
-        <v>91423.99999999994</v>
+        <v>85432.00000000007</v>
       </c>
     </row>
     <row r="804" spans="1:4">
@@ -14405,7 +14405,7 @@
         <v>0</v>
       </c>
       <c r="D804">
-        <v>105857.9999999999</v>
+        <v>75665.99999999996</v>
       </c>
     </row>
     <row r="805" spans="1:4">
@@ -14416,10 +14416,10 @@
         <v>806</v>
       </c>
       <c r="C805">
-        <v>31401.01125322518</v>
+        <v>51142.57810265267</v>
       </c>
       <c r="D805">
-        <v>138101.0112532252</v>
+        <v>142587.5781026526</v>
       </c>
     </row>
     <row r="806" spans="1:4">
@@ -14430,10 +14430,10 @@
         <v>807</v>
       </c>
       <c r="C806">
-        <v>589.4548180395141</v>
+        <v>8603.514470965332</v>
       </c>
       <c r="D806">
-        <v>65306.45481803957</v>
+        <v>67389.51447096537</v>
       </c>
     </row>
     <row r="807" spans="1:4">
@@ -14447,7 +14447,7 @@
         <v>0</v>
       </c>
       <c r="D807">
-        <v>74854.00000000006</v>
+        <v>86223.99999999993</v>
       </c>
     </row>
     <row r="808" spans="1:4">
@@ -14461,7 +14461,7 @@
         <v>0</v>
       </c>
       <c r="D808">
-        <v>83204.00000000003</v>
+        <v>86648.00000000006</v>
       </c>
     </row>
     <row r="809" spans="1:4">
@@ -14475,7 +14475,7 @@
         <v>0</v>
       </c>
       <c r="D809">
-        <v>65265.99999999996</v>
+        <v>67036.99999999997</v>
       </c>
     </row>
     <row r="810" spans="1:4">
@@ -14486,10 +14486,10 @@
         <v>811</v>
       </c>
       <c r="C810">
-        <v>0</v>
+        <v>631.0009071075474</v>
       </c>
       <c r="D810">
-        <v>105760</v>
+        <v>108227.0009071075</v>
       </c>
     </row>
     <row r="811" spans="1:4">
@@ -14503,7 +14503,7 @@
         <v>0</v>
       </c>
       <c r="D811">
-        <v>178980</v>
+        <v>116089.9999999999</v>
       </c>
     </row>
     <row r="812" spans="1:4">
@@ -14514,10 +14514,10 @@
         <v>813</v>
       </c>
       <c r="C812">
-        <v>30454.12380569636</v>
+        <v>24025.65620482358</v>
       </c>
       <c r="D812">
-        <v>122022.1238056963</v>
+        <v>127197.6562048236</v>
       </c>
     </row>
     <row r="813" spans="1:4">
@@ -14531,7 +14531,7 @@
         <v>0</v>
       </c>
       <c r="D813">
-        <v>64460.00000000005</v>
+        <v>73901</v>
       </c>
     </row>
     <row r="814" spans="1:4">
@@ -14545,7 +14545,7 @@
         <v>0</v>
       </c>
       <c r="D814">
-        <v>100576</v>
+        <v>88450.00000000001</v>
       </c>
     </row>
     <row r="815" spans="1:4">
@@ -14559,7 +14559,7 @@
         <v>0</v>
       </c>
       <c r="D815">
-        <v>85456.00000000003</v>
+        <v>73159.99999999999</v>
       </c>
     </row>
     <row r="816" spans="1:4">
@@ -14573,7 +14573,7 @@
         <v>0</v>
       </c>
       <c r="D816">
-        <v>65780.00000000006</v>
+        <v>72994.99999999996</v>
       </c>
     </row>
     <row r="817" spans="1:4">
@@ -14584,10 +14584,10 @@
         <v>818</v>
       </c>
       <c r="C817">
-        <v>6170.321546644402</v>
+        <v>2015.190865643133</v>
       </c>
       <c r="D817">
-        <v>64336.32154664437</v>
+        <v>66669.19086564313</v>
       </c>
     </row>
     <row r="818" spans="1:4">
@@ -14601,7 +14601,7 @@
         <v>0</v>
       </c>
       <c r="D818">
-        <v>89345.99999999993</v>
+        <v>100014</v>
       </c>
     </row>
     <row r="819" spans="1:4">
@@ -14612,10 +14612,10 @@
         <v>820</v>
       </c>
       <c r="C819">
-        <v>10093.59086368568</v>
+        <v>1805.828542717398</v>
       </c>
       <c r="D819">
-        <v>65850.59086368572</v>
+        <v>66382.8285427174</v>
       </c>
     </row>
     <row r="820" spans="1:4">
@@ -14626,10 +14626,10 @@
         <v>821</v>
       </c>
       <c r="C820">
-        <v>0</v>
+        <v>11295.51452370563</v>
       </c>
       <c r="D820">
-        <v>65063.00000000003</v>
+        <v>65380.51452370559</v>
       </c>
     </row>
     <row r="821" spans="1:4">
@@ -14640,10 +14640,10 @@
         <v>822</v>
       </c>
       <c r="C821">
-        <v>29386.72031904999</v>
+        <v>12060.33090822888</v>
       </c>
       <c r="D821">
-        <v>122358.7203190501</v>
+        <v>124084.330908229</v>
       </c>
     </row>
     <row r="822" spans="1:4">
@@ -14657,7 +14657,7 @@
         <v>0</v>
       </c>
       <c r="D822">
-        <v>61850</v>
+        <v>77947.00000000004</v>
       </c>
     </row>
     <row r="823" spans="1:4">
@@ -14671,7 +14671,7 @@
         <v>0</v>
       </c>
       <c r="D823">
-        <v>89627.99999999999</v>
+        <v>91062.00000000004</v>
       </c>
     </row>
     <row r="824" spans="1:4">
@@ -14685,7 +14685,7 @@
         <v>0</v>
       </c>
       <c r="D824">
-        <v>73706.00000000001</v>
+        <v>79289.00000000006</v>
       </c>
     </row>
     <row r="825" spans="1:4">
@@ -14696,10 +14696,10 @@
         <v>826</v>
       </c>
       <c r="C825">
-        <v>0</v>
+        <v>20408.10229247934</v>
       </c>
       <c r="D825">
-        <v>119932</v>
+        <v>104583.1022924793</v>
       </c>
     </row>
     <row r="826" spans="1:4">
@@ -14710,10 +14710,10 @@
         <v>827</v>
       </c>
       <c r="C826">
-        <v>0</v>
+        <v>44441.24387818764</v>
       </c>
       <c r="D826">
-        <v>125332</v>
+        <v>124737.2438781876</v>
       </c>
     </row>
     <row r="827" spans="1:4">
@@ -14724,10 +14724,10 @@
         <v>828</v>
       </c>
       <c r="C827">
-        <v>22005.30536898579</v>
+        <v>39352.94747534103</v>
       </c>
       <c r="D827">
-        <v>122049.3053689857</v>
+        <v>127404.947475341</v>
       </c>
     </row>
     <row r="828" spans="1:4">
@@ -14741,7 +14741,7 @@
         <v>0</v>
       </c>
       <c r="D828">
-        <v>104896</v>
+        <v>77976</v>
       </c>
     </row>
     <row r="829" spans="1:4">
@@ -14755,7 +14755,7 @@
         <v>0</v>
       </c>
       <c r="D829">
-        <v>80019.99999999999</v>
+        <v>107622</v>
       </c>
     </row>
     <row r="830" spans="1:4">
@@ -14766,10 +14766,10 @@
         <v>831</v>
       </c>
       <c r="C830">
-        <v>21677.26901159546</v>
+        <v>22575.62401159406</v>
       </c>
       <c r="D830">
-        <v>101550.2690115955</v>
+        <v>105523.6240115941</v>
       </c>
     </row>
     <row r="831" spans="1:4">
@@ -14780,10 +14780,10 @@
         <v>832</v>
       </c>
       <c r="C831">
-        <v>7283.762900070215</v>
+        <v>8191.149775882775</v>
       </c>
       <c r="D831">
-        <v>83535.76290007023</v>
+        <v>87571.14977588272</v>
       </c>
     </row>
     <row r="832" spans="1:4">
@@ -14794,10 +14794,10 @@
         <v>833</v>
       </c>
       <c r="C832">
-        <v>2047.883573294646</v>
+        <v>1557.939266931091</v>
       </c>
       <c r="D832">
-        <v>64792.8835732946</v>
+        <v>67057.93926693105</v>
       </c>
     </row>
     <row r="833" spans="1:4">
@@ -14811,7 +14811,7 @@
         <v>0</v>
       </c>
       <c r="D833">
-        <v>109012</v>
+        <v>92070.00000000004</v>
       </c>
     </row>
     <row r="834" spans="1:4">
@@ -14825,7 +14825,7 @@
         <v>0</v>
       </c>
       <c r="D834">
-        <v>76160.99999999997</v>
+        <v>66012.00000000001</v>
       </c>
     </row>
     <row r="835" spans="1:4">
@@ -14836,10 +14836,10 @@
         <v>836</v>
       </c>
       <c r="C835">
-        <v>2536.326828941535</v>
+        <v>0</v>
       </c>
       <c r="D835">
-        <v>64713.32682894158</v>
+        <v>69264</v>
       </c>
     </row>
     <row r="836" spans="1:4">
@@ -14853,7 +14853,7 @@
         <v>0</v>
       </c>
       <c r="D836">
-        <v>73166.99999999996</v>
+        <v>66469.99999999997</v>
       </c>
     </row>
     <row r="837" spans="1:4">
@@ -14864,10 +14864,10 @@
         <v>838</v>
       </c>
       <c r="C837">
-        <v>22134.07888032022</v>
+        <v>0</v>
       </c>
       <c r="D837">
-        <v>101401.0788803203</v>
+        <v>115924</v>
       </c>
     </row>
     <row r="838" spans="1:4">
@@ -14878,10 +14878,10 @@
         <v>839</v>
       </c>
       <c r="C838">
-        <v>7202.202468730007</v>
+        <v>0</v>
       </c>
       <c r="D838">
-        <v>65193.20246872996</v>
+        <v>68432.00000000006</v>
       </c>
     </row>
     <row r="839" spans="1:4">
@@ -14892,10 +14892,10 @@
         <v>840</v>
       </c>
       <c r="C839">
-        <v>0</v>
+        <v>13137.98488827066</v>
       </c>
       <c r="D839">
-        <v>142640</v>
+        <v>138577.9848882707</v>
       </c>
     </row>
     <row r="840" spans="1:4">
@@ -14906,10 +14906,10 @@
         <v>841</v>
       </c>
       <c r="C840">
-        <v>39033.46025789683</v>
+        <v>11127.08238056862</v>
       </c>
       <c r="D840">
-        <v>120777.4602578969</v>
+        <v>128235.0823805687</v>
       </c>
     </row>
     <row r="841" spans="1:4">
@@ -14923,7 +14923,7 @@
         <v>0</v>
       </c>
       <c r="D841">
-        <v>173710.0000000001</v>
+        <v>162005.0000000001</v>
       </c>
     </row>
     <row r="842" spans="1:4">
@@ -14934,10 +14934,10 @@
         <v>843</v>
       </c>
       <c r="C842">
-        <v>0</v>
+        <v>5320.244979007766</v>
       </c>
       <c r="D842">
-        <v>117742</v>
+        <v>105581.2449790077</v>
       </c>
     </row>
     <row r="843" spans="1:4">
@@ -14951,7 +14951,7 @@
         <v>0</v>
       </c>
       <c r="D843">
-        <v>71789.99999999996</v>
+        <v>69287.00000000004</v>
       </c>
     </row>
     <row r="844" spans="1:4">
@@ -14965,7 +14965,7 @@
         <v>0</v>
       </c>
       <c r="D844">
-        <v>68925.99999999997</v>
+        <v>67825.00000000006</v>
       </c>
     </row>
     <row r="845" spans="1:4">
@@ -14976,10 +14976,10 @@
         <v>846</v>
       </c>
       <c r="C845">
-        <v>0</v>
+        <v>12445.13996821722</v>
       </c>
       <c r="D845">
-        <v>117451.0000000001</v>
+        <v>107093.1399682172</v>
       </c>
     </row>
     <row r="846" spans="1:4">
@@ -14993,7 +14993,7 @@
         <v>0</v>
       </c>
       <c r="D846">
-        <v>73090.00000000006</v>
+        <v>79286.00000000001</v>
       </c>
     </row>
     <row r="847" spans="1:4">
@@ -15004,10 +15004,10 @@
         <v>848</v>
       </c>
       <c r="C847">
-        <v>18140.51870086153</v>
+        <v>0</v>
       </c>
       <c r="D847">
-        <v>101757.5187008615</v>
+        <v>129184</v>
       </c>
     </row>
     <row r="848" spans="1:4">
@@ -15021,7 +15021,7 @@
         <v>0</v>
       </c>
       <c r="D848">
-        <v>113523.9999999999</v>
+        <v>108462.9999999999</v>
       </c>
     </row>
     <row r="849" spans="1:4">
@@ -15035,7 +15035,7 @@
         <v>0</v>
       </c>
       <c r="D849">
-        <v>89930.00000000003</v>
+        <v>117133.9999999999</v>
       </c>
     </row>
     <row r="850" spans="1:4">
@@ -15046,10 +15046,10 @@
         <v>851</v>
       </c>
       <c r="C850">
-        <v>24879.57976589768</v>
+        <v>0</v>
       </c>
       <c r="D850">
-        <v>121967.5797658976</v>
+        <v>157256.0000000001</v>
       </c>
     </row>
     <row r="851" spans="1:4">
@@ -15060,10 +15060,10 @@
         <v>852</v>
       </c>
       <c r="C851">
-        <v>12862.19140129775</v>
+        <v>23438.42707996084</v>
       </c>
       <c r="D851">
-        <v>83218.19140129778</v>
+        <v>87680.42707996088</v>
       </c>
     </row>
     <row r="852" spans="1:4">
@@ -15077,7 +15077,7 @@
         <v>0</v>
       </c>
       <c r="D852">
-        <v>154892</v>
+        <v>145416</v>
       </c>
     </row>
     <row r="853" spans="1:4">
@@ -15088,10 +15088,10 @@
         <v>854</v>
       </c>
       <c r="C853">
-        <v>23168.99400999513</v>
+        <v>20194.32703438545</v>
       </c>
       <c r="D853">
-        <v>139218.9940099951</v>
+        <v>140229.3270343854</v>
       </c>
     </row>
     <row r="854" spans="1:4">
@@ -15102,10 +15102,10 @@
         <v>855</v>
       </c>
       <c r="C854">
-        <v>39545.43984338986</v>
+        <v>20401.40018082243</v>
       </c>
       <c r="D854">
-        <v>139145.4398433899</v>
+        <v>143886.4001808225</v>
       </c>
     </row>
     <row r="855" spans="1:4">
@@ -15119,7 +15119,7 @@
         <v>0</v>
       </c>
       <c r="D855">
-        <v>159884</v>
+        <v>168143.9999999999</v>
       </c>
     </row>
     <row r="856" spans="1:4">
@@ -15133,7 +15133,7 @@
         <v>0</v>
       </c>
       <c r="D856">
-        <v>151092.0000000001</v>
+        <v>105328</v>
       </c>
     </row>
     <row r="857" spans="1:4">
@@ -15147,7 +15147,7 @@
         <v>0</v>
       </c>
       <c r="D857">
-        <v>157007.9999999999</v>
+        <v>153552.0000000001</v>
       </c>
     </row>
     <row r="858" spans="1:4">
@@ -15158,10 +15158,10 @@
         <v>859</v>
       </c>
       <c r="C858">
-        <v>12657.9387297701</v>
+        <v>7222.251732697172</v>
       </c>
       <c r="D858">
-        <v>101377.9387297702</v>
+        <v>104243.2517326973</v>
       </c>
     </row>
     <row r="859" spans="1:4">
@@ -15175,7 +15175,7 @@
         <v>0</v>
       </c>
       <c r="D859">
-        <v>67282.00000000003</v>
+        <v>77035.99999999996</v>
       </c>
     </row>
     <row r="860" spans="1:4">
@@ -15189,7 +15189,7 @@
         <v>0</v>
       </c>
       <c r="D860">
-        <v>89469.99999999999</v>
+        <v>75840</v>
       </c>
     </row>
     <row r="861" spans="1:4">
@@ -15203,7 +15203,7 @@
         <v>0</v>
       </c>
       <c r="D861">
-        <v>123967</v>
+        <v>103125.9999999999</v>
       </c>
     </row>
     <row r="862" spans="1:4">
@@ -15217,7 +15217,7 @@
         <v>0</v>
       </c>
       <c r="D862">
-        <v>69160.00000000006</v>
+        <v>71661.00000000001</v>
       </c>
     </row>
     <row r="863" spans="1:4">
@@ -15231,7 +15231,7 @@
         <v>0</v>
       </c>
       <c r="D863">
-        <v>121040</v>
+        <v>120008</v>
       </c>
     </row>
     <row r="864" spans="1:4">
@@ -15245,7 +15245,7 @@
         <v>0</v>
       </c>
       <c r="D864">
-        <v>112414.0000000001</v>
+        <v>105886</v>
       </c>
     </row>
     <row r="865" spans="1:4">
@@ -15259,7 +15259,7 @@
         <v>0</v>
       </c>
       <c r="D865">
-        <v>135686</v>
+        <v>81949.99999999997</v>
       </c>
     </row>
     <row r="866" spans="1:4">
@@ -15270,10 +15270,10 @@
         <v>867</v>
       </c>
       <c r="C866">
-        <v>14474.50287342325</v>
+        <v>4057.298174629643</v>
       </c>
       <c r="D866">
-        <v>64976.50287342321</v>
+        <v>68436.29817462963</v>
       </c>
     </row>
     <row r="867" spans="1:4">
@@ -15284,10 +15284,10 @@
         <v>868</v>
       </c>
       <c r="C867">
-        <v>12344.77698492489</v>
+        <v>22284.34544519967</v>
       </c>
       <c r="D867">
-        <v>82108.77698492487</v>
+        <v>85236.34544519968</v>
       </c>
     </row>
     <row r="868" spans="1:4">
@@ -15298,10 +15298,10 @@
         <v>869</v>
       </c>
       <c r="C868">
-        <v>31361.79023291083</v>
+        <v>5171.552534860239</v>
       </c>
       <c r="D868">
-        <v>136831.7902329108</v>
+        <v>140506.5525348602</v>
       </c>
     </row>
     <row r="869" spans="1:4">
@@ -15315,7 +15315,7 @@
         <v>0</v>
       </c>
       <c r="D869">
-        <v>92158.00000000004</v>
+        <v>94466.00000000007</v>
       </c>
     </row>
     <row r="870" spans="1:4">
@@ -15329,7 +15329,7 @@
         <v>0</v>
       </c>
       <c r="D870">
-        <v>60351.00000000004</v>
+        <v>67365.00000000001</v>
       </c>
     </row>
     <row r="871" spans="1:4">
@@ -15343,7 +15343,7 @@
         <v>0</v>
       </c>
       <c r="D871">
-        <v>116852</v>
+        <v>128840</v>
       </c>
     </row>
     <row r="872" spans="1:4">
@@ -15354,10 +15354,10 @@
         <v>873</v>
       </c>
       <c r="C872">
-        <v>0</v>
+        <v>12671.04975803547</v>
       </c>
       <c r="D872">
-        <v>112732</v>
+        <v>106878.0497580355</v>
       </c>
     </row>
     <row r="873" spans="1:4">
@@ -15371,7 +15371,7 @@
         <v>0</v>
       </c>
       <c r="D873">
-        <v>66743.99999999999</v>
+        <v>64445.99999999998</v>
       </c>
     </row>
     <row r="874" spans="1:4">
@@ -15385,7 +15385,7 @@
         <v>0</v>
       </c>
       <c r="D874">
-        <v>86096.00000000001</v>
+        <v>70015.99999999997</v>
       </c>
     </row>
     <row r="875" spans="1:4">
@@ -15399,7 +15399,7 @@
         <v>0</v>
       </c>
       <c r="D875">
-        <v>106658</v>
+        <v>123290</v>
       </c>
     </row>
     <row r="876" spans="1:4">
@@ -15410,10 +15410,10 @@
         <v>877</v>
       </c>
       <c r="C876">
-        <v>0</v>
+        <v>9349.76225175336</v>
       </c>
       <c r="D876">
-        <v>66230.00000000003</v>
+        <v>65806.76225175335</v>
       </c>
     </row>
     <row r="877" spans="1:4">
@@ -15424,10 +15424,10 @@
         <v>878</v>
       </c>
       <c r="C877">
-        <v>5481.583165293108</v>
+        <v>17051.2976984336</v>
       </c>
       <c r="D877">
-        <v>83095.58316529314</v>
+        <v>85585.29769843363</v>
       </c>
     </row>
     <row r="878" spans="1:4">
@@ -15441,7 +15441,7 @@
         <v>0</v>
       </c>
       <c r="D878">
-        <v>124442.0000000001</v>
+        <v>127082.0000000001</v>
       </c>
     </row>
     <row r="879" spans="1:4">
@@ -15455,7 +15455,7 @@
         <v>0</v>
       </c>
       <c r="D879">
-        <v>93373.99999999994</v>
+        <v>88982.00000000007</v>
       </c>
     </row>
     <row r="880" spans="1:4">
@@ -15466,10 +15466,10 @@
         <v>881</v>
       </c>
       <c r="C880">
-        <v>1409.99209981873</v>
+        <v>0</v>
       </c>
       <c r="D880">
-        <v>65222.9920998187</v>
+        <v>67218.00000000003</v>
       </c>
     </row>
     <row r="881" spans="1:4">
@@ -15480,10 +15480,10 @@
         <v>882</v>
       </c>
       <c r="C881">
-        <v>8901.629731376248</v>
+        <v>0</v>
       </c>
       <c r="D881">
-        <v>83115.62973137623</v>
+        <v>91764</v>
       </c>
     </row>
     <row r="882" spans="1:4">
@@ -15494,10 +15494,10 @@
         <v>883</v>
       </c>
       <c r="C882">
-        <v>8693.188683369401</v>
+        <v>11519.90306985989</v>
       </c>
       <c r="D882">
-        <v>65373.18868336944</v>
+        <v>67884.90306985988</v>
       </c>
     </row>
     <row r="883" spans="1:4">
@@ -15511,7 +15511,7 @@
         <v>0</v>
       </c>
       <c r="D883">
-        <v>120076.0000000001</v>
+        <v>128422</v>
       </c>
     </row>
     <row r="884" spans="1:4">
@@ -15525,7 +15525,7 @@
         <v>0</v>
       </c>
       <c r="D884">
-        <v>93924.00000000001</v>
+        <v>89143.99999999994</v>
       </c>
     </row>
     <row r="885" spans="1:4">
@@ -15539,7 +15539,7 @@
         <v>0</v>
       </c>
       <c r="D885">
-        <v>161128</v>
+        <v>141628.0000000001</v>
       </c>
     </row>
     <row r="886" spans="1:4">
@@ -15553,7 +15553,7 @@
         <v>0</v>
       </c>
       <c r="D886">
-        <v>97886.00000000004</v>
+        <v>93965.00000000007</v>
       </c>
     </row>
     <row r="887" spans="1:4">
@@ -15564,10 +15564,10 @@
         <v>888</v>
       </c>
       <c r="C887">
-        <v>20582.84828437657</v>
+        <v>16729.46062297035</v>
       </c>
       <c r="D887">
-        <v>83096.84828437655</v>
+        <v>86757.46062297039</v>
       </c>
     </row>
     <row r="888" spans="1:4">
@@ -15581,7 +15581,7 @@
         <v>0</v>
       </c>
       <c r="D888">
-        <v>78481.00000000001</v>
+        <v>71570</v>
       </c>
     </row>
     <row r="889" spans="1:4">
@@ -15592,10 +15592,10 @@
         <v>890</v>
       </c>
       <c r="C889">
-        <v>3157.203402106767</v>
+        <v>3183.28793663207</v>
       </c>
       <c r="D889">
-        <v>65728.20340210678</v>
+        <v>69431.28793663206</v>
       </c>
     </row>
     <row r="890" spans="1:4">
@@ -15609,7 +15609,7 @@
         <v>0</v>
       </c>
       <c r="D890">
-        <v>74351.99999999997</v>
+        <v>67615.00000000001</v>
       </c>
     </row>
     <row r="891" spans="1:4">
@@ -15620,10 +15620,10 @@
         <v>892</v>
       </c>
       <c r="C891">
-        <v>15006.79494421192</v>
+        <v>12186.7867865482</v>
       </c>
       <c r="D891">
-        <v>65014.79494421188</v>
+        <v>67144.78678654817</v>
       </c>
     </row>
     <row r="892" spans="1:4">
@@ -15637,7 +15637,7 @@
         <v>0</v>
       </c>
       <c r="D892">
-        <v>146989.9999999999</v>
+        <v>159420.0000000001</v>
       </c>
     </row>
     <row r="893" spans="1:4">
@@ -15651,7 +15651,7 @@
         <v>0</v>
       </c>
       <c r="D893">
-        <v>109898.0000000001</v>
+        <v>111368</v>
       </c>
     </row>
     <row r="894" spans="1:4">
@@ -15665,7 +15665,7 @@
         <v>0</v>
       </c>
       <c r="D894">
-        <v>69543.00000000003</v>
+        <v>64395.00000000003</v>
       </c>
     </row>
     <row r="895" spans="1:4">
@@ -15679,7 +15679,7 @@
         <v>0</v>
       </c>
       <c r="D895">
-        <v>124907</v>
+        <v>137942.0000000001</v>
       </c>
     </row>
     <row r="896" spans="1:4">
@@ -15693,7 +15693,7 @@
         <v>0</v>
       </c>
       <c r="D896">
-        <v>103742</v>
+        <v>132155</v>
       </c>
     </row>
     <row r="897" spans="1:4">
@@ -15707,7 +15707,7 @@
         <v>0</v>
       </c>
       <c r="D897">
-        <v>106712</v>
+        <v>106022.0000000001</v>
       </c>
     </row>
     <row r="898" spans="1:4">
@@ -15721,7 +15721,7 @@
         <v>0</v>
       </c>
       <c r="D898">
-        <v>69020.99999999994</v>
+        <v>73518.00000000003</v>
       </c>
     </row>
     <row r="899" spans="1:4">
@@ -15735,7 +15735,7 @@
         <v>0</v>
       </c>
       <c r="D899">
-        <v>116828.0000000001</v>
+        <v>83494.99999999997</v>
       </c>
     </row>
     <row r="900" spans="1:4">
@@ -15749,7 +15749,7 @@
         <v>0</v>
       </c>
       <c r="D900">
-        <v>64743.99999999995</v>
+        <v>64120.99999999995</v>
       </c>
     </row>
     <row r="901" spans="1:4">
@@ -15763,7 +15763,7 @@
         <v>0</v>
       </c>
       <c r="D901">
-        <v>72719.99999999997</v>
+        <v>88392.00000000001</v>
       </c>
     </row>
     <row r="902" spans="1:4">
@@ -15777,7 +15777,7 @@
         <v>0</v>
       </c>
       <c r="D902">
-        <v>87665</v>
+        <v>137648</v>
       </c>
     </row>
     <row r="903" spans="1:4">
@@ -15791,7 +15791,7 @@
         <v>0</v>
       </c>
       <c r="D903">
-        <v>89663.00000000004</v>
+        <v>125437.9999999999</v>
       </c>
     </row>
     <row r="904" spans="1:4">
@@ -15805,7 +15805,7 @@
         <v>0</v>
       </c>
       <c r="D904">
-        <v>108259.9999999999</v>
+        <v>112892.0000000001</v>
       </c>
     </row>
     <row r="905" spans="1:4">
@@ -15819,7 +15819,7 @@
         <v>0</v>
       </c>
       <c r="D905">
-        <v>74255.00000000004</v>
+        <v>65198.00000000003</v>
       </c>
     </row>
     <row r="906" spans="1:4">
@@ -15833,7 +15833,7 @@
         <v>0</v>
       </c>
       <c r="D906">
-        <v>76074</v>
+        <v>64694.99999999998</v>
       </c>
     </row>
     <row r="907" spans="1:4">
@@ -15847,7 +15847,7 @@
         <v>0</v>
       </c>
       <c r="D907">
-        <v>123005.0000000001</v>
+        <v>126503</v>
       </c>
     </row>
     <row r="908" spans="1:4">
@@ -15861,7 +15861,7 @@
         <v>0</v>
       </c>
       <c r="D908">
-        <v>60401.99999999999</v>
+        <v>79271.00000000003</v>
       </c>
     </row>
     <row r="909" spans="1:4">
@@ -15875,7 +15875,7 @@
         <v>0</v>
       </c>
       <c r="D909">
-        <v>102526</v>
+        <v>97985.99999999997</v>
       </c>
     </row>
     <row r="910" spans="1:4">
@@ -15889,7 +15889,7 @@
         <v>0</v>
       </c>
       <c r="D910">
-        <v>62919.99999999996</v>
+        <v>75641.99999999997</v>
       </c>
     </row>
     <row r="911" spans="1:4">
@@ -15903,7 +15903,7 @@
         <v>0</v>
       </c>
       <c r="D911">
-        <v>101480</v>
+        <v>72114</v>
       </c>
     </row>
     <row r="912" spans="1:4">
@@ -15917,7 +15917,7 @@
         <v>0</v>
       </c>
       <c r="D912">
-        <v>92354.00000000007</v>
+        <v>104891.0000000001</v>
       </c>
     </row>
     <row r="913" spans="1:4">
@@ -15931,7 +15931,7 @@
         <v>0</v>
       </c>
       <c r="D913">
-        <v>86412.00000000001</v>
+        <v>84556</v>
       </c>
     </row>
     <row r="914" spans="1:4">
@@ -15945,7 +15945,7 @@
         <v>0</v>
       </c>
       <c r="D914">
-        <v>104320.0000000001</v>
+        <v>77958.00000000007</v>
       </c>
     </row>
     <row r="915" spans="1:4">
@@ -15959,7 +15959,7 @@
         <v>0</v>
       </c>
       <c r="D915">
-        <v>60987.99999999996</v>
+        <v>79308.99999999996</v>
       </c>
     </row>
     <row r="916" spans="1:4">
@@ -15973,7 +15973,7 @@
         <v>0</v>
       </c>
       <c r="D916">
-        <v>69548.99999999999</v>
+        <v>76593.00000000006</v>
       </c>
     </row>
     <row r="917" spans="1:4">
@@ -15987,7 +15987,7 @@
         <v>0</v>
       </c>
       <c r="D917">
-        <v>89102.00000000006</v>
+        <v>97569.99999999993</v>
       </c>
     </row>
     <row r="918" spans="1:4">
@@ -16001,7 +16001,7 @@
         <v>0</v>
       </c>
       <c r="D918">
-        <v>60356.99999999999</v>
+        <v>72214.00000000006</v>
       </c>
     </row>
     <row r="919" spans="1:4">
@@ -16015,7 +16015,7 @@
         <v>0</v>
       </c>
       <c r="D919">
-        <v>101434.0000000001</v>
+        <v>75329.99999999994</v>
       </c>
     </row>
     <row r="920" spans="1:4">
@@ -16029,7 +16029,7 @@
         <v>0</v>
       </c>
       <c r="D920">
-        <v>63344.00000000002</v>
+        <v>71690.00000000003</v>
       </c>
     </row>
     <row r="921" spans="1:4">
@@ -16043,7 +16043,7 @@
         <v>0</v>
       </c>
       <c r="D921">
-        <v>80246.00000000004</v>
+        <v>100020</v>
       </c>
     </row>
     <row r="922" spans="1:4">
@@ -16057,7 +16057,7 @@
         <v>0</v>
       </c>
       <c r="D922">
-        <v>71494.99999999997</v>
+        <v>69788.00000000003</v>
       </c>
     </row>
     <row r="923" spans="1:4">
@@ -16071,7 +16071,7 @@
         <v>0</v>
       </c>
       <c r="D923">
-        <v>62731.00000000002</v>
+        <v>74733.00000000003</v>
       </c>
     </row>
     <row r="924" spans="1:4">
@@ -16085,7 +16085,7 @@
         <v>0</v>
       </c>
       <c r="D924">
-        <v>83973.99999999996</v>
+        <v>80733.99999999994</v>
       </c>
     </row>
   </sheetData>

--- a/df_gap.xlsx
+++ b/df_gap.xlsx
@@ -3177,7 +3177,7 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>150279.9999999999</v>
+        <v>140588</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3188,10 +3188,10 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>6676.136438393674</v>
       </c>
       <c r="D3">
-        <v>90147.99999999993</v>
+        <v>92788.13643839373</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3205,7 +3205,7 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>81725.00000000004</v>
+        <v>138443.0000000001</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3219,7 +3219,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>138010</v>
+        <v>128169.9999999999</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3230,10 +3230,10 @@
         <v>7</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>36863.2510623165</v>
       </c>
       <c r="D6">
-        <v>159764</v>
+        <v>133731.2510623165</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -3247,7 +3247,7 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>77694.99999999994</v>
+        <v>79986.99999999993</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3261,7 +3261,7 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>103431.9999999999</v>
+        <v>109974</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3275,7 +3275,7 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>179625.0000000001</v>
+        <v>166580.0000000001</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3286,10 +3286,10 @@
         <v>11</v>
       </c>
       <c r="C10">
-        <v>1940.356708476407</v>
+        <v>17325.49547160632</v>
       </c>
       <c r="D10">
-        <v>65885.35670847645</v>
+        <v>72277.49547160628</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3303,7 +3303,7 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>108901.0000000001</v>
+        <v>117448</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -3317,7 +3317,7 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>161445.0000000001</v>
+        <v>182585</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3331,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>60215.99999999996</v>
+        <v>67712.99999999996</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -3345,7 +3345,7 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>115525</v>
+        <v>195055</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -3359,7 +3359,7 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>106750.0000000001</v>
+        <v>94254.00000000004</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -3370,10 +3370,10 @@
         <v>17</v>
       </c>
       <c r="C16">
-        <v>29378.43349633487</v>
+        <v>18129.39186793142</v>
       </c>
       <c r="D16">
-        <v>102558.4334963349</v>
+        <v>114268.3918679314</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3384,10 +3384,10 @@
         <v>18</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>12707.53961371963</v>
       </c>
       <c r="D17">
-        <v>67268.99999999996</v>
+        <v>71272.53961371965</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -3401,7 +3401,7 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>140184</v>
+        <v>156823.9999999999</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -3415,7 +3415,7 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>85274.00000000001</v>
+        <v>101641.9999999999</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -3429,7 +3429,7 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>129508</v>
+        <v>140176.0000000001</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -3440,10 +3440,10 @@
         <v>22</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>499.7303056009696</v>
       </c>
       <c r="D21">
-        <v>181985</v>
+        <v>151909.7303056009</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -3457,7 +3457,7 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>155983.9999999999</v>
+        <v>135920</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>77400.00000000006</v>
+        <v>75255.99999999999</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -3485,7 +3485,7 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>162714.9999999999</v>
+        <v>167505.0000000001</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -3496,10 +3496,10 @@
         <v>26</v>
       </c>
       <c r="C25">
-        <v>25431.16261777218</v>
+        <v>40286.75957395771</v>
       </c>
       <c r="D25">
-        <v>141026.1626177721</v>
+        <v>152531.7595739578</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -3510,10 +3510,10 @@
         <v>27</v>
       </c>
       <c r="C26">
-        <v>12349.1594272887</v>
+        <v>0</v>
       </c>
       <c r="D26">
-        <v>137619.1594272886</v>
+        <v>158345.0000000001</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -3524,10 +3524,10 @@
         <v>28</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>20599.39693609481</v>
       </c>
       <c r="D27">
-        <v>103069</v>
+        <v>114377.3969360948</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -3538,10 +3538,10 @@
         <v>29</v>
       </c>
       <c r="C28">
-        <v>4963.399859136785</v>
+        <v>10196.33052662577</v>
       </c>
       <c r="D28">
-        <v>140103.3998591368</v>
+        <v>150721.3305266258</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -3552,10 +3552,10 @@
         <v>30</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>43866.92590146264</v>
       </c>
       <c r="D29">
-        <v>155195.9999999999</v>
+        <v>132542.9259014626</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -3569,7 +3569,7 @@
         <v>0</v>
       </c>
       <c r="D30">
-        <v>137363.9999999999</v>
+        <v>150283.9999999999</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -3583,7 +3583,7 @@
         <v>0</v>
       </c>
       <c r="D31">
-        <v>63574.00000000002</v>
+        <v>67600.99999999994</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -3597,7 +3597,7 @@
         <v>0</v>
       </c>
       <c r="D32">
-        <v>76603.00000000006</v>
+        <v>72851.99999999996</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -3611,7 +3611,7 @@
         <v>0</v>
       </c>
       <c r="D33">
-        <v>64994.99999999999</v>
+        <v>78119.99999999996</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -3622,10 +3622,10 @@
         <v>35</v>
       </c>
       <c r="C34">
-        <v>7258.75675072195</v>
+        <v>0</v>
       </c>
       <c r="D34">
-        <v>139733.756750722</v>
+        <v>148669.9999999999</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -3639,7 +3639,7 @@
         <v>0</v>
       </c>
       <c r="D35">
-        <v>115200</v>
+        <v>148448</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -3653,7 +3653,7 @@
         <v>0</v>
       </c>
       <c r="D36">
-        <v>118532</v>
+        <v>109983.9999999999</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -3664,10 +3664,10 @@
         <v>38</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>5290.24849471559</v>
       </c>
       <c r="D37">
-        <v>115189</v>
+        <v>107171.2484947156</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -3678,10 +3678,10 @@
         <v>39</v>
       </c>
       <c r="C38">
-        <v>5416.435770678378</v>
+        <v>16675.06325058179</v>
       </c>
       <c r="D38">
-        <v>101231.4357706785</v>
+        <v>106076.0632505819</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -3692,10 +3692,10 @@
         <v>40</v>
       </c>
       <c r="C39">
-        <v>8989.73719585019</v>
+        <v>7475.486972830928</v>
       </c>
       <c r="D39">
-        <v>83687.73719585018</v>
+        <v>84741.48697283096</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -3706,10 +3706,10 @@
         <v>41</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>18140.68665520083</v>
       </c>
       <c r="D40">
-        <v>151451.9999999999</v>
+        <v>126308.6866552007</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -3720,10 +3720,10 @@
         <v>42</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>19953.26717746836</v>
       </c>
       <c r="D41">
-        <v>85488.00000000003</v>
+        <v>85161.26717746831</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -3734,10 +3734,10 @@
         <v>43</v>
       </c>
       <c r="C42">
-        <v>41114.38254148756</v>
+        <v>0</v>
       </c>
       <c r="D42">
-        <v>128826.3825414875</v>
+        <v>128540.0000000001</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -3751,7 +3751,7 @@
         <v>0</v>
       </c>
       <c r="D43">
-        <v>109603</v>
+        <v>129313</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -3765,7 +3765,7 @@
         <v>0</v>
       </c>
       <c r="D44">
-        <v>109434</v>
+        <v>70545.99999999999</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -3776,10 +3776,10 @@
         <v>46</v>
       </c>
       <c r="C45">
-        <v>9444.855316410627</v>
+        <v>20752.26633852057</v>
       </c>
       <c r="D45">
-        <v>84148.85531641057</v>
+        <v>86694.26633852052</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -3790,10 +3790,10 @@
         <v>47</v>
       </c>
       <c r="C46">
-        <v>11840.53355709021</v>
+        <v>1123.642860395659</v>
       </c>
       <c r="D46">
-        <v>102861.5335570902</v>
+        <v>108029.6428603956</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -3807,7 +3807,7 @@
         <v>0</v>
       </c>
       <c r="D47">
-        <v>123436</v>
+        <v>123008.0000000001</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -3821,7 +3821,7 @@
         <v>0</v>
       </c>
       <c r="D48">
-        <v>161972.0000000001</v>
+        <v>158988</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -3835,7 +3835,7 @@
         <v>0</v>
       </c>
       <c r="D49">
-        <v>108392</v>
+        <v>100385.9999999999</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -3849,7 +3849,7 @@
         <v>0</v>
       </c>
       <c r="D50">
-        <v>97560.00000000003</v>
+        <v>98782.00000000009</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -3863,7 +3863,7 @@
         <v>0</v>
       </c>
       <c r="D51">
-        <v>196344.9999999999</v>
+        <v>101395</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -3874,10 +3874,10 @@
         <v>53</v>
       </c>
       <c r="C52">
-        <v>5723.636581808969</v>
+        <v>2997.518827869426</v>
       </c>
       <c r="D52">
-        <v>102762.6365818089</v>
+        <v>107545.5188278694</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -3888,10 +3888,10 @@
         <v>54</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>7262.11566487253</v>
       </c>
       <c r="D53">
-        <v>149164.0000000001</v>
+        <v>125434.1156648725</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -3905,7 +3905,7 @@
         <v>0</v>
       </c>
       <c r="D54">
-        <v>170990</v>
+        <v>184414.9999999999</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -3919,7 +3919,7 @@
         <v>0</v>
       </c>
       <c r="D55">
-        <v>175149.9999999999</v>
+        <v>148705.0000000001</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -3933,7 +3933,7 @@
         <v>0</v>
       </c>
       <c r="D56">
-        <v>115884</v>
+        <v>152048.0000000001</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -3947,7 +3947,7 @@
         <v>0</v>
       </c>
       <c r="D57">
-        <v>179419.9999999999</v>
+        <v>177715</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -3958,10 +3958,10 @@
         <v>59</v>
       </c>
       <c r="C58">
-        <v>9118.432641600506</v>
+        <v>5530.003710013872</v>
       </c>
       <c r="D58">
-        <v>65942.43264160054</v>
+        <v>67542.00371001389</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -3975,7 +3975,7 @@
         <v>0</v>
       </c>
       <c r="D59">
-        <v>82073.00000000001</v>
+        <v>108362.0000000001</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -3989,7 +3989,7 @@
         <v>0</v>
       </c>
       <c r="D60">
-        <v>63873.00000000003</v>
+        <v>64520.00000000004</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -4003,7 +4003,7 @@
         <v>0</v>
       </c>
       <c r="D61">
-        <v>82393.99999999994</v>
+        <v>85850.00000000006</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -4017,7 +4017,7 @@
         <v>0</v>
       </c>
       <c r="D62">
-        <v>160696</v>
+        <v>99492.00000000006</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -4031,7 +4031,7 @@
         <v>0</v>
       </c>
       <c r="D63">
-        <v>72473.99999999997</v>
+        <v>71520</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -4042,10 +4042,10 @@
         <v>65</v>
       </c>
       <c r="C64">
-        <v>27362.86699037399</v>
+        <v>50566.07655222988</v>
       </c>
       <c r="D64">
-        <v>139052.8669903741</v>
+        <v>143151.0765522299</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -4056,10 +4056,10 @@
         <v>66</v>
       </c>
       <c r="C65">
-        <v>6431.24863562041</v>
+        <v>5743.885515509537</v>
       </c>
       <c r="D65">
-        <v>65871.24863562039</v>
+        <v>65483.88551550954</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -4070,10 +4070,10 @@
         <v>67</v>
       </c>
       <c r="C66">
-        <v>0</v>
+        <v>34271.99231112411</v>
       </c>
       <c r="D66">
-        <v>158810.0000000001</v>
+        <v>140651.9923111241</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -4087,7 +4087,7 @@
         <v>0</v>
       </c>
       <c r="D67">
-        <v>128602</v>
+        <v>116563.0000000001</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="D68">
-        <v>97784.00000000006</v>
+        <v>94051.99999999994</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -4112,10 +4112,10 @@
         <v>70</v>
       </c>
       <c r="C69">
-        <v>20976.16261777219</v>
+        <v>14865.08174364445</v>
       </c>
       <c r="D69">
-        <v>141026.1626177721</v>
+        <v>142930.0817436445</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -4129,7 +4129,7 @@
         <v>0</v>
       </c>
       <c r="D70">
-        <v>107425.9999999999</v>
+        <v>108390</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -4140,10 +4140,10 @@
         <v>72</v>
       </c>
       <c r="C71">
-        <v>29959.82426476723</v>
+        <v>44899.97208143301</v>
       </c>
       <c r="D71">
-        <v>127531.8242647672</v>
+        <v>125343.972081433</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -4157,7 +4157,7 @@
         <v>0</v>
       </c>
       <c r="D72">
-        <v>69273.99999999999</v>
+        <v>72177.00000000003</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -4171,7 +4171,7 @@
         <v>0</v>
       </c>
       <c r="D73">
-        <v>125645.0000000001</v>
+        <v>93572.00000000007</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -4182,10 +4182,10 @@
         <v>75</v>
       </c>
       <c r="C74">
-        <v>4154.967754610334</v>
+        <v>10831.08502225098</v>
       </c>
       <c r="D74">
-        <v>86122.96775461041</v>
+        <v>87451.08502225096</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -4196,10 +4196,10 @@
         <v>76</v>
       </c>
       <c r="C75">
-        <v>31627.38196135736</v>
+        <v>13758.20679011564</v>
       </c>
       <c r="D75">
-        <v>126219.3819613574</v>
+        <v>125526.2067901156</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -4210,10 +4210,10 @@
         <v>77</v>
       </c>
       <c r="C76">
-        <v>0</v>
+        <v>3359.540218442722</v>
       </c>
       <c r="D76">
-        <v>126004</v>
+        <v>106845.5402184428</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -4227,7 +4227,7 @@
         <v>0</v>
       </c>
       <c r="D77">
-        <v>121790</v>
+        <v>148785</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -4238,10 +4238,10 @@
         <v>79</v>
       </c>
       <c r="C78">
-        <v>13518.48179326994</v>
+        <v>14825.90769024058</v>
       </c>
       <c r="D78">
-        <v>64957.48179326989</v>
+        <v>67347.90769024061</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -4252,10 +4252,10 @@
         <v>80</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>1403.728929063756</v>
       </c>
       <c r="D79">
-        <v>66547</v>
+        <v>67257.72892906374</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -4266,10 +4266,10 @@
         <v>81</v>
       </c>
       <c r="C80">
-        <v>17689.4609200855</v>
+        <v>0</v>
       </c>
       <c r="D80">
-        <v>83115.46092008546</v>
+        <v>90306.00000000007</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -4283,7 +4283,7 @@
         <v>0</v>
       </c>
       <c r="D81">
-        <v>111150</v>
+        <v>144215</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -4294,10 +4294,10 @@
         <v>83</v>
       </c>
       <c r="C82">
-        <v>43422.73519648072</v>
+        <v>0</v>
       </c>
       <c r="D82">
-        <v>138967.7351964807</v>
+        <v>163795</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -4311,7 +4311,7 @@
         <v>0</v>
       </c>
       <c r="D83">
-        <v>119072.0000000001</v>
+        <v>97346.00000000007</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -4325,7 +4325,7 @@
         <v>0</v>
       </c>
       <c r="D84">
-        <v>146064.0000000001</v>
+        <v>95296.00000000009</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -4336,10 +4336,10 @@
         <v>86</v>
       </c>
       <c r="C85">
-        <v>4824.678610737741</v>
+        <v>12055.88988177313</v>
       </c>
       <c r="D85">
-        <v>66816.67861073773</v>
+        <v>68439.88988177308</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -4350,10 +4350,10 @@
         <v>87</v>
       </c>
       <c r="C86">
-        <v>1014.990373393652</v>
+        <v>0</v>
       </c>
       <c r="D86">
-        <v>103831.9903733937</v>
+        <v>127042.0000000001</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -4364,10 +4364,10 @@
         <v>88</v>
       </c>
       <c r="C87">
-        <v>2436.292146379623</v>
+        <v>0</v>
       </c>
       <c r="D87">
-        <v>103606.2921463797</v>
+        <v>112602.9999999999</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -4381,7 +4381,7 @@
         <v>0</v>
       </c>
       <c r="D88">
-        <v>187580</v>
+        <v>196064.9999999999</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -4395,7 +4395,7 @@
         <v>0</v>
       </c>
       <c r="D89">
-        <v>68598.00000000001</v>
+        <v>67157.99999999999</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -4409,7 +4409,7 @@
         <v>0</v>
       </c>
       <c r="D90">
-        <v>114865</v>
+        <v>104349.9999999999</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -4423,7 +4423,7 @@
         <v>0</v>
       </c>
       <c r="D91">
-        <v>60266.99999999999</v>
+        <v>75057.00000000001</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -4437,7 +4437,7 @@
         <v>0</v>
       </c>
       <c r="D92">
-        <v>89879.99999999996</v>
+        <v>85935.99999999994</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -4451,7 +4451,7 @@
         <v>0</v>
       </c>
       <c r="D93">
-        <v>61962.99999999996</v>
+        <v>60659.99999999999</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -4462,10 +4462,10 @@
         <v>95</v>
       </c>
       <c r="C94">
-        <v>5017.280738253212</v>
+        <v>11709.72892906376</v>
       </c>
       <c r="D94">
-        <v>64559.28073825326</v>
+        <v>67257.72892906374</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -4479,7 +4479,7 @@
         <v>0</v>
       </c>
       <c r="D95">
-        <v>162860</v>
+        <v>137036</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -4493,7 +4493,7 @@
         <v>0</v>
       </c>
       <c r="D96">
-        <v>69429</v>
+        <v>65485.99999999998</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -4507,7 +4507,7 @@
         <v>0</v>
       </c>
       <c r="D97">
-        <v>60765.00000000002</v>
+        <v>66686.99999999997</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -4518,10 +4518,10 @@
         <v>99</v>
       </c>
       <c r="C98">
-        <v>0</v>
+        <v>109.258449012239</v>
       </c>
       <c r="D98">
-        <v>142875</v>
+        <v>142599.2584490124</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -4532,10 +4532,10 @@
         <v>100</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>15821.34434951394</v>
       </c>
       <c r="D99">
-        <v>120043</v>
+        <v>107967.3443495139</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -4549,7 +4549,7 @@
         <v>0</v>
       </c>
       <c r="D100">
-        <v>119396</v>
+        <v>117336</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -4560,10 +4560,10 @@
         <v>102</v>
       </c>
       <c r="C101">
-        <v>9884.192519500168</v>
+        <v>0</v>
       </c>
       <c r="D101">
-        <v>85212.19251950012</v>
+        <v>89216.00000000007</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -4574,10 +4574,10 @@
         <v>103</v>
       </c>
       <c r="C102">
-        <v>14229.42450891025</v>
+        <v>0</v>
       </c>
       <c r="D102">
-        <v>85389.42450891019</v>
+        <v>88224.00000000006</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -4588,10 +4588,10 @@
         <v>104</v>
       </c>
       <c r="C103">
-        <v>40630.47462683092</v>
+        <v>1218.850346233477</v>
       </c>
       <c r="D103">
-        <v>125006.474626831</v>
+        <v>126510.8503462334</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -4602,10 +4602,10 @@
         <v>105</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>43303.9201278094</v>
       </c>
       <c r="D104">
-        <v>142099.9999999999</v>
+        <v>142193.9201278093</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -4616,10 +4616,10 @@
         <v>106</v>
       </c>
       <c r="C105">
-        <v>44150.50691375337</v>
+        <v>45122.69622159131</v>
       </c>
       <c r="D105">
-        <v>136010.5069137534</v>
+        <v>140377.6962215914</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -4633,7 +4633,7 @@
         <v>0</v>
       </c>
       <c r="D106">
-        <v>134955.9999999999</v>
+        <v>160552.0000000001</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -4647,7 +4647,7 @@
         <v>0</v>
       </c>
       <c r="D107">
-        <v>66440.00000000003</v>
+        <v>79613.99999999997</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -4658,10 +4658,10 @@
         <v>109</v>
       </c>
       <c r="C108">
-        <v>0</v>
+        <v>13932.89872303802</v>
       </c>
       <c r="D108">
-        <v>67135.99999999997</v>
+        <v>66895.898723038</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -4675,7 +4675,7 @@
         <v>0</v>
       </c>
       <c r="D109">
-        <v>99028</v>
+        <v>141924</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -4689,7 +4689,7 @@
         <v>0</v>
       </c>
       <c r="D110">
-        <v>107897.9999999999</v>
+        <v>82081.99999999993</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -4700,10 +4700,10 @@
         <v>112</v>
       </c>
       <c r="C111">
-        <v>22272.80759767164</v>
+        <v>13677.69402882803</v>
       </c>
       <c r="D111">
-        <v>141767.8075976716</v>
+        <v>138977.6940288281</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -4714,10 +4714,10 @@
         <v>113</v>
       </c>
       <c r="C112">
-        <v>0</v>
+        <v>7669.335563783388</v>
       </c>
       <c r="D112">
-        <v>105471.9999999999</v>
+        <v>108554.3355637835</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -4731,7 +4731,7 @@
         <v>0</v>
       </c>
       <c r="D113">
-        <v>72218.00000000004</v>
+        <v>71669.99999999994</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -4745,7 +4745,7 @@
         <v>0</v>
       </c>
       <c r="D114">
-        <v>92801.99999999999</v>
+        <v>76798.00000000001</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -4759,7 +4759,7 @@
         <v>0</v>
       </c>
       <c r="D115">
-        <v>117610</v>
+        <v>120280</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -4770,10 +4770,10 @@
         <v>117</v>
       </c>
       <c r="C116">
-        <v>0</v>
+        <v>23248.43023544638</v>
       </c>
       <c r="D116">
-        <v>90137.99999999994</v>
+        <v>85828.43023544637</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -4787,7 +4787,7 @@
         <v>0</v>
       </c>
       <c r="D117">
-        <v>162979.9999999999</v>
+        <v>167640.0000000001</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -4801,7 +4801,7 @@
         <v>0</v>
       </c>
       <c r="D118">
-        <v>103015</v>
+        <v>121735.0000000001</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -4815,7 +4815,7 @@
         <v>0</v>
       </c>
       <c r="D119">
-        <v>95848.00000000007</v>
+        <v>86235.99999999999</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -4826,10 +4826,10 @@
         <v>121</v>
       </c>
       <c r="C120">
-        <v>0</v>
+        <v>6100.349926459254</v>
       </c>
       <c r="D120">
-        <v>154480.0000000001</v>
+        <v>140570.3499264593</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -4843,7 +4843,7 @@
         <v>0</v>
       </c>
       <c r="D121">
-        <v>97777.99999999999</v>
+        <v>101752</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -4857,7 +4857,7 @@
         <v>0</v>
       </c>
       <c r="D122">
-        <v>124082</v>
+        <v>132832.9999999999</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -4868,10 +4868,10 @@
         <v>124</v>
       </c>
       <c r="C123">
-        <v>1847.441887434637</v>
+        <v>5930.987513248234</v>
       </c>
       <c r="D123">
-        <v>66301.44188743462</v>
+        <v>65786.98751324823</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -4885,7 +4885,7 @@
         <v>0</v>
       </c>
       <c r="D124">
-        <v>96225.99999999993</v>
+        <v>72948.00000000004</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -4899,7 +4899,7 @@
         <v>0</v>
       </c>
       <c r="D125">
-        <v>74854.00000000006</v>
+        <v>88982.00000000007</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -4913,7 +4913,7 @@
         <v>0</v>
       </c>
       <c r="D126">
-        <v>97800.00000000009</v>
+        <v>163747.9999999999</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -4927,7 +4927,7 @@
         <v>0</v>
       </c>
       <c r="D127">
-        <v>88612.00000000004</v>
+        <v>79304.00000000006</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -4938,10 +4938,10 @@
         <v>129</v>
       </c>
       <c r="C128">
-        <v>2827.255108721438</v>
+        <v>34651.68727025851</v>
       </c>
       <c r="D128">
-        <v>124859.2551087215</v>
+        <v>126015.6872702585</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -4955,7 +4955,7 @@
         <v>0</v>
       </c>
       <c r="D129">
-        <v>90976</v>
+        <v>76189.99999999994</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -4966,10 +4966,10 @@
         <v>131</v>
       </c>
       <c r="C130">
-        <v>22504.00562905126</v>
+        <v>42142.20339158803</v>
       </c>
       <c r="D130">
-        <v>125312.0056290513</v>
+        <v>126730.203391588</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -4983,7 +4983,7 @@
         <v>0</v>
       </c>
       <c r="D131">
-        <v>149040.0000000001</v>
+        <v>130483.9999999999</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -4994,10 +4994,10 @@
         <v>133</v>
       </c>
       <c r="C132">
-        <v>0</v>
+        <v>14523.96495585321</v>
       </c>
       <c r="D132">
-        <v>95296.00000000009</v>
+        <v>85705.96495585323</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -5008,10 +5008,10 @@
         <v>134</v>
       </c>
       <c r="C133">
-        <v>0</v>
+        <v>19272.01424724392</v>
       </c>
       <c r="D133">
-        <v>157292</v>
+        <v>125756.0142472438</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -5025,7 +5025,7 @@
         <v>0</v>
       </c>
       <c r="D134">
-        <v>86877.99999999993</v>
+        <v>95025.99999999997</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -5039,7 +5039,7 @@
         <v>0</v>
       </c>
       <c r="D135">
-        <v>93844.00000000003</v>
+        <v>89258.00000000006</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -5050,10 +5050,10 @@
         <v>137</v>
       </c>
       <c r="C136">
-        <v>564.8348279965867</v>
+        <v>28884.57842783519</v>
       </c>
       <c r="D136">
-        <v>141814.8348279967</v>
+        <v>139759.5784278351</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -5067,7 +5067,7 @@
         <v>0</v>
       </c>
       <c r="D137">
-        <v>73136.00000000003</v>
+        <v>83347.99999999997</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -5078,10 +5078,10 @@
         <v>139</v>
       </c>
       <c r="C138">
-        <v>11483.54717489369</v>
+        <v>0</v>
       </c>
       <c r="D138">
-        <v>66734.54717489368</v>
+        <v>66686.00000000003</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -5092,10 +5092,10 @@
         <v>140</v>
       </c>
       <c r="C139">
-        <v>9264.499694044134</v>
+        <v>0</v>
       </c>
       <c r="D139">
-        <v>85978.49969404413</v>
+        <v>91684.00000000004</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -5106,10 +5106,10 @@
         <v>141</v>
       </c>
       <c r="C140">
-        <v>18588.99964153956</v>
+        <v>16010.4015829838</v>
       </c>
       <c r="D140">
-        <v>103870.9996415396</v>
+        <v>108783.4015829838</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -5123,7 +5123,7 @@
         <v>0</v>
       </c>
       <c r="D141">
-        <v>147884</v>
+        <v>146483.9999999999</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -5137,7 +5137,7 @@
         <v>0</v>
       </c>
       <c r="D142">
-        <v>132953.0000000001</v>
+        <v>108797.0000000001</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -5151,7 +5151,7 @@
         <v>0</v>
       </c>
       <c r="D143">
-        <v>137268.0000000001</v>
+        <v>150171.9999999999</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -5162,10 +5162,10 @@
         <v>145</v>
       </c>
       <c r="C144">
-        <v>20603.9459865906</v>
+        <v>26977.01550624747</v>
       </c>
       <c r="D144">
-        <v>138748.9459865907</v>
+        <v>141277.0155062474</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -5176,10 +5176,10 @@
         <v>146</v>
       </c>
       <c r="C145">
-        <v>35715.02577801479</v>
+        <v>51749.51328566071</v>
       </c>
       <c r="D145">
-        <v>139330.0257780149</v>
+        <v>143794.5132856607</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -5193,7 +5193,7 @@
         <v>0</v>
       </c>
       <c r="D146">
-        <v>108521</v>
+        <v>117476.0000000001</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -5207,7 +5207,7 @@
         <v>0</v>
       </c>
       <c r="D147">
-        <v>132592.0000000001</v>
+        <v>139364.0000000001</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -5218,10 +5218,10 @@
         <v>149</v>
       </c>
       <c r="C148">
-        <v>0</v>
+        <v>3590.565913277911</v>
       </c>
       <c r="D148">
-        <v>65884.99999999997</v>
+        <v>67798.56591327793</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -5235,7 +5235,7 @@
         <v>0</v>
       </c>
       <c r="D149">
-        <v>70879.00000000004</v>
+        <v>70993.99999999997</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -5246,10 +5246,10 @@
         <v>151</v>
       </c>
       <c r="C150">
-        <v>26757.32068078662</v>
+        <v>39398.2687566825</v>
       </c>
       <c r="D150">
-        <v>140812.3206807866</v>
+        <v>144888.2687566826</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -5260,10 +5260,10 @@
         <v>152</v>
       </c>
       <c r="C151">
-        <v>10381.0548977895</v>
+        <v>4780.278563755011</v>
       </c>
       <c r="D151">
-        <v>67280.05489778949</v>
+        <v>66480.278563755</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -5274,10 +5274,10 @@
         <v>153</v>
       </c>
       <c r="C152">
-        <v>0</v>
+        <v>47224.64598421428</v>
       </c>
       <c r="D152">
-        <v>141639.9999999999</v>
+        <v>141584.6459842142</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -5291,7 +5291,7 @@
         <v>0</v>
       </c>
       <c r="D153">
-        <v>150984</v>
+        <v>96867.99999999997</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -5302,10 +5302,10 @@
         <v>155</v>
       </c>
       <c r="C154">
-        <v>697.8646271229227</v>
+        <v>0</v>
       </c>
       <c r="D154">
-        <v>86469.86462712298</v>
+        <v>96209.99999999999</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -5316,10 +5316,10 @@
         <v>156</v>
       </c>
       <c r="C155">
-        <v>17539.44630559552</v>
+        <v>0</v>
       </c>
       <c r="D155">
-        <v>67950.44630559556</v>
+        <v>67747.99999999999</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -5333,7 +5333,7 @@
         <v>0</v>
       </c>
       <c r="D156">
-        <v>85074.00000000001</v>
+        <v>97517.99999999997</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -5344,10 +5344,10 @@
         <v>158</v>
       </c>
       <c r="C157">
-        <v>1583.437429937971</v>
+        <v>896.3265131889493</v>
       </c>
       <c r="D157">
-        <v>64221.43742993803</v>
+        <v>66801.32651318898</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -5361,7 +5361,7 @@
         <v>0</v>
       </c>
       <c r="D158">
-        <v>177330</v>
+        <v>131835.0000000001</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -5375,7 +5375,7 @@
         <v>0</v>
       </c>
       <c r="D159">
-        <v>79157.99999999999</v>
+        <v>72892.00000000006</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -5389,7 +5389,7 @@
         <v>0</v>
       </c>
       <c r="D160">
-        <v>94592.00000000003</v>
+        <v>116270.0000000001</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -5403,7 +5403,7 @@
         <v>0</v>
       </c>
       <c r="D161">
-        <v>105979.9999999999</v>
+        <v>98649.99999999994</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -5417,7 +5417,7 @@
         <v>0</v>
       </c>
       <c r="D162">
-        <v>113905.0000000001</v>
+        <v>190180</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -5428,10 +5428,10 @@
         <v>164</v>
       </c>
       <c r="C163">
-        <v>14037.5524842048</v>
+        <v>0</v>
       </c>
       <c r="D163">
-        <v>84973.5524842048</v>
+        <v>84177.99999999994</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -5445,7 +5445,7 @@
         <v>0</v>
       </c>
       <c r="D164">
-        <v>110310.0000000001</v>
+        <v>150260.0000000001</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -5459,7 +5459,7 @@
         <v>0</v>
       </c>
       <c r="D165">
-        <v>61376.99999999998</v>
+        <v>72451.99999999994</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -5473,7 +5473,7 @@
         <v>0</v>
       </c>
       <c r="D166">
-        <v>130944.9999999999</v>
+        <v>145725.0000000001</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -5487,7 +5487,7 @@
         <v>0</v>
       </c>
       <c r="D167">
-        <v>101909.0000000001</v>
+        <v>105386</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -5501,7 +5501,7 @@
         <v>0</v>
       </c>
       <c r="D168">
-        <v>106400.0000000001</v>
+        <v>147295.0000000001</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -5515,7 +5515,7 @@
         <v>0</v>
       </c>
       <c r="D169">
-        <v>110068.9999999999</v>
+        <v>127952</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -5529,7 +5529,7 @@
         <v>0</v>
       </c>
       <c r="D170">
-        <v>158863.9999999999</v>
+        <v>110768</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -5540,10 +5540,10 @@
         <v>172</v>
       </c>
       <c r="C171">
-        <v>0</v>
+        <v>16692.62449468524</v>
       </c>
       <c r="D171">
-        <v>135375.9999999999</v>
+        <v>127196.6244946852</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -5554,10 +5554,10 @@
         <v>173</v>
       </c>
       <c r="C172">
-        <v>0</v>
+        <v>588.2557264647767</v>
       </c>
       <c r="D172">
-        <v>141744</v>
+        <v>127860.2557264648</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -5571,7 +5571,7 @@
         <v>0</v>
       </c>
       <c r="D173">
-        <v>105200</v>
+        <v>123944.9999999999</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -5585,7 +5585,7 @@
         <v>0</v>
       </c>
       <c r="D174">
-        <v>105840</v>
+        <v>188019.9999999999</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -5599,7 +5599,7 @@
         <v>0</v>
       </c>
       <c r="D175">
-        <v>168716</v>
+        <v>91684.00000000004</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -5613,7 +5613,7 @@
         <v>0</v>
       </c>
       <c r="D176">
-        <v>74799.00000000004</v>
+        <v>72078</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -5624,10 +5624,10 @@
         <v>178</v>
       </c>
       <c r="C177">
-        <v>330.091616936159</v>
+        <v>0</v>
       </c>
       <c r="D177">
-        <v>84030.09161693613</v>
+        <v>97265.99999999991</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -5641,7 +5641,7 @@
         <v>0</v>
       </c>
       <c r="D178">
-        <v>98533.99999999999</v>
+        <v>102966.0000000001</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -5655,7 +5655,7 @@
         <v>0</v>
       </c>
       <c r="D179">
-        <v>136607.0000000001</v>
+        <v>131048</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -5666,10 +5666,10 @@
         <v>181</v>
       </c>
       <c r="C180">
-        <v>11314.75628219648</v>
+        <v>0</v>
       </c>
       <c r="D180">
-        <v>86380.75628219648</v>
+        <v>97859.99999999994</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -5683,7 +5683,7 @@
         <v>0</v>
       </c>
       <c r="D181">
-        <v>61471.99999999999</v>
+        <v>62638.00000000006</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -5694,10 +5694,10 @@
         <v>183</v>
       </c>
       <c r="C182">
-        <v>0</v>
+        <v>23044.03446904583</v>
       </c>
       <c r="D182">
-        <v>105024.9999999999</v>
+        <v>106202.0344690459</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -5711,7 +5711,7 @@
         <v>0</v>
       </c>
       <c r="D183">
-        <v>110909.9999999999</v>
+        <v>188274.9999999999</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -5722,10 +5722,10 @@
         <v>185</v>
       </c>
       <c r="C184">
-        <v>17021.58762207546</v>
+        <v>0</v>
       </c>
       <c r="D184">
-        <v>140191.5876220754</v>
+        <v>141865</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -5736,10 +5736,10 @@
         <v>186</v>
       </c>
       <c r="C185">
-        <v>3639.280738253219</v>
+        <v>16667.7289290637</v>
       </c>
       <c r="D185">
-        <v>64559.28073825326</v>
+        <v>67257.72892906374</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -5750,10 +5750,10 @@
         <v>187</v>
       </c>
       <c r="C186">
-        <v>14441.02069087005</v>
+        <v>4556.982919935108</v>
       </c>
       <c r="D186">
-        <v>66636.02069087008</v>
+        <v>66277.98291993514</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -5767,7 +5767,7 @@
         <v>0</v>
       </c>
       <c r="D187">
-        <v>86557.99999999993</v>
+        <v>120737</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -5781,7 +5781,7 @@
         <v>0</v>
       </c>
       <c r="D188">
-        <v>70672.99999999996</v>
+        <v>71780.00000000004</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -5795,7 +5795,7 @@
         <v>0</v>
       </c>
       <c r="D189">
-        <v>75030.00000000006</v>
+        <v>93325.99999999996</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -5809,7 +5809,7 @@
         <v>0</v>
       </c>
       <c r="D190">
-        <v>120505</v>
+        <v>116641.0000000001</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -5820,10 +5820,10 @@
         <v>192</v>
       </c>
       <c r="C191">
-        <v>2133.891689010736</v>
+        <v>93.1181057432259</v>
       </c>
       <c r="D191">
-        <v>67839.89168901078</v>
+        <v>67129.11810574326</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -5837,7 +5837,7 @@
         <v>0</v>
       </c>
       <c r="D192">
-        <v>96263.00000000001</v>
+        <v>135895.9999999999</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -5851,7 +5851,7 @@
         <v>0</v>
       </c>
       <c r="D193">
-        <v>102707.0000000001</v>
+        <v>82334.00000000006</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -5862,10 +5862,10 @@
         <v>195</v>
       </c>
       <c r="C194">
-        <v>6346.756282196511</v>
+        <v>8423.995048747893</v>
       </c>
       <c r="D194">
-        <v>86380.75628219648</v>
+        <v>85031.99504874783</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -5879,7 +5879,7 @@
         <v>0</v>
       </c>
       <c r="D195">
-        <v>107335</v>
+        <v>111319</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -5890,10 +5890,10 @@
         <v>197</v>
       </c>
       <c r="C196">
-        <v>35053.12445754054</v>
+        <v>30106.84864873026</v>
       </c>
       <c r="D196">
-        <v>105107.1244575405</v>
+        <v>104888.8486487303</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -5907,7 +5907,7 @@
         <v>0</v>
       </c>
       <c r="D197">
-        <v>100966.9999999999</v>
+        <v>90775.99999999997</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -5918,10 +5918,10 @@
         <v>199</v>
       </c>
       <c r="C198">
-        <v>0</v>
+        <v>44925.92341281605</v>
       </c>
       <c r="D198">
-        <v>138700</v>
+        <v>126557.923412816</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -5935,7 +5935,7 @@
         <v>0</v>
       </c>
       <c r="D199">
-        <v>128060.0000000001</v>
+        <v>176955.0000000001</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -5949,7 +5949,7 @@
         <v>0</v>
       </c>
       <c r="D200">
-        <v>164855</v>
+        <v>170120</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -5963,7 +5963,7 @@
         <v>0</v>
       </c>
       <c r="D201">
-        <v>102680</v>
+        <v>80125.99999999994</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -5977,7 +5977,7 @@
         <v>0</v>
       </c>
       <c r="D202">
-        <v>152325</v>
+        <v>146805</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -5988,10 +5988,10 @@
         <v>204</v>
       </c>
       <c r="C203">
-        <v>10359.37881684753</v>
+        <v>2482.725793106656</v>
       </c>
       <c r="D203">
-        <v>84217.37881684757</v>
+        <v>86744.72579310664</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -6005,7 +6005,7 @@
         <v>0</v>
       </c>
       <c r="D204">
-        <v>168452</v>
+        <v>141971.9999999999</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -6019,7 +6019,7 @@
         <v>0</v>
       </c>
       <c r="D205">
-        <v>91764</v>
+        <v>74221.99999999999</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -6033,7 +6033,7 @@
         <v>0</v>
       </c>
       <c r="D206">
-        <v>60424.00000000002</v>
+        <v>69075.00000000004</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -6047,7 +6047,7 @@
         <v>0</v>
       </c>
       <c r="D207">
-        <v>66246.99999999996</v>
+        <v>73217.99999999996</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -6058,10 +6058,10 @@
         <v>209</v>
       </c>
       <c r="C208">
-        <v>4505.286828514116</v>
+        <v>6006.949007567091</v>
       </c>
       <c r="D208">
-        <v>66545.2868285141</v>
+        <v>68240.94900756713</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -6075,7 +6075,7 @@
         <v>0</v>
       </c>
       <c r="D209">
-        <v>141251.9999999999</v>
+        <v>119400</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -6089,7 +6089,7 @@
         <v>0</v>
       </c>
       <c r="D210">
-        <v>77310.00000000003</v>
+        <v>72719.99999999997</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -6100,10 +6100,10 @@
         <v>212</v>
       </c>
       <c r="C211">
-        <v>36338.00830802447</v>
+        <v>1698.725345389117</v>
       </c>
       <c r="D211">
-        <v>124638.0083080245</v>
+        <v>125382.7253453891</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -6114,10 +6114,10 @@
         <v>213</v>
       </c>
       <c r="C212">
-        <v>3583.62607146769</v>
+        <v>1937.245127467511</v>
       </c>
       <c r="D212">
-        <v>85073.62607146765</v>
+        <v>86065.24512746744</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -6131,7 +6131,7 @@
         <v>0</v>
       </c>
       <c r="D213">
-        <v>169796.0000000001</v>
+        <v>143476</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -6142,10 +6142,10 @@
         <v>215</v>
       </c>
       <c r="C214">
-        <v>12207.61149371378</v>
+        <v>24552.69424199482</v>
       </c>
       <c r="D214">
-        <v>87299.61149371379</v>
+        <v>85676.69424199477</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -6159,7 +6159,7 @@
         <v>0</v>
       </c>
       <c r="D215">
-        <v>152614.9999999999</v>
+        <v>107085</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -6170,10 +6170,10 @@
         <v>217</v>
       </c>
       <c r="C216">
-        <v>25108.05794442166</v>
+        <v>42944.08856036737</v>
       </c>
       <c r="D216">
-        <v>144848.0579444217</v>
+        <v>141889.0885603674</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -6184,10 +6184,10 @@
         <v>218</v>
       </c>
       <c r="C217">
-        <v>53649.28534534528</v>
+        <v>9455.605931412254</v>
       </c>
       <c r="D217">
-        <v>145429.2853453453</v>
+        <v>140755.6059314122</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -6201,7 +6201,7 @@
         <v>0</v>
       </c>
       <c r="D218">
-        <v>118491.9999999999</v>
+        <v>164592</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -6215,7 +6215,7 @@
         <v>0</v>
       </c>
       <c r="D219">
-        <v>112996.9999999999</v>
+        <v>111181.9999999999</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -6229,7 +6229,7 @@
         <v>0</v>
       </c>
       <c r="D220">
-        <v>137548.0000000001</v>
+        <v>124892.0000000001</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -6243,7 +6243,7 @@
         <v>0</v>
       </c>
       <c r="D221">
-        <v>72429.99999999999</v>
+        <v>72140</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -6257,7 +6257,7 @@
         <v>0</v>
       </c>
       <c r="D222">
-        <v>138672.0000000001</v>
+        <v>144100</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -6268,10 +6268,10 @@
         <v>224</v>
       </c>
       <c r="C223">
-        <v>27911.8893072724</v>
+        <v>28764.45779103583</v>
       </c>
       <c r="D223">
-        <v>127527.8893072725</v>
+        <v>122692.4577910358</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -6282,10 +6282,10 @@
         <v>225</v>
       </c>
       <c r="C224">
-        <v>22227.9524912898</v>
+        <v>11253.92782991448</v>
       </c>
       <c r="D224">
-        <v>83265.95249128981</v>
+        <v>85847.92782991451</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -6299,7 +6299,7 @@
         <v>0</v>
       </c>
       <c r="D225">
-        <v>127709.0000000001</v>
+        <v>86185.99999999993</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -6313,7 +6313,7 @@
         <v>0</v>
       </c>
       <c r="D226">
-        <v>68746</v>
+        <v>68968.00000000001</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -6324,10 +6324,10 @@
         <v>228</v>
       </c>
       <c r="C227">
-        <v>0</v>
+        <v>25404.22400312551</v>
       </c>
       <c r="D227">
-        <v>93952.00000000001</v>
+        <v>87146.22400312555</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -6338,10 +6338,10 @@
         <v>229</v>
       </c>
       <c r="C228">
-        <v>41999.38786823828</v>
+        <v>0</v>
       </c>
       <c r="D228">
-        <v>128623.3878682383</v>
+        <v>145196.0000000001</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -6352,10 +6352,10 @@
         <v>230</v>
       </c>
       <c r="C229">
-        <v>0</v>
+        <v>2299.534756789319</v>
       </c>
       <c r="D229">
-        <v>111571</v>
+        <v>107255.5347567893</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -6369,7 +6369,7 @@
         <v>0</v>
       </c>
       <c r="D230">
-        <v>113701.9999999999</v>
+        <v>122197.9999999999</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -6383,7 +6383,7 @@
         <v>0</v>
       </c>
       <c r="D231">
-        <v>80887.99999999994</v>
+        <v>98686.00000000007</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -6397,7 +6397,7 @@
         <v>0</v>
       </c>
       <c r="D232">
-        <v>88522.00000000006</v>
+        <v>70390.00000000001</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -6411,7 +6411,7 @@
         <v>0</v>
       </c>
       <c r="D233">
-        <v>150315.0000000001</v>
+        <v>103974.9999999999</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -6425,7 +6425,7 @@
         <v>0</v>
       </c>
       <c r="D234">
-        <v>131964.9999999999</v>
+        <v>148874.9999999999</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -6436,10 +6436,10 @@
         <v>236</v>
       </c>
       <c r="C235">
-        <v>19476.38958921644</v>
+        <v>2739.870635962405</v>
       </c>
       <c r="D235">
-        <v>84080.38958921646</v>
+        <v>86643.87063596238</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -6450,10 +6450,10 @@
         <v>237</v>
       </c>
       <c r="C236">
-        <v>13222.0606257566</v>
+        <v>0</v>
       </c>
       <c r="D236">
-        <v>139007.0606257567</v>
+        <v>162610.0000000001</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -6467,7 +6467,7 @@
         <v>0</v>
       </c>
       <c r="D237">
-        <v>86062.00000000004</v>
+        <v>103833.9999999999</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -6481,7 +6481,7 @@
         <v>0</v>
       </c>
       <c r="D238">
-        <v>163429.9999999999</v>
+        <v>132335.0000000001</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -6492,10 +6492,10 @@
         <v>240</v>
       </c>
       <c r="C239">
-        <v>0</v>
+        <v>18046.89317806398</v>
       </c>
       <c r="D239">
-        <v>89755.99999999999</v>
+        <v>85100.893178064</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -6506,10 +6506,10 @@
         <v>241</v>
       </c>
       <c r="C240">
-        <v>0</v>
+        <v>11889.30164315926</v>
       </c>
       <c r="D240">
-        <v>69813.00000000003</v>
+        <v>66739.30164315927</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -6520,10 +6520,10 @@
         <v>242</v>
       </c>
       <c r="C241">
-        <v>0</v>
+        <v>42377.98827750058</v>
       </c>
       <c r="D241">
-        <v>155023.9999999999</v>
+        <v>123953.9882775005</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -6537,7 +6537,7 @@
         <v>0</v>
       </c>
       <c r="D242">
-        <v>104812</v>
+        <v>95420.00000000003</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -6551,7 +6551,7 @@
         <v>0</v>
       </c>
       <c r="D243">
-        <v>85889.00000000006</v>
+        <v>106084.9999999999</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -6562,10 +6562,10 @@
         <v>245</v>
       </c>
       <c r="C244">
-        <v>12764.15675925039</v>
+        <v>0</v>
       </c>
       <c r="D244">
-        <v>146149.1567592505</v>
+        <v>152015</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -6579,7 +6579,7 @@
         <v>0</v>
       </c>
       <c r="D245">
-        <v>168336.0000000001</v>
+        <v>120443.9999999999</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -6593,7 +6593,7 @@
         <v>0</v>
       </c>
       <c r="D246">
-        <v>66978.99999999994</v>
+        <v>79391.99999999997</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -6604,10 +6604,10 @@
         <v>248</v>
       </c>
       <c r="C247">
-        <v>0</v>
+        <v>12528.81873562389</v>
       </c>
       <c r="D247">
-        <v>64377.99999999999</v>
+        <v>66878.81873562392</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -6618,10 +6618,10 @@
         <v>249</v>
       </c>
       <c r="C248">
-        <v>9642.000925811946</v>
+        <v>8037.551588638795</v>
       </c>
       <c r="D248">
-        <v>65845.00092581198</v>
+        <v>67729.55158863877</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -6635,7 +6635,7 @@
         <v>0</v>
       </c>
       <c r="D249">
-        <v>142920.0000000001</v>
+        <v>111380</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -6646,10 +6646,10 @@
         <v>251</v>
       </c>
       <c r="C250">
-        <v>0</v>
+        <v>15081.97327473253</v>
       </c>
       <c r="D250">
-        <v>111430</v>
+        <v>104827.9732747325</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -6663,7 +6663,7 @@
         <v>0</v>
       </c>
       <c r="D251">
-        <v>65324.99999999999</v>
+        <v>78007.00000000006</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -6674,10 +6674,10 @@
         <v>253</v>
       </c>
       <c r="C252">
-        <v>12224.0818706118</v>
+        <v>0</v>
       </c>
       <c r="D252">
-        <v>129148.0818706117</v>
+        <v>138532</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -6691,7 +6691,7 @@
         <v>0</v>
       </c>
       <c r="D253">
-        <v>82898.00000000006</v>
+        <v>75852.00000000004</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -6705,7 +6705,7 @@
         <v>0</v>
       </c>
       <c r="D254">
-        <v>140019.9999999999</v>
+        <v>158124</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -6719,7 +6719,7 @@
         <v>0</v>
       </c>
       <c r="D255">
-        <v>72369.99999999999</v>
+        <v>89836.00000000006</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -6733,7 +6733,7 @@
         <v>0</v>
       </c>
       <c r="D256">
-        <v>96764.00000000001</v>
+        <v>146124.0000000001</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -6744,10 +6744,10 @@
         <v>258</v>
       </c>
       <c r="C257">
-        <v>0</v>
+        <v>7856.261071387344</v>
       </c>
       <c r="D257">
-        <v>142776.0000000001</v>
+        <v>126780.2610713873</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -6758,10 +6758,10 @@
         <v>259</v>
       </c>
       <c r="C258">
-        <v>6117.090435212376</v>
+        <v>5114.923005248507</v>
       </c>
       <c r="D258">
-        <v>127265.0904352123</v>
+        <v>128138.9230052486</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -6775,7 +6775,7 @@
         <v>0</v>
       </c>
       <c r="D259">
-        <v>160170</v>
+        <v>183424.9999999999</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -6786,10 +6786,10 @@
         <v>261</v>
       </c>
       <c r="C260">
-        <v>2637.115926703751</v>
+        <v>14858.38285776475</v>
       </c>
       <c r="D260">
-        <v>68172.1159267038</v>
+        <v>67365.38285776479</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -6800,10 +6800,10 @@
         <v>262</v>
       </c>
       <c r="C261">
-        <v>10022.35532408846</v>
+        <v>0</v>
       </c>
       <c r="D261">
-        <v>84660.35532408852</v>
+        <v>97837.99999999994</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -6817,7 +6817,7 @@
         <v>0</v>
       </c>
       <c r="D262">
-        <v>141955</v>
+        <v>136455.0000000001</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -6831,7 +6831,7 @@
         <v>0</v>
       </c>
       <c r="D263">
-        <v>124465</v>
+        <v>162494.9999999999</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -6842,10 +6842,10 @@
         <v>265</v>
       </c>
       <c r="C264">
-        <v>14460.08032220595</v>
+        <v>0</v>
       </c>
       <c r="D264">
-        <v>105259.080322206</v>
+        <v>118908.9999999999</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -6859,7 +6859,7 @@
         <v>0</v>
       </c>
       <c r="D265">
-        <v>112756.0000000001</v>
+        <v>117840</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -6873,7 +6873,7 @@
         <v>0</v>
       </c>
       <c r="D266">
-        <v>187179.9999999999</v>
+        <v>181309.9999999999</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -6884,10 +6884,10 @@
         <v>268</v>
       </c>
       <c r="C267">
-        <v>0</v>
+        <v>806.2841018747422</v>
       </c>
       <c r="D267">
-        <v>69229</v>
+        <v>68680.28410187479</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -6898,10 +6898,10 @@
         <v>269</v>
       </c>
       <c r="C268">
-        <v>11998.30260279895</v>
+        <v>19981.23962846496</v>
       </c>
       <c r="D268">
-        <v>86704.30260279898</v>
+        <v>84803.239628465</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -6915,7 +6915,7 @@
         <v>0</v>
       </c>
       <c r="D269">
-        <v>183785.0000000001</v>
+        <v>106714.9999999999</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -6929,7 +6929,7 @@
         <v>0</v>
       </c>
       <c r="D270">
-        <v>69476.00000000001</v>
+        <v>63804.99999999996</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -6943,7 +6943,7 @@
         <v>0</v>
       </c>
       <c r="D271">
-        <v>104304</v>
+        <v>100572</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -6954,10 +6954,10 @@
         <v>273</v>
       </c>
       <c r="C272">
-        <v>10883.5910226025</v>
+        <v>0</v>
       </c>
       <c r="D272">
-        <v>139963.5910226026</v>
+        <v>157465.0000000001</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -6968,10 +6968,10 @@
         <v>274</v>
       </c>
       <c r="C273">
-        <v>4010.872694872996</v>
+        <v>13436.65722256203</v>
       </c>
       <c r="D273">
-        <v>66798.87269487302</v>
+        <v>66392.657222562</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -6982,10 +6982,10 @@
         <v>275</v>
       </c>
       <c r="C274">
-        <v>5205.582149096044</v>
+        <v>0</v>
       </c>
       <c r="D274">
-        <v>66704.58214909605</v>
+        <v>69832.00000000003</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -6999,7 +6999,7 @@
         <v>0</v>
       </c>
       <c r="D275">
-        <v>181379.9999999999</v>
+        <v>100320.0000000001</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -7013,7 +7013,7 @@
         <v>0</v>
       </c>
       <c r="D276">
-        <v>142796</v>
+        <v>112587.9999999999</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -7027,7 +7027,7 @@
         <v>0</v>
       </c>
       <c r="D277">
-        <v>76448.00000000006</v>
+        <v>63443.99999999996</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -7041,7 +7041,7 @@
         <v>0</v>
       </c>
       <c r="D278">
-        <v>173025.0000000001</v>
+        <v>118510.0000000001</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -7055,7 +7055,7 @@
         <v>0</v>
       </c>
       <c r="D279">
-        <v>143414.9999999999</v>
+        <v>151925</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -7069,7 +7069,7 @@
         <v>0</v>
       </c>
       <c r="D280">
-        <v>74311.99999999994</v>
+        <v>89942.00000000006</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -7083,7 +7083,7 @@
         <v>0</v>
       </c>
       <c r="D281">
-        <v>62094</v>
+        <v>62460.99999999997</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -7094,10 +7094,10 @@
         <v>283</v>
       </c>
       <c r="C282">
-        <v>24788.2395121033</v>
+        <v>0</v>
       </c>
       <c r="D282">
-        <v>104040.2395121033</v>
+        <v>119848.0000000001</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -7108,10 +7108,10 @@
         <v>284</v>
       </c>
       <c r="C283">
-        <v>0</v>
+        <v>21645.14301138844</v>
       </c>
       <c r="D283">
-        <v>123100</v>
+        <v>107818.1430113884</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -7122,10 +7122,10 @@
         <v>285</v>
       </c>
       <c r="C284">
-        <v>18578.01573665491</v>
+        <v>0</v>
       </c>
       <c r="D284">
-        <v>103875.015736655</v>
+        <v>121309</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -7136,10 +7136,10 @@
         <v>286</v>
       </c>
       <c r="C285">
-        <v>4431.44410225669</v>
+        <v>933.7817670557852</v>
       </c>
       <c r="D285">
-        <v>83769.4441022567</v>
+        <v>86681.78176705584</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -7153,7 +7153,7 @@
         <v>0</v>
       </c>
       <c r="D286">
-        <v>120823.9999999999</v>
+        <v>91200</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -7164,10 +7164,10 @@
         <v>288</v>
       </c>
       <c r="C287">
-        <v>4435.952491289776</v>
+        <v>0</v>
       </c>
       <c r="D287">
-        <v>83265.95249128981</v>
+        <v>92436.00000000007</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -7178,10 +7178,10 @@
         <v>289</v>
       </c>
       <c r="C288">
-        <v>2866.92745601762</v>
+        <v>7524.710694972215</v>
       </c>
       <c r="D288">
-        <v>65681.92745601761</v>
+        <v>68349.71069497221</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -7195,7 +7195,7 @@
         <v>0</v>
       </c>
       <c r="D289">
-        <v>89634.00000000006</v>
+        <v>98512.00000000007</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -7209,7 +7209,7 @@
         <v>0</v>
       </c>
       <c r="D290">
-        <v>68432.00000000006</v>
+        <v>75941.00000000003</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -7223,7 +7223,7 @@
         <v>0</v>
       </c>
       <c r="D291">
-        <v>123647</v>
+        <v>90718.99999999999</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -7234,10 +7234,10 @@
         <v>293</v>
       </c>
       <c r="C292">
-        <v>10038.12404636569</v>
+        <v>1899.151074491601</v>
       </c>
       <c r="D292">
-        <v>85392.12404636567</v>
+        <v>85831.15107449166</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -7248,10 +7248,10 @@
         <v>294</v>
       </c>
       <c r="C293">
-        <v>674.6015439651819</v>
+        <v>39944.46744493872</v>
       </c>
       <c r="D293">
-        <v>126546.6015439652</v>
+        <v>126236.4674449387</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -7265,7 +7265,7 @@
         <v>0</v>
       </c>
       <c r="D294">
-        <v>99658.99999999993</v>
+        <v>113438</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -7276,10 +7276,10 @@
         <v>296</v>
       </c>
       <c r="C295">
-        <v>43082.46895171535</v>
+        <v>23365.48056184707</v>
       </c>
       <c r="D295">
-        <v>128546.4689517154</v>
+        <v>123197.4805618471</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -7293,7 +7293,7 @@
         <v>0</v>
       </c>
       <c r="D296">
-        <v>113420.0000000001</v>
+        <v>123736.0000000001</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -7307,7 +7307,7 @@
         <v>0</v>
       </c>
       <c r="D297">
-        <v>140139.9999999999</v>
+        <v>147480.0000000001</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -7318,10 +7318,10 @@
         <v>299</v>
       </c>
       <c r="C298">
-        <v>49282.56674893349</v>
+        <v>25596.22372685117</v>
       </c>
       <c r="D298">
-        <v>141692.5667489334</v>
+        <v>140696.2237268511</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -7335,7 +7335,7 @@
         <v>0</v>
       </c>
       <c r="D299">
-        <v>64595.99999999995</v>
+        <v>65737.00000000004</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -7346,10 +7346,10 @@
         <v>301</v>
       </c>
       <c r="C300">
-        <v>13691.72606005584</v>
+        <v>7564.308971233382</v>
       </c>
       <c r="D300">
-        <v>63804.72606005584</v>
+        <v>66493.30897123339</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -7363,7 +7363,7 @@
         <v>0</v>
       </c>
       <c r="D301">
-        <v>144403.9999999999</v>
+        <v>117359.9999999999</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -7374,10 +7374,10 @@
         <v>303</v>
       </c>
       <c r="C302">
-        <v>16350.37394623049</v>
+        <v>24613.53749826012</v>
       </c>
       <c r="D302">
-        <v>105037.3739462305</v>
+        <v>105242.5374982601</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -7388,10 +7388,10 @@
         <v>304</v>
       </c>
       <c r="C303">
-        <v>13311.82426476722</v>
+        <v>0</v>
       </c>
       <c r="D303">
-        <v>127531.8242647672</v>
+        <v>137316.0000000001</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -7402,10 +7402,10 @@
         <v>305</v>
       </c>
       <c r="C304">
-        <v>0</v>
+        <v>5598.237608305295</v>
       </c>
       <c r="D304">
-        <v>143240</v>
+        <v>141678.2376083054</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -7419,7 +7419,7 @@
         <v>0</v>
       </c>
       <c r="D305">
-        <v>161388.0000000001</v>
+        <v>142040.0000000001</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -7430,10 +7430,10 @@
         <v>307</v>
       </c>
       <c r="C306">
-        <v>6398.012197937176</v>
+        <v>0</v>
       </c>
       <c r="D306">
-        <v>101874.0121979372</v>
+        <v>119298.9999999999</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -7447,7 +7447,7 @@
         <v>0</v>
       </c>
       <c r="D307">
-        <v>107777</v>
+        <v>107084.0000000001</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -7458,10 +7458,10 @@
         <v>309</v>
       </c>
       <c r="C308">
-        <v>28782.39768027612</v>
+        <v>0</v>
       </c>
       <c r="D308">
-        <v>102289.3976802762</v>
+        <v>116374.0000000001</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -7475,7 +7475,7 @@
         <v>0</v>
       </c>
       <c r="D309">
-        <v>98388.00000000001</v>
+        <v>72486.00000000006</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -7486,10 +7486,10 @@
         <v>311</v>
       </c>
       <c r="C310">
-        <v>0</v>
+        <v>559.1121763432311</v>
       </c>
       <c r="D310">
-        <v>68796</v>
+        <v>68208.11217634326</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -7503,7 +7503,7 @@
         <v>0</v>
       </c>
       <c r="D311">
-        <v>173940.0000000001</v>
+        <v>171305.0000000001</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -7517,7 +7517,7 @@
         <v>0</v>
       </c>
       <c r="D312">
-        <v>160180</v>
+        <v>129025</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -7528,10 +7528,10 @@
         <v>314</v>
       </c>
       <c r="C313">
-        <v>41399.07882322335</v>
+        <v>0</v>
       </c>
       <c r="D313">
-        <v>125327.0788232234</v>
+        <v>130948</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -7545,7 +7545,7 @@
         <v>0</v>
       </c>
       <c r="D314">
-        <v>104012</v>
+        <v>130730</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -7556,10 +7556,10 @@
         <v>316</v>
       </c>
       <c r="C315">
-        <v>15071.77072669556</v>
+        <v>0</v>
       </c>
       <c r="D315">
-        <v>65819.77072669557</v>
+        <v>68822.99999999994</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -7570,10 +7570,10 @@
         <v>317</v>
       </c>
       <c r="C316">
-        <v>2713.779263702898</v>
+        <v>12904.96496426738</v>
       </c>
       <c r="D316">
-        <v>66139.77926370288</v>
+        <v>65672.96496426736</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -7587,7 +7587,7 @@
         <v>0</v>
       </c>
       <c r="D317">
-        <v>189555.0000000002</v>
+        <v>164849.9999999999</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -7598,10 +7598,10 @@
         <v>319</v>
       </c>
       <c r="C318">
-        <v>524.2531220896926</v>
+        <v>35958.65016663526</v>
       </c>
       <c r="D318">
-        <v>141584.2531220896</v>
+        <v>139598.6501666352</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -7612,10 +7612,10 @@
         <v>320</v>
       </c>
       <c r="C319">
-        <v>14110.58892053756</v>
+        <v>2778.316804392925</v>
       </c>
       <c r="D319">
-        <v>65734.5889205376</v>
+        <v>67161.31680439287</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -7629,7 +7629,7 @@
         <v>0</v>
       </c>
       <c r="D320">
-        <v>150489.9999999999</v>
+        <v>143404.9999999999</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -7640,10 +7640,10 @@
         <v>322</v>
       </c>
       <c r="C321">
-        <v>0</v>
+        <v>19586.81563927387</v>
       </c>
       <c r="D321">
-        <v>134520</v>
+        <v>121226.8156392738</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -7657,7 +7657,7 @@
         <v>0</v>
       </c>
       <c r="D322">
-        <v>132545</v>
+        <v>91493</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -7671,7 +7671,7 @@
         <v>0</v>
       </c>
       <c r="D323">
-        <v>86308.99999999996</v>
+        <v>97748.00000000009</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -7685,7 +7685,7 @@
         <v>0</v>
       </c>
       <c r="D324">
-        <v>95636.00000000006</v>
+        <v>111028</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -7699,7 +7699,7 @@
         <v>0</v>
       </c>
       <c r="D325">
-        <v>67444.99999999996</v>
+        <v>78739.00000000003</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -7713,7 +7713,7 @@
         <v>0</v>
       </c>
       <c r="D326">
-        <v>61860</v>
+        <v>73405.00000000006</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -7727,7 +7727,7 @@
         <v>0</v>
       </c>
       <c r="D327">
-        <v>61159.99999999996</v>
+        <v>62646.99999999998</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -7738,10 +7738,10 @@
         <v>329</v>
       </c>
       <c r="C328">
-        <v>9657.207588847064</v>
+        <v>0</v>
       </c>
       <c r="D328">
-        <v>65499.20758884706</v>
+        <v>69401.99999999999</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -7755,7 +7755,7 @@
         <v>0</v>
       </c>
       <c r="D329">
-        <v>90136.00000000003</v>
+        <v>91821.99999999996</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -7766,10 +7766,10 @@
         <v>331</v>
       </c>
       <c r="C330">
-        <v>7217.063882922928</v>
+        <v>0</v>
       </c>
       <c r="D330">
-        <v>139857.063882923</v>
+        <v>153675</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -7783,7 +7783,7 @@
         <v>0</v>
       </c>
       <c r="D331">
-        <v>148988</v>
+        <v>155016.0000000001</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -7797,7 +7797,7 @@
         <v>0</v>
       </c>
       <c r="D332">
-        <v>74703.99999999994</v>
+        <v>61643.99999999999</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -7808,10 +7808,10 @@
         <v>334</v>
       </c>
       <c r="C333">
-        <v>13449.44007003747</v>
+        <v>18514.25684718958</v>
       </c>
       <c r="D333">
-        <v>104746.4400700375</v>
+        <v>104471.2568471895</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -7825,7 +7825,7 @@
         <v>0</v>
       </c>
       <c r="D334">
-        <v>86728.99999999996</v>
+        <v>118382</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -7836,10 +7836,10 @@
         <v>336</v>
       </c>
       <c r="C335">
-        <v>1616.866935404629</v>
+        <v>0</v>
       </c>
       <c r="D335">
-        <v>85982.86693540463</v>
+        <v>98505.99999999999</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -7853,7 +7853,7 @@
         <v>0</v>
       </c>
       <c r="D336">
-        <v>82229.99999999999</v>
+        <v>90318.00000000004</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -7864,10 +7864,10 @@
         <v>338</v>
       </c>
       <c r="C337">
-        <v>0</v>
+        <v>18879.73111605081</v>
       </c>
       <c r="D337">
-        <v>106786</v>
+        <v>107317.7311160508</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -7881,7 +7881,7 @@
         <v>0</v>
       </c>
       <c r="D338">
-        <v>184899.9999999999</v>
+        <v>100310</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -7895,7 +7895,7 @@
         <v>0</v>
       </c>
       <c r="D339">
-        <v>87130.00000000004</v>
+        <v>91858.00000000007</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -7909,7 +7909,7 @@
         <v>0</v>
       </c>
       <c r="D340">
-        <v>60908.99999999999</v>
+        <v>79443.00000000003</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -7923,7 +7923,7 @@
         <v>0</v>
       </c>
       <c r="D341">
-        <v>67552</v>
+        <v>63082.99999999997</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -7937,7 +7937,7 @@
         <v>0</v>
       </c>
       <c r="D342">
-        <v>167648.0000000001</v>
+        <v>152927.9999999999</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -7951,7 +7951,7 @@
         <v>0</v>
       </c>
       <c r="D343">
-        <v>190490.0000000001</v>
+        <v>160539.9999999999</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -7965,7 +7965,7 @@
         <v>0</v>
       </c>
       <c r="D344">
-        <v>106094</v>
+        <v>102358</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -7976,10 +7976,10 @@
         <v>346</v>
       </c>
       <c r="C345">
-        <v>0</v>
+        <v>3667.171584800715</v>
       </c>
       <c r="D345">
-        <v>143856.0000000001</v>
+        <v>126603.1715848008</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -7990,10 +7990,10 @@
         <v>347</v>
       </c>
       <c r="C346">
-        <v>17473.53750980602</v>
+        <v>17346.7964587872</v>
       </c>
       <c r="D346">
-        <v>85551.53750980597</v>
+        <v>86708.79645878715</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -8007,7 +8007,7 @@
         <v>0</v>
       </c>
       <c r="D347">
-        <v>100229.9999999999</v>
+        <v>138800</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -8018,10 +8018,10 @@
         <v>349</v>
       </c>
       <c r="C348">
-        <v>4328.62322080852</v>
+        <v>0</v>
       </c>
       <c r="D348">
-        <v>64650.62322080847</v>
+        <v>69450.99999999999</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -8035,7 +8035,7 @@
         <v>0</v>
       </c>
       <c r="D349">
-        <v>116451.9999999999</v>
+        <v>109033</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -8049,7 +8049,7 @@
         <v>0</v>
       </c>
       <c r="D350">
-        <v>180300</v>
+        <v>144720</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -8063,7 +8063,7 @@
         <v>0</v>
       </c>
       <c r="D351">
-        <v>84580.99999999994</v>
+        <v>80971.99999999994</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -8077,7 +8077,7 @@
         <v>0</v>
       </c>
       <c r="D352">
-        <v>160570.0000000001</v>
+        <v>157135</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -8091,7 +8091,7 @@
         <v>0</v>
       </c>
       <c r="D353">
-        <v>137139.9999999999</v>
+        <v>108687.9999999999</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -8105,7 +8105,7 @@
         <v>0</v>
       </c>
       <c r="D354">
-        <v>161210.0000000001</v>
+        <v>150755.0000000001</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -8119,7 +8119,7 @@
         <v>0</v>
       </c>
       <c r="D355">
-        <v>158008.0000000001</v>
+        <v>117184</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -8133,7 +8133,7 @@
         <v>0</v>
       </c>
       <c r="D356">
-        <v>99525.99999999999</v>
+        <v>86608.00000000003</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -8147,7 +8147,7 @@
         <v>0</v>
       </c>
       <c r="D357">
-        <v>71104</v>
+        <v>84455.99999999996</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -8161,7 +8161,7 @@
         <v>0</v>
       </c>
       <c r="D358">
-        <v>106491.9999999999</v>
+        <v>110155.0000000001</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -8175,7 +8175,7 @@
         <v>0</v>
       </c>
       <c r="D359">
-        <v>163688.0000000001</v>
+        <v>162227.9999999999</v>
       </c>
     </row>
     <row r="360" spans="1:4">
@@ -8189,7 +8189,7 @@
         <v>0</v>
       </c>
       <c r="D360">
-        <v>76213</v>
+        <v>66645.99999999999</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -8203,7 +8203,7 @@
         <v>0</v>
       </c>
       <c r="D361">
-        <v>102190</v>
+        <v>79619.99999999996</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -8217,7 +8217,7 @@
         <v>0</v>
       </c>
       <c r="D362">
-        <v>117473.0000000001</v>
+        <v>113173.9999999999</v>
       </c>
     </row>
     <row r="363" spans="1:4">
@@ -8228,10 +8228,10 @@
         <v>364</v>
       </c>
       <c r="C363">
-        <v>7612.566748933372</v>
+        <v>0</v>
       </c>
       <c r="D363">
-        <v>141692.5667489334</v>
+        <v>184954.9999999999</v>
       </c>
     </row>
     <row r="364" spans="1:4">
@@ -8242,10 +8242,10 @@
         <v>365</v>
       </c>
       <c r="C364">
-        <v>0</v>
+        <v>16301.39866584326</v>
       </c>
       <c r="D364">
-        <v>97733.99999999991</v>
+        <v>86543.3986658432</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -8259,7 +8259,7 @@
         <v>0</v>
       </c>
       <c r="D365">
-        <v>63897.00000000001</v>
+        <v>65281.99999999999</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -8273,7 +8273,7 @@
         <v>0</v>
       </c>
       <c r="D366">
-        <v>141092</v>
+        <v>134495.9999999999</v>
       </c>
     </row>
     <row r="367" spans="1:4">
@@ -8287,7 +8287,7 @@
         <v>0</v>
       </c>
       <c r="D367">
-        <v>103740</v>
+        <v>72777.99999999996</v>
       </c>
     </row>
     <row r="368" spans="1:4">
@@ -8301,7 +8301,7 @@
         <v>0</v>
       </c>
       <c r="D368">
-        <v>78520</v>
+        <v>69585.99999999997</v>
       </c>
     </row>
     <row r="369" spans="1:4">
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="D369">
-        <v>114051.9999999999</v>
+        <v>120108.9999999999</v>
       </c>
     </row>
     <row r="370" spans="1:4">
@@ -8329,7 +8329,7 @@
         <v>0</v>
       </c>
       <c r="D370">
-        <v>116314.9999999999</v>
+        <v>90398.00000000006</v>
       </c>
     </row>
     <row r="371" spans="1:4">
@@ -8343,7 +8343,7 @@
         <v>0</v>
       </c>
       <c r="D371">
-        <v>102510</v>
+        <v>153125</v>
       </c>
     </row>
     <row r="372" spans="1:4">
@@ -8354,10 +8354,10 @@
         <v>373</v>
       </c>
       <c r="C372">
-        <v>0</v>
+        <v>23246.36001373568</v>
       </c>
       <c r="D372">
-        <v>120559.0000000001</v>
+        <v>107442.3600137356</v>
       </c>
     </row>
     <row r="373" spans="1:4">
@@ -8371,7 +8371,7 @@
         <v>0</v>
       </c>
       <c r="D373">
-        <v>76066.99999999994</v>
+        <v>69053.99999999997</v>
       </c>
     </row>
     <row r="374" spans="1:4">
@@ -8385,7 +8385,7 @@
         <v>0</v>
       </c>
       <c r="D374">
-        <v>79675.99999999997</v>
+        <v>100922</v>
       </c>
     </row>
     <row r="375" spans="1:4">
@@ -8396,10 +8396,10 @@
         <v>376</v>
       </c>
       <c r="C375">
-        <v>22513.0973098828</v>
+        <v>3388.525016154483</v>
       </c>
       <c r="D375">
-        <v>103835.0973098828</v>
+        <v>106229.5250161544</v>
       </c>
     </row>
     <row r="376" spans="1:4">
@@ -8410,10 +8410,10 @@
         <v>377</v>
       </c>
       <c r="C376">
-        <v>9615.917151938847</v>
+        <v>20966.09758571739</v>
       </c>
       <c r="D376">
-        <v>139175.9171519388</v>
+        <v>141366.0975857174</v>
       </c>
     </row>
     <row r="377" spans="1:4">
@@ -8424,10 +8424,10 @@
         <v>378</v>
       </c>
       <c r="C377">
-        <v>0</v>
+        <v>17758.11255451381</v>
       </c>
       <c r="D377">
-        <v>167100</v>
+        <v>139153.1125545137</v>
       </c>
     </row>
     <row r="378" spans="1:4">
@@ -8441,7 +8441,7 @@
         <v>0</v>
       </c>
       <c r="D378">
-        <v>67949.00000000003</v>
+        <v>62898.00000000001</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -8455,7 +8455,7 @@
         <v>0</v>
       </c>
       <c r="D379">
-        <v>133996</v>
+        <v>137904</v>
       </c>
     </row>
     <row r="380" spans="1:4">
@@ -8469,7 +8469,7 @@
         <v>0</v>
       </c>
       <c r="D380">
-        <v>60566.99999999998</v>
+        <v>61870.00000000001</v>
       </c>
     </row>
     <row r="381" spans="1:4">
@@ -8480,10 +8480,10 @@
         <v>382</v>
       </c>
       <c r="C381">
-        <v>38335.31335222385</v>
+        <v>42550.16273984607</v>
       </c>
       <c r="D381">
-        <v>125531.3133522238</v>
+        <v>125826.1627398461</v>
       </c>
     </row>
     <row r="382" spans="1:4">
@@ -8497,7 +8497,7 @@
         <v>0</v>
       </c>
       <c r="D382">
-        <v>68986.99999999994</v>
+        <v>65548</v>
       </c>
     </row>
     <row r="383" spans="1:4">
@@ -8511,7 +8511,7 @@
         <v>0</v>
       </c>
       <c r="D383">
-        <v>64435.99999999996</v>
+        <v>78684.00000000006</v>
       </c>
     </row>
     <row r="384" spans="1:4">
@@ -8525,7 +8525,7 @@
         <v>0</v>
       </c>
       <c r="D384">
-        <v>116719.0000000001</v>
+        <v>107655.9999999999</v>
       </c>
     </row>
     <row r="385" spans="1:4">
@@ -8539,7 +8539,7 @@
         <v>0</v>
       </c>
       <c r="D385">
-        <v>103474.0000000001</v>
+        <v>71648.00000000003</v>
       </c>
     </row>
     <row r="386" spans="1:4">
@@ -8553,7 +8553,7 @@
         <v>0</v>
       </c>
       <c r="D386">
-        <v>172925</v>
+        <v>104779.9999999999</v>
       </c>
     </row>
     <row r="387" spans="1:4">
@@ -8567,7 +8567,7 @@
         <v>0</v>
       </c>
       <c r="D387">
-        <v>138124.9999999999</v>
+        <v>129524.9999999999</v>
       </c>
     </row>
     <row r="388" spans="1:4">
@@ -8581,7 +8581,7 @@
         <v>0</v>
       </c>
       <c r="D388">
-        <v>136030.9999999999</v>
+        <v>138398.0000000001</v>
       </c>
     </row>
     <row r="389" spans="1:4">
@@ -8595,7 +8595,7 @@
         <v>0</v>
       </c>
       <c r="D389">
-        <v>99782.00000000007</v>
+        <v>104514</v>
       </c>
     </row>
     <row r="390" spans="1:4">
@@ -8606,10 +8606,10 @@
         <v>391</v>
       </c>
       <c r="C390">
-        <v>11114.94445859105</v>
+        <v>9499.504683508858</v>
       </c>
       <c r="D390">
-        <v>84218.944458591</v>
+        <v>84991.50468350887</v>
       </c>
     </row>
     <row r="391" spans="1:4">
@@ -8623,7 +8623,7 @@
         <v>0</v>
       </c>
       <c r="D391">
-        <v>182520.0000000001</v>
+        <v>155934.9999999999</v>
       </c>
     </row>
     <row r="392" spans="1:4">
@@ -8637,7 +8637,7 @@
         <v>0</v>
       </c>
       <c r="D392">
-        <v>129130.0000000001</v>
+        <v>167405</v>
       </c>
     </row>
     <row r="393" spans="1:4">
@@ -8651,7 +8651,7 @@
         <v>0</v>
       </c>
       <c r="D393">
-        <v>65447.00000000004</v>
+        <v>76897.99999999999</v>
       </c>
     </row>
     <row r="394" spans="1:4">
@@ -8665,7 +8665,7 @@
         <v>0</v>
       </c>
       <c r="D394">
-        <v>85881.99999999999</v>
+        <v>99264.00000000009</v>
       </c>
     </row>
     <row r="395" spans="1:4">
@@ -8676,10 +8676,10 @@
         <v>396</v>
       </c>
       <c r="C395">
-        <v>6379.194345517608</v>
+        <v>12310.36781755464</v>
       </c>
       <c r="D395">
-        <v>64419.19434551763</v>
+        <v>66846.36781755462</v>
       </c>
     </row>
     <row r="396" spans="1:4">
@@ -8693,7 +8693,7 @@
         <v>0</v>
       </c>
       <c r="D396">
-        <v>146483.9999999999</v>
+        <v>118548</v>
       </c>
     </row>
     <row r="397" spans="1:4">
@@ -8707,7 +8707,7 @@
         <v>0</v>
       </c>
       <c r="D397">
-        <v>122008.0000000001</v>
+        <v>118113.9999999999</v>
       </c>
     </row>
     <row r="398" spans="1:4">
@@ -8718,10 +8718,10 @@
         <v>399</v>
       </c>
       <c r="C398">
-        <v>34927.07222017131</v>
+        <v>29934.33728422405</v>
       </c>
       <c r="D398">
-        <v>107546.0722201714</v>
+        <v>107029.3372842241</v>
       </c>
     </row>
     <row r="399" spans="1:4">
@@ -8735,7 +8735,7 @@
         <v>0</v>
       </c>
       <c r="D399">
-        <v>111916</v>
+        <v>137844</v>
       </c>
     </row>
     <row r="400" spans="1:4">
@@ -8749,7 +8749,7 @@
         <v>0</v>
       </c>
       <c r="D400">
-        <v>149395</v>
+        <v>171400</v>
       </c>
     </row>
     <row r="401" spans="1:4">
@@ -8763,7 +8763,7 @@
         <v>0</v>
       </c>
       <c r="D401">
-        <v>73269</v>
+        <v>76003.99999999996</v>
       </c>
     </row>
     <row r="402" spans="1:4">
@@ -8774,10 +8774,10 @@
         <v>403</v>
       </c>
       <c r="C402">
-        <v>2732.38576393656</v>
+        <v>20608.97050080252</v>
       </c>
       <c r="D402">
-        <v>107196.3857639365</v>
+        <v>106778.9705008026</v>
       </c>
     </row>
     <row r="403" spans="1:4">
@@ -8791,7 +8791,7 @@
         <v>0</v>
       </c>
       <c r="D403">
-        <v>70489.99999999999</v>
+        <v>71492.00000000004</v>
       </c>
     </row>
     <row r="404" spans="1:4">
@@ -8802,10 +8802,10 @@
         <v>405</v>
       </c>
       <c r="C404">
-        <v>4028.684289578261</v>
+        <v>6706.91435216977</v>
       </c>
       <c r="D404">
-        <v>67784.68428957822</v>
+        <v>67089.91435216978</v>
       </c>
     </row>
     <row r="405" spans="1:4">
@@ -8819,7 +8819,7 @@
         <v>0</v>
       </c>
       <c r="D405">
-        <v>126774.9999999999</v>
+        <v>153575.0000000001</v>
       </c>
     </row>
     <row r="406" spans="1:4">
@@ -8830,10 +8830,10 @@
         <v>407</v>
       </c>
       <c r="C406">
-        <v>0</v>
+        <v>31387.14883632232</v>
       </c>
       <c r="D406">
-        <v>128480</v>
+        <v>125679.1488363223</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -8844,10 +8844,10 @@
         <v>408</v>
       </c>
       <c r="C407">
-        <v>0</v>
+        <v>27569.50465779887</v>
       </c>
       <c r="D407">
-        <v>128311.9999999999</v>
+        <v>125729.5046577989</v>
       </c>
     </row>
     <row r="408" spans="1:4">
@@ -8861,7 +8861,7 @@
         <v>0</v>
       </c>
       <c r="D408">
-        <v>111176</v>
+        <v>95267.00000000006</v>
       </c>
     </row>
     <row r="409" spans="1:4">
@@ -8875,7 +8875,7 @@
         <v>0</v>
       </c>
       <c r="D409">
-        <v>85929.99999999994</v>
+        <v>95898.00000000001</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -8886,10 +8886,10 @@
         <v>411</v>
       </c>
       <c r="C410">
-        <v>5340.646918483442</v>
+        <v>0</v>
       </c>
       <c r="D410">
-        <v>85322.64691848343</v>
+        <v>99813.99999999996</v>
       </c>
     </row>
     <row r="411" spans="1:4">
@@ -8903,7 +8903,7 @@
         <v>0</v>
       </c>
       <c r="D411">
-        <v>109195.9999999999</v>
+        <v>151888</v>
       </c>
     </row>
     <row r="412" spans="1:4">
@@ -8914,10 +8914,10 @@
         <v>413</v>
       </c>
       <c r="C412">
-        <v>5656.987822172494</v>
+        <v>0</v>
       </c>
       <c r="D412">
-        <v>105923.9878221726</v>
+        <v>119548</v>
       </c>
     </row>
     <row r="413" spans="1:4">
@@ -8931,7 +8931,7 @@
         <v>0</v>
       </c>
       <c r="D413">
-        <v>128438</v>
+        <v>129257</v>
       </c>
     </row>
     <row r="414" spans="1:4">
@@ -8942,10 +8942,10 @@
         <v>415</v>
       </c>
       <c r="C414">
-        <v>0</v>
+        <v>15384.53011671777</v>
       </c>
       <c r="D414">
-        <v>180024.9999999999</v>
+        <v>139139.5301167178</v>
       </c>
     </row>
     <row r="415" spans="1:4">
@@ -8959,7 +8959,7 @@
         <v>0</v>
       </c>
       <c r="D415">
-        <v>98261.99999999996</v>
+        <v>82417.99999999997</v>
       </c>
     </row>
     <row r="416" spans="1:4">
@@ -8973,7 +8973,7 @@
         <v>0</v>
       </c>
       <c r="D416">
-        <v>111059.9999999999</v>
+        <v>164760</v>
       </c>
     </row>
     <row r="417" spans="1:4">
@@ -8987,7 +8987,7 @@
         <v>0</v>
       </c>
       <c r="D417">
-        <v>89692.00000000001</v>
+        <v>95849.99999999996</v>
       </c>
     </row>
     <row r="418" spans="1:4">
@@ -9001,7 +9001,7 @@
         <v>0</v>
       </c>
       <c r="D418">
-        <v>70156.99999999994</v>
+        <v>61935.99999999999</v>
       </c>
     </row>
     <row r="419" spans="1:4">
@@ -9015,7 +9015,7 @@
         <v>0</v>
       </c>
       <c r="D419">
-        <v>148600.0000000001</v>
+        <v>128888</v>
       </c>
     </row>
     <row r="420" spans="1:4">
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="D420">
-        <v>113078</v>
+        <v>94097.00000000003</v>
       </c>
     </row>
     <row r="421" spans="1:4">
@@ -9043,7 +9043,7 @@
         <v>0</v>
       </c>
       <c r="D421">
-        <v>103463</v>
+        <v>123212.0000000001</v>
       </c>
     </row>
     <row r="422" spans="1:4">
@@ -9057,7 +9057,7 @@
         <v>0</v>
       </c>
       <c r="D422">
-        <v>114935</v>
+        <v>113626.9999999999</v>
       </c>
     </row>
     <row r="423" spans="1:4">
@@ -9068,10 +9068,10 @@
         <v>424</v>
       </c>
       <c r="C423">
-        <v>0</v>
+        <v>2622.750207282064</v>
       </c>
       <c r="D423">
-        <v>68006.99999999997</v>
+        <v>66584.75020728205</v>
       </c>
     </row>
     <row r="424" spans="1:4">
@@ -9085,7 +9085,7 @@
         <v>0</v>
       </c>
       <c r="D424">
-        <v>92614.00000000006</v>
+        <v>102717.9999999999</v>
       </c>
     </row>
     <row r="425" spans="1:4">
@@ -9099,7 +9099,7 @@
         <v>0</v>
       </c>
       <c r="D425">
-        <v>76915.00000000001</v>
+        <v>72563.00000000006</v>
       </c>
     </row>
     <row r="426" spans="1:4">
@@ -9110,10 +9110,10 @@
         <v>427</v>
       </c>
       <c r="C426">
-        <v>0</v>
+        <v>27732.44310699013</v>
       </c>
       <c r="D426">
-        <v>109287.9999999999</v>
+        <v>108493.4431069901</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -9127,7 +9127,7 @@
         <v>0</v>
       </c>
       <c r="D427">
-        <v>91097.00000000006</v>
+        <v>100181</v>
       </c>
     </row>
     <row r="428" spans="1:4">
@@ -9141,7 +9141,7 @@
         <v>0</v>
       </c>
       <c r="D428">
-        <v>92519.99999999996</v>
+        <v>146127.9999999999</v>
       </c>
     </row>
     <row r="429" spans="1:4">
@@ -9155,7 +9155,7 @@
         <v>0</v>
       </c>
       <c r="D429">
-        <v>79233.00000000001</v>
+        <v>67049.00000000001</v>
       </c>
     </row>
     <row r="430" spans="1:4">
@@ -9169,7 +9169,7 @@
         <v>0</v>
       </c>
       <c r="D430">
-        <v>153769.9999999999</v>
+        <v>150659.9999999999</v>
       </c>
     </row>
     <row r="431" spans="1:4">
@@ -9180,10 +9180,10 @@
         <v>432</v>
       </c>
       <c r="C431">
-        <v>8071.715795258293</v>
+        <v>0</v>
       </c>
       <c r="D431">
-        <v>142966.7157952582</v>
+        <v>180145</v>
       </c>
     </row>
     <row r="432" spans="1:4">
@@ -9194,10 +9194,10 @@
         <v>433</v>
       </c>
       <c r="C432">
-        <v>31421.17016307949</v>
+        <v>0</v>
       </c>
       <c r="D432">
-        <v>138831.1701630794</v>
+        <v>163475.0000000001</v>
       </c>
     </row>
     <row r="433" spans="1:4">
@@ -9208,10 +9208,10 @@
         <v>434</v>
       </c>
       <c r="C433">
-        <v>0</v>
+        <v>34647.58305329505</v>
       </c>
       <c r="D433">
-        <v>157510</v>
+        <v>141447.583053295</v>
       </c>
     </row>
     <row r="434" spans="1:4">
@@ -9222,10 +9222,10 @@
         <v>435</v>
       </c>
       <c r="C434">
-        <v>0</v>
+        <v>1608.799425222809</v>
       </c>
       <c r="D434">
-        <v>87105.99999999996</v>
+        <v>86434.79942522284</v>
       </c>
     </row>
     <row r="435" spans="1:4">
@@ -9239,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="D435">
-        <v>121480</v>
+        <v>120940.0000000001</v>
       </c>
     </row>
     <row r="436" spans="1:4">
@@ -9253,7 +9253,7 @@
         <v>0</v>
       </c>
       <c r="D436">
-        <v>96958.00000000006</v>
+        <v>90355.99999999997</v>
       </c>
     </row>
     <row r="437" spans="1:4">
@@ -9267,7 +9267,7 @@
         <v>0</v>
       </c>
       <c r="D437">
-        <v>78295.99999999999</v>
+        <v>73326.00000000006</v>
       </c>
     </row>
     <row r="438" spans="1:4">
@@ -9278,10 +9278,10 @@
         <v>439</v>
       </c>
       <c r="C438">
-        <v>0</v>
+        <v>13764.44599518603</v>
       </c>
       <c r="D438">
-        <v>98218.00000000001</v>
+        <v>84020.445995186</v>
       </c>
     </row>
     <row r="439" spans="1:4">
@@ -9292,10 +9292,10 @@
         <v>440</v>
       </c>
       <c r="C439">
-        <v>9386.167602201764</v>
+        <v>15519.04389145385</v>
       </c>
       <c r="D439">
-        <v>131974.1676022017</v>
+        <v>124851.0438914538</v>
       </c>
     </row>
     <row r="440" spans="1:4">
@@ -9309,7 +9309,7 @@
         <v>0</v>
       </c>
       <c r="D440">
-        <v>63562.99999999995</v>
+        <v>61143.00000000003</v>
       </c>
     </row>
     <row r="441" spans="1:4">
@@ -9323,7 +9323,7 @@
         <v>0</v>
       </c>
       <c r="D441">
-        <v>78837</v>
+        <v>74428.99999999996</v>
       </c>
     </row>
     <row r="442" spans="1:4">
@@ -9337,7 +9337,7 @@
         <v>0</v>
       </c>
       <c r="D442">
-        <v>122794.9999999999</v>
+        <v>93439.99999999997</v>
       </c>
     </row>
     <row r="443" spans="1:4">
@@ -9348,10 +9348,10 @@
         <v>444</v>
       </c>
       <c r="C443">
-        <v>10828.38108027028</v>
+        <v>31758.28532293705</v>
       </c>
       <c r="D443">
-        <v>105632.3810802703</v>
+        <v>106441.2853229371</v>
       </c>
     </row>
     <row r="444" spans="1:4">
@@ -9362,10 +9362,10 @@
         <v>445</v>
       </c>
       <c r="C444">
-        <v>34830.71472223148</v>
+        <v>0</v>
       </c>
       <c r="D444">
-        <v>125066.7147222315</v>
+        <v>127212.0000000001</v>
       </c>
     </row>
     <row r="445" spans="1:4">
@@ -9379,7 +9379,7 @@
         <v>0</v>
       </c>
       <c r="D445">
-        <v>171349.9999999999</v>
+        <v>192720.0000000001</v>
       </c>
     </row>
     <row r="446" spans="1:4">
@@ -9393,7 +9393,7 @@
         <v>0</v>
       </c>
       <c r="D446">
-        <v>103820</v>
+        <v>114098.0000000001</v>
       </c>
     </row>
     <row r="447" spans="1:4">
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="D447">
-        <v>145364.0000000001</v>
+        <v>165424</v>
       </c>
     </row>
     <row r="448" spans="1:4">
@@ -9421,7 +9421,7 @@
         <v>0</v>
       </c>
       <c r="D448">
-        <v>89380.00000000001</v>
+        <v>90106.00000000001</v>
       </c>
     </row>
     <row r="449" spans="1:4">
@@ -9432,10 +9432,10 @@
         <v>450</v>
       </c>
       <c r="C449">
-        <v>5685.47365590222</v>
+        <v>15747.63662910496</v>
       </c>
       <c r="D449">
-        <v>66599.47365590218</v>
+        <v>68280.63662910493</v>
       </c>
     </row>
     <row r="450" spans="1:4">
@@ -9449,7 +9449,7 @@
         <v>0</v>
       </c>
       <c r="D450">
-        <v>131356.9999999999</v>
+        <v>117605</v>
       </c>
     </row>
     <row r="451" spans="1:4">
@@ -9463,7 +9463,7 @@
         <v>0</v>
       </c>
       <c r="D451">
-        <v>179470</v>
+        <v>170134.9999999999</v>
       </c>
     </row>
     <row r="452" spans="1:4">
@@ -9477,7 +9477,7 @@
         <v>0</v>
       </c>
       <c r="D452">
-        <v>136591.9999999999</v>
+        <v>87241.99999999994</v>
       </c>
     </row>
     <row r="453" spans="1:4">
@@ -9491,7 +9491,7 @@
         <v>0</v>
       </c>
       <c r="D453">
-        <v>137366</v>
+        <v>113336</v>
       </c>
     </row>
     <row r="454" spans="1:4">
@@ -9502,10 +9502,10 @@
         <v>455</v>
       </c>
       <c r="C454">
-        <v>3790.170057681418</v>
+        <v>7967.965716651372</v>
       </c>
       <c r="D454">
-        <v>64969.17005768147</v>
+        <v>67457.96571665139</v>
       </c>
     </row>
     <row r="455" spans="1:4">
@@ -9519,7 +9519,7 @@
         <v>0</v>
       </c>
       <c r="D455">
-        <v>151764</v>
+        <v>128276.0000000001</v>
       </c>
     </row>
     <row r="456" spans="1:4">
@@ -9533,7 +9533,7 @@
         <v>0</v>
       </c>
       <c r="D456">
-        <v>89609.00000000007</v>
+        <v>109814</v>
       </c>
     </row>
     <row r="457" spans="1:4">
@@ -9547,7 +9547,7 @@
         <v>0</v>
       </c>
       <c r="D457">
-        <v>92160.00000000007</v>
+        <v>83562.00000000007</v>
       </c>
     </row>
     <row r="458" spans="1:4">
@@ -9558,10 +9558,10 @@
         <v>459</v>
       </c>
       <c r="C458">
-        <v>9295.735860656394</v>
+        <v>13040.82532072238</v>
       </c>
       <c r="D458">
-        <v>84629.73586065639</v>
+        <v>87048.82532072236</v>
       </c>
     </row>
     <row r="459" spans="1:4">
@@ -9572,10 +9572,10 @@
         <v>460</v>
       </c>
       <c r="C459">
-        <v>1769.554241777107</v>
+        <v>24752.90115263745</v>
       </c>
       <c r="D459">
-        <v>105021.554241777</v>
+        <v>108120.9011526375</v>
       </c>
     </row>
     <row r="460" spans="1:4">
@@ -9586,10 +9586,10 @@
         <v>461</v>
       </c>
       <c r="C460">
-        <v>8116.471962089956</v>
+        <v>26888.2499770815</v>
       </c>
       <c r="D460">
-        <v>105203.4719620899</v>
+        <v>106134.2499770816</v>
       </c>
     </row>
     <row r="461" spans="1:4">
@@ -9600,10 +9600,10 @@
         <v>462</v>
       </c>
       <c r="C461">
-        <v>3245.000984805141</v>
+        <v>19651.6525030468</v>
       </c>
       <c r="D461">
-        <v>86941.00098480508</v>
+        <v>86053.65250304675</v>
       </c>
     </row>
     <row r="462" spans="1:4">
@@ -9614,10 +9614,10 @@
         <v>463</v>
       </c>
       <c r="C462">
-        <v>22725.23451694744</v>
+        <v>755.5516929482255</v>
       </c>
       <c r="D462">
-        <v>125677.2345169474</v>
+        <v>124043.5516929482</v>
       </c>
     </row>
     <row r="463" spans="1:4">
@@ -9631,7 +9631,7 @@
         <v>0</v>
       </c>
       <c r="D463">
-        <v>79488.00000000006</v>
+        <v>86468.00000000003</v>
       </c>
     </row>
     <row r="464" spans="1:4">
@@ -9642,10 +9642,10 @@
         <v>465</v>
       </c>
       <c r="C464">
-        <v>0</v>
+        <v>39868.99417584029</v>
       </c>
       <c r="D464">
-        <v>130104</v>
+        <v>125636.9941758403</v>
       </c>
     </row>
     <row r="465" spans="1:4">
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="D465">
-        <v>167120.0000000001</v>
+        <v>101455</v>
       </c>
     </row>
     <row r="466" spans="1:4">
@@ -9673,7 +9673,7 @@
         <v>0</v>
       </c>
       <c r="D466">
-        <v>110028</v>
+        <v>108496</v>
       </c>
     </row>
     <row r="467" spans="1:4">
@@ -9687,7 +9687,7 @@
         <v>0</v>
       </c>
       <c r="D467">
-        <v>155187.9999999999</v>
+        <v>93695.99999999994</v>
       </c>
     </row>
     <row r="468" spans="1:4">
@@ -9701,7 +9701,7 @@
         <v>0</v>
       </c>
       <c r="D468">
-        <v>74760.99999999994</v>
+        <v>78587.99999999997</v>
       </c>
     </row>
     <row r="469" spans="1:4">
@@ -9712,10 +9712,10 @@
         <v>470</v>
       </c>
       <c r="C469">
-        <v>21181.17998670781</v>
+        <v>47930.25395954179</v>
       </c>
       <c r="D469">
-        <v>143906.1799867079</v>
+        <v>140720.2539595417</v>
       </c>
     </row>
     <row r="470" spans="1:4">
@@ -9726,10 +9726,10 @@
         <v>471</v>
       </c>
       <c r="C470">
-        <v>10742.46473877174</v>
+        <v>0</v>
       </c>
       <c r="D470">
-        <v>106149.4647387718</v>
+        <v>126744.9999999999</v>
       </c>
     </row>
     <row r="471" spans="1:4">
@@ -9743,7 +9743,7 @@
         <v>0</v>
       </c>
       <c r="D471">
-        <v>114688</v>
+        <v>129796.0000000001</v>
       </c>
     </row>
     <row r="472" spans="1:4">
@@ -9757,7 +9757,7 @@
         <v>0</v>
       </c>
       <c r="D472">
-        <v>133640</v>
+        <v>84427.99999999999</v>
       </c>
     </row>
     <row r="473" spans="1:4">
@@ -9771,7 +9771,7 @@
         <v>0</v>
       </c>
       <c r="D473">
-        <v>152219.9999999999</v>
+        <v>138570.0000000001</v>
       </c>
     </row>
     <row r="474" spans="1:4">
@@ -9782,10 +9782,10 @@
         <v>475</v>
       </c>
       <c r="C474">
-        <v>39039.21492435427</v>
+        <v>0</v>
       </c>
       <c r="D474">
-        <v>129107.2149243543</v>
+        <v>125748</v>
       </c>
     </row>
     <row r="475" spans="1:4">
@@ -9799,7 +9799,7 @@
         <v>0</v>
       </c>
       <c r="D475">
-        <v>102929.0000000001</v>
+        <v>114509.0000000001</v>
       </c>
     </row>
     <row r="476" spans="1:4">
@@ -9813,7 +9813,7 @@
         <v>0</v>
       </c>
       <c r="D476">
-        <v>92145.99999999997</v>
+        <v>86071.99999999999</v>
       </c>
     </row>
     <row r="477" spans="1:4">
@@ -9827,7 +9827,7 @@
         <v>0</v>
       </c>
       <c r="D477">
-        <v>65719.00000000003</v>
+        <v>69829.00000000001</v>
       </c>
     </row>
     <row r="478" spans="1:4">
@@ -9841,7 +9841,7 @@
         <v>0</v>
       </c>
       <c r="D478">
-        <v>136651.9999999999</v>
+        <v>109324</v>
       </c>
     </row>
     <row r="479" spans="1:4">
@@ -9855,7 +9855,7 @@
         <v>0</v>
       </c>
       <c r="D479">
-        <v>119663</v>
+        <v>137771</v>
       </c>
     </row>
     <row r="480" spans="1:4">
@@ -9866,10 +9866,10 @@
         <v>481</v>
       </c>
       <c r="C480">
-        <v>4281.185748030242</v>
+        <v>0</v>
       </c>
       <c r="D480">
-        <v>86305.18574803026</v>
+        <v>97228</v>
       </c>
     </row>
     <row r="481" spans="1:4">
@@ -9880,10 +9880,10 @@
         <v>482</v>
       </c>
       <c r="C481">
-        <v>14684.13889842023</v>
+        <v>18648.74251927962</v>
       </c>
       <c r="D481">
-        <v>84976.13889842021</v>
+        <v>85532.74251927962</v>
       </c>
     </row>
     <row r="482" spans="1:4">
@@ -9894,10 +9894,10 @@
         <v>483</v>
       </c>
       <c r="C482">
-        <v>0</v>
+        <v>23987.04669075188</v>
       </c>
       <c r="D482">
-        <v>99090.00000000006</v>
+        <v>85047.04669075187</v>
       </c>
     </row>
     <row r="483" spans="1:4">
@@ -9911,7 +9911,7 @@
         <v>0</v>
       </c>
       <c r="D483">
-        <v>95869.99999999999</v>
+        <v>83631.99999999996</v>
       </c>
     </row>
     <row r="484" spans="1:4">
@@ -9925,7 +9925,7 @@
         <v>0</v>
       </c>
       <c r="D484">
-        <v>129983</v>
+        <v>92038.99999999996</v>
       </c>
     </row>
     <row r="485" spans="1:4">
@@ -9939,7 +9939,7 @@
         <v>0</v>
       </c>
       <c r="D485">
-        <v>127092.0000000001</v>
+        <v>93924.00000000001</v>
       </c>
     </row>
     <row r="486" spans="1:4">
@@ -9953,7 +9953,7 @@
         <v>0</v>
       </c>
       <c r="D486">
-        <v>61797.00000000002</v>
+        <v>78847.99999999996</v>
       </c>
     </row>
     <row r="487" spans="1:4">
@@ -9967,7 +9967,7 @@
         <v>0</v>
       </c>
       <c r="D487">
-        <v>175659.9999999999</v>
+        <v>191835</v>
       </c>
     </row>
     <row r="488" spans="1:4">
@@ -9981,7 +9981,7 @@
         <v>0</v>
       </c>
       <c r="D488">
-        <v>162063.9999999999</v>
+        <v>156076.0000000001</v>
       </c>
     </row>
     <row r="489" spans="1:4">
@@ -9992,10 +9992,10 @@
         <v>490</v>
       </c>
       <c r="C489">
-        <v>0</v>
+        <v>15504.83908468743</v>
       </c>
       <c r="D489">
-        <v>69326.00000000004</v>
+        <v>68100.83908468744</v>
       </c>
     </row>
     <row r="490" spans="1:4">
@@ -10009,7 +10009,7 @@
         <v>0</v>
       </c>
       <c r="D490">
-        <v>99029.00000000006</v>
+        <v>131653.9999999999</v>
       </c>
     </row>
     <row r="491" spans="1:4">
@@ -10020,10 +10020,10 @@
         <v>492</v>
       </c>
       <c r="C491">
-        <v>34001.54263215121</v>
+        <v>20523.05101306261</v>
       </c>
       <c r="D491">
-        <v>105030.5426321512</v>
+        <v>107881.0510130626</v>
       </c>
     </row>
     <row r="492" spans="1:4">
@@ -10037,7 +10037,7 @@
         <v>0</v>
       </c>
       <c r="D492">
-        <v>142664.9999999999</v>
+        <v>168035</v>
       </c>
     </row>
     <row r="493" spans="1:4">
@@ -10051,7 +10051,7 @@
         <v>0</v>
       </c>
       <c r="D493">
-        <v>105395.0000000001</v>
+        <v>139280.0000000001</v>
       </c>
     </row>
     <row r="494" spans="1:4">
@@ -10062,10 +10062,10 @@
         <v>495</v>
       </c>
       <c r="C494">
-        <v>40509.9418963308</v>
+        <v>4124.058744275986</v>
       </c>
       <c r="D494">
-        <v>126905.9418963308</v>
+        <v>126096.058744276</v>
       </c>
     </row>
     <row r="495" spans="1:4">
@@ -10079,7 +10079,7 @@
         <v>0</v>
       </c>
       <c r="D495">
-        <v>101738.0000000001</v>
+        <v>119552.0000000001</v>
       </c>
     </row>
     <row r="496" spans="1:4">
@@ -10090,10 +10090,10 @@
         <v>497</v>
       </c>
       <c r="C496">
-        <v>5714.672840086831</v>
+        <v>0</v>
       </c>
       <c r="D496">
-        <v>87086.67284008677</v>
+        <v>88312.00000000004</v>
       </c>
     </row>
     <row r="497" spans="1:4">
@@ -10104,10 +10104,10 @@
         <v>498</v>
       </c>
       <c r="C497">
-        <v>1274.730756165591</v>
+        <v>0</v>
       </c>
       <c r="D497">
-        <v>67267.73075616555</v>
+        <v>66896</v>
       </c>
     </row>
     <row r="498" spans="1:4">
@@ -10118,10 +10118,10 @@
         <v>499</v>
       </c>
       <c r="C498">
-        <v>19410.7822130841</v>
+        <v>0</v>
       </c>
       <c r="D498">
-        <v>84326.78221308411</v>
+        <v>89152.00000000004</v>
       </c>
     </row>
     <row r="499" spans="1:4">
@@ -10135,7 +10135,7 @@
         <v>0</v>
       </c>
       <c r="D499">
-        <v>132980</v>
+        <v>118705.9999999999</v>
       </c>
     </row>
     <row r="500" spans="1:4">
@@ -10146,10 +10146,10 @@
         <v>501</v>
       </c>
       <c r="C500">
-        <v>400.6842937915062</v>
+        <v>21735.19878304226</v>
       </c>
       <c r="D500">
-        <v>106205.6842937915</v>
+        <v>105505.1987830423</v>
       </c>
     </row>
     <row r="501" spans="1:4">
@@ -10163,7 +10163,7 @@
         <v>0</v>
       </c>
       <c r="D501">
-        <v>102935</v>
+        <v>137324</v>
       </c>
     </row>
     <row r="502" spans="1:4">
@@ -10177,7 +10177,7 @@
         <v>0</v>
       </c>
       <c r="D502">
-        <v>77451.99999999993</v>
+        <v>77214.00000000001</v>
       </c>
     </row>
     <row r="503" spans="1:4">
@@ -10191,7 +10191,7 @@
         <v>0</v>
       </c>
       <c r="D503">
-        <v>79611.99999999993</v>
+        <v>98477.99999999991</v>
       </c>
     </row>
     <row r="504" spans="1:4">
@@ -10205,7 +10205,7 @@
         <v>0</v>
       </c>
       <c r="D504">
-        <v>66392.99999999997</v>
+        <v>63345.99999999995</v>
       </c>
     </row>
     <row r="505" spans="1:4">
@@ -10216,10 +10216,10 @@
         <v>506</v>
       </c>
       <c r="C505">
-        <v>0</v>
+        <v>25006.71514975517</v>
       </c>
       <c r="D505">
-        <v>115582</v>
+        <v>108239.7151497551</v>
       </c>
     </row>
     <row r="506" spans="1:4">
@@ -10233,7 +10233,7 @@
         <v>0</v>
       </c>
       <c r="D506">
-        <v>87953.99999999994</v>
+        <v>81902</v>
       </c>
     </row>
     <row r="507" spans="1:4">
@@ -10247,7 +10247,7 @@
         <v>0</v>
       </c>
       <c r="D507">
-        <v>133913.0000000001</v>
+        <v>120160.9999999999</v>
       </c>
     </row>
     <row r="508" spans="1:4">
@@ -10261,7 +10261,7 @@
         <v>0</v>
       </c>
       <c r="D508">
-        <v>77181.00000000003</v>
+        <v>79096.99999999994</v>
       </c>
     </row>
     <row r="509" spans="1:4">
@@ -10275,7 +10275,7 @@
         <v>0</v>
       </c>
       <c r="D509">
-        <v>75621.99999999994</v>
+        <v>84648.00000000003</v>
       </c>
     </row>
     <row r="510" spans="1:4">
@@ -10289,7 +10289,7 @@
         <v>0</v>
       </c>
       <c r="D510">
-        <v>137371.9999999999</v>
+        <v>159151.9999999999</v>
       </c>
     </row>
     <row r="511" spans="1:4">
@@ -10300,10 +10300,10 @@
         <v>512</v>
       </c>
       <c r="C511">
-        <v>22426.91288090697</v>
+        <v>0</v>
       </c>
       <c r="D511">
-        <v>86774.91288090694</v>
+        <v>99956</v>
       </c>
     </row>
     <row r="512" spans="1:4">
@@ -10317,7 +10317,7 @@
         <v>0</v>
       </c>
       <c r="D512">
-        <v>150410</v>
+        <v>181585.0000000001</v>
       </c>
     </row>
     <row r="513" spans="1:4">
@@ -10328,10 +10328,10 @@
         <v>514</v>
       </c>
       <c r="C513">
-        <v>23866.46198649189</v>
+        <v>7656.399127766679</v>
       </c>
       <c r="D513">
-        <v>84882.46198649189</v>
+        <v>84342.39912776662</v>
       </c>
     </row>
     <row r="514" spans="1:4">
@@ -10342,10 +10342,10 @@
         <v>515</v>
       </c>
       <c r="C514">
-        <v>13671.9685305906</v>
+        <v>10974.01290789394</v>
       </c>
       <c r="D514">
-        <v>67618.96853059057</v>
+        <v>66738.01290789398</v>
       </c>
     </row>
     <row r="515" spans="1:4">
@@ -10356,10 +10356,10 @@
         <v>516</v>
       </c>
       <c r="C515">
-        <v>0</v>
+        <v>4655.917734654533</v>
       </c>
       <c r="D515">
-        <v>95784.00000000007</v>
+        <v>85413.91773465449</v>
       </c>
     </row>
     <row r="516" spans="1:4">
@@ -10370,10 +10370,10 @@
         <v>517</v>
       </c>
       <c r="C516">
-        <v>0</v>
+        <v>20653.71514975507</v>
       </c>
       <c r="D516">
-        <v>114445</v>
+        <v>108239.7151497551</v>
       </c>
     </row>
     <row r="517" spans="1:4">
@@ -10384,10 +10384,10 @@
         <v>518</v>
       </c>
       <c r="C517">
-        <v>0</v>
+        <v>7672.992024011823</v>
       </c>
       <c r="D517">
-        <v>185099.9999999999</v>
+        <v>138102.9920240119</v>
       </c>
     </row>
     <row r="518" spans="1:4">
@@ -10401,7 +10401,7 @@
         <v>0</v>
       </c>
       <c r="D518">
-        <v>112004.0000000001</v>
+        <v>103754</v>
       </c>
     </row>
     <row r="519" spans="1:4">
@@ -10415,7 +10415,7 @@
         <v>0</v>
       </c>
       <c r="D519">
-        <v>76711.00000000004</v>
+        <v>60417.00000000001</v>
       </c>
     </row>
     <row r="520" spans="1:4">
@@ -10429,7 +10429,7 @@
         <v>0</v>
       </c>
       <c r="D520">
-        <v>136787.0000000001</v>
+        <v>85127.00000000007</v>
       </c>
     </row>
     <row r="521" spans="1:4">
@@ -10443,7 +10443,7 @@
         <v>0</v>
       </c>
       <c r="D521">
-        <v>107678</v>
+        <v>80931.99999999993</v>
       </c>
     </row>
     <row r="522" spans="1:4">
@@ -10454,10 +10454,10 @@
         <v>523</v>
       </c>
       <c r="C522">
-        <v>0</v>
+        <v>18121.76231802594</v>
       </c>
       <c r="D522">
-        <v>167994.9999999999</v>
+        <v>142391.762318026</v>
       </c>
     </row>
     <row r="523" spans="1:4">
@@ -10468,10 +10468,10 @@
         <v>524</v>
       </c>
       <c r="C523">
-        <v>32148.76888468048</v>
+        <v>0</v>
       </c>
       <c r="D523">
-        <v>140473.7688846804</v>
+        <v>163364.9999999999</v>
       </c>
     </row>
     <row r="524" spans="1:4">
@@ -10485,7 +10485,7 @@
         <v>0</v>
       </c>
       <c r="D524">
-        <v>109366.0000000001</v>
+        <v>74168</v>
       </c>
     </row>
     <row r="525" spans="1:4">
@@ -10499,7 +10499,7 @@
         <v>0</v>
       </c>
       <c r="D525">
-        <v>126067.9999999999</v>
+        <v>165492.0000000001</v>
       </c>
     </row>
     <row r="526" spans="1:4">
@@ -10510,10 +10510,10 @@
         <v>527</v>
       </c>
       <c r="C526">
-        <v>954.5904516137816</v>
+        <v>13644.40438258697</v>
       </c>
       <c r="D526">
-        <v>104464.5904516139</v>
+        <v>109228.4043825869</v>
       </c>
     </row>
     <row r="527" spans="1:4">
@@ -10524,10 +10524,10 @@
         <v>528</v>
       </c>
       <c r="C527">
-        <v>21417.26631002882</v>
+        <v>6595.737078742517</v>
       </c>
       <c r="D527">
-        <v>105688.2663100288</v>
+        <v>105137.7370787424</v>
       </c>
     </row>
     <row r="528" spans="1:4">
@@ -10538,10 +10538,10 @@
         <v>529</v>
       </c>
       <c r="C528">
-        <v>3619.483068128204</v>
+        <v>19446.97034531065</v>
       </c>
       <c r="D528">
-        <v>86071.48306812815</v>
+        <v>84360.97034531066</v>
       </c>
     </row>
     <row r="529" spans="1:4">
@@ -10555,7 +10555,7 @@
         <v>0</v>
       </c>
       <c r="D529">
-        <v>74097.99999999994</v>
+        <v>109103.9999999999</v>
       </c>
     </row>
     <row r="530" spans="1:4">
@@ -10566,10 +10566,10 @@
         <v>531</v>
       </c>
       <c r="C530">
-        <v>18577.39013862111</v>
+        <v>0</v>
       </c>
       <c r="D530">
-        <v>86671.39013862109</v>
+        <v>97892.00000000007</v>
       </c>
     </row>
     <row r="531" spans="1:4">
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="D531">
-        <v>126698</v>
+        <v>92644.99999999997</v>
       </c>
     </row>
     <row r="532" spans="1:4">
@@ -10594,10 +10594,10 @@
         <v>533</v>
       </c>
       <c r="C532">
-        <v>0</v>
+        <v>25906.87016049396</v>
       </c>
       <c r="D532">
-        <v>186475.0000000001</v>
+        <v>140356.8701604939</v>
       </c>
     </row>
     <row r="533" spans="1:4">
@@ -10611,7 +10611,7 @@
         <v>0</v>
       </c>
       <c r="D533">
-        <v>61507.00000000001</v>
+        <v>67306.00000000006</v>
       </c>
     </row>
     <row r="534" spans="1:4">
@@ -10625,7 +10625,7 @@
         <v>0</v>
       </c>
       <c r="D534">
-        <v>160425</v>
+        <v>146450</v>
       </c>
     </row>
     <row r="535" spans="1:4">
@@ -10639,7 +10639,7 @@
         <v>0</v>
       </c>
       <c r="D535">
-        <v>154780</v>
+        <v>113080.0000000001</v>
       </c>
     </row>
     <row r="536" spans="1:4">
@@ -10653,7 +10653,7 @@
         <v>0</v>
       </c>
       <c r="D536">
-        <v>169659.9999999999</v>
+        <v>189540.0000000002</v>
       </c>
     </row>
     <row r="537" spans="1:4">
@@ -10664,10 +10664,10 @@
         <v>538</v>
       </c>
       <c r="C537">
-        <v>13513.89412561408</v>
+        <v>19419.97924536097</v>
       </c>
       <c r="D537">
-        <v>84737.89412561411</v>
+        <v>85431.97924536098</v>
       </c>
     </row>
     <row r="538" spans="1:4">
@@ -10681,7 +10681,7 @@
         <v>0</v>
       </c>
       <c r="D538">
-        <v>136952</v>
+        <v>135900</v>
       </c>
     </row>
     <row r="539" spans="1:4">
@@ -10695,7 +10695,7 @@
         <v>0</v>
       </c>
       <c r="D539">
-        <v>71995.00000000004</v>
+        <v>64328.99999999999</v>
       </c>
     </row>
     <row r="540" spans="1:4">
@@ -10709,7 +10709,7 @@
         <v>0</v>
       </c>
       <c r="D540">
-        <v>108794</v>
+        <v>78189.99999999997</v>
       </c>
     </row>
     <row r="541" spans="1:4">
@@ -10720,10 +10720,10 @@
         <v>542</v>
       </c>
       <c r="C541">
-        <v>30712.36687559415</v>
+        <v>1331.694148187962</v>
       </c>
       <c r="D541">
-        <v>102536.3668755941</v>
+        <v>107235.694148188</v>
       </c>
     </row>
     <row r="542" spans="1:4">
@@ -10734,10 +10734,10 @@
         <v>543</v>
       </c>
       <c r="C542">
-        <v>12577.87701180069</v>
+        <v>1501.328243596072</v>
       </c>
       <c r="D542">
-        <v>64129.87701180064</v>
+        <v>67377.32824359609</v>
       </c>
     </row>
     <row r="543" spans="1:4">
@@ -10748,10 +10748,10 @@
         <v>544</v>
       </c>
       <c r="C543">
-        <v>0</v>
+        <v>15688.44410369468</v>
       </c>
       <c r="D543">
-        <v>165949.9999999999</v>
+        <v>140398.4441036948</v>
       </c>
     </row>
     <row r="544" spans="1:4">
@@ -10762,10 +10762,10 @@
         <v>545</v>
       </c>
       <c r="C544">
-        <v>6737.197229969228</v>
+        <v>9197.54663849606</v>
       </c>
       <c r="D544">
-        <v>86883.19722996924</v>
+        <v>83469.54663849605</v>
       </c>
     </row>
     <row r="545" spans="1:4">
@@ -10779,7 +10779,7 @@
         <v>0</v>
       </c>
       <c r="D545">
-        <v>64864.99999999999</v>
+        <v>71397.00000000003</v>
       </c>
     </row>
     <row r="546" spans="1:4">
@@ -10790,10 +10790,10 @@
         <v>547</v>
       </c>
       <c r="C546">
-        <v>0</v>
+        <v>15291.55452740507</v>
       </c>
       <c r="D546">
-        <v>154796.0000000001</v>
+        <v>122307.554527405</v>
       </c>
     </row>
     <row r="547" spans="1:4">
@@ -10807,7 +10807,7 @@
         <v>0</v>
       </c>
       <c r="D547">
-        <v>63655.99999999999</v>
+        <v>79312.00000000004</v>
       </c>
     </row>
     <row r="548" spans="1:4">
@@ -10818,10 +10818,10 @@
         <v>549</v>
       </c>
       <c r="C548">
-        <v>33957.93921606295</v>
+        <v>0</v>
       </c>
       <c r="D548">
-        <v>136967.939216063</v>
+        <v>162634.9999999999</v>
       </c>
     </row>
     <row r="549" spans="1:4">
@@ -10832,10 +10832,10 @@
         <v>550</v>
       </c>
       <c r="C549">
-        <v>33721.55969827314</v>
+        <v>41094.74574208814</v>
       </c>
       <c r="D549">
-        <v>137261.5596982731</v>
+        <v>142664.7457420882</v>
       </c>
     </row>
     <row r="550" spans="1:4">
@@ -10849,7 +10849,7 @@
         <v>0</v>
       </c>
       <c r="D550">
-        <v>116879</v>
+        <v>97216.99999999997</v>
       </c>
     </row>
     <row r="551" spans="1:4">
@@ -10863,7 +10863,7 @@
         <v>0</v>
       </c>
       <c r="D551">
-        <v>91896.00000000006</v>
+        <v>101028</v>
       </c>
     </row>
     <row r="552" spans="1:4">
@@ -10874,10 +10874,10 @@
         <v>553</v>
       </c>
       <c r="C552">
-        <v>0</v>
+        <v>15498.86381481742</v>
       </c>
       <c r="D552">
-        <v>170789.9999999999</v>
+        <v>141648.8638148173</v>
       </c>
     </row>
     <row r="553" spans="1:4">
@@ -10891,7 +10891,7 @@
         <v>0</v>
       </c>
       <c r="D553">
-        <v>125152.9999999999</v>
+        <v>125108</v>
       </c>
     </row>
     <row r="554" spans="1:4">
@@ -10905,7 +10905,7 @@
         <v>0</v>
       </c>
       <c r="D554">
-        <v>130271.9999999999</v>
+        <v>144035.9999999999</v>
       </c>
     </row>
     <row r="555" spans="1:4">
@@ -10919,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="D555">
-        <v>73326.00000000006</v>
+        <v>67027.00000000001</v>
       </c>
     </row>
     <row r="556" spans="1:4">
@@ -10930,10 +10930,10 @@
         <v>557</v>
       </c>
       <c r="C556">
-        <v>9376.261856425808</v>
+        <v>11588.91848490768</v>
       </c>
       <c r="D556">
-        <v>66688.26185642576</v>
+        <v>67340.91848490773</v>
       </c>
     </row>
     <row r="557" spans="1:4">
@@ -10944,10 +10944,10 @@
         <v>558</v>
       </c>
       <c r="C557">
-        <v>0</v>
+        <v>23561.71472563456</v>
       </c>
       <c r="D557">
-        <v>93874.00000000007</v>
+        <v>83807.71472563453</v>
       </c>
     </row>
     <row r="558" spans="1:4">
@@ -10961,7 +10961,7 @@
         <v>0</v>
       </c>
       <c r="D558">
-        <v>108544</v>
+        <v>73309.99999999996</v>
       </c>
     </row>
     <row r="559" spans="1:4">
@@ -10975,7 +10975,7 @@
         <v>0</v>
       </c>
       <c r="D559">
-        <v>60471.99999999996</v>
+        <v>62699.99999999999</v>
       </c>
     </row>
     <row r="560" spans="1:4">
@@ -10989,7 +10989,7 @@
         <v>0</v>
       </c>
       <c r="D560">
-        <v>132577.9999999999</v>
+        <v>126125.0000000001</v>
       </c>
     </row>
     <row r="561" spans="1:4">
@@ -11003,7 +11003,7 @@
         <v>0</v>
       </c>
       <c r="D561">
-        <v>110588</v>
+        <v>113000</v>
       </c>
     </row>
     <row r="562" spans="1:4">
@@ -11017,7 +11017,7 @@
         <v>0</v>
       </c>
       <c r="D562">
-        <v>101161.9999999999</v>
+        <v>125566.9999999999</v>
       </c>
     </row>
     <row r="563" spans="1:4">
@@ -11028,10 +11028,10 @@
         <v>564</v>
       </c>
       <c r="C563">
-        <v>0</v>
+        <v>25561.6670947488</v>
       </c>
       <c r="D563">
-        <v>115339.0000000001</v>
+        <v>106394.6670947488</v>
       </c>
     </row>
     <row r="564" spans="1:4">
@@ -11045,7 +11045,7 @@
         <v>0</v>
       </c>
       <c r="D564">
-        <v>97591.99999999999</v>
+        <v>136456.9999999999</v>
       </c>
     </row>
     <row r="565" spans="1:4">
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="D565">
-        <v>85419.99999999994</v>
+        <v>86596.00000000004</v>
       </c>
     </row>
     <row r="566" spans="1:4">
@@ -11073,7 +11073,7 @@
         <v>0</v>
       </c>
       <c r="D566">
-        <v>135688</v>
+        <v>169279.9999999999</v>
       </c>
     </row>
     <row r="567" spans="1:4">
@@ -11087,7 +11087,7 @@
         <v>0</v>
       </c>
       <c r="D567">
-        <v>96047.99999999997</v>
+        <v>103543.9999999999</v>
       </c>
     </row>
     <row r="568" spans="1:4">
@@ -11101,7 +11101,7 @@
         <v>0</v>
       </c>
       <c r="D568">
-        <v>62680.00000000003</v>
+        <v>69993.99999999994</v>
       </c>
     </row>
     <row r="569" spans="1:4">
@@ -11115,7 +11115,7 @@
         <v>0</v>
       </c>
       <c r="D569">
-        <v>93848.00000000009</v>
+        <v>135091.9999999999</v>
       </c>
     </row>
     <row r="570" spans="1:4">
@@ -11129,7 +11129,7 @@
         <v>0</v>
       </c>
       <c r="D570">
-        <v>112376</v>
+        <v>94484.00000000006</v>
       </c>
     </row>
     <row r="571" spans="1:4">
@@ -11140,10 +11140,10 @@
         <v>572</v>
       </c>
       <c r="C571">
-        <v>0</v>
+        <v>24005.41267853115</v>
       </c>
       <c r="D571">
-        <v>111352.0000000001</v>
+        <v>106290.4126785311</v>
       </c>
     </row>
     <row r="572" spans="1:4">
@@ -11154,10 +11154,10 @@
         <v>573</v>
       </c>
       <c r="C572">
-        <v>22289.85783519442</v>
+        <v>47787.38656970087</v>
       </c>
       <c r="D572">
-        <v>138889.8578351944</v>
+        <v>142742.3865697009</v>
       </c>
     </row>
     <row r="573" spans="1:4">
@@ -11168,10 +11168,10 @@
         <v>574</v>
       </c>
       <c r="C573">
-        <v>13321.836277536</v>
+        <v>0</v>
       </c>
       <c r="D573">
-        <v>141131.8362775359</v>
+        <v>162759.9999999999</v>
       </c>
     </row>
     <row r="574" spans="1:4">
@@ -11182,10 +11182,10 @@
         <v>575</v>
       </c>
       <c r="C574">
-        <v>11159.39980024155</v>
+        <v>16929.51535845746</v>
       </c>
       <c r="D574">
-        <v>141119.3998002415</v>
+        <v>141419.5153584574</v>
       </c>
     </row>
     <row r="575" spans="1:4">
@@ -11199,7 +11199,7 @@
         <v>0</v>
       </c>
       <c r="D575">
-        <v>97486.99999999996</v>
+        <v>125143.9999999999</v>
       </c>
     </row>
     <row r="576" spans="1:4">
@@ -11210,10 +11210,10 @@
         <v>577</v>
       </c>
       <c r="C576">
-        <v>12732.69920513324</v>
+        <v>5516.161405011953</v>
       </c>
       <c r="D576">
-        <v>64077.6992051332</v>
+        <v>67338.16140501198</v>
       </c>
     </row>
     <row r="577" spans="1:4">
@@ -11227,7 +11227,7 @@
         <v>0</v>
       </c>
       <c r="D577">
-        <v>108224</v>
+        <v>159567.9999999999</v>
       </c>
     </row>
     <row r="578" spans="1:4">
@@ -11238,10 +11238,10 @@
         <v>579</v>
       </c>
       <c r="C578">
-        <v>0</v>
+        <v>6674.654923283459</v>
       </c>
       <c r="D578">
-        <v>68468.00000000001</v>
+        <v>67473.65492328348</v>
       </c>
     </row>
     <row r="579" spans="1:4">
@@ -11252,10 +11252,10 @@
         <v>580</v>
       </c>
       <c r="C579">
-        <v>19245.83428868632</v>
+        <v>27538.94260867409</v>
       </c>
       <c r="D579">
-        <v>130393.8342886864</v>
+        <v>122318.9426086741</v>
       </c>
     </row>
     <row r="580" spans="1:4">
@@ -11269,7 +11269,7 @@
         <v>0</v>
       </c>
       <c r="D580">
-        <v>99973.99999999997</v>
+        <v>74843.99999999996</v>
       </c>
     </row>
     <row r="581" spans="1:4">
@@ -11283,7 +11283,7 @@
         <v>0</v>
       </c>
       <c r="D581">
-        <v>127355</v>
+        <v>189850</v>
       </c>
     </row>
     <row r="582" spans="1:4">
@@ -11294,10 +11294,10 @@
         <v>583</v>
       </c>
       <c r="C582">
-        <v>0</v>
+        <v>16652.89906565759</v>
       </c>
       <c r="D582">
-        <v>179880</v>
+        <v>138612.8990656575</v>
       </c>
     </row>
     <row r="583" spans="1:4">
@@ -11311,7 +11311,7 @@
         <v>0</v>
       </c>
       <c r="D583">
-        <v>89728.99999999999</v>
+        <v>84422.00000000006</v>
       </c>
     </row>
     <row r="584" spans="1:4">
@@ -11325,7 +11325,7 @@
         <v>0</v>
       </c>
       <c r="D584">
-        <v>105829.9999999999</v>
+        <v>115444.9999999999</v>
       </c>
     </row>
     <row r="585" spans="1:4">
@@ -11339,7 +11339,7 @@
         <v>0</v>
       </c>
       <c r="D585">
-        <v>88825.99999999994</v>
+        <v>123164</v>
       </c>
     </row>
     <row r="586" spans="1:4">
@@ -11353,7 +11353,7 @@
         <v>0</v>
       </c>
       <c r="D586">
-        <v>167136.0000000001</v>
+        <v>150459.9999999999</v>
       </c>
     </row>
     <row r="587" spans="1:4">
@@ -11367,7 +11367,7 @@
         <v>0</v>
       </c>
       <c r="D587">
-        <v>65066</v>
+        <v>75677.00000000006</v>
       </c>
     </row>
     <row r="588" spans="1:4">
@@ -11381,7 +11381,7 @@
         <v>0</v>
       </c>
       <c r="D588">
-        <v>103829.9999999999</v>
+        <v>79276.00000000003</v>
       </c>
     </row>
     <row r="589" spans="1:4">
@@ -11395,7 +11395,7 @@
         <v>0</v>
       </c>
       <c r="D589">
-        <v>164092.0000000001</v>
+        <v>137024.0000000001</v>
       </c>
     </row>
     <row r="590" spans="1:4">
@@ -11409,7 +11409,7 @@
         <v>0</v>
       </c>
       <c r="D590">
-        <v>136588</v>
+        <v>136639.9999999999</v>
       </c>
     </row>
     <row r="591" spans="1:4">
@@ -11423,7 +11423,7 @@
         <v>0</v>
       </c>
       <c r="D591">
-        <v>121309.9999999999</v>
+        <v>137260</v>
       </c>
     </row>
     <row r="592" spans="1:4">
@@ -11437,7 +11437,7 @@
         <v>0</v>
       </c>
       <c r="D592">
-        <v>99780</v>
+        <v>96180.00000000001</v>
       </c>
     </row>
     <row r="593" spans="1:4">
@@ -11451,7 +11451,7 @@
         <v>0</v>
       </c>
       <c r="D593">
-        <v>103724.0000000001</v>
+        <v>104945</v>
       </c>
     </row>
     <row r="594" spans="1:4">
@@ -11462,10 +11462,10 @@
         <v>595</v>
       </c>
       <c r="C594">
-        <v>0</v>
+        <v>45627.60002146405</v>
       </c>
       <c r="D594">
-        <v>187159.9999999999</v>
+        <v>140422.6000214641</v>
       </c>
     </row>
     <row r="595" spans="1:4">
@@ -11476,10 +11476,10 @@
         <v>596</v>
       </c>
       <c r="C595">
-        <v>39303.65081889744</v>
+        <v>0</v>
       </c>
       <c r="D595">
-        <v>140358.6508188974</v>
+        <v>183725</v>
       </c>
     </row>
     <row r="596" spans="1:4">
@@ -11493,7 +11493,7 @@
         <v>0</v>
       </c>
       <c r="D596">
-        <v>164174.9999999999</v>
+        <v>136735.0000000001</v>
       </c>
     </row>
     <row r="597" spans="1:4">
@@ -11504,10 +11504,10 @@
         <v>598</v>
       </c>
       <c r="C597">
-        <v>34058.58516348568</v>
+        <v>25129.76333050203</v>
       </c>
       <c r="D597">
-        <v>108612.5851634857</v>
+        <v>105365.7633305021</v>
       </c>
     </row>
     <row r="598" spans="1:4">
@@ -11521,7 +11521,7 @@
         <v>0</v>
       </c>
       <c r="D598">
-        <v>76951.99999999996</v>
+        <v>63462.00000000005</v>
       </c>
     </row>
     <row r="599" spans="1:4">
@@ -11532,10 +11532,10 @@
         <v>600</v>
       </c>
       <c r="C599">
-        <v>14773.92255485638</v>
+        <v>0</v>
       </c>
       <c r="D599">
-        <v>141053.9225548565</v>
+        <v>162804.9999999999</v>
       </c>
     </row>
     <row r="600" spans="1:4">
@@ -11549,7 +11549,7 @@
         <v>0</v>
       </c>
       <c r="D600">
-        <v>89329.99999999996</v>
+        <v>84607.99999999994</v>
       </c>
     </row>
     <row r="601" spans="1:4">
@@ -11560,10 +11560,10 @@
         <v>602</v>
       </c>
       <c r="C601">
-        <v>0</v>
+        <v>4056.491005467273</v>
       </c>
       <c r="D601">
-        <v>67911.99999999999</v>
+        <v>67534.49100546732</v>
       </c>
     </row>
     <row r="602" spans="1:4">
@@ -11577,7 +11577,7 @@
         <v>0</v>
       </c>
       <c r="D602">
-        <v>79141.99999999999</v>
+        <v>68613.00000000004</v>
       </c>
     </row>
     <row r="603" spans="1:4">
@@ -11588,10 +11588,10 @@
         <v>604</v>
       </c>
       <c r="C603">
-        <v>0</v>
+        <v>23848.31062264244</v>
       </c>
       <c r="D603">
-        <v>93454.00000000007</v>
+        <v>86278.31062264238</v>
       </c>
     </row>
     <row r="604" spans="1:4">
@@ -11605,7 +11605,7 @@
         <v>0</v>
       </c>
       <c r="D604">
-        <v>186295.0000000001</v>
+        <v>126625</v>
       </c>
     </row>
     <row r="605" spans="1:4">
@@ -11616,10 +11616,10 @@
         <v>606</v>
       </c>
       <c r="C605">
-        <v>4625.638064196275</v>
+        <v>8177.574843543407</v>
       </c>
       <c r="D605">
-        <v>63506.63806419628</v>
+        <v>66910.57484354345</v>
       </c>
     </row>
     <row r="606" spans="1:4">
@@ -11633,7 +11633,7 @@
         <v>0</v>
       </c>
       <c r="D606">
-        <v>91498.99999999994</v>
+        <v>88022.00000000004</v>
       </c>
     </row>
     <row r="607" spans="1:4">
@@ -11644,10 +11644,10 @@
         <v>608</v>
       </c>
       <c r="C607">
-        <v>9014.164570625915</v>
+        <v>22978.03913484149</v>
       </c>
       <c r="D607">
-        <v>104352.1645706259</v>
+        <v>106367.0391348415</v>
       </c>
     </row>
     <row r="608" spans="1:4">
@@ -11661,7 +11661,7 @@
         <v>0</v>
       </c>
       <c r="D608">
-        <v>99718.99999999994</v>
+        <v>138206.0000000001</v>
       </c>
     </row>
     <row r="609" spans="1:4">
@@ -11672,10 +11672,10 @@
         <v>610</v>
       </c>
       <c r="C609">
-        <v>1236.518198549544</v>
+        <v>20340.51229607462</v>
       </c>
       <c r="D609">
-        <v>104692.5181985496</v>
+        <v>106615.5122960746</v>
       </c>
     </row>
     <row r="610" spans="1:4">
@@ -11689,7 +11689,7 @@
         <v>0</v>
       </c>
       <c r="D610">
-        <v>160707.9999999999</v>
+        <v>130483.9999999999</v>
       </c>
     </row>
     <row r="611" spans="1:4">
@@ -11700,10 +11700,10 @@
         <v>612</v>
       </c>
       <c r="C611">
-        <v>0</v>
+        <v>18982.63608709539</v>
       </c>
       <c r="D611">
-        <v>119871.9999999999</v>
+        <v>106643.6360870955</v>
       </c>
     </row>
     <row r="612" spans="1:4">
@@ -11717,7 +11717,7 @@
         <v>0</v>
       </c>
       <c r="D612">
-        <v>87838.00000000006</v>
+        <v>89945.99999999999</v>
       </c>
     </row>
     <row r="613" spans="1:4">
@@ -11728,10 +11728,10 @@
         <v>614</v>
       </c>
       <c r="C613">
-        <v>9297.214685722123</v>
+        <v>13284.42861943233</v>
       </c>
       <c r="D613">
-        <v>65206.2146857221</v>
+        <v>68394.42861943234</v>
       </c>
     </row>
     <row r="614" spans="1:4">
@@ -11745,7 +11745,7 @@
         <v>0</v>
       </c>
       <c r="D614">
-        <v>106644.0000000001</v>
+        <v>83114.00000000007</v>
       </c>
     </row>
     <row r="615" spans="1:4">
@@ -11759,7 +11759,7 @@
         <v>0</v>
       </c>
       <c r="D615">
-        <v>91839.99999999993</v>
+        <v>92306.00000000003</v>
       </c>
     </row>
     <row r="616" spans="1:4">
@@ -11770,10 +11770,10 @@
         <v>617</v>
       </c>
       <c r="C616">
-        <v>0</v>
+        <v>23678.3615215965</v>
       </c>
       <c r="D616">
-        <v>118800.9999999999</v>
+        <v>106674.3615215965</v>
       </c>
     </row>
     <row r="617" spans="1:4">
@@ -11784,10 +11784,10 @@
         <v>618</v>
       </c>
       <c r="C617">
-        <v>11079.36632996664</v>
+        <v>0</v>
       </c>
       <c r="D617">
-        <v>85847.36632996667</v>
+        <v>97941.99999999993</v>
       </c>
     </row>
     <row r="618" spans="1:4">
@@ -11798,10 +11798,10 @@
         <v>619</v>
       </c>
       <c r="C618">
-        <v>0</v>
+        <v>8810.233955318683</v>
       </c>
       <c r="D618">
-        <v>67390.00000000004</v>
+        <v>67627.23395531866</v>
       </c>
     </row>
     <row r="619" spans="1:4">
@@ -11812,10 +11812,10 @@
         <v>620</v>
       </c>
       <c r="C619">
-        <v>22811.09183529722</v>
+        <v>17595.28246303837</v>
       </c>
       <c r="D619">
-        <v>106107.0918352972</v>
+        <v>106798.2824630383</v>
       </c>
     </row>
     <row r="620" spans="1:4">
@@ -11829,7 +11829,7 @@
         <v>0</v>
       </c>
       <c r="D620">
-        <v>62462.00000000001</v>
+        <v>74428.99999999996</v>
       </c>
     </row>
     <row r="621" spans="1:4">
@@ -11843,7 +11843,7 @@
         <v>0</v>
       </c>
       <c r="D621">
-        <v>101460</v>
+        <v>126180</v>
       </c>
     </row>
     <row r="622" spans="1:4">
@@ -11854,10 +11854,10 @@
         <v>623</v>
       </c>
       <c r="C622">
-        <v>0</v>
+        <v>35524.66813446388</v>
       </c>
       <c r="D622">
-        <v>179115</v>
+        <v>141169.6681344639</v>
       </c>
     </row>
     <row r="623" spans="1:4">
@@ -11871,7 +11871,7 @@
         <v>0</v>
       </c>
       <c r="D623">
-        <v>73460.99999999994</v>
+        <v>60375.00000000005</v>
       </c>
     </row>
     <row r="624" spans="1:4">
@@ -11885,7 +11885,7 @@
         <v>0</v>
       </c>
       <c r="D624">
-        <v>128167.9999999999</v>
+        <v>126428</v>
       </c>
     </row>
     <row r="625" spans="1:4">
@@ -11899,7 +11899,7 @@
         <v>0</v>
       </c>
       <c r="D625">
-        <v>78920.00000000003</v>
+        <v>88283.99999999993</v>
       </c>
     </row>
     <row r="626" spans="1:4">
@@ -11913,7 +11913,7 @@
         <v>0</v>
       </c>
       <c r="D626">
-        <v>136616</v>
+        <v>125788</v>
       </c>
     </row>
     <row r="627" spans="1:4">
@@ -11927,7 +11927,7 @@
         <v>0</v>
       </c>
       <c r="D627">
-        <v>90422.00000000007</v>
+        <v>136319</v>
       </c>
     </row>
     <row r="628" spans="1:4">
@@ -11941,7 +11941,7 @@
         <v>0</v>
       </c>
       <c r="D628">
-        <v>76795.99999999994</v>
+        <v>78413.99999999996</v>
       </c>
     </row>
     <row r="629" spans="1:4">
@@ -11955,7 +11955,7 @@
         <v>0</v>
       </c>
       <c r="D629">
-        <v>97445</v>
+        <v>102191</v>
       </c>
     </row>
     <row r="630" spans="1:4">
@@ -11969,7 +11969,7 @@
         <v>0</v>
       </c>
       <c r="D630">
-        <v>147367.9999999999</v>
+        <v>139252</v>
       </c>
     </row>
     <row r="631" spans="1:4">
@@ -11980,10 +11980,10 @@
         <v>632</v>
       </c>
       <c r="C631">
-        <v>9328.640189169178</v>
+        <v>35269.3613376151</v>
       </c>
       <c r="D631">
-        <v>139783.6401891691</v>
+        <v>143699.361337615</v>
       </c>
     </row>
     <row r="632" spans="1:4">
@@ -11997,7 +11997,7 @@
         <v>0</v>
       </c>
       <c r="D632">
-        <v>117157.0000000001</v>
+        <v>109270</v>
       </c>
     </row>
     <row r="633" spans="1:4">
@@ -12008,10 +12008,10 @@
         <v>634</v>
       </c>
       <c r="C633">
-        <v>14644.5395920672</v>
+        <v>24291.5596015569</v>
       </c>
       <c r="D633">
-        <v>86128.53959206714</v>
+        <v>86429.55960155684</v>
       </c>
     </row>
     <row r="634" spans="1:4">
@@ -12025,7 +12025,7 @@
         <v>0</v>
       </c>
       <c r="D634">
-        <v>120276</v>
+        <v>151644</v>
       </c>
     </row>
     <row r="635" spans="1:4">
@@ -12039,7 +12039,7 @@
         <v>0</v>
       </c>
       <c r="D635">
-        <v>187629.9999999999</v>
+        <v>162180</v>
       </c>
     </row>
     <row r="636" spans="1:4">
@@ -12053,7 +12053,7 @@
         <v>0</v>
       </c>
       <c r="D636">
-        <v>181570</v>
+        <v>134565.0000000001</v>
       </c>
     </row>
     <row r="637" spans="1:4">
@@ -12067,7 +12067,7 @@
         <v>0</v>
       </c>
       <c r="D637">
-        <v>179870.0000000001</v>
+        <v>197074.9999999999</v>
       </c>
     </row>
     <row r="638" spans="1:4">
@@ -12081,7 +12081,7 @@
         <v>0</v>
       </c>
       <c r="D638">
-        <v>107430.0000000001</v>
+        <v>174610</v>
       </c>
     </row>
     <row r="639" spans="1:4">
@@ -12095,7 +12095,7 @@
         <v>0</v>
       </c>
       <c r="D639">
-        <v>98902.00000000007</v>
+        <v>88502.00000000001</v>
       </c>
     </row>
     <row r="640" spans="1:4">
@@ -12106,10 +12106,10 @@
         <v>641</v>
       </c>
       <c r="C640">
-        <v>42074.86851275458</v>
+        <v>20100.14627905605</v>
       </c>
       <c r="D640">
-        <v>139669.8685127546</v>
+        <v>143615.1462790561</v>
       </c>
     </row>
     <row r="641" spans="1:4">
@@ -12120,10 +12120,10 @@
         <v>642</v>
       </c>
       <c r="C641">
-        <v>12425.74590659548</v>
+        <v>9388.150532083033</v>
       </c>
       <c r="D641">
-        <v>83705.74590659542</v>
+        <v>87138.15053208305</v>
       </c>
     </row>
     <row r="642" spans="1:4">
@@ -12134,10 +12134,10 @@
         <v>643</v>
       </c>
       <c r="C642">
-        <v>12346.43561585951</v>
+        <v>5680.851888664671</v>
       </c>
       <c r="D642">
-        <v>65336.43561585947</v>
+        <v>68112.85188866468</v>
       </c>
     </row>
     <row r="643" spans="1:4">
@@ -12148,10 +12148,10 @@
         <v>644</v>
       </c>
       <c r="C643">
-        <v>13994.50299939797</v>
+        <v>28217.18447224822</v>
       </c>
       <c r="D643">
-        <v>102489.5029993979</v>
+        <v>107103.1844722482</v>
       </c>
     </row>
     <row r="644" spans="1:4">
@@ -12162,10 +12162,10 @@
         <v>645</v>
       </c>
       <c r="C644">
-        <v>5604.887937606502</v>
+        <v>0</v>
       </c>
       <c r="D644">
-        <v>84314.88793760653</v>
+        <v>89133.99999999996</v>
       </c>
     </row>
     <row r="645" spans="1:4">
@@ -12179,7 +12179,7 @@
         <v>0</v>
       </c>
       <c r="D645">
-        <v>78954.00000000004</v>
+        <v>69621.99999999999</v>
       </c>
     </row>
     <row r="646" spans="1:4">
@@ -12193,7 +12193,7 @@
         <v>0</v>
       </c>
       <c r="D646">
-        <v>153284.9999999999</v>
+        <v>153569.9999999999</v>
       </c>
     </row>
     <row r="647" spans="1:4">
@@ -12204,10 +12204,10 @@
         <v>648</v>
       </c>
       <c r="C647">
-        <v>0</v>
+        <v>22696.76786198616</v>
       </c>
       <c r="D647">
-        <v>85834.00000000004</v>
+        <v>86388.76786198615</v>
       </c>
     </row>
     <row r="648" spans="1:4">
@@ -12221,7 +12221,7 @@
         <v>0</v>
       </c>
       <c r="D648">
-        <v>76402</v>
+        <v>70924.00000000003</v>
       </c>
     </row>
     <row r="649" spans="1:4">
@@ -12232,10 +12232,10 @@
         <v>650</v>
       </c>
       <c r="C649">
-        <v>392.9892027615424</v>
+        <v>26739.44638721748</v>
       </c>
       <c r="D649">
-        <v>107235.9892027615</v>
+        <v>107611.4463872174</v>
       </c>
     </row>
     <row r="650" spans="1:4">
@@ -12249,7 +12249,7 @@
         <v>0</v>
       </c>
       <c r="D650">
-        <v>108832</v>
+        <v>93052.00000000001</v>
       </c>
     </row>
     <row r="651" spans="1:4">
@@ -12263,7 +12263,7 @@
         <v>0</v>
       </c>
       <c r="D651">
-        <v>104924</v>
+        <v>168512</v>
       </c>
     </row>
     <row r="652" spans="1:4">
@@ -12277,7 +12277,7 @@
         <v>0</v>
       </c>
       <c r="D652">
-        <v>68592.99999999999</v>
+        <v>65844.99999999997</v>
       </c>
     </row>
     <row r="653" spans="1:4">
@@ -12288,10 +12288,10 @@
         <v>654</v>
       </c>
       <c r="C653">
-        <v>12486.45009131971</v>
+        <v>0</v>
       </c>
       <c r="D653">
-        <v>84294.45009131967</v>
+        <v>93083.99999999996</v>
       </c>
     </row>
     <row r="654" spans="1:4">
@@ -12305,7 +12305,7 @@
         <v>0</v>
       </c>
       <c r="D654">
-        <v>83660</v>
+        <v>94352</v>
       </c>
     </row>
     <row r="655" spans="1:4">
@@ -12316,10 +12316,10 @@
         <v>656</v>
       </c>
       <c r="C655">
-        <v>25259.22179943313</v>
+        <v>0</v>
       </c>
       <c r="D655">
-        <v>105762.2217994331</v>
+        <v>110326</v>
       </c>
     </row>
     <row r="656" spans="1:4">
@@ -12333,7 +12333,7 @@
         <v>0</v>
       </c>
       <c r="D656">
-        <v>165516.0000000001</v>
+        <v>100103.9999999999</v>
       </c>
     </row>
     <row r="657" spans="1:4">
@@ -12344,10 +12344,10 @@
         <v>658</v>
       </c>
       <c r="C657">
-        <v>31034.7593850477</v>
+        <v>0</v>
       </c>
       <c r="D657">
-        <v>137974.7593850478</v>
+        <v>167555.0000000001</v>
       </c>
     </row>
     <row r="658" spans="1:4">
@@ -12361,7 +12361,7 @@
         <v>0</v>
       </c>
       <c r="D658">
-        <v>98672.00000000009</v>
+        <v>97587.99999999993</v>
       </c>
     </row>
     <row r="659" spans="1:4">
@@ -12375,7 +12375,7 @@
         <v>0</v>
       </c>
       <c r="D659">
-        <v>107294.0000000001</v>
+        <v>116891</v>
       </c>
     </row>
     <row r="660" spans="1:4">
@@ -12386,10 +12386,10 @@
         <v>661</v>
       </c>
       <c r="C660">
-        <v>8746.91914779364</v>
+        <v>3516.441078503027</v>
       </c>
       <c r="D660">
-        <v>64048.91914779363</v>
+        <v>67524.44107850298</v>
       </c>
     </row>
     <row r="661" spans="1:4">
@@ -12403,7 +12403,7 @@
         <v>0</v>
       </c>
       <c r="D661">
-        <v>61814.99999999998</v>
+        <v>70628.99999999997</v>
       </c>
     </row>
     <row r="662" spans="1:4">
@@ -12417,7 +12417,7 @@
         <v>0</v>
       </c>
       <c r="D662">
-        <v>149615</v>
+        <v>190610</v>
       </c>
     </row>
     <row r="663" spans="1:4">
@@ -12428,10 +12428,10 @@
         <v>664</v>
       </c>
       <c r="C663">
-        <v>12642.68956468349</v>
+        <v>10680.10335312564</v>
       </c>
       <c r="D663">
-        <v>86198.68956468355</v>
+        <v>86480.10335312561</v>
       </c>
     </row>
     <row r="664" spans="1:4">
@@ -12445,7 +12445,7 @@
         <v>0</v>
       </c>
       <c r="D664">
-        <v>99813.99999999996</v>
+        <v>103446</v>
       </c>
     </row>
     <row r="665" spans="1:4">
@@ -12459,7 +12459,7 @@
         <v>0</v>
       </c>
       <c r="D665">
-        <v>150644.0000000001</v>
+        <v>136456.0000000001</v>
       </c>
     </row>
     <row r="666" spans="1:4">
@@ -12473,7 +12473,7 @@
         <v>0</v>
       </c>
       <c r="D666">
-        <v>80233.99999999996</v>
+        <v>90059.99999999996</v>
       </c>
     </row>
     <row r="667" spans="1:4">
@@ -12484,10 +12484,10 @@
         <v>668</v>
       </c>
       <c r="C667">
-        <v>0</v>
+        <v>18095.52608523774</v>
       </c>
       <c r="D667">
-        <v>145352.0000000001</v>
+        <v>125543.5260852377</v>
       </c>
     </row>
     <row r="668" spans="1:4">
@@ -12498,10 +12498,10 @@
         <v>669</v>
       </c>
       <c r="C668">
-        <v>0</v>
+        <v>15508.13943467032</v>
       </c>
       <c r="D668">
-        <v>88488.00000000004</v>
+        <v>84386.13943467035</v>
       </c>
     </row>
     <row r="669" spans="1:4">
@@ -12515,7 +12515,7 @@
         <v>0</v>
       </c>
       <c r="D669">
-        <v>83510.00000000001</v>
+        <v>107751.9999999999</v>
       </c>
     </row>
     <row r="670" spans="1:4">
@@ -12529,7 +12529,7 @@
         <v>0</v>
       </c>
       <c r="D670">
-        <v>126031.9999999999</v>
+        <v>82003.99999999999</v>
       </c>
     </row>
     <row r="671" spans="1:4">
@@ -12543,7 +12543,7 @@
         <v>0</v>
       </c>
       <c r="D671">
-        <v>153703.9999999999</v>
+        <v>132728.0000000001</v>
       </c>
     </row>
     <row r="672" spans="1:4">
@@ -12554,10 +12554,10 @@
         <v>673</v>
       </c>
       <c r="C672">
-        <v>10570.42930686692</v>
+        <v>26476.88215069129</v>
       </c>
       <c r="D672">
-        <v>124814.4293068669</v>
+        <v>125728.8821506912</v>
       </c>
     </row>
     <row r="673" spans="1:4">
@@ -12571,7 +12571,7 @@
         <v>0</v>
       </c>
       <c r="D673">
-        <v>161219.9999999999</v>
+        <v>188350</v>
       </c>
     </row>
     <row r="674" spans="1:4">
@@ -12582,10 +12582,10 @@
         <v>675</v>
       </c>
       <c r="C674">
-        <v>39186.30146406827</v>
+        <v>0</v>
       </c>
       <c r="D674">
-        <v>126718.3014640683</v>
+        <v>124016</v>
       </c>
     </row>
     <row r="675" spans="1:4">
@@ -12599,7 +12599,7 @@
         <v>0</v>
       </c>
       <c r="D675">
-        <v>105739.9999999999</v>
+        <v>124292</v>
       </c>
     </row>
     <row r="676" spans="1:4">
@@ -12610,10 +12610,10 @@
         <v>677</v>
       </c>
       <c r="C676">
-        <v>23685.78239228947</v>
+        <v>0</v>
       </c>
       <c r="D676">
-        <v>103843.7823922895</v>
+        <v>108475</v>
       </c>
     </row>
     <row r="677" spans="1:4">
@@ -12627,7 +12627,7 @@
         <v>0</v>
       </c>
       <c r="D677">
-        <v>137236.9999999999</v>
+        <v>124748</v>
       </c>
     </row>
     <row r="678" spans="1:4">
@@ -12638,10 +12638,10 @@
         <v>679</v>
       </c>
       <c r="C678">
-        <v>10702.10284170787</v>
+        <v>817.9393501774175</v>
       </c>
       <c r="D678">
-        <v>65902.10284170788</v>
+        <v>68164.93935017746</v>
       </c>
     </row>
     <row r="679" spans="1:4">
@@ -12652,10 +12652,10 @@
         <v>680</v>
       </c>
       <c r="C679">
-        <v>21086.3634263565</v>
+        <v>0</v>
       </c>
       <c r="D679">
-        <v>125938.3634263565</v>
+        <v>157123.9999999999</v>
       </c>
     </row>
     <row r="680" spans="1:4">
@@ -12666,10 +12666,10 @@
         <v>681</v>
       </c>
       <c r="C680">
-        <v>13974.27446066357</v>
+        <v>30287.77184626124</v>
       </c>
       <c r="D680">
-        <v>139334.2744606636</v>
+        <v>141812.7718462612</v>
       </c>
     </row>
     <row r="681" spans="1:4">
@@ -12680,10 +12680,10 @@
         <v>682</v>
       </c>
       <c r="C681">
-        <v>40584.37340299737</v>
+        <v>36473.71021725726</v>
       </c>
       <c r="D681">
-        <v>123388.3734029973</v>
+        <v>124965.7102172573</v>
       </c>
     </row>
     <row r="682" spans="1:4">
@@ -12694,10 +12694,10 @@
         <v>683</v>
       </c>
       <c r="C682">
-        <v>0</v>
+        <v>13314.08545360006</v>
       </c>
       <c r="D682">
-        <v>99691.99999999993</v>
+        <v>86036.0854536</v>
       </c>
     </row>
     <row r="683" spans="1:4">
@@ -12711,7 +12711,7 @@
         <v>0</v>
       </c>
       <c r="D683">
-        <v>118975</v>
+        <v>197110.0000000001</v>
       </c>
     </row>
     <row r="684" spans="1:4">
@@ -12725,7 +12725,7 @@
         <v>0</v>
       </c>
       <c r="D684">
-        <v>93962.00000000001</v>
+        <v>87304.00000000004</v>
       </c>
     </row>
     <row r="685" spans="1:4">
@@ -12736,10 +12736,10 @@
         <v>686</v>
       </c>
       <c r="C685">
-        <v>0</v>
+        <v>12781.25125752919</v>
       </c>
       <c r="D685">
-        <v>154428</v>
+        <v>125433.2512575292</v>
       </c>
     </row>
     <row r="686" spans="1:4">
@@ -12750,10 +12750,10 @@
         <v>687</v>
       </c>
       <c r="C686">
-        <v>0</v>
+        <v>15987.27384164125</v>
       </c>
       <c r="D686">
-        <v>68251.99999999997</v>
+        <v>66831.27384164122</v>
       </c>
     </row>
     <row r="687" spans="1:4">
@@ -12764,10 +12764,10 @@
         <v>688</v>
       </c>
       <c r="C687">
-        <v>8082.00906212299</v>
+        <v>0</v>
       </c>
       <c r="D687">
-        <v>105895.009062123</v>
+        <v>106572.9999999999</v>
       </c>
     </row>
     <row r="688" spans="1:4">
@@ -12781,7 +12781,7 @@
         <v>0</v>
       </c>
       <c r="D688">
-        <v>91380</v>
+        <v>99838.00000000004</v>
       </c>
     </row>
     <row r="689" spans="1:4">
@@ -12795,7 +12795,7 @@
         <v>0</v>
       </c>
       <c r="D689">
-        <v>127288</v>
+        <v>143728</v>
       </c>
     </row>
     <row r="690" spans="1:4">
@@ -12806,10 +12806,10 @@
         <v>691</v>
       </c>
       <c r="C690">
-        <v>6965.091279100379</v>
+        <v>0</v>
       </c>
       <c r="D690">
-        <v>103422.0912791003</v>
+        <v>118111</v>
       </c>
     </row>
     <row r="691" spans="1:4">
@@ -12820,10 +12820,10 @@
         <v>692</v>
       </c>
       <c r="C691">
-        <v>19915.42549970084</v>
+        <v>15469.240441965</v>
       </c>
       <c r="D691">
-        <v>125411.4254997008</v>
+        <v>124149.2404419651</v>
       </c>
     </row>
     <row r="692" spans="1:4">
@@ -12837,7 +12837,7 @@
         <v>0</v>
       </c>
       <c r="D692">
-        <v>61923.99999999998</v>
+        <v>75472.00000000006</v>
       </c>
     </row>
     <row r="693" spans="1:4">
@@ -12851,7 +12851,7 @@
         <v>0</v>
       </c>
       <c r="D693">
-        <v>143676</v>
+        <v>157675.9999999999</v>
       </c>
     </row>
     <row r="694" spans="1:4">
@@ -12862,10 +12862,10 @@
         <v>695</v>
       </c>
       <c r="C694">
-        <v>16579.55162818529</v>
+        <v>0</v>
       </c>
       <c r="D694">
-        <v>127231.5516281852</v>
+        <v>125327.9999999999</v>
       </c>
     </row>
     <row r="695" spans="1:4">
@@ -12876,10 +12876,10 @@
         <v>696</v>
       </c>
       <c r="C695">
-        <v>5753.329602347992</v>
+        <v>1224.734716102554</v>
       </c>
       <c r="D695">
-        <v>83161.32960234805</v>
+        <v>85174.73471610257</v>
       </c>
     </row>
     <row r="696" spans="1:4">
@@ -12893,7 +12893,7 @@
         <v>0</v>
       </c>
       <c r="D696">
-        <v>76988.99999999997</v>
+        <v>79297</v>
       </c>
     </row>
     <row r="697" spans="1:4">
@@ -12904,10 +12904,10 @@
         <v>698</v>
       </c>
       <c r="C697">
-        <v>4517.6853900735</v>
+        <v>20692.28334912175</v>
       </c>
       <c r="D697">
-        <v>87189.68539007347</v>
+        <v>86242.28334912172</v>
       </c>
     </row>
     <row r="698" spans="1:4">
@@ -12921,7 +12921,7 @@
         <v>0</v>
       </c>
       <c r="D698">
-        <v>123452</v>
+        <v>139688.0000000001</v>
       </c>
     </row>
     <row r="699" spans="1:4">
@@ -12932,10 +12932,10 @@
         <v>700</v>
       </c>
       <c r="C699">
-        <v>20918.05865131953</v>
+        <v>32119.92565449253</v>
       </c>
       <c r="D699">
-        <v>129970.0586513195</v>
+        <v>122035.9256544926</v>
       </c>
     </row>
     <row r="700" spans="1:4">
@@ -12946,10 +12946,10 @@
         <v>701</v>
       </c>
       <c r="C700">
-        <v>32794.64318220534</v>
+        <v>3410.702701386545</v>
       </c>
       <c r="D700">
-        <v>122842.6431822054</v>
+        <v>124190.7027013865</v>
       </c>
     </row>
     <row r="701" spans="1:4">
@@ -12963,7 +12963,7 @@
         <v>0</v>
       </c>
       <c r="D701">
-        <v>121094</v>
+        <v>94766.00000000003</v>
       </c>
     </row>
     <row r="702" spans="1:4">
@@ -12974,10 +12974,10 @@
         <v>703</v>
       </c>
       <c r="C702">
-        <v>0</v>
+        <v>15359.61980749034</v>
       </c>
       <c r="D702">
-        <v>89522.00000000004</v>
+        <v>86043.61980749034</v>
       </c>
     </row>
     <row r="703" spans="1:4">
@@ -12991,7 +12991,7 @@
         <v>0</v>
       </c>
       <c r="D703">
-        <v>80480.00000000004</v>
+        <v>87164.00000000004</v>
       </c>
     </row>
     <row r="704" spans="1:4">
@@ -13002,10 +13002,10 @@
         <v>705</v>
       </c>
       <c r="C704">
-        <v>8179.619705897698</v>
+        <v>13105.54157217639</v>
       </c>
       <c r="D704">
-        <v>103790.6197058977</v>
+        <v>107390.5415721764</v>
       </c>
     </row>
     <row r="705" spans="1:4">
@@ -13019,7 +13019,7 @@
         <v>0</v>
       </c>
       <c r="D705">
-        <v>61149.99999999997</v>
+        <v>74316</v>
       </c>
     </row>
     <row r="706" spans="1:4">
@@ -13030,10 +13030,10 @@
         <v>707</v>
       </c>
       <c r="C706">
-        <v>0</v>
+        <v>26041.99309096804</v>
       </c>
       <c r="D706">
-        <v>124788.9999999999</v>
+        <v>106631.993090968</v>
       </c>
     </row>
     <row r="707" spans="1:4">
@@ -13047,7 +13047,7 @@
         <v>0</v>
       </c>
       <c r="D707">
-        <v>81671.99999999994</v>
+        <v>79210.00000000006</v>
       </c>
     </row>
     <row r="708" spans="1:4">
@@ -13061,7 +13061,7 @@
         <v>0</v>
       </c>
       <c r="D708">
-        <v>154060.0000000001</v>
+        <v>155948.0000000001</v>
       </c>
     </row>
     <row r="709" spans="1:4">
@@ -13072,10 +13072,10 @@
         <v>710</v>
       </c>
       <c r="C709">
-        <v>14848.01200062085</v>
+        <v>23299.01072908616</v>
       </c>
       <c r="D709">
-        <v>84776.01200062082</v>
+        <v>85197.01072908615</v>
       </c>
     </row>
     <row r="710" spans="1:4">
@@ -13086,10 +13086,10 @@
         <v>711</v>
       </c>
       <c r="C710">
-        <v>2079.232704904047</v>
+        <v>9303.457779486671</v>
       </c>
       <c r="D710">
-        <v>68680.23270490406</v>
+        <v>66202.45777948666</v>
       </c>
     </row>
     <row r="711" spans="1:4">
@@ -13103,7 +13103,7 @@
         <v>0</v>
       </c>
       <c r="D711">
-        <v>110610</v>
+        <v>167790.0000000001</v>
       </c>
     </row>
     <row r="712" spans="1:4">
@@ -13114,10 +13114,10 @@
         <v>713</v>
       </c>
       <c r="C712">
-        <v>0</v>
+        <v>34057.98886544738</v>
       </c>
       <c r="D712">
-        <v>149939.9999999999</v>
+        <v>138692.9888654473</v>
       </c>
     </row>
     <row r="713" spans="1:4">
@@ -13131,7 +13131,7 @@
         <v>0</v>
       </c>
       <c r="D713">
-        <v>103988.0000000001</v>
+        <v>72096.00000000003</v>
       </c>
     </row>
     <row r="714" spans="1:4">
@@ -13142,10 +13142,10 @@
         <v>715</v>
       </c>
       <c r="C714">
-        <v>121.984098218556</v>
+        <v>4638.571757170925</v>
       </c>
       <c r="D714">
-        <v>84731.98409821857</v>
+        <v>86184.57175717094</v>
       </c>
     </row>
     <row r="715" spans="1:4">
@@ -13159,7 +13159,7 @@
         <v>0</v>
       </c>
       <c r="D715">
-        <v>110654</v>
+        <v>93358.99999999993</v>
       </c>
     </row>
     <row r="716" spans="1:4">
@@ -13173,7 +13173,7 @@
         <v>0</v>
       </c>
       <c r="D716">
-        <v>63232.00000000001</v>
+        <v>68910.00000000001</v>
       </c>
     </row>
     <row r="717" spans="1:4">
@@ -13187,7 +13187,7 @@
         <v>0</v>
       </c>
       <c r="D717">
-        <v>149109.9999999999</v>
+        <v>186620</v>
       </c>
     </row>
     <row r="718" spans="1:4">
@@ -13201,7 +13201,7 @@
         <v>0</v>
       </c>
       <c r="D718">
-        <v>188209.9999999999</v>
+        <v>179994.9999999999</v>
       </c>
     </row>
     <row r="719" spans="1:4">
@@ -13215,7 +13215,7 @@
         <v>0</v>
       </c>
       <c r="D719">
-        <v>115504.9999999999</v>
+        <v>119543</v>
       </c>
     </row>
     <row r="720" spans="1:4">
@@ -13226,10 +13226,10 @@
         <v>721</v>
       </c>
       <c r="C720">
-        <v>2836.879418880504</v>
+        <v>6805.792417085104</v>
       </c>
       <c r="D720">
-        <v>65573.8794188805</v>
+        <v>66843.79241708513</v>
       </c>
     </row>
     <row r="721" spans="1:4">
@@ -13240,10 +13240,10 @@
         <v>722</v>
       </c>
       <c r="C721">
-        <v>5019.839936087737</v>
+        <v>11772.5499525709</v>
       </c>
       <c r="D721">
-        <v>65574.83993608774</v>
+        <v>68068.54995257093</v>
       </c>
     </row>
     <row r="722" spans="1:4">
@@ -13257,7 +13257,7 @@
         <v>0</v>
       </c>
       <c r="D722">
-        <v>65946.99999999997</v>
+        <v>78022.00000000006</v>
       </c>
     </row>
     <row r="723" spans="1:4">
@@ -13271,7 +13271,7 @@
         <v>0</v>
       </c>
       <c r="D723">
-        <v>73293.99999999997</v>
+        <v>81849.99999999996</v>
       </c>
     </row>
     <row r="724" spans="1:4">
@@ -13285,7 +13285,7 @@
         <v>0</v>
       </c>
       <c r="D724">
-        <v>195980.0000000001</v>
+        <v>135285</v>
       </c>
     </row>
     <row r="725" spans="1:4">
@@ -13299,7 +13299,7 @@
         <v>0</v>
       </c>
       <c r="D725">
-        <v>83966.00000000001</v>
+        <v>82481.99999999994</v>
       </c>
     </row>
     <row r="726" spans="1:4">
@@ -13313,7 +13313,7 @@
         <v>0</v>
       </c>
       <c r="D726">
-        <v>161172.0000000001</v>
+        <v>122352.0000000001</v>
       </c>
     </row>
     <row r="727" spans="1:4">
@@ -13324,10 +13324,10 @@
         <v>728</v>
       </c>
       <c r="C727">
-        <v>6084.448770508738</v>
+        <v>23553.0796059178</v>
       </c>
       <c r="D727">
-        <v>86058.44877050877</v>
+        <v>86379.07960591785</v>
       </c>
     </row>
     <row r="728" spans="1:4">
@@ -13338,10 +13338,10 @@
         <v>729</v>
       </c>
       <c r="C728">
-        <v>0</v>
+        <v>11640.88478731979</v>
       </c>
       <c r="D728">
-        <v>66420.99999999996</v>
+        <v>67652.88478731982</v>
       </c>
     </row>
     <row r="729" spans="1:4">
@@ -13355,7 +13355,7 @@
         <v>0</v>
       </c>
       <c r="D729">
-        <v>158620</v>
+        <v>131676</v>
       </c>
     </row>
     <row r="730" spans="1:4">
@@ -13369,7 +13369,7 @@
         <v>0</v>
       </c>
       <c r="D730">
-        <v>87628.99999999999</v>
+        <v>89446.99999999997</v>
       </c>
     </row>
     <row r="731" spans="1:4">
@@ -13383,7 +13383,7 @@
         <v>0</v>
       </c>
       <c r="D731">
-        <v>98101.99999999997</v>
+        <v>120452.0000000001</v>
       </c>
     </row>
     <row r="732" spans="1:4">
@@ -13397,7 +13397,7 @@
         <v>0</v>
       </c>
       <c r="D732">
-        <v>99843.99999999993</v>
+        <v>96473.99999999993</v>
       </c>
     </row>
     <row r="733" spans="1:4">
@@ -13411,7 +13411,7 @@
         <v>0</v>
       </c>
       <c r="D733">
-        <v>78205.99999999996</v>
+        <v>60481.00000000004</v>
       </c>
     </row>
     <row r="734" spans="1:4">
@@ -13422,10 +13422,10 @@
         <v>735</v>
       </c>
       <c r="C734">
-        <v>11583.8668743842</v>
+        <v>29533.63234831403</v>
       </c>
       <c r="D734">
-        <v>103789.8668743842</v>
+        <v>107225.6323483141</v>
       </c>
     </row>
     <row r="735" spans="1:4">
@@ -13436,10 +13436,10 @@
         <v>736</v>
       </c>
       <c r="C735">
-        <v>0</v>
+        <v>32004.71514523991</v>
       </c>
       <c r="D735">
-        <v>143416.0000000001</v>
+        <v>124056.71514524</v>
       </c>
     </row>
     <row r="736" spans="1:4">
@@ -13450,10 +13450,10 @@
         <v>737</v>
       </c>
       <c r="C736">
-        <v>11128.65829225066</v>
+        <v>31325.25125752919</v>
       </c>
       <c r="D736">
-        <v>129476.6582922506</v>
+        <v>125433.2512575292</v>
       </c>
     </row>
     <row r="737" spans="1:4">
@@ -13464,10 +13464,10 @@
         <v>738</v>
       </c>
       <c r="C737">
-        <v>0</v>
+        <v>2927.347341514454</v>
       </c>
       <c r="D737">
-        <v>63523.99999999999</v>
+        <v>67452.3473415145</v>
       </c>
     </row>
     <row r="738" spans="1:4">
@@ -13481,7 +13481,7 @@
         <v>0</v>
       </c>
       <c r="D738">
-        <v>62864.99999999999</v>
+        <v>62752.99999999999</v>
       </c>
     </row>
     <row r="739" spans="1:4">
@@ -13492,10 +13492,10 @@
         <v>740</v>
       </c>
       <c r="C739">
-        <v>0</v>
+        <v>4232.366015134539</v>
       </c>
       <c r="D739">
-        <v>83934.00000000001</v>
+        <v>86182.36601513451</v>
       </c>
     </row>
     <row r="740" spans="1:4">
@@ -13509,7 +13509,7 @@
         <v>0</v>
       </c>
       <c r="D740">
-        <v>109946</v>
+        <v>125284.9999999999</v>
       </c>
     </row>
     <row r="741" spans="1:4">
@@ -13523,7 +13523,7 @@
         <v>0</v>
       </c>
       <c r="D741">
-        <v>168071.9999999999</v>
+        <v>157527.9999999999</v>
       </c>
     </row>
     <row r="742" spans="1:4">
@@ -13534,10 +13534,10 @@
         <v>743</v>
       </c>
       <c r="C742">
-        <v>12201.33935929483</v>
+        <v>0</v>
       </c>
       <c r="D742">
-        <v>81517.33935929484</v>
+        <v>98576.00000000007</v>
       </c>
     </row>
     <row r="743" spans="1:4">
@@ -13548,10 +13548,10 @@
         <v>744</v>
       </c>
       <c r="C743">
-        <v>0</v>
+        <v>47217.41654519142</v>
       </c>
       <c r="D743">
-        <v>163680</v>
+        <v>137512.4165451914</v>
       </c>
     </row>
     <row r="744" spans="1:4">
@@ -13562,10 +13562,10 @@
         <v>745</v>
       </c>
       <c r="C744">
-        <v>1173.833705319164</v>
+        <v>5747.949555080137</v>
       </c>
       <c r="D744">
-        <v>61513.83370531917</v>
+        <v>67485.94955508018</v>
       </c>
     </row>
     <row r="745" spans="1:4">
@@ -13579,7 +13579,7 @@
         <v>0</v>
       </c>
       <c r="D745">
-        <v>92785.99999999996</v>
+        <v>121796</v>
       </c>
     </row>
     <row r="746" spans="1:4">
@@ -13593,7 +13593,7 @@
         <v>0</v>
       </c>
       <c r="D746">
-        <v>103198.0000000001</v>
+        <v>108099.9999999999</v>
       </c>
     </row>
     <row r="747" spans="1:4">
@@ -13604,10 +13604,10 @@
         <v>748</v>
       </c>
       <c r="C747">
-        <v>0</v>
+        <v>5301.726933525468</v>
       </c>
       <c r="D747">
-        <v>152404.9999999999</v>
+        <v>141401.7269335254</v>
       </c>
     </row>
     <row r="748" spans="1:4">
@@ -13621,7 +13621,7 @@
         <v>0</v>
       </c>
       <c r="D748">
-        <v>81450.00000000003</v>
+        <v>94246</v>
       </c>
     </row>
     <row r="749" spans="1:4">
@@ -13632,10 +13632,10 @@
         <v>750</v>
       </c>
       <c r="C749">
-        <v>6254.403774558319</v>
+        <v>5105.636767747063</v>
       </c>
       <c r="D749">
-        <v>60518.40377455836</v>
+        <v>67436.63676774704</v>
       </c>
     </row>
     <row r="750" spans="1:4">
@@ -13646,10 +13646,10 @@
         <v>751</v>
       </c>
       <c r="C750">
-        <v>32623.28373138781</v>
+        <v>36212.36322834418</v>
       </c>
       <c r="D750">
-        <v>120463.2837313878</v>
+        <v>124088.3632283441</v>
       </c>
     </row>
     <row r="751" spans="1:4">
@@ -13663,7 +13663,7 @@
         <v>0</v>
       </c>
       <c r="D751">
-        <v>69550.99999999997</v>
+        <v>76800.00000000004</v>
       </c>
     </row>
     <row r="752" spans="1:4">
@@ -13674,10 +13674,10 @@
         <v>753</v>
       </c>
       <c r="C752">
-        <v>11501.03857252868</v>
+        <v>0</v>
       </c>
       <c r="D752">
-        <v>97251.03857252868</v>
+        <v>117307.0000000001</v>
       </c>
     </row>
     <row r="753" spans="1:4">
@@ -13688,10 +13688,10 @@
         <v>754</v>
       </c>
       <c r="C753">
-        <v>14091.61067269515</v>
+        <v>44592.81228117998</v>
       </c>
       <c r="D753">
-        <v>116783.6106726951</v>
+        <v>126052.8122811799</v>
       </c>
     </row>
     <row r="754" spans="1:4">
@@ -13705,7 +13705,7 @@
         <v>0</v>
       </c>
       <c r="D754">
-        <v>115272</v>
+        <v>129008</v>
       </c>
     </row>
     <row r="755" spans="1:4">
@@ -13716,10 +13716,10 @@
         <v>756</v>
       </c>
       <c r="C755">
-        <v>0</v>
+        <v>4687.964553189347</v>
       </c>
       <c r="D755">
-        <v>123496</v>
+        <v>125127.9645531893</v>
       </c>
     </row>
     <row r="756" spans="1:4">
@@ -13733,7 +13733,7 @@
         <v>0</v>
       </c>
       <c r="D756">
-        <v>81704.00000000007</v>
+        <v>104135</v>
       </c>
     </row>
     <row r="757" spans="1:4">
@@ -13744,10 +13744,10 @@
         <v>758</v>
       </c>
       <c r="C757">
-        <v>0</v>
+        <v>11905.60100471911</v>
       </c>
       <c r="D757">
-        <v>98993.99999999991</v>
+        <v>87667.60100471906</v>
       </c>
     </row>
     <row r="758" spans="1:4">
@@ -13758,10 +13758,10 @@
         <v>759</v>
       </c>
       <c r="C758">
-        <v>29398.2025658355</v>
+        <v>13048.27326781597</v>
       </c>
       <c r="D758">
-        <v>103310.2025658354</v>
+        <v>110912.2732678159</v>
       </c>
     </row>
     <row r="759" spans="1:4">
@@ -13772,10 +13772,10 @@
         <v>760</v>
       </c>
       <c r="C759">
-        <v>0</v>
+        <v>18720.39836198479</v>
       </c>
       <c r="D759">
-        <v>115144</v>
+        <v>111280.3983619849</v>
       </c>
     </row>
     <row r="760" spans="1:4">
@@ -13786,10 +13786,10 @@
         <v>761</v>
       </c>
       <c r="C760">
-        <v>0</v>
+        <v>32754.9452645897</v>
       </c>
       <c r="D760">
-        <v>163924.9999999999</v>
+        <v>145399.9452645897</v>
       </c>
     </row>
     <row r="761" spans="1:4">
@@ -13803,7 +13803,7 @@
         <v>0</v>
       </c>
       <c r="D761">
-        <v>79321.99999999994</v>
+        <v>63786.00000000002</v>
       </c>
     </row>
     <row r="762" spans="1:4">
@@ -13817,7 +13817,7 @@
         <v>0</v>
       </c>
       <c r="D762">
-        <v>128170.9999999999</v>
+        <v>113765</v>
       </c>
     </row>
     <row r="763" spans="1:4">
@@ -13831,7 +13831,7 @@
         <v>0</v>
       </c>
       <c r="D763">
-        <v>82835.00000000001</v>
+        <v>124939.9999999999</v>
       </c>
     </row>
     <row r="764" spans="1:4">
@@ -13845,7 +13845,7 @@
         <v>0</v>
       </c>
       <c r="D764">
-        <v>101698</v>
+        <v>85405.99999999996</v>
       </c>
     </row>
     <row r="765" spans="1:4">
@@ -13859,7 +13859,7 @@
         <v>0</v>
       </c>
       <c r="D765">
-        <v>101785</v>
+        <v>113295.0000000001</v>
       </c>
     </row>
     <row r="766" spans="1:4">
@@ -13870,10 +13870,10 @@
         <v>767</v>
       </c>
       <c r="C766">
-        <v>0</v>
+        <v>17216.02701690262</v>
       </c>
       <c r="D766">
-        <v>153705.0000000001</v>
+        <v>145776.0270169025</v>
       </c>
     </row>
     <row r="767" spans="1:4">
@@ -13884,10 +13884,10 @@
         <v>768</v>
       </c>
       <c r="C767">
-        <v>12115.12453384766</v>
+        <v>0</v>
       </c>
       <c r="D767">
-        <v>86213.1245338476</v>
+        <v>96934</v>
       </c>
     </row>
     <row r="768" spans="1:4">
@@ -13901,7 +13901,7 @@
         <v>0</v>
       </c>
       <c r="D768">
-        <v>90268.00000000003</v>
+        <v>152080</v>
       </c>
     </row>
     <row r="769" spans="1:4">
@@ -13915,7 +13915,7 @@
         <v>0</v>
       </c>
       <c r="D769">
-        <v>169210.0000000001</v>
+        <v>136635.0000000001</v>
       </c>
     </row>
     <row r="770" spans="1:4">
@@ -13926,10 +13926,10 @@
         <v>771</v>
       </c>
       <c r="C770">
-        <v>7052.02346741005</v>
+        <v>12268.80405674735</v>
       </c>
       <c r="D770">
-        <v>125404.0234674101</v>
+        <v>129380.8040567473</v>
       </c>
     </row>
     <row r="771" spans="1:4">
@@ -13943,7 +13943,7 @@
         <v>0</v>
       </c>
       <c r="D771">
-        <v>131160</v>
+        <v>178844.9999999999</v>
       </c>
     </row>
     <row r="772" spans="1:4">
@@ -13957,7 +13957,7 @@
         <v>0</v>
       </c>
       <c r="D772">
-        <v>73422</v>
+        <v>89286.00000000007</v>
       </c>
     </row>
     <row r="773" spans="1:4">
@@ -13971,7 +13971,7 @@
         <v>0</v>
       </c>
       <c r="D773">
-        <v>162340.0000000001</v>
+        <v>137920</v>
       </c>
     </row>
     <row r="774" spans="1:4">
@@ -13985,7 +13985,7 @@
         <v>0</v>
       </c>
       <c r="D774">
-        <v>78715.00000000001</v>
+        <v>73699.00000000006</v>
       </c>
     </row>
     <row r="775" spans="1:4">
@@ -13996,10 +13996,10 @@
         <v>776</v>
       </c>
       <c r="C775">
-        <v>0</v>
+        <v>8552.485042530636</v>
       </c>
       <c r="D775">
-        <v>152360.0000000001</v>
+        <v>145082.4850425307</v>
       </c>
     </row>
     <row r="776" spans="1:4">
@@ -14013,7 +14013,7 @@
         <v>0</v>
       </c>
       <c r="D776">
-        <v>78889.99999999999</v>
+        <v>82997.99999999996</v>
       </c>
     </row>
     <row r="777" spans="1:4">
@@ -14027,7 +14027,7 @@
         <v>0</v>
       </c>
       <c r="D777">
-        <v>99796.00000000007</v>
+        <v>70155.99999999994</v>
       </c>
     </row>
     <row r="778" spans="1:4">
@@ -14038,10 +14038,10 @@
         <v>779</v>
       </c>
       <c r="C778">
-        <v>8833.380807930545</v>
+        <v>0</v>
       </c>
       <c r="D778">
-        <v>83967.38080793055</v>
+        <v>91953.99999999997</v>
       </c>
     </row>
     <row r="779" spans="1:4">
@@ -14055,7 +14055,7 @@
         <v>0</v>
       </c>
       <c r="D779">
-        <v>123977</v>
+        <v>98276</v>
       </c>
     </row>
     <row r="780" spans="1:4">
@@ -14069,7 +14069,7 @@
         <v>0</v>
       </c>
       <c r="D780">
-        <v>108796.0000000001</v>
+        <v>85363.99999999999</v>
       </c>
     </row>
     <row r="781" spans="1:4">
@@ -14083,7 +14083,7 @@
         <v>0</v>
       </c>
       <c r="D781">
-        <v>77652.99999999997</v>
+        <v>61957.99999999996</v>
       </c>
     </row>
     <row r="782" spans="1:4">
@@ -14097,7 +14097,7 @@
         <v>0</v>
       </c>
       <c r="D782">
-        <v>78885.99999999996</v>
+        <v>107904</v>
       </c>
     </row>
     <row r="783" spans="1:4">
@@ -14111,7 +14111,7 @@
         <v>0</v>
       </c>
       <c r="D783">
-        <v>113135.0000000001</v>
+        <v>157490</v>
       </c>
     </row>
     <row r="784" spans="1:4">
@@ -14125,7 +14125,7 @@
         <v>0</v>
       </c>
       <c r="D784">
-        <v>109502.0000000001</v>
+        <v>81478.99999999997</v>
       </c>
     </row>
     <row r="785" spans="1:4">
@@ -14139,7 +14139,7 @@
         <v>0</v>
       </c>
       <c r="D785">
-        <v>115000.9999999999</v>
+        <v>106943</v>
       </c>
     </row>
     <row r="786" spans="1:4">
@@ -14153,7 +14153,7 @@
         <v>0</v>
       </c>
       <c r="D786">
-        <v>79255.99999999996</v>
+        <v>64022.00000000001</v>
       </c>
     </row>
     <row r="787" spans="1:4">
@@ -14167,7 +14167,7 @@
         <v>0</v>
       </c>
       <c r="D787">
-        <v>112345</v>
+        <v>105460</v>
       </c>
     </row>
     <row r="788" spans="1:4">
@@ -14181,7 +14181,7 @@
         <v>0</v>
       </c>
       <c r="D788">
-        <v>136694.0000000001</v>
+        <v>128111</v>
       </c>
     </row>
     <row r="789" spans="1:4">
@@ -14192,10 +14192,10 @@
         <v>790</v>
       </c>
       <c r="C789">
-        <v>0</v>
+        <v>13638.98575440529</v>
       </c>
       <c r="D789">
-        <v>158040.0000000001</v>
+        <v>145483.9857544054</v>
       </c>
     </row>
     <row r="790" spans="1:4">
@@ -14206,10 +14206,10 @@
         <v>791</v>
       </c>
       <c r="C790">
-        <v>14153.04573472809</v>
+        <v>0</v>
       </c>
       <c r="D790">
-        <v>102807.0457347281</v>
+        <v>121351</v>
       </c>
     </row>
     <row r="791" spans="1:4">
@@ -14220,10 +14220,10 @@
         <v>792</v>
       </c>
       <c r="C791">
-        <v>0</v>
+        <v>26476.86905789257</v>
       </c>
       <c r="D791">
-        <v>152383.9999999999</v>
+        <v>130096.8690578926</v>
       </c>
     </row>
     <row r="792" spans="1:4">
@@ -14237,7 +14237,7 @@
         <v>0</v>
       </c>
       <c r="D792">
-        <v>121009.0000000001</v>
+        <v>126700</v>
       </c>
     </row>
     <row r="793" spans="1:4">
@@ -14248,10 +14248,10 @@
         <v>794</v>
       </c>
       <c r="C793">
-        <v>0</v>
+        <v>15194.22909751339</v>
       </c>
       <c r="D793">
-        <v>182634.9999999999</v>
+        <v>146589.2290975134</v>
       </c>
     </row>
     <row r="794" spans="1:4">
@@ -14265,7 +14265,7 @@
         <v>0</v>
       </c>
       <c r="D794">
-        <v>189219.9999999999</v>
+        <v>148734.9999999999</v>
       </c>
     </row>
     <row r="795" spans="1:4">
@@ -14279,7 +14279,7 @@
         <v>0</v>
       </c>
       <c r="D795">
-        <v>70752.00000000004</v>
+        <v>89924.00000000006</v>
       </c>
     </row>
     <row r="796" spans="1:4">
@@ -14290,10 +14290,10 @@
         <v>797</v>
       </c>
       <c r="C796">
-        <v>40208.98551846526</v>
+        <v>21813.45965520904</v>
       </c>
       <c r="D796">
-        <v>140163.9855184652</v>
+        <v>145148.4596552089</v>
       </c>
     </row>
     <row r="797" spans="1:4">
@@ -14304,10 +14304,10 @@
         <v>798</v>
       </c>
       <c r="C797">
-        <v>565.9942165014945</v>
+        <v>4897.641890166211</v>
       </c>
       <c r="D797">
-        <v>125301.9942165015</v>
+        <v>129305.6418901662</v>
       </c>
     </row>
     <row r="798" spans="1:4">
@@ -14318,10 +14318,10 @@
         <v>799</v>
       </c>
       <c r="C798">
-        <v>15096.70689598662</v>
+        <v>0</v>
       </c>
       <c r="D798">
-        <v>107851.7068959867</v>
+        <v>108943</v>
       </c>
     </row>
     <row r="799" spans="1:4">
@@ -14335,7 +14335,7 @@
         <v>0</v>
       </c>
       <c r="D799">
-        <v>165016.0000000001</v>
+        <v>154176</v>
       </c>
     </row>
     <row r="800" spans="1:4">
@@ -14346,10 +14346,10 @@
         <v>801</v>
       </c>
       <c r="C800">
-        <v>1206.563882779126</v>
+        <v>0</v>
       </c>
       <c r="D800">
-        <v>68980.56388277908</v>
+        <v>69437.99999999997</v>
       </c>
     </row>
     <row r="801" spans="1:4">
@@ -14363,7 +14363,7 @@
         <v>0</v>
       </c>
       <c r="D801">
-        <v>91357.99999999996</v>
+        <v>135632</v>
       </c>
     </row>
     <row r="802" spans="1:4">
@@ -14374,10 +14374,10 @@
         <v>803</v>
       </c>
       <c r="C802">
-        <v>0</v>
+        <v>28327.8991438673</v>
       </c>
       <c r="D802">
-        <v>147970</v>
+        <v>146377.8991438673</v>
       </c>
     </row>
     <row r="803" spans="1:4">
@@ -14391,7 +14391,7 @@
         <v>0</v>
       </c>
       <c r="D803">
-        <v>85432.00000000007</v>
+        <v>104330</v>
       </c>
     </row>
     <row r="804" spans="1:4">
@@ -14405,7 +14405,7 @@
         <v>0</v>
       </c>
       <c r="D804">
-        <v>75665.99999999996</v>
+        <v>100496</v>
       </c>
     </row>
     <row r="805" spans="1:4">
@@ -14416,10 +14416,10 @@
         <v>806</v>
       </c>
       <c r="C805">
-        <v>51142.57810265267</v>
+        <v>0</v>
       </c>
       <c r="D805">
-        <v>142587.5781026526</v>
+        <v>178609.9999999999</v>
       </c>
     </row>
     <row r="806" spans="1:4">
@@ -14430,10 +14430,10 @@
         <v>807</v>
       </c>
       <c r="C806">
-        <v>8603.514470965332</v>
+        <v>11653.90959646186</v>
       </c>
       <c r="D806">
-        <v>67389.51447096537</v>
+        <v>69108.90959646186</v>
       </c>
     </row>
     <row r="807" spans="1:4">
@@ -14447,7 +14447,7 @@
         <v>0</v>
       </c>
       <c r="D807">
-        <v>86223.99999999993</v>
+        <v>87438</v>
       </c>
     </row>
     <row r="808" spans="1:4">
@@ -14461,7 +14461,7 @@
         <v>0</v>
       </c>
       <c r="D808">
-        <v>86648.00000000006</v>
+        <v>112624.9999999999</v>
       </c>
     </row>
     <row r="809" spans="1:4">
@@ -14475,7 +14475,7 @@
         <v>0</v>
       </c>
       <c r="D809">
-        <v>67036.99999999997</v>
+        <v>76744.00000000001</v>
       </c>
     </row>
     <row r="810" spans="1:4">
@@ -14486,10 +14486,10 @@
         <v>811</v>
       </c>
       <c r="C810">
-        <v>631.0009071075474</v>
+        <v>17589.02965260494</v>
       </c>
       <c r="D810">
-        <v>108227.0009071075</v>
+        <v>110410.0296526049</v>
       </c>
     </row>
     <row r="811" spans="1:4">
@@ -14503,7 +14503,7 @@
         <v>0</v>
       </c>
       <c r="D811">
-        <v>116089.9999999999</v>
+        <v>189529.9999999999</v>
       </c>
     </row>
     <row r="812" spans="1:4">
@@ -14514,10 +14514,10 @@
         <v>813</v>
       </c>
       <c r="C812">
-        <v>24025.65620482358</v>
+        <v>45190.78631963408</v>
       </c>
       <c r="D812">
-        <v>127197.6562048236</v>
+        <v>131102.7863196341</v>
       </c>
     </row>
     <row r="813" spans="1:4">
@@ -14531,7 +14531,7 @@
         <v>0</v>
       </c>
       <c r="D813">
-        <v>73901</v>
+        <v>71185.00000000001</v>
       </c>
     </row>
     <row r="814" spans="1:4">
@@ -14545,7 +14545,7 @@
         <v>0</v>
       </c>
       <c r="D814">
-        <v>88450.00000000001</v>
+        <v>71673.99999999997</v>
       </c>
     </row>
     <row r="815" spans="1:4">
@@ -14559,7 +14559,7 @@
         <v>0</v>
       </c>
       <c r="D815">
-        <v>73159.99999999999</v>
+        <v>106798.0000000001</v>
       </c>
     </row>
     <row r="816" spans="1:4">
@@ -14573,7 +14573,7 @@
         <v>0</v>
       </c>
       <c r="D816">
-        <v>72994.99999999996</v>
+        <v>73374.99999999999</v>
       </c>
     </row>
     <row r="817" spans="1:4">
@@ -14584,10 +14584,10 @@
         <v>818</v>
       </c>
       <c r="C817">
-        <v>2015.190865643133</v>
+        <v>2819.751096491265</v>
       </c>
       <c r="D817">
-        <v>66669.19086564313</v>
+        <v>69433.75109649125</v>
       </c>
     </row>
     <row r="818" spans="1:4">
@@ -14601,7 +14601,7 @@
         <v>0</v>
       </c>
       <c r="D818">
-        <v>100014</v>
+        <v>108880</v>
       </c>
     </row>
     <row r="819" spans="1:4">
@@ -14612,10 +14612,10 @@
         <v>820</v>
       </c>
       <c r="C819">
-        <v>1805.828542717398</v>
+        <v>15580.35681984447</v>
       </c>
       <c r="D819">
-        <v>66382.8285427174</v>
+        <v>68908.35681984443</v>
       </c>
     </row>
     <row r="820" spans="1:4">
@@ -14626,10 +14626,10 @@
         <v>821</v>
       </c>
       <c r="C820">
-        <v>11295.51452370563</v>
+        <v>2664.996429153121</v>
       </c>
       <c r="D820">
-        <v>65380.51452370559</v>
+        <v>69727.99642915311</v>
       </c>
     </row>
     <row r="821" spans="1:4">
@@ -14640,10 +14640,10 @@
         <v>822</v>
       </c>
       <c r="C821">
-        <v>12060.33090822888</v>
+        <v>0</v>
       </c>
       <c r="D821">
-        <v>124084.330908229</v>
+        <v>150752</v>
       </c>
     </row>
     <row r="822" spans="1:4">
@@ -14657,7 +14657,7 @@
         <v>0</v>
       </c>
       <c r="D822">
-        <v>77947.00000000004</v>
+        <v>61350.99999999995</v>
       </c>
     </row>
     <row r="823" spans="1:4">
@@ -14668,10 +14668,10 @@
         <v>824</v>
       </c>
       <c r="C823">
-        <v>0</v>
+        <v>25417.03309441692</v>
       </c>
       <c r="D823">
-        <v>91062.00000000004</v>
+        <v>89097.0330944169</v>
       </c>
     </row>
     <row r="824" spans="1:4">
@@ -14685,7 +14685,7 @@
         <v>0</v>
       </c>
       <c r="D824">
-        <v>79289.00000000006</v>
+        <v>76473.99999999996</v>
       </c>
     </row>
     <row r="825" spans="1:4">
@@ -14696,10 +14696,10 @@
         <v>826</v>
       </c>
       <c r="C825">
-        <v>20408.10229247934</v>
+        <v>12491.15721309026</v>
       </c>
       <c r="D825">
-        <v>104583.1022924793</v>
+        <v>110673.1572130903</v>
       </c>
     </row>
     <row r="826" spans="1:4">
@@ -14710,10 +14710,10 @@
         <v>827</v>
       </c>
       <c r="C826">
-        <v>44441.24387818764</v>
+        <v>0</v>
       </c>
       <c r="D826">
-        <v>124737.2438781876</v>
+        <v>141283.9999999999</v>
       </c>
     </row>
     <row r="827" spans="1:4">
@@ -14724,10 +14724,10 @@
         <v>828</v>
       </c>
       <c r="C827">
-        <v>39352.94747534103</v>
+        <v>10936.29122629424</v>
       </c>
       <c r="D827">
-        <v>127404.947475341</v>
+        <v>131256.2912262943</v>
       </c>
     </row>
     <row r="828" spans="1:4">
@@ -14741,7 +14741,7 @@
         <v>0</v>
       </c>
       <c r="D828">
-        <v>77976</v>
+        <v>97956.00000000007</v>
       </c>
     </row>
     <row r="829" spans="1:4">
@@ -14755,7 +14755,7 @@
         <v>0</v>
       </c>
       <c r="D829">
-        <v>107622</v>
+        <v>70898</v>
       </c>
     </row>
     <row r="830" spans="1:4">
@@ -14766,10 +14766,10 @@
         <v>831</v>
       </c>
       <c r="C830">
-        <v>22575.62401159406</v>
+        <v>8952.069260941003</v>
       </c>
       <c r="D830">
-        <v>105523.6240115941</v>
+        <v>111382.069260941</v>
       </c>
     </row>
     <row r="831" spans="1:4">
@@ -14780,10 +14780,10 @@
         <v>832</v>
       </c>
       <c r="C831">
-        <v>8191.149775882775</v>
+        <v>1587.720489934683</v>
       </c>
       <c r="D831">
-        <v>87571.14977588272</v>
+        <v>88819.72048993468</v>
       </c>
     </row>
     <row r="832" spans="1:4">
@@ -14794,10 +14794,10 @@
         <v>833</v>
       </c>
       <c r="C832">
-        <v>1557.939266931091</v>
+        <v>16484.73406551126</v>
       </c>
       <c r="D832">
-        <v>67057.93926693105</v>
+        <v>68371.73406551129</v>
       </c>
     </row>
     <row r="833" spans="1:4">
@@ -14811,7 +14811,7 @@
         <v>0</v>
       </c>
       <c r="D833">
-        <v>92070.00000000004</v>
+        <v>104040</v>
       </c>
     </row>
     <row r="834" spans="1:4">
@@ -14825,7 +14825,7 @@
         <v>0</v>
       </c>
       <c r="D834">
-        <v>66012.00000000001</v>
+        <v>70170.99999999999</v>
       </c>
     </row>
     <row r="835" spans="1:4">
@@ -14836,10 +14836,10 @@
         <v>836</v>
       </c>
       <c r="C835">
-        <v>0</v>
+        <v>4689.754002589965</v>
       </c>
       <c r="D835">
-        <v>69264</v>
+        <v>69456.75400259002</v>
       </c>
     </row>
     <row r="836" spans="1:4">
@@ -14853,7 +14853,7 @@
         <v>0</v>
       </c>
       <c r="D836">
-        <v>66469.99999999997</v>
+        <v>65595.99999999996</v>
       </c>
     </row>
     <row r="837" spans="1:4">
@@ -14864,10 +14864,10 @@
         <v>838</v>
       </c>
       <c r="C837">
-        <v>0</v>
+        <v>37389.31976188996</v>
       </c>
       <c r="D837">
-        <v>115924</v>
+        <v>110545.31976189</v>
       </c>
     </row>
     <row r="838" spans="1:4">
@@ -14878,10 +14878,10 @@
         <v>839</v>
       </c>
       <c r="C838">
-        <v>0</v>
+        <v>5928.522704779163</v>
       </c>
       <c r="D838">
-        <v>68432.00000000006</v>
+        <v>68935.52270477917</v>
       </c>
     </row>
     <row r="839" spans="1:4">
@@ -14892,10 +14892,10 @@
         <v>840</v>
       </c>
       <c r="C839">
-        <v>13137.98488827066</v>
+        <v>54946.87449231427</v>
       </c>
       <c r="D839">
-        <v>138577.9848882707</v>
+        <v>146611.8744923142</v>
       </c>
     </row>
     <row r="840" spans="1:4">
@@ -14906,10 +14906,10 @@
         <v>841</v>
       </c>
       <c r="C840">
-        <v>11127.08238056862</v>
+        <v>18646.38372262364</v>
       </c>
       <c r="D840">
-        <v>128235.0823805687</v>
+        <v>129490.3837226237</v>
       </c>
     </row>
     <row r="841" spans="1:4">
@@ -14923,7 +14923,7 @@
         <v>0</v>
       </c>
       <c r="D841">
-        <v>162005.0000000001</v>
+        <v>102815</v>
       </c>
     </row>
     <row r="842" spans="1:4">
@@ -14934,10 +14934,10 @@
         <v>843</v>
       </c>
       <c r="C842">
-        <v>5320.244979007766</v>
+        <v>9295.433599013631</v>
       </c>
       <c r="D842">
-        <v>105581.2449790077</v>
+        <v>108110.4335990136</v>
       </c>
     </row>
     <row r="843" spans="1:4">
@@ -14951,7 +14951,7 @@
         <v>0</v>
       </c>
       <c r="D843">
-        <v>69287.00000000004</v>
+        <v>79788.99999999994</v>
       </c>
     </row>
     <row r="844" spans="1:4">
@@ -14965,7 +14965,7 @@
         <v>0</v>
       </c>
       <c r="D844">
-        <v>67825.00000000006</v>
+        <v>75218.00000000006</v>
       </c>
     </row>
     <row r="845" spans="1:4">
@@ -14976,10 +14976,10 @@
         <v>846</v>
       </c>
       <c r="C845">
-        <v>12445.13996821722</v>
+        <v>26893.80641728132</v>
       </c>
       <c r="D845">
-        <v>107093.1399682172</v>
+        <v>110375.8064172814</v>
       </c>
     </row>
     <row r="846" spans="1:4">
@@ -14993,7 +14993,7 @@
         <v>0</v>
       </c>
       <c r="D846">
-        <v>79286.00000000001</v>
+        <v>71680.00000000003</v>
       </c>
     </row>
     <row r="847" spans="1:4">
@@ -15004,10 +15004,10 @@
         <v>848</v>
       </c>
       <c r="C847">
-        <v>0</v>
+        <v>23493.7556421575</v>
       </c>
       <c r="D847">
-        <v>129184</v>
+        <v>107923.7556421576</v>
       </c>
     </row>
     <row r="848" spans="1:4">
@@ -15021,7 +15021,7 @@
         <v>0</v>
       </c>
       <c r="D848">
-        <v>108462.9999999999</v>
+        <v>118612</v>
       </c>
     </row>
     <row r="849" spans="1:4">
@@ -15035,7 +15035,7 @@
         <v>0</v>
       </c>
       <c r="D849">
-        <v>117133.9999999999</v>
+        <v>121196.0000000001</v>
       </c>
     </row>
     <row r="850" spans="1:4">
@@ -15046,10 +15046,10 @@
         <v>851</v>
       </c>
       <c r="C850">
-        <v>0</v>
+        <v>9284.935917350944</v>
       </c>
       <c r="D850">
-        <v>157256.0000000001</v>
+        <v>130796.9359173509</v>
       </c>
     </row>
     <row r="851" spans="1:4">
@@ -15060,10 +15060,10 @@
         <v>852</v>
       </c>
       <c r="C851">
-        <v>23438.42707996084</v>
+        <v>8343.346858943187</v>
       </c>
       <c r="D851">
-        <v>87680.42707996088</v>
+        <v>87963.34685894314</v>
       </c>
     </row>
     <row r="852" spans="1:4">
@@ -15077,7 +15077,7 @@
         <v>0</v>
       </c>
       <c r="D852">
-        <v>145416</v>
+        <v>152184</v>
       </c>
     </row>
     <row r="853" spans="1:4">
@@ -15088,10 +15088,10 @@
         <v>854</v>
       </c>
       <c r="C853">
-        <v>20194.32703438545</v>
+        <v>0</v>
       </c>
       <c r="D853">
-        <v>140229.3270343854</v>
+        <v>183195.0000000001</v>
       </c>
     </row>
     <row r="854" spans="1:4">
@@ -15102,10 +15102,10 @@
         <v>855</v>
       </c>
       <c r="C854">
-        <v>20401.40018082243</v>
+        <v>26967.95541066199</v>
       </c>
       <c r="D854">
-        <v>143886.4001808225</v>
+        <v>146072.9554106621</v>
       </c>
     </row>
     <row r="855" spans="1:4">
@@ -15119,7 +15119,7 @@
         <v>0</v>
       </c>
       <c r="D855">
-        <v>168143.9999999999</v>
+        <v>134271.9999999999</v>
       </c>
     </row>
     <row r="856" spans="1:4">
@@ -15133,7 +15133,7 @@
         <v>0</v>
       </c>
       <c r="D856">
-        <v>105328</v>
+        <v>109723.9999999999</v>
       </c>
     </row>
     <row r="857" spans="1:4">
@@ -15147,7 +15147,7 @@
         <v>0</v>
       </c>
       <c r="D857">
-        <v>153552.0000000001</v>
+        <v>99020.00000000006</v>
       </c>
     </row>
     <row r="858" spans="1:4">
@@ -15158,10 +15158,10 @@
         <v>859</v>
       </c>
       <c r="C858">
-        <v>7222.251732697172</v>
+        <v>39712.8049758993</v>
       </c>
       <c r="D858">
-        <v>104243.2517326973</v>
+        <v>110417.8049758993</v>
       </c>
     </row>
     <row r="859" spans="1:4">
@@ -15175,7 +15175,7 @@
         <v>0</v>
       </c>
       <c r="D859">
-        <v>77035.99999999996</v>
+        <v>79762</v>
       </c>
     </row>
     <row r="860" spans="1:4">
@@ -15189,7 +15189,7 @@
         <v>0</v>
       </c>
       <c r="D860">
-        <v>75840</v>
+        <v>73001.99999999996</v>
       </c>
     </row>
     <row r="861" spans="1:4">
@@ -15200,10 +15200,10 @@
         <v>862</v>
       </c>
       <c r="C861">
-        <v>0</v>
+        <v>10216.08134925197</v>
       </c>
       <c r="D861">
-        <v>103125.9999999999</v>
+        <v>110465.081349252</v>
       </c>
     </row>
     <row r="862" spans="1:4">
@@ -15217,7 +15217,7 @@
         <v>0</v>
       </c>
       <c r="D862">
-        <v>71661.00000000001</v>
+        <v>78881.00000000003</v>
       </c>
     </row>
     <row r="863" spans="1:4">
@@ -15231,7 +15231,7 @@
         <v>0</v>
       </c>
       <c r="D863">
-        <v>120008</v>
+        <v>127568</v>
       </c>
     </row>
     <row r="864" spans="1:4">
@@ -15245,7 +15245,7 @@
         <v>0</v>
       </c>
       <c r="D864">
-        <v>105886</v>
+        <v>119326</v>
       </c>
     </row>
     <row r="865" spans="1:4">
@@ -15259,7 +15259,7 @@
         <v>0</v>
       </c>
       <c r="D865">
-        <v>81949.99999999997</v>
+        <v>127343</v>
       </c>
     </row>
     <row r="866" spans="1:4">
@@ -15270,10 +15270,10 @@
         <v>867</v>
       </c>
       <c r="C866">
-        <v>4057.298174629643</v>
+        <v>12077.95064930815</v>
       </c>
       <c r="D866">
-        <v>68436.29817462963</v>
+        <v>69369.9506493081</v>
       </c>
     </row>
     <row r="867" spans="1:4">
@@ -15284,10 +15284,10 @@
         <v>868</v>
       </c>
       <c r="C867">
-        <v>22284.34544519967</v>
+        <v>0</v>
       </c>
       <c r="D867">
-        <v>85236.34544519968</v>
+        <v>90919.99999999993</v>
       </c>
     </row>
     <row r="868" spans="1:4">
@@ -15298,10 +15298,10 @@
         <v>869</v>
       </c>
       <c r="C868">
-        <v>5171.552534860239</v>
+        <v>54529.94526458968</v>
       </c>
       <c r="D868">
-        <v>140506.5525348602</v>
+        <v>145399.9452645897</v>
       </c>
     </row>
     <row r="869" spans="1:4">
@@ -15315,7 +15315,7 @@
         <v>0</v>
       </c>
       <c r="D869">
-        <v>94466.00000000007</v>
+        <v>75085.99999999996</v>
       </c>
     </row>
     <row r="870" spans="1:4">
@@ -15329,7 +15329,7 @@
         <v>0</v>
       </c>
       <c r="D870">
-        <v>67365.00000000001</v>
+        <v>79817.99999999997</v>
       </c>
     </row>
     <row r="871" spans="1:4">
@@ -15343,7 +15343,7 @@
         <v>0</v>
       </c>
       <c r="D871">
-        <v>128840</v>
+        <v>136046.0000000001</v>
       </c>
     </row>
     <row r="872" spans="1:4">
@@ -15354,10 +15354,10 @@
         <v>873</v>
       </c>
       <c r="C872">
-        <v>12671.04975803547</v>
+        <v>0</v>
       </c>
       <c r="D872">
-        <v>106878.0497580355</v>
+        <v>114412</v>
       </c>
     </row>
     <row r="873" spans="1:4">
@@ -15371,7 +15371,7 @@
         <v>0</v>
       </c>
       <c r="D873">
-        <v>64445.99999999998</v>
+        <v>70799.99999999996</v>
       </c>
     </row>
     <row r="874" spans="1:4">
@@ -15385,7 +15385,7 @@
         <v>0</v>
       </c>
       <c r="D874">
-        <v>70015.99999999997</v>
+        <v>82832.00000000006</v>
       </c>
     </row>
     <row r="875" spans="1:4">
@@ -15399,7 +15399,7 @@
         <v>0</v>
       </c>
       <c r="D875">
-        <v>123290</v>
+        <v>113594</v>
       </c>
     </row>
     <row r="876" spans="1:4">
@@ -15410,10 +15410,10 @@
         <v>877</v>
       </c>
       <c r="C876">
-        <v>9349.76225175336</v>
+        <v>4436.148877480591</v>
       </c>
       <c r="D876">
-        <v>65806.76225175335</v>
+        <v>68794.14887748061</v>
       </c>
     </row>
     <row r="877" spans="1:4">
@@ -15424,10 +15424,10 @@
         <v>878</v>
       </c>
       <c r="C877">
-        <v>17051.2976984336</v>
+        <v>10857.7443093811</v>
       </c>
       <c r="D877">
-        <v>85585.29769843363</v>
+        <v>90087.7443093811</v>
       </c>
     </row>
     <row r="878" spans="1:4">
@@ -15441,7 +15441,7 @@
         <v>0</v>
       </c>
       <c r="D878">
-        <v>127082.0000000001</v>
+        <v>137093.0000000001</v>
       </c>
     </row>
     <row r="879" spans="1:4">
@@ -15455,7 +15455,7 @@
         <v>0</v>
       </c>
       <c r="D879">
-        <v>88982.00000000007</v>
+        <v>93662.00000000004</v>
       </c>
     </row>
     <row r="880" spans="1:4">
@@ -15466,10 +15466,10 @@
         <v>881</v>
       </c>
       <c r="C880">
-        <v>0</v>
+        <v>10870.7549750155</v>
       </c>
       <c r="D880">
-        <v>67218.00000000003</v>
+        <v>69094.75497501554</v>
       </c>
     </row>
     <row r="881" spans="1:4">
@@ -15480,10 +15480,10 @@
         <v>882</v>
       </c>
       <c r="C881">
-        <v>0</v>
+        <v>2399.125270228047</v>
       </c>
       <c r="D881">
-        <v>91764</v>
+        <v>87401.12527022812</v>
       </c>
     </row>
     <row r="882" spans="1:4">
@@ -15494,10 +15494,10 @@
         <v>883</v>
       </c>
       <c r="C882">
-        <v>11519.90306985989</v>
+        <v>17745.9305848589</v>
       </c>
       <c r="D882">
-        <v>67884.90306985988</v>
+        <v>69469.93058485894</v>
       </c>
     </row>
     <row r="883" spans="1:4">
@@ -15511,7 +15511,7 @@
         <v>0</v>
       </c>
       <c r="D883">
-        <v>128422</v>
+        <v>128554.0000000001</v>
       </c>
     </row>
     <row r="884" spans="1:4">
@@ -15522,10 +15522,10 @@
         <v>885</v>
       </c>
       <c r="C884">
-        <v>0</v>
+        <v>11325.49160197444</v>
       </c>
       <c r="D884">
-        <v>89143.99999999994</v>
+        <v>89839.49160197438</v>
       </c>
     </row>
     <row r="885" spans="1:4">
@@ -15539,7 +15539,7 @@
         <v>0</v>
       </c>
       <c r="D885">
-        <v>141628.0000000001</v>
+        <v>140508.0000000001</v>
       </c>
     </row>
     <row r="886" spans="1:4">
@@ -15553,7 +15553,7 @@
         <v>0</v>
       </c>
       <c r="D886">
-        <v>93965.00000000007</v>
+        <v>123412.9999999999</v>
       </c>
     </row>
     <row r="887" spans="1:4">
@@ -15564,10 +15564,10 @@
         <v>888</v>
       </c>
       <c r="C887">
-        <v>16729.46062297035</v>
+        <v>0</v>
       </c>
       <c r="D887">
-        <v>86757.46062297039</v>
+        <v>95692.00000000006</v>
       </c>
     </row>
     <row r="888" spans="1:4">
@@ -15581,7 +15581,7 @@
         <v>0</v>
       </c>
       <c r="D888">
-        <v>71570</v>
+        <v>75502.99999999997</v>
       </c>
     </row>
     <row r="889" spans="1:4">
@@ -15592,10 +15592,10 @@
         <v>890</v>
       </c>
       <c r="C889">
-        <v>3183.28793663207</v>
+        <v>16949.69113514856</v>
       </c>
       <c r="D889">
-        <v>69431.28793663206</v>
+        <v>68497.69113514855</v>
       </c>
     </row>
     <row r="890" spans="1:4">
@@ -15609,7 +15609,7 @@
         <v>0</v>
       </c>
       <c r="D890">
-        <v>67615.00000000001</v>
+        <v>64279</v>
       </c>
     </row>
     <row r="891" spans="1:4">
@@ -15620,10 +15620,10 @@
         <v>892</v>
       </c>
       <c r="C891">
-        <v>12186.7867865482</v>
+        <v>14914.53726711021</v>
       </c>
       <c r="D891">
-        <v>67144.78678654817</v>
+        <v>68202.53726711019</v>
       </c>
     </row>
     <row r="892" spans="1:4">
@@ -15637,7 +15637,7 @@
         <v>0</v>
       </c>
       <c r="D892">
-        <v>159420.0000000001</v>
+        <v>191600.0000000001</v>
       </c>
     </row>
     <row r="893" spans="1:4">
@@ -15651,7 +15651,7 @@
         <v>0</v>
       </c>
       <c r="D893">
-        <v>111368</v>
+        <v>131035.9999999999</v>
       </c>
     </row>
     <row r="894" spans="1:4">
@@ -15665,7 +15665,7 @@
         <v>0</v>
       </c>
       <c r="D894">
-        <v>64395.00000000003</v>
+        <v>69877.00000000004</v>
       </c>
     </row>
     <row r="895" spans="1:4">
@@ -15679,7 +15679,7 @@
         <v>0</v>
       </c>
       <c r="D895">
-        <v>137942.0000000001</v>
+        <v>130612.9999999999</v>
       </c>
     </row>
     <row r="896" spans="1:4">
@@ -15693,7 +15693,7 @@
         <v>0</v>
       </c>
       <c r="D896">
-        <v>132155</v>
+        <v>112349</v>
       </c>
     </row>
     <row r="897" spans="1:4">
@@ -15707,7 +15707,7 @@
         <v>0</v>
       </c>
       <c r="D897">
-        <v>106022.0000000001</v>
+        <v>86223.99999999993</v>
       </c>
     </row>
     <row r="898" spans="1:4">
@@ -15721,7 +15721,7 @@
         <v>0</v>
       </c>
       <c r="D898">
-        <v>73518.00000000003</v>
+        <v>66107.99999999997</v>
       </c>
     </row>
     <row r="899" spans="1:4">
@@ -15735,7 +15735,7 @@
         <v>0</v>
       </c>
       <c r="D899">
-        <v>83494.99999999997</v>
+        <v>126467</v>
       </c>
     </row>
     <row r="900" spans="1:4">
@@ -15749,7 +15749,7 @@
         <v>0</v>
       </c>
       <c r="D900">
-        <v>64120.99999999995</v>
+        <v>69852.00000000001</v>
       </c>
     </row>
     <row r="901" spans="1:4">
@@ -15763,7 +15763,7 @@
         <v>0</v>
       </c>
       <c r="D901">
-        <v>88392.00000000001</v>
+        <v>71132.00000000004</v>
       </c>
     </row>
     <row r="902" spans="1:4">
@@ -15777,7 +15777,7 @@
         <v>0</v>
       </c>
       <c r="D902">
-        <v>137648</v>
+        <v>118931.0000000001</v>
       </c>
     </row>
     <row r="903" spans="1:4">
@@ -15791,7 +15791,7 @@
         <v>0</v>
       </c>
       <c r="D903">
-        <v>125437.9999999999</v>
+        <v>118384.9999999999</v>
       </c>
     </row>
     <row r="904" spans="1:4">
@@ -15805,7 +15805,7 @@
         <v>0</v>
       </c>
       <c r="D904">
-        <v>112892.0000000001</v>
+        <v>105032</v>
       </c>
     </row>
     <row r="905" spans="1:4">
@@ -15819,7 +15819,7 @@
         <v>0</v>
       </c>
       <c r="D905">
-        <v>65198.00000000003</v>
+        <v>79298.99999999996</v>
       </c>
     </row>
     <row r="906" spans="1:4">
@@ -15833,7 +15833,7 @@
         <v>0</v>
       </c>
       <c r="D906">
-        <v>64694.99999999998</v>
+        <v>62749.99999999995</v>
       </c>
     </row>
     <row r="907" spans="1:4">
@@ -15847,7 +15847,7 @@
         <v>0</v>
       </c>
       <c r="D907">
-        <v>126503</v>
+        <v>139871.0000000001</v>
       </c>
     </row>
     <row r="908" spans="1:4">
@@ -15861,7 +15861,7 @@
         <v>0</v>
       </c>
       <c r="D908">
-        <v>79271.00000000003</v>
+        <v>67513.00000000004</v>
       </c>
     </row>
     <row r="909" spans="1:4">
@@ -15875,7 +15875,7 @@
         <v>0</v>
       </c>
       <c r="D909">
-        <v>97985.99999999997</v>
+        <v>107024</v>
       </c>
     </row>
     <row r="910" spans="1:4">
@@ -15889,7 +15889,7 @@
         <v>0</v>
       </c>
       <c r="D910">
-        <v>75641.99999999997</v>
+        <v>60871.00000000004</v>
       </c>
     </row>
     <row r="911" spans="1:4">
@@ -15903,7 +15903,7 @@
         <v>0</v>
       </c>
       <c r="D911">
-        <v>72114</v>
+        <v>107980</v>
       </c>
     </row>
     <row r="912" spans="1:4">
@@ -15917,7 +15917,7 @@
         <v>0</v>
       </c>
       <c r="D912">
-        <v>104891.0000000001</v>
+        <v>100496</v>
       </c>
     </row>
     <row r="913" spans="1:4">
@@ -15931,7 +15931,7 @@
         <v>0</v>
       </c>
       <c r="D913">
-        <v>84556</v>
+        <v>80331.99999999994</v>
       </c>
     </row>
     <row r="914" spans="1:4">
@@ -15945,7 +15945,7 @@
         <v>0</v>
       </c>
       <c r="D914">
-        <v>77958.00000000007</v>
+        <v>75689.99999999994</v>
       </c>
     </row>
     <row r="915" spans="1:4">
@@ -15959,7 +15959,7 @@
         <v>0</v>
       </c>
       <c r="D915">
-        <v>79308.99999999996</v>
+        <v>61890.00000000002</v>
       </c>
     </row>
     <row r="916" spans="1:4">
@@ -15973,7 +15973,7 @@
         <v>0</v>
       </c>
       <c r="D916">
-        <v>76593.00000000006</v>
+        <v>78079.99999999993</v>
       </c>
     </row>
     <row r="917" spans="1:4">
@@ -15987,7 +15987,7 @@
         <v>0</v>
       </c>
       <c r="D917">
-        <v>97569.99999999993</v>
+        <v>97901.99999999999</v>
       </c>
     </row>
     <row r="918" spans="1:4">
@@ -16001,7 +16001,7 @@
         <v>0</v>
       </c>
       <c r="D918">
-        <v>72214.00000000006</v>
+        <v>73955.99999999997</v>
       </c>
     </row>
     <row r="919" spans="1:4">
@@ -16015,7 +16015,7 @@
         <v>0</v>
       </c>
       <c r="D919">
-        <v>75329.99999999994</v>
+        <v>105526</v>
       </c>
     </row>
     <row r="920" spans="1:4">
@@ -16029,7 +16029,7 @@
         <v>0</v>
       </c>
       <c r="D920">
-        <v>71690.00000000003</v>
+        <v>75994.99999999999</v>
       </c>
     </row>
     <row r="921" spans="1:4">
@@ -16043,7 +16043,7 @@
         <v>0</v>
       </c>
       <c r="D921">
-        <v>100020</v>
+        <v>75353.99999999999</v>
       </c>
     </row>
     <row r="922" spans="1:4">
@@ -16057,7 +16057,7 @@
         <v>0</v>
       </c>
       <c r="D922">
-        <v>69788.00000000003</v>
+        <v>61059.99999999999</v>
       </c>
     </row>
     <row r="923" spans="1:4">
@@ -16071,7 +16071,7 @@
         <v>0</v>
       </c>
       <c r="D923">
-        <v>74733.00000000003</v>
+        <v>72460.00000000003</v>
       </c>
     </row>
     <row r="924" spans="1:4">
@@ -16085,7 +16085,7 @@
         <v>0</v>
       </c>
       <c r="D924">
-        <v>80733.99999999994</v>
+        <v>103564.0000000001</v>
       </c>
     </row>
   </sheetData>

--- a/df_gap.xlsx
+++ b/df_gap.xlsx
@@ -3173,10 +3173,10 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>18923.39862263664</v>
+        <v>12256.35303852885</v>
       </c>
       <c r="D3">
-        <v>90335.39862263665</v>
+        <v>83668.35303852886</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3229,10 +3229,10 @@
         <v>8</v>
       </c>
       <c r="C7">
-        <v>7102.099282748713</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>68166.09928274875</v>
+        <v>61064.00000000004</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3299,10 +3299,10 @@
         <v>13</v>
       </c>
       <c r="C12">
-        <v>21479.96072285753</v>
+        <v>26943.41578391353</v>
       </c>
       <c r="D12">
-        <v>97125.96072285759</v>
+        <v>102589.4157839136</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3313,10 +3313,10 @@
         <v>14</v>
       </c>
       <c r="C13">
-        <v>20964.75993875081</v>
+        <v>18749.78182933934</v>
       </c>
       <c r="D13">
-        <v>72178.75993875082</v>
+        <v>69963.78182933935</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -3355,10 +3355,10 @@
         <v>17</v>
       </c>
       <c r="C16">
-        <v>13011.92700417877</v>
+        <v>10016.57138260741</v>
       </c>
       <c r="D16">
-        <v>137999.9270041789</v>
+        <v>135004.5713826075</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3383,10 +3383,10 @@
         <v>19</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>9599.854303651358</v>
       </c>
       <c r="D18">
-        <v>118432</v>
+        <v>128031.8543036514</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -3453,10 +3453,10 @@
         <v>24</v>
       </c>
       <c r="C23">
-        <v>22521.93441726295</v>
+        <v>22678.82493947171</v>
       </c>
       <c r="D23">
-        <v>94927.93441726301</v>
+        <v>95084.82493947177</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -3467,10 +3467,10 @@
         <v>25</v>
       </c>
       <c r="C24">
-        <v>31537.5637919867</v>
+        <v>35558.62393689356</v>
       </c>
       <c r="D24">
-        <v>127227.5637919868</v>
+        <v>131248.6239368937</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -3593,10 +3593,10 @@
         <v>34</v>
       </c>
       <c r="C33">
-        <v>6331.355519966135</v>
+        <v>7264.362448973829</v>
       </c>
       <c r="D33">
-        <v>103934.3555199661</v>
+        <v>104867.3624489738</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -3607,10 +3607,10 @@
         <v>35</v>
       </c>
       <c r="C34">
-        <v>24559.34044588445</v>
+        <v>26648.44131074927</v>
       </c>
       <c r="D34">
-        <v>91129.34044588447</v>
+        <v>93218.4413107493</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -3621,10 +3621,10 @@
         <v>36</v>
       </c>
       <c r="C35">
-        <v>981.4167365599133</v>
+        <v>1065.626431481782</v>
       </c>
       <c r="D35">
-        <v>126161.41673656</v>
+        <v>126245.6264314818</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -3635,10 +3635,10 @@
         <v>37</v>
       </c>
       <c r="C36">
-        <v>22462.36551988935</v>
+        <v>19455.10969743788</v>
       </c>
       <c r="D36">
-        <v>83516.36551988937</v>
+        <v>80509.1096974379</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -3649,10 +3649,10 @@
         <v>38</v>
       </c>
       <c r="C37">
-        <v>33401.67795787395</v>
+        <v>28536.39058438125</v>
       </c>
       <c r="D37">
-        <v>123805.677957874</v>
+        <v>118940.3905843813</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -3663,10 +3663,10 @@
         <v>39</v>
       </c>
       <c r="C38">
-        <v>31044.85052829199</v>
+        <v>35742.54723703316</v>
       </c>
       <c r="D38">
-        <v>101089.850528292</v>
+        <v>105787.5472370332</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -3691,10 +3691,10 @@
         <v>41</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>3273.059409954163</v>
       </c>
       <c r="D40">
-        <v>87988.00000000001</v>
+        <v>91261.05940995418</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -3705,10 +3705,10 @@
         <v>42</v>
       </c>
       <c r="C41">
-        <v>10122.58028478028</v>
+        <v>7160.178344014814</v>
       </c>
       <c r="D41">
-        <v>108157.5802847803</v>
+        <v>105195.1783440149</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -3761,10 +3761,10 @@
         <v>46</v>
       </c>
       <c r="C45">
-        <v>6550.05008559725</v>
+        <v>5633.192707235663</v>
       </c>
       <c r="D45">
-        <v>84768.05008559729</v>
+        <v>83851.19270723571</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -3789,10 +3789,10 @@
         <v>48</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>964.5863282954524</v>
       </c>
       <c r="D47">
-        <v>107451.9999999999</v>
+        <v>108416.5863282954</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -3803,10 +3803,10 @@
         <v>49</v>
       </c>
       <c r="C48">
-        <v>39426.05615495214</v>
+        <v>34196.38083143762</v>
       </c>
       <c r="D48">
-        <v>122270.0561549522</v>
+        <v>117040.3808314377</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -3873,10 +3873,10 @@
         <v>54</v>
       </c>
       <c r="C53">
-        <v>1590.755436796389</v>
+        <v>1604.02678377663</v>
       </c>
       <c r="D53">
-        <v>66482.75543679639</v>
+        <v>66496.02678377663</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -3971,10 +3971,10 @@
         <v>61</v>
       </c>
       <c r="C60">
-        <v>8848.751192986048</v>
+        <v>6082.203525258199</v>
       </c>
       <c r="D60">
-        <v>69014.75119298605</v>
+        <v>66248.2035252582</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -3985,10 +3985,10 @@
         <v>62</v>
       </c>
       <c r="C61">
-        <v>39260.7787036182</v>
+        <v>41606.28286724685</v>
       </c>
       <c r="D61">
-        <v>139935.7787036182</v>
+        <v>142281.2828672469</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -3999,10 +3999,10 @@
         <v>63</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>1095.468221548115</v>
       </c>
       <c r="D62">
-        <v>106099</v>
+        <v>107194.4682215481</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -4027,10 +4027,10 @@
         <v>65</v>
       </c>
       <c r="C64">
-        <v>23757.83971740204</v>
+        <v>13689.88646259278</v>
       </c>
       <c r="D64">
-        <v>148717.8397174021</v>
+        <v>138649.8864625929</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -4055,10 +4055,10 @@
         <v>67</v>
       </c>
       <c r="C66">
-        <v>13387.6255178079</v>
+        <v>19033.61537616921</v>
       </c>
       <c r="D66">
-        <v>115935.6255178078</v>
+        <v>121581.6153761691</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -4097,10 +4097,10 @@
         <v>70</v>
       </c>
       <c r="C69">
-        <v>3035.00534410523</v>
+        <v>0</v>
       </c>
       <c r="D69">
-        <v>88425.00534410523</v>
+        <v>85390</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -4125,10 +4125,10 @@
         <v>72</v>
       </c>
       <c r="C71">
-        <v>19779.35785050636</v>
+        <v>22132.84852260676</v>
       </c>
       <c r="D71">
-        <v>102796.3578505063</v>
+        <v>105149.8485226067</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -4153,10 +4153,10 @@
         <v>74</v>
       </c>
       <c r="C73">
-        <v>16.9960176882596</v>
+        <v>4625.350309021291</v>
       </c>
       <c r="D73">
-        <v>62326.99601768827</v>
+        <v>66935.35030902131</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -4167,10 +4167,10 @@
         <v>75</v>
       </c>
       <c r="C74">
-        <v>11885.72337715177</v>
+        <v>8996.76107779899</v>
       </c>
       <c r="D74">
-        <v>65689.72337715176</v>
+        <v>62800.76107779898</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -4181,10 +4181,10 @@
         <v>76</v>
       </c>
       <c r="C75">
-        <v>4826.076793583605</v>
+        <v>10753.44267512794</v>
       </c>
       <c r="D75">
-        <v>80094.07679358363</v>
+        <v>86021.44267512797</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -4209,10 +4209,10 @@
         <v>78</v>
       </c>
       <c r="C77">
-        <v>8133.459202662169</v>
+        <v>13541.1716452355</v>
       </c>
       <c r="D77">
-        <v>139193.4592026621</v>
+        <v>144601.1716452355</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -4251,10 +4251,10 @@
         <v>81</v>
       </c>
       <c r="C80">
-        <v>0</v>
+        <v>855.3449479909177</v>
       </c>
       <c r="D80">
-        <v>64391.00000000002</v>
+        <v>65246.34494799094</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -4265,10 +4265,10 @@
         <v>82</v>
       </c>
       <c r="C81">
-        <v>56.27924112620531</v>
+        <v>0</v>
       </c>
       <c r="D81">
-        <v>110526.2792411262</v>
+        <v>110470</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -4349,10 +4349,10 @@
         <v>88</v>
       </c>
       <c r="C87">
-        <v>20850.83843095964</v>
+        <v>19839.06863346446</v>
       </c>
       <c r="D87">
-        <v>85386.83843095966</v>
+        <v>84375.06863346449</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -4377,10 +4377,10 @@
         <v>90</v>
       </c>
       <c r="C89">
-        <v>16150.90863408483</v>
+        <v>18806.98899655009</v>
       </c>
       <c r="D89">
-        <v>66885.90863408486</v>
+        <v>69541.98899655012</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -4433,10 +4433,10 @@
         <v>94</v>
       </c>
       <c r="C93">
-        <v>20035.71390321235</v>
+        <v>23148.29708236251</v>
       </c>
       <c r="D93">
-        <v>145980.7139032123</v>
+        <v>149093.2970823624</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -4447,10 +4447,10 @@
         <v>95</v>
       </c>
       <c r="C94">
-        <v>696.7092166648508</v>
+        <v>3609.066620063662</v>
       </c>
       <c r="D94">
-        <v>99967.70921666478</v>
+        <v>102880.0666200636</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -4475,10 +4475,10 @@
         <v>97</v>
       </c>
       <c r="C96">
-        <v>18619.37623078808</v>
+        <v>22320.17845443895</v>
       </c>
       <c r="D96">
-        <v>84261.3762307881</v>
+        <v>87962.17845443897</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -4517,10 +4517,10 @@
         <v>100</v>
       </c>
       <c r="C99">
-        <v>11846.16009877373</v>
+        <v>29047.48537305738</v>
       </c>
       <c r="D99">
-        <v>132546.1600987738</v>
+        <v>149747.4853730575</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -4531,10 +4531,10 @@
         <v>101</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>5305.541883915954</v>
       </c>
       <c r="D100">
-        <v>145859.9999999999</v>
+        <v>151165.5418839159</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -4573,10 +4573,10 @@
         <v>104</v>
       </c>
       <c r="C103">
-        <v>0</v>
+        <v>3502.738314321425</v>
       </c>
       <c r="D103">
-        <v>67321.00000000004</v>
+        <v>70823.73831432147</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -4615,10 +4615,10 @@
         <v>107</v>
       </c>
       <c r="C106">
-        <v>42913.25236395774</v>
+        <v>37286.83708711194</v>
       </c>
       <c r="D106">
-        <v>140308.2523639578</v>
+        <v>134681.837087112</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -4629,10 +4629,10 @@
         <v>108</v>
       </c>
       <c r="C107">
-        <v>22865.68966957182</v>
+        <v>28661.10044117642</v>
       </c>
       <c r="D107">
-        <v>100362.6896695718</v>
+        <v>106158.1004411764</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -4685,10 +4685,10 @@
         <v>112</v>
       </c>
       <c r="C111">
-        <v>377.4594130055048</v>
+        <v>3795.876494482785</v>
       </c>
       <c r="D111">
-        <v>82175.45941300556</v>
+        <v>85593.87649448284</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -4783,10 +4783,10 @@
         <v>119</v>
       </c>
       <c r="C118">
-        <v>7148.415189859312</v>
+        <v>8174.16823058101</v>
       </c>
       <c r="D118">
-        <v>66108.41518985933</v>
+        <v>67134.16823058102</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -4881,10 +4881,10 @@
         <v>126</v>
       </c>
       <c r="C125">
-        <v>30182.35901606659</v>
+        <v>17899.52666505815</v>
       </c>
       <c r="D125">
-        <v>136234.3590160665</v>
+        <v>123951.5266650581</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -4909,10 +4909,10 @@
         <v>128</v>
       </c>
       <c r="C127">
-        <v>5001.058231841816</v>
+        <v>1203.379438786797</v>
       </c>
       <c r="D127">
-        <v>92725.05823184179</v>
+        <v>88927.37943878677</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -4965,10 +4965,10 @@
         <v>132</v>
       </c>
       <c r="C131">
-        <v>33810.95905874214</v>
+        <v>40021.42507075764</v>
       </c>
       <c r="D131">
-        <v>143075.9590587422</v>
+        <v>149286.4250707577</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -4993,10 +4993,10 @@
         <v>134</v>
       </c>
       <c r="C133">
-        <v>0</v>
+        <v>3281.538964215346</v>
       </c>
       <c r="D133">
-        <v>64010</v>
+        <v>67291.53896421535</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -5077,10 +5077,10 @@
         <v>140</v>
       </c>
       <c r="C139">
-        <v>24016.93856841809</v>
+        <v>28651.60521571877</v>
       </c>
       <c r="D139">
-        <v>150341.9385684181</v>
+        <v>154976.6052157188</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -5091,10 +5091,10 @@
         <v>141</v>
       </c>
       <c r="C140">
-        <v>28273.50102042736</v>
+        <v>31127.12479688128</v>
       </c>
       <c r="D140">
-        <v>153403.5010204274</v>
+        <v>156257.1247968813</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -5133,10 +5133,10 @@
         <v>144</v>
       </c>
       <c r="C143">
-        <v>4790.161518785571</v>
+        <v>2178.174419344206</v>
       </c>
       <c r="D143">
-        <v>68638.16151878554</v>
+        <v>66026.17441934417</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -5161,10 +5161,10 @@
         <v>146</v>
       </c>
       <c r="C145">
-        <v>48758.15991841801</v>
+        <v>56540.78394000229</v>
       </c>
       <c r="D145">
-        <v>148723.159918418</v>
+        <v>156505.7839400023</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -5175,10 +5175,10 @@
         <v>147</v>
       </c>
       <c r="C146">
-        <v>0</v>
+        <v>233.7255928189697</v>
       </c>
       <c r="D146">
-        <v>66458.99999999999</v>
+        <v>66692.72559281896</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -5189,10 +5189,10 @@
         <v>148</v>
       </c>
       <c r="C147">
-        <v>51462.16237749968</v>
+        <v>42367.3233456584</v>
       </c>
       <c r="D147">
-        <v>145677.1623774997</v>
+        <v>136582.3233456584</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -5217,10 +5217,10 @@
         <v>150</v>
       </c>
       <c r="C149">
-        <v>8585.196458031802</v>
+        <v>10156.69497044239</v>
       </c>
       <c r="D149">
-        <v>86951.19645803185</v>
+        <v>88522.69497044243</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -5259,10 +5259,10 @@
         <v>153</v>
       </c>
       <c r="C152">
-        <v>9320.92288713585</v>
+        <v>14708.08298926969</v>
       </c>
       <c r="D152">
-        <v>64054.92288713588</v>
+        <v>69442.08298926972</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -5455,10 +5455,10 @@
         <v>167</v>
       </c>
       <c r="C166">
-        <v>35382.69772155842</v>
+        <v>35425.1730733405</v>
       </c>
       <c r="D166">
-        <v>120694.6977215583</v>
+        <v>120737.1730733404</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -5539,10 +5539,10 @@
         <v>173</v>
       </c>
       <c r="C172">
-        <v>28942.06207996501</v>
+        <v>26223.5453317472</v>
       </c>
       <c r="D172">
-        <v>93652.06207996496</v>
+        <v>90933.54533174715</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -5581,10 +5581,10 @@
         <v>176</v>
       </c>
       <c r="C175">
-        <v>22448.35199770195</v>
+        <v>19024.35606412628</v>
       </c>
       <c r="D175">
-        <v>86584.35199770195</v>
+        <v>83160.35606412627</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -5609,10 +5609,10 @@
         <v>178</v>
       </c>
       <c r="C177">
-        <v>12530.46973954038</v>
+        <v>14836.96648107225</v>
       </c>
       <c r="D177">
-        <v>105540.4697395404</v>
+        <v>107846.9664810722</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -5637,10 +5637,10 @@
         <v>180</v>
       </c>
       <c r="C179">
-        <v>24952.79852722827</v>
+        <v>33447.65264033433</v>
       </c>
       <c r="D179">
-        <v>137262.7985272282</v>
+        <v>145757.6526403342</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -5651,10 +5651,10 @@
         <v>181</v>
       </c>
       <c r="C180">
-        <v>6955.434174210408</v>
+        <v>5147.063837595641</v>
       </c>
       <c r="D180">
-        <v>69934.43417421043</v>
+        <v>68126.06383759566</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -5665,10 +5665,10 @@
         <v>182</v>
       </c>
       <c r="C181">
-        <v>13543.69293144891</v>
+        <v>9628.559676636374</v>
       </c>
       <c r="D181">
-        <v>65210.69293144889</v>
+        <v>61295.55967663635</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -5735,10 +5735,10 @@
         <v>187</v>
       </c>
       <c r="C186">
-        <v>8820.931375789696</v>
+        <v>8583.494830617485</v>
       </c>
       <c r="D186">
-        <v>67510.93137578972</v>
+        <v>67273.49483061751</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -5777,10 +5777,10 @@
         <v>190</v>
       </c>
       <c r="C189">
-        <v>17272.88626462355</v>
+        <v>9176.316493581398</v>
       </c>
       <c r="D189">
-        <v>90138.88626462352</v>
+        <v>82042.31649358137</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -5791,10 +5791,10 @@
         <v>191</v>
       </c>
       <c r="C190">
-        <v>0</v>
+        <v>3156.661286982606</v>
       </c>
       <c r="D190">
-        <v>104476</v>
+        <v>107632.6612869826</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -5833,10 +5833,10 @@
         <v>194</v>
       </c>
       <c r="C193">
-        <v>11304.25319389542</v>
+        <v>11124.23548799979</v>
       </c>
       <c r="D193">
-        <v>122840.2531938954</v>
+        <v>122660.2354879998</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -5861,10 +5861,10 @@
         <v>196</v>
       </c>
       <c r="C195">
-        <v>19495.07219539952</v>
+        <v>19818.69543003445</v>
       </c>
       <c r="D195">
-        <v>152825.0721953995</v>
+        <v>153148.6954300344</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -5903,10 +5903,10 @@
         <v>199</v>
       </c>
       <c r="C198">
-        <v>23346.21792789986</v>
+        <v>27105.50834315706</v>
       </c>
       <c r="D198">
-        <v>88398.21792789987</v>
+        <v>92157.50834315707</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -6015,10 +6015,10 @@
         <v>207</v>
       </c>
       <c r="C206">
-        <v>30640.69257231698</v>
+        <v>27633.68273623387</v>
       </c>
       <c r="D206">
-        <v>126828.6925723169</v>
+        <v>123821.6827362338</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -6029,10 +6029,10 @@
         <v>208</v>
       </c>
       <c r="C207">
-        <v>17703.76466430687</v>
+        <v>20057.27883756867</v>
       </c>
       <c r="D207">
-        <v>82637.76466430683</v>
+        <v>84991.27883756862</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -6057,10 +6057,10 @@
         <v>210</v>
       </c>
       <c r="C209">
-        <v>5467.779852508087</v>
+        <v>4642.388871241579</v>
       </c>
       <c r="D209">
-        <v>88159.77985250812</v>
+        <v>87334.38887124161</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -6085,10 +6085,10 @@
         <v>212</v>
       </c>
       <c r="C211">
-        <v>0</v>
+        <v>2795.668923131161</v>
       </c>
       <c r="D211">
-        <v>152120.0000000001</v>
+        <v>154915.6689231312</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -6099,10 +6099,10 @@
         <v>213</v>
       </c>
       <c r="C212">
-        <v>110.7481431476481</v>
+        <v>10046.48469738557</v>
       </c>
       <c r="D212">
-        <v>138275.7481431477</v>
+        <v>148211.4846973856</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -6169,10 +6169,10 @@
         <v>218</v>
       </c>
       <c r="C217">
-        <v>27486.10756319306</v>
+        <v>36619.53451869462</v>
       </c>
       <c r="D217">
-        <v>124854.1075631931</v>
+        <v>133987.5345186947</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -6183,10 +6183,10 @@
         <v>219</v>
       </c>
       <c r="C218">
-        <v>21332.34770092079</v>
+        <v>19419.57456708631</v>
       </c>
       <c r="D218">
-        <v>120628.3477009208</v>
+        <v>118715.5745670863</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -6225,10 +6225,10 @@
         <v>222</v>
       </c>
       <c r="C221">
-        <v>10476.7048348909</v>
+        <v>13999.05393386265</v>
       </c>
       <c r="D221">
-        <v>61443.70483489092</v>
+        <v>64966.05393386268</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -6239,10 +6239,10 @@
         <v>223</v>
       </c>
       <c r="C222">
-        <v>6496.380838026293</v>
+        <v>7384.197385406864</v>
       </c>
       <c r="D222">
-        <v>92260.38083802625</v>
+        <v>93148.19738540682</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -6253,10 +6253,10 @@
         <v>224</v>
       </c>
       <c r="C223">
-        <v>19063.81745245466</v>
+        <v>24289.55376948736</v>
       </c>
       <c r="D223">
-        <v>120219.8174524547</v>
+        <v>125445.5537694874</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -6267,10 +6267,10 @@
         <v>225</v>
       </c>
       <c r="C224">
-        <v>11018.45729678776</v>
+        <v>16765.18071124116</v>
       </c>
       <c r="D224">
-        <v>103464.4572967877</v>
+        <v>109211.1807112411</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -6351,10 +6351,10 @@
         <v>231</v>
       </c>
       <c r="C230">
-        <v>17011.8567847071</v>
+        <v>20081.22174454412</v>
       </c>
       <c r="D230">
-        <v>85649.85678470707</v>
+        <v>88719.22174454409</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -6365,10 +6365,10 @@
         <v>232</v>
       </c>
       <c r="C231">
-        <v>16884.38585639217</v>
+        <v>20986.22401501059</v>
       </c>
       <c r="D231">
-        <v>132189.3858563922</v>
+        <v>136291.2240150107</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -6407,10 +6407,10 @@
         <v>235</v>
       </c>
       <c r="C234">
-        <v>131.5296145229077</v>
+        <v>474.005114644955</v>
       </c>
       <c r="D234">
-        <v>84821.52961452288</v>
+        <v>85164.00511464493</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -6421,10 +6421,10 @@
         <v>236</v>
       </c>
       <c r="C235">
-        <v>9456.311965524706</v>
+        <v>9057.040208085462</v>
       </c>
       <c r="D235">
-        <v>64381.31196552474</v>
+        <v>63982.0402080855</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -6435,10 +6435,10 @@
         <v>237</v>
       </c>
       <c r="C236">
-        <v>10074.62705791063</v>
+        <v>11398.3433591174</v>
       </c>
       <c r="D236">
-        <v>115882.6270579106</v>
+        <v>117206.3433591174</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -6519,10 +6519,10 @@
         <v>243</v>
       </c>
       <c r="C242">
-        <v>7595.381048675561</v>
+        <v>7322.846412374965</v>
       </c>
       <c r="D242">
-        <v>63900.38104867558</v>
+        <v>63627.84641237499</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -6533,10 +6533,10 @@
         <v>244</v>
       </c>
       <c r="C243">
-        <v>12689.09208747</v>
+        <v>13359.97132493555</v>
       </c>
       <c r="D243">
-        <v>70322.09208746998</v>
+        <v>70992.97132493553</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -6561,10 +6561,10 @@
         <v>246</v>
       </c>
       <c r="C245">
-        <v>18157.61925900172</v>
+        <v>20125.58564969446</v>
       </c>
       <c r="D245">
-        <v>97871.61925900176</v>
+        <v>99839.58564969451</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -6589,10 +6589,10 @@
         <v>248</v>
       </c>
       <c r="C247">
-        <v>841.0144325268193</v>
+        <v>1753.876914973283</v>
       </c>
       <c r="D247">
-        <v>124445.0144325268</v>
+        <v>125357.8769149733</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -6617,10 +6617,10 @@
         <v>250</v>
       </c>
       <c r="C249">
-        <v>30686.72522252818</v>
+        <v>43937.50635071417</v>
       </c>
       <c r="D249">
-        <v>118926.7252225283</v>
+        <v>132177.5063507142</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -6701,10 +6701,10 @@
         <v>256</v>
       </c>
       <c r="C255">
-        <v>709.2440838108159</v>
+        <v>249.8577854285249</v>
       </c>
       <c r="D255">
-        <v>67962.24408381087</v>
+        <v>67502.85778542858</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -6715,10 +6715,10 @@
         <v>257</v>
       </c>
       <c r="C256">
-        <v>26094.8283935412</v>
+        <v>29094.89117312191</v>
       </c>
       <c r="D256">
-        <v>89766.82839354125</v>
+        <v>92766.89117312196</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -6757,10 +6757,10 @@
         <v>260</v>
       </c>
       <c r="C259">
-        <v>19932.83354943024</v>
+        <v>17607.73973115488</v>
       </c>
       <c r="D259">
-        <v>96319.8335494302</v>
+        <v>93994.73973115484</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -6799,10 +6799,10 @@
         <v>263</v>
       </c>
       <c r="C262">
-        <v>0</v>
+        <v>1958.248379819022</v>
       </c>
       <c r="D262">
-        <v>67105.00000000003</v>
+        <v>69063.24837981905</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -6813,10 +6813,10 @@
         <v>264</v>
       </c>
       <c r="C263">
-        <v>3848.032392861787</v>
+        <v>0</v>
       </c>
       <c r="D263">
-        <v>83006.03239286177</v>
+        <v>79157.99999999999</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -6869,10 +6869,10 @@
         <v>268</v>
       </c>
       <c r="C267">
-        <v>9530.338588318264</v>
+        <v>16150.09965635781</v>
       </c>
       <c r="D267">
-        <v>145380.3385883182</v>
+        <v>152000.0996563578</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -6883,10 +6883,10 @@
         <v>269</v>
       </c>
       <c r="C268">
-        <v>8930.714499027548</v>
+        <v>6235.932435423958</v>
       </c>
       <c r="D268">
-        <v>70479.71449902758</v>
+        <v>67784.93243542399</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -6897,10 +6897,10 @@
         <v>270</v>
       </c>
       <c r="C269">
-        <v>1789.596313182308</v>
+        <v>0</v>
       </c>
       <c r="D269">
-        <v>68387.59631318231</v>
+        <v>66598</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -6967,10 +6967,10 @@
         <v>275</v>
       </c>
       <c r="C274">
-        <v>16836.13791940728</v>
+        <v>36275.36777614288</v>
       </c>
       <c r="D274">
-        <v>129661.1379194073</v>
+        <v>149100.3677761429</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -7009,10 +7009,10 @@
         <v>278</v>
       </c>
       <c r="C277">
-        <v>0</v>
+        <v>549.8249333002459</v>
       </c>
       <c r="D277">
-        <v>115750</v>
+        <v>116299.8249333002</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -7023,10 +7023,10 @@
         <v>279</v>
       </c>
       <c r="C278">
-        <v>20997.26309480112</v>
+        <v>19106.22660178805</v>
       </c>
       <c r="D278">
-        <v>98479.26309480108</v>
+        <v>96588.226601788</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -7051,10 +7051,10 @@
         <v>281</v>
       </c>
       <c r="C280">
-        <v>4653.645368283687</v>
+        <v>980.4171177991375</v>
       </c>
       <c r="D280">
-        <v>98805.64536828375</v>
+        <v>95132.4171177992</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -7093,10 +7093,10 @@
         <v>284</v>
       </c>
       <c r="C283">
-        <v>4081.824842094327</v>
+        <v>13214.64566617533</v>
       </c>
       <c r="D283">
-        <v>61629.82484209428</v>
+        <v>70762.64566617527</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -7107,10 +7107,10 @@
         <v>285</v>
       </c>
       <c r="C284">
-        <v>1525.112730366105</v>
+        <v>2949.303379480873</v>
       </c>
       <c r="D284">
-        <v>85663.11273036609</v>
+        <v>87087.30337948086</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -7149,10 +7149,10 @@
         <v>288</v>
       </c>
       <c r="C287">
-        <v>7473.185564320476</v>
+        <v>7916.703005510426</v>
       </c>
       <c r="D287">
-        <v>86747.18556432043</v>
+        <v>87190.70300551038</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -7163,10 +7163,10 @@
         <v>289</v>
       </c>
       <c r="C288">
-        <v>25323.96221160791</v>
+        <v>27111.00082808918</v>
       </c>
       <c r="D288">
-        <v>122191.9622116079</v>
+        <v>123979.0008280891</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -7191,10 +7191,10 @@
         <v>291</v>
       </c>
       <c r="C290">
-        <v>12343.33774487683</v>
+        <v>16797.85193018972</v>
       </c>
       <c r="D290">
-        <v>119235.3377448769</v>
+        <v>123689.8519301898</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -7233,10 +7233,10 @@
         <v>294</v>
       </c>
       <c r="C293">
-        <v>26458.8169230171</v>
+        <v>12451.3382123515</v>
       </c>
       <c r="D293">
-        <v>155128.8169230171</v>
+        <v>141121.3382123515</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -7261,10 +7261,10 @@
         <v>296</v>
       </c>
       <c r="C295">
-        <v>14756.04581255501</v>
+        <v>15357.56381626157</v>
       </c>
       <c r="D295">
-        <v>66312.04581255504</v>
+        <v>66913.56381626159</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -7303,10 +7303,10 @@
         <v>299</v>
       </c>
       <c r="C298">
-        <v>28906.77706121665</v>
+        <v>27094.05201417749</v>
       </c>
       <c r="D298">
-        <v>117394.7770612167</v>
+        <v>115582.0520141775</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -7345,10 +7345,10 @@
         <v>302</v>
       </c>
       <c r="C301">
-        <v>17502.2716135526</v>
+        <v>20959.49256879733</v>
       </c>
       <c r="D301">
-        <v>97657.27161355256</v>
+        <v>101114.4925687973</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -7373,10 +7373,10 @@
         <v>304</v>
       </c>
       <c r="C303">
-        <v>13427.4705046289</v>
+        <v>11093.88026440621</v>
       </c>
       <c r="D303">
-        <v>95637.47050462886</v>
+        <v>93303.88026440617</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -7401,10 +7401,10 @@
         <v>306</v>
       </c>
       <c r="C305">
-        <v>3841.90782913845</v>
+        <v>8113.865490461307</v>
       </c>
       <c r="D305">
-        <v>66274.90782913841</v>
+        <v>70546.86549046126</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -7443,10 +7443,10 @@
         <v>309</v>
       </c>
       <c r="C308">
-        <v>36952.02068672943</v>
+        <v>26628.46429849394</v>
       </c>
       <c r="D308">
-        <v>121128.0206867294</v>
+        <v>110804.4642984939</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -7471,10 +7471,10 @@
         <v>311</v>
       </c>
       <c r="C310">
-        <v>8848.140359161116</v>
+        <v>8980.088093365339</v>
       </c>
       <c r="D310">
-        <v>65573.14035916116</v>
+        <v>65705.08809336538</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -7485,10 +7485,10 @@
         <v>312</v>
       </c>
       <c r="C311">
-        <v>14258.15824782221</v>
+        <v>14170.98138929725</v>
       </c>
       <c r="D311">
-        <v>66656.15824782217</v>
+        <v>66568.9813892972</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -7513,10 +7513,10 @@
         <v>314</v>
       </c>
       <c r="C313">
-        <v>23298.50850847554</v>
+        <v>32725.76116601359</v>
       </c>
       <c r="D313">
-        <v>141753.5085084756</v>
+        <v>151180.7611660136</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -7527,10 +7527,10 @@
         <v>315</v>
       </c>
       <c r="C314">
-        <v>6941.747486002067</v>
+        <v>7425.05472975572</v>
       </c>
       <c r="D314">
-        <v>63880.74748600208</v>
+        <v>64364.05472975574</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -7653,10 +7653,10 @@
         <v>324</v>
       </c>
       <c r="C323">
-        <v>0</v>
+        <v>4795.321793067633</v>
       </c>
       <c r="D323">
-        <v>61013.00000000003</v>
+        <v>65808.32179306766</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -7667,10 +7667,10 @@
         <v>325</v>
       </c>
       <c r="C324">
-        <v>2779.483412055211</v>
+        <v>5297.759258476188</v>
       </c>
       <c r="D324">
-        <v>85975.48341205514</v>
+        <v>88493.75925847612</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -7723,10 +7723,10 @@
         <v>329</v>
       </c>
       <c r="C328">
-        <v>18833.80161979031</v>
+        <v>18897.26382295202</v>
       </c>
       <c r="D328">
-        <v>101925.8016197902</v>
+        <v>101989.263822952</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -7751,10 +7751,10 @@
         <v>331</v>
       </c>
       <c r="C330">
-        <v>19430.36400910984</v>
+        <v>18339.5157605445</v>
       </c>
       <c r="D330">
-        <v>83536.36400910982</v>
+        <v>82445.51576054448</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -7779,10 +7779,10 @@
         <v>333</v>
       </c>
       <c r="C332">
-        <v>13116.18696080784</v>
+        <v>2678.730419106985</v>
       </c>
       <c r="D332">
-        <v>108388.1869608078</v>
+        <v>97950.73041910691</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -7891,10 +7891,10 @@
         <v>341</v>
       </c>
       <c r="C340">
-        <v>28938.82821706989</v>
+        <v>23870.72558559866</v>
       </c>
       <c r="D340">
-        <v>126054.8282170699</v>
+        <v>120986.7255855987</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -7905,10 +7905,10 @@
         <v>342</v>
       </c>
       <c r="C341">
-        <v>13848.2870278101</v>
+        <v>10748.88118804109</v>
       </c>
       <c r="D341">
-        <v>92670.28702781013</v>
+        <v>89570.88118804112</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -7933,10 +7933,10 @@
         <v>344</v>
       </c>
       <c r="C343">
-        <v>6677.819976882507</v>
+        <v>0</v>
       </c>
       <c r="D343">
-        <v>69225.8199768825</v>
+        <v>62547.99999999999</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -7989,10 +7989,10 @@
         <v>348</v>
       </c>
       <c r="C347">
-        <v>17003.46695602809</v>
+        <v>7398.087987583116</v>
       </c>
       <c r="D347">
-        <v>141163.4669560281</v>
+        <v>131558.0879875831</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -8073,10 +8073,10 @@
         <v>354</v>
       </c>
       <c r="C353">
-        <v>0</v>
+        <v>1156.20319900765</v>
       </c>
       <c r="D353">
-        <v>108268</v>
+        <v>109424.2031990077</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -8143,10 +8143,10 @@
         <v>359</v>
       </c>
       <c r="C358">
-        <v>16514.16994671669</v>
+        <v>19239.70823737636</v>
       </c>
       <c r="D358">
-        <v>150389.1699467166</v>
+        <v>153114.7082373763</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -8227,10 +8227,10 @@
         <v>365</v>
       </c>
       <c r="C364">
-        <v>11166.01763461887</v>
+        <v>13496.99300994589</v>
       </c>
       <c r="D364">
-        <v>102316.0176346189</v>
+        <v>104646.9930099459</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -8269,10 +8269,10 @@
         <v>368</v>
       </c>
       <c r="C367">
-        <v>14800.08929169537</v>
+        <v>16168.51692336691</v>
       </c>
       <c r="D367">
-        <v>104945.0892916954</v>
+        <v>106313.516923367</v>
       </c>
     </row>
     <row r="368" spans="1:4">
@@ -8325,10 +8325,10 @@
         <v>372</v>
       </c>
       <c r="C371">
-        <v>36514.84165784641</v>
+        <v>28755.56420576377</v>
       </c>
       <c r="D371">
-        <v>153489.8416578464</v>
+        <v>145730.5642057638</v>
       </c>
     </row>
     <row r="372" spans="1:4">
@@ -8339,10 +8339,10 @@
         <v>373</v>
       </c>
       <c r="C372">
-        <v>10950.14781992725</v>
+        <v>9591.125134155329</v>
       </c>
       <c r="D372">
-        <v>142675.1478199273</v>
+        <v>141316.1251341553</v>
       </c>
     </row>
     <row r="373" spans="1:4">
@@ -8395,10 +8395,10 @@
         <v>377</v>
       </c>
       <c r="C376">
-        <v>13401.8967214172</v>
+        <v>9370.926240777451</v>
       </c>
       <c r="D376">
-        <v>121365.8967214172</v>
+        <v>117334.9262407774</v>
       </c>
     </row>
     <row r="377" spans="1:4">
@@ -8437,10 +8437,10 @@
         <v>380</v>
       </c>
       <c r="C379">
-        <v>4713.841486233068</v>
+        <v>6116.050618353402</v>
       </c>
       <c r="D379">
-        <v>102427.8414862331</v>
+        <v>103830.0506183534</v>
       </c>
     </row>
     <row r="380" spans="1:4">
@@ -8521,10 +8521,10 @@
         <v>386</v>
       </c>
       <c r="C385">
-        <v>19436.5648273036</v>
+        <v>23222.17732567083</v>
       </c>
       <c r="D385">
-        <v>84448.56482730362</v>
+        <v>88234.17732567085</v>
       </c>
     </row>
     <row r="386" spans="1:4">
@@ -8633,10 +8633,10 @@
         <v>394</v>
       </c>
       <c r="C393">
-        <v>17664.30514195534</v>
+        <v>17944.86952493576</v>
       </c>
       <c r="D393">
-        <v>105838.3051419554</v>
+        <v>106118.8695249358</v>
       </c>
     </row>
     <row r="394" spans="1:4">
@@ -8689,10 +8689,10 @@
         <v>398</v>
       </c>
       <c r="C397">
-        <v>25642.70263253653</v>
+        <v>25271.17291161866</v>
       </c>
       <c r="D397">
-        <v>96911.70263253647</v>
+        <v>96540.1729116186</v>
       </c>
     </row>
     <row r="398" spans="1:4">
@@ -8717,10 +8717,10 @@
         <v>400</v>
       </c>
       <c r="C399">
-        <v>1836.820258169799</v>
+        <v>3175.858978060423</v>
       </c>
       <c r="D399">
-        <v>65943.82025816983</v>
+        <v>67282.85897806045</v>
       </c>
     </row>
     <row r="400" spans="1:4">
@@ -8745,10 +8745,10 @@
         <v>402</v>
       </c>
       <c r="C401">
-        <v>26272.02606786962</v>
+        <v>33617.94120541164</v>
       </c>
       <c r="D401">
-        <v>112776.0260678697</v>
+        <v>120121.9412054117</v>
       </c>
     </row>
     <row r="402" spans="1:4">
@@ -8801,10 +8801,10 @@
         <v>406</v>
       </c>
       <c r="C405">
-        <v>26370.8972149738</v>
+        <v>24811.40554106366</v>
       </c>
       <c r="D405">
-        <v>86910.89721497381</v>
+        <v>85351.40554106368</v>
       </c>
     </row>
     <row r="406" spans="1:4">
@@ -8829,10 +8829,10 @@
         <v>408</v>
       </c>
       <c r="C407">
-        <v>6772.7194573858</v>
+        <v>4959.764114768303</v>
       </c>
       <c r="D407">
-        <v>107969.7194573857</v>
+        <v>106156.7641147682</v>
       </c>
     </row>
     <row r="408" spans="1:4">
@@ -8857,10 +8857,10 @@
         <v>410</v>
       </c>
       <c r="C409">
-        <v>42747.45519228841</v>
+        <v>38241.02965787213</v>
       </c>
       <c r="D409">
-        <v>140422.4551922884</v>
+        <v>135916.0296578722</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -8927,10 +8927,10 @@
         <v>415</v>
       </c>
       <c r="C414">
-        <v>31033.72230152544</v>
+        <v>38717.51781492482</v>
       </c>
       <c r="D414">
-        <v>117581.7223015255</v>
+        <v>125265.5178149248</v>
       </c>
     </row>
     <row r="415" spans="1:4">
@@ -9025,10 +9025,10 @@
         <v>422</v>
       </c>
       <c r="C421">
-        <v>32348.6553975092</v>
+        <v>20777.32045999639</v>
       </c>
       <c r="D421">
-        <v>110271.6553975093</v>
+        <v>98700.32045999647</v>
       </c>
     </row>
     <row r="422" spans="1:4">
@@ -9095,10 +9095,10 @@
         <v>427</v>
       </c>
       <c r="C426">
-        <v>61813.75461659516</v>
+        <v>45257.09427481241</v>
       </c>
       <c r="D426">
-        <v>157388.7546165951</v>
+        <v>140832.0942748123</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -9137,10 +9137,10 @@
         <v>430</v>
       </c>
       <c r="C429">
-        <v>5458.89425441451</v>
+        <v>9436.701330245371</v>
       </c>
       <c r="D429">
-        <v>81978.89425441452</v>
+        <v>85956.70133024539</v>
       </c>
     </row>
     <row r="430" spans="1:4">
@@ -9277,10 +9277,10 @@
         <v>440</v>
       </c>
       <c r="C439">
-        <v>25083.51556853305</v>
+        <v>31738.90075292764</v>
       </c>
       <c r="D439">
-        <v>121627.515568533</v>
+        <v>128282.9007529276</v>
       </c>
     </row>
     <row r="440" spans="1:4">
@@ -9347,10 +9347,10 @@
         <v>445</v>
       </c>
       <c r="C444">
-        <v>973.0153656341427</v>
+        <v>520.3500907972048</v>
       </c>
       <c r="D444">
-        <v>67282.01536563411</v>
+        <v>66829.35009079718</v>
       </c>
     </row>
     <row r="445" spans="1:4">
@@ -9417,10 +9417,10 @@
         <v>450</v>
       </c>
       <c r="C449">
-        <v>10750.35445174178</v>
+        <v>9869.764873145403</v>
       </c>
       <c r="D449">
-        <v>65520.35445174178</v>
+        <v>64639.76487314541</v>
       </c>
     </row>
     <row r="450" spans="1:4">
@@ -9473,10 +9473,10 @@
         <v>454</v>
       </c>
       <c r="C453">
-        <v>4396.94972976447</v>
+        <v>2891.752072320844</v>
       </c>
       <c r="D453">
-        <v>88490.9497297644</v>
+        <v>86985.75207232077</v>
       </c>
     </row>
     <row r="454" spans="1:4">
@@ -9487,10 +9487,10 @@
         <v>455</v>
       </c>
       <c r="C454">
-        <v>19356.48081140901</v>
+        <v>24275.01763778771</v>
       </c>
       <c r="D454">
-        <v>100960.480811409</v>
+        <v>105879.0176377877</v>
       </c>
     </row>
     <row r="455" spans="1:4">
@@ -9501,10 +9501,10 @@
         <v>456</v>
       </c>
       <c r="C455">
-        <v>22439.43818285226</v>
+        <v>14528.5610055072</v>
       </c>
       <c r="D455">
-        <v>107745.4381828523</v>
+        <v>99834.56100550726</v>
       </c>
     </row>
     <row r="456" spans="1:4">
@@ -9529,10 +9529,10 @@
         <v>458</v>
       </c>
       <c r="C457">
-        <v>30623.79311083854</v>
+        <v>34605.2185573751</v>
       </c>
       <c r="D457">
-        <v>120143.7931108386</v>
+        <v>124125.2185573751</v>
       </c>
     </row>
     <row r="458" spans="1:4">
@@ -9557,10 +9557,10 @@
         <v>460</v>
       </c>
       <c r="C459">
-        <v>39689.58656979517</v>
+        <v>41764.84421366671</v>
       </c>
       <c r="D459">
-        <v>120081.5865697951</v>
+        <v>122156.8442136667</v>
       </c>
     </row>
     <row r="460" spans="1:4">
@@ -9627,10 +9627,10 @@
         <v>465</v>
       </c>
       <c r="C464">
-        <v>34987.26649160372</v>
+        <v>28476.92530125659</v>
       </c>
       <c r="D464">
-        <v>152422.2664916038</v>
+        <v>145911.9253012567</v>
       </c>
     </row>
     <row r="465" spans="1:4">
@@ -9641,10 +9641,10 @@
         <v>466</v>
       </c>
       <c r="C465">
-        <v>21835.76824833058</v>
+        <v>24487.96754103378</v>
       </c>
       <c r="D465">
-        <v>100175.7682483306</v>
+        <v>102827.9675410338</v>
       </c>
     </row>
     <row r="466" spans="1:4">
@@ -9809,10 +9809,10 @@
         <v>478</v>
       </c>
       <c r="C477">
-        <v>16023.60737025898</v>
+        <v>16769.88030219851</v>
       </c>
       <c r="D477">
-        <v>82343.60737025902</v>
+        <v>83089.88030219855</v>
       </c>
     </row>
     <row r="478" spans="1:4">
@@ -9907,10 +9907,10 @@
         <v>485</v>
       </c>
       <c r="C484">
-        <v>8821.261981553034</v>
+        <v>6872.513477285</v>
       </c>
       <c r="D484">
-        <v>63576.26198155306</v>
+        <v>61627.51347728502</v>
       </c>
     </row>
     <row r="485" spans="1:4">
@@ -9949,10 +9949,10 @@
         <v>488</v>
       </c>
       <c r="C487">
-        <v>44259.72054339517</v>
+        <v>41145.38171500785</v>
       </c>
       <c r="D487">
-        <v>138254.7205433952</v>
+        <v>135140.3817150079</v>
       </c>
     </row>
     <row r="488" spans="1:4">
@@ -9977,10 +9977,10 @@
         <v>490</v>
       </c>
       <c r="C489">
-        <v>30600.13947272825</v>
+        <v>34028.53050500092</v>
       </c>
       <c r="D489">
-        <v>117364.1394727282</v>
+        <v>120792.5305050009</v>
       </c>
     </row>
     <row r="490" spans="1:4">
@@ -10005,10 +10005,10 @@
         <v>492</v>
       </c>
       <c r="C491">
-        <v>27291.97148319381</v>
+        <v>22054.93044253097</v>
       </c>
       <c r="D491">
-        <v>92481.97148319383</v>
+        <v>87244.930442531</v>
       </c>
     </row>
     <row r="492" spans="1:4">
@@ -10033,10 +10033,10 @@
         <v>494</v>
       </c>
       <c r="C493">
-        <v>9300.1248536731</v>
+        <v>10716.62960936784</v>
       </c>
       <c r="D493">
-        <v>82402.12485367307</v>
+        <v>83818.62960936781</v>
       </c>
     </row>
     <row r="494" spans="1:4">
@@ -10061,10 +10061,10 @@
         <v>496</v>
       </c>
       <c r="C495">
-        <v>694.1740598754986</v>
+        <v>5333.791191850542</v>
       </c>
       <c r="D495">
-        <v>99083.17405987547</v>
+        <v>103722.7911918505</v>
       </c>
     </row>
     <row r="496" spans="1:4">
@@ -10243,10 +10243,10 @@
         <v>509</v>
       </c>
       <c r="C508">
-        <v>9348.924361531856</v>
+        <v>11151.0724256988</v>
       </c>
       <c r="D508">
-        <v>84954.92436153184</v>
+        <v>86757.07242569879</v>
       </c>
     </row>
     <row r="509" spans="1:4">
@@ -10257,10 +10257,10 @@
         <v>510</v>
       </c>
       <c r="C509">
-        <v>13599.11348829562</v>
+        <v>14378.12015826583</v>
       </c>
       <c r="D509">
-        <v>65350.11348829564</v>
+        <v>66129.12015826585</v>
       </c>
     </row>
     <row r="510" spans="1:4">
@@ -10383,10 +10383,10 @@
         <v>519</v>
       </c>
       <c r="C518">
-        <v>29789.77742015308</v>
+        <v>36835.54704733897</v>
       </c>
       <c r="D518">
-        <v>142249.7774201531</v>
+        <v>149295.547047339</v>
       </c>
     </row>
     <row r="519" spans="1:4">
@@ -10453,10 +10453,10 @@
         <v>524</v>
       </c>
       <c r="C523">
-        <v>7223.095435463445</v>
+        <v>17553.93998258308</v>
       </c>
       <c r="D523">
-        <v>79929.0954354635</v>
+        <v>90259.93998258314</v>
       </c>
     </row>
     <row r="524" spans="1:4">
@@ -10481,10 +10481,10 @@
         <v>526</v>
       </c>
       <c r="C525">
-        <v>16804.88439591708</v>
+        <v>16048.11186244627</v>
       </c>
       <c r="D525">
-        <v>89726.88439591714</v>
+        <v>88970.11186244633</v>
       </c>
     </row>
     <row r="526" spans="1:4">
@@ -10579,10 +10579,10 @@
         <v>533</v>
       </c>
       <c r="C532">
-        <v>4396.567287250698</v>
+        <v>189.7706110449944</v>
       </c>
       <c r="D532">
-        <v>91092.56728725074</v>
+        <v>86885.77061104504</v>
       </c>
     </row>
     <row r="533" spans="1:4">
@@ -10649,10 +10649,10 @@
         <v>538</v>
       </c>
       <c r="C537">
-        <v>10079.30327640176</v>
+        <v>13952.5073944288</v>
       </c>
       <c r="D537">
-        <v>63028.30327640173</v>
+        <v>66901.50739442877</v>
       </c>
     </row>
     <row r="538" spans="1:4">
@@ -10663,10 +10663,10 @@
         <v>539</v>
       </c>
       <c r="C538">
-        <v>38665.74073873767</v>
+        <v>28107.5601289269</v>
       </c>
       <c r="D538">
-        <v>152420.7407387377</v>
+        <v>141862.5601289269</v>
       </c>
     </row>
     <row r="539" spans="1:4">
@@ -10677,10 +10677,10 @@
         <v>540</v>
       </c>
       <c r="C539">
-        <v>9614.829264932225</v>
+        <v>16776.73611394678</v>
       </c>
       <c r="D539">
-        <v>81842.82926493217</v>
+        <v>89004.73611394672</v>
       </c>
     </row>
     <row r="540" spans="1:4">
@@ -10705,10 +10705,10 @@
         <v>542</v>
       </c>
       <c r="C541">
-        <v>23749.83907898652</v>
+        <v>19381.61610379901</v>
       </c>
       <c r="D541">
-        <v>121009.8390789865</v>
+        <v>116641.616103799</v>
       </c>
     </row>
     <row r="542" spans="1:4">
@@ -10789,10 +10789,10 @@
         <v>548</v>
       </c>
       <c r="C547">
-        <v>1726.292165236751</v>
+        <v>3434.09453785044</v>
       </c>
       <c r="D547">
-        <v>150136.2921652366</v>
+        <v>151844.0945378503</v>
       </c>
     </row>
     <row r="548" spans="1:4">
@@ -10817,10 +10817,10 @@
         <v>550</v>
       </c>
       <c r="C549">
-        <v>13851.59341759895</v>
+        <v>15338.90644864054</v>
       </c>
       <c r="D549">
-        <v>122087.593417599</v>
+        <v>123574.9064486406</v>
       </c>
     </row>
     <row r="550" spans="1:4">
@@ -10845,10 +10845,10 @@
         <v>552</v>
       </c>
       <c r="C551">
-        <v>14074.73272528162</v>
+        <v>11662.02066660144</v>
       </c>
       <c r="D551">
-        <v>66764.73272528157</v>
+        <v>64352.0206666014</v>
       </c>
     </row>
     <row r="552" spans="1:4">
@@ -10943,10 +10943,10 @@
         <v>559</v>
       </c>
       <c r="C558">
-        <v>19654.61423115263</v>
+        <v>12871.68906917456</v>
       </c>
       <c r="D558">
-        <v>113579.6142311526</v>
+        <v>106796.6890691746</v>
       </c>
     </row>
     <row r="559" spans="1:4">
@@ -11055,10 +11055,10 @@
         <v>567</v>
       </c>
       <c r="C566">
-        <v>21955.02333158189</v>
+        <v>20195.69452209875</v>
       </c>
       <c r="D566">
-        <v>97130.02333158185</v>
+        <v>95370.69452209871</v>
       </c>
     </row>
     <row r="567" spans="1:4">
@@ -11083,10 +11083,10 @@
         <v>569</v>
       </c>
       <c r="C568">
-        <v>4515.849395463709</v>
+        <v>14535.69804367272</v>
       </c>
       <c r="D568">
-        <v>139950.8493954638</v>
+        <v>149970.6980436728</v>
       </c>
     </row>
     <row r="569" spans="1:4">
@@ -11125,10 +11125,10 @@
         <v>572</v>
       </c>
       <c r="C571">
-        <v>7709.075290706205</v>
+        <v>3167.839503996147</v>
       </c>
       <c r="D571">
-        <v>65720.07529070621</v>
+        <v>61178.83950399615</v>
       </c>
     </row>
     <row r="572" spans="1:4">
@@ -11153,10 +11153,10 @@
         <v>574</v>
       </c>
       <c r="C573">
-        <v>9574.660340254646</v>
+        <v>8338.631104133594</v>
       </c>
       <c r="D573">
-        <v>66421.6603402546</v>
+        <v>65185.63110413355</v>
       </c>
     </row>
     <row r="574" spans="1:4">
@@ -11167,10 +11167,10 @@
         <v>575</v>
       </c>
       <c r="C574">
-        <v>42214.22959770112</v>
+        <v>47451.35994836877</v>
       </c>
       <c r="D574">
-        <v>123126.2295977012</v>
+        <v>128363.3599483688</v>
       </c>
     </row>
     <row r="575" spans="1:4">
@@ -11391,10 +11391,10 @@
         <v>591</v>
       </c>
       <c r="C590">
-        <v>52636.92359559338</v>
+        <v>41292.48324162462</v>
       </c>
       <c r="D590">
-        <v>147406.9235955935</v>
+        <v>136062.4832416247</v>
       </c>
     </row>
     <row r="591" spans="1:4">
@@ -11447,10 +11447,10 @@
         <v>595</v>
       </c>
       <c r="C594">
-        <v>20736.6220065821</v>
+        <v>24210.45162205113</v>
       </c>
       <c r="D594">
-        <v>150616.6220065822</v>
+        <v>154090.4516220512</v>
       </c>
     </row>
     <row r="595" spans="1:4">
@@ -11475,10 +11475,10 @@
         <v>597</v>
       </c>
       <c r="C596">
-        <v>11528.70489984316</v>
+        <v>8064.076135777381</v>
       </c>
       <c r="D596">
-        <v>70059.70489984316</v>
+        <v>66595.07613577737</v>
       </c>
     </row>
     <row r="597" spans="1:4">
@@ -11531,10 +11531,10 @@
         <v>601</v>
       </c>
       <c r="C600">
-        <v>123.9533211262242</v>
+        <v>3461.79550201814</v>
       </c>
       <c r="D600">
-        <v>63548.95332112617</v>
+        <v>66886.79550201808</v>
       </c>
     </row>
     <row r="601" spans="1:4">
@@ -11559,10 +11559,10 @@
         <v>603</v>
       </c>
       <c r="C602">
-        <v>13230.48259012945</v>
+        <v>14864.96333226071</v>
       </c>
       <c r="D602">
-        <v>101641.4825901294</v>
+        <v>103275.9633322607</v>
       </c>
     </row>
     <row r="603" spans="1:4">
@@ -11587,10 +11587,10 @@
         <v>605</v>
       </c>
       <c r="C604">
-        <v>11099.47635276482</v>
+        <v>19621.17241233589</v>
       </c>
       <c r="D604">
-        <v>99114.47635276489</v>
+        <v>107636.172412336</v>
       </c>
     </row>
     <row r="605" spans="1:4">
@@ -11615,10 +11615,10 @@
         <v>607</v>
       </c>
       <c r="C606">
-        <v>19035.57333666427</v>
+        <v>20256.53670313915</v>
       </c>
       <c r="D606">
-        <v>105442.5733366643</v>
+        <v>106663.5367031392</v>
       </c>
     </row>
     <row r="607" spans="1:4">
@@ -11629,10 +11629,10 @@
         <v>608</v>
       </c>
       <c r="C607">
-        <v>0</v>
+        <v>2017.043446221738</v>
       </c>
       <c r="D607">
-        <v>88583.99999999996</v>
+        <v>90601.04344622169</v>
       </c>
     </row>
     <row r="608" spans="1:4">
@@ -11643,10 +11643,10 @@
         <v>609</v>
       </c>
       <c r="C608">
-        <v>14348.4185637723</v>
+        <v>14996.00242105717</v>
       </c>
       <c r="D608">
-        <v>70011.41856377228</v>
+        <v>70659.00242105716</v>
       </c>
     </row>
     <row r="609" spans="1:4">
@@ -11671,10 +11671,10 @@
         <v>611</v>
       </c>
       <c r="C610">
-        <v>2975.875650624293</v>
+        <v>4075.769896680125</v>
       </c>
       <c r="D610">
-        <v>91837.87565062428</v>
+        <v>92937.76989668011</v>
       </c>
     </row>
     <row r="611" spans="1:4">
@@ -11685,10 +11685,10 @@
         <v>612</v>
       </c>
       <c r="C611">
-        <v>14889.30411776836</v>
+        <v>13966.72082575982</v>
       </c>
       <c r="D611">
-        <v>111286.3041177684</v>
+        <v>110363.7208257599</v>
       </c>
     </row>
     <row r="612" spans="1:4">
@@ -11713,10 +11713,10 @@
         <v>614</v>
       </c>
       <c r="C613">
-        <v>12162.21197907255</v>
+        <v>14874.92424113199</v>
       </c>
       <c r="D613">
-        <v>65013.21197907257</v>
+        <v>67725.92424113202</v>
       </c>
     </row>
     <row r="614" spans="1:4">
@@ -11727,10 +11727,10 @@
         <v>615</v>
       </c>
       <c r="C614">
-        <v>3318.817196928328</v>
+        <v>6481.003033412417</v>
       </c>
       <c r="D614">
-        <v>112099.8171969283</v>
+        <v>115262.0030334124</v>
       </c>
     </row>
     <row r="615" spans="1:4">
@@ -11769,10 +11769,10 @@
         <v>618</v>
       </c>
       <c r="C617">
-        <v>18826.63607504903</v>
+        <v>29948.02671000559</v>
       </c>
       <c r="D617">
-        <v>143951.6360750489</v>
+        <v>155073.0267100055</v>
       </c>
     </row>
     <row r="618" spans="1:4">
@@ -11909,10 +11909,10 @@
         <v>628</v>
       </c>
       <c r="C627">
-        <v>11939.5898254413</v>
+        <v>9552.103405393354</v>
       </c>
       <c r="D627">
-        <v>111189.5898254413</v>
+        <v>108802.1034053933</v>
       </c>
     </row>
     <row r="628" spans="1:4">
@@ -11923,10 +11923,10 @@
         <v>629</v>
       </c>
       <c r="C628">
-        <v>0</v>
+        <v>757.3593153285765</v>
       </c>
       <c r="D628">
-        <v>93202.00000000001</v>
+        <v>93959.35931532859</v>
       </c>
     </row>
     <row r="629" spans="1:4">
@@ -12021,10 +12021,10 @@
         <v>636</v>
       </c>
       <c r="C635">
-        <v>48920.34176480127</v>
+        <v>50965.83128179549</v>
       </c>
       <c r="D635">
-        <v>150985.3417648012</v>
+        <v>153030.8312817954</v>
       </c>
     </row>
     <row r="636" spans="1:4">
@@ -12035,10 +12035,10 @@
         <v>637</v>
       </c>
       <c r="C636">
-        <v>6117.316888567846</v>
+        <v>0</v>
       </c>
       <c r="D636">
-        <v>94879.3168885679</v>
+        <v>88762.00000000006</v>
       </c>
     </row>
     <row r="637" spans="1:4">
@@ -12049,10 +12049,10 @@
         <v>638</v>
       </c>
       <c r="C637">
-        <v>6091.369396833863</v>
+        <v>4525.709702443171</v>
       </c>
       <c r="D637">
-        <v>73133.36939683382</v>
+        <v>71567.70970244313</v>
       </c>
     </row>
     <row r="638" spans="1:4">
@@ -12063,10 +12063,10 @@
         <v>639</v>
       </c>
       <c r="C638">
-        <v>0</v>
+        <v>1960.246263968598</v>
       </c>
       <c r="D638">
-        <v>106986.9999999999</v>
+        <v>108947.2462639685</v>
       </c>
     </row>
     <row r="639" spans="1:4">
@@ -12077,10 +12077,10 @@
         <v>640</v>
       </c>
       <c r="C639">
-        <v>24511.29529780005</v>
+        <v>20817.60432372427</v>
       </c>
       <c r="D639">
-        <v>91585.29529780004</v>
+        <v>87891.60432372426</v>
       </c>
     </row>
     <row r="640" spans="1:4">
@@ -12119,10 +12119,10 @@
         <v>643</v>
       </c>
       <c r="C642">
-        <v>10131.01318855061</v>
+        <v>3325.191625425476</v>
       </c>
       <c r="D642">
-        <v>84057.01318855067</v>
+        <v>77251.19162542553</v>
       </c>
     </row>
     <row r="643" spans="1:4">
@@ -12147,10 +12147,10 @@
         <v>645</v>
       </c>
       <c r="C644">
-        <v>2291.288475378431</v>
+        <v>4622.696090321464</v>
       </c>
       <c r="D644">
-        <v>104667.2884753785</v>
+        <v>106998.6960903216</v>
       </c>
     </row>
     <row r="645" spans="1:4">
@@ -12231,10 +12231,10 @@
         <v>651</v>
       </c>
       <c r="C650">
-        <v>8106.174306813089</v>
+        <v>4660.567376559193</v>
       </c>
       <c r="D650">
-        <v>105799.174306813</v>
+        <v>102353.5673765591</v>
       </c>
     </row>
     <row r="651" spans="1:4">
@@ -12273,10 +12273,10 @@
         <v>654</v>
       </c>
       <c r="C653">
-        <v>4507.530891104208</v>
+        <v>2225.514826708764</v>
       </c>
       <c r="D653">
-        <v>95953.53089110421</v>
+        <v>93671.51482670876</v>
       </c>
     </row>
     <row r="654" spans="1:4">
@@ -12343,10 +12343,10 @@
         <v>659</v>
       </c>
       <c r="C658">
-        <v>18529.89251522752</v>
+        <v>21897.70042092026</v>
       </c>
       <c r="D658">
-        <v>90061.89251522748</v>
+        <v>93429.70042092021</v>
       </c>
     </row>
     <row r="659" spans="1:4">
@@ -12413,10 +12413,10 @@
         <v>664</v>
       </c>
       <c r="C663">
-        <v>12810.24536880241</v>
+        <v>17860.91580945429</v>
       </c>
       <c r="D663">
-        <v>90556.24536880238</v>
+        <v>95606.91580945427</v>
       </c>
     </row>
     <row r="664" spans="1:4">
@@ -12469,10 +12469,10 @@
         <v>668</v>
       </c>
       <c r="C667">
-        <v>33335.03233745812</v>
+        <v>43059.0719413717</v>
       </c>
       <c r="D667">
-        <v>117907.032337458</v>
+        <v>127631.0719413716</v>
       </c>
     </row>
     <row r="668" spans="1:4">
@@ -12483,10 +12483,10 @@
         <v>669</v>
       </c>
       <c r="C668">
-        <v>36344.25971983088</v>
+        <v>36691.96517478491</v>
       </c>
       <c r="D668">
-        <v>147609.2597198309</v>
+        <v>147956.9651747849</v>
       </c>
     </row>
     <row r="669" spans="1:4">
@@ -12497,10 +12497,10 @@
         <v>670</v>
       </c>
       <c r="C669">
-        <v>0</v>
+        <v>1645.856884108362</v>
       </c>
       <c r="D669">
-        <v>121988.0000000001</v>
+        <v>123633.8568841084</v>
       </c>
     </row>
     <row r="670" spans="1:4">
@@ -12525,10 +12525,10 @@
         <v>672</v>
       </c>
       <c r="C671">
-        <v>2346.577657336195</v>
+        <v>9353.469801172265</v>
       </c>
       <c r="D671">
-        <v>99334.57765733611</v>
+        <v>106341.4698011722</v>
       </c>
     </row>
     <row r="672" spans="1:4">
@@ -12553,10 +12553,10 @@
         <v>674</v>
       </c>
       <c r="C673">
-        <v>16139.77624280041</v>
+        <v>14082.416722662</v>
       </c>
       <c r="D673">
-        <v>67362.77624280039</v>
+        <v>65305.41672266198</v>
       </c>
     </row>
     <row r="674" spans="1:4">
@@ -12567,10 +12567,10 @@
         <v>675</v>
       </c>
       <c r="C674">
-        <v>18327.80920390059</v>
+        <v>27963.56615852746</v>
       </c>
       <c r="D674">
-        <v>122851.8092039006</v>
+        <v>132487.5661585275</v>
       </c>
     </row>
     <row r="675" spans="1:4">
@@ -12581,10 +12581,10 @@
         <v>676</v>
       </c>
       <c r="C675">
-        <v>35071.48690995024</v>
+        <v>16968.08072187292</v>
       </c>
       <c r="D675">
-        <v>157456.4869099502</v>
+        <v>139353.0807218729</v>
       </c>
     </row>
     <row r="676" spans="1:4">
@@ -12609,10 +12609,10 @@
         <v>678</v>
       </c>
       <c r="C677">
-        <v>10083.92101807769</v>
+        <v>10101.95865757881</v>
       </c>
       <c r="D677">
-        <v>87775.92101807772</v>
+        <v>87793.95865757884</v>
       </c>
     </row>
     <row r="678" spans="1:4">
@@ -12651,10 +12651,10 @@
         <v>681</v>
       </c>
       <c r="C680">
-        <v>14094.64260890029</v>
+        <v>22411.4657261355</v>
       </c>
       <c r="D680">
-        <v>120662.6426089003</v>
+        <v>128979.4657261355</v>
       </c>
     </row>
     <row r="681" spans="1:4">
@@ -12665,10 +12665,10 @@
         <v>682</v>
       </c>
       <c r="C681">
-        <v>8522.213927537305</v>
+        <v>3215.498468376158</v>
       </c>
       <c r="D681">
-        <v>66965.21392753729</v>
+        <v>61658.49846837614</v>
       </c>
     </row>
     <row r="682" spans="1:4">
@@ -12679,10 +12679,10 @@
         <v>683</v>
       </c>
       <c r="C682">
-        <v>0</v>
+        <v>601.2145307286846</v>
       </c>
       <c r="D682">
-        <v>109075</v>
+        <v>109676.2145307287</v>
       </c>
     </row>
     <row r="683" spans="1:4">
@@ -12721,10 +12721,10 @@
         <v>686</v>
       </c>
       <c r="C685">
-        <v>6534.547020460988</v>
+        <v>10061.4992911447</v>
       </c>
       <c r="D685">
-        <v>104290.547020461</v>
+        <v>107817.4992911447</v>
       </c>
     </row>
     <row r="686" spans="1:4">
@@ -12777,10 +12777,10 @@
         <v>690</v>
       </c>
       <c r="C689">
-        <v>29405.01384011126</v>
+        <v>34858.21415375895</v>
       </c>
       <c r="D689">
-        <v>120225.0138401112</v>
+        <v>125678.2141537589</v>
       </c>
     </row>
     <row r="690" spans="1:4">
@@ -12791,10 +12791,10 @@
         <v>691</v>
       </c>
       <c r="C690">
-        <v>2269.204349199383</v>
+        <v>10060.4928758968</v>
       </c>
       <c r="D690">
-        <v>80875.20434919934</v>
+        <v>88666.49287589676</v>
       </c>
     </row>
     <row r="691" spans="1:4">
@@ -12819,10 +12819,10 @@
         <v>693</v>
       </c>
       <c r="C692">
-        <v>11683.40975323493</v>
+        <v>14762.31703666747</v>
       </c>
       <c r="D692">
-        <v>83211.40975323497</v>
+        <v>86290.31703666752</v>
       </c>
     </row>
     <row r="693" spans="1:4">
@@ -12917,10 +12917,10 @@
         <v>700</v>
       </c>
       <c r="C699">
-        <v>160.8720717331016</v>
+        <v>128.5616456623829</v>
       </c>
       <c r="D699">
-        <v>105956.8720717331</v>
+        <v>105924.5616456624</v>
       </c>
     </row>
     <row r="700" spans="1:4">
@@ -12945,10 +12945,10 @@
         <v>702</v>
       </c>
       <c r="C701">
-        <v>29335.29961859122</v>
+        <v>33712.44270011607</v>
       </c>
       <c r="D701">
-        <v>103631.2996185912</v>
+        <v>108008.442700116</v>
       </c>
     </row>
     <row r="702" spans="1:4">
@@ -12987,10 +12987,10 @@
         <v>705</v>
       </c>
       <c r="C704">
-        <v>4997.139501974729</v>
+        <v>4355.299531730721</v>
       </c>
       <c r="D704">
-        <v>88933.13950197466</v>
+        <v>88291.29953173065</v>
       </c>
     </row>
     <row r="705" spans="1:4">
@@ -13001,10 +13001,10 @@
         <v>706</v>
       </c>
       <c r="C705">
-        <v>6573.006549543221</v>
+        <v>5071.122126117101</v>
       </c>
       <c r="D705">
-        <v>68199.00654954324</v>
+        <v>66697.12212611712</v>
       </c>
     </row>
     <row r="706" spans="1:4">
@@ -13057,10 +13057,10 @@
         <v>710</v>
       </c>
       <c r="C709">
-        <v>247.6810672413412</v>
+        <v>0</v>
       </c>
       <c r="D709">
-        <v>91495.68106724137</v>
+        <v>91248.00000000003</v>
       </c>
     </row>
     <row r="710" spans="1:4">
@@ -13141,10 +13141,10 @@
         <v>716</v>
       </c>
       <c r="C715">
-        <v>3257.546506957908</v>
+        <v>1199.447634233919</v>
       </c>
       <c r="D715">
-        <v>69201.54650695789</v>
+        <v>67143.4476342339</v>
       </c>
     </row>
     <row r="716" spans="1:4">
@@ -13155,10 +13155,10 @@
         <v>717</v>
       </c>
       <c r="C716">
-        <v>535.8371863693683</v>
+        <v>3732.006751813831</v>
       </c>
       <c r="D716">
-        <v>65659.83718636935</v>
+        <v>68856.00675181381</v>
       </c>
     </row>
     <row r="717" spans="1:4">
@@ -13239,10 +13239,10 @@
         <v>723</v>
       </c>
       <c r="C722">
-        <v>11097.95468108759</v>
+        <v>18199.94591116006</v>
       </c>
       <c r="D722">
-        <v>90639.95468108761</v>
+        <v>97741.94591116007</v>
       </c>
     </row>
     <row r="723" spans="1:4">
@@ -13253,10 +13253,10 @@
         <v>724</v>
       </c>
       <c r="C723">
-        <v>3726.772753833196</v>
+        <v>11625.28390433646</v>
       </c>
       <c r="D723">
-        <v>58762.77275383322</v>
+        <v>66661.28390433648</v>
       </c>
     </row>
     <row r="724" spans="1:4">
@@ -13337,10 +13337,10 @@
         <v>730</v>
       </c>
       <c r="C729">
-        <v>0</v>
+        <v>2987.566459666559</v>
       </c>
       <c r="D729">
-        <v>104707.0000000001</v>
+        <v>107694.5664596666</v>
       </c>
     </row>
     <row r="730" spans="1:4">
@@ -13365,10 +13365,10 @@
         <v>732</v>
       </c>
       <c r="C731">
-        <v>1272.44321089235</v>
+        <v>7712.547333556926</v>
       </c>
       <c r="D731">
-        <v>125036.4432108924</v>
+        <v>131476.547333557</v>
       </c>
     </row>
     <row r="732" spans="1:4">
@@ -13379,10 +13379,10 @@
         <v>733</v>
       </c>
       <c r="C732">
-        <v>4684.430951271024</v>
+        <v>6849.517944602419</v>
       </c>
       <c r="D732">
-        <v>66522.43095127108</v>
+        <v>68687.51794460247</v>
       </c>
     </row>
     <row r="733" spans="1:4">
@@ -13449,10 +13449,10 @@
         <v>738</v>
       </c>
       <c r="C737">
-        <v>0</v>
+        <v>4058.688310218349</v>
       </c>
       <c r="D737">
-        <v>83209.99999999996</v>
+        <v>87268.68831021831</v>
       </c>
     </row>
     <row r="738" spans="1:4">
@@ -13477,10 +13477,10 @@
         <v>740</v>
       </c>
       <c r="C739">
-        <v>5201.223002043786</v>
+        <v>0</v>
       </c>
       <c r="D739">
-        <v>66450.22300204376</v>
+        <v>61248.99999999997</v>
       </c>
     </row>
     <row r="740" spans="1:4">
@@ -13505,10 +13505,10 @@
         <v>742</v>
       </c>
       <c r="C741">
-        <v>21313.73608285337</v>
+        <v>27472.71566039779</v>
       </c>
       <c r="D741">
-        <v>94178.73608285336</v>
+        <v>100337.7156603978</v>
       </c>
     </row>
     <row r="742" spans="1:4">
@@ -13519,10 +13519,10 @@
         <v>743</v>
       </c>
       <c r="C742">
-        <v>35305.88694922517</v>
+        <v>26483.33150090642</v>
       </c>
       <c r="D742">
-        <v>141675.8869492251</v>
+        <v>132853.3315009064</v>
       </c>
     </row>
     <row r="743" spans="1:4">
@@ -13533,10 +13533,10 @@
         <v>744</v>
       </c>
       <c r="C743">
-        <v>17455.281516011</v>
+        <v>22050.30700640727</v>
       </c>
       <c r="D743">
-        <v>79481.28151601103</v>
+        <v>84076.3070064073</v>
       </c>
     </row>
     <row r="744" spans="1:4">
@@ -13547,10 +13547,10 @@
         <v>745</v>
       </c>
       <c r="C744">
-        <v>10919.35921231758</v>
+        <v>9516.642430012536</v>
       </c>
       <c r="D744">
-        <v>65472.35921231757</v>
+        <v>64069.64243001253</v>
       </c>
     </row>
     <row r="745" spans="1:4">
@@ -13589,10 +13589,10 @@
         <v>748</v>
       </c>
       <c r="C747">
-        <v>21647.18494459747</v>
+        <v>21597.06389515568</v>
       </c>
       <c r="D747">
-        <v>105657.1849445975</v>
+        <v>105607.0638951557</v>
       </c>
     </row>
     <row r="748" spans="1:4">
@@ -13603,10 +13603,10 @@
         <v>749</v>
       </c>
       <c r="C748">
-        <v>18315.60069927198</v>
+        <v>14272.364635846</v>
       </c>
       <c r="D748">
-        <v>129907.600699272</v>
+        <v>125864.364635846</v>
       </c>
     </row>
     <row r="749" spans="1:4">
@@ -13659,10 +13659,10 @@
         <v>753</v>
       </c>
       <c r="C752">
-        <v>11246.21445768645</v>
+        <v>12242.29461261191</v>
       </c>
       <c r="D752">
-        <v>91192.21445768641</v>
+        <v>92188.29461261186</v>
       </c>
     </row>
     <row r="753" spans="1:4">
@@ -13701,10 +13701,10 @@
         <v>756</v>
       </c>
       <c r="C755">
-        <v>50723.44632824682</v>
+        <v>59229.98798055368</v>
       </c>
       <c r="D755">
-        <v>143263.4463282468</v>
+        <v>151769.9879805537</v>
       </c>
     </row>
     <row r="756" spans="1:4">
@@ -13799,10 +13799,10 @@
         <v>763</v>
       </c>
       <c r="C762">
-        <v>6665.741964053785</v>
+        <v>5064.903999833929</v>
       </c>
       <c r="D762">
-        <v>92155.74196405377</v>
+        <v>90554.90399983391</v>
       </c>
     </row>
     <row r="763" spans="1:4">
@@ -13841,10 +13841,10 @@
         <v>766</v>
       </c>
       <c r="C765">
-        <v>12851.94711554333</v>
+        <v>15766.0145180761</v>
       </c>
       <c r="D765">
-        <v>124475.9471155433</v>
+        <v>127390.0145180761</v>
       </c>
     </row>
     <row r="766" spans="1:4">
@@ -13911,10 +13911,10 @@
         <v>771</v>
       </c>
       <c r="C770">
-        <v>51567.78712906703</v>
+        <v>41896.61754028528</v>
       </c>
       <c r="D770">
-        <v>149417.7871290671</v>
+        <v>139746.6175402853</v>
       </c>
     </row>
     <row r="771" spans="1:4">
@@ -13953,10 +13953,10 @@
         <v>774</v>
       </c>
       <c r="C773">
-        <v>1061.519390667119</v>
+        <v>495.6955747583415</v>
       </c>
       <c r="D773">
-        <v>87295.51939066716</v>
+        <v>86729.69557475839</v>
       </c>
     </row>
     <row r="774" spans="1:4">
@@ -14107,10 +14107,10 @@
         <v>785</v>
       </c>
       <c r="C784">
-        <v>8962.475551871961</v>
+        <v>3553.285048752266</v>
       </c>
       <c r="D784">
-        <v>149137.4755518721</v>
+        <v>143728.2850487524</v>
       </c>
     </row>
     <row r="785" spans="1:4">
@@ -14135,10 +14135,10 @@
         <v>787</v>
       </c>
       <c r="C786">
-        <v>0</v>
+        <v>7833.654464093983</v>
       </c>
       <c r="D786">
-        <v>122059.9999999999</v>
+        <v>129893.6544640939</v>
       </c>
     </row>
     <row r="787" spans="1:4">
@@ -14149,10 +14149,10 @@
         <v>788</v>
       </c>
       <c r="C787">
-        <v>9963.250102688224</v>
+        <v>9341.330444034989</v>
       </c>
       <c r="D787">
-        <v>106552.2501026882</v>
+        <v>105930.3304440349</v>
       </c>
     </row>
     <row r="788" spans="1:4">
@@ -14233,10 +14233,10 @@
         <v>794</v>
       </c>
       <c r="C793">
-        <v>25127.83802344295</v>
+        <v>17207.44705585137</v>
       </c>
       <c r="D793">
-        <v>112866.8380234429</v>
+        <v>104946.4470558513</v>
       </c>
     </row>
     <row r="794" spans="1:4">
@@ -14261,10 +14261,10 @@
         <v>796</v>
       </c>
       <c r="C795">
-        <v>2961.373780507784</v>
+        <v>2045.910937145643</v>
       </c>
       <c r="D795">
-        <v>72324.37378050777</v>
+        <v>71408.91093714563</v>
       </c>
     </row>
     <row r="796" spans="1:4">
@@ -14289,10 +14289,10 @@
         <v>798</v>
       </c>
       <c r="C797">
-        <v>45654.2483541519</v>
+        <v>47347.77351492338</v>
       </c>
       <c r="D797">
-        <v>136184.2483541518</v>
+        <v>137877.7735149233</v>
       </c>
     </row>
     <row r="798" spans="1:4">
@@ -14345,10 +14345,10 @@
         <v>802</v>
       </c>
       <c r="C801">
-        <v>3001.664711435034</v>
+        <v>9882.678360956474</v>
       </c>
       <c r="D801">
-        <v>65637.66471143508</v>
+        <v>72518.67836095652</v>
       </c>
     </row>
     <row r="802" spans="1:4">
@@ -14401,10 +14401,10 @@
         <v>806</v>
       </c>
       <c r="C805">
-        <v>5585.923610922488</v>
+        <v>9214.793178891283</v>
       </c>
       <c r="D805">
-        <v>108030.9236109225</v>
+        <v>111659.7931788913</v>
       </c>
     </row>
     <row r="806" spans="1:4">
@@ -14429,10 +14429,10 @@
         <v>808</v>
       </c>
       <c r="C807">
-        <v>43512.98586380704</v>
+        <v>40539.73627996194</v>
       </c>
       <c r="D807">
-        <v>130232.985863807</v>
+        <v>127259.7362799619</v>
       </c>
     </row>
     <row r="808" spans="1:4">
@@ -14499,10 +14499,10 @@
         <v>813</v>
       </c>
       <c r="C812">
-        <v>8842.89529747238</v>
+        <v>5987.195041405343</v>
       </c>
       <c r="D812">
-        <v>69781.89529747241</v>
+        <v>66926.19504140537</v>
       </c>
     </row>
     <row r="813" spans="1:4">
@@ -14527,10 +14527,10 @@
         <v>815</v>
       </c>
       <c r="C814">
-        <v>12008.6204212854</v>
+        <v>18571.61002382915</v>
       </c>
       <c r="D814">
-        <v>64064.62042128541</v>
+        <v>70627.61002382915</v>
       </c>
     </row>
     <row r="815" spans="1:4">
@@ -14541,10 +14541,10 @@
         <v>816</v>
       </c>
       <c r="C815">
-        <v>12425.37112967829</v>
+        <v>8560.18781984027</v>
       </c>
       <c r="D815">
-        <v>74145.3711296783</v>
+        <v>70280.18781984028</v>
       </c>
     </row>
     <row r="816" spans="1:4">
@@ -14555,10 +14555,10 @@
         <v>817</v>
       </c>
       <c r="C816">
-        <v>42787.32579064752</v>
+        <v>29306.17223269584</v>
       </c>
       <c r="D816">
-        <v>132899.3257906475</v>
+        <v>119418.1722326958</v>
       </c>
     </row>
     <row r="817" spans="1:4">
@@ -14583,10 +14583,10 @@
         <v>819</v>
       </c>
       <c r="C818">
-        <v>0</v>
+        <v>2585.995059586334</v>
       </c>
       <c r="D818">
-        <v>91841.99999999993</v>
+        <v>94427.99505958626</v>
       </c>
     </row>
     <row r="819" spans="1:4">
@@ -14611,10 +14611,10 @@
         <v>821</v>
       </c>
       <c r="C820">
-        <v>4233.68175067968</v>
+        <v>0</v>
       </c>
       <c r="D820">
-        <v>112498.6817506797</v>
+        <v>108265</v>
       </c>
     </row>
     <row r="821" spans="1:4">
@@ -14625,10 +14625,10 @@
         <v>822</v>
       </c>
       <c r="C821">
-        <v>21248.55824064417</v>
+        <v>19559.70454670461</v>
       </c>
       <c r="D821">
-        <v>126564.5582406441</v>
+        <v>124875.7045467045</v>
       </c>
     </row>
     <row r="822" spans="1:4">
@@ -14681,10 +14681,10 @@
         <v>826</v>
       </c>
       <c r="C825">
-        <v>12353.33253011559</v>
+        <v>13352.3435637553</v>
       </c>
       <c r="D825">
-        <v>99090.33253011564</v>
+        <v>100089.3435637554</v>
       </c>
     </row>
     <row r="826" spans="1:4">
@@ -14695,10 +14695,10 @@
         <v>827</v>
       </c>
       <c r="C826">
-        <v>13237.64094257713</v>
+        <v>11969.49199019515</v>
       </c>
       <c r="D826">
-        <v>93513.64094257716</v>
+        <v>92245.49199019518</v>
       </c>
     </row>
     <row r="827" spans="1:4">
@@ -14709,10 +14709,10 @@
         <v>828</v>
       </c>
       <c r="C827">
-        <v>7234.517739661198</v>
+        <v>1657.717457513325</v>
       </c>
       <c r="D827">
-        <v>71988.51773966117</v>
+        <v>66411.7174575133</v>
       </c>
     </row>
     <row r="828" spans="1:4">
@@ -14751,10 +14751,10 @@
         <v>831</v>
       </c>
       <c r="C830">
-        <v>6623.587862497021</v>
+        <v>8799.228464601983</v>
       </c>
       <c r="D830">
-        <v>68715.58786249698</v>
+        <v>70891.22846460194</v>
       </c>
     </row>
     <row r="831" spans="1:4">
@@ -14779,10 +14779,10 @@
         <v>833</v>
       </c>
       <c r="C832">
-        <v>19255.35670441015</v>
+        <v>18179.7711044458</v>
       </c>
       <c r="D832">
-        <v>110456.3567044101</v>
+        <v>109380.7711044457</v>
       </c>
     </row>
     <row r="833" spans="1:4">
@@ -14793,10 +14793,10 @@
         <v>834</v>
       </c>
       <c r="C833">
-        <v>3055.962110645269</v>
+        <v>6749.194444348032</v>
       </c>
       <c r="D833">
-        <v>64053.96211064527</v>
+        <v>67747.19444434803</v>
       </c>
     </row>
     <row r="834" spans="1:4">
@@ -14807,10 +14807,10 @@
         <v>835</v>
       </c>
       <c r="C834">
-        <v>46055.83613207532</v>
+        <v>44449.75864044766</v>
       </c>
       <c r="D834">
-        <v>149110.8361320753</v>
+        <v>147504.7586404476</v>
       </c>
     </row>
     <row r="835" spans="1:4">
@@ -14849,10 +14849,10 @@
         <v>838</v>
       </c>
       <c r="C837">
-        <v>11467.35172140833</v>
+        <v>4862.189921752535</v>
       </c>
       <c r="D837">
-        <v>103565.3517214083</v>
+        <v>96960.18992175254</v>
       </c>
     </row>
     <row r="838" spans="1:4">
@@ -14891,10 +14891,10 @@
         <v>841</v>
       </c>
       <c r="C840">
-        <v>4543.943265440845</v>
+        <v>0</v>
       </c>
       <c r="D840">
-        <v>116120.9432654409</v>
+        <v>111577.0000000001</v>
       </c>
     </row>
     <row r="841" spans="1:4">
@@ -14919,10 +14919,10 @@
         <v>843</v>
       </c>
       <c r="C842">
-        <v>18502.00557014243</v>
+        <v>25599.50386288212</v>
       </c>
       <c r="D842">
-        <v>101576.0055701425</v>
+        <v>108673.5038628822</v>
       </c>
     </row>
     <row r="843" spans="1:4">
@@ -14933,10 +14933,10 @@
         <v>844</v>
       </c>
       <c r="C843">
-        <v>0</v>
+        <v>2097.516604666031</v>
       </c>
       <c r="D843">
-        <v>101644</v>
+        <v>103741.516604666</v>
       </c>
     </row>
     <row r="844" spans="1:4">
@@ -14975,10 +14975,10 @@
         <v>847</v>
       </c>
       <c r="C846">
-        <v>10003.8054168651</v>
+        <v>11803.82325011781</v>
       </c>
       <c r="D846">
-        <v>87969.80541686514</v>
+        <v>89769.82325011786</v>
       </c>
     </row>
     <row r="847" spans="1:4">
@@ -15003,10 +15003,10 @@
         <v>849</v>
       </c>
       <c r="C848">
-        <v>22567.85451497248</v>
+        <v>26657.97770006792</v>
       </c>
       <c r="D848">
-        <v>152922.8545149724</v>
+        <v>157012.9777000679</v>
       </c>
     </row>
     <row r="849" spans="1:4">
@@ -15017,10 +15017,10 @@
         <v>850</v>
       </c>
       <c r="C849">
-        <v>43985.57076171396</v>
+        <v>46341.76837745463</v>
       </c>
       <c r="D849">
-        <v>151210.5707617139</v>
+        <v>153566.7683774546</v>
       </c>
     </row>
     <row r="850" spans="1:4">
@@ -15073,10 +15073,10 @@
         <v>854</v>
       </c>
       <c r="C853">
-        <v>29321.90668266063</v>
+        <v>27745.84830620977</v>
       </c>
       <c r="D853">
-        <v>103242.9066826606</v>
+        <v>101666.8483062097</v>
       </c>
     </row>
     <row r="854" spans="1:4">
@@ -15185,10 +15185,10 @@
         <v>862</v>
       </c>
       <c r="C861">
-        <v>10921.43693125885</v>
+        <v>12540.07161529073</v>
       </c>
       <c r="D861">
-        <v>70027.43693125884</v>
+        <v>71646.07161529071</v>
       </c>
     </row>
     <row r="862" spans="1:4">
@@ -15199,10 +15199,10 @@
         <v>863</v>
       </c>
       <c r="C862">
-        <v>16690.27485688822</v>
+        <v>18731.0718130654</v>
       </c>
       <c r="D862">
-        <v>87804.27485688819</v>
+        <v>89845.07181306537</v>
       </c>
     </row>
     <row r="863" spans="1:4">
@@ -15269,10 +15269,10 @@
         <v>868</v>
       </c>
       <c r="C867">
-        <v>16234.15731331091</v>
+        <v>8003.178257423308</v>
       </c>
       <c r="D867">
-        <v>111809.1573133108</v>
+        <v>103578.1782574232</v>
       </c>
     </row>
     <row r="868" spans="1:4">
@@ -15325,10 +15325,10 @@
         <v>872</v>
       </c>
       <c r="C871">
-        <v>18135.7352277106</v>
+        <v>15337.42477204256</v>
       </c>
       <c r="D871">
-        <v>71990.73522771058</v>
+        <v>69192.42477204253</v>
       </c>
     </row>
     <row r="872" spans="1:4">
@@ -15339,10 +15339,10 @@
         <v>873</v>
       </c>
       <c r="C872">
-        <v>19127.02550509774</v>
+        <v>19819.55620756542</v>
       </c>
       <c r="D872">
-        <v>97547.02550509777</v>
+        <v>98239.55620756545</v>
       </c>
     </row>
     <row r="873" spans="1:4">
@@ -15381,10 +15381,10 @@
         <v>876</v>
       </c>
       <c r="C875">
-        <v>5846.288698146185</v>
+        <v>2037.902639254273</v>
       </c>
       <c r="D875">
-        <v>67327.28869814619</v>
+        <v>63518.90263925428</v>
       </c>
     </row>
     <row r="876" spans="1:4">
@@ -15395,10 +15395,10 @@
         <v>877</v>
       </c>
       <c r="C876">
-        <v>22389.32153910877</v>
+        <v>19648.99295905913</v>
       </c>
       <c r="D876">
-        <v>93097.32153910879</v>
+        <v>90356.99295905915</v>
       </c>
     </row>
     <row r="877" spans="1:4">
@@ -15409,10 +15409,10 @@
         <v>878</v>
       </c>
       <c r="C877">
-        <v>0</v>
+        <v>6542.62069152428</v>
       </c>
       <c r="D877">
-        <v>68744.99999999997</v>
+        <v>75287.62069152425</v>
       </c>
     </row>
     <row r="878" spans="1:4">
@@ -15423,10 +15423,10 @@
         <v>879</v>
       </c>
       <c r="C878">
-        <v>29497.5891665043</v>
+        <v>35340.1182011752</v>
       </c>
       <c r="D878">
-        <v>103055.5891665042</v>
+        <v>108898.1182011751</v>
       </c>
     </row>
     <row r="879" spans="1:4">
@@ -15437,10 +15437,10 @@
         <v>880</v>
       </c>
       <c r="C879">
-        <v>818.1708075097704</v>
+        <v>3343.466877032159</v>
       </c>
       <c r="D879">
-        <v>87958.1708075097</v>
+        <v>90483.46687703209</v>
       </c>
     </row>
     <row r="880" spans="1:4">
@@ -15479,10 +15479,10 @@
         <v>883</v>
       </c>
       <c r="C882">
-        <v>24815.56809273049</v>
+        <v>27868.21756361432</v>
       </c>
       <c r="D882">
-        <v>88005.56809273049</v>
+        <v>91058.21756361432</v>
       </c>
     </row>
     <row r="883" spans="1:4">
@@ -15507,10 +15507,10 @@
         <v>885</v>
       </c>
       <c r="C884">
-        <v>0</v>
+        <v>2268.653680885662</v>
       </c>
       <c r="D884">
-        <v>69094</v>
+        <v>71362.65368088566</v>
       </c>
     </row>
     <row r="885" spans="1:4">
@@ -15535,10 +15535,10 @@
         <v>887</v>
       </c>
       <c r="C886">
-        <v>5762.922086775165</v>
+        <v>10551.98531837531</v>
       </c>
       <c r="D886">
-        <v>67464.92208677522</v>
+        <v>72253.98531837536</v>
       </c>
     </row>
     <row r="887" spans="1:4">

--- a/df_gap.xlsx
+++ b/df_gap.xlsx
@@ -3178,10 +3178,10 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>11990.35788079025</v>
+        <v>11572.79219414099</v>
       </c>
       <c r="D4">
-        <v>83402.35788079027</v>
+        <v>82984.792194141</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3248,10 +3248,10 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>26984.63224336925</v>
+        <v>30661.73973592736</v>
       </c>
       <c r="D9">
-        <v>102630.6322433693</v>
+        <v>106307.7397359274</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3262,10 +3262,10 @@
         <v>11</v>
       </c>
       <c r="C10">
-        <v>14457.37348387818</v>
+        <v>16612.27730273004</v>
       </c>
       <c r="D10">
-        <v>65671.3734838782</v>
+        <v>67826.27730273006</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3542,10 +3542,10 @@
         <v>31</v>
       </c>
       <c r="C30">
-        <v>2530.755021918085</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>100133.7550219181</v>
+        <v>197603.0000000001</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -3556,10 +3556,10 @@
         <v>32</v>
       </c>
       <c r="C31">
-        <v>18984.09985613948</v>
+        <v>19680.17872947738</v>
       </c>
       <c r="D31">
-        <v>85554.09985613951</v>
+        <v>86250.17872947741</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -3584,10 +3584,10 @@
         <v>34</v>
       </c>
       <c r="C33">
-        <v>23434.45000013638</v>
+        <v>0</v>
       </c>
       <c r="D33">
-        <v>84488.45000013641</v>
+        <v>161054</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -3598,10 +3598,10 @@
         <v>35</v>
       </c>
       <c r="C34">
-        <v>30536.80513951645</v>
+        <v>0</v>
       </c>
       <c r="D34">
-        <v>120940.8051395165</v>
+        <v>290404</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -3612,10 +3612,10 @@
         <v>36</v>
       </c>
       <c r="C35">
-        <v>31496.34338932254</v>
+        <v>33822.58935457664</v>
       </c>
       <c r="D35">
-        <v>101541.3433893225</v>
+        <v>103867.5893545766</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -3654,10 +3654,10 @@
         <v>39</v>
       </c>
       <c r="C38">
-        <v>7360.538025424117</v>
+        <v>10710.08625470416</v>
       </c>
       <c r="D38">
-        <v>105395.5380254242</v>
+        <v>108745.0862547042</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -4046,10 +4046,10 @@
         <v>67</v>
       </c>
       <c r="C66">
-        <v>310.2530034788797</v>
+        <v>3336.941433740023</v>
       </c>
       <c r="D66">
-        <v>85700.25300347888</v>
+        <v>88726.94143374002</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -4074,10 +4074,10 @@
         <v>69</v>
       </c>
       <c r="C68">
-        <v>18421.14318081758</v>
+        <v>20370.37039839836</v>
       </c>
       <c r="D68">
-        <v>101438.1431808176</v>
+        <v>103387.3703983983</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -4102,10 +4102,10 @@
         <v>71</v>
       </c>
       <c r="C70">
-        <v>553.5533975182479</v>
+        <v>1709.67492774986</v>
       </c>
       <c r="D70">
-        <v>62863.55339751826</v>
+        <v>64019.67492774987</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -4116,10 +4116,10 @@
         <v>72</v>
       </c>
       <c r="C71">
-        <v>12699.54857488609</v>
+        <v>13889.21357861307</v>
       </c>
       <c r="D71">
-        <v>66503.54857488608</v>
+        <v>67693.21357861307</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -4130,10 +4130,10 @@
         <v>73</v>
       </c>
       <c r="C72">
-        <v>8208.847292167426</v>
+        <v>12899.19384800876</v>
       </c>
       <c r="D72">
-        <v>83476.84729216745</v>
+        <v>88167.19384800878</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -4158,10 +4158,10 @@
         <v>75</v>
       </c>
       <c r="C74">
-        <v>12844.39738553725</v>
+        <v>12616.89419789051</v>
       </c>
       <c r="D74">
-        <v>143904.3973855372</v>
+        <v>143676.8941978905</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -4200,10 +4200,10 @@
         <v>78</v>
       </c>
       <c r="C77">
-        <v>0</v>
+        <v>194.8192270364307</v>
       </c>
       <c r="D77">
-        <v>64391.00000000002</v>
+        <v>64585.81922703645</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -4231,7 +4231,7 @@
         <v>0</v>
       </c>
       <c r="D79">
-        <v>121891</v>
+        <v>221891</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -4298,10 +4298,10 @@
         <v>85</v>
       </c>
       <c r="C84">
-        <v>19892.45305331227</v>
+        <v>20130.8929798113</v>
       </c>
       <c r="D84">
-        <v>84428.45305331229</v>
+        <v>84666.89297981132</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -4326,10 +4326,10 @@
         <v>87</v>
       </c>
       <c r="C86">
-        <v>15575.08827872586</v>
+        <v>16238.00886154499</v>
       </c>
       <c r="D86">
-        <v>66310.08827872589</v>
+        <v>66973.00886154502</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -4382,10 +4382,10 @@
         <v>91</v>
       </c>
       <c r="C90">
-        <v>11564.27201041595</v>
+        <v>12139.92377609697</v>
       </c>
       <c r="D90">
-        <v>137509.2720104159</v>
+        <v>138084.9237760969</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -4634,10 +4634,10 @@
         <v>109</v>
       </c>
       <c r="C108">
-        <v>3521.730201159837</v>
+        <v>4592.308808146539</v>
       </c>
       <c r="D108">
-        <v>85319.73020115989</v>
+        <v>86390.3088081466</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -4732,10 +4732,10 @@
         <v>116</v>
       </c>
       <c r="C115">
-        <v>4579.888543801462</v>
+        <v>6865.613605941617</v>
       </c>
       <c r="D115">
-        <v>63539.88854380148</v>
+        <v>65825.61360594163</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -4760,10 +4760,10 @@
         <v>118</v>
       </c>
       <c r="C117">
-        <v>8442.953086139096</v>
+        <v>12606.82033532338</v>
       </c>
       <c r="D117">
-        <v>84036.95308613911</v>
+        <v>88200.8203353234</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -4830,10 +4830,10 @@
         <v>123</v>
       </c>
       <c r="C122">
-        <v>19087.04847831903</v>
+        <v>21769.41141041328</v>
       </c>
       <c r="D122">
-        <v>125139.0484783189</v>
+        <v>127821.4114104132</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -4914,10 +4914,10 @@
         <v>129</v>
       </c>
       <c r="C128">
-        <v>33043.47991053051</v>
+        <v>36030.56659414283</v>
       </c>
       <c r="D128">
-        <v>142308.4799105306</v>
+        <v>145295.5665941429</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -5026,10 +5026,10 @@
         <v>137</v>
       </c>
       <c r="C136">
-        <v>19660.98456968396</v>
+        <v>23860.67949505497</v>
       </c>
       <c r="D136">
-        <v>145985.984569684</v>
+        <v>150185.679495055</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -5040,10 +5040,10 @@
         <v>138</v>
       </c>
       <c r="C137">
-        <v>24478.33794262461</v>
+        <v>26680.01390691946</v>
       </c>
       <c r="D137">
-        <v>149608.3379426246</v>
+        <v>151810.0139069195</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -5082,10 +5082,10 @@
         <v>141</v>
       </c>
       <c r="C140">
-        <v>2943.416406969212</v>
+        <v>3213.999186115754</v>
       </c>
       <c r="D140">
-        <v>66791.41640696918</v>
+        <v>67061.99918611572</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -5110,10 +5110,10 @@
         <v>143</v>
       </c>
       <c r="C142">
-        <v>48334.09990354892</v>
+        <v>52319.52775840159</v>
       </c>
       <c r="D142">
-        <v>148299.0999035489</v>
+        <v>152284.5277584016</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -5138,10 +5138,10 @@
         <v>145</v>
       </c>
       <c r="C144">
-        <v>47649.43831826787</v>
+        <v>48765.94090466583</v>
       </c>
       <c r="D144">
-        <v>141864.4383182679</v>
+        <v>142980.9409046658</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -5166,10 +5166,10 @@
         <v>147</v>
       </c>
       <c r="C146">
-        <v>6009.749717689396</v>
+        <v>9097.677649211051</v>
       </c>
       <c r="D146">
-        <v>84375.74971768944</v>
+        <v>87463.67764921109</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -5208,10 +5208,10 @@
         <v>150</v>
       </c>
       <c r="C149">
-        <v>8573.525129280904</v>
+        <v>10090.64098231156</v>
       </c>
       <c r="D149">
-        <v>63307.52512928093</v>
+        <v>64824.64098231159</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -5404,10 +5404,10 @@
         <v>164</v>
       </c>
       <c r="C163">
-        <v>33789.78593088686</v>
+        <v>38157.58175072529</v>
       </c>
       <c r="D163">
-        <v>119101.7859308868</v>
+        <v>123469.5817507252</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -5488,10 +5488,10 @@
         <v>170</v>
       </c>
       <c r="C169">
-        <v>23202.790309665</v>
+        <v>24675.16274466433</v>
       </c>
       <c r="D169">
-        <v>87912.79030966495</v>
+        <v>89385.16274466428</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -5530,10 +5530,10 @@
         <v>173</v>
       </c>
       <c r="C172">
-        <v>20235.46097589352</v>
+        <v>19283.08264257236</v>
       </c>
       <c r="D172">
-        <v>84371.46097589351</v>
+        <v>83419.08264257235</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -5558,10 +5558,10 @@
         <v>175</v>
       </c>
       <c r="C174">
-        <v>10268.74482292111</v>
+        <v>14147.54143063919</v>
       </c>
       <c r="D174">
-        <v>103278.7448229211</v>
+        <v>107157.5414306392</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -5586,10 +5586,10 @@
         <v>177</v>
       </c>
       <c r="C176">
-        <v>24511.0518846089</v>
+        <v>25361.94336027262</v>
       </c>
       <c r="D176">
-        <v>136821.0518846088</v>
+        <v>137671.9433602725</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -5600,10 +5600,10 @@
         <v>178</v>
       </c>
       <c r="C177">
-        <v>4016.291569701214</v>
+        <v>4320.428680719349</v>
       </c>
       <c r="D177">
-        <v>66995.29156970124</v>
+        <v>67299.42868071937</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -5614,10 +5614,10 @@
         <v>179</v>
       </c>
       <c r="C178">
-        <v>11907.29926314517</v>
+        <v>13802.71586449876</v>
       </c>
       <c r="D178">
-        <v>63574.29926314515</v>
+        <v>65469.71586449874</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -5684,10 +5684,10 @@
         <v>184</v>
       </c>
       <c r="C183">
-        <v>4710.676208352699</v>
+        <v>5186.929783975364</v>
       </c>
       <c r="D183">
-        <v>63400.67620835272</v>
+        <v>63876.92978397539</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -5726,10 +5726,10 @@
         <v>187</v>
       </c>
       <c r="C186">
-        <v>11921.25599682615</v>
+        <v>10715.48604554732</v>
       </c>
       <c r="D186">
-        <v>84787.25599682612</v>
+        <v>83581.4860455473</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -5740,10 +5740,10 @@
         <v>188</v>
       </c>
       <c r="C187">
-        <v>0</v>
+        <v>1189.89759107279</v>
       </c>
       <c r="D187">
-        <v>104476</v>
+        <v>105665.8975910727</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -5782,10 +5782,10 @@
         <v>191</v>
       </c>
       <c r="C190">
-        <v>4534.907776603679</v>
+        <v>7505.575891471046</v>
       </c>
       <c r="D190">
-        <v>116070.9077766037</v>
+        <v>119041.575891471</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -5810,10 +5810,10 @@
         <v>193</v>
       </c>
       <c r="C192">
-        <v>7473.808497727732</v>
+        <v>12244.05670910684</v>
       </c>
       <c r="D192">
-        <v>140803.8084977277</v>
+        <v>145574.0567091068</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -5852,10 +5852,10 @@
         <v>196</v>
       </c>
       <c r="C195">
-        <v>18844.56575773552</v>
+        <v>19572.63757351811</v>
       </c>
       <c r="D195">
-        <v>83896.56575773553</v>
+        <v>84624.63757351812</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -5964,10 +5964,10 @@
         <v>204</v>
       </c>
       <c r="C203">
-        <v>23067.85460170568</v>
+        <v>25174.79525165915</v>
       </c>
       <c r="D203">
-        <v>119255.8546017056</v>
+        <v>121362.7952516591</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -5978,10 +5978,10 @@
         <v>205</v>
       </c>
       <c r="C204">
-        <v>20563.0927963172</v>
+        <v>21617.1147085417</v>
       </c>
       <c r="D204">
-        <v>85497.09279631716</v>
+        <v>86551.11470854166</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -6006,10 +6006,10 @@
         <v>207</v>
       </c>
       <c r="C206">
-        <v>1654.088669680816</v>
+        <v>1395.924152292864</v>
       </c>
       <c r="D206">
-        <v>84346.08866968084</v>
+        <v>84087.92415229289</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -6048,10 +6048,10 @@
         <v>210</v>
       </c>
       <c r="C209">
-        <v>1947.516536039155</v>
+        <v>3407.650927127339</v>
       </c>
       <c r="D209">
-        <v>140112.5165360392</v>
+        <v>141572.6509271274</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -6118,10 +6118,10 @@
         <v>215</v>
       </c>
       <c r="C214">
-        <v>24219.92391781398</v>
+        <v>25386.04101036621</v>
       </c>
       <c r="D214">
-        <v>121587.923917814</v>
+        <v>122754.0410103663</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -6132,10 +6132,10 @@
         <v>216</v>
       </c>
       <c r="C215">
-        <v>21854.56823177467</v>
+        <v>25589.20534220171</v>
       </c>
       <c r="D215">
-        <v>121150.5682317746</v>
+        <v>124885.2053422017</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -6174,10 +6174,10 @@
         <v>219</v>
       </c>
       <c r="C218">
-        <v>13947.81094507019</v>
+        <v>13660.69556746299</v>
       </c>
       <c r="D218">
-        <v>64914.81094507021</v>
+        <v>64627.69556746302</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -6188,10 +6188,10 @@
         <v>220</v>
       </c>
       <c r="C219">
-        <v>0</v>
+        <v>108.1952729566547</v>
       </c>
       <c r="D219">
-        <v>85763.99999999996</v>
+        <v>85872.19527295661</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -6202,10 +6202,10 @@
         <v>221</v>
       </c>
       <c r="C220">
-        <v>20852.98915176476</v>
+        <v>20539.10083836062</v>
       </c>
       <c r="D220">
-        <v>122008.9891517648</v>
+        <v>121695.1008383607</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -6216,10 +6216,10 @@
         <v>222</v>
       </c>
       <c r="C221">
-        <v>5225.211372095073</v>
+        <v>9482.309689634931</v>
       </c>
       <c r="D221">
-        <v>97671.21137209501</v>
+        <v>101928.3096896349</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -6300,10 +6300,10 @@
         <v>228</v>
       </c>
       <c r="C227">
-        <v>14757.62000871333</v>
+        <v>19011.37753424179</v>
       </c>
       <c r="D227">
-        <v>83395.6200087133</v>
+        <v>87649.37753424176</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -6314,10 +6314,10 @@
         <v>229</v>
       </c>
       <c r="C228">
-        <v>19517.85027151699</v>
+        <v>20205.59057909537</v>
       </c>
       <c r="D228">
-        <v>134822.8502715171</v>
+        <v>135510.5905790954</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -6370,10 +6370,10 @@
         <v>233</v>
       </c>
       <c r="C232">
-        <v>8774.820872017961</v>
+        <v>10244.66427318632</v>
       </c>
       <c r="D232">
-        <v>63699.820872018</v>
+        <v>65169.66427318635</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -6384,10 +6384,10 @@
         <v>234</v>
       </c>
       <c r="C233">
-        <v>14830.07084545215</v>
+        <v>13311.1445052429</v>
       </c>
       <c r="D233">
-        <v>120638.0708454522</v>
+        <v>119119.1445052429</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -6468,10 +6468,10 @@
         <v>240</v>
       </c>
       <c r="C239">
-        <v>7282.518551024143</v>
+        <v>8891.276699336144</v>
       </c>
       <c r="D239">
-        <v>63587.51855102416</v>
+        <v>65196.27669933617</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -6482,10 +6482,10 @@
         <v>241</v>
       </c>
       <c r="C240">
-        <v>7437.065187692708</v>
+        <v>7971.235023783804</v>
       </c>
       <c r="D240">
-        <v>65070.06518769269</v>
+        <v>65604.23502378378</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -6510,10 +6510,10 @@
         <v>243</v>
       </c>
       <c r="C242">
-        <v>22084.98510423306</v>
+        <v>24665.59462230919</v>
       </c>
       <c r="D242">
-        <v>101798.9851042331</v>
+        <v>104379.5946223092</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -6566,10 +6566,10 @@
         <v>247</v>
       </c>
       <c r="C246">
-        <v>32159.11408560623</v>
+        <v>32169.97377083375</v>
       </c>
       <c r="D246">
-        <v>120399.1140856063</v>
+        <v>120409.9737708338</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -6664,10 +6664,10 @@
         <v>254</v>
       </c>
       <c r="C253">
-        <v>24224.52589926579</v>
+        <v>24098.01716827667</v>
       </c>
       <c r="D253">
-        <v>87896.52589926583</v>
+        <v>87770.01716827671</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -6706,10 +6706,10 @@
         <v>257</v>
       </c>
       <c r="C256">
-        <v>20809.00069602826</v>
+        <v>22323.97197392456</v>
       </c>
       <c r="D256">
-        <v>97196.00069602822</v>
+        <v>98710.97197392452</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -6762,10 +6762,10 @@
         <v>261</v>
       </c>
       <c r="C260">
-        <v>1555.066419297669</v>
+        <v>1286.784974159513</v>
       </c>
       <c r="D260">
-        <v>80713.06641929765</v>
+        <v>80444.7849741595</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -6818,10 +6818,10 @@
         <v>265</v>
       </c>
       <c r="C264">
-        <v>1161.061538312759</v>
+        <v>6327.653280480736</v>
       </c>
       <c r="D264">
-        <v>137011.0615383127</v>
+        <v>142177.6532804807</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -6832,10 +6832,10 @@
         <v>266</v>
       </c>
       <c r="C265">
-        <v>2263.545290975329</v>
+        <v>1350.975877337783</v>
       </c>
       <c r="D265">
-        <v>63812.54529097537</v>
+        <v>62899.97587733782</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -6916,10 +6916,10 @@
         <v>272</v>
       </c>
       <c r="C271">
-        <v>25344.92961635497</v>
+        <v>25777.41260432288</v>
       </c>
       <c r="D271">
-        <v>138169.929616355</v>
+        <v>138602.4126043229</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -6972,10 +6972,10 @@
         <v>276</v>
       </c>
       <c r="C275">
-        <v>20891.68089556557</v>
+        <v>21271.29568731463</v>
       </c>
       <c r="D275">
-        <v>98373.68089556553</v>
+        <v>98753.29568731459</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -7042,10 +7042,10 @@
         <v>281</v>
       </c>
       <c r="C280">
-        <v>9102.90925368858</v>
+        <v>9328.678973369366</v>
       </c>
       <c r="D280">
-        <v>66650.90925368853</v>
+        <v>66876.67897336931</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -7056,10 +7056,10 @@
         <v>282</v>
       </c>
       <c r="C281">
-        <v>96.95018753215845</v>
+        <v>1994.72474384708</v>
       </c>
       <c r="D281">
-        <v>84234.95018753214</v>
+        <v>86132.72474384707</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -7098,10 +7098,10 @@
         <v>285</v>
       </c>
       <c r="C284">
-        <v>1607.763388697087</v>
+        <v>5006.667188907057</v>
       </c>
       <c r="D284">
-        <v>80881.76338869704</v>
+        <v>84280.66718890701</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -7112,10 +7112,10 @@
         <v>286</v>
       </c>
       <c r="C285">
-        <v>25142.67831715345</v>
+        <v>29065.73478354777</v>
       </c>
       <c r="D285">
-        <v>122010.6783171534</v>
+        <v>125933.7347835477</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -7140,10 +7140,10 @@
         <v>288</v>
       </c>
       <c r="C287">
-        <v>8426.8083903324</v>
+        <v>7434.58320095895</v>
       </c>
       <c r="D287">
-        <v>115318.8083903325</v>
+        <v>114326.583200959</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -7182,10 +7182,10 @@
         <v>291</v>
       </c>
       <c r="C290">
-        <v>17929.88656799616</v>
+        <v>18940.93813691077</v>
       </c>
       <c r="D290">
-        <v>146599.8865679961</v>
+        <v>147610.9381369108</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -7210,10 +7210,10 @@
         <v>293</v>
       </c>
       <c r="C292">
-        <v>11748.66659091579</v>
+        <v>13615.18406401946</v>
       </c>
       <c r="D292">
-        <v>63304.66659091581</v>
+        <v>65171.18406401948</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -7252,10 +7252,10 @@
         <v>296</v>
       </c>
       <c r="C295">
-        <v>27074.41797475438</v>
+        <v>29723.06873964805</v>
       </c>
       <c r="D295">
-        <v>115562.4179747544</v>
+        <v>118211.0687396481</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -7294,10 +7294,10 @@
         <v>299</v>
       </c>
       <c r="C298">
-        <v>15911.33476423567</v>
+        <v>17819.68040819069</v>
       </c>
       <c r="D298">
-        <v>96066.33476423562</v>
+        <v>97974.68040819064</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -7322,10 +7322,10 @@
         <v>301</v>
       </c>
       <c r="C300">
-        <v>13160.05837247454</v>
+        <v>16981.80606474369</v>
       </c>
       <c r="D300">
-        <v>95370.05837247449</v>
+        <v>99191.80606474365</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -7350,10 +7350,10 @@
         <v>303</v>
       </c>
       <c r="C302">
-        <v>1013.131071853946</v>
+        <v>3449.348437862194</v>
       </c>
       <c r="D302">
-        <v>63446.1310718539</v>
+        <v>65882.34843786215</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -7392,10 +7392,10 @@
         <v>306</v>
       </c>
       <c r="C305">
-        <v>30058.67613410618</v>
+        <v>33049.92040507546</v>
       </c>
       <c r="D305">
-        <v>114234.6761341061</v>
+        <v>117225.9204050754</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -7420,10 +7420,10 @@
         <v>308</v>
       </c>
       <c r="C307">
-        <v>4357.861145064664</v>
+        <v>5373.454637474686</v>
       </c>
       <c r="D307">
-        <v>61082.86114506471</v>
+        <v>62098.45463747473</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -7434,10 +7434,10 @@
         <v>309</v>
       </c>
       <c r="C308">
-        <v>11174.54379504314</v>
+        <v>11174.46542393436</v>
       </c>
       <c r="D308">
-        <v>63572.54379504309</v>
+        <v>63572.46542393431</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -7462,10 +7462,10 @@
         <v>311</v>
       </c>
       <c r="C310">
-        <v>24561.96547044827</v>
+        <v>21859.15354163411</v>
       </c>
       <c r="D310">
-        <v>143016.9654704483</v>
+        <v>140314.1535416341</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -7476,10 +7476,10 @@
         <v>312</v>
       </c>
       <c r="C311">
-        <v>7165.274947627702</v>
+        <v>8772.169358004423</v>
       </c>
       <c r="D311">
-        <v>64104.27494762772</v>
+        <v>65711.16935800444</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -7602,10 +7602,10 @@
         <v>321</v>
       </c>
       <c r="C320">
-        <v>365.7219456603052</v>
+        <v>2512.228902419643</v>
       </c>
       <c r="D320">
-        <v>61378.72194566033</v>
+        <v>63525.22890241967</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -7616,10 +7616,10 @@
         <v>322</v>
       </c>
       <c r="C321">
-        <v>1240.197559862587</v>
+        <v>3623.31467324344</v>
       </c>
       <c r="D321">
-        <v>84436.19755986251</v>
+        <v>86819.31467324337</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -7672,10 +7672,10 @@
         <v>326</v>
       </c>
       <c r="C325">
-        <v>14225.69683087956</v>
+        <v>15079.35026791677</v>
       </c>
       <c r="D325">
-        <v>97317.6968308795</v>
+        <v>98171.35026791671</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -7700,10 +7700,10 @@
         <v>328</v>
       </c>
       <c r="C327">
-        <v>21101.17060648205</v>
+        <v>20832.45841569731</v>
       </c>
       <c r="D327">
-        <v>85207.17060648203</v>
+        <v>84938.4584156973</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -7728,10 +7728,10 @@
         <v>330</v>
       </c>
       <c r="C329">
-        <v>3164.435916944043</v>
+        <v>6156.065528903433</v>
       </c>
       <c r="D329">
-        <v>98436.43591694397</v>
+        <v>101428.0655289034</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -7840,10 +7840,10 @@
         <v>338</v>
       </c>
       <c r="C337">
-        <v>21689.71678385788</v>
+        <v>23680.25816425387</v>
       </c>
       <c r="D337">
-        <v>118805.7167838579</v>
+        <v>120796.2581642539</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -7854,10 +7854,10 @@
         <v>339</v>
       </c>
       <c r="C338">
-        <v>6872.532314376687</v>
+        <v>10744.97795069902</v>
       </c>
       <c r="D338">
-        <v>85694.53231437672</v>
+        <v>89566.97795069905</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -7882,10 +7882,10 @@
         <v>341</v>
       </c>
       <c r="C340">
-        <v>960.7812201000997</v>
+        <v>2802.206498156003</v>
       </c>
       <c r="D340">
-        <v>63508.78122010009</v>
+        <v>65350.206498156</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -7938,10 +7938,10 @@
         <v>345</v>
       </c>
       <c r="C344">
-        <v>15191.42694692411</v>
+        <v>14899.01576455469</v>
       </c>
       <c r="D344">
-        <v>139351.4269469241</v>
+        <v>139059.0157645547</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -8092,10 +8092,10 @@
         <v>356</v>
       </c>
       <c r="C355">
-        <v>13216.53591619225</v>
+        <v>12165.74521967958</v>
       </c>
       <c r="D355">
-        <v>147091.5359161922</v>
+        <v>146040.7452196795</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -8176,10 +8176,10 @@
         <v>362</v>
       </c>
       <c r="C361">
-        <v>10766.53769962507</v>
+        <v>13469.86337644802</v>
       </c>
       <c r="D361">
-        <v>101916.5376996251</v>
+        <v>104619.863376448</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -8218,10 +8218,10 @@
         <v>365</v>
       </c>
       <c r="C364">
-        <v>8374.553089258188</v>
+        <v>9802.758267320503</v>
       </c>
       <c r="D364">
-        <v>98519.55308925823</v>
+        <v>99947.75826732055</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -8274,10 +8274,10 @@
         <v>369</v>
       </c>
       <c r="C368">
-        <v>21600.60479363843</v>
+        <v>26015.9360438367</v>
       </c>
       <c r="D368">
-        <v>138575.6047936384</v>
+        <v>142990.9360438367</v>
       </c>
     </row>
     <row r="369" spans="1:4">
@@ -8288,10 +8288,10 @@
         <v>370</v>
       </c>
       <c r="C369">
-        <v>7997.853834085778</v>
+        <v>8073.52120534284</v>
       </c>
       <c r="D369">
-        <v>139722.8538340858</v>
+        <v>139798.5212053428</v>
       </c>
     </row>
     <row r="370" spans="1:4">
@@ -8344,10 +8344,10 @@
         <v>374</v>
       </c>
       <c r="C373">
-        <v>5985.108481143528</v>
+        <v>9248.052746941947</v>
       </c>
       <c r="D373">
-        <v>113949.1084811435</v>
+        <v>117212.0527469419</v>
       </c>
     </row>
     <row r="374" spans="1:4">
@@ -8386,10 +8386,10 @@
         <v>377</v>
       </c>
       <c r="C376">
-        <v>0</v>
+        <v>399.4074227593374</v>
       </c>
       <c r="D376">
-        <v>97714</v>
+        <v>98113.40742275934</v>
       </c>
     </row>
     <row r="377" spans="1:4">
@@ -8470,10 +8470,10 @@
         <v>383</v>
       </c>
       <c r="C382">
-        <v>16409.00512650185</v>
+        <v>20259.89464745756</v>
       </c>
       <c r="D382">
-        <v>81421.00512650187</v>
+        <v>85271.89464745758</v>
       </c>
     </row>
     <row r="383" spans="1:4">
@@ -8582,10 +8582,10 @@
         <v>391</v>
       </c>
       <c r="C390">
-        <v>13013.83283099673</v>
+        <v>14298.21860456564</v>
       </c>
       <c r="D390">
-        <v>101187.8328309967</v>
+        <v>102472.2186045657</v>
       </c>
     </row>
     <row r="391" spans="1:4">
@@ -8638,10 +8638,10 @@
         <v>395</v>
       </c>
       <c r="C394">
-        <v>29703.57207777181</v>
+        <v>31526.89487367526</v>
       </c>
       <c r="D394">
-        <v>100972.5720777718</v>
+        <v>102795.8948736752</v>
       </c>
     </row>
     <row r="395" spans="1:4">
@@ -8666,10 +8666,10 @@
         <v>397</v>
       </c>
       <c r="C396">
-        <v>0</v>
+        <v>397.8649516555597</v>
       </c>
       <c r="D396">
-        <v>64107.00000000003</v>
+        <v>64504.86495165559</v>
       </c>
     </row>
     <row r="397" spans="1:4">
@@ -8694,10 +8694,10 @@
         <v>399</v>
       </c>
       <c r="C398">
-        <v>27374.33350232927</v>
+        <v>31178.71146386328</v>
       </c>
       <c r="D398">
-        <v>113878.3335023293</v>
+        <v>117682.7114638633</v>
       </c>
     </row>
     <row r="399" spans="1:4">
@@ -8750,10 +8750,10 @@
         <v>403</v>
       </c>
       <c r="C402">
-        <v>20361.73250213107</v>
+        <v>23092.61958862288</v>
       </c>
       <c r="D402">
-        <v>80901.73250213108</v>
+        <v>83632.6195886229</v>
       </c>
     </row>
     <row r="403" spans="1:4">
@@ -8778,10 +8778,10 @@
         <v>405</v>
       </c>
       <c r="C404">
-        <v>1322.536473247397</v>
+        <v>5790.694781786529</v>
       </c>
       <c r="D404">
-        <v>102519.5364732473</v>
+        <v>106987.6947817864</v>
       </c>
     </row>
     <row r="405" spans="1:4">
@@ -8806,10 +8806,10 @@
         <v>407</v>
       </c>
       <c r="C406">
-        <v>41524.49586632918</v>
+        <v>37773.92842595829</v>
       </c>
       <c r="D406">
-        <v>139199.4958663292</v>
+        <v>135448.9284259583</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -8876,10 +8876,10 @@
         <v>412</v>
       </c>
       <c r="C411">
-        <v>36953.35870197623</v>
+        <v>31934.6929201983</v>
       </c>
       <c r="D411">
-        <v>123501.3587019762</v>
+        <v>118482.6929201983</v>
       </c>
     </row>
     <row r="412" spans="1:4">
@@ -8974,10 +8974,10 @@
         <v>419</v>
       </c>
       <c r="C418">
-        <v>22941.61530298778</v>
+        <v>25252.99166905644</v>
       </c>
       <c r="D418">
-        <v>100864.6153029878</v>
+        <v>103175.9916690565</v>
       </c>
     </row>
     <row r="419" spans="1:4">
@@ -9044,10 +9044,10 @@
         <v>424</v>
       </c>
       <c r="C423">
-        <v>50432.20623891847</v>
+        <v>50087.75397947725</v>
       </c>
       <c r="D423">
-        <v>146007.2062389184</v>
+        <v>145662.7539794772</v>
       </c>
     </row>
     <row r="424" spans="1:4">
@@ -9086,10 +9086,10 @@
         <v>427</v>
       </c>
       <c r="C426">
-        <v>4863.718029805706</v>
+        <v>4803.780674956943</v>
       </c>
       <c r="D426">
-        <v>81383.71802980572</v>
+        <v>81323.78067495696</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -9226,10 +9226,10 @@
         <v>437</v>
       </c>
       <c r="C436">
-        <v>23699.04173502978</v>
+        <v>26053.46028501067</v>
       </c>
       <c r="D436">
-        <v>120243.0417350297</v>
+        <v>122597.4602850106</v>
       </c>
     </row>
     <row r="437" spans="1:4">
@@ -9366,10 +9366,10 @@
         <v>447</v>
       </c>
       <c r="C446">
-        <v>9131.159586704736</v>
+        <v>9103.659708437102</v>
       </c>
       <c r="D446">
-        <v>63901.15958670474</v>
+        <v>63873.65970843711</v>
       </c>
     </row>
     <row r="447" spans="1:4">
@@ -9422,10 +9422,10 @@
         <v>451</v>
       </c>
       <c r="C450">
-        <v>0</v>
+        <v>2750.822128655593</v>
       </c>
       <c r="D450">
-        <v>84093.99999999993</v>
+        <v>86844.82212865552</v>
       </c>
     </row>
     <row r="451" spans="1:4">
@@ -9436,10 +9436,10 @@
         <v>452</v>
       </c>
       <c r="C451">
-        <v>20410.2866284398</v>
+        <v>18347.31913857054</v>
       </c>
       <c r="D451">
-        <v>102014.2866284398</v>
+        <v>99951.31913857053</v>
       </c>
     </row>
     <row r="452" spans="1:4">
@@ -9450,10 +9450,10 @@
         <v>453</v>
       </c>
       <c r="C452">
-        <v>18948.88202421695</v>
+        <v>18756.04139040814</v>
       </c>
       <c r="D452">
-        <v>104254.882024217</v>
+        <v>104062.0413904082</v>
       </c>
     </row>
     <row r="453" spans="1:4">
@@ -9478,10 +9478,10 @@
         <v>455</v>
       </c>
       <c r="C454">
-        <v>27100.86819506015</v>
+        <v>30321.512605789</v>
       </c>
       <c r="D454">
-        <v>116620.8681950602</v>
+        <v>119841.512605789</v>
       </c>
     </row>
     <row r="455" spans="1:4">
@@ -9506,10 +9506,10 @@
         <v>457</v>
       </c>
       <c r="C456">
-        <v>35494.89554214275</v>
+        <v>36193.13583828334</v>
       </c>
       <c r="D456">
-        <v>115886.8955421427</v>
+        <v>116585.1358382833</v>
       </c>
     </row>
     <row r="457" spans="1:4">
@@ -9576,10 +9576,10 @@
         <v>462</v>
       </c>
       <c r="C461">
-        <v>25315.71404708299</v>
+        <v>22118.99786229781</v>
       </c>
       <c r="D461">
-        <v>142750.7140470831</v>
+        <v>139553.9978622979</v>
       </c>
     </row>
     <row r="462" spans="1:4">
@@ -9590,10 +9590,10 @@
         <v>463</v>
       </c>
       <c r="C462">
-        <v>25632.947711056</v>
+        <v>26364.96139508742</v>
       </c>
       <c r="D462">
-        <v>103972.947711056</v>
+        <v>104704.9613950874</v>
       </c>
     </row>
     <row r="463" spans="1:4">
@@ -9758,10 +9758,10 @@
         <v>475</v>
       </c>
       <c r="C474">
-        <v>16864.25624973557</v>
+        <v>18409.29595291859</v>
       </c>
       <c r="D474">
-        <v>83184.25624973561</v>
+        <v>84729.29595291863</v>
       </c>
     </row>
     <row r="475" spans="1:4">
@@ -9856,10 +9856,10 @@
         <v>482</v>
       </c>
       <c r="C481">
-        <v>6891.842933330947</v>
+        <v>7119.862561248483</v>
       </c>
       <c r="D481">
-        <v>61646.84293333097</v>
+        <v>61874.8625612485</v>
       </c>
     </row>
     <row r="482" spans="1:4">
@@ -9898,10 +9898,10 @@
         <v>485</v>
       </c>
       <c r="C484">
-        <v>45494.3051431544</v>
+        <v>43483.22850888385</v>
       </c>
       <c r="D484">
-        <v>139489.3051431544</v>
+        <v>137478.2285088839</v>
       </c>
     </row>
     <row r="485" spans="1:4">
@@ -9926,10 +9926,10 @@
         <v>487</v>
       </c>
       <c r="C486">
-        <v>36027.10907248779</v>
+        <v>32285.95418519122</v>
       </c>
       <c r="D486">
-        <v>122791.1090724878</v>
+        <v>119049.9541851912</v>
       </c>
     </row>
     <row r="487" spans="1:4">
@@ -9954,10 +9954,10 @@
         <v>489</v>
       </c>
       <c r="C488">
-        <v>19463.90727861138</v>
+        <v>20397.72933546545</v>
       </c>
       <c r="D488">
-        <v>84653.9072786114</v>
+        <v>85587.72933546547</v>
       </c>
     </row>
     <row r="489" spans="1:4">
@@ -9982,10 +9982,10 @@
         <v>491</v>
       </c>
       <c r="C490">
-        <v>7125.460906399428</v>
+        <v>9477.537593566565</v>
       </c>
       <c r="D490">
-        <v>80227.4609063994</v>
+        <v>82579.53759356654</v>
       </c>
     </row>
     <row r="491" spans="1:4">
@@ -10139,7 +10139,7 @@
         <v>0</v>
       </c>
       <c r="D501">
-        <v>86282.00000000003</v>
+        <v>96282.00000000007</v>
       </c>
     </row>
     <row r="502" spans="1:4">
@@ -10153,7 +10153,7 @@
         <v>0</v>
       </c>
       <c r="D502">
-        <v>126100</v>
+        <v>136099.9999999999</v>
       </c>
     </row>
     <row r="503" spans="1:4">
@@ -10164,10 +10164,10 @@
         <v>504</v>
       </c>
       <c r="C503">
-        <v>882.9287045888632</v>
+        <v>0</v>
       </c>
       <c r="D503">
-        <v>80548.9287045888</v>
+        <v>89665.99999999994</v>
       </c>
     </row>
     <row r="504" spans="1:4">
@@ -10181,7 +10181,7 @@
         <v>0</v>
       </c>
       <c r="D504">
-        <v>171290</v>
+        <v>181289.9999999999</v>
       </c>
     </row>
     <row r="505" spans="1:4">
@@ -10192,10 +10192,10 @@
         <v>506</v>
       </c>
       <c r="C505">
-        <v>17489.25090284218</v>
+        <v>7535.291668781923</v>
       </c>
       <c r="D505">
-        <v>83095.25090284219</v>
+        <v>83141.29166878191</v>
       </c>
     </row>
     <row r="506" spans="1:4">
@@ -10206,10 +10206,10 @@
         <v>507</v>
       </c>
       <c r="C506">
-        <v>21706.9521784274</v>
+        <v>12428.58754617607</v>
       </c>
       <c r="D506">
-        <v>63457.95217842742</v>
+        <v>64179.58754617609</v>
       </c>
     </row>
     <row r="507" spans="1:4">
@@ -10223,7 +10223,7 @@
         <v>0</v>
       </c>
       <c r="D507">
-        <v>81949.99999999997</v>
+        <v>91950.00000000007</v>
       </c>
     </row>
     <row r="508" spans="1:4">
@@ -10237,7 +10237,7 @@
         <v>0</v>
       </c>
       <c r="D508">
-        <v>119370</v>
+        <v>129370.0000000001</v>
       </c>
     </row>
     <row r="509" spans="1:4">
@@ -10251,7 +10251,7 @@
         <v>0</v>
       </c>
       <c r="D509">
-        <v>160070</v>
+        <v>170070.0000000001</v>
       </c>
     </row>
     <row r="510" spans="1:4">
@@ -10265,7 +10265,7 @@
         <v>0</v>
       </c>
       <c r="D510">
-        <v>71959.00000000006</v>
+        <v>81959.00000000006</v>
       </c>
     </row>
     <row r="511" spans="1:4">
@@ -10279,7 +10279,7 @@
         <v>0</v>
       </c>
       <c r="D511">
-        <v>67945.99999999997</v>
+        <v>77945.99999999997</v>
       </c>
     </row>
     <row r="512" spans="1:4">
@@ -10293,7 +10293,7 @@
         <v>0</v>
       </c>
       <c r="D512">
-        <v>76671.99999999997</v>
+        <v>86671.99999999999</v>
       </c>
     </row>
     <row r="513" spans="1:4">
@@ -10307,7 +10307,7 @@
         <v>0</v>
       </c>
       <c r="D513">
-        <v>88702.00000000003</v>
+        <v>98702.00000000006</v>
       </c>
     </row>
     <row r="514" spans="1:4">
@@ -10321,7 +10321,7 @@
         <v>0</v>
       </c>
       <c r="D514">
-        <v>143030.0000000001</v>
+        <v>153029.9999999999</v>
       </c>
     </row>
     <row r="515" spans="1:4">
@@ -10332,10 +10332,10 @@
         <v>516</v>
       </c>
       <c r="C515">
-        <v>43024.58373020835</v>
+        <v>32967.12708979659</v>
       </c>
       <c r="D515">
-        <v>145484.5837302083</v>
+        <v>145427.1270897966</v>
       </c>
     </row>
     <row r="516" spans="1:4">
@@ -10349,7 +10349,7 @@
         <v>0</v>
       </c>
       <c r="D516">
-        <v>76258.00000000003</v>
+        <v>86258</v>
       </c>
     </row>
     <row r="517" spans="1:4">
@@ -10363,7 +10363,7 @@
         <v>0</v>
       </c>
       <c r="D517">
-        <v>115108.0000000001</v>
+        <v>125108</v>
       </c>
     </row>
     <row r="518" spans="1:4">
@@ -10377,7 +10377,7 @@
         <v>0</v>
       </c>
       <c r="D518">
-        <v>113082</v>
+        <v>123082</v>
       </c>
     </row>
     <row r="519" spans="1:4">
@@ -10391,7 +10391,7 @@
         <v>0</v>
       </c>
       <c r="D519">
-        <v>99311.99999999994</v>
+        <v>109312</v>
       </c>
     </row>
     <row r="520" spans="1:4">
@@ -10402,10 +10402,10 @@
         <v>521</v>
       </c>
       <c r="C520">
-        <v>17933.61253628366</v>
+        <v>10325.05059752478</v>
       </c>
       <c r="D520">
-        <v>80639.61253628369</v>
+        <v>83031.05059752484</v>
       </c>
     </row>
     <row r="521" spans="1:4">
@@ -10419,7 +10419,7 @@
         <v>0</v>
       </c>
       <c r="D521">
-        <v>65050.00000000006</v>
+        <v>75049.99999999994</v>
       </c>
     </row>
     <row r="522" spans="1:4">
@@ -10430,10 +10430,10 @@
         <v>523</v>
       </c>
       <c r="C522">
-        <v>18333.26796889569</v>
+        <v>11536.24420149882</v>
       </c>
       <c r="D522">
-        <v>81255.26796889571</v>
+        <v>84458.24420149888</v>
       </c>
     </row>
     <row r="523" spans="1:4">
@@ -10447,7 +10447,7 @@
         <v>0</v>
       </c>
       <c r="D523">
-        <v>122473.0000000001</v>
+        <v>132473</v>
       </c>
     </row>
     <row r="524" spans="1:4">
@@ -10461,7 +10461,7 @@
         <v>0</v>
       </c>
       <c r="D524">
-        <v>169200</v>
+        <v>179199.9999999999</v>
       </c>
     </row>
     <row r="525" spans="1:4">
@@ -10475,7 +10475,7 @@
         <v>0</v>
       </c>
       <c r="D525">
-        <v>59913.99999999999</v>
+        <v>69914.00000000001</v>
       </c>
     </row>
     <row r="526" spans="1:4">
@@ -10489,7 +10489,7 @@
         <v>0</v>
       </c>
       <c r="D526">
-        <v>116000.0000000001</v>
+        <v>126000.0000000001</v>
       </c>
     </row>
     <row r="527" spans="1:4">
@@ -10503,7 +10503,7 @@
         <v>0</v>
       </c>
       <c r="D527">
-        <v>124156.0000000001</v>
+        <v>134156</v>
       </c>
     </row>
     <row r="528" spans="1:4">
@@ -10517,7 +10517,7 @@
         <v>0</v>
       </c>
       <c r="D528">
-        <v>182075.0000000001</v>
+        <v>192075</v>
       </c>
     </row>
     <row r="529" spans="1:4">
@@ -10528,10 +10528,10 @@
         <v>530</v>
       </c>
       <c r="C529">
-        <v>8510.393982468391</v>
+        <v>2703.243336742889</v>
       </c>
       <c r="D529">
-        <v>85206.39398246846</v>
+        <v>89399.24333674293</v>
       </c>
     </row>
     <row r="530" spans="1:4">
@@ -10545,7 +10545,7 @@
         <v>0</v>
       </c>
       <c r="D530">
-        <v>158100</v>
+        <v>168100.0000000001</v>
       </c>
     </row>
     <row r="531" spans="1:4">
@@ -10559,7 +10559,7 @@
         <v>0</v>
       </c>
       <c r="D531">
-        <v>57185.99999999996</v>
+        <v>67186.00000000003</v>
       </c>
     </row>
     <row r="532" spans="1:4">
@@ -10573,7 +10573,7 @@
         <v>0</v>
       </c>
       <c r="D532">
-        <v>75952.00000000003</v>
+        <v>85952.00000000006</v>
       </c>
     </row>
     <row r="533" spans="1:4">
@@ -10587,7 +10587,7 @@
         <v>0</v>
       </c>
       <c r="D533">
-        <v>118502.9999999999</v>
+        <v>128503</v>
       </c>
     </row>
     <row r="534" spans="1:4">
@@ -10598,10 +10598,10 @@
         <v>535</v>
       </c>
       <c r="C534">
-        <v>15583.95338284574</v>
+        <v>10283.29554622121</v>
       </c>
       <c r="D534">
-        <v>58532.95338284577</v>
+        <v>63232.29554622118</v>
       </c>
     </row>
     <row r="535" spans="1:4">
@@ -10612,10 +10612,10 @@
         <v>536</v>
       </c>
       <c r="C535">
-        <v>31255.07320899243</v>
+        <v>28413.26943443991</v>
       </c>
       <c r="D535">
-        <v>135010.0732089925</v>
+        <v>142168.2694344399</v>
       </c>
     </row>
     <row r="536" spans="1:4">
@@ -10626,10 +10626,10 @@
         <v>537</v>
       </c>
       <c r="C536">
-        <v>18640.88682430871</v>
+        <v>12051.33017571928</v>
       </c>
       <c r="D536">
-        <v>80868.88682430876</v>
+        <v>84279.33017571922</v>
       </c>
     </row>
     <row r="537" spans="1:4">
@@ -10643,7 +10643,7 @@
         <v>0</v>
       </c>
       <c r="D537">
-        <v>66826.99999999996</v>
+        <v>76827.00000000001</v>
       </c>
     </row>
     <row r="538" spans="1:4">
@@ -10654,10 +10654,10 @@
         <v>539</v>
       </c>
       <c r="C538">
-        <v>27040.5849785711</v>
+        <v>22700.93567673853</v>
       </c>
       <c r="D538">
-        <v>114300.584978571</v>
+        <v>119960.9356767385</v>
       </c>
     </row>
     <row r="539" spans="1:4">
@@ -10671,7 +10671,7 @@
         <v>0</v>
       </c>
       <c r="D539">
-        <v>68416.00000000003</v>
+        <v>78416</v>
       </c>
     </row>
     <row r="540" spans="1:4">
@@ -10685,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="D540">
-        <v>178139.9999999999</v>
+        <v>188140.0000000001</v>
       </c>
     </row>
     <row r="541" spans="1:4">
@@ -10699,7 +10699,7 @@
         <v>0</v>
       </c>
       <c r="D541">
-        <v>136530.0000000001</v>
+        <v>146530.0000000001</v>
       </c>
     </row>
     <row r="542" spans="1:4">
@@ -10713,7 +10713,7 @@
         <v>0</v>
       </c>
       <c r="D542">
-        <v>84712.00000000003</v>
+        <v>94712.00000000003</v>
       </c>
     </row>
     <row r="543" spans="1:4">
@@ -10727,7 +10727,7 @@
         <v>0</v>
       </c>
       <c r="D543">
-        <v>85582</v>
+        <v>95582</v>
       </c>
     </row>
     <row r="544" spans="1:4">
@@ -10741,7 +10741,7 @@
         <v>0</v>
       </c>
       <c r="D544">
-        <v>138410.0000000001</v>
+        <v>148409.9999999999</v>
       </c>
     </row>
     <row r="545" spans="1:4">
@@ -10755,7 +10755,7 @@
         <v>0</v>
       </c>
       <c r="D545">
-        <v>124477.0000000001</v>
+        <v>134477.0000000001</v>
       </c>
     </row>
     <row r="546" spans="1:4">
@@ -10766,10 +10766,10 @@
         <v>547</v>
       </c>
       <c r="C546">
-        <v>21528.856841139</v>
+        <v>16187.55652776771</v>
       </c>
       <c r="D546">
-        <v>119764.856841139</v>
+        <v>124423.5565277678</v>
       </c>
     </row>
     <row r="547" spans="1:4">
@@ -10783,7 +10783,7 @@
         <v>0</v>
       </c>
       <c r="D547">
-        <v>55583.00000000001</v>
+        <v>65582.99999999996</v>
       </c>
     </row>
     <row r="548" spans="1:4">
@@ -10794,10 +10794,10 @@
         <v>549</v>
       </c>
       <c r="C548">
-        <v>17288.02989413329</v>
+        <v>12830.24997680136</v>
       </c>
       <c r="D548">
-        <v>59978.02989413327</v>
+        <v>65520.24997680131</v>
       </c>
     </row>
     <row r="549" spans="1:4">
@@ -10811,7 +10811,7 @@
         <v>0</v>
       </c>
       <c r="D549">
-        <v>84588.00000000001</v>
+        <v>94587.99999999994</v>
       </c>
     </row>
     <row r="550" spans="1:4">
@@ -10825,7 +10825,7 @@
         <v>0</v>
       </c>
       <c r="D550">
-        <v>62060.00000000003</v>
+        <v>72059.99999999999</v>
       </c>
     </row>
     <row r="551" spans="1:4">
@@ -10839,7 +10839,7 @@
         <v>0</v>
       </c>
       <c r="D551">
-        <v>52653.99999999999</v>
+        <v>62653.99999999996</v>
       </c>
     </row>
     <row r="552" spans="1:4">
@@ -10853,7 +10853,7 @@
         <v>0</v>
       </c>
       <c r="D552">
-        <v>106453</v>
+        <v>116453</v>
       </c>
     </row>
     <row r="553" spans="1:4">
@@ -10867,7 +10867,7 @@
         <v>0</v>
       </c>
       <c r="D553">
-        <v>103400</v>
+        <v>113400</v>
       </c>
     </row>
     <row r="554" spans="1:4">
@@ -10881,7 +10881,7 @@
         <v>0</v>
       </c>
       <c r="D554">
-        <v>106876</v>
+        <v>116876.0000000001</v>
       </c>
     </row>
     <row r="555" spans="1:4">
@@ -10892,10 +10892,10 @@
         <v>556</v>
       </c>
       <c r="C555">
-        <v>13178.24820057608</v>
+        <v>13798.30127872377</v>
       </c>
       <c r="D555">
-        <v>97103.24820057611</v>
+        <v>107723.3012787238</v>
       </c>
     </row>
     <row r="556" spans="1:4">
@@ -10909,7 +10909,7 @@
         <v>0</v>
       </c>
       <c r="D556">
-        <v>123136</v>
+        <v>133136.0000000001</v>
       </c>
     </row>
     <row r="557" spans="1:4">
@@ -10923,7 +10923,7 @@
         <v>0</v>
       </c>
       <c r="D557">
-        <v>90844.00000000001</v>
+        <v>100844.0000000001</v>
       </c>
     </row>
     <row r="558" spans="1:4">
@@ -10937,7 +10937,7 @@
         <v>0</v>
       </c>
       <c r="D558">
-        <v>144428.0000000001</v>
+        <v>154428</v>
       </c>
     </row>
     <row r="559" spans="1:4">
@@ -10951,7 +10951,7 @@
         <v>0</v>
       </c>
       <c r="D559">
-        <v>114291.9999999999</v>
+        <v>124292</v>
       </c>
     </row>
     <row r="560" spans="1:4">
@@ -10965,7 +10965,7 @@
         <v>0</v>
       </c>
       <c r="D560">
-        <v>69440.99999999999</v>
+        <v>79440.99999999994</v>
       </c>
     </row>
     <row r="561" spans="1:4">
@@ -10979,7 +10979,7 @@
         <v>0</v>
       </c>
       <c r="D561">
-        <v>106132.0000000001</v>
+        <v>116131.9999999999</v>
       </c>
     </row>
     <row r="562" spans="1:4">
@@ -10993,7 +10993,7 @@
         <v>0</v>
       </c>
       <c r="D562">
-        <v>76792.00000000006</v>
+        <v>86791.99999999996</v>
       </c>
     </row>
     <row r="563" spans="1:4">
@@ -11004,10 +11004,10 @@
         <v>564</v>
       </c>
       <c r="C563">
-        <v>29011.72606540144</v>
+        <v>27181.82843433064</v>
       </c>
       <c r="D563">
-        <v>94186.72606540148</v>
+        <v>102356.8284343306</v>
       </c>
     </row>
     <row r="564" spans="1:4">
@@ -11021,7 +11021,7 @@
         <v>0</v>
       </c>
       <c r="D564">
-        <v>150544.9999999999</v>
+        <v>160545.0000000001</v>
       </c>
     </row>
     <row r="565" spans="1:4">
@@ -11032,10 +11032,10 @@
         <v>566</v>
       </c>
       <c r="C565">
-        <v>7481.192085306233</v>
+        <v>5118.320304532186</v>
       </c>
       <c r="D565">
-        <v>132916.1920853062</v>
+        <v>140553.3203045323</v>
       </c>
     </row>
     <row r="566" spans="1:4">
@@ -11049,7 +11049,7 @@
         <v>0</v>
       </c>
       <c r="D566">
-        <v>166185.0000000001</v>
+        <v>176184.9999999999</v>
       </c>
     </row>
     <row r="567" spans="1:4">
@@ -11063,7 +11063,7 @@
         <v>0</v>
       </c>
       <c r="D567">
-        <v>95380.00000000006</v>
+        <v>105379.9999999999</v>
       </c>
     </row>
     <row r="568" spans="1:4">
@@ -11074,10 +11074,10 @@
         <v>569</v>
       </c>
       <c r="C568">
-        <v>10523.26908205876</v>
+        <v>5348.129845544085</v>
       </c>
       <c r="D568">
-        <v>58534.26908205876</v>
+        <v>63359.12984554409</v>
       </c>
     </row>
     <row r="569" spans="1:4">
@@ -11091,7 +11091,7 @@
         <v>0</v>
       </c>
       <c r="D569">
-        <v>131299.9999999999</v>
+        <v>141300.0000000001</v>
       </c>
     </row>
     <row r="570" spans="1:4">
@@ -11102,10 +11102,10 @@
         <v>571</v>
       </c>
       <c r="C570">
-        <v>13101.50563928174</v>
+        <v>9740.837297969818</v>
       </c>
       <c r="D570">
-        <v>59948.50563928171</v>
+        <v>66587.83729796977</v>
       </c>
     </row>
     <row r="571" spans="1:4">
@@ -11116,10 +11116,10 @@
         <v>572</v>
       </c>
       <c r="C571">
-        <v>44049.22504369894</v>
+        <v>38062.25277774199</v>
       </c>
       <c r="D571">
-        <v>114961.2250436989</v>
+        <v>118974.252777742</v>
       </c>
     </row>
     <row r="572" spans="1:4">
@@ -11133,7 +11133,7 @@
         <v>0</v>
       </c>
       <c r="D572">
-        <v>61585.99999999996</v>
+        <v>71586</v>
       </c>
     </row>
     <row r="573" spans="1:4">
@@ -11147,7 +11147,7 @@
         <v>0</v>
       </c>
       <c r="D573">
-        <v>189495.0000000001</v>
+        <v>199495.0000000001</v>
       </c>
     </row>
     <row r="574" spans="1:4">
@@ -11161,7 +11161,7 @@
         <v>0</v>
       </c>
       <c r="D574">
-        <v>176795.0000000001</v>
+        <v>186795.0000000001</v>
       </c>
     </row>
     <row r="575" spans="1:4">
@@ -11175,7 +11175,7 @@
         <v>0</v>
       </c>
       <c r="D575">
-        <v>108075.9999999999</v>
+        <v>118076</v>
       </c>
     </row>
     <row r="576" spans="1:4">
@@ -11189,7 +11189,7 @@
         <v>0</v>
       </c>
       <c r="D576">
-        <v>130634.9999999999</v>
+        <v>140635.0000000001</v>
       </c>
     </row>
     <row r="577" spans="1:4">
@@ -11203,7 +11203,7 @@
         <v>0</v>
       </c>
       <c r="D577">
-        <v>82314.99999999996</v>
+        <v>92314.99999999997</v>
       </c>
     </row>
     <row r="578" spans="1:4">
@@ -11217,7 +11217,7 @@
         <v>0</v>
       </c>
       <c r="D578">
-        <v>132952</v>
+        <v>142952</v>
       </c>
     </row>
     <row r="579" spans="1:4">
@@ -11231,7 +11231,7 @@
         <v>0</v>
       </c>
       <c r="D579">
-        <v>66812</v>
+        <v>76812.00000000003</v>
       </c>
     </row>
     <row r="580" spans="1:4">
@@ -11245,7 +11245,7 @@
         <v>0</v>
       </c>
       <c r="D580">
-        <v>75590.00000000001</v>
+        <v>85590.00000000007</v>
       </c>
     </row>
     <row r="581" spans="1:4">
@@ -11259,7 +11259,7 @@
         <v>0</v>
       </c>
       <c r="D581">
-        <v>128864.0000000001</v>
+        <v>138863.9999999999</v>
       </c>
     </row>
     <row r="582" spans="1:4">
@@ -11273,7 +11273,7 @@
         <v>0</v>
       </c>
       <c r="D582">
-        <v>142976.0000000001</v>
+        <v>152975.9999999999</v>
       </c>
     </row>
     <row r="583" spans="1:4">
@@ -11287,7 +11287,7 @@
         <v>0</v>
       </c>
       <c r="D583">
-        <v>136769.9999999999</v>
+        <v>146769.9999999999</v>
       </c>
     </row>
     <row r="584" spans="1:4">
@@ -11301,7 +11301,7 @@
         <v>0</v>
       </c>
       <c r="D584">
-        <v>142640</v>
+        <v>152639.9999999999</v>
       </c>
     </row>
     <row r="585" spans="1:4">
@@ -11315,7 +11315,7 @@
         <v>0</v>
       </c>
       <c r="D585">
-        <v>76450.00000000001</v>
+        <v>86449.99999999999</v>
       </c>
     </row>
     <row r="586" spans="1:4">
@@ -11329,7 +11329,7 @@
         <v>0</v>
       </c>
       <c r="D586">
-        <v>164055</v>
+        <v>174055.0000000001</v>
       </c>
     </row>
     <row r="587" spans="1:4">
@@ -11340,10 +11340,10 @@
         <v>588</v>
       </c>
       <c r="C587">
-        <v>51915.42967147288</v>
+        <v>45992.18240087641</v>
       </c>
       <c r="D587">
-        <v>136685.429671473</v>
+        <v>140762.1824008765</v>
       </c>
     </row>
     <row r="588" spans="1:4">
@@ -11357,7 +11357,7 @@
         <v>0</v>
       </c>
       <c r="D588">
-        <v>144615</v>
+        <v>154615</v>
       </c>
     </row>
     <row r="589" spans="1:4">
@@ -11371,7 +11371,7 @@
         <v>0</v>
       </c>
       <c r="D589">
-        <v>103644</v>
+        <v>113644</v>
       </c>
     </row>
     <row r="590" spans="1:4">
@@ -11385,7 +11385,7 @@
         <v>0</v>
       </c>
       <c r="D590">
-        <v>54311</v>
+        <v>64311</v>
       </c>
     </row>
     <row r="591" spans="1:4">
@@ -11396,10 +11396,10 @@
         <v>592</v>
       </c>
       <c r="C591">
-        <v>18574.51915000344</v>
+        <v>13751.79457435099</v>
       </c>
       <c r="D591">
-        <v>138454.5191500035</v>
+        <v>143631.794574351</v>
       </c>
     </row>
     <row r="592" spans="1:4">
@@ -11413,7 +11413,7 @@
         <v>0</v>
       </c>
       <c r="D592">
-        <v>110230</v>
+        <v>120230.0000000001</v>
       </c>
     </row>
     <row r="593" spans="1:4">
@@ -11424,10 +11424,10 @@
         <v>594</v>
       </c>
       <c r="C593">
-        <v>10574.81549941717</v>
+        <v>6811.153525514317</v>
       </c>
       <c r="D593">
-        <v>59105.81549941716</v>
+        <v>65342.15352551431</v>
       </c>
     </row>
     <row r="594" spans="1:4">
@@ -11441,7 +11441,7 @@
         <v>0</v>
       </c>
       <c r="D594">
-        <v>52943.99999999996</v>
+        <v>62944.00000000001</v>
       </c>
     </row>
     <row r="595" spans="1:4">
@@ -11455,7 +11455,7 @@
         <v>0</v>
       </c>
       <c r="D595">
-        <v>86071.99999999999</v>
+        <v>96071.99999999997</v>
       </c>
     </row>
     <row r="596" spans="1:4">
@@ -11469,7 +11469,7 @@
         <v>0</v>
       </c>
       <c r="D596">
-        <v>154360</v>
+        <v>164360</v>
       </c>
     </row>
     <row r="597" spans="1:4">
@@ -11480,10 +11480,10 @@
         <v>598</v>
       </c>
       <c r="C597">
-        <v>5452.510939052918</v>
+        <v>1851.686450489113</v>
       </c>
       <c r="D597">
-        <v>58877.51093905294</v>
+        <v>65276.68645048905</v>
       </c>
     </row>
     <row r="598" spans="1:4">
@@ -11497,7 +11497,7 @@
         <v>0</v>
       </c>
       <c r="D598">
-        <v>126595</v>
+        <v>136595</v>
       </c>
     </row>
     <row r="599" spans="1:4">
@@ -11508,10 +11508,10 @@
         <v>600</v>
       </c>
       <c r="C599">
-        <v>17911.03932916111</v>
+        <v>14971.73241643896</v>
       </c>
       <c r="D599">
-        <v>96322.03932916115</v>
+        <v>103382.7324164389</v>
       </c>
     </row>
     <row r="600" spans="1:4">
@@ -11525,7 +11525,7 @@
         <v>0</v>
       </c>
       <c r="D600">
-        <v>81508.00000000004</v>
+        <v>91508.00000000007</v>
       </c>
     </row>
     <row r="601" spans="1:4">
@@ -11536,10 +11536,10 @@
         <v>602</v>
       </c>
       <c r="C601">
-        <v>18061.63196759806</v>
+        <v>16963.73347616507</v>
       </c>
       <c r="D601">
-        <v>96076.63196759811</v>
+        <v>104978.7334761651</v>
       </c>
     </row>
     <row r="602" spans="1:4">
@@ -11553,7 +11553,7 @@
         <v>0</v>
       </c>
       <c r="D602">
-        <v>142599.9999999999</v>
+        <v>152600.0000000001</v>
       </c>
     </row>
     <row r="603" spans="1:4">
@@ -11564,10 +11564,10 @@
         <v>604</v>
       </c>
       <c r="C603">
-        <v>23518.35990824603</v>
+        <v>16530.5402395378</v>
       </c>
       <c r="D603">
-        <v>94925.35990824607</v>
+        <v>102937.5402395378</v>
       </c>
     </row>
     <row r="604" spans="1:4">
@@ -11578,10 +11578,10 @@
         <v>605</v>
       </c>
       <c r="C604">
-        <v>9549.023089891911</v>
+        <v>0</v>
       </c>
       <c r="D604">
-        <v>83133.02308989185</v>
+        <v>88583.99999999996</v>
       </c>
     </row>
     <row r="605" spans="1:4">
@@ -11592,10 +11592,10 @@
         <v>606</v>
       </c>
       <c r="C605">
-        <v>21232.3176083013</v>
+        <v>11739.26012952167</v>
       </c>
       <c r="D605">
-        <v>61895.31760830127</v>
+        <v>67402.26012952166</v>
       </c>
     </row>
     <row r="606" spans="1:4">
@@ -11609,7 +11609,7 @@
         <v>0</v>
       </c>
       <c r="D606">
-        <v>58274</v>
+        <v>73274.00000000001</v>
       </c>
     </row>
     <row r="607" spans="1:4">
@@ -11620,10 +11620,10 @@
         <v>608</v>
       </c>
       <c r="C607">
-        <v>10416.57351955381</v>
+        <v>1182.380473624988</v>
       </c>
       <c r="D607">
-        <v>84278.57351955376</v>
+        <v>90044.38047362497</v>
       </c>
     </row>
     <row r="608" spans="1:4">
@@ -11634,10 +11634,10 @@
         <v>609</v>
       </c>
       <c r="C608">
-        <v>16686.73081861119</v>
+        <v>7311.082123336237</v>
       </c>
       <c r="D608">
-        <v>98083.73081861119</v>
+        <v>103708.0821233363</v>
       </c>
     </row>
     <row r="609" spans="1:4">
@@ -11651,7 +11651,7 @@
         <v>0</v>
       </c>
       <c r="D609">
-        <v>84218.00000000006</v>
+        <v>99217.99999999996</v>
       </c>
     </row>
     <row r="610" spans="1:4">
@@ -11662,10 +11662,10 @@
         <v>611</v>
       </c>
       <c r="C610">
-        <v>22579.51752088895</v>
+        <v>11118.7644599737</v>
       </c>
       <c r="D610">
-        <v>60430.51752088895</v>
+        <v>63969.76445997372</v>
       </c>
     </row>
     <row r="611" spans="1:4">
@@ -11676,10 +11676,10 @@
         <v>612</v>
       </c>
       <c r="C611">
-        <v>4364.204983390213</v>
+        <v>0</v>
       </c>
       <c r="D611">
-        <v>98145.20498339027</v>
+        <v>108780.9999999999</v>
       </c>
     </row>
     <row r="612" spans="1:4">
@@ -11693,7 +11693,7 @@
         <v>0</v>
       </c>
       <c r="D612">
-        <v>55592.99999999999</v>
+        <v>70593</v>
       </c>
     </row>
     <row r="613" spans="1:4">
@@ -11707,7 +11707,7 @@
         <v>0</v>
       </c>
       <c r="D613">
-        <v>122388</v>
+        <v>137388.0000000001</v>
       </c>
     </row>
     <row r="614" spans="1:4">
@@ -11718,10 +11718,10 @@
         <v>615</v>
       </c>
       <c r="C614">
-        <v>28268.71587349124</v>
+        <v>24461.99906205243</v>
       </c>
       <c r="D614">
-        <v>138393.7158734912</v>
+        <v>149586.9990620523</v>
       </c>
     </row>
     <row r="615" spans="1:4">
@@ -11735,7 +11735,7 @@
         <v>0</v>
       </c>
       <c r="D615">
-        <v>61982.99999999999</v>
+        <v>76983.00000000004</v>
       </c>
     </row>
     <row r="616" spans="1:4">
@@ -11749,7 +11749,7 @@
         <v>0</v>
       </c>
       <c r="D616">
-        <v>73616.00000000003</v>
+        <v>88616.00000000007</v>
       </c>
     </row>
     <row r="617" spans="1:4">
@@ -11763,7 +11763,7 @@
         <v>0</v>
       </c>
       <c r="D617">
-        <v>66130.00000000006</v>
+        <v>81130.00000000003</v>
       </c>
     </row>
     <row r="618" spans="1:4">
@@ -11777,7 +11777,7 @@
         <v>0</v>
       </c>
       <c r="D618">
-        <v>138120</v>
+        <v>153120</v>
       </c>
     </row>
     <row r="619" spans="1:4">
@@ -11791,7 +11791,7 @@
         <v>0</v>
       </c>
       <c r="D619">
-        <v>112028.0000000001</v>
+        <v>127027.9999999999</v>
       </c>
     </row>
     <row r="620" spans="1:4">
@@ -11805,7 +11805,7 @@
         <v>0</v>
       </c>
       <c r="D620">
-        <v>56962.00000000004</v>
+        <v>71961.99999999999</v>
       </c>
     </row>
     <row r="621" spans="1:4">
@@ -11819,7 +11819,7 @@
         <v>0</v>
       </c>
       <c r="D621">
-        <v>124442.0000000001</v>
+        <v>139441.9999999999</v>
       </c>
     </row>
     <row r="622" spans="1:4">
@@ -11833,7 +11833,7 @@
         <v>0</v>
       </c>
       <c r="D622">
-        <v>80016.00000000007</v>
+        <v>95015.99999999997</v>
       </c>
     </row>
     <row r="623" spans="1:4">
@@ -11847,7 +11847,7 @@
         <v>0</v>
       </c>
       <c r="D623">
-        <v>155960</v>
+        <v>170959.9999999999</v>
       </c>
     </row>
     <row r="624" spans="1:4">
@@ -11858,10 +11858,10 @@
         <v>625</v>
       </c>
       <c r="C624">
-        <v>13554.21231937688</v>
+        <v>8729.912294048801</v>
       </c>
       <c r="D624">
-        <v>97804.21231937683</v>
+        <v>107979.9122940488</v>
       </c>
     </row>
     <row r="625" spans="1:4">
@@ -11872,10 +11872,10 @@
         <v>626</v>
       </c>
       <c r="C625">
-        <v>6528.579522847271</v>
+        <v>0</v>
       </c>
       <c r="D625">
-        <v>84730.57952284727</v>
+        <v>93202.00000000001</v>
       </c>
     </row>
     <row r="626" spans="1:4">
@@ -11889,7 +11889,7 @@
         <v>0</v>
       </c>
       <c r="D626">
-        <v>85192.00000000003</v>
+        <v>100192.0000000001</v>
       </c>
     </row>
     <row r="627" spans="1:4">
@@ -11903,7 +11903,7 @@
         <v>0</v>
       </c>
       <c r="D627">
-        <v>158715.0000000001</v>
+        <v>173715.0000000001</v>
       </c>
     </row>
     <row r="628" spans="1:4">
@@ -11917,7 +11917,7 @@
         <v>0</v>
       </c>
       <c r="D628">
-        <v>109215.0000000001</v>
+        <v>124215</v>
       </c>
     </row>
     <row r="629" spans="1:4">
@@ -11931,7 +11931,7 @@
         <v>0</v>
       </c>
       <c r="D629">
-        <v>142035</v>
+        <v>157035.0000000001</v>
       </c>
     </row>
     <row r="630" spans="1:4">
@@ -11945,7 +11945,7 @@
         <v>0</v>
       </c>
       <c r="D630">
-        <v>86150.00000000003</v>
+        <v>101150.0000000001</v>
       </c>
     </row>
     <row r="631" spans="1:4">
@@ -11959,7 +11959,7 @@
         <v>0</v>
       </c>
       <c r="D631">
-        <v>189341.9999999998</v>
+        <v>89342.00000000007</v>
       </c>
     </row>
     <row r="632" spans="1:4">
@@ -11970,10 +11970,10 @@
         <v>633</v>
       </c>
       <c r="C632">
-        <v>0</v>
+        <v>47289.2630592293</v>
       </c>
       <c r="D632">
-        <v>142064.9999999999</v>
+        <v>149354.2630592292</v>
       </c>
     </row>
     <row r="633" spans="1:4">
@@ -11987,7 +11987,7 @@
         <v>0</v>
       </c>
       <c r="D633">
-        <v>188762</v>
+        <v>88762.00000000006</v>
       </c>
     </row>
     <row r="634" spans="1:4">
@@ -11998,10 +11998,10 @@
         <v>635</v>
       </c>
       <c r="C634">
-        <v>0</v>
+        <v>1974.640863607608</v>
       </c>
       <c r="D634">
-        <v>67041.99999999996</v>
+        <v>69016.64086360756</v>
       </c>
     </row>
     <row r="635" spans="1:4">
@@ -12026,10 +12026,10 @@
         <v>637</v>
       </c>
       <c r="C636">
-        <v>13649.24190689676</v>
+        <v>17158.6870454438</v>
       </c>
       <c r="D636">
-        <v>80723.24190689674</v>
+        <v>84232.68704544379</v>
       </c>
     </row>
     <row r="637" spans="1:4">
@@ -12068,10 +12068,10 @@
         <v>640</v>
       </c>
       <c r="C639">
-        <v>5623.273651500494</v>
+        <v>10004.4197206909</v>
       </c>
       <c r="D639">
-        <v>79549.27365150055</v>
+        <v>83930.41972069096</v>
       </c>
     </row>
     <row r="640" spans="1:4">
@@ -12096,10 +12096,10 @@
         <v>642</v>
       </c>
       <c r="C641">
-        <v>0</v>
+        <v>3069.777198886426</v>
       </c>
       <c r="D641">
-        <v>102376.0000000001</v>
+        <v>105445.7771988865</v>
       </c>
     </row>
     <row r="642" spans="1:4">
@@ -12180,10 +12180,10 @@
         <v>648</v>
       </c>
       <c r="C647">
-        <v>1011.159553517922</v>
+        <v>10245.43027272006</v>
       </c>
       <c r="D647">
-        <v>98704.15955351785</v>
+        <v>107938.43027272</v>
       </c>
     </row>
     <row r="648" spans="1:4">
@@ -12292,10 +12292,10 @@
         <v>656</v>
       </c>
       <c r="C655">
-        <v>12310.59307530851</v>
+        <v>19333.01961344236</v>
       </c>
       <c r="D655">
-        <v>83842.59307530847</v>
+        <v>90865.01961344232</v>
       </c>
     </row>
     <row r="656" spans="1:4">
@@ -12362,10 +12362,10 @@
         <v>661</v>
       </c>
       <c r="C660">
-        <v>4169.927456260615</v>
+        <v>10820.23309927482</v>
       </c>
       <c r="D660">
-        <v>81915.92745626059</v>
+        <v>88566.23309927479</v>
       </c>
     </row>
     <row r="661" spans="1:4">
@@ -12418,10 +12418,10 @@
         <v>665</v>
       </c>
       <c r="C664">
-        <v>29568.6178815364</v>
+        <v>35565.29033620785</v>
       </c>
       <c r="D664">
-        <v>114140.6178815363</v>
+        <v>120137.2903362078</v>
       </c>
     </row>
     <row r="665" spans="1:4">
@@ -12432,10 +12432,10 @@
         <v>666</v>
       </c>
       <c r="C665">
-        <v>24380.3450597355</v>
+        <v>31911.25555289123</v>
       </c>
       <c r="D665">
-        <v>135645.3450597355</v>
+        <v>143176.2555528912</v>
       </c>
     </row>
     <row r="666" spans="1:4">
@@ -12474,10 +12474,10 @@
         <v>669</v>
       </c>
       <c r="C668">
-        <v>0</v>
+        <v>4242.311306486154</v>
       </c>
       <c r="D668">
-        <v>96987.99999999991</v>
+        <v>101230.3113064861</v>
       </c>
     </row>
     <row r="669" spans="1:4">
@@ -12502,10 +12502,10 @@
         <v>671</v>
       </c>
       <c r="C670">
-        <v>9016.014344978474</v>
+        <v>13648.57702764503</v>
       </c>
       <c r="D670">
-        <v>60239.01434497845</v>
+        <v>64871.57702764501</v>
       </c>
     </row>
     <row r="671" spans="1:4">
@@ -12516,10 +12516,10 @@
         <v>672</v>
       </c>
       <c r="C671">
-        <v>16393.5585701283</v>
+        <v>19696.35335047959</v>
       </c>
       <c r="D671">
-        <v>120917.5585701283</v>
+        <v>124220.3533504796</v>
       </c>
     </row>
     <row r="672" spans="1:4">
@@ -12530,10 +12530,10 @@
         <v>673</v>
       </c>
       <c r="C672">
-        <v>15619.55974887597</v>
+        <v>19966.39965767474</v>
       </c>
       <c r="D672">
-        <v>138004.5597488759</v>
+        <v>142351.3996576747</v>
       </c>
     </row>
     <row r="673" spans="1:4">
@@ -12558,10 +12558,10 @@
         <v>675</v>
       </c>
       <c r="C674">
-        <v>1479.962781775059</v>
+        <v>4336.269465414021</v>
       </c>
       <c r="D674">
-        <v>79171.96278177509</v>
+        <v>82028.26946541405</v>
       </c>
     </row>
     <row r="675" spans="1:4">
@@ -12600,10 +12600,10 @@
         <v>678</v>
       </c>
       <c r="C677">
-        <v>9826.364537558111</v>
+        <v>17939.02899756047</v>
       </c>
       <c r="D677">
-        <v>116394.3645375581</v>
+        <v>124507.0289975605</v>
       </c>
     </row>
     <row r="678" spans="1:4">
@@ -12614,10 +12614,10 @@
         <v>679</v>
       </c>
       <c r="C678">
-        <v>2160.98288202058</v>
+        <v>7255.272559729376</v>
       </c>
       <c r="D678">
-        <v>60603.98288202057</v>
+        <v>65698.27255972936</v>
       </c>
     </row>
     <row r="679" spans="1:4">
@@ -12670,10 +12670,10 @@
         <v>683</v>
       </c>
       <c r="C682">
-        <v>0</v>
+        <v>4294.947970482506</v>
       </c>
       <c r="D682">
-        <v>97756</v>
+        <v>102050.9479704825</v>
       </c>
     </row>
     <row r="683" spans="1:4">
@@ -12726,10 +12726,10 @@
         <v>687</v>
       </c>
       <c r="C686">
-        <v>23799.40216936907</v>
+        <v>32117.12717680993</v>
       </c>
       <c r="D686">
-        <v>114619.402169369</v>
+        <v>122937.1271768099</v>
       </c>
     </row>
     <row r="687" spans="1:4">
@@ -12740,10 +12740,10 @@
         <v>688</v>
       </c>
       <c r="C687">
-        <v>613.475517101062</v>
+        <v>6958.117713818516</v>
       </c>
       <c r="D687">
-        <v>79219.47551710102</v>
+        <v>85564.11771381847</v>
       </c>
     </row>
     <row r="688" spans="1:4">
@@ -12768,10 +12768,10 @@
         <v>690</v>
       </c>
       <c r="C689">
-        <v>10728.63167792841</v>
+        <v>15327.00385939273</v>
       </c>
       <c r="D689">
-        <v>82256.63167792845</v>
+        <v>86855.00385939277</v>
       </c>
     </row>
     <row r="690" spans="1:4">
@@ -12894,10 +12894,10 @@
         <v>699</v>
       </c>
       <c r="C698">
-        <v>22261.98982743663</v>
+        <v>27942.35165460766</v>
       </c>
       <c r="D698">
-        <v>96557.98982743658</v>
+        <v>102238.3516546076</v>
       </c>
     </row>
     <row r="699" spans="1:4">
@@ -12936,10 +12936,10 @@
         <v>702</v>
       </c>
       <c r="C701">
-        <v>0</v>
+        <v>1973.11744352091</v>
       </c>
       <c r="D701">
-        <v>83935.99999999993</v>
+        <v>85909.11744352084</v>
       </c>
     </row>
     <row r="702" spans="1:4">
@@ -12950,10 +12950,10 @@
         <v>703</v>
       </c>
       <c r="C702">
-        <v>0</v>
+        <v>3382.916511408497</v>
       </c>
       <c r="D702">
-        <v>61626.00000000001</v>
+        <v>65008.91651140851</v>
       </c>
     </row>
     <row r="703" spans="1:4">
@@ -13104,10 +13104,10 @@
         <v>714</v>
       </c>
       <c r="C713">
-        <v>0</v>
+        <v>1917.199990795074</v>
       </c>
       <c r="D713">
-        <v>65123.99999999998</v>
+        <v>67041.19999079505</v>
       </c>
     </row>
     <row r="714" spans="1:4">
@@ -13188,10 +13188,10 @@
         <v>720</v>
       </c>
       <c r="C719">
-        <v>4737.849698143385</v>
+        <v>9065.34638579296</v>
       </c>
       <c r="D719">
-        <v>84279.8496981434</v>
+        <v>88607.34638579297</v>
       </c>
     </row>
     <row r="720" spans="1:4">
@@ -13202,10 +13202,10 @@
         <v>721</v>
       </c>
       <c r="C720">
-        <v>3894.508389554336</v>
+        <v>10294.5671786219</v>
       </c>
       <c r="D720">
-        <v>58930.50838955436</v>
+        <v>65330.56717862192</v>
       </c>
     </row>
     <row r="721" spans="1:4">
@@ -13328,10 +13328,10 @@
         <v>730</v>
       </c>
       <c r="C729">
-        <v>0</v>
+        <v>367.264559352021</v>
       </c>
       <c r="D729">
-        <v>61838.00000000005</v>
+        <v>62205.26455935207</v>
       </c>
     </row>
     <row r="730" spans="1:4">
@@ -13426,10 +13426,10 @@
         <v>737</v>
       </c>
       <c r="C736">
-        <v>141.1190444758322</v>
+        <v>0</v>
       </c>
       <c r="D736">
-        <v>61390.1190444758</v>
+        <v>61248.99999999997</v>
       </c>
     </row>
     <row r="737" spans="1:4">
@@ -13454,10 +13454,10 @@
         <v>739</v>
       </c>
       <c r="C738">
-        <v>25173.18612532264</v>
+        <v>26503.898276023</v>
       </c>
       <c r="D738">
-        <v>98038.18612532262</v>
+        <v>99368.89827602298</v>
       </c>
     </row>
     <row r="739" spans="1:4">
@@ -13468,10 +13468,10 @@
         <v>740</v>
       </c>
       <c r="C739">
-        <v>32566.22994942318</v>
+        <v>31559.66300543102</v>
       </c>
       <c r="D739">
-        <v>138936.2299494231</v>
+        <v>137929.6630054309</v>
       </c>
     </row>
     <row r="740" spans="1:4">
@@ -13482,10 +13482,10 @@
         <v>741</v>
       </c>
       <c r="C740">
-        <v>20619.63576805741</v>
+        <v>20474.03225925818</v>
       </c>
       <c r="D740">
-        <v>82645.63576805744</v>
+        <v>82500.03225925821</v>
       </c>
     </row>
     <row r="741" spans="1:4">
@@ -13496,10 +13496,10 @@
         <v>742</v>
       </c>
       <c r="C741">
-        <v>8946.359959656242</v>
+        <v>9818.968457070281</v>
       </c>
       <c r="D741">
-        <v>63499.35995965623</v>
+        <v>64371.96845707027</v>
       </c>
     </row>
     <row r="742" spans="1:4">
@@ -13538,10 +13538,10 @@
         <v>745</v>
       </c>
       <c r="C744">
-        <v>12701.03922168251</v>
+        <v>13845.20787264346</v>
       </c>
       <c r="D744">
-        <v>96711.03922168254</v>
+        <v>97855.20787264348</v>
       </c>
     </row>
     <row r="745" spans="1:4">
@@ -13552,10 +13552,10 @@
         <v>746</v>
       </c>
       <c r="C745">
-        <v>8127.060452144666</v>
+        <v>5507.872714453479</v>
       </c>
       <c r="D745">
-        <v>119719.0604521447</v>
+        <v>117099.8727144535</v>
       </c>
     </row>
     <row r="746" spans="1:4">
@@ -13608,10 +13608,10 @@
         <v>750</v>
       </c>
       <c r="C749">
-        <v>9315.140952130983</v>
+        <v>9638.787781082603</v>
       </c>
       <c r="D749">
-        <v>89261.14095213094</v>
+        <v>89584.78778108256</v>
       </c>
     </row>
     <row r="750" spans="1:4">
@@ -13650,10 +13650,10 @@
         <v>753</v>
       </c>
       <c r="C752">
-        <v>56901.43490276244</v>
+        <v>56891.99654347365</v>
       </c>
       <c r="D752">
-        <v>149441.4349027624</v>
+        <v>149431.9965434737</v>
       </c>
     </row>
     <row r="753" spans="1:4">
@@ -13748,10 +13748,10 @@
         <v>760</v>
       </c>
       <c r="C759">
-        <v>3189.943997990078</v>
+        <v>2882.453455240859</v>
       </c>
       <c r="D759">
-        <v>88679.94399799006</v>
+        <v>88372.45345524084</v>
       </c>
     </row>
     <row r="760" spans="1:4">
@@ -13790,10 +13790,10 @@
         <v>763</v>
       </c>
       <c r="C762">
-        <v>12154.89329098797</v>
+        <v>13788.11604229749</v>
       </c>
       <c r="D762">
-        <v>123778.893290988</v>
+        <v>125412.1160422975</v>
       </c>
     </row>
     <row r="763" spans="1:4">
@@ -13860,10 +13860,10 @@
         <v>768</v>
       </c>
       <c r="C767">
-        <v>50522.34990983878</v>
+        <v>44915.59843645716</v>
       </c>
       <c r="D767">
-        <v>148372.3499098388</v>
+        <v>142765.5984364572</v>
       </c>
     </row>
     <row r="768" spans="1:4">
@@ -13902,10 +13902,10 @@
         <v>771</v>
       </c>
       <c r="C770">
-        <v>1508.839403426638</v>
+        <v>0</v>
       </c>
       <c r="D770">
-        <v>87742.83940342668</v>
+        <v>86234.00000000004</v>
       </c>
     </row>
     <row r="771" spans="1:4">
@@ -14056,10 +14056,10 @@
         <v>782</v>
       </c>
       <c r="C781">
-        <v>8895.738738372631</v>
+        <v>4248.590429200791</v>
       </c>
       <c r="D781">
-        <v>149070.7387383727</v>
+        <v>144423.5904292009</v>
       </c>
     </row>
     <row r="782" spans="1:4">
@@ -14084,10 +14084,10 @@
         <v>784</v>
       </c>
       <c r="C783">
-        <v>4096.943186570308</v>
+        <v>1867.925327129196</v>
       </c>
       <c r="D783">
-        <v>126156.9431865702</v>
+        <v>123927.9253271291</v>
       </c>
     </row>
     <row r="784" spans="1:4">
@@ -14098,10 +14098,10 @@
         <v>785</v>
       </c>
       <c r="C784">
-        <v>0</v>
+        <v>7941.039899078984</v>
       </c>
       <c r="D784">
-        <v>146589.0000000001</v>
+        <v>104530.0398990789</v>
       </c>
     </row>
     <row r="785" spans="1:4">
@@ -14182,10 +14182,10 @@
         <v>791</v>
       </c>
       <c r="C790">
-        <v>18432.01516506661</v>
+        <v>19084.07090883251</v>
       </c>
       <c r="D790">
-        <v>106171.0151650666</v>
+        <v>106823.0709088325</v>
       </c>
     </row>
     <row r="791" spans="1:4">
@@ -14238,10 +14238,10 @@
         <v>795</v>
       </c>
       <c r="C794">
-        <v>60193.43348134615</v>
+        <v>59558.03556054906</v>
       </c>
       <c r="D794">
-        <v>150723.4334813461</v>
+        <v>150088.035560549</v>
       </c>
     </row>
     <row r="795" spans="1:4">
@@ -14294,10 +14294,10 @@
         <v>799</v>
       </c>
       <c r="C798">
-        <v>5461.725874102514</v>
+        <v>6656.267950812136</v>
       </c>
       <c r="D798">
-        <v>68097.72587410256</v>
+        <v>69292.26795081218</v>
       </c>
     </row>
     <row r="799" spans="1:4">
@@ -14350,10 +14350,10 @@
         <v>803</v>
       </c>
       <c r="C802">
-        <v>4461.382937045128</v>
+        <v>7167.351627190059</v>
       </c>
       <c r="D802">
-        <v>106906.3829370451</v>
+        <v>109612.3516271901</v>
       </c>
     </row>
     <row r="803" spans="1:4">
@@ -14378,10 +14378,10 @@
         <v>805</v>
       </c>
       <c r="C804">
-        <v>43215.6226776637</v>
+        <v>38310.24149660938</v>
       </c>
       <c r="D804">
-        <v>129935.6226776637</v>
+        <v>125030.2414966094</v>
       </c>
     </row>
     <row r="805" spans="1:4">
@@ -14448,10 +14448,10 @@
         <v>810</v>
       </c>
       <c r="C809">
-        <v>5505.842004931517</v>
+        <v>5955.712939588528</v>
       </c>
       <c r="D809">
-        <v>66444.84200493155</v>
+        <v>66894.71293958856</v>
       </c>
     </row>
     <row r="810" spans="1:4">
@@ -14476,10 +14476,10 @@
         <v>812</v>
       </c>
       <c r="C811">
-        <v>14194.19866926074</v>
+        <v>14190.47411091699</v>
       </c>
       <c r="D811">
-        <v>66250.19866926075</v>
+        <v>66246.474110917</v>
       </c>
     </row>
     <row r="812" spans="1:4">
@@ -14490,10 +14490,10 @@
         <v>813</v>
       </c>
       <c r="C812">
-        <v>7292.338635503897</v>
+        <v>5205.394232531573</v>
       </c>
       <c r="D812">
-        <v>69012.33863550391</v>
+        <v>66925.39423253159</v>
       </c>
     </row>
     <row r="813" spans="1:4">
@@ -14504,10 +14504,10 @@
         <v>814</v>
       </c>
       <c r="C813">
-        <v>34119.23719699375</v>
+        <v>35762.56614228571</v>
       </c>
       <c r="D813">
-        <v>124231.2371969937</v>
+        <v>125874.5661422857</v>
       </c>
     </row>
     <row r="814" spans="1:4">
@@ -14532,10 +14532,10 @@
         <v>816</v>
       </c>
       <c r="C815">
-        <v>356.3489036062383</v>
+        <v>0</v>
       </c>
       <c r="D815">
-        <v>92198.34890360617</v>
+        <v>91841.99999999993</v>
       </c>
     </row>
     <row r="816" spans="1:4">
@@ -14574,10 +14574,10 @@
         <v>819</v>
       </c>
       <c r="C818">
-        <v>25390.51918737065</v>
+        <v>23221.78852716344</v>
       </c>
       <c r="D818">
-        <v>130706.5191873706</v>
+        <v>128537.7885271634</v>
       </c>
     </row>
     <row r="819" spans="1:4">
@@ -14630,10 +14630,10 @@
         <v>823</v>
       </c>
       <c r="C822">
-        <v>19745.98039785113</v>
+        <v>18567.7371633907</v>
       </c>
       <c r="D822">
-        <v>106482.9803978512</v>
+        <v>105304.7371633908</v>
       </c>
     </row>
     <row r="823" spans="1:4">
@@ -14644,10 +14644,10 @@
         <v>824</v>
       </c>
       <c r="C823">
-        <v>9668.526415300497</v>
+        <v>11766.8142799363</v>
       </c>
       <c r="D823">
-        <v>89944.52641530053</v>
+        <v>92042.81427993633</v>
       </c>
     </row>
     <row r="824" spans="1:4">
@@ -14658,10 +14658,10 @@
         <v>825</v>
       </c>
       <c r="C824">
-        <v>2427.990351821441</v>
+        <v>2214.355547528525</v>
       </c>
       <c r="D824">
-        <v>67181.99035182141</v>
+        <v>66968.3555475285</v>
       </c>
     </row>
     <row r="825" spans="1:4">
@@ -14700,10 +14700,10 @@
         <v>828</v>
       </c>
       <c r="C827">
-        <v>5330.517182580137</v>
+        <v>4424.654996205427</v>
       </c>
       <c r="D827">
-        <v>67422.51718258009</v>
+        <v>66516.65499620538</v>
       </c>
     </row>
     <row r="828" spans="1:4">
@@ -14728,10 +14728,10 @@
         <v>830</v>
       </c>
       <c r="C829">
-        <v>16317.54093733685</v>
+        <v>16358.20529677675</v>
       </c>
       <c r="D829">
-        <v>107518.5409373368</v>
+        <v>107559.2052967767</v>
       </c>
     </row>
     <row r="830" spans="1:4">
@@ -14742,10 +14742,10 @@
         <v>831</v>
       </c>
       <c r="C830">
-        <v>0</v>
+        <v>2934.607978356951</v>
       </c>
       <c r="D830">
-        <v>130998</v>
+        <v>63932.60797835695</v>
       </c>
     </row>
     <row r="831" spans="1:4">
@@ -14756,10 +14756,10 @@
         <v>832</v>
       </c>
       <c r="C831">
-        <v>2899.895886167331</v>
+        <v>44794.02073867645</v>
       </c>
       <c r="D831">
-        <v>155954.8958861674</v>
+        <v>147849.0207386764</v>
       </c>
     </row>
     <row r="832" spans="1:4">
@@ -14773,7 +14773,7 @@
         <v>0</v>
       </c>
       <c r="D832">
-        <v>186455.9999999999</v>
+        <v>146456.0000000001</v>
       </c>
     </row>
     <row r="833" spans="1:4">
@@ -14798,10 +14798,10 @@
         <v>835</v>
       </c>
       <c r="C834">
-        <v>0</v>
+        <v>12364.3340601177</v>
       </c>
       <c r="D834">
-        <v>172097.9999999999</v>
+        <v>104462.3340601177</v>
       </c>
     </row>
     <row r="835" spans="1:4">
@@ -14868,10 +14868,10 @@
         <v>840</v>
       </c>
       <c r="C839">
-        <v>23139.37370677367</v>
+        <v>21406.70445075823</v>
       </c>
       <c r="D839">
-        <v>106213.3737067737</v>
+        <v>104480.7044507583</v>
       </c>
     </row>
     <row r="840" spans="1:4">
@@ -14882,10 +14882,10 @@
         <v>841</v>
       </c>
       <c r="C840">
-        <v>2651.013045620814</v>
+        <v>4884.780797483458</v>
       </c>
       <c r="D840">
-        <v>104295.0130456208</v>
+        <v>106528.7807974834</v>
       </c>
     </row>
     <row r="841" spans="1:4">
@@ -14924,10 +14924,10 @@
         <v>844</v>
       </c>
       <c r="C843">
-        <v>9385.217777095255</v>
+        <v>9719.18641434508</v>
       </c>
       <c r="D843">
-        <v>87351.2177770953</v>
+        <v>87685.18641434512</v>
       </c>
     </row>
     <row r="844" spans="1:4">
@@ -14952,10 +14952,10 @@
         <v>846</v>
       </c>
       <c r="C845">
-        <v>15696.30028822194</v>
+        <v>13270.94631379237</v>
       </c>
       <c r="D845">
-        <v>146051.3002882219</v>
+        <v>143625.9463137923</v>
       </c>
     </row>
     <row r="846" spans="1:4">
@@ -14966,10 +14966,10 @@
         <v>847</v>
       </c>
       <c r="C846">
-        <v>45668.98899836486</v>
+        <v>40365.11128164566</v>
       </c>
       <c r="D846">
-        <v>152893.9889983648</v>
+        <v>147590.1112816456</v>
       </c>
     </row>
     <row r="847" spans="1:4">
@@ -15022,10 +15022,10 @@
         <v>851</v>
       </c>
       <c r="C850">
-        <v>33219.41116124524</v>
+        <v>33546.29981730039</v>
       </c>
       <c r="D850">
-        <v>107140.4111612452</v>
+        <v>107467.2998173004</v>
       </c>
     </row>
     <row r="851" spans="1:4">
@@ -15134,10 +15134,10 @@
         <v>859</v>
       </c>
       <c r="C858">
-        <v>8262.987724055318</v>
+        <v>8812.424916365897</v>
       </c>
       <c r="D858">
-        <v>67368.9877240553</v>
+        <v>67918.42491636588</v>
       </c>
     </row>
     <row r="859" spans="1:4">
@@ -15148,10 +15148,10 @@
         <v>860</v>
       </c>
       <c r="C859">
-        <v>17932.05619274733</v>
+        <v>16560.77240158264</v>
       </c>
       <c r="D859">
-        <v>89046.0561927473</v>
+        <v>87674.77240158261</v>
       </c>
     </row>
     <row r="860" spans="1:4">
@@ -15218,10 +15218,10 @@
         <v>865</v>
       </c>
       <c r="C864">
-        <v>9627.912506850334</v>
+        <v>9814.793487037008</v>
       </c>
       <c r="D864">
-        <v>105202.9125068502</v>
+        <v>105389.7934870369</v>
       </c>
     </row>
     <row r="865" spans="1:4">
@@ -15274,10 +15274,10 @@
         <v>869</v>
       </c>
       <c r="C868">
-        <v>13435.22799775907</v>
+        <v>11813.10141248925</v>
       </c>
       <c r="D868">
-        <v>67290.22799775905</v>
+        <v>65668.10141248922</v>
       </c>
     </row>
     <row r="869" spans="1:4">
@@ -15288,10 +15288,10 @@
         <v>870</v>
       </c>
       <c r="C869">
-        <v>13449.01875439435</v>
+        <v>11912.58201186739</v>
       </c>
       <c r="D869">
-        <v>91869.01875439438</v>
+        <v>90332.58201186742</v>
       </c>
     </row>
     <row r="870" spans="1:4">
@@ -15330,10 +15330,10 @@
         <v>873</v>
       </c>
       <c r="C872">
-        <v>4633.067076736923</v>
+        <v>3755.327383411619</v>
       </c>
       <c r="D872">
-        <v>66114.06707673693</v>
+        <v>65236.32738341163</v>
       </c>
     </row>
     <row r="873" spans="1:4">
@@ -15344,10 +15344,10 @@
         <v>874</v>
       </c>
       <c r="C873">
-        <v>17490.38144945771</v>
+        <v>15679.88577926824</v>
       </c>
       <c r="D873">
-        <v>88198.38144945772</v>
+        <v>86387.88577926825</v>
       </c>
     </row>
     <row r="874" spans="1:4">
@@ -15372,10 +15372,10 @@
         <v>876</v>
       </c>
       <c r="C875">
-        <v>31645.22277087875</v>
+        <v>30858.09166946172</v>
       </c>
       <c r="D875">
-        <v>105203.2227708787</v>
+        <v>104416.0916694617</v>
       </c>
     </row>
     <row r="876" spans="1:4">
@@ -15386,10 +15386,10 @@
         <v>877</v>
       </c>
       <c r="C876">
-        <v>1790.288631467687</v>
+        <v>2368.755818406818</v>
       </c>
       <c r="D876">
-        <v>88930.28863146761</v>
+        <v>89508.75581840675</v>
       </c>
     </row>
     <row r="877" spans="1:4">
@@ -15428,10 +15428,10 @@
         <v>880</v>
       </c>
       <c r="C879">
-        <v>24442.35329251763</v>
+        <v>21133.09613621113</v>
       </c>
       <c r="D879">
-        <v>87632.35329251763</v>
+        <v>84323.09613621113</v>
       </c>
     </row>
     <row r="880" spans="1:4">
@@ -15484,10 +15484,10 @@
         <v>884</v>
       </c>
       <c r="C883">
-        <v>4531.151981826384</v>
+        <v>3567.244513664991</v>
       </c>
       <c r="D883">
-        <v>66233.15198182644</v>
+        <v>65269.24451366504</v>
       </c>
     </row>
     <row r="884" spans="1:4">

--- a/df_gap.xlsx
+++ b/df_gap.xlsx
@@ -3178,10 +3178,10 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>11572.79219414099</v>
+        <v>11472.13580509894</v>
       </c>
       <c r="D4">
-        <v>82984.792194141</v>
+        <v>82884.13580509895</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3248,10 +3248,10 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>30661.73973592736</v>
+        <v>27048.2495634654</v>
       </c>
       <c r="D9">
-        <v>106307.7397359274</v>
+        <v>102694.2495634655</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3262,10 +3262,10 @@
         <v>11</v>
       </c>
       <c r="C10">
-        <v>16612.27730273004</v>
+        <v>14492.655792964</v>
       </c>
       <c r="D10">
-        <v>67826.27730273006</v>
+        <v>65706.65579296401</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3542,10 +3542,10 @@
         <v>31</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>1424.640856239552</v>
       </c>
       <c r="D30">
-        <v>197603.0000000001</v>
+        <v>99027.64085623957</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -3556,10 +3556,10 @@
         <v>32</v>
       </c>
       <c r="C31">
-        <v>19680.17872947738</v>
+        <v>17108.25594752688</v>
       </c>
       <c r="D31">
-        <v>86250.17872947741</v>
+        <v>83678.25594752691</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -3584,10 +3584,10 @@
         <v>34</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>21595.43378763703</v>
       </c>
       <c r="D33">
-        <v>161054</v>
+        <v>82649.43378763706</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -3598,10 +3598,10 @@
         <v>35</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>28506.80210470731</v>
       </c>
       <c r="D34">
-        <v>290404</v>
+        <v>118910.8021047074</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -3612,10 +3612,10 @@
         <v>36</v>
       </c>
       <c r="C35">
-        <v>33822.58935457664</v>
+        <v>29561.3654685084</v>
       </c>
       <c r="D35">
-        <v>103867.5893545766</v>
+        <v>99606.3654685084</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -3654,10 +3654,10 @@
         <v>39</v>
       </c>
       <c r="C38">
-        <v>10710.08625470416</v>
+        <v>5598.604412760222</v>
       </c>
       <c r="D38">
-        <v>108745.0862547042</v>
+        <v>103633.6044127603</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -4046,10 +4046,10 @@
         <v>67</v>
       </c>
       <c r="C66">
-        <v>3336.941433740023</v>
+        <v>0</v>
       </c>
       <c r="D66">
-        <v>88726.94143374002</v>
+        <v>85390</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -4074,10 +4074,10 @@
         <v>69</v>
       </c>
       <c r="C68">
-        <v>20370.37039839836</v>
+        <v>16341.46436628776</v>
       </c>
       <c r="D68">
-        <v>103387.3703983983</v>
+        <v>99358.46436628774</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -4102,10 +4102,10 @@
         <v>71</v>
       </c>
       <c r="C70">
-        <v>1709.67492774986</v>
+        <v>0</v>
       </c>
       <c r="D70">
-        <v>64019.67492774987</v>
+        <v>62310.00000000001</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -4116,10 +4116,10 @@
         <v>72</v>
       </c>
       <c r="C71">
-        <v>13889.21357861307</v>
+        <v>11641.61604590311</v>
       </c>
       <c r="D71">
-        <v>67693.21357861307</v>
+        <v>65445.6160459031</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -4130,10 +4130,10 @@
         <v>73</v>
       </c>
       <c r="C72">
-        <v>12899.19384800876</v>
+        <v>7547.877969843772</v>
       </c>
       <c r="D72">
-        <v>88167.19384800878</v>
+        <v>82815.8779698438</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -4158,10 +4158,10 @@
         <v>75</v>
       </c>
       <c r="C74">
-        <v>12616.89419789051</v>
+        <v>10229.24639491073</v>
       </c>
       <c r="D74">
-        <v>143676.8941978905</v>
+        <v>141289.2463949107</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -4200,10 +4200,10 @@
         <v>78</v>
       </c>
       <c r="C77">
-        <v>194.8192270364307</v>
+        <v>0</v>
       </c>
       <c r="D77">
-        <v>64585.81922703645</v>
+        <v>64391.00000000002</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -4231,7 +4231,7 @@
         <v>0</v>
       </c>
       <c r="D79">
-        <v>221891</v>
+        <v>121891</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -4298,10 +4298,10 @@
         <v>85</v>
       </c>
       <c r="C84">
-        <v>20130.8929798113</v>
+        <v>18472.14922934253</v>
       </c>
       <c r="D84">
-        <v>84666.89297981132</v>
+        <v>83008.14922934255</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -4326,10 +4326,10 @@
         <v>87</v>
       </c>
       <c r="C86">
-        <v>16238.00886154499</v>
+        <v>15049.56968420245</v>
       </c>
       <c r="D86">
-        <v>66973.00886154502</v>
+        <v>65784.56968420248</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -4382,10 +4382,10 @@
         <v>91</v>
       </c>
       <c r="C90">
-        <v>12139.92377609697</v>
+        <v>17021.89643320093</v>
       </c>
       <c r="D90">
-        <v>138084.9237760969</v>
+        <v>142966.8964332009</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -4634,10 +4634,10 @@
         <v>109</v>
       </c>
       <c r="C108">
-        <v>4592.308808146539</v>
+        <v>1340.379721932419</v>
       </c>
       <c r="D108">
-        <v>86390.3088081466</v>
+        <v>83138.37972193248</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -4732,10 +4732,10 @@
         <v>116</v>
       </c>
       <c r="C115">
-        <v>6865.613605941617</v>
+        <v>4062.293137195215</v>
       </c>
       <c r="D115">
-        <v>65825.61360594163</v>
+        <v>63022.29313719523</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -4760,10 +4760,10 @@
         <v>118</v>
       </c>
       <c r="C117">
-        <v>12606.82033532338</v>
+        <v>6661.559138358425</v>
       </c>
       <c r="D117">
-        <v>88200.8203353234</v>
+        <v>82255.55913835844</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -4830,10 +4830,10 @@
         <v>123</v>
       </c>
       <c r="C122">
-        <v>21769.41141041328</v>
+        <v>17844.81215991671</v>
       </c>
       <c r="D122">
-        <v>127821.4114104132</v>
+        <v>123896.8121599166</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -4914,10 +4914,10 @@
         <v>129</v>
       </c>
       <c r="C128">
-        <v>36030.56659414283</v>
+        <v>30954.68721321145</v>
       </c>
       <c r="D128">
-        <v>145295.5665941429</v>
+        <v>140219.6872132116</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -5026,10 +5026,10 @@
         <v>137</v>
       </c>
       <c r="C136">
-        <v>23860.67949505497</v>
+        <v>16399.11574033764</v>
       </c>
       <c r="D136">
-        <v>150185.679495055</v>
+        <v>142724.1157403377</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -5040,10 +5040,10 @@
         <v>138</v>
       </c>
       <c r="C137">
-        <v>26680.01390691946</v>
+        <v>21376.18105561548</v>
       </c>
       <c r="D137">
-        <v>151810.0139069195</v>
+        <v>146506.1810556155</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -5082,10 +5082,10 @@
         <v>141</v>
       </c>
       <c r="C140">
-        <v>3213.999186115754</v>
+        <v>1671.9016148015</v>
       </c>
       <c r="D140">
-        <v>67061.99918611572</v>
+        <v>65519.90161480146</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -5110,10 +5110,10 @@
         <v>143</v>
       </c>
       <c r="C142">
-        <v>52319.52775840159</v>
+        <v>46539.02012211797</v>
       </c>
       <c r="D142">
-        <v>152284.5277584016</v>
+        <v>146504.0201221179</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -5138,10 +5138,10 @@
         <v>145</v>
       </c>
       <c r="C144">
-        <v>48765.94090466583</v>
+        <v>45189.99794557283</v>
       </c>
       <c r="D144">
-        <v>142980.9409046658</v>
+        <v>139404.9979455728</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -5166,10 +5166,10 @@
         <v>147</v>
       </c>
       <c r="C146">
-        <v>9097.677649211051</v>
+        <v>4793.765149123705</v>
       </c>
       <c r="D146">
-        <v>87463.67764921109</v>
+        <v>83159.76514912375</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -5208,10 +5208,10 @@
         <v>150</v>
       </c>
       <c r="C149">
-        <v>10090.64098231156</v>
+        <v>7576.985332143813</v>
       </c>
       <c r="D149">
-        <v>64824.64098231159</v>
+        <v>62310.98533214384</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -5404,10 +5404,10 @@
         <v>164</v>
       </c>
       <c r="C163">
-        <v>38157.58175072529</v>
+        <v>31554.36377829222</v>
       </c>
       <c r="D163">
-        <v>123469.5817507252</v>
+        <v>116866.3637782921</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -5488,10 +5488,10 @@
         <v>170</v>
       </c>
       <c r="C169">
-        <v>24675.16274466433</v>
+        <v>21924.1672859855</v>
       </c>
       <c r="D169">
-        <v>89385.16274466428</v>
+        <v>86634.16728598546</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -5530,10 +5530,10 @@
         <v>173</v>
       </c>
       <c r="C172">
-        <v>19283.08264257236</v>
+        <v>19263.6978294501</v>
       </c>
       <c r="D172">
-        <v>83419.08264257235</v>
+        <v>83399.69782945009</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -5558,10 +5558,10 @@
         <v>175</v>
       </c>
       <c r="C174">
-        <v>14147.54143063919</v>
+        <v>8330.326497842412</v>
       </c>
       <c r="D174">
-        <v>107157.5414306392</v>
+        <v>101340.3264978424</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -5586,10 +5586,10 @@
         <v>177</v>
       </c>
       <c r="C176">
-        <v>25361.94336027262</v>
+        <v>28719.71265593157</v>
       </c>
       <c r="D176">
-        <v>137671.9433602725</v>
+        <v>141029.7126559315</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -5600,10 +5600,10 @@
         <v>178</v>
       </c>
       <c r="C177">
-        <v>4320.428680719349</v>
+        <v>2855.294774079164</v>
       </c>
       <c r="D177">
-        <v>67299.42868071937</v>
+        <v>65834.29477407919</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -5614,10 +5614,10 @@
         <v>179</v>
       </c>
       <c r="C178">
-        <v>13802.71586449876</v>
+        <v>11609.28262426259</v>
       </c>
       <c r="D178">
-        <v>65469.71586449874</v>
+        <v>63276.28262426257</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -5684,10 +5684,10 @@
         <v>184</v>
       </c>
       <c r="C183">
-        <v>5186.929783975364</v>
+        <v>4264.477475859188</v>
       </c>
       <c r="D183">
-        <v>63876.92978397539</v>
+        <v>62954.47747585921</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -5726,10 +5726,10 @@
         <v>187</v>
       </c>
       <c r="C186">
-        <v>10715.48604554732</v>
+        <v>10255.2303584882</v>
       </c>
       <c r="D186">
-        <v>83581.4860455473</v>
+        <v>83121.23035848817</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -5740,10 +5740,10 @@
         <v>188</v>
       </c>
       <c r="C187">
-        <v>1189.89759107279</v>
+        <v>0</v>
       </c>
       <c r="D187">
-        <v>105665.8975910727</v>
+        <v>104476</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -5782,10 +5782,10 @@
         <v>191</v>
       </c>
       <c r="C190">
-        <v>7505.575891471046</v>
+        <v>8839.220626479699</v>
       </c>
       <c r="D190">
-        <v>119041.575891471</v>
+        <v>120375.2206264797</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -5810,10 +5810,10 @@
         <v>193</v>
       </c>
       <c r="C192">
-        <v>12244.05670910684</v>
+        <v>5676.505029303167</v>
       </c>
       <c r="D192">
-        <v>145574.0567091068</v>
+        <v>139006.5050293031</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -5852,10 +5852,10 @@
         <v>196</v>
       </c>
       <c r="C195">
-        <v>19572.63757351811</v>
+        <v>17736.79116742181</v>
       </c>
       <c r="D195">
-        <v>84624.63757351812</v>
+        <v>82788.79116742182</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -5964,10 +5964,10 @@
         <v>204</v>
       </c>
       <c r="C203">
-        <v>25174.79525165915</v>
+        <v>21397.05484065831</v>
       </c>
       <c r="D203">
-        <v>121362.7952516591</v>
+        <v>117585.0548406583</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -5978,10 +5978,10 @@
         <v>205</v>
       </c>
       <c r="C204">
-        <v>21617.1147085417</v>
+        <v>18663.03510237836</v>
       </c>
       <c r="D204">
-        <v>86551.11470854166</v>
+        <v>83597.03510237832</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -6006,10 +6006,10 @@
         <v>207</v>
       </c>
       <c r="C206">
-        <v>1395.924152292864</v>
+        <v>404.5828537074412</v>
       </c>
       <c r="D206">
-        <v>84087.92415229289</v>
+        <v>83096.58285370747</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -6048,10 +6048,10 @@
         <v>210</v>
       </c>
       <c r="C209">
-        <v>3407.650927127339</v>
+        <v>1968.691695394344</v>
       </c>
       <c r="D209">
-        <v>141572.6509271274</v>
+        <v>140133.6916953944</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -6118,10 +6118,10 @@
         <v>215</v>
       </c>
       <c r="C214">
-        <v>25386.04101036621</v>
+        <v>23501.98001438646</v>
       </c>
       <c r="D214">
-        <v>122754.0410103663</v>
+        <v>120869.9800143865</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -6132,10 +6132,10 @@
         <v>216</v>
       </c>
       <c r="C215">
-        <v>25589.20534220171</v>
+        <v>19303.79512264339</v>
       </c>
       <c r="D215">
-        <v>124885.2053422017</v>
+        <v>118599.7951226434</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -6174,10 +6174,10 @@
         <v>219</v>
       </c>
       <c r="C218">
-        <v>13660.69556746299</v>
+        <v>12871.07042584468</v>
       </c>
       <c r="D218">
-        <v>64627.69556746302</v>
+        <v>63838.0704258447</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -6188,10 +6188,10 @@
         <v>220</v>
       </c>
       <c r="C219">
-        <v>108.1952729566547</v>
+        <v>0</v>
       </c>
       <c r="D219">
-        <v>85872.19527295661</v>
+        <v>85763.99999999996</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -6202,10 +6202,10 @@
         <v>221</v>
       </c>
       <c r="C220">
-        <v>20539.10083836062</v>
+        <v>19254.08275485538</v>
       </c>
       <c r="D220">
-        <v>121695.1008383607</v>
+        <v>120410.0827548554</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -6216,10 +6216,10 @@
         <v>222</v>
       </c>
       <c r="C221">
-        <v>9482.309689634931</v>
+        <v>8606.403311019487</v>
       </c>
       <c r="D221">
-        <v>101928.3096896349</v>
+        <v>101052.4033110194</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -6300,10 +6300,10 @@
         <v>228</v>
       </c>
       <c r="C227">
-        <v>19011.37753424179</v>
+        <v>13765.10376738341</v>
       </c>
       <c r="D227">
-        <v>87649.37753424176</v>
+        <v>82403.10376738338</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -6314,10 +6314,10 @@
         <v>229</v>
       </c>
       <c r="C228">
-        <v>20205.59057909537</v>
+        <v>23998.237065707</v>
       </c>
       <c r="D228">
-        <v>135510.5905790954</v>
+        <v>139303.2370657071</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -6370,10 +6370,10 @@
         <v>233</v>
       </c>
       <c r="C232">
-        <v>10244.66427318632</v>
+        <v>8123.102967454157</v>
       </c>
       <c r="D232">
-        <v>65169.66427318635</v>
+        <v>63048.10296745419</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -6384,10 +6384,10 @@
         <v>234</v>
       </c>
       <c r="C233">
-        <v>13311.1445052429</v>
+        <v>15143.19511585651</v>
       </c>
       <c r="D233">
-        <v>119119.1445052429</v>
+        <v>120951.1951158565</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -6468,10 +6468,10 @@
         <v>240</v>
       </c>
       <c r="C239">
-        <v>8891.276699336144</v>
+        <v>6345.491912158992</v>
       </c>
       <c r="D239">
-        <v>65196.27669933617</v>
+        <v>62650.49191215901</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -6482,10 +6482,10 @@
         <v>241</v>
       </c>
       <c r="C240">
-        <v>7971.235023783804</v>
+        <v>6267.874656665743</v>
       </c>
       <c r="D240">
-        <v>65604.23502378378</v>
+        <v>63900.87465666572</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -6510,10 +6510,10 @@
         <v>243</v>
       </c>
       <c r="C242">
-        <v>24665.59462230919</v>
+        <v>19483.9735673117</v>
       </c>
       <c r="D242">
-        <v>104379.5946223092</v>
+        <v>99197.97356731174</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -6566,10 +6566,10 @@
         <v>247</v>
       </c>
       <c r="C246">
-        <v>32169.97377083375</v>
+        <v>35118.03723309193</v>
       </c>
       <c r="D246">
-        <v>120409.9737708338</v>
+        <v>123358.037233092</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -6664,10 +6664,10 @@
         <v>254</v>
       </c>
       <c r="C253">
-        <v>24098.01716827667</v>
+        <v>22782.72295468036</v>
       </c>
       <c r="D253">
-        <v>87770.01716827671</v>
+        <v>86454.7229546804</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -6706,10 +6706,10 @@
         <v>257</v>
       </c>
       <c r="C256">
-        <v>22323.97197392456</v>
+        <v>23029.15393102491</v>
       </c>
       <c r="D256">
-        <v>98710.97197392452</v>
+        <v>99416.15393102486</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -6762,10 +6762,10 @@
         <v>261</v>
       </c>
       <c r="C260">
-        <v>1286.784974159513</v>
+        <v>3941.549880529754</v>
       </c>
       <c r="D260">
-        <v>80444.7849741595</v>
+        <v>83099.54988052974</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -6818,10 +6818,10 @@
         <v>265</v>
       </c>
       <c r="C264">
-        <v>6327.653280480736</v>
+        <v>5545.967588580097</v>
       </c>
       <c r="D264">
-        <v>142177.6532804807</v>
+        <v>141395.9675885801</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -6832,10 +6832,10 @@
         <v>266</v>
       </c>
       <c r="C265">
-        <v>1350.975877337783</v>
+        <v>1715.650647953262</v>
       </c>
       <c r="D265">
-        <v>62899.97587733782</v>
+        <v>63264.6506479533</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -6916,10 +6916,10 @@
         <v>272</v>
       </c>
       <c r="C271">
-        <v>25777.41260432288</v>
+        <v>29709.64643174909</v>
       </c>
       <c r="D271">
-        <v>138602.4126043229</v>
+        <v>142534.6464317491</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -6972,10 +6972,10 @@
         <v>276</v>
       </c>
       <c r="C275">
-        <v>21271.29568731463</v>
+        <v>23467.94184722792</v>
       </c>
       <c r="D275">
-        <v>98753.29568731459</v>
+        <v>100949.9418472279</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -7042,10 +7042,10 @@
         <v>281</v>
       </c>
       <c r="C280">
-        <v>9328.678973369366</v>
+        <v>8161.580755296476</v>
       </c>
       <c r="D280">
-        <v>66876.67897336931</v>
+        <v>65709.58075529643</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -7056,10 +7056,10 @@
         <v>282</v>
       </c>
       <c r="C281">
-        <v>1994.72474384708</v>
+        <v>5.451393358787755</v>
       </c>
       <c r="D281">
-        <v>86132.72474384707</v>
+        <v>84143.45139335877</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -7098,10 +7098,10 @@
         <v>285</v>
       </c>
       <c r="C284">
-        <v>5006.667188907057</v>
+        <v>3933.401065345795</v>
       </c>
       <c r="D284">
-        <v>84280.66718890701</v>
+        <v>83207.40106534575</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -7112,10 +7112,10 @@
         <v>286</v>
       </c>
       <c r="C285">
-        <v>29065.73478354777</v>
+        <v>23368.18982480728</v>
       </c>
       <c r="D285">
-        <v>125933.7347835477</v>
+        <v>120236.1898248073</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -7140,10 +7140,10 @@
         <v>288</v>
       </c>
       <c r="C287">
-        <v>7434.58320095895</v>
+        <v>12173.95716411622</v>
       </c>
       <c r="D287">
-        <v>114326.583200959</v>
+        <v>119065.9571641163</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -7182,10 +7182,10 @@
         <v>291</v>
       </c>
       <c r="C290">
-        <v>18940.93813691077</v>
+        <v>18247.29524388201</v>
       </c>
       <c r="D290">
-        <v>147610.9381369108</v>
+        <v>146917.295243882</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -7210,10 +7210,10 @@
         <v>293</v>
       </c>
       <c r="C292">
-        <v>13615.18406401946</v>
+        <v>10778.87870829389</v>
       </c>
       <c r="D292">
-        <v>65171.18406401948</v>
+        <v>62334.87870829392</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -7252,10 +7252,10 @@
         <v>296</v>
       </c>
       <c r="C295">
-        <v>29723.06873964805</v>
+        <v>30721.54433018331</v>
       </c>
       <c r="D295">
-        <v>118211.0687396481</v>
+        <v>119209.5443301834</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -7294,10 +7294,10 @@
         <v>299</v>
       </c>
       <c r="C298">
-        <v>17819.68040819069</v>
+        <v>18664.2093293439</v>
       </c>
       <c r="D298">
-        <v>97974.68040819064</v>
+        <v>98819.20932934385</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -7322,10 +7322,10 @@
         <v>301</v>
       </c>
       <c r="C300">
-        <v>16981.80606474369</v>
+        <v>16319.08206958084</v>
       </c>
       <c r="D300">
-        <v>99191.80606474365</v>
+        <v>98529.08206958079</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -7350,10 +7350,10 @@
         <v>303</v>
       </c>
       <c r="C302">
-        <v>3449.348437862194</v>
+        <v>3128.379687982408</v>
       </c>
       <c r="D302">
-        <v>65882.34843786215</v>
+        <v>65561.37968798236</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -7392,10 +7392,10 @@
         <v>306</v>
       </c>
       <c r="C305">
-        <v>33049.92040507546</v>
+        <v>33394.31134832228</v>
       </c>
       <c r="D305">
-        <v>117225.9204050754</v>
+        <v>117570.3113483222</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -7420,10 +7420,10 @@
         <v>308</v>
       </c>
       <c r="C307">
-        <v>5373.454637474686</v>
+        <v>6388.013113067485</v>
       </c>
       <c r="D307">
-        <v>62098.45463747473</v>
+        <v>63113.01311306753</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -7434,10 +7434,10 @@
         <v>309</v>
       </c>
       <c r="C308">
-        <v>11174.46542393436</v>
+        <v>10827.04029187107</v>
       </c>
       <c r="D308">
-        <v>63572.46542393431</v>
+        <v>63225.04029187102</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -7462,10 +7462,10 @@
         <v>311</v>
       </c>
       <c r="C310">
-        <v>21859.15354163411</v>
+        <v>21938.54488011038</v>
       </c>
       <c r="D310">
-        <v>140314.1535416341</v>
+        <v>140393.5448801104</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -7476,10 +7476,10 @@
         <v>312</v>
       </c>
       <c r="C311">
-        <v>8772.169358004423</v>
+        <v>6476.024493204692</v>
       </c>
       <c r="D311">
-        <v>65711.16935800444</v>
+        <v>63415.02449320471</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -7602,10 +7602,10 @@
         <v>321</v>
       </c>
       <c r="C320">
-        <v>2512.228902419643</v>
+        <v>2468.407309221569</v>
       </c>
       <c r="D320">
-        <v>63525.22890241967</v>
+        <v>63481.4073092216</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -7616,10 +7616,10 @@
         <v>322</v>
       </c>
       <c r="C321">
-        <v>3623.31467324344</v>
+        <v>0</v>
       </c>
       <c r="D321">
-        <v>86819.31467324337</v>
+        <v>83195.99999999993</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -7672,10 +7672,10 @@
         <v>326</v>
       </c>
       <c r="C325">
-        <v>15079.35026791677</v>
+        <v>16390.51706514721</v>
       </c>
       <c r="D325">
-        <v>98171.35026791671</v>
+        <v>99482.51706514716</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -7700,10 +7700,10 @@
         <v>328</v>
       </c>
       <c r="C327">
-        <v>20832.45841569731</v>
+        <v>20197.35851537916</v>
       </c>
       <c r="D327">
-        <v>84938.4584156973</v>
+        <v>84303.35851537915</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -7728,10 +7728,10 @@
         <v>330</v>
       </c>
       <c r="C329">
-        <v>6156.065528903433</v>
+        <v>5641.158060642061</v>
       </c>
       <c r="D329">
-        <v>101428.0655289034</v>
+        <v>100913.158060642</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -7840,10 +7840,10 @@
         <v>338</v>
       </c>
       <c r="C337">
-        <v>23680.25816425387</v>
+        <v>20546.29565012992</v>
       </c>
       <c r="D337">
-        <v>120796.2581642539</v>
+        <v>117662.2956501299</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -7854,10 +7854,10 @@
         <v>339</v>
       </c>
       <c r="C338">
-        <v>10744.97795069902</v>
+        <v>5818.189085350052</v>
       </c>
       <c r="D338">
-        <v>89566.97795069905</v>
+        <v>84640.18908535008</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -7882,10 +7882,10 @@
         <v>341</v>
       </c>
       <c r="C340">
-        <v>2802.206498156003</v>
+        <v>0</v>
       </c>
       <c r="D340">
-        <v>65350.206498156</v>
+        <v>62547.99999999999</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -7938,10 +7938,10 @@
         <v>345</v>
       </c>
       <c r="C344">
-        <v>14899.01576455469</v>
+        <v>15252.19432363128</v>
       </c>
       <c r="D344">
-        <v>139059.0157645547</v>
+        <v>139412.1943236313</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -8092,10 +8092,10 @@
         <v>356</v>
       </c>
       <c r="C355">
-        <v>12165.74521967958</v>
+        <v>12709.25019117713</v>
       </c>
       <c r="D355">
-        <v>146040.7452196795</v>
+        <v>146584.2501911771</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -8176,10 +8176,10 @@
         <v>362</v>
       </c>
       <c r="C361">
-        <v>13469.86337644802</v>
+        <v>8228.117655723327</v>
       </c>
       <c r="D361">
-        <v>104619.863376448</v>
+        <v>99378.11765572336</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -8218,10 +8218,10 @@
         <v>365</v>
       </c>
       <c r="C364">
-        <v>9802.758267320503</v>
+        <v>11072.53547079307</v>
       </c>
       <c r="D364">
-        <v>99947.75826732055</v>
+        <v>101217.5354707931</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -8274,10 +8274,10 @@
         <v>369</v>
       </c>
       <c r="C368">
-        <v>26015.9360438367</v>
+        <v>25734.64315412048</v>
       </c>
       <c r="D368">
-        <v>142990.9360438367</v>
+        <v>142709.6431541205</v>
       </c>
     </row>
     <row r="369" spans="1:4">
@@ -8288,10 +8288,10 @@
         <v>370</v>
       </c>
       <c r="C369">
-        <v>8073.52120534284</v>
+        <v>8735.19429084353</v>
       </c>
       <c r="D369">
-        <v>139798.5212053428</v>
+        <v>140460.1942908435</v>
       </c>
     </row>
     <row r="370" spans="1:4">
@@ -8344,10 +8344,10 @@
         <v>374</v>
       </c>
       <c r="C373">
-        <v>9248.052746941947</v>
+        <v>9318.375747837548</v>
       </c>
       <c r="D373">
-        <v>117212.0527469419</v>
+        <v>117282.3757478375</v>
       </c>
     </row>
     <row r="374" spans="1:4">
@@ -8386,10 +8386,10 @@
         <v>377</v>
       </c>
       <c r="C376">
-        <v>399.4074227593374</v>
+        <v>1229.343388302615</v>
       </c>
       <c r="D376">
-        <v>98113.40742275934</v>
+        <v>98943.34338830262</v>
       </c>
     </row>
     <row r="377" spans="1:4">
@@ -8470,10 +8470,10 @@
         <v>383</v>
       </c>
       <c r="C382">
-        <v>20259.89464745756</v>
+        <v>18920.84187287722</v>
       </c>
       <c r="D382">
-        <v>85271.89464745758</v>
+        <v>83932.84187287724</v>
       </c>
     </row>
     <row r="383" spans="1:4">
@@ -8582,10 +8582,10 @@
         <v>391</v>
       </c>
       <c r="C390">
-        <v>14298.21860456564</v>
+        <v>10931.27361399302</v>
       </c>
       <c r="D390">
-        <v>102472.2186045657</v>
+        <v>99105.27361399303</v>
       </c>
     </row>
     <row r="391" spans="1:4">
@@ -8638,10 +8638,10 @@
         <v>395</v>
       </c>
       <c r="C394">
-        <v>31526.89487367526</v>
+        <v>27871.36191539909</v>
       </c>
       <c r="D394">
-        <v>102795.8948736752</v>
+        <v>99140.36191539903</v>
       </c>
     </row>
     <row r="395" spans="1:4">
@@ -8666,10 +8666,10 @@
         <v>397</v>
       </c>
       <c r="C396">
-        <v>397.8649516555597</v>
+        <v>0</v>
       </c>
       <c r="D396">
-        <v>64504.86495165559</v>
+        <v>64107.00000000003</v>
       </c>
     </row>
     <row r="397" spans="1:4">
@@ -8694,10 +8694,10 @@
         <v>399</v>
       </c>
       <c r="C398">
-        <v>31178.71146386328</v>
+        <v>31173.06254423279</v>
       </c>
       <c r="D398">
-        <v>117682.7114638633</v>
+        <v>117677.0625442328</v>
       </c>
     </row>
     <row r="399" spans="1:4">
@@ -8750,10 +8750,10 @@
         <v>403</v>
       </c>
       <c r="C402">
-        <v>23092.61958862288</v>
+        <v>23035.97741345846</v>
       </c>
       <c r="D402">
-        <v>83632.6195886229</v>
+        <v>83575.97741345847</v>
       </c>
     </row>
     <row r="403" spans="1:4">
@@ -8778,10 +8778,10 @@
         <v>405</v>
       </c>
       <c r="C404">
-        <v>5790.694781786529</v>
+        <v>0</v>
       </c>
       <c r="D404">
-        <v>106987.6947817864</v>
+        <v>101196.9999999999</v>
       </c>
     </row>
     <row r="405" spans="1:4">
@@ -8806,10 +8806,10 @@
         <v>407</v>
       </c>
       <c r="C406">
-        <v>37773.92842595829</v>
+        <v>42655.52434444762</v>
       </c>
       <c r="D406">
-        <v>135448.9284259583</v>
+        <v>140330.5243444477</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -8876,10 +8876,10 @@
         <v>412</v>
       </c>
       <c r="C411">
-        <v>31934.6929201983</v>
+        <v>37564.47014504349</v>
       </c>
       <c r="D411">
-        <v>118482.6929201983</v>
+        <v>124112.4701450435</v>
       </c>
     </row>
     <row r="412" spans="1:4">
@@ -8974,10 +8974,10 @@
         <v>419</v>
       </c>
       <c r="C418">
-        <v>25252.99166905644</v>
+        <v>25762.5359567687</v>
       </c>
       <c r="D418">
-        <v>103175.9916690565</v>
+        <v>103685.5359567688</v>
       </c>
     </row>
     <row r="419" spans="1:4">
@@ -9044,10 +9044,10 @@
         <v>424</v>
       </c>
       <c r="C423">
-        <v>50087.75397947725</v>
+        <v>50413.73808179522</v>
       </c>
       <c r="D423">
-        <v>145662.7539794772</v>
+        <v>145988.7380817951</v>
       </c>
     </row>
     <row r="424" spans="1:4">
@@ -9086,10 +9086,10 @@
         <v>427</v>
       </c>
       <c r="C426">
-        <v>4803.780674956943</v>
+        <v>7029.325285130457</v>
       </c>
       <c r="D426">
-        <v>81323.78067495696</v>
+        <v>83549.32528513047</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -9226,10 +9226,10 @@
         <v>437</v>
       </c>
       <c r="C436">
-        <v>26053.46028501067</v>
+        <v>26710.42411259614</v>
       </c>
       <c r="D436">
-        <v>122597.4602850106</v>
+        <v>123254.4241125961</v>
       </c>
     </row>
     <row r="437" spans="1:4">
@@ -9366,10 +9366,10 @@
         <v>447</v>
       </c>
       <c r="C446">
-        <v>9103.659708437102</v>
+        <v>11035.20714166127</v>
       </c>
       <c r="D446">
-        <v>63873.65970843711</v>
+        <v>65805.20714166127</v>
       </c>
     </row>
     <row r="447" spans="1:4">
@@ -9422,10 +9422,10 @@
         <v>451</v>
       </c>
       <c r="C450">
-        <v>2750.822128655593</v>
+        <v>0</v>
       </c>
       <c r="D450">
-        <v>86844.82212865552</v>
+        <v>84093.99999999993</v>
       </c>
     </row>
     <row r="451" spans="1:4">
@@ -9436,10 +9436,10 @@
         <v>452</v>
       </c>
       <c r="C451">
-        <v>18347.31913857054</v>
+        <v>22098.61641893223</v>
       </c>
       <c r="D451">
-        <v>99951.31913857053</v>
+        <v>103702.6164189322</v>
       </c>
     </row>
     <row r="452" spans="1:4">
@@ -9450,10 +9450,10 @@
         <v>453</v>
       </c>
       <c r="C452">
-        <v>18756.04139040814</v>
+        <v>18516.88351649638</v>
       </c>
       <c r="D452">
-        <v>104062.0413904082</v>
+        <v>103822.8835164964</v>
       </c>
     </row>
     <row r="453" spans="1:4">
@@ -9478,10 +9478,10 @@
         <v>455</v>
       </c>
       <c r="C454">
-        <v>30321.512605789</v>
+        <v>29533.19004721379</v>
       </c>
       <c r="D454">
-        <v>119841.512605789</v>
+        <v>119053.1900472138</v>
       </c>
     </row>
     <row r="455" spans="1:4">
@@ -9506,10 +9506,10 @@
         <v>457</v>
       </c>
       <c r="C456">
-        <v>36193.13583828334</v>
+        <v>38631.45790369732</v>
       </c>
       <c r="D456">
-        <v>116585.1358382833</v>
+        <v>119023.4579036973</v>
       </c>
     </row>
     <row r="457" spans="1:4">
@@ -9576,10 +9576,10 @@
         <v>462</v>
       </c>
       <c r="C461">
-        <v>22118.99786229781</v>
+        <v>25673.63023579959</v>
       </c>
       <c r="D461">
-        <v>139553.9978622979</v>
+        <v>143108.6302357997</v>
       </c>
     </row>
     <row r="462" spans="1:4">
@@ -9590,10 +9590,10 @@
         <v>463</v>
       </c>
       <c r="C462">
-        <v>26364.96139508742</v>
+        <v>25532.89392569252</v>
       </c>
       <c r="D462">
-        <v>104704.9613950874</v>
+        <v>103872.8939256926</v>
       </c>
     </row>
     <row r="463" spans="1:4">
@@ -9758,10 +9758,10 @@
         <v>475</v>
       </c>
       <c r="C474">
-        <v>18409.29595291859</v>
+        <v>17090.36597652726</v>
       </c>
       <c r="D474">
-        <v>84729.29595291863</v>
+        <v>83410.3659765273</v>
       </c>
     </row>
     <row r="475" spans="1:4">
@@ -9856,10 +9856,10 @@
         <v>482</v>
       </c>
       <c r="C481">
-        <v>7119.862561248483</v>
+        <v>9176.603320902301</v>
       </c>
       <c r="D481">
-        <v>61874.8625612485</v>
+        <v>63931.60332090232</v>
       </c>
     </row>
     <row r="482" spans="1:4">
@@ -9898,10 +9898,10 @@
         <v>485</v>
       </c>
       <c r="C484">
-        <v>43483.22850888385</v>
+        <v>44664.06859301377</v>
       </c>
       <c r="D484">
-        <v>137478.2285088839</v>
+        <v>138659.0685930138</v>
       </c>
     </row>
     <row r="485" spans="1:4">
@@ -9926,10 +9926,10 @@
         <v>487</v>
       </c>
       <c r="C486">
-        <v>32285.95418519122</v>
+        <v>37022.94883686415</v>
       </c>
       <c r="D486">
-        <v>119049.9541851912</v>
+        <v>123786.9488368641</v>
       </c>
     </row>
     <row r="487" spans="1:4">
@@ -9954,10 +9954,10 @@
         <v>489</v>
       </c>
       <c r="C488">
-        <v>20397.72933546545</v>
+        <v>18136.79959949466</v>
       </c>
       <c r="D488">
-        <v>85587.72933546547</v>
+        <v>83326.79959949468</v>
       </c>
     </row>
     <row r="489" spans="1:4">
@@ -9982,10 +9982,10 @@
         <v>491</v>
       </c>
       <c r="C490">
-        <v>9477.537593566565</v>
+        <v>8991.717318144336</v>
       </c>
       <c r="D490">
-        <v>82579.53759356654</v>
+        <v>82093.71731814431</v>
       </c>
     </row>
     <row r="491" spans="1:4">
@@ -10010,10 +10010,10 @@
         <v>493</v>
       </c>
       <c r="C492">
-        <v>0</v>
+        <v>758.2335003146145</v>
       </c>
       <c r="D492">
-        <v>98388.99999999997</v>
+        <v>99147.23350031459</v>
       </c>
     </row>
     <row r="493" spans="1:4">
@@ -10139,7 +10139,7 @@
         <v>0</v>
       </c>
       <c r="D501">
-        <v>96282.00000000007</v>
+        <v>86282.00000000003</v>
       </c>
     </row>
     <row r="502" spans="1:4">
@@ -10153,7 +10153,7 @@
         <v>0</v>
       </c>
       <c r="D502">
-        <v>136099.9999999999</v>
+        <v>126100</v>
       </c>
     </row>
     <row r="503" spans="1:4">
@@ -10164,10 +10164,10 @@
         <v>504</v>
       </c>
       <c r="C503">
-        <v>0</v>
+        <v>3394.661298657345</v>
       </c>
       <c r="D503">
-        <v>89665.99999999994</v>
+        <v>83060.66129865729</v>
       </c>
     </row>
     <row r="504" spans="1:4">
@@ -10181,7 +10181,7 @@
         <v>0</v>
       </c>
       <c r="D504">
-        <v>181289.9999999999</v>
+        <v>171290</v>
       </c>
     </row>
     <row r="505" spans="1:4">
@@ -10192,10 +10192,10 @@
         <v>506</v>
       </c>
       <c r="C505">
-        <v>7535.291668781923</v>
+        <v>16910.96573651282</v>
       </c>
       <c r="D505">
-        <v>83141.29166878191</v>
+        <v>82516.96573651284</v>
       </c>
     </row>
     <row r="506" spans="1:4">
@@ -10206,10 +10206,10 @@
         <v>507</v>
       </c>
       <c r="C506">
-        <v>12428.58754617607</v>
+        <v>22020.26455137799</v>
       </c>
       <c r="D506">
-        <v>64179.58754617609</v>
+        <v>63771.264551378</v>
       </c>
     </row>
     <row r="507" spans="1:4">
@@ -10220,10 +10220,10 @@
         <v>508</v>
       </c>
       <c r="C507">
-        <v>0</v>
+        <v>963.3322183831624</v>
       </c>
       <c r="D507">
-        <v>91950.00000000007</v>
+        <v>82913.33221838313</v>
       </c>
     </row>
     <row r="508" spans="1:4">
@@ -10237,7 +10237,7 @@
         <v>0</v>
       </c>
       <c r="D508">
-        <v>129370.0000000001</v>
+        <v>119370</v>
       </c>
     </row>
     <row r="509" spans="1:4">
@@ -10251,7 +10251,7 @@
         <v>0</v>
       </c>
       <c r="D509">
-        <v>170070.0000000001</v>
+        <v>160070</v>
       </c>
     </row>
     <row r="510" spans="1:4">
@@ -10265,7 +10265,7 @@
         <v>0</v>
       </c>
       <c r="D510">
-        <v>81959.00000000006</v>
+        <v>71959.00000000006</v>
       </c>
     </row>
     <row r="511" spans="1:4">
@@ -10279,7 +10279,7 @@
         <v>0</v>
       </c>
       <c r="D511">
-        <v>77945.99999999997</v>
+        <v>67945.99999999997</v>
       </c>
     </row>
     <row r="512" spans="1:4">
@@ -10293,7 +10293,7 @@
         <v>0</v>
       </c>
       <c r="D512">
-        <v>86671.99999999999</v>
+        <v>76671.99999999997</v>
       </c>
     </row>
     <row r="513" spans="1:4">
@@ -10307,7 +10307,7 @@
         <v>0</v>
       </c>
       <c r="D513">
-        <v>98702.00000000006</v>
+        <v>88702.00000000003</v>
       </c>
     </row>
     <row r="514" spans="1:4">
@@ -10321,7 +10321,7 @@
         <v>0</v>
       </c>
       <c r="D514">
-        <v>153029.9999999999</v>
+        <v>143030.0000000001</v>
       </c>
     </row>
     <row r="515" spans="1:4">
@@ -10332,10 +10332,10 @@
         <v>516</v>
       </c>
       <c r="C515">
-        <v>32967.12708979659</v>
+        <v>39807.24711426468</v>
       </c>
       <c r="D515">
-        <v>145427.1270897966</v>
+        <v>142267.2471142647</v>
       </c>
     </row>
     <row r="516" spans="1:4">
@@ -10349,7 +10349,7 @@
         <v>0</v>
       </c>
       <c r="D516">
-        <v>86258</v>
+        <v>76258.00000000003</v>
       </c>
     </row>
     <row r="517" spans="1:4">
@@ -10363,7 +10363,7 @@
         <v>0</v>
       </c>
       <c r="D517">
-        <v>125108</v>
+        <v>115108.0000000001</v>
       </c>
     </row>
     <row r="518" spans="1:4">
@@ -10377,7 +10377,7 @@
         <v>0</v>
       </c>
       <c r="D518">
-        <v>123082</v>
+        <v>113082</v>
       </c>
     </row>
     <row r="519" spans="1:4">
@@ -10388,10 +10388,10 @@
         <v>520</v>
       </c>
       <c r="C519">
-        <v>0</v>
+        <v>174.6075680860667</v>
       </c>
       <c r="D519">
-        <v>109312</v>
+        <v>99486.60756808601</v>
       </c>
     </row>
     <row r="520" spans="1:4">
@@ -10402,10 +10402,10 @@
         <v>521</v>
       </c>
       <c r="C520">
-        <v>10325.05059752478</v>
+        <v>20945.18696420157</v>
       </c>
       <c r="D520">
-        <v>83031.05059752484</v>
+        <v>83651.1869642016</v>
       </c>
     </row>
     <row r="521" spans="1:4">
@@ -10419,7 +10419,7 @@
         <v>0</v>
       </c>
       <c r="D521">
-        <v>75049.99999999994</v>
+        <v>65050.00000000006</v>
       </c>
     </row>
     <row r="522" spans="1:4">
@@ -10430,10 +10430,10 @@
         <v>523</v>
       </c>
       <c r="C522">
-        <v>11536.24420149882</v>
+        <v>17773.25618583793</v>
       </c>
       <c r="D522">
-        <v>84458.24420149888</v>
+        <v>80695.25618583795</v>
       </c>
     </row>
     <row r="523" spans="1:4">
@@ -10447,7 +10447,7 @@
         <v>0</v>
       </c>
       <c r="D523">
-        <v>132473</v>
+        <v>122473.0000000001</v>
       </c>
     </row>
     <row r="524" spans="1:4">
@@ -10461,7 +10461,7 @@
         <v>0</v>
       </c>
       <c r="D524">
-        <v>179199.9999999999</v>
+        <v>169200</v>
       </c>
     </row>
     <row r="525" spans="1:4">
@@ -10475,7 +10475,7 @@
         <v>0</v>
       </c>
       <c r="D525">
-        <v>69914.00000000001</v>
+        <v>59913.99999999999</v>
       </c>
     </row>
     <row r="526" spans="1:4">
@@ -10489,7 +10489,7 @@
         <v>0</v>
       </c>
       <c r="D526">
-        <v>126000.0000000001</v>
+        <v>116000.0000000001</v>
       </c>
     </row>
     <row r="527" spans="1:4">
@@ -10503,7 +10503,7 @@
         <v>0</v>
       </c>
       <c r="D527">
-        <v>134156</v>
+        <v>124156.0000000001</v>
       </c>
     </row>
     <row r="528" spans="1:4">
@@ -10517,7 +10517,7 @@
         <v>0</v>
       </c>
       <c r="D528">
-        <v>192075</v>
+        <v>182075.0000000001</v>
       </c>
     </row>
     <row r="529" spans="1:4">
@@ -10528,10 +10528,10 @@
         <v>530</v>
       </c>
       <c r="C529">
-        <v>2703.243336742889</v>
+        <v>6997.132180606393</v>
       </c>
       <c r="D529">
-        <v>89399.24333674293</v>
+        <v>83693.13218060647</v>
       </c>
     </row>
     <row r="530" spans="1:4">
@@ -10545,7 +10545,7 @@
         <v>0</v>
       </c>
       <c r="D530">
-        <v>168100.0000000001</v>
+        <v>158100</v>
       </c>
     </row>
     <row r="531" spans="1:4">
@@ -10559,7 +10559,7 @@
         <v>0</v>
       </c>
       <c r="D531">
-        <v>67186.00000000003</v>
+        <v>57185.99999999996</v>
       </c>
     </row>
     <row r="532" spans="1:4">
@@ -10573,7 +10573,7 @@
         <v>0</v>
       </c>
       <c r="D532">
-        <v>85952.00000000006</v>
+        <v>75952.00000000003</v>
       </c>
     </row>
     <row r="533" spans="1:4">
@@ -10587,7 +10587,7 @@
         <v>0</v>
       </c>
       <c r="D533">
-        <v>128503</v>
+        <v>118502.9999999999</v>
       </c>
     </row>
     <row r="534" spans="1:4">
@@ -10598,10 +10598,10 @@
         <v>535</v>
       </c>
       <c r="C534">
-        <v>10283.29554622121</v>
+        <v>17415.73474020333</v>
       </c>
       <c r="D534">
-        <v>63232.29554622118</v>
+        <v>60364.73474020336</v>
       </c>
     </row>
     <row r="535" spans="1:4">
@@ -10612,10 +10612,10 @@
         <v>536</v>
       </c>
       <c r="C535">
-        <v>28413.26943443991</v>
+        <v>31808.05161272327</v>
       </c>
       <c r="D535">
-        <v>142168.2694344399</v>
+        <v>135563.0516127233</v>
       </c>
     </row>
     <row r="536" spans="1:4">
@@ -10626,10 +10626,10 @@
         <v>537</v>
       </c>
       <c r="C536">
-        <v>12051.33017571928</v>
+        <v>18537.91322036556</v>
       </c>
       <c r="D536">
-        <v>84279.33017571922</v>
+        <v>80765.91322036562</v>
       </c>
     </row>
     <row r="537" spans="1:4">
@@ -10643,7 +10643,7 @@
         <v>0</v>
       </c>
       <c r="D537">
-        <v>76827.00000000001</v>
+        <v>66826.99999999996</v>
       </c>
     </row>
     <row r="538" spans="1:4">
@@ -10654,10 +10654,10 @@
         <v>539</v>
       </c>
       <c r="C538">
-        <v>22700.93567673853</v>
+        <v>27392.14231324526</v>
       </c>
       <c r="D538">
-        <v>119960.9356767385</v>
+        <v>114652.1423132452</v>
       </c>
     </row>
     <row r="539" spans="1:4">
@@ -10671,7 +10671,7 @@
         <v>0</v>
       </c>
       <c r="D539">
-        <v>78416</v>
+        <v>68416.00000000003</v>
       </c>
     </row>
     <row r="540" spans="1:4">
@@ -10685,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="D540">
-        <v>188140.0000000001</v>
+        <v>178139.9999999999</v>
       </c>
     </row>
     <row r="541" spans="1:4">
@@ -10699,7 +10699,7 @@
         <v>0</v>
       </c>
       <c r="D541">
-        <v>146530.0000000001</v>
+        <v>136530.0000000001</v>
       </c>
     </row>
     <row r="542" spans="1:4">
@@ -10713,7 +10713,7 @@
         <v>0</v>
       </c>
       <c r="D542">
-        <v>94712.00000000003</v>
+        <v>84712.00000000003</v>
       </c>
     </row>
     <row r="543" spans="1:4">
@@ -10727,7 +10727,7 @@
         <v>0</v>
       </c>
       <c r="D543">
-        <v>95582</v>
+        <v>85582</v>
       </c>
     </row>
     <row r="544" spans="1:4">
@@ -10741,7 +10741,7 @@
         <v>0</v>
       </c>
       <c r="D544">
-        <v>148409.9999999999</v>
+        <v>138410.0000000001</v>
       </c>
     </row>
     <row r="545" spans="1:4">
@@ -10755,7 +10755,7 @@
         <v>0</v>
       </c>
       <c r="D545">
-        <v>134477.0000000001</v>
+        <v>124477.0000000001</v>
       </c>
     </row>
     <row r="546" spans="1:4">
@@ -10766,10 +10766,10 @@
         <v>547</v>
       </c>
       <c r="C546">
-        <v>16187.55652776771</v>
+        <v>20546.66366746536</v>
       </c>
       <c r="D546">
-        <v>124423.5565277678</v>
+        <v>118782.6636674654</v>
       </c>
     </row>
     <row r="547" spans="1:4">
@@ -10783,7 +10783,7 @@
         <v>0</v>
       </c>
       <c r="D547">
-        <v>65582.99999999996</v>
+        <v>55583.00000000001</v>
       </c>
     </row>
     <row r="548" spans="1:4">
@@ -10794,10 +10794,10 @@
         <v>549</v>
       </c>
       <c r="C548">
-        <v>12830.24997680136</v>
+        <v>17197.62276524605</v>
       </c>
       <c r="D548">
-        <v>65520.24997680131</v>
+        <v>59887.62276524603</v>
       </c>
     </row>
     <row r="549" spans="1:4">
@@ -10811,7 +10811,7 @@
         <v>0</v>
       </c>
       <c r="D549">
-        <v>94587.99999999994</v>
+        <v>84588.00000000001</v>
       </c>
     </row>
     <row r="550" spans="1:4">
@@ -10825,7 +10825,7 @@
         <v>0</v>
       </c>
       <c r="D550">
-        <v>72059.99999999999</v>
+        <v>62060.00000000003</v>
       </c>
     </row>
     <row r="551" spans="1:4">
@@ -10839,7 +10839,7 @@
         <v>0</v>
       </c>
       <c r="D551">
-        <v>62653.99999999996</v>
+        <v>52653.99999999999</v>
       </c>
     </row>
     <row r="552" spans="1:4">
@@ -10853,7 +10853,7 @@
         <v>0</v>
       </c>
       <c r="D552">
-        <v>116453</v>
+        <v>106453</v>
       </c>
     </row>
     <row r="553" spans="1:4">
@@ -10867,7 +10867,7 @@
         <v>0</v>
       </c>
       <c r="D553">
-        <v>113400</v>
+        <v>103400</v>
       </c>
     </row>
     <row r="554" spans="1:4">
@@ -10881,7 +10881,7 @@
         <v>0</v>
       </c>
       <c r="D554">
-        <v>116876.0000000001</v>
+        <v>106876</v>
       </c>
     </row>
     <row r="555" spans="1:4">
@@ -10892,10 +10892,10 @@
         <v>556</v>
       </c>
       <c r="C555">
-        <v>13798.30127872377</v>
+        <v>12161.92166730993</v>
       </c>
       <c r="D555">
-        <v>107723.3012787238</v>
+        <v>96086.92166730996</v>
       </c>
     </row>
     <row r="556" spans="1:4">
@@ -10909,7 +10909,7 @@
         <v>0</v>
       </c>
       <c r="D556">
-        <v>133136.0000000001</v>
+        <v>123136</v>
       </c>
     </row>
     <row r="557" spans="1:4">
@@ -10923,7 +10923,7 @@
         <v>0</v>
       </c>
       <c r="D557">
-        <v>100844.0000000001</v>
+        <v>90844.00000000001</v>
       </c>
     </row>
     <row r="558" spans="1:4">
@@ -10937,7 +10937,7 @@
         <v>0</v>
       </c>
       <c r="D558">
-        <v>154428</v>
+        <v>144428.0000000001</v>
       </c>
     </row>
     <row r="559" spans="1:4">
@@ -10951,7 +10951,7 @@
         <v>0</v>
       </c>
       <c r="D559">
-        <v>124292</v>
+        <v>114291.9999999999</v>
       </c>
     </row>
     <row r="560" spans="1:4">
@@ -10965,7 +10965,7 @@
         <v>0</v>
       </c>
       <c r="D560">
-        <v>79440.99999999994</v>
+        <v>69440.99999999999</v>
       </c>
     </row>
     <row r="561" spans="1:4">
@@ -10979,7 +10979,7 @@
         <v>0</v>
       </c>
       <c r="D561">
-        <v>116131.9999999999</v>
+        <v>106132.0000000001</v>
       </c>
     </row>
     <row r="562" spans="1:4">
@@ -10993,7 +10993,7 @@
         <v>0</v>
       </c>
       <c r="D562">
-        <v>86791.99999999996</v>
+        <v>76792.00000000006</v>
       </c>
     </row>
     <row r="563" spans="1:4">
@@ -11004,10 +11004,10 @@
         <v>564</v>
       </c>
       <c r="C563">
-        <v>27181.82843433064</v>
+        <v>31102.74877988623</v>
       </c>
       <c r="D563">
-        <v>102356.8284343306</v>
+        <v>96277.74877988627</v>
       </c>
     </row>
     <row r="564" spans="1:4">
@@ -11021,7 +11021,7 @@
         <v>0</v>
       </c>
       <c r="D564">
-        <v>160545.0000000001</v>
+        <v>150544.9999999999</v>
       </c>
     </row>
     <row r="565" spans="1:4">
@@ -11032,10 +11032,10 @@
         <v>566</v>
       </c>
       <c r="C565">
-        <v>5118.320304532186</v>
+        <v>9731.96344551105</v>
       </c>
       <c r="D565">
-        <v>140553.3203045323</v>
+        <v>135166.963445511</v>
       </c>
     </row>
     <row r="566" spans="1:4">
@@ -11049,7 +11049,7 @@
         <v>0</v>
       </c>
       <c r="D566">
-        <v>176184.9999999999</v>
+        <v>166185.0000000001</v>
       </c>
     </row>
     <row r="567" spans="1:4">
@@ -11063,7 +11063,7 @@
         <v>0</v>
       </c>
       <c r="D567">
-        <v>105379.9999999999</v>
+        <v>95380.00000000006</v>
       </c>
     </row>
     <row r="568" spans="1:4">
@@ -11074,10 +11074,10 @@
         <v>569</v>
       </c>
       <c r="C568">
-        <v>5348.129845544085</v>
+        <v>12327.06291658628</v>
       </c>
       <c r="D568">
-        <v>63359.12984554409</v>
+        <v>60338.06291658628</v>
       </c>
     </row>
     <row r="569" spans="1:4">
@@ -11091,7 +11091,7 @@
         <v>0</v>
       </c>
       <c r="D569">
-        <v>141300.0000000001</v>
+        <v>131299.9999999999</v>
       </c>
     </row>
     <row r="570" spans="1:4">
@@ -11102,10 +11102,10 @@
         <v>571</v>
       </c>
       <c r="C570">
-        <v>9740.837297969818</v>
+        <v>13845.30484997098</v>
       </c>
       <c r="D570">
-        <v>66587.83729796977</v>
+        <v>60692.30484997095</v>
       </c>
     </row>
     <row r="571" spans="1:4">
@@ -11116,10 +11116,10 @@
         <v>572</v>
       </c>
       <c r="C571">
-        <v>38062.25277774199</v>
+        <v>43291.72863103522</v>
       </c>
       <c r="D571">
-        <v>118974.252777742</v>
+        <v>114203.7286310352</v>
       </c>
     </row>
     <row r="572" spans="1:4">
@@ -11133,7 +11133,7 @@
         <v>0</v>
       </c>
       <c r="D572">
-        <v>71586</v>
+        <v>61585.99999999996</v>
       </c>
     </row>
     <row r="573" spans="1:4">
@@ -11147,7 +11147,7 @@
         <v>0</v>
       </c>
       <c r="D573">
-        <v>199495.0000000001</v>
+        <v>189495.0000000001</v>
       </c>
     </row>
     <row r="574" spans="1:4">
@@ -11161,7 +11161,7 @@
         <v>0</v>
       </c>
       <c r="D574">
-        <v>186795.0000000001</v>
+        <v>176795.0000000001</v>
       </c>
     </row>
     <row r="575" spans="1:4">
@@ -11175,7 +11175,7 @@
         <v>0</v>
       </c>
       <c r="D575">
-        <v>118076</v>
+        <v>108075.9999999999</v>
       </c>
     </row>
     <row r="576" spans="1:4">
@@ -11189,7 +11189,7 @@
         <v>0</v>
       </c>
       <c r="D576">
-        <v>140635.0000000001</v>
+        <v>130634.9999999999</v>
       </c>
     </row>
     <row r="577" spans="1:4">
@@ -11203,7 +11203,7 @@
         <v>0</v>
       </c>
       <c r="D577">
-        <v>92314.99999999997</v>
+        <v>82314.99999999996</v>
       </c>
     </row>
     <row r="578" spans="1:4">
@@ -11217,7 +11217,7 @@
         <v>0</v>
       </c>
       <c r="D578">
-        <v>142952</v>
+        <v>132952</v>
       </c>
     </row>
     <row r="579" spans="1:4">
@@ -11231,7 +11231,7 @@
         <v>0</v>
       </c>
       <c r="D579">
-        <v>76812.00000000003</v>
+        <v>66812</v>
       </c>
     </row>
     <row r="580" spans="1:4">
@@ -11245,7 +11245,7 @@
         <v>0</v>
       </c>
       <c r="D580">
-        <v>85590.00000000007</v>
+        <v>75590.00000000001</v>
       </c>
     </row>
     <row r="581" spans="1:4">
@@ -11259,7 +11259,7 @@
         <v>0</v>
       </c>
       <c r="D581">
-        <v>138863.9999999999</v>
+        <v>128864.0000000001</v>
       </c>
     </row>
     <row r="582" spans="1:4">
@@ -11273,7 +11273,7 @@
         <v>0</v>
       </c>
       <c r="D582">
-        <v>152975.9999999999</v>
+        <v>142976.0000000001</v>
       </c>
     </row>
     <row r="583" spans="1:4">
@@ -11287,7 +11287,7 @@
         <v>0</v>
       </c>
       <c r="D583">
-        <v>146769.9999999999</v>
+        <v>136769.9999999999</v>
       </c>
     </row>
     <row r="584" spans="1:4">
@@ -11301,7 +11301,7 @@
         <v>0</v>
       </c>
       <c r="D584">
-        <v>152639.9999999999</v>
+        <v>142640</v>
       </c>
     </row>
     <row r="585" spans="1:4">
@@ -11315,7 +11315,7 @@
         <v>0</v>
       </c>
       <c r="D585">
-        <v>86449.99999999999</v>
+        <v>76450.00000000001</v>
       </c>
     </row>
     <row r="586" spans="1:4">
@@ -11329,7 +11329,7 @@
         <v>0</v>
       </c>
       <c r="D586">
-        <v>174055.0000000001</v>
+        <v>164055</v>
       </c>
     </row>
     <row r="587" spans="1:4">
@@ -11340,10 +11340,10 @@
         <v>588</v>
       </c>
       <c r="C587">
-        <v>45992.18240087641</v>
+        <v>52900.39464228578</v>
       </c>
       <c r="D587">
-        <v>140762.1824008765</v>
+        <v>137670.3946422859</v>
       </c>
     </row>
     <row r="588" spans="1:4">
@@ -11357,7 +11357,7 @@
         <v>0</v>
       </c>
       <c r="D588">
-        <v>154615</v>
+        <v>144615</v>
       </c>
     </row>
     <row r="589" spans="1:4">
@@ -11371,7 +11371,7 @@
         <v>0</v>
       </c>
       <c r="D589">
-        <v>113644</v>
+        <v>103644</v>
       </c>
     </row>
     <row r="590" spans="1:4">
@@ -11385,7 +11385,7 @@
         <v>0</v>
       </c>
       <c r="D590">
-        <v>64311</v>
+        <v>54311</v>
       </c>
     </row>
     <row r="591" spans="1:4">
@@ -11396,10 +11396,10 @@
         <v>592</v>
       </c>
       <c r="C591">
-        <v>13751.79457435099</v>
+        <v>16372.75849008324</v>
       </c>
       <c r="D591">
-        <v>143631.794574351</v>
+        <v>136252.7584900833</v>
       </c>
     </row>
     <row r="592" spans="1:4">
@@ -11413,7 +11413,7 @@
         <v>0</v>
       </c>
       <c r="D592">
-        <v>120230.0000000001</v>
+        <v>110230</v>
       </c>
     </row>
     <row r="593" spans="1:4">
@@ -11424,10 +11424,10 @@
         <v>594</v>
       </c>
       <c r="C593">
-        <v>6811.153525514317</v>
+        <v>11657.26436587473</v>
       </c>
       <c r="D593">
-        <v>65342.15352551431</v>
+        <v>60188.26436587471</v>
       </c>
     </row>
     <row r="594" spans="1:4">
@@ -11441,7 +11441,7 @@
         <v>0</v>
       </c>
       <c r="D594">
-        <v>62944.00000000001</v>
+        <v>52943.99999999996</v>
       </c>
     </row>
     <row r="595" spans="1:4">
@@ -11455,7 +11455,7 @@
         <v>0</v>
       </c>
       <c r="D595">
-        <v>96071.99999999997</v>
+        <v>86071.99999999999</v>
       </c>
     </row>
     <row r="596" spans="1:4">
@@ -11469,7 +11469,7 @@
         <v>0</v>
       </c>
       <c r="D596">
-        <v>164360</v>
+        <v>154360</v>
       </c>
     </row>
     <row r="597" spans="1:4">
@@ -11480,10 +11480,10 @@
         <v>598</v>
       </c>
       <c r="C597">
-        <v>1851.686450489113</v>
+        <v>7094.272876602874</v>
       </c>
       <c r="D597">
-        <v>65276.68645048905</v>
+        <v>60519.2728766029</v>
       </c>
     </row>
     <row r="598" spans="1:4">
@@ -11497,7 +11497,7 @@
         <v>0</v>
       </c>
       <c r="D598">
-        <v>136595</v>
+        <v>126595</v>
       </c>
     </row>
     <row r="599" spans="1:4">
@@ -11508,10 +11508,10 @@
         <v>600</v>
       </c>
       <c r="C599">
-        <v>14971.73241643896</v>
+        <v>16720.28358038243</v>
       </c>
       <c r="D599">
-        <v>103382.7324164389</v>
+        <v>95131.28358038247</v>
       </c>
     </row>
     <row r="600" spans="1:4">
@@ -11525,7 +11525,7 @@
         <v>0</v>
       </c>
       <c r="D600">
-        <v>91508.00000000007</v>
+        <v>81508.00000000004</v>
       </c>
     </row>
     <row r="601" spans="1:4">
@@ -11536,10 +11536,10 @@
         <v>602</v>
       </c>
       <c r="C601">
-        <v>16963.73347616507</v>
+        <v>16837.0635124488</v>
       </c>
       <c r="D601">
-        <v>104978.7334761651</v>
+        <v>94852.06351244885</v>
       </c>
     </row>
     <row r="602" spans="1:4">
@@ -11553,7 +11553,7 @@
         <v>0</v>
       </c>
       <c r="D602">
-        <v>152600.0000000001</v>
+        <v>142599.9999999999</v>
       </c>
     </row>
     <row r="603" spans="1:4">
@@ -11564,10 +11564,10 @@
         <v>604</v>
       </c>
       <c r="C603">
-        <v>16530.5402395378</v>
+        <v>24912.41197977847</v>
       </c>
       <c r="D603">
-        <v>102937.5402395378</v>
+        <v>96319.41197977851</v>
       </c>
     </row>
     <row r="604" spans="1:4">
@@ -11578,10 +11578,10 @@
         <v>605</v>
       </c>
       <c r="C604">
-        <v>0</v>
+        <v>10164.120570766</v>
       </c>
       <c r="D604">
-        <v>88583.99999999996</v>
+        <v>83748.12057076594</v>
       </c>
     </row>
     <row r="605" spans="1:4">
@@ -11592,10 +11592,10 @@
         <v>606</v>
       </c>
       <c r="C605">
-        <v>11739.26012952167</v>
+        <v>22574.45920852019</v>
       </c>
       <c r="D605">
-        <v>67402.26012952166</v>
+        <v>63237.45920852016</v>
       </c>
     </row>
     <row r="606" spans="1:4">
@@ -11609,7 +11609,7 @@
         <v>0</v>
       </c>
       <c r="D606">
-        <v>73274.00000000001</v>
+        <v>58274</v>
       </c>
     </row>
     <row r="607" spans="1:4">
@@ -11620,10 +11620,10 @@
         <v>608</v>
       </c>
       <c r="C607">
-        <v>1182.380473624988</v>
+        <v>9822.39961590126</v>
       </c>
       <c r="D607">
-        <v>90044.38047362497</v>
+        <v>83684.3996159012</v>
       </c>
     </row>
     <row r="608" spans="1:4">
@@ -11634,10 +11634,10 @@
         <v>609</v>
       </c>
       <c r="C608">
-        <v>7311.082123336237</v>
+        <v>16189.83321529947</v>
       </c>
       <c r="D608">
-        <v>103708.0821233363</v>
+        <v>97586.83321529947</v>
       </c>
     </row>
     <row r="609" spans="1:4">
@@ -11651,7 +11651,7 @@
         <v>0</v>
       </c>
       <c r="D609">
-        <v>99217.99999999996</v>
+        <v>84218.00000000006</v>
       </c>
     </row>
     <row r="610" spans="1:4">
@@ -11662,10 +11662,10 @@
         <v>611</v>
       </c>
       <c r="C610">
-        <v>11118.7644599737</v>
+        <v>22899.53356309393</v>
       </c>
       <c r="D610">
-        <v>63969.76445997372</v>
+        <v>60750.53356309393</v>
       </c>
     </row>
     <row r="611" spans="1:4">
@@ -11676,10 +11676,10 @@
         <v>612</v>
       </c>
       <c r="C611">
-        <v>0</v>
+        <v>3685.166130487894</v>
       </c>
       <c r="D611">
-        <v>108780.9999999999</v>
+        <v>97466.16613048795</v>
       </c>
     </row>
     <row r="612" spans="1:4">
@@ -11693,7 +11693,7 @@
         <v>0</v>
       </c>
       <c r="D612">
-        <v>70593</v>
+        <v>55592.99999999999</v>
       </c>
     </row>
     <row r="613" spans="1:4">
@@ -11707,7 +11707,7 @@
         <v>0</v>
       </c>
       <c r="D613">
-        <v>137388.0000000001</v>
+        <v>122388</v>
       </c>
     </row>
     <row r="614" spans="1:4">
@@ -11718,10 +11718,10 @@
         <v>615</v>
       </c>
       <c r="C614">
-        <v>24461.99906205243</v>
+        <v>27701.19694417513</v>
       </c>
       <c r="D614">
-        <v>149586.9990620523</v>
+        <v>137826.1969441751</v>
       </c>
     </row>
     <row r="615" spans="1:4">
@@ -11735,7 +11735,7 @@
         <v>0</v>
       </c>
       <c r="D615">
-        <v>76983.00000000004</v>
+        <v>61982.99999999999</v>
       </c>
     </row>
     <row r="616" spans="1:4">
@@ -11749,7 +11749,7 @@
         <v>0</v>
       </c>
       <c r="D616">
-        <v>88616.00000000007</v>
+        <v>73616.00000000003</v>
       </c>
     </row>
     <row r="617" spans="1:4">
@@ -11763,7 +11763,7 @@
         <v>0</v>
       </c>
       <c r="D617">
-        <v>81130.00000000003</v>
+        <v>66130.00000000006</v>
       </c>
     </row>
     <row r="618" spans="1:4">
@@ -11777,7 +11777,7 @@
         <v>0</v>
       </c>
       <c r="D618">
-        <v>153120</v>
+        <v>138120</v>
       </c>
     </row>
     <row r="619" spans="1:4">
@@ -11791,7 +11791,7 @@
         <v>0</v>
       </c>
       <c r="D619">
-        <v>127027.9999999999</v>
+        <v>112028.0000000001</v>
       </c>
     </row>
     <row r="620" spans="1:4">
@@ -11805,7 +11805,7 @@
         <v>0</v>
       </c>
       <c r="D620">
-        <v>71961.99999999999</v>
+        <v>56962.00000000004</v>
       </c>
     </row>
     <row r="621" spans="1:4">
@@ -11819,7 +11819,7 @@
         <v>0</v>
       </c>
       <c r="D621">
-        <v>139441.9999999999</v>
+        <v>124442.0000000001</v>
       </c>
     </row>
     <row r="622" spans="1:4">
@@ -11833,7 +11833,7 @@
         <v>0</v>
       </c>
       <c r="D622">
-        <v>95015.99999999997</v>
+        <v>80016.00000000007</v>
       </c>
     </row>
     <row r="623" spans="1:4">
@@ -11847,7 +11847,7 @@
         <v>0</v>
       </c>
       <c r="D623">
-        <v>170959.9999999999</v>
+        <v>155960</v>
       </c>
     </row>
     <row r="624" spans="1:4">
@@ -11858,10 +11858,10 @@
         <v>625</v>
       </c>
       <c r="C624">
-        <v>8729.912294048801</v>
+        <v>10831.92341976445</v>
       </c>
       <c r="D624">
-        <v>107979.9122940488</v>
+        <v>95081.92341976441</v>
       </c>
     </row>
     <row r="625" spans="1:4">
@@ -11872,10 +11872,10 @@
         <v>626</v>
       </c>
       <c r="C625">
-        <v>0</v>
+        <v>5205.669442078623</v>
       </c>
       <c r="D625">
-        <v>93202.00000000001</v>
+        <v>83407.66944207862</v>
       </c>
     </row>
     <row r="626" spans="1:4">
@@ -11889,7 +11889,7 @@
         <v>0</v>
       </c>
       <c r="D626">
-        <v>100192.0000000001</v>
+        <v>85192.00000000003</v>
       </c>
     </row>
     <row r="627" spans="1:4">
@@ -11903,7 +11903,7 @@
         <v>0</v>
       </c>
       <c r="D627">
-        <v>173715.0000000001</v>
+        <v>158715.0000000001</v>
       </c>
     </row>
     <row r="628" spans="1:4">
@@ -11917,7 +11917,7 @@
         <v>0</v>
       </c>
       <c r="D628">
-        <v>124215</v>
+        <v>109215.0000000001</v>
       </c>
     </row>
     <row r="629" spans="1:4">
@@ -11931,7 +11931,7 @@
         <v>0</v>
       </c>
       <c r="D629">
-        <v>157035.0000000001</v>
+        <v>142035</v>
       </c>
     </row>
     <row r="630" spans="1:4">
@@ -11945,7 +11945,7 @@
         <v>0</v>
       </c>
       <c r="D630">
-        <v>101150.0000000001</v>
+        <v>86150.00000000003</v>
       </c>
     </row>
     <row r="631" spans="1:4">
@@ -11959,7 +11959,7 @@
         <v>0</v>
       </c>
       <c r="D631">
-        <v>89342.00000000007</v>
+        <v>189341.9999999998</v>
       </c>
     </row>
     <row r="632" spans="1:4">
@@ -11970,10 +11970,10 @@
         <v>633</v>
       </c>
       <c r="C632">
-        <v>47289.2630592293</v>
+        <v>0</v>
       </c>
       <c r="D632">
-        <v>149354.2630592292</v>
+        <v>142064.9999999999</v>
       </c>
     </row>
     <row r="633" spans="1:4">
@@ -11987,7 +11987,7 @@
         <v>0</v>
       </c>
       <c r="D633">
-        <v>88762.00000000006</v>
+        <v>188762</v>
       </c>
     </row>
     <row r="634" spans="1:4">
@@ -11998,10 +11998,10 @@
         <v>635</v>
       </c>
       <c r="C634">
-        <v>1974.640863607608</v>
+        <v>0</v>
       </c>
       <c r="D634">
-        <v>69016.64086360756</v>
+        <v>67041.99999999996</v>
       </c>
     </row>
     <row r="635" spans="1:4">
@@ -12026,10 +12026,10 @@
         <v>637</v>
       </c>
       <c r="C636">
-        <v>17158.6870454438</v>
+        <v>13621.82852174128</v>
       </c>
       <c r="D636">
-        <v>84232.68704544379</v>
+        <v>80695.82852174126</v>
       </c>
     </row>
     <row r="637" spans="1:4">
@@ -12068,10 +12068,10 @@
         <v>640</v>
       </c>
       <c r="C639">
-        <v>10004.4197206909</v>
+        <v>5570.701313700512</v>
       </c>
       <c r="D639">
-        <v>83930.41972069096</v>
+        <v>79496.70131370057</v>
       </c>
     </row>
     <row r="640" spans="1:4">
@@ -12096,10 +12096,10 @@
         <v>642</v>
       </c>
       <c r="C641">
-        <v>3069.777198886426</v>
+        <v>0</v>
       </c>
       <c r="D641">
-        <v>105445.7771988865</v>
+        <v>102376.0000000001</v>
       </c>
     </row>
     <row r="642" spans="1:4">
@@ -12180,10 +12180,10 @@
         <v>648</v>
       </c>
       <c r="C647">
-        <v>10245.43027272006</v>
+        <v>0</v>
       </c>
       <c r="D647">
-        <v>107938.43027272</v>
+        <v>97692.99999999993</v>
       </c>
     </row>
     <row r="648" spans="1:4">
@@ -12292,10 +12292,10 @@
         <v>656</v>
       </c>
       <c r="C655">
-        <v>19333.01961344236</v>
+        <v>12153.8881900839</v>
       </c>
       <c r="D655">
-        <v>90865.01961344232</v>
+        <v>83685.88819008386</v>
       </c>
     </row>
     <row r="656" spans="1:4">
@@ -12362,10 +12362,10 @@
         <v>661</v>
       </c>
       <c r="C660">
-        <v>10820.23309927482</v>
+        <v>3237.382165466377</v>
       </c>
       <c r="D660">
-        <v>88566.23309927479</v>
+        <v>80983.38216546635</v>
       </c>
     </row>
     <row r="661" spans="1:4">
@@ -12418,10 +12418,10 @@
         <v>665</v>
       </c>
       <c r="C664">
-        <v>35565.29033620785</v>
+        <v>31699.12679682464</v>
       </c>
       <c r="D664">
-        <v>120137.2903362078</v>
+        <v>116271.1267968246</v>
       </c>
     </row>
     <row r="665" spans="1:4">
@@ -12432,10 +12432,10 @@
         <v>666</v>
       </c>
       <c r="C665">
-        <v>31911.25555289123</v>
+        <v>23506.11935457657</v>
       </c>
       <c r="D665">
-        <v>143176.2555528912</v>
+        <v>134771.1193545765</v>
       </c>
     </row>
     <row r="666" spans="1:4">
@@ -12474,10 +12474,10 @@
         <v>669</v>
       </c>
       <c r="C668">
-        <v>4242.311306486154</v>
+        <v>0</v>
       </c>
       <c r="D668">
-        <v>101230.3113064861</v>
+        <v>96987.99999999991</v>
       </c>
     </row>
     <row r="669" spans="1:4">
@@ -12502,10 +12502,10 @@
         <v>671</v>
       </c>
       <c r="C670">
-        <v>13648.57702764503</v>
+        <v>10557.00943892494</v>
       </c>
       <c r="D670">
-        <v>64871.57702764501</v>
+        <v>61780.00943892492</v>
       </c>
     </row>
     <row r="671" spans="1:4">
@@ -12516,10 +12516,10 @@
         <v>672</v>
       </c>
       <c r="C671">
-        <v>19696.35335047959</v>
+        <v>15225.87001338317</v>
       </c>
       <c r="D671">
-        <v>124220.3533504796</v>
+        <v>119749.8700133832</v>
       </c>
     </row>
     <row r="672" spans="1:4">
@@ -12530,10 +12530,10 @@
         <v>673</v>
       </c>
       <c r="C672">
-        <v>19966.39965767474</v>
+        <v>15320.33959617352</v>
       </c>
       <c r="D672">
-        <v>142351.3996576747</v>
+        <v>137705.3395961735</v>
       </c>
     </row>
     <row r="673" spans="1:4">
@@ -12558,10 +12558,10 @@
         <v>675</v>
       </c>
       <c r="C674">
-        <v>4336.269465414021</v>
+        <v>1944.51110921902</v>
       </c>
       <c r="D674">
-        <v>82028.26946541405</v>
+        <v>79636.51110921905</v>
       </c>
     </row>
     <row r="675" spans="1:4">
@@ -12600,10 +12600,10 @@
         <v>678</v>
       </c>
       <c r="C677">
-        <v>17939.02899756047</v>
+        <v>9669.527704110413</v>
       </c>
       <c r="D677">
-        <v>124507.0289975605</v>
+        <v>116237.5277041104</v>
       </c>
     </row>
     <row r="678" spans="1:4">
@@ -12614,10 +12614,10 @@
         <v>679</v>
       </c>
       <c r="C678">
-        <v>7255.272559729376</v>
+        <v>1710.098001398917</v>
       </c>
       <c r="D678">
-        <v>65698.27255972936</v>
+        <v>60153.0980013989</v>
       </c>
     </row>
     <row r="679" spans="1:4">
@@ -12670,10 +12670,10 @@
         <v>683</v>
       </c>
       <c r="C682">
-        <v>4294.947970482506</v>
+        <v>0</v>
       </c>
       <c r="D682">
-        <v>102050.9479704825</v>
+        <v>97756</v>
       </c>
     </row>
     <row r="683" spans="1:4">
@@ -12726,10 +12726,10 @@
         <v>687</v>
       </c>
       <c r="C686">
-        <v>32117.12717680993</v>
+        <v>22445.36832760058</v>
       </c>
       <c r="D686">
-        <v>122937.1271768099</v>
+        <v>113265.3683276005</v>
       </c>
     </row>
     <row r="687" spans="1:4">
@@ -12740,10 +12740,10 @@
         <v>688</v>
       </c>
       <c r="C687">
-        <v>6958.117713818516</v>
+        <v>1997.051984985475</v>
       </c>
       <c r="D687">
-        <v>85564.11771381847</v>
+        <v>80603.05198498543</v>
       </c>
     </row>
     <row r="688" spans="1:4">
@@ -12768,10 +12768,10 @@
         <v>690</v>
       </c>
       <c r="C689">
-        <v>15327.00385939273</v>
+        <v>9844.917751183762</v>
       </c>
       <c r="D689">
-        <v>86855.00385939277</v>
+        <v>81372.91775118381</v>
       </c>
     </row>
     <row r="690" spans="1:4">
@@ -12894,10 +12894,10 @@
         <v>699</v>
       </c>
       <c r="C698">
-        <v>27942.35165460766</v>
+        <v>22339.56746685419</v>
       </c>
       <c r="D698">
-        <v>102238.3516546076</v>
+        <v>96635.56746685415</v>
       </c>
     </row>
     <row r="699" spans="1:4">
@@ -12936,10 +12936,10 @@
         <v>702</v>
       </c>
       <c r="C701">
-        <v>1973.11744352091</v>
+        <v>0</v>
       </c>
       <c r="D701">
-        <v>85909.11744352084</v>
+        <v>83935.99999999993</v>
       </c>
     </row>
     <row r="702" spans="1:4">
@@ -12950,10 +12950,10 @@
         <v>703</v>
       </c>
       <c r="C702">
-        <v>3382.916511408497</v>
+        <v>0</v>
       </c>
       <c r="D702">
-        <v>65008.91651140851</v>
+        <v>61626.00000000001</v>
       </c>
     </row>
     <row r="703" spans="1:4">
@@ -13104,10 +13104,10 @@
         <v>714</v>
       </c>
       <c r="C713">
-        <v>1917.199990795074</v>
+        <v>0</v>
       </c>
       <c r="D713">
-        <v>67041.19999079505</v>
+        <v>65123.99999999998</v>
       </c>
     </row>
     <row r="714" spans="1:4">
@@ -13188,10 +13188,10 @@
         <v>720</v>
       </c>
       <c r="C719">
-        <v>9065.34638579296</v>
+        <v>4120.685101524854</v>
       </c>
       <c r="D719">
-        <v>88607.34638579297</v>
+        <v>83662.68510152487</v>
       </c>
     </row>
     <row r="720" spans="1:4">
@@ -13202,10 +13202,10 @@
         <v>721</v>
       </c>
       <c r="C720">
-        <v>10294.5671786219</v>
+        <v>5332.464575880578</v>
       </c>
       <c r="D720">
-        <v>65330.56717862192</v>
+        <v>60368.4645758806</v>
       </c>
     </row>
     <row r="721" spans="1:4">
@@ -13328,10 +13328,10 @@
         <v>730</v>
       </c>
       <c r="C729">
-        <v>367.264559352021</v>
+        <v>221.2207216899333</v>
       </c>
       <c r="D729">
-        <v>62205.26455935207</v>
+        <v>62059.22072168998</v>
       </c>
     </row>
     <row r="730" spans="1:4">
@@ -13426,10 +13426,10 @@
         <v>737</v>
       </c>
       <c r="C736">
-        <v>0</v>
+        <v>864.7504126177737</v>
       </c>
       <c r="D736">
-        <v>61248.99999999997</v>
+        <v>62113.75041261774</v>
       </c>
     </row>
     <row r="737" spans="1:4">
@@ -13454,10 +13454,10 @@
         <v>739</v>
       </c>
       <c r="C738">
-        <v>26503.898276023</v>
+        <v>24150.60304662821</v>
       </c>
       <c r="D738">
-        <v>99368.89827602298</v>
+        <v>97015.6030466282</v>
       </c>
     </row>
     <row r="739" spans="1:4">
@@ -13468,10 +13468,10 @@
         <v>740</v>
       </c>
       <c r="C739">
-        <v>31559.66300543102</v>
+        <v>32190.63990656157</v>
       </c>
       <c r="D739">
-        <v>137929.6630054309</v>
+        <v>138560.6399065615</v>
       </c>
     </row>
     <row r="740" spans="1:4">
@@ -13482,10 +13482,10 @@
         <v>741</v>
       </c>
       <c r="C740">
-        <v>20474.03225925818</v>
+        <v>20309.98350801447</v>
       </c>
       <c r="D740">
-        <v>82500.03225925821</v>
+        <v>82335.9835080145</v>
       </c>
     </row>
     <row r="741" spans="1:4">
@@ -13496,10 +13496,10 @@
         <v>742</v>
       </c>
       <c r="C741">
-        <v>9818.968457070281</v>
+        <v>9175.28071666303</v>
       </c>
       <c r="D741">
-        <v>64371.96845707027</v>
+        <v>63728.28071666302</v>
       </c>
     </row>
     <row r="742" spans="1:4">
@@ -13538,10 +13538,10 @@
         <v>745</v>
       </c>
       <c r="C744">
-        <v>13845.20787264346</v>
+        <v>11885.82003879128</v>
       </c>
       <c r="D744">
-        <v>97855.20787264348</v>
+        <v>95895.82003879131</v>
       </c>
     </row>
     <row r="745" spans="1:4">
@@ -13552,10 +13552,10 @@
         <v>746</v>
       </c>
       <c r="C745">
-        <v>5507.872714453479</v>
+        <v>8185.782914064286</v>
       </c>
       <c r="D745">
-        <v>117099.8727144535</v>
+        <v>119777.7829140643</v>
       </c>
     </row>
     <row r="746" spans="1:4">
@@ -13608,10 +13608,10 @@
         <v>750</v>
       </c>
       <c r="C749">
-        <v>9638.787781082603</v>
+        <v>8591.044282035975</v>
       </c>
       <c r="D749">
-        <v>89584.78778108256</v>
+        <v>88537.04428203593</v>
       </c>
     </row>
     <row r="750" spans="1:4">
@@ -13650,10 +13650,10 @@
         <v>753</v>
       </c>
       <c r="C752">
-        <v>56891.99654347365</v>
+        <v>56921.21687856692</v>
       </c>
       <c r="D752">
-        <v>149431.9965434737</v>
+        <v>149461.2168785669</v>
       </c>
     </row>
     <row r="753" spans="1:4">
@@ -13748,10 +13748,10 @@
         <v>760</v>
       </c>
       <c r="C759">
-        <v>2882.453455240859</v>
+        <v>2604.34736571525</v>
       </c>
       <c r="D759">
-        <v>88372.45345524084</v>
+        <v>88094.34736571524</v>
       </c>
     </row>
     <row r="760" spans="1:4">
@@ -13790,10 +13790,10 @@
         <v>763</v>
       </c>
       <c r="C762">
-        <v>13788.11604229749</v>
+        <v>12376.09694473527</v>
       </c>
       <c r="D762">
-        <v>125412.1160422975</v>
+        <v>124000.0969447353</v>
       </c>
     </row>
     <row r="763" spans="1:4">
@@ -13860,10 +13860,10 @@
         <v>768</v>
       </c>
       <c r="C767">
-        <v>44915.59843645716</v>
+        <v>50439.92603524277</v>
       </c>
       <c r="D767">
-        <v>142765.5984364572</v>
+        <v>148289.9260352428</v>
       </c>
     </row>
     <row r="768" spans="1:4">
@@ -13902,10 +13902,10 @@
         <v>771</v>
       </c>
       <c r="C770">
-        <v>0</v>
+        <v>1307.834953241603</v>
       </c>
       <c r="D770">
-        <v>86234.00000000004</v>
+        <v>87541.83495324165</v>
       </c>
     </row>
     <row r="771" spans="1:4">
@@ -14056,10 +14056,10 @@
         <v>782</v>
       </c>
       <c r="C781">
-        <v>4248.590429200791</v>
+        <v>8560.782257088082</v>
       </c>
       <c r="D781">
-        <v>144423.5904292009</v>
+        <v>148735.7822570882</v>
       </c>
     </row>
     <row r="782" spans="1:4">
@@ -14084,10 +14084,10 @@
         <v>784</v>
       </c>
       <c r="C783">
-        <v>1867.925327129196</v>
+        <v>3095.647322811274</v>
       </c>
       <c r="D783">
-        <v>123927.9253271291</v>
+        <v>125155.6473228112</v>
       </c>
     </row>
     <row r="784" spans="1:4">
@@ -14098,10 +14098,10 @@
         <v>785</v>
       </c>
       <c r="C784">
-        <v>7941.039899078984</v>
+        <v>0</v>
       </c>
       <c r="D784">
-        <v>104530.0398990789</v>
+        <v>146589.0000000001</v>
       </c>
     </row>
     <row r="785" spans="1:4">
@@ -14182,10 +14182,10 @@
         <v>791</v>
       </c>
       <c r="C790">
-        <v>19084.07090883251</v>
+        <v>17250.1339695229</v>
       </c>
       <c r="D790">
-        <v>106823.0709088325</v>
+        <v>104989.1339695229</v>
       </c>
     </row>
     <row r="791" spans="1:4">
@@ -14238,10 +14238,10 @@
         <v>795</v>
       </c>
       <c r="C794">
-        <v>59558.03556054906</v>
+        <v>60172.90972947303</v>
       </c>
       <c r="D794">
-        <v>150088.035560549</v>
+        <v>150702.909729473</v>
       </c>
     </row>
     <row r="795" spans="1:4">
@@ -14294,10 +14294,10 @@
         <v>799</v>
       </c>
       <c r="C798">
-        <v>6656.267950812136</v>
+        <v>4854.648593356178</v>
       </c>
       <c r="D798">
-        <v>69292.26795081218</v>
+        <v>67490.64859335622</v>
       </c>
     </row>
     <row r="799" spans="1:4">
@@ -14350,10 +14350,10 @@
         <v>803</v>
       </c>
       <c r="C802">
-        <v>7167.351627190059</v>
+        <v>3211.452798559258</v>
       </c>
       <c r="D802">
-        <v>109612.3516271901</v>
+        <v>105656.4527985593</v>
       </c>
     </row>
     <row r="803" spans="1:4">
@@ -14378,10 +14378,10 @@
         <v>805</v>
       </c>
       <c r="C804">
-        <v>38310.24149660938</v>
+        <v>44015.72142381241</v>
       </c>
       <c r="D804">
-        <v>125030.2414966094</v>
+        <v>130735.7214238124</v>
       </c>
     </row>
     <row r="805" spans="1:4">
@@ -14448,10 +14448,10 @@
         <v>810</v>
       </c>
       <c r="C809">
-        <v>5955.712939588528</v>
+        <v>5857.363790650415</v>
       </c>
       <c r="D809">
-        <v>66894.71293958856</v>
+        <v>66796.36379065044</v>
       </c>
     </row>
     <row r="810" spans="1:4">
@@ -14476,10 +14476,10 @@
         <v>812</v>
       </c>
       <c r="C811">
-        <v>14190.47411091699</v>
+        <v>14157.33643451623</v>
       </c>
       <c r="D811">
-        <v>66246.474110917</v>
+        <v>66213.33643451624</v>
       </c>
     </row>
     <row r="812" spans="1:4">
@@ -14490,10 +14490,10 @@
         <v>813</v>
       </c>
       <c r="C812">
-        <v>5205.394232531573</v>
+        <v>7720.982826179068</v>
       </c>
       <c r="D812">
-        <v>66925.39423253159</v>
+        <v>69440.98282617908</v>
       </c>
     </row>
     <row r="813" spans="1:4">
@@ -14504,10 +14504,10 @@
         <v>814</v>
       </c>
       <c r="C813">
-        <v>35762.56614228571</v>
+        <v>34226.14575558332</v>
       </c>
       <c r="D813">
-        <v>125874.5661422857</v>
+        <v>124338.1457555833</v>
       </c>
     </row>
     <row r="814" spans="1:4">
@@ -14532,10 +14532,10 @@
         <v>816</v>
       </c>
       <c r="C815">
-        <v>0</v>
+        <v>175.9916139333072</v>
       </c>
       <c r="D815">
-        <v>91841.99999999993</v>
+        <v>92017.99161393323</v>
       </c>
     </row>
     <row r="816" spans="1:4">
@@ -14574,10 +14574,10 @@
         <v>819</v>
       </c>
       <c r="C818">
-        <v>23221.78852716344</v>
+        <v>25892.40195007771</v>
       </c>
       <c r="D818">
-        <v>128537.7885271634</v>
+        <v>131208.4019500776</v>
       </c>
     </row>
     <row r="819" spans="1:4">
@@ -14630,10 +14630,10 @@
         <v>823</v>
       </c>
       <c r="C822">
-        <v>18567.7371633907</v>
+        <v>20228.35174537175</v>
       </c>
       <c r="D822">
-        <v>105304.7371633908</v>
+        <v>106965.3517453718</v>
       </c>
     </row>
     <row r="823" spans="1:4">
@@ -14644,10 +14644,10 @@
         <v>824</v>
       </c>
       <c r="C823">
-        <v>11766.8142799363</v>
+        <v>9229.623923418447</v>
       </c>
       <c r="D823">
-        <v>92042.81427993633</v>
+        <v>89505.62392341848</v>
       </c>
     </row>
     <row r="824" spans="1:4">
@@ -14658,10 +14658,10 @@
         <v>825</v>
       </c>
       <c r="C824">
-        <v>2214.355547528525</v>
+        <v>2063.919261162242</v>
       </c>
       <c r="D824">
-        <v>66968.3555475285</v>
+        <v>66817.91926116221</v>
       </c>
     </row>
     <row r="825" spans="1:4">
@@ -14700,10 +14700,10 @@
         <v>828</v>
       </c>
       <c r="C827">
-        <v>4424.654996205427</v>
+        <v>5585.022686787823</v>
       </c>
       <c r="D827">
-        <v>66516.65499620538</v>
+        <v>67677.02268678778</v>
       </c>
     </row>
     <row r="828" spans="1:4">
@@ -14728,10 +14728,10 @@
         <v>830</v>
       </c>
       <c r="C829">
-        <v>16358.20529677675</v>
+        <v>16056.04909772199</v>
       </c>
       <c r="D829">
-        <v>107559.2052967767</v>
+        <v>107257.0490977219</v>
       </c>
     </row>
     <row r="830" spans="1:4">
@@ -14742,10 +14742,10 @@
         <v>831</v>
       </c>
       <c r="C830">
-        <v>2934.607978356951</v>
+        <v>0</v>
       </c>
       <c r="D830">
-        <v>63932.60797835695</v>
+        <v>130998</v>
       </c>
     </row>
     <row r="831" spans="1:4">
@@ -14756,10 +14756,10 @@
         <v>832</v>
       </c>
       <c r="C831">
-        <v>44794.02073867645</v>
+        <v>1700.022420261928</v>
       </c>
       <c r="D831">
-        <v>147849.0207386764</v>
+        <v>154755.022420262</v>
       </c>
     </row>
     <row r="832" spans="1:4">
@@ -14773,7 +14773,7 @@
         <v>0</v>
       </c>
       <c r="D832">
-        <v>146456.0000000001</v>
+        <v>186455.9999999999</v>
       </c>
     </row>
     <row r="833" spans="1:4">
@@ -14798,10 +14798,10 @@
         <v>835</v>
       </c>
       <c r="C834">
-        <v>12364.3340601177</v>
+        <v>0</v>
       </c>
       <c r="D834">
-        <v>104462.3340601177</v>
+        <v>172097.9999999999</v>
       </c>
     </row>
     <row r="835" spans="1:4">
@@ -14868,10 +14868,10 @@
         <v>840</v>
       </c>
       <c r="C839">
-        <v>21406.70445075823</v>
+        <v>22337.83393269143</v>
       </c>
       <c r="D839">
-        <v>104480.7044507583</v>
+        <v>105411.8339326915</v>
       </c>
     </row>
     <row r="840" spans="1:4">
@@ -14882,10 +14882,10 @@
         <v>841</v>
       </c>
       <c r="C840">
-        <v>4884.780797483458</v>
+        <v>2157.945656053504</v>
       </c>
       <c r="D840">
-        <v>106528.7807974834</v>
+        <v>103801.9456560535</v>
       </c>
     </row>
     <row r="841" spans="1:4">
@@ -14924,10 +14924,10 @@
         <v>844</v>
       </c>
       <c r="C843">
-        <v>9719.18641434508</v>
+        <v>10118.10826328922</v>
       </c>
       <c r="D843">
-        <v>87685.18641434512</v>
+        <v>88084.10826328926</v>
       </c>
     </row>
     <row r="844" spans="1:4">
@@ -14952,10 +14952,10 @@
         <v>846</v>
       </c>
       <c r="C845">
-        <v>13270.94631379237</v>
+        <v>16081.30285046282</v>
       </c>
       <c r="D845">
-        <v>143625.9463137923</v>
+        <v>146436.3028504628</v>
       </c>
     </row>
     <row r="846" spans="1:4">
@@ -14966,10 +14966,10 @@
         <v>847</v>
       </c>
       <c r="C846">
-        <v>40365.11128164566</v>
+        <v>43741.29747570259</v>
       </c>
       <c r="D846">
-        <v>147590.1112816456</v>
+        <v>150966.2974757026</v>
       </c>
     </row>
     <row r="847" spans="1:4">
@@ -15022,10 +15022,10 @@
         <v>851</v>
       </c>
       <c r="C850">
-        <v>33546.29981730039</v>
+        <v>32884.00825646687</v>
       </c>
       <c r="D850">
-        <v>107467.2998173004</v>
+        <v>106805.0082564668</v>
       </c>
     </row>
     <row r="851" spans="1:4">
@@ -15134,10 +15134,10 @@
         <v>859</v>
       </c>
       <c r="C858">
-        <v>8812.424916365897</v>
+        <v>7430.077048204112</v>
       </c>
       <c r="D858">
-        <v>67918.42491636588</v>
+        <v>66536.0770482041</v>
       </c>
     </row>
     <row r="859" spans="1:4">
@@ -15148,10 +15148,10 @@
         <v>860</v>
       </c>
       <c r="C859">
-        <v>16560.77240158264</v>
+        <v>17302.44276262782</v>
       </c>
       <c r="D859">
-        <v>87674.77240158261</v>
+        <v>88416.44276262779</v>
       </c>
     </row>
     <row r="860" spans="1:4">
@@ -15218,10 +15218,10 @@
         <v>865</v>
       </c>
       <c r="C864">
-        <v>9814.793487037008</v>
+        <v>9640.28863712879</v>
       </c>
       <c r="D864">
-        <v>105389.7934870369</v>
+        <v>105215.2886371287</v>
       </c>
     </row>
     <row r="865" spans="1:4">
@@ -15274,10 +15274,10 @@
         <v>869</v>
       </c>
       <c r="C868">
-        <v>11813.10141248925</v>
+        <v>12901.91416120463</v>
       </c>
       <c r="D868">
-        <v>65668.10141248922</v>
+        <v>66756.91416120461</v>
       </c>
     </row>
     <row r="869" spans="1:4">
@@ -15288,10 +15288,10 @@
         <v>870</v>
       </c>
       <c r="C869">
-        <v>11912.58201186739</v>
+        <v>12854.16604228169</v>
       </c>
       <c r="D869">
-        <v>90332.58201186742</v>
+        <v>91274.16604228172</v>
       </c>
     </row>
     <row r="870" spans="1:4">
@@ -15330,10 +15330,10 @@
         <v>873</v>
       </c>
       <c r="C872">
-        <v>3755.327383411619</v>
+        <v>4506.412826396634</v>
       </c>
       <c r="D872">
-        <v>65236.32738341163</v>
+        <v>65987.41282639664</v>
       </c>
     </row>
     <row r="873" spans="1:4">
@@ -15344,10 +15344,10 @@
         <v>874</v>
       </c>
       <c r="C873">
-        <v>15679.88577926824</v>
+        <v>17214.58188142774</v>
       </c>
       <c r="D873">
-        <v>86387.88577926825</v>
+        <v>87922.58188142776</v>
       </c>
     </row>
     <row r="874" spans="1:4">
@@ -15372,10 +15372,10 @@
         <v>876</v>
       </c>
       <c r="C875">
-        <v>30858.09166946172</v>
+        <v>31358.413630378</v>
       </c>
       <c r="D875">
-        <v>104416.0916694617</v>
+        <v>104916.4136303779</v>
       </c>
     </row>
     <row r="876" spans="1:4">
@@ -15386,10 +15386,10 @@
         <v>877</v>
       </c>
       <c r="C876">
-        <v>2368.755818406818</v>
+        <v>1881.825217707505</v>
       </c>
       <c r="D876">
-        <v>89508.75581840675</v>
+        <v>89021.82521770743</v>
       </c>
     </row>
     <row r="877" spans="1:4">
@@ -15428,10 +15428,10 @@
         <v>880</v>
       </c>
       <c r="C879">
-        <v>21133.09613621113</v>
+        <v>25041.81145852782</v>
       </c>
       <c r="D879">
-        <v>84323.09613621113</v>
+        <v>88231.81145852782</v>
       </c>
     </row>
     <row r="880" spans="1:4">
@@ -15484,10 +15484,10 @@
         <v>884</v>
       </c>
       <c r="C883">
-        <v>3567.244513664991</v>
+        <v>4904.192763103383</v>
       </c>
       <c r="D883">
-        <v>65269.24451366504</v>
+        <v>66606.19276310343</v>
       </c>
     </row>
     <row r="884" spans="1:4">

--- a/df_gap.xlsx
+++ b/df_gap.xlsx
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>92684.99999999994</v>
+        <v>92684</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3178,10 +3178,10 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>11472.13580509894</v>
+        <v>11565</v>
       </c>
       <c r="D4">
-        <v>82884.13580509895</v>
+        <v>82977</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3209,7 +3209,7 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>111198.9999999999</v>
+        <v>111198</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -3223,7 +3223,7 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>184684.9999999999</v>
+        <v>184684</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>83322.00000000007</v>
+        <v>83322</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3248,10 +3248,10 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>27048.2495634654</v>
+        <v>27184</v>
       </c>
       <c r="D9">
-        <v>102694.2495634655</v>
+        <v>102830</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3262,10 +3262,10 @@
         <v>11</v>
       </c>
       <c r="C10">
-        <v>14492.655792964</v>
+        <v>14438</v>
       </c>
       <c r="D10">
-        <v>65706.65579296401</v>
+        <v>65652</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3279,7 +3279,7 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>114484.0000000001</v>
+        <v>114484</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -3293,7 +3293,7 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>102013.9999999999</v>
+        <v>102013</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3307,7 +3307,7 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>124988.0000000001</v>
+        <v>124988</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -3321,7 +3321,7 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>171925</v>
+        <v>171924</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -3349,7 +3349,7 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>75810.00000000001</v>
+        <v>75810</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3363,7 +3363,7 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>186480</v>
+        <v>186479</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -3377,7 +3377,7 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>176414.9999999999</v>
+        <v>176414</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -3391,7 +3391,7 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>168344.9999999999</v>
+        <v>168344</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -3405,7 +3405,7 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>72406.00000000006</v>
+        <v>72406</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -3419,7 +3419,7 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>95690.00000000009</v>
+        <v>95690</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -3433,7 +3433,7 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>150840.0000000001</v>
+        <v>150840</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -3447,7 +3447,7 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>79165.99999999994</v>
+        <v>79165</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -3461,7 +3461,7 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>76401.00000000001</v>
+        <v>76401</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -3475,7 +3475,7 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>75208.00000000004</v>
+        <v>75208</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -3489,7 +3489,7 @@
         <v>0</v>
       </c>
       <c r="D26">
-        <v>163105.0000000001</v>
+        <v>163105</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -3503,7 +3503,7 @@
         <v>0</v>
       </c>
       <c r="D27">
-        <v>159420.0000000001</v>
+        <v>159420</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -3517,7 +3517,7 @@
         <v>0</v>
       </c>
       <c r="D28">
-        <v>121312</v>
+        <v>121311</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -3531,7 +3531,7 @@
         <v>0</v>
       </c>
       <c r="D29">
-        <v>116638</v>
+        <v>116637</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -3542,10 +3542,10 @@
         <v>31</v>
       </c>
       <c r="C30">
-        <v>1424.640856239552</v>
+        <v>1333</v>
       </c>
       <c r="D30">
-        <v>99027.64085623957</v>
+        <v>98936</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -3556,10 +3556,10 @@
         <v>32</v>
       </c>
       <c r="C31">
-        <v>17108.25594752688</v>
+        <v>16909</v>
       </c>
       <c r="D31">
-        <v>83678.25594752691</v>
+        <v>83479</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -3584,10 +3584,10 @@
         <v>34</v>
       </c>
       <c r="C33">
-        <v>21595.43378763703</v>
+        <v>21494</v>
       </c>
       <c r="D33">
-        <v>82649.43378763706</v>
+        <v>82548</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -3598,10 +3598,10 @@
         <v>35</v>
       </c>
       <c r="C34">
-        <v>28506.80210470731</v>
+        <v>28735</v>
       </c>
       <c r="D34">
-        <v>118910.8021047074</v>
+        <v>119139</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -3612,10 +3612,10 @@
         <v>36</v>
       </c>
       <c r="C35">
-        <v>29561.3654685084</v>
+        <v>29547</v>
       </c>
       <c r="D35">
-        <v>99606.3654685084</v>
+        <v>99592</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -3643,7 +3643,7 @@
         <v>0</v>
       </c>
       <c r="D37">
-        <v>87988.00000000001</v>
+        <v>87988</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -3654,10 +3654,10 @@
         <v>39</v>
       </c>
       <c r="C38">
-        <v>5598.604412760222</v>
+        <v>5440</v>
       </c>
       <c r="D38">
-        <v>103633.6044127603</v>
+        <v>103475</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -3685,7 +3685,7 @@
         <v>0</v>
       </c>
       <c r="D40">
-        <v>165096</v>
+        <v>165095</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -3699,7 +3699,7 @@
         <v>0</v>
       </c>
       <c r="D41">
-        <v>87259.99999999994</v>
+        <v>87259</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -3713,7 +3713,7 @@
         <v>0</v>
       </c>
       <c r="D42">
-        <v>78218.00000000004</v>
+        <v>78218</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -3727,7 +3727,7 @@
         <v>0</v>
       </c>
       <c r="D43">
-        <v>141310.0000000001</v>
+        <v>141310</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -3741,7 +3741,7 @@
         <v>0</v>
       </c>
       <c r="D44">
-        <v>107451.9999999999</v>
+        <v>107451</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -3755,7 +3755,7 @@
         <v>0</v>
       </c>
       <c r="D45">
-        <v>82844.00000000007</v>
+        <v>82844</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -3769,7 +3769,7 @@
         <v>0</v>
       </c>
       <c r="D46">
-        <v>183260.0000000001</v>
+        <v>183260</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -3783,7 +3783,7 @@
         <v>0</v>
       </c>
       <c r="D47">
-        <v>125060</v>
+        <v>125059</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -3797,7 +3797,7 @@
         <v>0</v>
       </c>
       <c r="D48">
-        <v>96992.00000000004</v>
+        <v>96992</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -3811,7 +3811,7 @@
         <v>0</v>
       </c>
       <c r="D49">
-        <v>165650.0000000001</v>
+        <v>165650</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -3839,7 +3839,7 @@
         <v>0</v>
       </c>
       <c r="D51">
-        <v>126095.0000000001</v>
+        <v>126095</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -3853,7 +3853,7 @@
         <v>0</v>
       </c>
       <c r="D52">
-        <v>77235.00000000003</v>
+        <v>77235</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -3909,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="D56">
-        <v>150149.9999999999</v>
+        <v>150149</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -3965,7 +3965,7 @@
         <v>0</v>
       </c>
       <c r="D60">
-        <v>92787.99999999996</v>
+        <v>92787</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -3979,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="D61">
-        <v>124960.0000000001</v>
+        <v>124960</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -3993,7 +3993,7 @@
         <v>0</v>
       </c>
       <c r="D62">
-        <v>79791.99999999993</v>
+        <v>79791</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -4007,7 +4007,7 @@
         <v>0</v>
       </c>
       <c r="D63">
-        <v>102547.9999999999</v>
+        <v>102547</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -4021,7 +4021,7 @@
         <v>0</v>
       </c>
       <c r="D64">
-        <v>78785.00000000003</v>
+        <v>78785</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -4063,7 +4063,7 @@
         <v>0</v>
       </c>
       <c r="D67">
-        <v>137579.9999999999</v>
+        <v>137579</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -4074,10 +4074,10 @@
         <v>69</v>
       </c>
       <c r="C68">
-        <v>16341.46436628776</v>
+        <v>16471</v>
       </c>
       <c r="D68">
-        <v>99358.46436628774</v>
+        <v>99487</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -4091,7 +4091,7 @@
         <v>0</v>
       </c>
       <c r="D69">
-        <v>184709.9999999998</v>
+        <v>184709</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -4105,7 +4105,7 @@
         <v>0</v>
       </c>
       <c r="D70">
-        <v>62310.00000000001</v>
+        <v>62310</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -4116,10 +4116,10 @@
         <v>72</v>
       </c>
       <c r="C71">
-        <v>11641.61604590311</v>
+        <v>11574</v>
       </c>
       <c r="D71">
-        <v>65445.6160459031</v>
+        <v>65377</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -4130,10 +4130,10 @@
         <v>73</v>
       </c>
       <c r="C72">
-        <v>7547.877969843772</v>
+        <v>7571</v>
       </c>
       <c r="D72">
-        <v>82815.8779698438</v>
+        <v>82839</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -4158,10 +4158,10 @@
         <v>75</v>
       </c>
       <c r="C74">
-        <v>10229.24639491073</v>
+        <v>10100</v>
       </c>
       <c r="D74">
-        <v>141289.2463949107</v>
+        <v>141159</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -4175,7 +4175,7 @@
         <v>0</v>
       </c>
       <c r="D75">
-        <v>96331.99999999993</v>
+        <v>96331</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -4189,7 +4189,7 @@
         <v>0</v>
       </c>
       <c r="D76">
-        <v>156544</v>
+        <v>156543</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="D77">
-        <v>64391.00000000002</v>
+        <v>64391</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -4245,7 +4245,7 @@
         <v>0</v>
       </c>
       <c r="D80">
-        <v>183785.0000000001</v>
+        <v>183785</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -4259,7 +4259,7 @@
         <v>0</v>
       </c>
       <c r="D81">
-        <v>75738.99999999994</v>
+        <v>75738</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -4273,7 +4273,7 @@
         <v>0</v>
       </c>
       <c r="D82">
-        <v>163029.9999999999</v>
+        <v>163029</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -4287,7 +4287,7 @@
         <v>0</v>
       </c>
       <c r="D83">
-        <v>70073.00000000004</v>
+        <v>70073</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -4298,10 +4298,10 @@
         <v>85</v>
       </c>
       <c r="C84">
-        <v>18472.14922934253</v>
+        <v>18570</v>
       </c>
       <c r="D84">
-        <v>83008.14922934255</v>
+        <v>83106</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -4315,7 +4315,7 @@
         <v>0</v>
       </c>
       <c r="D85">
-        <v>61189.00000000001</v>
+        <v>61189</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -4326,10 +4326,10 @@
         <v>87</v>
       </c>
       <c r="C86">
-        <v>15049.56968420245</v>
+        <v>14985</v>
       </c>
       <c r="D86">
-        <v>65784.56968420248</v>
+        <v>65720</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -4343,7 +4343,7 @@
         <v>0</v>
       </c>
       <c r="D87">
-        <v>90012.00000000003</v>
+        <v>90012</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -4357,7 +4357,7 @@
         <v>0</v>
       </c>
       <c r="D88">
-        <v>71232.00000000004</v>
+        <v>71232</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -4371,7 +4371,7 @@
         <v>0</v>
       </c>
       <c r="D89">
-        <v>70271.00000000003</v>
+        <v>70271</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -4382,10 +4382,10 @@
         <v>91</v>
       </c>
       <c r="C90">
-        <v>17021.89643320093</v>
+        <v>17079</v>
       </c>
       <c r="D90">
-        <v>142966.8964332009</v>
+        <v>143023</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -4399,7 +4399,7 @@
         <v>0</v>
       </c>
       <c r="D91">
-        <v>99270.99999999993</v>
+        <v>99270</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -4413,7 +4413,7 @@
         <v>0</v>
       </c>
       <c r="D92">
-        <v>115055.9999999999</v>
+        <v>115055</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -4427,7 +4427,7 @@
         <v>0</v>
       </c>
       <c r="D93">
-        <v>65642.00000000001</v>
+        <v>65642</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -4441,7 +4441,7 @@
         <v>0</v>
       </c>
       <c r="D94">
-        <v>86121.99999999996</v>
+        <v>86121</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -4455,7 +4455,7 @@
         <v>0</v>
       </c>
       <c r="D95">
-        <v>157876</v>
+        <v>157875</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -4469,7 +4469,7 @@
         <v>0</v>
       </c>
       <c r="D96">
-        <v>120700.0000000001</v>
+        <v>120700</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -4483,7 +4483,7 @@
         <v>0</v>
       </c>
       <c r="D97">
-        <v>145859.9999999999</v>
+        <v>145859</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -4497,7 +4497,7 @@
         <v>0</v>
       </c>
       <c r="D98">
-        <v>169688.0000000001</v>
+        <v>169688</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -4525,7 +4525,7 @@
         <v>0</v>
       </c>
       <c r="D100">
-        <v>67321.00000000004</v>
+        <v>67321</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -4539,7 +4539,7 @@
         <v>0</v>
       </c>
       <c r="D101">
-        <v>168871.9999999999</v>
+        <v>168871</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -4553,7 +4553,7 @@
         <v>0</v>
       </c>
       <c r="D102">
-        <v>101380</v>
+        <v>101379</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -4567,7 +4567,7 @@
         <v>0</v>
       </c>
       <c r="D103">
-        <v>97395.00000000007</v>
+        <v>97395</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -4581,7 +4581,7 @@
         <v>0</v>
       </c>
       <c r="D104">
-        <v>77497.00000000001</v>
+        <v>77497</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -4595,7 +4595,7 @@
         <v>0</v>
       </c>
       <c r="D105">
-        <v>80032.00000000006</v>
+        <v>80032</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -4623,7 +4623,7 @@
         <v>0</v>
       </c>
       <c r="D107">
-        <v>139660.0000000001</v>
+        <v>139660</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -4634,10 +4634,10 @@
         <v>109</v>
       </c>
       <c r="C108">
-        <v>1340.379721932419</v>
+        <v>1438</v>
       </c>
       <c r="D108">
-        <v>83138.37972193248</v>
+        <v>83236</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -4665,7 +4665,7 @@
         <v>0</v>
       </c>
       <c r="D110">
-        <v>171544.9999999999</v>
+        <v>171544</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -4679,7 +4679,7 @@
         <v>0</v>
       </c>
       <c r="D111">
-        <v>93830.00000000004</v>
+        <v>93830</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -4693,7 +4693,7 @@
         <v>0</v>
       </c>
       <c r="D112">
-        <v>151439.9999999999</v>
+        <v>151439</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -4707,7 +4707,7 @@
         <v>0</v>
       </c>
       <c r="D113">
-        <v>98428.00000000007</v>
+        <v>98428</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -4721,7 +4721,7 @@
         <v>0</v>
       </c>
       <c r="D114">
-        <v>80330.00000000006</v>
+        <v>80330</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -4732,10 +4732,10 @@
         <v>116</v>
       </c>
       <c r="C115">
-        <v>4062.293137195215</v>
+        <v>4012</v>
       </c>
       <c r="D115">
-        <v>63022.29313719523</v>
+        <v>62972</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -4749,7 +4749,7 @@
         <v>0</v>
       </c>
       <c r="D116">
-        <v>79074.00000000006</v>
+        <v>79074</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -4760,10 +4760,10 @@
         <v>118</v>
       </c>
       <c r="C117">
-        <v>6661.559138358425</v>
+        <v>6815</v>
       </c>
       <c r="D117">
-        <v>82255.55913835844</v>
+        <v>82409</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -4791,7 +4791,7 @@
         <v>0</v>
       </c>
       <c r="D119">
-        <v>77400.00000000006</v>
+        <v>77400</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -4805,7 +4805,7 @@
         <v>0</v>
       </c>
       <c r="D120">
-        <v>139011.9999999999</v>
+        <v>139011</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -4819,7 +4819,7 @@
         <v>0</v>
       </c>
       <c r="D121">
-        <v>92621.99999999997</v>
+        <v>92621</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -4830,10 +4830,10 @@
         <v>123</v>
       </c>
       <c r="C122">
-        <v>17844.81215991671</v>
+        <v>17711</v>
       </c>
       <c r="D122">
-        <v>123896.8121599166</v>
+        <v>123762</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -4847,7 +4847,7 @@
         <v>0</v>
       </c>
       <c r="D123">
-        <v>97192.00000000007</v>
+        <v>97192</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -4861,7 +4861,7 @@
         <v>0</v>
       </c>
       <c r="D124">
-        <v>87723.99999999997</v>
+        <v>87723</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -4889,7 +4889,7 @@
         <v>0</v>
       </c>
       <c r="D126">
-        <v>75303.99999999997</v>
+        <v>75303</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -4914,10 +4914,10 @@
         <v>129</v>
       </c>
       <c r="C128">
-        <v>30954.68721321145</v>
+        <v>30702</v>
       </c>
       <c r="D128">
-        <v>140219.6872132116</v>
+        <v>139967</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -4959,7 +4959,7 @@
         <v>0</v>
       </c>
       <c r="D131">
-        <v>92758.00000000001</v>
+        <v>92758</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -4973,7 +4973,7 @@
         <v>0</v>
       </c>
       <c r="D132">
-        <v>129037.0000000001</v>
+        <v>129037</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -4987,7 +4987,7 @@
         <v>0</v>
       </c>
       <c r="D133">
-        <v>167760.0000000001</v>
+        <v>167760</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -5001,7 +5001,7 @@
         <v>0</v>
       </c>
       <c r="D134">
-        <v>111143</v>
+        <v>111142</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -5015,7 +5015,7 @@
         <v>0</v>
       </c>
       <c r="D135">
-        <v>138011.9999999999</v>
+        <v>138011</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -5026,10 +5026,10 @@
         <v>137</v>
       </c>
       <c r="C136">
-        <v>16399.11574033764</v>
+        <v>16217</v>
       </c>
       <c r="D136">
-        <v>142724.1157403377</v>
+        <v>142542</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -5040,10 +5040,10 @@
         <v>138</v>
       </c>
       <c r="C137">
-        <v>21376.18105561548</v>
+        <v>21350</v>
       </c>
       <c r="D137">
-        <v>146506.1810556155</v>
+        <v>146480</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -5057,7 +5057,7 @@
         <v>0</v>
       </c>
       <c r="D138">
-        <v>92317.99999999996</v>
+        <v>92317</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -5082,10 +5082,10 @@
         <v>141</v>
       </c>
       <c r="C140">
-        <v>1671.9016148015</v>
+        <v>1530</v>
       </c>
       <c r="D140">
-        <v>65519.90161480146</v>
+        <v>65377</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -5110,10 +5110,10 @@
         <v>143</v>
       </c>
       <c r="C142">
-        <v>46539.02012211797</v>
+        <v>46830</v>
       </c>
       <c r="D142">
-        <v>146504.0201221179</v>
+        <v>146794</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -5127,7 +5127,7 @@
         <v>0</v>
       </c>
       <c r="D143">
-        <v>66458.99999999999</v>
+        <v>66458</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -5138,10 +5138,10 @@
         <v>145</v>
       </c>
       <c r="C144">
-        <v>45189.99794557283</v>
+        <v>44878</v>
       </c>
       <c r="D144">
-        <v>139404.9979455728</v>
+        <v>139093</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -5155,7 +5155,7 @@
         <v>0</v>
       </c>
       <c r="D145">
-        <v>93555.99999999994</v>
+        <v>93555</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -5166,10 +5166,10 @@
         <v>147</v>
       </c>
       <c r="C146">
-        <v>4793.765149123705</v>
+        <v>4947</v>
       </c>
       <c r="D146">
-        <v>83159.76514912375</v>
+        <v>83313</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -5183,7 +5183,7 @@
         <v>0</v>
       </c>
       <c r="D147">
-        <v>64924.99999999996</v>
+        <v>64924</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -5197,7 +5197,7 @@
         <v>0</v>
       </c>
       <c r="D148">
-        <v>82315.99999999999</v>
+        <v>82315</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -5208,10 +5208,10 @@
         <v>150</v>
       </c>
       <c r="C149">
-        <v>7576.985332143813</v>
+        <v>7537</v>
       </c>
       <c r="D149">
-        <v>62310.98533214384</v>
+        <v>62271</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -5253,7 +5253,7 @@
         <v>0</v>
       </c>
       <c r="D152">
-        <v>118274.0000000001</v>
+        <v>118274</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -5267,7 +5267,7 @@
         <v>0</v>
       </c>
       <c r="D153">
-        <v>95890.00000000007</v>
+        <v>95890</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -5281,7 +5281,7 @@
         <v>0</v>
       </c>
       <c r="D154">
-        <v>174055.0000000001</v>
+        <v>174055</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -5295,7 +5295,7 @@
         <v>0</v>
       </c>
       <c r="D155">
-        <v>93112.00000000006</v>
+        <v>93112</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -5309,7 +5309,7 @@
         <v>0</v>
       </c>
       <c r="D156">
-        <v>166980.0000000001</v>
+        <v>166980</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -5323,7 +5323,7 @@
         <v>0</v>
       </c>
       <c r="D157">
-        <v>67757.00000000006</v>
+        <v>67757</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -5351,7 +5351,7 @@
         <v>0</v>
       </c>
       <c r="D159">
-        <v>114839.0000000001</v>
+        <v>114839</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -5365,7 +5365,7 @@
         <v>0</v>
       </c>
       <c r="D160">
-        <v>179315.0000000001</v>
+        <v>179315</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -5379,7 +5379,7 @@
         <v>0</v>
       </c>
       <c r="D161">
-        <v>90025.99999999996</v>
+        <v>90025</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -5393,7 +5393,7 @@
         <v>0</v>
       </c>
       <c r="D162">
-        <v>135827.9999999999</v>
+        <v>135827</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -5404,10 +5404,10 @@
         <v>164</v>
       </c>
       <c r="C163">
-        <v>31554.36377829222</v>
+        <v>31812</v>
       </c>
       <c r="D163">
-        <v>116866.3637782921</v>
+        <v>117123</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -5421,7 +5421,7 @@
         <v>0</v>
       </c>
       <c r="D164">
-        <v>130136</v>
+        <v>130135</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -5435,7 +5435,7 @@
         <v>0</v>
       </c>
       <c r="D165">
-        <v>147739.9999999999</v>
+        <v>147739</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -5463,7 +5463,7 @@
         <v>0</v>
       </c>
       <c r="D167">
-        <v>150383.9999999999</v>
+        <v>150383</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -5477,7 +5477,7 @@
         <v>0</v>
       </c>
       <c r="D168">
-        <v>65264.99999999998</v>
+        <v>65264</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -5488,10 +5488,10 @@
         <v>170</v>
       </c>
       <c r="C169">
-        <v>21924.1672859855</v>
+        <v>22010</v>
       </c>
       <c r="D169">
-        <v>86634.16728598546</v>
+        <v>86719</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -5530,10 +5530,10 @@
         <v>173</v>
       </c>
       <c r="C172">
-        <v>19263.6978294501</v>
+        <v>19188</v>
       </c>
       <c r="D172">
-        <v>83399.69782945009</v>
+        <v>83323</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -5547,7 +5547,7 @@
         <v>0</v>
       </c>
       <c r="D173">
-        <v>69139.99999999997</v>
+        <v>69139</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -5558,10 +5558,10 @@
         <v>175</v>
       </c>
       <c r="C174">
-        <v>8330.326497842412</v>
+        <v>8087</v>
       </c>
       <c r="D174">
-        <v>101340.3264978424</v>
+        <v>101096</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -5575,7 +5575,7 @@
         <v>0</v>
       </c>
       <c r="D175">
-        <v>189210.0000000001</v>
+        <v>189210</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -5586,10 +5586,10 @@
         <v>177</v>
       </c>
       <c r="C176">
-        <v>28719.71265593157</v>
+        <v>28634</v>
       </c>
       <c r="D176">
-        <v>141029.7126559315</v>
+        <v>140943</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -5600,10 +5600,10 @@
         <v>178</v>
       </c>
       <c r="C177">
-        <v>2855.294774079164</v>
+        <v>2791</v>
       </c>
       <c r="D177">
-        <v>65834.29477407919</v>
+        <v>65770</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -5614,10 +5614,10 @@
         <v>179</v>
       </c>
       <c r="C178">
-        <v>11609.28262426259</v>
+        <v>11480</v>
       </c>
       <c r="D178">
-        <v>63276.28262426257</v>
+        <v>63146</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -5631,7 +5631,7 @@
         <v>0</v>
       </c>
       <c r="D179">
-        <v>118511</v>
+        <v>118510</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -5645,7 +5645,7 @@
         <v>0</v>
       </c>
       <c r="D180">
-        <v>68927.00000000003</v>
+        <v>68927</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -5659,7 +5659,7 @@
         <v>0</v>
       </c>
       <c r="D181">
-        <v>86538.00000000003</v>
+        <v>86538</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -5673,7 +5673,7 @@
         <v>0</v>
       </c>
       <c r="D182">
-        <v>114643.0000000001</v>
+        <v>114643</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -5684,10 +5684,10 @@
         <v>184</v>
       </c>
       <c r="C183">
-        <v>4264.477475859188</v>
+        <v>4360</v>
       </c>
       <c r="D183">
-        <v>62954.47747585921</v>
+        <v>63050</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -5701,7 +5701,7 @@
         <v>0</v>
       </c>
       <c r="D184">
-        <v>100910</v>
+        <v>100909</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -5715,7 +5715,7 @@
         <v>0</v>
       </c>
       <c r="D185">
-        <v>88078.99999999999</v>
+        <v>88078</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -5726,10 +5726,10 @@
         <v>187</v>
       </c>
       <c r="C186">
-        <v>10255.2303584882</v>
+        <v>10177</v>
       </c>
       <c r="D186">
-        <v>83121.23035848817</v>
+        <v>83042</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -5743,7 +5743,7 @@
         <v>0</v>
       </c>
       <c r="D187">
-        <v>104476</v>
+        <v>104475</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -5757,7 +5757,7 @@
         <v>0</v>
       </c>
       <c r="D188">
-        <v>122176.0000000001</v>
+        <v>122176</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -5771,7 +5771,7 @@
         <v>0</v>
       </c>
       <c r="D189">
-        <v>118519.9999999999</v>
+        <v>118519</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -5782,10 +5782,10 @@
         <v>191</v>
       </c>
       <c r="C190">
-        <v>8839.220626479699</v>
+        <v>9010</v>
       </c>
       <c r="D190">
-        <v>120375.2206264797</v>
+        <v>120546</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -5799,7 +5799,7 @@
         <v>0</v>
       </c>
       <c r="D191">
-        <v>154219.9999999999</v>
+        <v>154219</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -5810,10 +5810,10 @@
         <v>193</v>
       </c>
       <c r="C192">
-        <v>5676.505029303167</v>
+        <v>5935</v>
       </c>
       <c r="D192">
-        <v>139006.5050293031</v>
+        <v>139264</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -5827,7 +5827,7 @@
         <v>0</v>
       </c>
       <c r="D193">
-        <v>121862.0000000001</v>
+        <v>121862</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -5841,7 +5841,7 @@
         <v>0</v>
       </c>
       <c r="D194">
-        <v>132375.0000000001</v>
+        <v>132375</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -5852,10 +5852,10 @@
         <v>196</v>
       </c>
       <c r="C195">
-        <v>17736.79116742181</v>
+        <v>17787</v>
       </c>
       <c r="D195">
-        <v>82788.79116742182</v>
+        <v>82839</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -5869,7 +5869,7 @@
         <v>0</v>
       </c>
       <c r="D196">
-        <v>148900.0000000001</v>
+        <v>148900</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -5883,7 +5883,7 @@
         <v>0</v>
       </c>
       <c r="D197">
-        <v>109216</v>
+        <v>109215</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -5897,7 +5897,7 @@
         <v>0</v>
       </c>
       <c r="D198">
-        <v>70062.00000000001</v>
+        <v>70062</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -5911,7 +5911,7 @@
         <v>0</v>
       </c>
       <c r="D199">
-        <v>77364.99999999997</v>
+        <v>77364</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -5925,7 +5925,7 @@
         <v>0</v>
       </c>
       <c r="D200">
-        <v>69685.00000000004</v>
+        <v>69685</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -5939,7 +5939,7 @@
         <v>0</v>
       </c>
       <c r="D201">
-        <v>111096</v>
+        <v>111095</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -5953,7 +5953,7 @@
         <v>0</v>
       </c>
       <c r="D202">
-        <v>97654.00000000004</v>
+        <v>97654</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -5964,10 +5964,10 @@
         <v>204</v>
       </c>
       <c r="C203">
-        <v>21397.05484065831</v>
+        <v>21586</v>
       </c>
       <c r="D203">
-        <v>117585.0548406583</v>
+        <v>117773</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -5978,10 +5978,10 @@
         <v>205</v>
       </c>
       <c r="C204">
-        <v>18663.03510237836</v>
+        <v>18546</v>
       </c>
       <c r="D204">
-        <v>83597.03510237832</v>
+        <v>83479</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -5995,7 +5995,7 @@
         <v>0</v>
       </c>
       <c r="D205">
-        <v>166639.9999999999</v>
+        <v>166639</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -6006,10 +6006,10 @@
         <v>207</v>
       </c>
       <c r="C206">
-        <v>404.5828537074412</v>
+        <v>504</v>
       </c>
       <c r="D206">
-        <v>83096.58285370747</v>
+        <v>83196</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -6023,7 +6023,7 @@
         <v>0</v>
       </c>
       <c r="D207">
-        <v>141464.9999999999</v>
+        <v>141464</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -6037,7 +6037,7 @@
         <v>0</v>
       </c>
       <c r="D208">
-        <v>152120.0000000001</v>
+        <v>152120</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -6048,10 +6048,10 @@
         <v>210</v>
       </c>
       <c r="C209">
-        <v>1968.691695394344</v>
+        <v>2151</v>
       </c>
       <c r="D209">
-        <v>140133.6916953944</v>
+        <v>140316</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -6065,7 +6065,7 @@
         <v>0</v>
       </c>
       <c r="D210">
-        <v>108835.9999999999</v>
+        <v>108835</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -6079,7 +6079,7 @@
         <v>0</v>
       </c>
       <c r="D211">
-        <v>130751.0000000001</v>
+        <v>130751</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -6107,7 +6107,7 @@
         <v>0</v>
       </c>
       <c r="D213">
-        <v>65575.00000000004</v>
+        <v>65575</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -6118,10 +6118,10 @@
         <v>215</v>
       </c>
       <c r="C214">
-        <v>23501.98001438646</v>
+        <v>23399</v>
       </c>
       <c r="D214">
-        <v>120869.9800143865</v>
+        <v>120767</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -6132,10 +6132,10 @@
         <v>216</v>
       </c>
       <c r="C215">
-        <v>19303.79512264339</v>
+        <v>19257</v>
       </c>
       <c r="D215">
-        <v>118599.7951226434</v>
+        <v>118552</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -6149,7 +6149,7 @@
         <v>0</v>
       </c>
       <c r="D216">
-        <v>96277.99999999997</v>
+        <v>96277</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -6163,7 +6163,7 @@
         <v>0</v>
       </c>
       <c r="D217">
-        <v>113474</v>
+        <v>113473</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -6174,10 +6174,10 @@
         <v>219</v>
       </c>
       <c r="C218">
-        <v>12871.07042584468</v>
+        <v>12819</v>
       </c>
       <c r="D218">
-        <v>63838.0704258447</v>
+        <v>63786</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -6191,7 +6191,7 @@
         <v>0</v>
       </c>
       <c r="D219">
-        <v>85763.99999999996</v>
+        <v>85763</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -6202,10 +6202,10 @@
         <v>221</v>
       </c>
       <c r="C220">
-        <v>19254.08275485538</v>
+        <v>19445</v>
       </c>
       <c r="D220">
-        <v>120410.0827548554</v>
+        <v>120601</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -6216,10 +6216,10 @@
         <v>222</v>
       </c>
       <c r="C221">
-        <v>8606.403311019487</v>
+        <v>8542</v>
       </c>
       <c r="D221">
-        <v>101052.4033110194</v>
+        <v>100987</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -6233,7 +6233,7 @@
         <v>0</v>
       </c>
       <c r="D222">
-        <v>122846</v>
+        <v>122845</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -6247,7 +6247,7 @@
         <v>0</v>
       </c>
       <c r="D223">
-        <v>70529.99999999994</v>
+        <v>70529</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -6261,7 +6261,7 @@
         <v>0</v>
       </c>
       <c r="D224">
-        <v>105045.9999999999</v>
+        <v>105045</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -6289,7 +6289,7 @@
         <v>0</v>
       </c>
       <c r="D226">
-        <v>114070</v>
+        <v>114069</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -6300,10 +6300,10 @@
         <v>228</v>
       </c>
       <c r="C227">
-        <v>13765.10376738341</v>
+        <v>13784</v>
       </c>
       <c r="D227">
-        <v>82403.10376738338</v>
+        <v>82421</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -6314,10 +6314,10 @@
         <v>229</v>
       </c>
       <c r="C228">
-        <v>23998.237065707</v>
+        <v>24236</v>
       </c>
       <c r="D228">
-        <v>139303.2370657071</v>
+        <v>139541</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -6345,7 +6345,7 @@
         <v>0</v>
       </c>
       <c r="D230">
-        <v>174359.9999999999</v>
+        <v>174359</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -6359,7 +6359,7 @@
         <v>0</v>
       </c>
       <c r="D231">
-        <v>84689.99999999997</v>
+        <v>84689</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -6370,10 +6370,10 @@
         <v>233</v>
       </c>
       <c r="C232">
-        <v>8123.102967454157</v>
+        <v>8115</v>
       </c>
       <c r="D232">
-        <v>63048.10296745419</v>
+        <v>63040</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -6384,10 +6384,10 @@
         <v>234</v>
       </c>
       <c r="C233">
-        <v>15143.19511585651</v>
+        <v>14922</v>
       </c>
       <c r="D233">
-        <v>120951.1951158565</v>
+        <v>120730</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -6401,7 +6401,7 @@
         <v>0</v>
       </c>
       <c r="D234">
-        <v>101372.0000000001</v>
+        <v>101372</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -6415,7 +6415,7 @@
         <v>0</v>
       </c>
       <c r="D235">
-        <v>120962.0000000001</v>
+        <v>120962</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -6429,7 +6429,7 @@
         <v>0</v>
       </c>
       <c r="D236">
-        <v>164049.9999999999</v>
+        <v>164049</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -6443,7 +6443,7 @@
         <v>0</v>
       </c>
       <c r="D237">
-        <v>117307.9999999999</v>
+        <v>117307</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -6457,7 +6457,7 @@
         <v>0</v>
       </c>
       <c r="D238">
-        <v>78561.00000000007</v>
+        <v>78561</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -6468,10 +6468,10 @@
         <v>240</v>
       </c>
       <c r="C239">
-        <v>6345.491912158992</v>
+        <v>6330</v>
       </c>
       <c r="D239">
-        <v>62650.49191215901</v>
+        <v>62635</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -6482,10 +6482,10 @@
         <v>241</v>
       </c>
       <c r="C240">
-        <v>6267.874656665743</v>
+        <v>6144</v>
       </c>
       <c r="D240">
-        <v>63900.87465666572</v>
+        <v>63776</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -6499,7 +6499,7 @@
         <v>0</v>
       </c>
       <c r="D241">
-        <v>111669.9999999999</v>
+        <v>111669</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -6510,10 +6510,10 @@
         <v>243</v>
       </c>
       <c r="C242">
-        <v>19483.9735673117</v>
+        <v>19465</v>
       </c>
       <c r="D242">
-        <v>99197.97356731174</v>
+        <v>99179</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -6527,7 +6527,7 @@
         <v>0</v>
       </c>
       <c r="D243">
-        <v>68917.00000000001</v>
+        <v>68917</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -6555,7 +6555,7 @@
         <v>0</v>
       </c>
       <c r="D245">
-        <v>78095.99999999999</v>
+        <v>78095</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -6566,10 +6566,10 @@
         <v>247</v>
       </c>
       <c r="C246">
-        <v>35118.03723309193</v>
+        <v>34877</v>
       </c>
       <c r="D246">
-        <v>123358.037233092</v>
+        <v>123117</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -6583,7 +6583,7 @@
         <v>0</v>
       </c>
       <c r="D247">
-        <v>105270</v>
+        <v>105269</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -6597,7 +6597,7 @@
         <v>0</v>
       </c>
       <c r="D248">
-        <v>110168.0000000001</v>
+        <v>110168</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -6639,7 +6639,7 @@
         <v>0</v>
       </c>
       <c r="D251">
-        <v>178544.9999999999</v>
+        <v>178544</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -6653,7 +6653,7 @@
         <v>0</v>
       </c>
       <c r="D252">
-        <v>67253.00000000006</v>
+        <v>67253</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -6664,10 +6664,10 @@
         <v>254</v>
       </c>
       <c r="C253">
-        <v>22782.72295468036</v>
+        <v>22794</v>
       </c>
       <c r="D253">
-        <v>86454.7229546804</v>
+        <v>86466</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -6681,7 +6681,7 @@
         <v>0</v>
       </c>
       <c r="D254">
-        <v>163029.9999999999</v>
+        <v>163029</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -6695,7 +6695,7 @@
         <v>0</v>
       </c>
       <c r="D255">
-        <v>115970.0000000001</v>
+        <v>115970</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -6706,10 +6706,10 @@
         <v>257</v>
       </c>
       <c r="C256">
-        <v>23029.15393102491</v>
+        <v>22915</v>
       </c>
       <c r="D256">
-        <v>99416.15393102486</v>
+        <v>99301</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -6723,7 +6723,7 @@
         <v>0</v>
       </c>
       <c r="D257">
-        <v>106876</v>
+        <v>106875</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -6737,7 +6737,7 @@
         <v>0</v>
       </c>
       <c r="D258">
-        <v>161425.0000000001</v>
+        <v>161425</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -6751,7 +6751,7 @@
         <v>0</v>
       </c>
       <c r="D259">
-        <v>67105.00000000003</v>
+        <v>67105</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -6762,10 +6762,10 @@
         <v>261</v>
       </c>
       <c r="C260">
-        <v>3941.549880529754</v>
+        <v>4000</v>
       </c>
       <c r="D260">
-        <v>83099.54988052974</v>
+        <v>83157</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -6793,7 +6793,7 @@
         <v>0</v>
       </c>
       <c r="D262">
-        <v>79248.99999999994</v>
+        <v>79248</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -6807,7 +6807,7 @@
         <v>0</v>
       </c>
       <c r="D263">
-        <v>157147.9999999999</v>
+        <v>157147</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -6818,10 +6818,10 @@
         <v>265</v>
       </c>
       <c r="C264">
-        <v>5545.967588580097</v>
+        <v>5418</v>
       </c>
       <c r="D264">
-        <v>141395.9675885801</v>
+        <v>141267</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -6832,10 +6832,10 @@
         <v>266</v>
       </c>
       <c r="C265">
-        <v>1715.650647953262</v>
+        <v>1616</v>
       </c>
       <c r="D265">
-        <v>63264.6506479533</v>
+        <v>63165</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -6863,7 +6863,7 @@
         <v>0</v>
       </c>
       <c r="D267">
-        <v>139460.0000000001</v>
+        <v>139460</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -6891,7 +6891,7 @@
         <v>0</v>
       </c>
       <c r="D269">
-        <v>68263.00000000003</v>
+        <v>68263</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -6916,10 +6916,10 @@
         <v>272</v>
       </c>
       <c r="C271">
-        <v>29709.64643174909</v>
+        <v>29433</v>
       </c>
       <c r="D271">
-        <v>142534.6464317491</v>
+        <v>142258</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -6933,7 +6933,7 @@
         <v>0</v>
       </c>
       <c r="D272">
-        <v>89109.99999999999</v>
+        <v>89109</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -6947,7 +6947,7 @@
         <v>0</v>
       </c>
       <c r="D273">
-        <v>69035.99999999994</v>
+        <v>69035</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -6961,7 +6961,7 @@
         <v>0</v>
       </c>
       <c r="D274">
-        <v>115750</v>
+        <v>115749</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -6972,10 +6972,10 @@
         <v>276</v>
       </c>
       <c r="C275">
-        <v>23467.94184722792</v>
+        <v>23553</v>
       </c>
       <c r="D275">
-        <v>100949.9418472279</v>
+        <v>101034</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -6989,7 +6989,7 @@
         <v>0</v>
       </c>
       <c r="D276">
-        <v>129642.9999999999</v>
+        <v>129642</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -7003,7 +7003,7 @@
         <v>0</v>
       </c>
       <c r="D277">
-        <v>94152.00000000006</v>
+        <v>94152</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -7017,7 +7017,7 @@
         <v>0</v>
       </c>
       <c r="D278">
-        <v>124948</v>
+        <v>124947</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -7031,7 +7031,7 @@
         <v>0</v>
       </c>
       <c r="D279">
-        <v>94281.99999999994</v>
+        <v>94281</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -7042,10 +7042,10 @@
         <v>281</v>
       </c>
       <c r="C280">
-        <v>8161.580755296476</v>
+        <v>8173</v>
       </c>
       <c r="D280">
-        <v>65709.58075529643</v>
+        <v>65720</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -7056,10 +7056,10 @@
         <v>282</v>
       </c>
       <c r="C281">
-        <v>5.451393358787755</v>
+        <v>147</v>
       </c>
       <c r="D281">
-        <v>84143.45139335877</v>
+        <v>84284</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -7073,7 +7073,7 @@
         <v>0</v>
       </c>
       <c r="D282">
-        <v>68746.99999999997</v>
+        <v>68746</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -7087,7 +7087,7 @@
         <v>0</v>
       </c>
       <c r="D283">
-        <v>136922</v>
+        <v>136921</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -7098,10 +7098,10 @@
         <v>285</v>
       </c>
       <c r="C284">
-        <v>3933.401065345795</v>
+        <v>3950</v>
       </c>
       <c r="D284">
-        <v>83207.40106534575</v>
+        <v>83223</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -7112,10 +7112,10 @@
         <v>286</v>
       </c>
       <c r="C285">
-        <v>23368.18982480728</v>
+        <v>23161</v>
       </c>
       <c r="D285">
-        <v>120236.1898248073</v>
+        <v>120028</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -7129,7 +7129,7 @@
         <v>0</v>
       </c>
       <c r="D286">
-        <v>105110</v>
+        <v>105109</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -7140,10 +7140,10 @@
         <v>288</v>
       </c>
       <c r="C287">
-        <v>12173.95716411622</v>
+        <v>12151</v>
       </c>
       <c r="D287">
-        <v>119065.9571641163</v>
+        <v>119043</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -7171,7 +7171,7 @@
         <v>0</v>
       </c>
       <c r="D289">
-        <v>185939.9999999999</v>
+        <v>185939</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -7182,10 +7182,10 @@
         <v>291</v>
       </c>
       <c r="C290">
-        <v>18247.29524388201</v>
+        <v>18057</v>
       </c>
       <c r="D290">
-        <v>146917.295243882</v>
+        <v>146726</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -7199,7 +7199,7 @@
         <v>0</v>
       </c>
       <c r="D291">
-        <v>73286.99999999997</v>
+        <v>73286</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -7210,10 +7210,10 @@
         <v>293</v>
       </c>
       <c r="C292">
-        <v>10778.87870829389</v>
+        <v>10658</v>
       </c>
       <c r="D292">
-        <v>62334.87870829392</v>
+        <v>62214</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -7227,7 +7227,7 @@
         <v>0</v>
       </c>
       <c r="D293">
-        <v>102564.0000000001</v>
+        <v>102564</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -7241,7 +7241,7 @@
         <v>0</v>
       </c>
       <c r="D294">
-        <v>125307.9999999999</v>
+        <v>125307</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -7252,10 +7252,10 @@
         <v>296</v>
       </c>
       <c r="C295">
-        <v>30721.54433018331</v>
+        <v>30815</v>
       </c>
       <c r="D295">
-        <v>119209.5443301834</v>
+        <v>119303</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -7269,7 +7269,7 @@
         <v>0</v>
       </c>
       <c r="D296">
-        <v>189139.9999999999</v>
+        <v>189139</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -7294,10 +7294,10 @@
         <v>299</v>
       </c>
       <c r="C298">
-        <v>18664.2093293439</v>
+        <v>18556</v>
       </c>
       <c r="D298">
-        <v>98819.20932934385</v>
+        <v>98710</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -7322,10 +7322,10 @@
         <v>301</v>
       </c>
       <c r="C300">
-        <v>16319.08206958084</v>
+        <v>16289</v>
       </c>
       <c r="D300">
-        <v>98529.08206958079</v>
+        <v>98498</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -7339,7 +7339,7 @@
         <v>0</v>
       </c>
       <c r="D301">
-        <v>92609.99999999999</v>
+        <v>92609</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -7350,10 +7350,10 @@
         <v>303</v>
       </c>
       <c r="C302">
-        <v>3128.379687982408</v>
+        <v>3258</v>
       </c>
       <c r="D302">
-        <v>65561.37968798236</v>
+        <v>65690</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -7381,7 +7381,7 @@
         <v>0</v>
       </c>
       <c r="D304">
-        <v>143720.0000000001</v>
+        <v>143720</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -7392,10 +7392,10 @@
         <v>306</v>
       </c>
       <c r="C305">
-        <v>33394.31134832228</v>
+        <v>33544</v>
       </c>
       <c r="D305">
-        <v>117570.3113483222</v>
+        <v>117719</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -7409,7 +7409,7 @@
         <v>0</v>
       </c>
       <c r="D306">
-        <v>110429.0000000001</v>
+        <v>110429</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -7420,10 +7420,10 @@
         <v>308</v>
       </c>
       <c r="C307">
-        <v>6388.013113067485</v>
+        <v>6317</v>
       </c>
       <c r="D307">
-        <v>63113.01311306753</v>
+        <v>63042</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -7434,10 +7434,10 @@
         <v>309</v>
       </c>
       <c r="C308">
-        <v>10827.04029187107</v>
+        <v>10749</v>
       </c>
       <c r="D308">
-        <v>63225.04029187102</v>
+        <v>63146</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -7462,10 +7462,10 @@
         <v>311</v>
       </c>
       <c r="C310">
-        <v>21938.54488011038</v>
+        <v>21642</v>
       </c>
       <c r="D310">
-        <v>140393.5448801104</v>
+        <v>140097</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -7476,10 +7476,10 @@
         <v>312</v>
       </c>
       <c r="C311">
-        <v>6476.024493204692</v>
+        <v>6335</v>
       </c>
       <c r="D311">
-        <v>63415.02449320471</v>
+        <v>63274</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -7521,7 +7521,7 @@
         <v>0</v>
       </c>
       <c r="D314">
-        <v>134735.0000000001</v>
+        <v>134735</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -7535,7 +7535,7 @@
         <v>0</v>
       </c>
       <c r="D315">
-        <v>83510.00000000001</v>
+        <v>83510</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -7549,7 +7549,7 @@
         <v>0</v>
       </c>
       <c r="D316">
-        <v>106540</v>
+        <v>106539</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -7563,7 +7563,7 @@
         <v>0</v>
       </c>
       <c r="D317">
-        <v>74546.00000000004</v>
+        <v>74546</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -7577,7 +7577,7 @@
         <v>0</v>
       </c>
       <c r="D318">
-        <v>72100.00000000004</v>
+        <v>72100</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -7591,7 +7591,7 @@
         <v>0</v>
       </c>
       <c r="D319">
-        <v>66469.99999999997</v>
+        <v>66469</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -7602,10 +7602,10 @@
         <v>321</v>
       </c>
       <c r="C320">
-        <v>2468.407309221569</v>
+        <v>2338</v>
       </c>
       <c r="D320">
-        <v>63481.4073092216</v>
+        <v>63351</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -7619,7 +7619,7 @@
         <v>0</v>
       </c>
       <c r="D321">
-        <v>83195.99999999993</v>
+        <v>83195</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -7633,7 +7633,7 @@
         <v>0</v>
       </c>
       <c r="D322">
-        <v>158874.9999999999</v>
+        <v>158874</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -7647,7 +7647,7 @@
         <v>0</v>
       </c>
       <c r="D323">
-        <v>115064</v>
+        <v>115063</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -7661,7 +7661,7 @@
         <v>0</v>
       </c>
       <c r="D324">
-        <v>75894.00000000006</v>
+        <v>75894</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -7672,10 +7672,10 @@
         <v>326</v>
       </c>
       <c r="C325">
-        <v>16390.51706514721</v>
+        <v>16180</v>
       </c>
       <c r="D325">
-        <v>99482.51706514716</v>
+        <v>99271</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -7689,7 +7689,7 @@
         <v>0</v>
       </c>
       <c r="D326">
-        <v>80710.99999999994</v>
+        <v>80710</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -7700,10 +7700,10 @@
         <v>328</v>
       </c>
       <c r="C327">
-        <v>20197.35851537916</v>
+        <v>20257</v>
       </c>
       <c r="D327">
-        <v>84303.35851537915</v>
+        <v>84362</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -7728,10 +7728,10 @@
         <v>330</v>
       </c>
       <c r="C329">
-        <v>5641.158060642061</v>
+        <v>5592</v>
       </c>
       <c r="D329">
-        <v>100913.158060642</v>
+        <v>100863</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -7759,7 +7759,7 @@
         <v>0</v>
       </c>
       <c r="D331">
-        <v>86346.00000000001</v>
+        <v>86346</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -7773,7 +7773,7 @@
         <v>0</v>
       </c>
       <c r="D332">
-        <v>68214.00000000004</v>
+        <v>68214</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -7787,7 +7787,7 @@
         <v>0</v>
       </c>
       <c r="D333">
-        <v>69990.99999999997</v>
+        <v>69990</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -7801,7 +7801,7 @@
         <v>0</v>
       </c>
       <c r="D334">
-        <v>106468.0000000001</v>
+        <v>106468</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -7829,7 +7829,7 @@
         <v>0</v>
       </c>
       <c r="D336">
-        <v>90594.00000000003</v>
+        <v>90594</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -7840,10 +7840,10 @@
         <v>338</v>
       </c>
       <c r="C337">
-        <v>20546.29565012992</v>
+        <v>20657</v>
       </c>
       <c r="D337">
-        <v>117662.2956501299</v>
+        <v>117773</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -7854,10 +7854,10 @@
         <v>339</v>
       </c>
       <c r="C338">
-        <v>5818.189085350052</v>
+        <v>5993</v>
       </c>
       <c r="D338">
-        <v>84640.18908535008</v>
+        <v>84815</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -7871,7 +7871,7 @@
         <v>0</v>
       </c>
       <c r="D339">
-        <v>185964.9999999999</v>
+        <v>185964</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -7885,7 +7885,7 @@
         <v>0</v>
       </c>
       <c r="D340">
-        <v>62547.99999999999</v>
+        <v>62547</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -7913,7 +7913,7 @@
         <v>0</v>
       </c>
       <c r="D342">
-        <v>156624.9999999999</v>
+        <v>156624</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -7927,7 +7927,7 @@
         <v>0</v>
       </c>
       <c r="D343">
-        <v>105422.0000000001</v>
+        <v>105422</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -7938,10 +7938,10 @@
         <v>345</v>
       </c>
       <c r="C344">
-        <v>15252.19432363128</v>
+        <v>15446</v>
       </c>
       <c r="D344">
-        <v>139412.1943236313</v>
+        <v>139605</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -7955,7 +7955,7 @@
         <v>0</v>
       </c>
       <c r="D345">
-        <v>134144.0000000001</v>
+        <v>134144</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -7969,7 +7969,7 @@
         <v>0</v>
       </c>
       <c r="D346">
-        <v>103585</v>
+        <v>103584</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -7983,7 +7983,7 @@
         <v>0</v>
       </c>
       <c r="D347">
-        <v>160123.9999999999</v>
+        <v>160123</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -7997,7 +7997,7 @@
         <v>0</v>
       </c>
       <c r="D348">
-        <v>95495.99999999991</v>
+        <v>95495</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -8011,7 +8011,7 @@
         <v>0</v>
       </c>
       <c r="D349">
-        <v>76012.00000000003</v>
+        <v>76012</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -8039,7 +8039,7 @@
         <v>0</v>
       </c>
       <c r="D351">
-        <v>160340.0000000001</v>
+        <v>160340</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -8053,7 +8053,7 @@
         <v>0</v>
       </c>
       <c r="D352">
-        <v>72526.99999999999</v>
+        <v>72526</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -8067,7 +8067,7 @@
         <v>0</v>
       </c>
       <c r="D353">
-        <v>94780.00000000004</v>
+        <v>94780</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -8092,10 +8092,10 @@
         <v>356</v>
       </c>
       <c r="C355">
-        <v>12709.25019117713</v>
+        <v>12516</v>
       </c>
       <c r="D355">
-        <v>146584.2501911771</v>
+        <v>146390</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -8109,7 +8109,7 @@
         <v>0</v>
       </c>
       <c r="D356">
-        <v>99378.00000000003</v>
+        <v>99378</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -8123,7 +8123,7 @@
         <v>0</v>
       </c>
       <c r="D357">
-        <v>68502.99999999999</v>
+        <v>68502</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -8137,7 +8137,7 @@
         <v>0</v>
       </c>
       <c r="D358">
-        <v>91716.00000000001</v>
+        <v>91716</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -8151,7 +8151,7 @@
         <v>0</v>
       </c>
       <c r="D359">
-        <v>76156.00000000006</v>
+        <v>76156</v>
       </c>
     </row>
     <row r="360" spans="1:4">
@@ -8176,10 +8176,10 @@
         <v>362</v>
       </c>
       <c r="C361">
-        <v>8228.117655723327</v>
+        <v>8290</v>
       </c>
       <c r="D361">
-        <v>99378.11765572336</v>
+        <v>99440</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -8193,7 +8193,7 @@
         <v>0</v>
       </c>
       <c r="D362">
-        <v>134111.0000000001</v>
+        <v>134111</v>
       </c>
     </row>
     <row r="363" spans="1:4">
@@ -8207,7 +8207,7 @@
         <v>0</v>
       </c>
       <c r="D363">
-        <v>176934.9999999999</v>
+        <v>176934</v>
       </c>
     </row>
     <row r="364" spans="1:4">
@@ -8218,10 +8218,10 @@
         <v>365</v>
       </c>
       <c r="C364">
-        <v>11072.53547079307</v>
+        <v>11059</v>
       </c>
       <c r="D364">
-        <v>101217.5354707931</v>
+        <v>101204</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -8235,7 +8235,7 @@
         <v>0</v>
       </c>
       <c r="D365">
-        <v>68692.99999999996</v>
+        <v>68692</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -8249,7 +8249,7 @@
         <v>0</v>
       </c>
       <c r="D366">
-        <v>96576.00000000009</v>
+        <v>96576</v>
       </c>
     </row>
     <row r="367" spans="1:4">
@@ -8274,10 +8274,10 @@
         <v>369</v>
       </c>
       <c r="C368">
-        <v>25734.64315412048</v>
+        <v>25436</v>
       </c>
       <c r="D368">
-        <v>142709.6431541205</v>
+        <v>142411</v>
       </c>
     </row>
     <row r="369" spans="1:4">
@@ -8288,10 +8288,10 @@
         <v>370</v>
       </c>
       <c r="C369">
-        <v>8735.19429084353</v>
+        <v>9019</v>
       </c>
       <c r="D369">
-        <v>140460.1942908435</v>
+        <v>140744</v>
       </c>
     </row>
     <row r="370" spans="1:4">
@@ -8305,7 +8305,7 @@
         <v>0</v>
       </c>
       <c r="D370">
-        <v>62991.00000000001</v>
+        <v>62991</v>
       </c>
     </row>
     <row r="371" spans="1:4">
@@ -8319,7 +8319,7 @@
         <v>0</v>
       </c>
       <c r="D371">
-        <v>121584</v>
+        <v>121583</v>
       </c>
     </row>
     <row r="372" spans="1:4">
@@ -8333,7 +8333,7 @@
         <v>0</v>
       </c>
       <c r="D372">
-        <v>65617.99999999997</v>
+        <v>65617</v>
       </c>
     </row>
     <row r="373" spans="1:4">
@@ -8344,10 +8344,10 @@
         <v>374</v>
       </c>
       <c r="C373">
-        <v>9318.375747837548</v>
+        <v>9504</v>
       </c>
       <c r="D373">
-        <v>117282.3757478375</v>
+        <v>117467</v>
       </c>
     </row>
     <row r="374" spans="1:4">
@@ -8361,7 +8361,7 @@
         <v>0</v>
       </c>
       <c r="D374">
-        <v>74569.99999999997</v>
+        <v>74569</v>
       </c>
     </row>
     <row r="375" spans="1:4">
@@ -8375,7 +8375,7 @@
         <v>0</v>
       </c>
       <c r="D375">
-        <v>70852.99999999999</v>
+        <v>70852</v>
       </c>
     </row>
     <row r="376" spans="1:4">
@@ -8386,10 +8386,10 @@
         <v>377</v>
       </c>
       <c r="C376">
-        <v>1229.343388302615</v>
+        <v>1268</v>
       </c>
       <c r="D376">
-        <v>98943.34338830262</v>
+        <v>98982</v>
       </c>
     </row>
     <row r="377" spans="1:4">
@@ -8403,7 +8403,7 @@
         <v>0</v>
       </c>
       <c r="D377">
-        <v>109708</v>
+        <v>109707</v>
       </c>
     </row>
     <row r="378" spans="1:4">
@@ -8417,7 +8417,7 @@
         <v>0</v>
       </c>
       <c r="D378">
-        <v>125554.9999999999</v>
+        <v>125554</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -8431,7 +8431,7 @@
         <v>0</v>
       </c>
       <c r="D379">
-        <v>199359.9999999999</v>
+        <v>199359</v>
       </c>
     </row>
     <row r="380" spans="1:4">
@@ -8459,7 +8459,7 @@
         <v>0</v>
       </c>
       <c r="D381">
-        <v>89826.00000000004</v>
+        <v>89826</v>
       </c>
     </row>
     <row r="382" spans="1:4">
@@ -8470,10 +8470,10 @@
         <v>383</v>
       </c>
       <c r="C382">
-        <v>18920.84187287722</v>
+        <v>18711</v>
       </c>
       <c r="D382">
-        <v>83932.84187287724</v>
+        <v>83723</v>
       </c>
     </row>
     <row r="383" spans="1:4">
@@ -8501,7 +8501,7 @@
         <v>0</v>
       </c>
       <c r="D384">
-        <v>152854.9999999999</v>
+        <v>152854</v>
       </c>
     </row>
     <row r="385" spans="1:4">
@@ -8515,7 +8515,7 @@
         <v>0</v>
       </c>
       <c r="D385">
-        <v>63171.99999999999</v>
+        <v>63171</v>
       </c>
     </row>
     <row r="386" spans="1:4">
@@ -8529,7 +8529,7 @@
         <v>0</v>
       </c>
       <c r="D386">
-        <v>84135.99999999996</v>
+        <v>84135</v>
       </c>
     </row>
     <row r="387" spans="1:4">
@@ -8543,7 +8543,7 @@
         <v>0</v>
       </c>
       <c r="D387">
-        <v>63909.99999999999</v>
+        <v>63909</v>
       </c>
     </row>
     <row r="388" spans="1:4">
@@ -8571,7 +8571,7 @@
         <v>0</v>
       </c>
       <c r="D389">
-        <v>119668</v>
+        <v>119667</v>
       </c>
     </row>
     <row r="390" spans="1:4">
@@ -8582,10 +8582,10 @@
         <v>391</v>
       </c>
       <c r="C390">
-        <v>10931.27361399302</v>
+        <v>11158</v>
       </c>
       <c r="D390">
-        <v>99105.27361399303</v>
+        <v>99332</v>
       </c>
     </row>
     <row r="391" spans="1:4">
@@ -8599,7 +8599,7 @@
         <v>0</v>
       </c>
       <c r="D391">
-        <v>118911.9999999999</v>
+        <v>118911</v>
       </c>
     </row>
     <row r="392" spans="1:4">
@@ -8613,7 +8613,7 @@
         <v>0</v>
       </c>
       <c r="D392">
-        <v>145034.9999999999</v>
+        <v>145034</v>
       </c>
     </row>
     <row r="393" spans="1:4">
@@ -8627,7 +8627,7 @@
         <v>0</v>
       </c>
       <c r="D393">
-        <v>64885.99999999999</v>
+        <v>64885</v>
       </c>
     </row>
     <row r="394" spans="1:4">
@@ -8638,10 +8638,10 @@
         <v>395</v>
       </c>
       <c r="C394">
-        <v>27871.36191539909</v>
+        <v>28033</v>
       </c>
       <c r="D394">
-        <v>99140.36191539903</v>
+        <v>99301</v>
       </c>
     </row>
     <row r="395" spans="1:4">
@@ -8655,7 +8655,7 @@
         <v>0</v>
       </c>
       <c r="D395">
-        <v>68266.99999999994</v>
+        <v>68266</v>
       </c>
     </row>
     <row r="396" spans="1:4">
@@ -8669,7 +8669,7 @@
         <v>0</v>
       </c>
       <c r="D396">
-        <v>64107.00000000003</v>
+        <v>64107</v>
       </c>
     </row>
     <row r="397" spans="1:4">
@@ -8694,10 +8694,10 @@
         <v>399</v>
       </c>
       <c r="C398">
-        <v>31173.06254423279</v>
+        <v>31323</v>
       </c>
       <c r="D398">
-        <v>117677.0625442328</v>
+        <v>117827</v>
       </c>
     </row>
     <row r="399" spans="1:4">
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="D399">
-        <v>158700</v>
+        <v>158699</v>
       </c>
     </row>
     <row r="400" spans="1:4">
@@ -8725,7 +8725,7 @@
         <v>0</v>
       </c>
       <c r="D400">
-        <v>123650</v>
+        <v>123649</v>
       </c>
     </row>
     <row r="401" spans="1:4">
@@ -8739,7 +8739,7 @@
         <v>0</v>
       </c>
       <c r="D401">
-        <v>96557.99999999997</v>
+        <v>96557</v>
       </c>
     </row>
     <row r="402" spans="1:4">
@@ -8750,10 +8750,10 @@
         <v>403</v>
       </c>
       <c r="C402">
-        <v>23035.97741345846</v>
+        <v>23042</v>
       </c>
       <c r="D402">
-        <v>83575.97741345847</v>
+        <v>83582</v>
       </c>
     </row>
     <row r="403" spans="1:4">
@@ -8767,7 +8767,7 @@
         <v>0</v>
       </c>
       <c r="D403">
-        <v>107039.9999999999</v>
+        <v>107039</v>
       </c>
     </row>
     <row r="404" spans="1:4">
@@ -8781,7 +8781,7 @@
         <v>0</v>
       </c>
       <c r="D404">
-        <v>101196.9999999999</v>
+        <v>101196</v>
       </c>
     </row>
     <row r="405" spans="1:4">
@@ -8795,7 +8795,7 @@
         <v>0</v>
       </c>
       <c r="D405">
-        <v>111974.0000000001</v>
+        <v>111974</v>
       </c>
     </row>
     <row r="406" spans="1:4">
@@ -8806,10 +8806,10 @@
         <v>407</v>
       </c>
       <c r="C406">
-        <v>42655.52434444762</v>
+        <v>42681</v>
       </c>
       <c r="D406">
-        <v>140330.5243444477</v>
+        <v>140356</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -8823,7 +8823,7 @@
         <v>0</v>
       </c>
       <c r="D407">
-        <v>78601.99999999994</v>
+        <v>78601</v>
       </c>
     </row>
     <row r="408" spans="1:4">
@@ -8837,7 +8837,7 @@
         <v>0</v>
       </c>
       <c r="D408">
-        <v>108375.9999999999</v>
+        <v>108375</v>
       </c>
     </row>
     <row r="409" spans="1:4">
@@ -8851,7 +8851,7 @@
         <v>0</v>
       </c>
       <c r="D409">
-        <v>88857.99999999997</v>
+        <v>88857</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -8865,7 +8865,7 @@
         <v>0</v>
       </c>
       <c r="D410">
-        <v>77594.00000000006</v>
+        <v>77594</v>
       </c>
     </row>
     <row r="411" spans="1:4">
@@ -8876,10 +8876,10 @@
         <v>412</v>
       </c>
       <c r="C411">
-        <v>37564.47014504349</v>
+        <v>37290</v>
       </c>
       <c r="D411">
-        <v>124112.4701450435</v>
+        <v>123838</v>
       </c>
     </row>
     <row r="412" spans="1:4">
@@ -8893,7 +8893,7 @@
         <v>0</v>
       </c>
       <c r="D412">
-        <v>103648.9999999999</v>
+        <v>103648</v>
       </c>
     </row>
     <row r="413" spans="1:4">
@@ -8907,7 +8907,7 @@
         <v>0</v>
       </c>
       <c r="D413">
-        <v>91369.99999999999</v>
+        <v>91369</v>
       </c>
     </row>
     <row r="414" spans="1:4">
@@ -8921,7 +8921,7 @@
         <v>0</v>
       </c>
       <c r="D414">
-        <v>116416.9999999999</v>
+        <v>116416</v>
       </c>
     </row>
     <row r="415" spans="1:4">
@@ -8935,7 +8935,7 @@
         <v>0</v>
       </c>
       <c r="D415">
-        <v>67866.99999999999</v>
+        <v>67866</v>
       </c>
     </row>
     <row r="416" spans="1:4">
@@ -8963,7 +8963,7 @@
         <v>0</v>
       </c>
       <c r="D417">
-        <v>67498.99999999997</v>
+        <v>67498</v>
       </c>
     </row>
     <row r="418" spans="1:4">
@@ -8974,10 +8974,10 @@
         <v>419</v>
       </c>
       <c r="C418">
-        <v>25762.5359567687</v>
+        <v>25982</v>
       </c>
       <c r="D418">
-        <v>103685.5359567688</v>
+        <v>103905</v>
       </c>
     </row>
     <row r="419" spans="1:4">
@@ -8991,7 +8991,7 @@
         <v>0</v>
       </c>
       <c r="D419">
-        <v>104801.0000000001</v>
+        <v>104801</v>
       </c>
     </row>
     <row r="420" spans="1:4">
@@ -9005,7 +9005,7 @@
         <v>0</v>
       </c>
       <c r="D420">
-        <v>92579.99999999996</v>
+        <v>92579</v>
       </c>
     </row>
     <row r="421" spans="1:4">
@@ -9019,7 +9019,7 @@
         <v>0</v>
       </c>
       <c r="D421">
-        <v>67744.00000000006</v>
+        <v>67744</v>
       </c>
     </row>
     <row r="422" spans="1:4">
@@ -9033,7 +9033,7 @@
         <v>0</v>
       </c>
       <c r="D422">
-        <v>163875.0000000001</v>
+        <v>163875</v>
       </c>
     </row>
     <row r="423" spans="1:4">
@@ -9044,10 +9044,10 @@
         <v>424</v>
       </c>
       <c r="C423">
-        <v>50413.73808179522</v>
+        <v>50479</v>
       </c>
       <c r="D423">
-        <v>145988.7380817951</v>
+        <v>146053</v>
       </c>
     </row>
     <row r="424" spans="1:4">
@@ -9061,7 +9061,7 @@
         <v>0</v>
       </c>
       <c r="D424">
-        <v>150125.0000000001</v>
+        <v>150125</v>
       </c>
     </row>
     <row r="425" spans="1:4">
@@ -9075,7 +9075,7 @@
         <v>0</v>
       </c>
       <c r="D425">
-        <v>159385.0000000001</v>
+        <v>159385</v>
       </c>
     </row>
     <row r="426" spans="1:4">
@@ -9086,10 +9086,10 @@
         <v>427</v>
       </c>
       <c r="C426">
-        <v>7029.325285130457</v>
+        <v>7215</v>
       </c>
       <c r="D426">
-        <v>83549.32528513047</v>
+        <v>83735</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -9103,7 +9103,7 @@
         <v>0</v>
       </c>
       <c r="D427">
-        <v>119427.9999999999</v>
+        <v>119427</v>
       </c>
     </row>
     <row r="428" spans="1:4">
@@ -9117,7 +9117,7 @@
         <v>0</v>
       </c>
       <c r="D428">
-        <v>90889.99999999996</v>
+        <v>90889</v>
       </c>
     </row>
     <row r="429" spans="1:4">
@@ -9131,7 +9131,7 @@
         <v>0</v>
       </c>
       <c r="D429">
-        <v>106677.9999999999</v>
+        <v>106677</v>
       </c>
     </row>
     <row r="430" spans="1:4">
@@ -9145,7 +9145,7 @@
         <v>0</v>
       </c>
       <c r="D430">
-        <v>86709.99999999996</v>
+        <v>86709</v>
       </c>
     </row>
     <row r="431" spans="1:4">
@@ -9159,7 +9159,7 @@
         <v>0</v>
       </c>
       <c r="D431">
-        <v>156715.9999999999</v>
+        <v>156715</v>
       </c>
     </row>
     <row r="432" spans="1:4">
@@ -9173,7 +9173,7 @@
         <v>0</v>
       </c>
       <c r="D432">
-        <v>71030.99999999996</v>
+        <v>71030</v>
       </c>
     </row>
     <row r="433" spans="1:4">
@@ -9187,7 +9187,7 @@
         <v>0</v>
       </c>
       <c r="D433">
-        <v>60440.00000000004</v>
+        <v>60440</v>
       </c>
     </row>
     <row r="434" spans="1:4">
@@ -9226,10 +9226,10 @@
         <v>437</v>
       </c>
       <c r="C436">
-        <v>26710.42411259614</v>
+        <v>26631</v>
       </c>
       <c r="D436">
-        <v>123254.4241125961</v>
+        <v>123174</v>
       </c>
     </row>
     <row r="437" spans="1:4">
@@ -9243,7 +9243,7 @@
         <v>0</v>
       </c>
       <c r="D437">
-        <v>120645.0000000001</v>
+        <v>120645</v>
       </c>
     </row>
     <row r="438" spans="1:4">
@@ -9257,7 +9257,7 @@
         <v>0</v>
       </c>
       <c r="D438">
-        <v>126161</v>
+        <v>126160</v>
       </c>
     </row>
     <row r="439" spans="1:4">
@@ -9271,7 +9271,7 @@
         <v>0</v>
       </c>
       <c r="D439">
-        <v>169332.0000000001</v>
+        <v>169332</v>
       </c>
     </row>
     <row r="440" spans="1:4">
@@ -9285,7 +9285,7 @@
         <v>0</v>
       </c>
       <c r="D440">
-        <v>94842.00000000004</v>
+        <v>94842</v>
       </c>
     </row>
     <row r="441" spans="1:4">
@@ -9299,7 +9299,7 @@
         <v>0</v>
       </c>
       <c r="D441">
-        <v>66308.99999999997</v>
+        <v>66308</v>
       </c>
     </row>
     <row r="442" spans="1:4">
@@ -9341,7 +9341,7 @@
         <v>0</v>
       </c>
       <c r="D444">
-        <v>89986.99999999999</v>
+        <v>89986</v>
       </c>
     </row>
     <row r="445" spans="1:4">
@@ -9355,7 +9355,7 @@
         <v>0</v>
       </c>
       <c r="D445">
-        <v>111521.0000000001</v>
+        <v>111521</v>
       </c>
     </row>
     <row r="446" spans="1:4">
@@ -9366,10 +9366,10 @@
         <v>447</v>
       </c>
       <c r="C446">
-        <v>11035.20714166127</v>
+        <v>10960</v>
       </c>
       <c r="D446">
-        <v>65805.20714166127</v>
+        <v>65730</v>
       </c>
     </row>
     <row r="447" spans="1:4">
@@ -9411,7 +9411,7 @@
         <v>0</v>
       </c>
       <c r="D449">
-        <v>100474.0000000001</v>
+        <v>100474</v>
       </c>
     </row>
     <row r="450" spans="1:4">
@@ -9425,7 +9425,7 @@
         <v>0</v>
       </c>
       <c r="D450">
-        <v>84093.99999999993</v>
+        <v>84093</v>
       </c>
     </row>
     <row r="451" spans="1:4">
@@ -9436,10 +9436,10 @@
         <v>452</v>
       </c>
       <c r="C451">
-        <v>22098.61641893223</v>
+        <v>22302</v>
       </c>
       <c r="D451">
-        <v>103702.6164189322</v>
+        <v>103905</v>
       </c>
     </row>
     <row r="452" spans="1:4">
@@ -9450,10 +9450,10 @@
         <v>453</v>
       </c>
       <c r="C452">
-        <v>18516.88351649638</v>
+        <v>18360</v>
       </c>
       <c r="D452">
-        <v>103822.8835164964</v>
+        <v>103666</v>
       </c>
     </row>
     <row r="453" spans="1:4">
@@ -9467,7 +9467,7 @@
         <v>0</v>
       </c>
       <c r="D453">
-        <v>99186.00000000006</v>
+        <v>99186</v>
       </c>
     </row>
     <row r="454" spans="1:4">
@@ -9478,10 +9478,10 @@
         <v>455</v>
       </c>
       <c r="C454">
-        <v>29533.19004721379</v>
+        <v>29272</v>
       </c>
       <c r="D454">
-        <v>119053.1900472138</v>
+        <v>118792</v>
       </c>
     </row>
     <row r="455" spans="1:4">
@@ -9495,7 +9495,7 @@
         <v>0</v>
       </c>
       <c r="D455">
-        <v>90520.00000000001</v>
+        <v>90520</v>
       </c>
     </row>
     <row r="456" spans="1:4">
@@ -9506,10 +9506,10 @@
         <v>457</v>
       </c>
       <c r="C456">
-        <v>38631.45790369732</v>
+        <v>38803</v>
       </c>
       <c r="D456">
-        <v>119023.4579036973</v>
+        <v>119194</v>
       </c>
     </row>
     <row r="457" spans="1:4">
@@ -9523,7 +9523,7 @@
         <v>0</v>
       </c>
       <c r="D457">
-        <v>187239.9999999999</v>
+        <v>187239</v>
       </c>
     </row>
     <row r="458" spans="1:4">
@@ -9537,7 +9537,7 @@
         <v>0</v>
       </c>
       <c r="D458">
-        <v>147051.9999999999</v>
+        <v>147051</v>
       </c>
     </row>
     <row r="459" spans="1:4">
@@ -9551,7 +9551,7 @@
         <v>0</v>
       </c>
       <c r="D459">
-        <v>92639.99999999993</v>
+        <v>92639</v>
       </c>
     </row>
     <row r="460" spans="1:4">
@@ -9565,7 +9565,7 @@
         <v>0</v>
       </c>
       <c r="D460">
-        <v>62518.00000000001</v>
+        <v>62518</v>
       </c>
     </row>
     <row r="461" spans="1:4">
@@ -9576,10 +9576,10 @@
         <v>462</v>
       </c>
       <c r="C461">
-        <v>25673.63023579959</v>
+        <v>25566</v>
       </c>
       <c r="D461">
-        <v>143108.6302357997</v>
+        <v>143001</v>
       </c>
     </row>
     <row r="462" spans="1:4">
@@ -9590,10 +9590,10 @@
         <v>463</v>
       </c>
       <c r="C462">
-        <v>25532.89392569252</v>
+        <v>25565</v>
       </c>
       <c r="D462">
-        <v>103872.8939256926</v>
+        <v>103905</v>
       </c>
     </row>
     <row r="463" spans="1:4">
@@ -9621,7 +9621,7 @@
         <v>0</v>
       </c>
       <c r="D464">
-        <v>111373.9999999999</v>
+        <v>111373</v>
       </c>
     </row>
     <row r="465" spans="1:4">
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="D465">
-        <v>110840</v>
+        <v>110839</v>
       </c>
     </row>
     <row r="466" spans="1:4">
@@ -9649,7 +9649,7 @@
         <v>0</v>
       </c>
       <c r="D466">
-        <v>146719.9999999999</v>
+        <v>146719</v>
       </c>
     </row>
     <row r="467" spans="1:4">
@@ -9663,7 +9663,7 @@
         <v>0</v>
       </c>
       <c r="D467">
-        <v>87176.00000000001</v>
+        <v>87176</v>
       </c>
     </row>
     <row r="468" spans="1:4">
@@ -9677,7 +9677,7 @@
         <v>0</v>
       </c>
       <c r="D468">
-        <v>97375.99999999996</v>
+        <v>97375</v>
       </c>
     </row>
     <row r="469" spans="1:4">
@@ -9691,7 +9691,7 @@
         <v>0</v>
       </c>
       <c r="D469">
-        <v>79554.00000000001</v>
+        <v>79554</v>
       </c>
     </row>
     <row r="470" spans="1:4">
@@ -9705,7 +9705,7 @@
         <v>0</v>
       </c>
       <c r="D470">
-        <v>118519.9999999999</v>
+        <v>118519</v>
       </c>
     </row>
     <row r="471" spans="1:4">
@@ -9719,7 +9719,7 @@
         <v>0</v>
       </c>
       <c r="D471">
-        <v>115724.0000000001</v>
+        <v>115724</v>
       </c>
     </row>
     <row r="472" spans="1:4">
@@ -9747,7 +9747,7 @@
         <v>0</v>
       </c>
       <c r="D473">
-        <v>98264.00000000006</v>
+        <v>98264</v>
       </c>
     </row>
     <row r="474" spans="1:4">
@@ -9758,10 +9758,10 @@
         <v>475</v>
       </c>
       <c r="C474">
-        <v>17090.36597652726</v>
+        <v>17108</v>
       </c>
       <c r="D474">
-        <v>83410.3659765273</v>
+        <v>83428</v>
       </c>
     </row>
     <row r="475" spans="1:4">
@@ -9775,7 +9775,7 @@
         <v>0</v>
       </c>
       <c r="D475">
-        <v>98679.99999999996</v>
+        <v>98679</v>
       </c>
     </row>
     <row r="476" spans="1:4">
@@ -9803,7 +9803,7 @@
         <v>0</v>
       </c>
       <c r="D477">
-        <v>158183.9999999999</v>
+        <v>158183</v>
       </c>
     </row>
     <row r="478" spans="1:4">
@@ -9817,7 +9817,7 @@
         <v>0</v>
       </c>
       <c r="D478">
-        <v>60118.00000000001</v>
+        <v>60118</v>
       </c>
     </row>
     <row r="479" spans="1:4">
@@ -9831,7 +9831,7 @@
         <v>0</v>
       </c>
       <c r="D479">
-        <v>125515</v>
+        <v>125514</v>
       </c>
     </row>
     <row r="480" spans="1:4">
@@ -9845,7 +9845,7 @@
         <v>0</v>
       </c>
       <c r="D480">
-        <v>97655.99999999999</v>
+        <v>97655</v>
       </c>
     </row>
     <row r="481" spans="1:4">
@@ -9856,10 +9856,10 @@
         <v>482</v>
       </c>
       <c r="C481">
-        <v>9176.603320902301</v>
+        <v>9306</v>
       </c>
       <c r="D481">
-        <v>63931.60332090232</v>
+        <v>64061</v>
       </c>
     </row>
     <row r="482" spans="1:4">
@@ -9873,7 +9873,7 @@
         <v>0</v>
       </c>
       <c r="D482">
-        <v>84304.99999999999</v>
+        <v>84304</v>
       </c>
     </row>
     <row r="483" spans="1:4">
@@ -9887,7 +9887,7 @@
         <v>0</v>
       </c>
       <c r="D483">
-        <v>123979.0000000001</v>
+        <v>123979</v>
       </c>
     </row>
     <row r="484" spans="1:4">
@@ -9898,10 +9898,10 @@
         <v>485</v>
       </c>
       <c r="C484">
-        <v>44664.06859301377</v>
+        <v>44755</v>
       </c>
       <c r="D484">
-        <v>138659.0685930138</v>
+        <v>138750</v>
       </c>
     </row>
     <row r="485" spans="1:4">
@@ -9915,7 +9915,7 @@
         <v>0</v>
       </c>
       <c r="D485">
-        <v>170910</v>
+        <v>170909</v>
       </c>
     </row>
     <row r="486" spans="1:4">
@@ -9926,10 +9926,10 @@
         <v>487</v>
       </c>
       <c r="C486">
-        <v>37022.94883686415</v>
+        <v>37113</v>
       </c>
       <c r="D486">
-        <v>123786.9488368641</v>
+        <v>123876</v>
       </c>
     </row>
     <row r="487" spans="1:4">
@@ -9943,7 +9943,7 @@
         <v>0</v>
       </c>
       <c r="D487">
-        <v>131398.9999999999</v>
+        <v>131398</v>
       </c>
     </row>
     <row r="488" spans="1:4">
@@ -9954,10 +9954,10 @@
         <v>489</v>
       </c>
       <c r="C488">
-        <v>18136.79959949466</v>
+        <v>18197</v>
       </c>
       <c r="D488">
-        <v>83326.79959949468</v>
+        <v>83387</v>
       </c>
     </row>
     <row r="489" spans="1:4">
@@ -9971,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="D489">
-        <v>68140.00000000003</v>
+        <v>68140</v>
       </c>
     </row>
     <row r="490" spans="1:4">
@@ -9982,10 +9982,10 @@
         <v>491</v>
       </c>
       <c r="C490">
-        <v>8991.717318144336</v>
+        <v>9130</v>
       </c>
       <c r="D490">
-        <v>82093.71731814431</v>
+        <v>82231</v>
       </c>
     </row>
     <row r="491" spans="1:4">
@@ -9999,7 +9999,7 @@
         <v>0</v>
       </c>
       <c r="D491">
-        <v>88649.00000000007</v>
+        <v>88649</v>
       </c>
     </row>
     <row r="492" spans="1:4">
@@ -10010,10 +10010,10 @@
         <v>493</v>
       </c>
       <c r="C492">
-        <v>758.2335003146145</v>
+        <v>822</v>
       </c>
       <c r="D492">
-        <v>99147.23350031459</v>
+        <v>99210</v>
       </c>
     </row>
     <row r="493" spans="1:4">
@@ -10027,7 +10027,7 @@
         <v>0</v>
       </c>
       <c r="D493">
-        <v>116221.9999999999</v>
+        <v>116221</v>
       </c>
     </row>
     <row r="494" spans="1:4">
@@ -10041,7 +10041,7 @@
         <v>0</v>
       </c>
       <c r="D494">
-        <v>63271.00000000001</v>
+        <v>63271</v>
       </c>
     </row>
     <row r="495" spans="1:4">
@@ -10069,7 +10069,7 @@
         <v>0</v>
       </c>
       <c r="D496">
-        <v>78191.99999999999</v>
+        <v>78191</v>
       </c>
     </row>
     <row r="497" spans="1:4">
@@ -10097,7 +10097,7 @@
         <v>0</v>
       </c>
       <c r="D498">
-        <v>77612.00000000007</v>
+        <v>77612</v>
       </c>
     </row>
     <row r="499" spans="1:4">
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="D499">
-        <v>82793.00000000001</v>
+        <v>82793</v>
       </c>
     </row>
     <row r="500" spans="1:4">
@@ -10125,7 +10125,7 @@
         <v>0</v>
       </c>
       <c r="D500">
-        <v>73506.00000000006</v>
+        <v>73506</v>
       </c>
     </row>
     <row r="501" spans="1:4">
@@ -10139,7 +10139,7 @@
         <v>0</v>
       </c>
       <c r="D501">
-        <v>86282.00000000003</v>
+        <v>86282</v>
       </c>
     </row>
     <row r="502" spans="1:4">
@@ -10164,10 +10164,10 @@
         <v>504</v>
       </c>
       <c r="C503">
-        <v>3394.661298657345</v>
+        <v>3467</v>
       </c>
       <c r="D503">
-        <v>83060.66129865729</v>
+        <v>83132</v>
       </c>
     </row>
     <row r="504" spans="1:4">
@@ -10192,10 +10192,10 @@
         <v>506</v>
       </c>
       <c r="C505">
-        <v>16910.96573651282</v>
+        <v>16714</v>
       </c>
       <c r="D505">
-        <v>82516.96573651284</v>
+        <v>82320</v>
       </c>
     </row>
     <row r="506" spans="1:4">
@@ -10206,10 +10206,10 @@
         <v>507</v>
       </c>
       <c r="C506">
-        <v>22020.26455137799</v>
+        <v>21947</v>
       </c>
       <c r="D506">
-        <v>63771.264551378</v>
+        <v>63698</v>
       </c>
     </row>
     <row r="507" spans="1:4">
@@ -10220,10 +10220,10 @@
         <v>508</v>
       </c>
       <c r="C507">
-        <v>963.3322183831624</v>
+        <v>852</v>
       </c>
       <c r="D507">
-        <v>82913.33221838313</v>
+        <v>82801</v>
       </c>
     </row>
     <row r="508" spans="1:4">
@@ -10251,7 +10251,7 @@
         <v>0</v>
       </c>
       <c r="D509">
-        <v>160070</v>
+        <v>160069</v>
       </c>
     </row>
     <row r="510" spans="1:4">
@@ -10265,7 +10265,7 @@
         <v>0</v>
       </c>
       <c r="D510">
-        <v>71959.00000000006</v>
+        <v>71959</v>
       </c>
     </row>
     <row r="511" spans="1:4">
@@ -10279,7 +10279,7 @@
         <v>0</v>
       </c>
       <c r="D511">
-        <v>67945.99999999997</v>
+        <v>67945</v>
       </c>
     </row>
     <row r="512" spans="1:4">
@@ -10293,7 +10293,7 @@
         <v>0</v>
       </c>
       <c r="D512">
-        <v>76671.99999999997</v>
+        <v>76671</v>
       </c>
     </row>
     <row r="513" spans="1:4">
@@ -10307,7 +10307,7 @@
         <v>0</v>
       </c>
       <c r="D513">
-        <v>88702.00000000003</v>
+        <v>88702</v>
       </c>
     </row>
     <row r="514" spans="1:4">
@@ -10321,7 +10321,7 @@
         <v>0</v>
       </c>
       <c r="D514">
-        <v>143030.0000000001</v>
+        <v>143030</v>
       </c>
     </row>
     <row r="515" spans="1:4">
@@ -10332,10 +10332,10 @@
         <v>516</v>
       </c>
       <c r="C515">
-        <v>39807.24711426468</v>
+        <v>39645</v>
       </c>
       <c r="D515">
-        <v>142267.2471142647</v>
+        <v>142104</v>
       </c>
     </row>
     <row r="516" spans="1:4">
@@ -10349,7 +10349,7 @@
         <v>0</v>
       </c>
       <c r="D516">
-        <v>76258.00000000003</v>
+        <v>76258</v>
       </c>
     </row>
     <row r="517" spans="1:4">
@@ -10363,7 +10363,7 @@
         <v>0</v>
       </c>
       <c r="D517">
-        <v>115108.0000000001</v>
+        <v>115108</v>
       </c>
     </row>
     <row r="518" spans="1:4">
@@ -10388,10 +10388,10 @@
         <v>520</v>
       </c>
       <c r="C519">
-        <v>174.6075680860667</v>
+        <v>143</v>
       </c>
       <c r="D519">
-        <v>99486.60756808601</v>
+        <v>99454</v>
       </c>
     </row>
     <row r="520" spans="1:4">
@@ -10402,10 +10402,10 @@
         <v>521</v>
       </c>
       <c r="C520">
-        <v>20945.18696420157</v>
+        <v>20885</v>
       </c>
       <c r="D520">
-        <v>83651.1869642016</v>
+        <v>83591</v>
       </c>
     </row>
     <row r="521" spans="1:4">
@@ -10419,7 +10419,7 @@
         <v>0</v>
       </c>
       <c r="D521">
-        <v>65050.00000000006</v>
+        <v>65050</v>
       </c>
     </row>
     <row r="522" spans="1:4">
@@ -10430,10 +10430,10 @@
         <v>523</v>
       </c>
       <c r="C522">
-        <v>17773.25618583793</v>
+        <v>17594</v>
       </c>
       <c r="D522">
-        <v>80695.25618583795</v>
+        <v>80516</v>
       </c>
     </row>
     <row r="523" spans="1:4">
@@ -10447,7 +10447,7 @@
         <v>0</v>
       </c>
       <c r="D523">
-        <v>122473.0000000001</v>
+        <v>122473</v>
       </c>
     </row>
     <row r="524" spans="1:4">
@@ -10475,7 +10475,7 @@
         <v>0</v>
       </c>
       <c r="D525">
-        <v>59913.99999999999</v>
+        <v>59913</v>
       </c>
     </row>
     <row r="526" spans="1:4">
@@ -10489,7 +10489,7 @@
         <v>0</v>
       </c>
       <c r="D526">
-        <v>116000.0000000001</v>
+        <v>116000</v>
       </c>
     </row>
     <row r="527" spans="1:4">
@@ -10503,7 +10503,7 @@
         <v>0</v>
       </c>
       <c r="D527">
-        <v>124156.0000000001</v>
+        <v>124156</v>
       </c>
     </row>
     <row r="528" spans="1:4">
@@ -10517,7 +10517,7 @@
         <v>0</v>
       </c>
       <c r="D528">
-        <v>182075.0000000001</v>
+        <v>182075</v>
       </c>
     </row>
     <row r="529" spans="1:4">
@@ -10528,10 +10528,10 @@
         <v>530</v>
       </c>
       <c r="C529">
-        <v>6997.132180606393</v>
+        <v>6858</v>
       </c>
       <c r="D529">
-        <v>83693.13218060647</v>
+        <v>83554</v>
       </c>
     </row>
     <row r="530" spans="1:4">
@@ -10559,7 +10559,7 @@
         <v>0</v>
       </c>
       <c r="D531">
-        <v>57185.99999999996</v>
+        <v>57185</v>
       </c>
     </row>
     <row r="532" spans="1:4">
@@ -10573,7 +10573,7 @@
         <v>0</v>
       </c>
       <c r="D532">
-        <v>75952.00000000003</v>
+        <v>75952</v>
       </c>
     </row>
     <row r="533" spans="1:4">
@@ -10587,7 +10587,7 @@
         <v>0</v>
       </c>
       <c r="D533">
-        <v>118502.9999999999</v>
+        <v>118502</v>
       </c>
     </row>
     <row r="534" spans="1:4">
@@ -10598,10 +10598,10 @@
         <v>535</v>
       </c>
       <c r="C534">
-        <v>17415.73474020333</v>
+        <v>17428</v>
       </c>
       <c r="D534">
-        <v>60364.73474020336</v>
+        <v>60377</v>
       </c>
     </row>
     <row r="535" spans="1:4">
@@ -10612,10 +10612,10 @@
         <v>536</v>
       </c>
       <c r="C535">
-        <v>31808.05161272327</v>
+        <v>32101</v>
       </c>
       <c r="D535">
-        <v>135563.0516127233</v>
+        <v>135856</v>
       </c>
     </row>
     <row r="536" spans="1:4">
@@ -10626,10 +10626,10 @@
         <v>537</v>
       </c>
       <c r="C536">
-        <v>18537.91322036556</v>
+        <v>18399</v>
       </c>
       <c r="D536">
-        <v>80765.91322036562</v>
+        <v>80627</v>
       </c>
     </row>
     <row r="537" spans="1:4">
@@ -10643,7 +10643,7 @@
         <v>0</v>
       </c>
       <c r="D537">
-        <v>66826.99999999996</v>
+        <v>66826</v>
       </c>
     </row>
     <row r="538" spans="1:4">
@@ -10654,10 +10654,10 @@
         <v>539</v>
       </c>
       <c r="C538">
-        <v>27392.14231324526</v>
+        <v>27158</v>
       </c>
       <c r="D538">
-        <v>114652.1423132452</v>
+        <v>114417</v>
       </c>
     </row>
     <row r="539" spans="1:4">
@@ -10671,7 +10671,7 @@
         <v>0</v>
       </c>
       <c r="D539">
-        <v>68416.00000000003</v>
+        <v>68416</v>
       </c>
     </row>
     <row r="540" spans="1:4">
@@ -10685,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="D540">
-        <v>178139.9999999999</v>
+        <v>178139</v>
       </c>
     </row>
     <row r="541" spans="1:4">
@@ -10699,7 +10699,7 @@
         <v>0</v>
       </c>
       <c r="D541">
-        <v>136530.0000000001</v>
+        <v>136530</v>
       </c>
     </row>
     <row r="542" spans="1:4">
@@ -10713,7 +10713,7 @@
         <v>0</v>
       </c>
       <c r="D542">
-        <v>84712.00000000003</v>
+        <v>84712</v>
       </c>
     </row>
     <row r="543" spans="1:4">
@@ -10741,7 +10741,7 @@
         <v>0</v>
       </c>
       <c r="D544">
-        <v>138410.0000000001</v>
+        <v>138410</v>
       </c>
     </row>
     <row r="545" spans="1:4">
@@ -10755,7 +10755,7 @@
         <v>0</v>
       </c>
       <c r="D545">
-        <v>124477.0000000001</v>
+        <v>124477</v>
       </c>
     </row>
     <row r="546" spans="1:4">
@@ -10766,10 +10766,10 @@
         <v>547</v>
       </c>
       <c r="C546">
-        <v>20546.66366746536</v>
+        <v>20661</v>
       </c>
       <c r="D546">
-        <v>118782.6636674654</v>
+        <v>118897</v>
       </c>
     </row>
     <row r="547" spans="1:4">
@@ -10783,7 +10783,7 @@
         <v>0</v>
       </c>
       <c r="D547">
-        <v>55583.00000000001</v>
+        <v>55583</v>
       </c>
     </row>
     <row r="548" spans="1:4">
@@ -10794,10 +10794,10 @@
         <v>549</v>
       </c>
       <c r="C548">
-        <v>17197.62276524605</v>
+        <v>17355</v>
       </c>
       <c r="D548">
-        <v>59887.62276524603</v>
+        <v>60044</v>
       </c>
     </row>
     <row r="549" spans="1:4">
@@ -10811,7 +10811,7 @@
         <v>0</v>
       </c>
       <c r="D549">
-        <v>84588.00000000001</v>
+        <v>84588</v>
       </c>
     </row>
     <row r="550" spans="1:4">
@@ -10825,7 +10825,7 @@
         <v>0</v>
       </c>
       <c r="D550">
-        <v>62060.00000000003</v>
+        <v>62060</v>
       </c>
     </row>
     <row r="551" spans="1:4">
@@ -10839,7 +10839,7 @@
         <v>0</v>
       </c>
       <c r="D551">
-        <v>52653.99999999999</v>
+        <v>52653</v>
       </c>
     </row>
     <row r="552" spans="1:4">
@@ -10867,7 +10867,7 @@
         <v>0</v>
       </c>
       <c r="D553">
-        <v>103400</v>
+        <v>103399</v>
       </c>
     </row>
     <row r="554" spans="1:4">
@@ -10881,7 +10881,7 @@
         <v>0</v>
       </c>
       <c r="D554">
-        <v>106876</v>
+        <v>106875</v>
       </c>
     </row>
     <row r="555" spans="1:4">
@@ -10892,10 +10892,10 @@
         <v>556</v>
       </c>
       <c r="C555">
-        <v>12161.92166730993</v>
+        <v>12270</v>
       </c>
       <c r="D555">
-        <v>96086.92166730996</v>
+        <v>96195</v>
       </c>
     </row>
     <row r="556" spans="1:4">
@@ -10909,7 +10909,7 @@
         <v>0</v>
       </c>
       <c r="D556">
-        <v>123136</v>
+        <v>123135</v>
       </c>
     </row>
     <row r="557" spans="1:4">
@@ -10923,7 +10923,7 @@
         <v>0</v>
       </c>
       <c r="D557">
-        <v>90844.00000000001</v>
+        <v>90844</v>
       </c>
     </row>
     <row r="558" spans="1:4">
@@ -10937,7 +10937,7 @@
         <v>0</v>
       </c>
       <c r="D558">
-        <v>144428.0000000001</v>
+        <v>144428</v>
       </c>
     </row>
     <row r="559" spans="1:4">
@@ -10951,7 +10951,7 @@
         <v>0</v>
       </c>
       <c r="D559">
-        <v>114291.9999999999</v>
+        <v>114291</v>
       </c>
     </row>
     <row r="560" spans="1:4">
@@ -10965,7 +10965,7 @@
         <v>0</v>
       </c>
       <c r="D560">
-        <v>69440.99999999999</v>
+        <v>69440</v>
       </c>
     </row>
     <row r="561" spans="1:4">
@@ -10979,7 +10979,7 @@
         <v>0</v>
       </c>
       <c r="D561">
-        <v>106132.0000000001</v>
+        <v>106132</v>
       </c>
     </row>
     <row r="562" spans="1:4">
@@ -10993,7 +10993,7 @@
         <v>0</v>
       </c>
       <c r="D562">
-        <v>76792.00000000006</v>
+        <v>76792</v>
       </c>
     </row>
     <row r="563" spans="1:4">
@@ -11004,10 +11004,10 @@
         <v>564</v>
       </c>
       <c r="C563">
-        <v>31102.74877988623</v>
+        <v>31312</v>
       </c>
       <c r="D563">
-        <v>96277.74877988627</v>
+        <v>96487</v>
       </c>
     </row>
     <row r="564" spans="1:4">
@@ -11021,7 +11021,7 @@
         <v>0</v>
       </c>
       <c r="D564">
-        <v>150544.9999999999</v>
+        <v>150544</v>
       </c>
     </row>
     <row r="565" spans="1:4">
@@ -11032,10 +11032,10 @@
         <v>566</v>
       </c>
       <c r="C565">
-        <v>9731.96344551105</v>
+        <v>9819</v>
       </c>
       <c r="D565">
-        <v>135166.963445511</v>
+        <v>135253</v>
       </c>
     </row>
     <row r="566" spans="1:4">
@@ -11049,7 +11049,7 @@
         <v>0</v>
       </c>
       <c r="D566">
-        <v>166185.0000000001</v>
+        <v>166185</v>
       </c>
     </row>
     <row r="567" spans="1:4">
@@ -11063,7 +11063,7 @@
         <v>0</v>
       </c>
       <c r="D567">
-        <v>95380.00000000006</v>
+        <v>95380</v>
       </c>
     </row>
     <row r="568" spans="1:4">
@@ -11074,10 +11074,10 @@
         <v>569</v>
       </c>
       <c r="C568">
-        <v>12327.06291658628</v>
+        <v>12329</v>
       </c>
       <c r="D568">
-        <v>60338.06291658628</v>
+        <v>60340</v>
       </c>
     </row>
     <row r="569" spans="1:4">
@@ -11091,7 +11091,7 @@
         <v>0</v>
       </c>
       <c r="D569">
-        <v>131299.9999999999</v>
+        <v>131299</v>
       </c>
     </row>
     <row r="570" spans="1:4">
@@ -11102,10 +11102,10 @@
         <v>571</v>
       </c>
       <c r="C570">
-        <v>13845.30484997098</v>
+        <v>13894</v>
       </c>
       <c r="D570">
-        <v>60692.30484997095</v>
+        <v>60740</v>
       </c>
     </row>
     <row r="571" spans="1:4">
@@ -11116,10 +11116,10 @@
         <v>572</v>
       </c>
       <c r="C571">
-        <v>43291.72863103522</v>
+        <v>43260</v>
       </c>
       <c r="D571">
-        <v>114203.7286310352</v>
+        <v>114171</v>
       </c>
     </row>
     <row r="572" spans="1:4">
@@ -11133,7 +11133,7 @@
         <v>0</v>
       </c>
       <c r="D572">
-        <v>61585.99999999996</v>
+        <v>61585</v>
       </c>
     </row>
     <row r="573" spans="1:4">
@@ -11147,7 +11147,7 @@
         <v>0</v>
       </c>
       <c r="D573">
-        <v>189495.0000000001</v>
+        <v>189495</v>
       </c>
     </row>
     <row r="574" spans="1:4">
@@ -11161,7 +11161,7 @@
         <v>0</v>
       </c>
       <c r="D574">
-        <v>176795.0000000001</v>
+        <v>176795</v>
       </c>
     </row>
     <row r="575" spans="1:4">
@@ -11175,7 +11175,7 @@
         <v>0</v>
       </c>
       <c r="D575">
-        <v>108075.9999999999</v>
+        <v>108075</v>
       </c>
     </row>
     <row r="576" spans="1:4">
@@ -11189,7 +11189,7 @@
         <v>0</v>
       </c>
       <c r="D576">
-        <v>130634.9999999999</v>
+        <v>130634</v>
       </c>
     </row>
     <row r="577" spans="1:4">
@@ -11203,7 +11203,7 @@
         <v>0</v>
       </c>
       <c r="D577">
-        <v>82314.99999999996</v>
+        <v>82314</v>
       </c>
     </row>
     <row r="578" spans="1:4">
@@ -11217,7 +11217,7 @@
         <v>0</v>
       </c>
       <c r="D578">
-        <v>132952</v>
+        <v>132951</v>
       </c>
     </row>
     <row r="579" spans="1:4">
@@ -11245,7 +11245,7 @@
         <v>0</v>
       </c>
       <c r="D580">
-        <v>75590.00000000001</v>
+        <v>75590</v>
       </c>
     </row>
     <row r="581" spans="1:4">
@@ -11259,7 +11259,7 @@
         <v>0</v>
       </c>
       <c r="D581">
-        <v>128864.0000000001</v>
+        <v>128864</v>
       </c>
     </row>
     <row r="582" spans="1:4">
@@ -11273,7 +11273,7 @@
         <v>0</v>
       </c>
       <c r="D582">
-        <v>142976.0000000001</v>
+        <v>142976</v>
       </c>
     </row>
     <row r="583" spans="1:4">
@@ -11287,7 +11287,7 @@
         <v>0</v>
       </c>
       <c r="D583">
-        <v>136769.9999999999</v>
+        <v>136769</v>
       </c>
     </row>
     <row r="584" spans="1:4">
@@ -11315,7 +11315,7 @@
         <v>0</v>
       </c>
       <c r="D585">
-        <v>76450.00000000001</v>
+        <v>76450</v>
       </c>
     </row>
     <row r="586" spans="1:4">
@@ -11329,7 +11329,7 @@
         <v>0</v>
       </c>
       <c r="D586">
-        <v>164055</v>
+        <v>164054</v>
       </c>
     </row>
     <row r="587" spans="1:4">
@@ -11340,10 +11340,10 @@
         <v>588</v>
       </c>
       <c r="C587">
-        <v>52900.39464228578</v>
+        <v>52970</v>
       </c>
       <c r="D587">
-        <v>137670.3946422859</v>
+        <v>137740</v>
       </c>
     </row>
     <row r="588" spans="1:4">
@@ -11396,10 +11396,10 @@
         <v>592</v>
       </c>
       <c r="C591">
-        <v>16372.75849008324</v>
+        <v>16064</v>
       </c>
       <c r="D591">
-        <v>136252.7584900833</v>
+        <v>135944</v>
       </c>
     </row>
     <row r="592" spans="1:4">
@@ -11424,10 +11424,10 @@
         <v>594</v>
       </c>
       <c r="C593">
-        <v>11657.26436587473</v>
+        <v>11709</v>
       </c>
       <c r="D593">
-        <v>60188.26436587471</v>
+        <v>60239</v>
       </c>
     </row>
     <row r="594" spans="1:4">
@@ -11441,7 +11441,7 @@
         <v>0</v>
       </c>
       <c r="D594">
-        <v>52943.99999999996</v>
+        <v>52943</v>
       </c>
     </row>
     <row r="595" spans="1:4">
@@ -11455,7 +11455,7 @@
         <v>0</v>
       </c>
       <c r="D595">
-        <v>86071.99999999999</v>
+        <v>86071</v>
       </c>
     </row>
     <row r="596" spans="1:4">
@@ -11469,7 +11469,7 @@
         <v>0</v>
       </c>
       <c r="D596">
-        <v>154360</v>
+        <v>154359</v>
       </c>
     </row>
     <row r="597" spans="1:4">
@@ -11480,10 +11480,10 @@
         <v>598</v>
       </c>
       <c r="C597">
-        <v>7094.272876602874</v>
+        <v>6989</v>
       </c>
       <c r="D597">
-        <v>60519.2728766029</v>
+        <v>60414</v>
       </c>
     </row>
     <row r="598" spans="1:4">
@@ -11508,10 +11508,10 @@
         <v>600</v>
       </c>
       <c r="C599">
-        <v>16720.28358038243</v>
+        <v>16798</v>
       </c>
       <c r="D599">
-        <v>95131.28358038247</v>
+        <v>95209</v>
       </c>
     </row>
     <row r="600" spans="1:4">
@@ -11525,7 +11525,7 @@
         <v>0</v>
       </c>
       <c r="D600">
-        <v>81508.00000000004</v>
+        <v>81508</v>
       </c>
     </row>
     <row r="601" spans="1:4">
@@ -11536,10 +11536,10 @@
         <v>602</v>
       </c>
       <c r="C601">
-        <v>16837.0635124488</v>
+        <v>16975</v>
       </c>
       <c r="D601">
-        <v>94852.06351244885</v>
+        <v>94990</v>
       </c>
     </row>
     <row r="602" spans="1:4">
@@ -11553,7 +11553,7 @@
         <v>0</v>
       </c>
       <c r="D602">
-        <v>142599.9999999999</v>
+        <v>142599</v>
       </c>
     </row>
     <row r="603" spans="1:4">
@@ -11564,10 +11564,10 @@
         <v>604</v>
       </c>
       <c r="C603">
-        <v>24912.41197977847</v>
+        <v>24832</v>
       </c>
       <c r="D603">
-        <v>96319.41197977851</v>
+        <v>96239</v>
       </c>
     </row>
     <row r="604" spans="1:4">
@@ -11578,10 +11578,10 @@
         <v>605</v>
       </c>
       <c r="C604">
-        <v>10164.120570766</v>
+        <v>10331</v>
       </c>
       <c r="D604">
-        <v>83748.12057076594</v>
+        <v>83914</v>
       </c>
     </row>
     <row r="605" spans="1:4">
@@ -11592,10 +11592,10 @@
         <v>606</v>
       </c>
       <c r="C605">
-        <v>22574.45920852019</v>
+        <v>22708</v>
       </c>
       <c r="D605">
-        <v>63237.45920852016</v>
+        <v>63370</v>
       </c>
     </row>
     <row r="606" spans="1:4">
@@ -11620,10 +11620,10 @@
         <v>608</v>
       </c>
       <c r="C607">
-        <v>9822.39961590126</v>
+        <v>9821</v>
       </c>
       <c r="D607">
-        <v>83684.3996159012</v>
+        <v>83682</v>
       </c>
     </row>
     <row r="608" spans="1:4">
@@ -11634,10 +11634,10 @@
         <v>609</v>
       </c>
       <c r="C608">
-        <v>16189.83321529947</v>
+        <v>16174</v>
       </c>
       <c r="D608">
-        <v>97586.83321529947</v>
+        <v>97571</v>
       </c>
     </row>
     <row r="609" spans="1:4">
@@ -11651,7 +11651,7 @@
         <v>0</v>
       </c>
       <c r="D609">
-        <v>84218.00000000006</v>
+        <v>84218</v>
       </c>
     </row>
     <row r="610" spans="1:4">
@@ -11662,10 +11662,10 @@
         <v>611</v>
       </c>
       <c r="C610">
-        <v>22899.53356309393</v>
+        <v>23039</v>
       </c>
       <c r="D610">
-        <v>60750.53356309393</v>
+        <v>60890</v>
       </c>
     </row>
     <row r="611" spans="1:4">
@@ -11676,10 +11676,10 @@
         <v>612</v>
       </c>
       <c r="C611">
-        <v>3685.166130487894</v>
+        <v>3700</v>
       </c>
       <c r="D611">
-        <v>97466.16613048795</v>
+        <v>97481</v>
       </c>
     </row>
     <row r="612" spans="1:4">
@@ -11693,7 +11693,7 @@
         <v>0</v>
       </c>
       <c r="D612">
-        <v>55592.99999999999</v>
+        <v>55592</v>
       </c>
     </row>
     <row r="613" spans="1:4">
@@ -11707,7 +11707,7 @@
         <v>0</v>
       </c>
       <c r="D613">
-        <v>122388</v>
+        <v>122387</v>
       </c>
     </row>
     <row r="614" spans="1:4">
@@ -11718,10 +11718,10 @@
         <v>615</v>
       </c>
       <c r="C614">
-        <v>27701.19694417513</v>
+        <v>27637</v>
       </c>
       <c r="D614">
-        <v>137826.1969441751</v>
+        <v>137761</v>
       </c>
     </row>
     <row r="615" spans="1:4">
@@ -11735,7 +11735,7 @@
         <v>0</v>
       </c>
       <c r="D615">
-        <v>61982.99999999999</v>
+        <v>61982</v>
       </c>
     </row>
     <row r="616" spans="1:4">
@@ -11749,7 +11749,7 @@
         <v>0</v>
       </c>
       <c r="D616">
-        <v>73616.00000000003</v>
+        <v>73616</v>
       </c>
     </row>
     <row r="617" spans="1:4">
@@ -11763,7 +11763,7 @@
         <v>0</v>
       </c>
       <c r="D617">
-        <v>66130.00000000006</v>
+        <v>66130</v>
       </c>
     </row>
     <row r="618" spans="1:4">
@@ -11791,7 +11791,7 @@
         <v>0</v>
       </c>
       <c r="D619">
-        <v>112028.0000000001</v>
+        <v>112028</v>
       </c>
     </row>
     <row r="620" spans="1:4">
@@ -11805,7 +11805,7 @@
         <v>0</v>
       </c>
       <c r="D620">
-        <v>56962.00000000004</v>
+        <v>56962</v>
       </c>
     </row>
     <row r="621" spans="1:4">
@@ -11819,7 +11819,7 @@
         <v>0</v>
       </c>
       <c r="D621">
-        <v>124442.0000000001</v>
+        <v>124442</v>
       </c>
     </row>
     <row r="622" spans="1:4">
@@ -11833,7 +11833,7 @@
         <v>0</v>
       </c>
       <c r="D622">
-        <v>80016.00000000007</v>
+        <v>80016</v>
       </c>
     </row>
     <row r="623" spans="1:4">
@@ -11847,7 +11847,7 @@
         <v>0</v>
       </c>
       <c r="D623">
-        <v>155960</v>
+        <v>155959</v>
       </c>
     </row>
     <row r="624" spans="1:4">
@@ -11858,10 +11858,10 @@
         <v>625</v>
       </c>
       <c r="C624">
-        <v>10831.92341976445</v>
+        <v>10785</v>
       </c>
       <c r="D624">
-        <v>95081.92341976441</v>
+        <v>95034</v>
       </c>
     </row>
     <row r="625" spans="1:4">
@@ -11872,10 +11872,10 @@
         <v>626</v>
       </c>
       <c r="C625">
-        <v>5205.669442078623</v>
+        <v>5339</v>
       </c>
       <c r="D625">
-        <v>83407.66944207862</v>
+        <v>83541</v>
       </c>
     </row>
     <row r="626" spans="1:4">
@@ -11889,7 +11889,7 @@
         <v>0</v>
       </c>
       <c r="D626">
-        <v>85192.00000000003</v>
+        <v>85192</v>
       </c>
     </row>
     <row r="627" spans="1:4">
@@ -11903,7 +11903,7 @@
         <v>0</v>
       </c>
       <c r="D627">
-        <v>158715.0000000001</v>
+        <v>158715</v>
       </c>
     </row>
     <row r="628" spans="1:4">
@@ -11917,7 +11917,7 @@
         <v>0</v>
       </c>
       <c r="D628">
-        <v>109215.0000000001</v>
+        <v>109215</v>
       </c>
     </row>
     <row r="629" spans="1:4">
@@ -11931,7 +11931,7 @@
         <v>0</v>
       </c>
       <c r="D629">
-        <v>142035</v>
+        <v>142034</v>
       </c>
     </row>
     <row r="630" spans="1:4">
@@ -11945,7 +11945,7 @@
         <v>0</v>
       </c>
       <c r="D630">
-        <v>86150.00000000003</v>
+        <v>86150</v>
       </c>
     </row>
     <row r="631" spans="1:4">
@@ -11959,7 +11959,7 @@
         <v>0</v>
       </c>
       <c r="D631">
-        <v>189341.9999999998</v>
+        <v>189341</v>
       </c>
     </row>
     <row r="632" spans="1:4">
@@ -11973,7 +11973,7 @@
         <v>0</v>
       </c>
       <c r="D632">
-        <v>142064.9999999999</v>
+        <v>142064</v>
       </c>
     </row>
     <row r="633" spans="1:4">
@@ -12001,7 +12001,7 @@
         <v>0</v>
       </c>
       <c r="D634">
-        <v>67041.99999999996</v>
+        <v>67041</v>
       </c>
     </row>
     <row r="635" spans="1:4">
@@ -12015,7 +12015,7 @@
         <v>0</v>
       </c>
       <c r="D635">
-        <v>106986.9999999999</v>
+        <v>106986</v>
       </c>
     </row>
     <row r="636" spans="1:4">
@@ -12026,10 +12026,10 @@
         <v>637</v>
       </c>
       <c r="C636">
-        <v>13621.82852174128</v>
+        <v>13508</v>
       </c>
       <c r="D636">
-        <v>80695.82852174126</v>
+        <v>80581</v>
       </c>
     </row>
     <row r="637" spans="1:4">
@@ -12043,7 +12043,7 @@
         <v>0</v>
       </c>
       <c r="D637">
-        <v>61357.00000000005</v>
+        <v>61357</v>
       </c>
     </row>
     <row r="638" spans="1:4">
@@ -12068,10 +12068,10 @@
         <v>640</v>
       </c>
       <c r="C639">
-        <v>5570.701313700512</v>
+        <v>5731</v>
       </c>
       <c r="D639">
-        <v>79496.70131370057</v>
+        <v>79657</v>
       </c>
     </row>
     <row r="640" spans="1:4">
@@ -12085,7 +12085,7 @@
         <v>0</v>
       </c>
       <c r="D640">
-        <v>80963.99999999999</v>
+        <v>80963</v>
       </c>
     </row>
     <row r="641" spans="1:4">
@@ -12099,7 +12099,7 @@
         <v>0</v>
       </c>
       <c r="D641">
-        <v>102376.0000000001</v>
+        <v>102376</v>
       </c>
     </row>
     <row r="642" spans="1:4">
@@ -12113,7 +12113,7 @@
         <v>0</v>
       </c>
       <c r="D642">
-        <v>96030.00000000001</v>
+        <v>96030</v>
       </c>
     </row>
     <row r="643" spans="1:4">
@@ -12127,7 +12127,7 @@
         <v>0</v>
       </c>
       <c r="D643">
-        <v>141380.0000000001</v>
+        <v>141380</v>
       </c>
     </row>
     <row r="644" spans="1:4">
@@ -12141,7 +12141,7 @@
         <v>0</v>
       </c>
       <c r="D644">
-        <v>76205.99999999997</v>
+        <v>76205</v>
       </c>
     </row>
     <row r="645" spans="1:4">
@@ -12155,7 +12155,7 @@
         <v>0</v>
       </c>
       <c r="D645">
-        <v>90443.99999999996</v>
+        <v>90443</v>
       </c>
     </row>
     <row r="646" spans="1:4">
@@ -12183,7 +12183,7 @@
         <v>0</v>
       </c>
       <c r="D647">
-        <v>97692.99999999993</v>
+        <v>97692</v>
       </c>
     </row>
     <row r="648" spans="1:4">
@@ -12211,7 +12211,7 @@
         <v>0</v>
       </c>
       <c r="D649">
-        <v>165215.0000000001</v>
+        <v>165215</v>
       </c>
     </row>
     <row r="650" spans="1:4">
@@ -12239,7 +12239,7 @@
         <v>0</v>
       </c>
       <c r="D651">
-        <v>104371.9999999999</v>
+        <v>104371</v>
       </c>
     </row>
     <row r="652" spans="1:4">
@@ -12253,7 +12253,7 @@
         <v>0</v>
       </c>
       <c r="D652">
-        <v>69585.00000000001</v>
+        <v>69585</v>
       </c>
     </row>
     <row r="653" spans="1:4">
@@ -12292,10 +12292,10 @@
         <v>656</v>
       </c>
       <c r="C655">
-        <v>12153.8881900839</v>
+        <v>12306</v>
       </c>
       <c r="D655">
-        <v>83685.88819008386</v>
+        <v>83837</v>
       </c>
     </row>
     <row r="656" spans="1:4">
@@ -12309,7 +12309,7 @@
         <v>0</v>
       </c>
       <c r="D656">
-        <v>94461.99999999994</v>
+        <v>94461</v>
       </c>
     </row>
     <row r="657" spans="1:4">
@@ -12323,7 +12323,7 @@
         <v>0</v>
       </c>
       <c r="D657">
-        <v>151851.9999999999</v>
+        <v>151851</v>
       </c>
     </row>
     <row r="658" spans="1:4">
@@ -12337,7 +12337,7 @@
         <v>0</v>
       </c>
       <c r="D658">
-        <v>83695.99999999994</v>
+        <v>83695</v>
       </c>
     </row>
     <row r="659" spans="1:4">
@@ -12351,7 +12351,7 @@
         <v>0</v>
       </c>
       <c r="D659">
-        <v>128808</v>
+        <v>128807</v>
       </c>
     </row>
     <row r="660" spans="1:4">
@@ -12362,10 +12362,10 @@
         <v>661</v>
       </c>
       <c r="C660">
-        <v>3237.382165466377</v>
+        <v>3033</v>
       </c>
       <c r="D660">
-        <v>80983.38216546635</v>
+        <v>80778</v>
       </c>
     </row>
     <row r="661" spans="1:4">
@@ -12379,7 +12379,7 @@
         <v>0</v>
       </c>
       <c r="D661">
-        <v>105076</v>
+        <v>105075</v>
       </c>
     </row>
     <row r="662" spans="1:4">
@@ -12407,7 +12407,7 @@
         <v>0</v>
       </c>
       <c r="D663">
-        <v>109212.0000000001</v>
+        <v>109212</v>
       </c>
     </row>
     <row r="664" spans="1:4">
@@ -12418,10 +12418,10 @@
         <v>665</v>
       </c>
       <c r="C664">
-        <v>31699.12679682464</v>
+        <v>31575</v>
       </c>
       <c r="D664">
-        <v>116271.1267968246</v>
+        <v>116146</v>
       </c>
     </row>
     <row r="665" spans="1:4">
@@ -12432,10 +12432,10 @@
         <v>666</v>
       </c>
       <c r="C665">
-        <v>23506.11935457657</v>
+        <v>23514</v>
       </c>
       <c r="D665">
-        <v>134771.1193545765</v>
+        <v>134778</v>
       </c>
     </row>
     <row r="666" spans="1:4">
@@ -12449,7 +12449,7 @@
         <v>0</v>
       </c>
       <c r="D666">
-        <v>121988.0000000001</v>
+        <v>121988</v>
       </c>
     </row>
     <row r="667" spans="1:4">
@@ -12477,7 +12477,7 @@
         <v>0</v>
       </c>
       <c r="D668">
-        <v>96987.99999999991</v>
+        <v>96987</v>
       </c>
     </row>
     <row r="669" spans="1:4">
@@ -12491,7 +12491,7 @@
         <v>0</v>
       </c>
       <c r="D669">
-        <v>89509.99999999993</v>
+        <v>89509</v>
       </c>
     </row>
     <row r="670" spans="1:4">
@@ -12502,10 +12502,10 @@
         <v>671</v>
       </c>
       <c r="C670">
-        <v>10557.00943892494</v>
+        <v>10662</v>
       </c>
       <c r="D670">
-        <v>61780.00943892492</v>
+        <v>61884</v>
       </c>
     </row>
     <row r="671" spans="1:4">
@@ -12516,10 +12516,10 @@
         <v>672</v>
       </c>
       <c r="C671">
-        <v>15225.87001338317</v>
+        <v>14978</v>
       </c>
       <c r="D671">
-        <v>119749.8700133832</v>
+        <v>119502</v>
       </c>
     </row>
     <row r="672" spans="1:4">
@@ -12530,10 +12530,10 @@
         <v>673</v>
       </c>
       <c r="C672">
-        <v>15320.33959617352</v>
+        <v>15187</v>
       </c>
       <c r="D672">
-        <v>137705.3395961735</v>
+        <v>137571</v>
       </c>
     </row>
     <row r="673" spans="1:4">
@@ -12558,10 +12558,10 @@
         <v>675</v>
       </c>
       <c r="C674">
-        <v>1944.51110921902</v>
+        <v>2014</v>
       </c>
       <c r="D674">
-        <v>79636.51110921905</v>
+        <v>79706</v>
       </c>
     </row>
     <row r="675" spans="1:4">
@@ -12589,7 +12589,7 @@
         <v>0</v>
       </c>
       <c r="D676">
-        <v>95390.00000000004</v>
+        <v>95390</v>
       </c>
     </row>
     <row r="677" spans="1:4">
@@ -12600,10 +12600,10 @@
         <v>678</v>
       </c>
       <c r="C677">
-        <v>9669.527704110413</v>
+        <v>9774</v>
       </c>
       <c r="D677">
-        <v>116237.5277041104</v>
+        <v>116342</v>
       </c>
     </row>
     <row r="678" spans="1:4">
@@ -12614,10 +12614,10 @@
         <v>679</v>
       </c>
       <c r="C678">
-        <v>1710.098001398917</v>
+        <v>1741</v>
       </c>
       <c r="D678">
-        <v>60153.0980013989</v>
+        <v>60183</v>
       </c>
     </row>
     <row r="679" spans="1:4">
@@ -12645,7 +12645,7 @@
         <v>0</v>
       </c>
       <c r="D680">
-        <v>108315.9999999999</v>
+        <v>108315</v>
       </c>
     </row>
     <row r="681" spans="1:4">
@@ -12687,7 +12687,7 @@
         <v>0</v>
       </c>
       <c r="D683">
-        <v>134424.0000000001</v>
+        <v>134424</v>
       </c>
     </row>
     <row r="684" spans="1:4">
@@ -12701,7 +12701,7 @@
         <v>0</v>
       </c>
       <c r="D684">
-        <v>67510.99999999994</v>
+        <v>67510</v>
       </c>
     </row>
     <row r="685" spans="1:4">
@@ -12715,7 +12715,7 @@
         <v>0</v>
       </c>
       <c r="D685">
-        <v>148912.0000000001</v>
+        <v>148912</v>
       </c>
     </row>
     <row r="686" spans="1:4">
@@ -12726,10 +12726,10 @@
         <v>687</v>
       </c>
       <c r="C686">
-        <v>22445.36832760058</v>
+        <v>22604</v>
       </c>
       <c r="D686">
-        <v>113265.3683276005</v>
+        <v>113423</v>
       </c>
     </row>
     <row r="687" spans="1:4">
@@ -12740,10 +12740,10 @@
         <v>688</v>
       </c>
       <c r="C687">
-        <v>1997.051984985475</v>
+        <v>1790</v>
       </c>
       <c r="D687">
-        <v>80603.05198498543</v>
+        <v>80395</v>
       </c>
     </row>
     <row r="688" spans="1:4">
@@ -12757,7 +12757,7 @@
         <v>0</v>
       </c>
       <c r="D688">
-        <v>69253.99999999996</v>
+        <v>69253</v>
       </c>
     </row>
     <row r="689" spans="1:4">
@@ -12768,10 +12768,10 @@
         <v>690</v>
       </c>
       <c r="C689">
-        <v>9844.917751183762</v>
+        <v>9967</v>
       </c>
       <c r="D689">
-        <v>81372.91775118381</v>
+        <v>81495</v>
       </c>
     </row>
     <row r="690" spans="1:4">
@@ -12785,7 +12785,7 @@
         <v>0</v>
       </c>
       <c r="D690">
-        <v>103175.9999999999</v>
+        <v>103175</v>
       </c>
     </row>
     <row r="691" spans="1:4">
@@ -12799,7 +12799,7 @@
         <v>0</v>
       </c>
       <c r="D691">
-        <v>129000.0000000001</v>
+        <v>129000</v>
       </c>
     </row>
     <row r="692" spans="1:4">
@@ -12813,7 +12813,7 @@
         <v>0</v>
       </c>
       <c r="D692">
-        <v>137408.0000000001</v>
+        <v>137408</v>
       </c>
     </row>
     <row r="693" spans="1:4">
@@ -12827,7 +12827,7 @@
         <v>0</v>
       </c>
       <c r="D693">
-        <v>96467.00000000007</v>
+        <v>96467</v>
       </c>
     </row>
     <row r="694" spans="1:4">
@@ -12841,7 +12841,7 @@
         <v>0</v>
       </c>
       <c r="D694">
-        <v>93764.00000000003</v>
+        <v>93764</v>
       </c>
     </row>
     <row r="695" spans="1:4">
@@ -12855,7 +12855,7 @@
         <v>0</v>
       </c>
       <c r="D695">
-        <v>88336.99999999997</v>
+        <v>88336</v>
       </c>
     </row>
     <row r="696" spans="1:4">
@@ -12883,7 +12883,7 @@
         <v>0</v>
       </c>
       <c r="D697">
-        <v>67359.99999999996</v>
+        <v>67359</v>
       </c>
     </row>
     <row r="698" spans="1:4">
@@ -12894,10 +12894,10 @@
         <v>699</v>
       </c>
       <c r="C698">
-        <v>22339.56746685419</v>
+        <v>22343</v>
       </c>
       <c r="D698">
-        <v>96635.56746685415</v>
+        <v>96638</v>
       </c>
     </row>
     <row r="699" spans="1:4">
@@ -12911,7 +12911,7 @@
         <v>0</v>
       </c>
       <c r="D699">
-        <v>77050.00000000007</v>
+        <v>77050</v>
       </c>
     </row>
     <row r="700" spans="1:4">
@@ -12925,7 +12925,7 @@
         <v>0</v>
       </c>
       <c r="D700">
-        <v>147480.0000000001</v>
+        <v>147480</v>
       </c>
     </row>
     <row r="701" spans="1:4">
@@ -12939,7 +12939,7 @@
         <v>0</v>
       </c>
       <c r="D701">
-        <v>83935.99999999993</v>
+        <v>83935</v>
       </c>
     </row>
     <row r="702" spans="1:4">
@@ -12953,7 +12953,7 @@
         <v>0</v>
       </c>
       <c r="D702">
-        <v>61626.00000000001</v>
+        <v>61626</v>
       </c>
     </row>
     <row r="703" spans="1:4">
@@ -12967,7 +12967,7 @@
         <v>0</v>
       </c>
       <c r="D703">
-        <v>177375.0000000001</v>
+        <v>177375</v>
       </c>
     </row>
     <row r="704" spans="1:4">
@@ -12981,7 +12981,7 @@
         <v>0</v>
       </c>
       <c r="D704">
-        <v>164984.9999999999</v>
+        <v>164984</v>
       </c>
     </row>
     <row r="705" spans="1:4">
@@ -13009,7 +13009,7 @@
         <v>0</v>
       </c>
       <c r="D706">
-        <v>91248.00000000003</v>
+        <v>91248</v>
       </c>
     </row>
     <row r="707" spans="1:4">
@@ -13023,7 +13023,7 @@
         <v>0</v>
       </c>
       <c r="D707">
-        <v>87937.99999999999</v>
+        <v>87937</v>
       </c>
     </row>
     <row r="708" spans="1:4">
@@ -13037,7 +13037,7 @@
         <v>0</v>
       </c>
       <c r="D708">
-        <v>63414.00000000003</v>
+        <v>63414</v>
       </c>
     </row>
     <row r="709" spans="1:4">
@@ -13051,7 +13051,7 @@
         <v>0</v>
       </c>
       <c r="D709">
-        <v>187960.0000000001</v>
+        <v>187960</v>
       </c>
     </row>
     <row r="710" spans="1:4">
@@ -13065,7 +13065,7 @@
         <v>0</v>
       </c>
       <c r="D710">
-        <v>142975</v>
+        <v>142974</v>
       </c>
     </row>
     <row r="711" spans="1:4">
@@ -13079,7 +13079,7 @@
         <v>0</v>
       </c>
       <c r="D711">
-        <v>95735.00000000004</v>
+        <v>95735</v>
       </c>
     </row>
     <row r="712" spans="1:4">
@@ -13093,7 +13093,7 @@
         <v>0</v>
       </c>
       <c r="D712">
-        <v>65943.99999999999</v>
+        <v>65943</v>
       </c>
     </row>
     <row r="713" spans="1:4">
@@ -13107,7 +13107,7 @@
         <v>0</v>
       </c>
       <c r="D713">
-        <v>65123.99999999998</v>
+        <v>65123</v>
       </c>
     </row>
     <row r="714" spans="1:4">
@@ -13121,7 +13121,7 @@
         <v>0</v>
       </c>
       <c r="D714">
-        <v>69627.99999999996</v>
+        <v>69627</v>
       </c>
     </row>
     <row r="715" spans="1:4">
@@ -13149,7 +13149,7 @@
         <v>0</v>
       </c>
       <c r="D716">
-        <v>176475.0000000001</v>
+        <v>176475</v>
       </c>
     </row>
     <row r="717" spans="1:4">
@@ -13163,7 +13163,7 @@
         <v>0</v>
       </c>
       <c r="D717">
-        <v>86690.00000000004</v>
+        <v>86690</v>
       </c>
     </row>
     <row r="718" spans="1:4">
@@ -13177,7 +13177,7 @@
         <v>0</v>
       </c>
       <c r="D718">
-        <v>103216.0000000001</v>
+        <v>103216</v>
       </c>
     </row>
     <row r="719" spans="1:4">
@@ -13188,10 +13188,10 @@
         <v>720</v>
       </c>
       <c r="C719">
-        <v>4120.685101524854</v>
+        <v>4243</v>
       </c>
       <c r="D719">
-        <v>83662.68510152487</v>
+        <v>83785</v>
       </c>
     </row>
     <row r="720" spans="1:4">
@@ -13202,10 +13202,10 @@
         <v>721</v>
       </c>
       <c r="C720">
-        <v>5332.464575880578</v>
+        <v>5415</v>
       </c>
       <c r="D720">
-        <v>60368.4645758806</v>
+        <v>60451</v>
       </c>
     </row>
     <row r="721" spans="1:4">
@@ -13233,7 +13233,7 @@
         <v>0</v>
       </c>
       <c r="D722">
-        <v>131842.9999999999</v>
+        <v>131842</v>
       </c>
     </row>
     <row r="723" spans="1:4">
@@ -13261,7 +13261,7 @@
         <v>0</v>
       </c>
       <c r="D724">
-        <v>77313.99999999994</v>
+        <v>77313</v>
       </c>
     </row>
     <row r="725" spans="1:4">
@@ -13275,7 +13275,7 @@
         <v>0</v>
       </c>
       <c r="D725">
-        <v>62922.99999999996</v>
+        <v>62922</v>
       </c>
     </row>
     <row r="726" spans="1:4">
@@ -13289,7 +13289,7 @@
         <v>0</v>
       </c>
       <c r="D726">
-        <v>104707.0000000001</v>
+        <v>104707</v>
       </c>
     </row>
     <row r="727" spans="1:4">
@@ -13303,7 +13303,7 @@
         <v>0</v>
       </c>
       <c r="D727">
-        <v>136456.0000000001</v>
+        <v>136456</v>
       </c>
     </row>
     <row r="728" spans="1:4">
@@ -13317,7 +13317,7 @@
         <v>0</v>
       </c>
       <c r="D728">
-        <v>123764.0000000001</v>
+        <v>123764</v>
       </c>
     </row>
     <row r="729" spans="1:4">
@@ -13328,10 +13328,10 @@
         <v>730</v>
       </c>
       <c r="C729">
-        <v>221.2207216899333</v>
+        <v>305</v>
       </c>
       <c r="D729">
-        <v>62059.22072168998</v>
+        <v>62143</v>
       </c>
     </row>
     <row r="730" spans="1:4">
@@ -13345,7 +13345,7 @@
         <v>0</v>
       </c>
       <c r="D730">
-        <v>72086.00000000001</v>
+        <v>72086</v>
       </c>
     </row>
     <row r="731" spans="1:4">
@@ -13359,7 +13359,7 @@
         <v>0</v>
       </c>
       <c r="D731">
-        <v>99973.99999999997</v>
+        <v>99973</v>
       </c>
     </row>
     <row r="732" spans="1:4">
@@ -13387,7 +13387,7 @@
         <v>0</v>
       </c>
       <c r="D733">
-        <v>110352</v>
+        <v>110351</v>
       </c>
     </row>
     <row r="734" spans="1:4">
@@ -13401,7 +13401,7 @@
         <v>0</v>
       </c>
       <c r="D734">
-        <v>83209.99999999996</v>
+        <v>83209</v>
       </c>
     </row>
     <row r="735" spans="1:4">
@@ -13426,10 +13426,10 @@
         <v>737</v>
       </c>
       <c r="C736">
-        <v>864.7504126177737</v>
+        <v>848</v>
       </c>
       <c r="D736">
-        <v>62113.75041261774</v>
+        <v>62096</v>
       </c>
     </row>
     <row r="737" spans="1:4">
@@ -13443,7 +13443,7 @@
         <v>0</v>
       </c>
       <c r="D737">
-        <v>93137.00000000006</v>
+        <v>93137</v>
       </c>
     </row>
     <row r="738" spans="1:4">
@@ -13454,10 +13454,10 @@
         <v>739</v>
       </c>
       <c r="C738">
-        <v>24150.60304662821</v>
+        <v>24074</v>
       </c>
       <c r="D738">
-        <v>97015.6030466282</v>
+        <v>96938</v>
       </c>
     </row>
     <row r="739" spans="1:4">
@@ -13468,10 +13468,10 @@
         <v>740</v>
       </c>
       <c r="C739">
-        <v>32190.63990656157</v>
+        <v>31947</v>
       </c>
       <c r="D739">
-        <v>138560.6399065615</v>
+        <v>138316</v>
       </c>
     </row>
     <row r="740" spans="1:4">
@@ -13482,10 +13482,10 @@
         <v>741</v>
       </c>
       <c r="C740">
-        <v>20309.98350801447</v>
+        <v>20250</v>
       </c>
       <c r="D740">
-        <v>82335.9835080145</v>
+        <v>82276</v>
       </c>
     </row>
     <row r="741" spans="1:4">
@@ -13496,10 +13496,10 @@
         <v>742</v>
       </c>
       <c r="C741">
-        <v>9175.28071666303</v>
+        <v>9112</v>
       </c>
       <c r="D741">
-        <v>63728.28071666302</v>
+        <v>63664</v>
       </c>
     </row>
     <row r="742" spans="1:4">
@@ -13513,7 +13513,7 @@
         <v>0</v>
       </c>
       <c r="D742">
-        <v>145055.9999999999</v>
+        <v>145055</v>
       </c>
     </row>
     <row r="743" spans="1:4">
@@ -13527,7 +13527,7 @@
         <v>0</v>
       </c>
       <c r="D743">
-        <v>60354.00000000004</v>
+        <v>60354</v>
       </c>
     </row>
     <row r="744" spans="1:4">
@@ -13538,10 +13538,10 @@
         <v>745</v>
       </c>
       <c r="C744">
-        <v>11885.82003879128</v>
+        <v>11905</v>
       </c>
       <c r="D744">
-        <v>95895.82003879131</v>
+        <v>95915</v>
       </c>
     </row>
     <row r="745" spans="1:4">
@@ -13552,10 +13552,10 @@
         <v>746</v>
       </c>
       <c r="C745">
-        <v>8185.782914064286</v>
+        <v>8189</v>
       </c>
       <c r="D745">
-        <v>119777.7829140643</v>
+        <v>119780</v>
       </c>
     </row>
     <row r="746" spans="1:4">
@@ -13569,7 +13569,7 @@
         <v>0</v>
       </c>
       <c r="D746">
-        <v>156664</v>
+        <v>156663</v>
       </c>
     </row>
     <row r="747" spans="1:4">
@@ -13583,7 +13583,7 @@
         <v>0</v>
       </c>
       <c r="D747">
-        <v>136768.0000000001</v>
+        <v>136768</v>
       </c>
     </row>
     <row r="748" spans="1:4">
@@ -13597,7 +13597,7 @@
         <v>0</v>
       </c>
       <c r="D748">
-        <v>98663.00000000004</v>
+        <v>98663</v>
       </c>
     </row>
     <row r="749" spans="1:4">
@@ -13608,10 +13608,10 @@
         <v>750</v>
       </c>
       <c r="C749">
-        <v>8591.044282035975</v>
+        <v>8474</v>
       </c>
       <c r="D749">
-        <v>88537.04428203593</v>
+        <v>88419</v>
       </c>
     </row>
     <row r="750" spans="1:4">
@@ -13625,7 +13625,7 @@
         <v>0</v>
       </c>
       <c r="D750">
-        <v>119649.9999999999</v>
+        <v>119649</v>
       </c>
     </row>
     <row r="751" spans="1:4">
@@ -13650,10 +13650,10 @@
         <v>753</v>
       </c>
       <c r="C752">
-        <v>56921.21687856692</v>
+        <v>56719</v>
       </c>
       <c r="D752">
-        <v>149461.2168785669</v>
+        <v>149259</v>
       </c>
     </row>
     <row r="753" spans="1:4">
@@ -13667,7 +13667,7 @@
         <v>0</v>
       </c>
       <c r="D753">
-        <v>60683.99999999998</v>
+        <v>60683</v>
       </c>
     </row>
     <row r="754" spans="1:4">
@@ -13681,7 +13681,7 @@
         <v>0</v>
       </c>
       <c r="D754">
-        <v>122044.9999999999</v>
+        <v>122044</v>
       </c>
     </row>
     <row r="755" spans="1:4">
@@ -13709,7 +13709,7 @@
         <v>0</v>
       </c>
       <c r="D756">
-        <v>98532.00000000001</v>
+        <v>98532</v>
       </c>
     </row>
     <row r="757" spans="1:4">
@@ -13723,7 +13723,7 @@
         <v>0</v>
       </c>
       <c r="D757">
-        <v>138559.9999999999</v>
+        <v>138559</v>
       </c>
     </row>
     <row r="758" spans="1:4">
@@ -13737,7 +13737,7 @@
         <v>0</v>
       </c>
       <c r="D758">
-        <v>163595.0000000001</v>
+        <v>163595</v>
       </c>
     </row>
     <row r="759" spans="1:4">
@@ -13748,10 +13748,10 @@
         <v>760</v>
       </c>
       <c r="C759">
-        <v>2604.34736571525</v>
+        <v>2687</v>
       </c>
       <c r="D759">
-        <v>88094.34736571524</v>
+        <v>88176</v>
       </c>
     </row>
     <row r="760" spans="1:4">
@@ -13779,7 +13779,7 @@
         <v>0</v>
       </c>
       <c r="D761">
-        <v>153779.9999999999</v>
+        <v>153779</v>
       </c>
     </row>
     <row r="762" spans="1:4">
@@ -13790,10 +13790,10 @@
         <v>763</v>
       </c>
       <c r="C762">
-        <v>12376.09694473527</v>
+        <v>12394</v>
       </c>
       <c r="D762">
-        <v>124000.0969447353</v>
+        <v>124017</v>
       </c>
     </row>
     <row r="763" spans="1:4">
@@ -13807,7 +13807,7 @@
         <v>0</v>
       </c>
       <c r="D763">
-        <v>169444.9999999999</v>
+        <v>169444</v>
       </c>
     </row>
     <row r="764" spans="1:4">
@@ -13821,7 +13821,7 @@
         <v>0</v>
       </c>
       <c r="D764">
-        <v>108176</v>
+        <v>108175</v>
       </c>
     </row>
     <row r="765" spans="1:4">
@@ -13835,7 +13835,7 @@
         <v>0</v>
       </c>
       <c r="D765">
-        <v>129087.9999999999</v>
+        <v>129087</v>
       </c>
     </row>
     <row r="766" spans="1:4">
@@ -13860,10 +13860,10 @@
         <v>768</v>
       </c>
       <c r="C767">
-        <v>50439.92603524277</v>
+        <v>50721</v>
       </c>
       <c r="D767">
-        <v>148289.9260352428</v>
+        <v>148571</v>
       </c>
     </row>
     <row r="768" spans="1:4">
@@ -13877,7 +13877,7 @@
         <v>0</v>
       </c>
       <c r="D768">
-        <v>89955.99999999993</v>
+        <v>89955</v>
       </c>
     </row>
     <row r="769" spans="1:4">
@@ -13891,7 +13891,7 @@
         <v>0</v>
       </c>
       <c r="D769">
-        <v>106049.9999999999</v>
+        <v>106049</v>
       </c>
     </row>
     <row r="770" spans="1:4">
@@ -13902,10 +13902,10 @@
         <v>771</v>
       </c>
       <c r="C770">
-        <v>1307.834953241603</v>
+        <v>1279</v>
       </c>
       <c r="D770">
-        <v>87541.83495324165</v>
+        <v>87513</v>
       </c>
     </row>
     <row r="771" spans="1:4">
@@ -13919,7 +13919,7 @@
         <v>0</v>
       </c>
       <c r="D771">
-        <v>106958.0000000001</v>
+        <v>106958</v>
       </c>
     </row>
     <row r="772" spans="1:4">
@@ -13933,7 +13933,7 @@
         <v>0</v>
       </c>
       <c r="D772">
-        <v>92922.00000000003</v>
+        <v>92922</v>
       </c>
     </row>
     <row r="773" spans="1:4">
@@ -13961,7 +13961,7 @@
         <v>0</v>
       </c>
       <c r="D774">
-        <v>91250.00000000004</v>
+        <v>91250</v>
       </c>
     </row>
     <row r="775" spans="1:4">
@@ -13975,7 +13975,7 @@
         <v>0</v>
       </c>
       <c r="D775">
-        <v>172670.0000000001</v>
+        <v>172670</v>
       </c>
     </row>
     <row r="776" spans="1:4">
@@ -13989,7 +13989,7 @@
         <v>0</v>
       </c>
       <c r="D776">
-        <v>126268.9999999999</v>
+        <v>126268</v>
       </c>
     </row>
     <row r="777" spans="1:4">
@@ -14031,7 +14031,7 @@
         <v>0</v>
       </c>
       <c r="D779">
-        <v>161570.0000000001</v>
+        <v>161570</v>
       </c>
     </row>
     <row r="780" spans="1:4">
@@ -14056,10 +14056,10 @@
         <v>782</v>
       </c>
       <c r="C781">
-        <v>8560.782257088082</v>
+        <v>8376</v>
       </c>
       <c r="D781">
-        <v>148735.7822570882</v>
+        <v>148551</v>
       </c>
     </row>
     <row r="782" spans="1:4">
@@ -14073,7 +14073,7 @@
         <v>0</v>
       </c>
       <c r="D782">
-        <v>117510.9999999999</v>
+        <v>117510</v>
       </c>
     </row>
     <row r="783" spans="1:4">
@@ -14084,10 +14084,10 @@
         <v>784</v>
       </c>
       <c r="C783">
-        <v>3095.647322811274</v>
+        <v>3338</v>
       </c>
       <c r="D783">
-        <v>125155.6473228112</v>
+        <v>125397</v>
       </c>
     </row>
     <row r="784" spans="1:4">
@@ -14101,7 +14101,7 @@
         <v>0</v>
       </c>
       <c r="D784">
-        <v>146589.0000000001</v>
+        <v>146589</v>
       </c>
     </row>
     <row r="785" spans="1:4">
@@ -14115,7 +14115,7 @@
         <v>0</v>
       </c>
       <c r="D785">
-        <v>180714.9999999999</v>
+        <v>180714</v>
       </c>
     </row>
     <row r="786" spans="1:4">
@@ -14143,7 +14143,7 @@
         <v>0</v>
       </c>
       <c r="D787">
-        <v>107330</v>
+        <v>107329</v>
       </c>
     </row>
     <row r="788" spans="1:4">
@@ -14157,7 +14157,7 @@
         <v>0</v>
       </c>
       <c r="D788">
-        <v>186109.9999999999</v>
+        <v>186109</v>
       </c>
     </row>
     <row r="789" spans="1:4">
@@ -14171,7 +14171,7 @@
         <v>0</v>
       </c>
       <c r="D789">
-        <v>145272.0000000001</v>
+        <v>145272</v>
       </c>
     </row>
     <row r="790" spans="1:4">
@@ -14182,10 +14182,10 @@
         <v>791</v>
       </c>
       <c r="C790">
-        <v>17250.1339695229</v>
+        <v>17117</v>
       </c>
       <c r="D790">
-        <v>104989.1339695229</v>
+        <v>104855</v>
       </c>
     </row>
     <row r="791" spans="1:4">
@@ -14213,7 +14213,7 @@
         <v>0</v>
       </c>
       <c r="D792">
-        <v>69362.99999999999</v>
+        <v>69362</v>
       </c>
     </row>
     <row r="793" spans="1:4">
@@ -14238,10 +14238,10 @@
         <v>795</v>
       </c>
       <c r="C794">
-        <v>60172.90972947303</v>
+        <v>59939</v>
       </c>
       <c r="D794">
-        <v>150702.909729473</v>
+        <v>150468</v>
       </c>
     </row>
     <row r="795" spans="1:4">
@@ -14255,7 +14255,7 @@
         <v>0</v>
       </c>
       <c r="D795">
-        <v>84111.99999999994</v>
+        <v>84111</v>
       </c>
     </row>
     <row r="796" spans="1:4">
@@ -14269,7 +14269,7 @@
         <v>0</v>
       </c>
       <c r="D796">
-        <v>86668.00000000001</v>
+        <v>86668</v>
       </c>
     </row>
     <row r="797" spans="1:4">
@@ -14283,7 +14283,7 @@
         <v>0</v>
       </c>
       <c r="D797">
-        <v>169220.0000000001</v>
+        <v>169220</v>
       </c>
     </row>
     <row r="798" spans="1:4">
@@ -14294,10 +14294,10 @@
         <v>799</v>
       </c>
       <c r="C798">
-        <v>4854.648593356178</v>
+        <v>4759</v>
       </c>
       <c r="D798">
-        <v>67490.64859335622</v>
+        <v>67395</v>
       </c>
     </row>
     <row r="799" spans="1:4">
@@ -14311,7 +14311,7 @@
         <v>0</v>
       </c>
       <c r="D799">
-        <v>103316.0000000001</v>
+        <v>103316</v>
       </c>
     </row>
     <row r="800" spans="1:4">
@@ -14325,7 +14325,7 @@
         <v>0</v>
       </c>
       <c r="D800">
-        <v>92462.00000000006</v>
+        <v>92462</v>
       </c>
     </row>
     <row r="801" spans="1:4">
@@ -14339,7 +14339,7 @@
         <v>0</v>
       </c>
       <c r="D801">
-        <v>63585.00000000001</v>
+        <v>63585</v>
       </c>
     </row>
     <row r="802" spans="1:4">
@@ -14350,10 +14350,10 @@
         <v>803</v>
       </c>
       <c r="C802">
-        <v>3211.452798559258</v>
+        <v>3431</v>
       </c>
       <c r="D802">
-        <v>105656.4527985593</v>
+        <v>105876</v>
       </c>
     </row>
     <row r="803" spans="1:4">
@@ -14367,7 +14367,7 @@
         <v>0</v>
       </c>
       <c r="D803">
-        <v>193414.9999999998</v>
+        <v>193414</v>
       </c>
     </row>
     <row r="804" spans="1:4">
@@ -14378,10 +14378,10 @@
         <v>805</v>
       </c>
       <c r="C804">
-        <v>44015.72142381241</v>
+        <v>44225</v>
       </c>
       <c r="D804">
-        <v>130735.7214238124</v>
+        <v>130944</v>
       </c>
     </row>
     <row r="805" spans="1:4">
@@ -14395,7 +14395,7 @@
         <v>0</v>
       </c>
       <c r="D805">
-        <v>63911.00000000003</v>
+        <v>63911</v>
       </c>
     </row>
     <row r="806" spans="1:4">
@@ -14423,7 +14423,7 @@
         <v>0</v>
       </c>
       <c r="D807">
-        <v>84755.99999999994</v>
+        <v>84755</v>
       </c>
     </row>
     <row r="808" spans="1:4">
@@ -14448,10 +14448,10 @@
         <v>810</v>
       </c>
       <c r="C809">
-        <v>5857.363790650415</v>
+        <v>5874</v>
       </c>
       <c r="D809">
-        <v>66796.36379065044</v>
+        <v>66813</v>
       </c>
     </row>
     <row r="810" spans="1:4">
@@ -14465,7 +14465,7 @@
         <v>0</v>
       </c>
       <c r="D810">
-        <v>102158.0000000001</v>
+        <v>102158</v>
       </c>
     </row>
     <row r="811" spans="1:4">
@@ -14476,10 +14476,10 @@
         <v>812</v>
       </c>
       <c r="C811">
-        <v>14157.33643451623</v>
+        <v>14133</v>
       </c>
       <c r="D811">
-        <v>66213.33643451624</v>
+        <v>66189</v>
       </c>
     </row>
     <row r="812" spans="1:4">
@@ -14490,10 +14490,10 @@
         <v>813</v>
       </c>
       <c r="C812">
-        <v>7720.982826179068</v>
+        <v>7644</v>
       </c>
       <c r="D812">
-        <v>69440.98282617908</v>
+        <v>69364</v>
       </c>
     </row>
     <row r="813" spans="1:4">
@@ -14504,10 +14504,10 @@
         <v>814</v>
       </c>
       <c r="C813">
-        <v>34226.14575558332</v>
+        <v>33983</v>
       </c>
       <c r="D813">
-        <v>124338.1457555833</v>
+        <v>124094</v>
       </c>
     </row>
     <row r="814" spans="1:4">
@@ -14521,7 +14521,7 @@
         <v>0</v>
       </c>
       <c r="D814">
-        <v>61699.00000000001</v>
+        <v>61699</v>
       </c>
     </row>
     <row r="815" spans="1:4">
@@ -14532,10 +14532,10 @@
         <v>816</v>
       </c>
       <c r="C815">
-        <v>175.9916139333072</v>
+        <v>80</v>
       </c>
       <c r="D815">
-        <v>92017.99161393323</v>
+        <v>91921</v>
       </c>
     </row>
     <row r="816" spans="1:4">
@@ -14549,7 +14549,7 @@
         <v>0</v>
       </c>
       <c r="D816">
-        <v>79292.00000000006</v>
+        <v>79292</v>
       </c>
     </row>
     <row r="817" spans="1:4">
@@ -14563,7 +14563,7 @@
         <v>0</v>
       </c>
       <c r="D817">
-        <v>108265</v>
+        <v>108264</v>
       </c>
     </row>
     <row r="818" spans="1:4">
@@ -14574,10 +14574,10 @@
         <v>819</v>
       </c>
       <c r="C818">
-        <v>25892.40195007771</v>
+        <v>25589</v>
       </c>
       <c r="D818">
-        <v>131208.4019500776</v>
+        <v>130904</v>
       </c>
     </row>
     <row r="819" spans="1:4">
@@ -14591,7 +14591,7 @@
         <v>0</v>
       </c>
       <c r="D819">
-        <v>151084.0000000001</v>
+        <v>151084</v>
       </c>
     </row>
     <row r="820" spans="1:4">
@@ -14605,7 +14605,7 @@
         <v>0</v>
       </c>
       <c r="D820">
-        <v>87153.99999999993</v>
+        <v>87153</v>
       </c>
     </row>
     <row r="821" spans="1:4">
@@ -14619,7 +14619,7 @@
         <v>0</v>
       </c>
       <c r="D821">
-        <v>92424.00000000003</v>
+        <v>92424</v>
       </c>
     </row>
     <row r="822" spans="1:4">
@@ -14630,10 +14630,10 @@
         <v>823</v>
       </c>
       <c r="C822">
-        <v>20228.35174537175</v>
+        <v>20308</v>
       </c>
       <c r="D822">
-        <v>106965.3517453718</v>
+        <v>107045</v>
       </c>
     </row>
     <row r="823" spans="1:4">
@@ -14644,10 +14644,10 @@
         <v>824</v>
       </c>
       <c r="C823">
-        <v>9229.623923418447</v>
+        <v>9256</v>
       </c>
       <c r="D823">
-        <v>89505.62392341848</v>
+        <v>89532</v>
       </c>
     </row>
     <row r="824" spans="1:4">
@@ -14658,10 +14658,10 @@
         <v>825</v>
       </c>
       <c r="C824">
-        <v>2063.919261162242</v>
+        <v>1907</v>
       </c>
       <c r="D824">
-        <v>66817.91926116221</v>
+        <v>66660</v>
       </c>
     </row>
     <row r="825" spans="1:4">
@@ -14675,7 +14675,7 @@
         <v>0</v>
       </c>
       <c r="D825">
-        <v>97870.00000000007</v>
+        <v>97870</v>
       </c>
     </row>
     <row r="826" spans="1:4">
@@ -14689,7 +14689,7 @@
         <v>0</v>
       </c>
       <c r="D826">
-        <v>61811.99999999996</v>
+        <v>61811</v>
       </c>
     </row>
     <row r="827" spans="1:4">
@@ -14700,10 +14700,10 @@
         <v>828</v>
       </c>
       <c r="C827">
-        <v>5585.022686787823</v>
+        <v>5470</v>
       </c>
       <c r="D827">
-        <v>67677.02268678778</v>
+        <v>67561</v>
       </c>
     </row>
     <row r="828" spans="1:4">
@@ -14717,7 +14717,7 @@
         <v>0</v>
       </c>
       <c r="D828">
-        <v>77273.00000000003</v>
+        <v>77273</v>
       </c>
     </row>
     <row r="829" spans="1:4">
@@ -14728,10 +14728,10 @@
         <v>830</v>
       </c>
       <c r="C829">
-        <v>16056.04909772199</v>
+        <v>15911</v>
       </c>
       <c r="D829">
-        <v>107257.0490977219</v>
+        <v>107111</v>
       </c>
     </row>
     <row r="830" spans="1:4">
@@ -14745,7 +14745,7 @@
         <v>0</v>
       </c>
       <c r="D830">
-        <v>130998</v>
+        <v>130997</v>
       </c>
     </row>
     <row r="831" spans="1:4">
@@ -14756,10 +14756,10 @@
         <v>832</v>
       </c>
       <c r="C831">
-        <v>1700.022420261928</v>
+        <v>1451</v>
       </c>
       <c r="D831">
-        <v>154755.022420262</v>
+        <v>154506</v>
       </c>
     </row>
     <row r="832" spans="1:4">
@@ -14773,7 +14773,7 @@
         <v>0</v>
       </c>
       <c r="D832">
-        <v>186455.9999999999</v>
+        <v>186455</v>
       </c>
     </row>
     <row r="833" spans="1:4">
@@ -14787,7 +14787,7 @@
         <v>0</v>
       </c>
       <c r="D833">
-        <v>142724.9999999999</v>
+        <v>142724</v>
       </c>
     </row>
     <row r="834" spans="1:4">
@@ -14801,7 +14801,7 @@
         <v>0</v>
       </c>
       <c r="D834">
-        <v>172097.9999999999</v>
+        <v>172097</v>
       </c>
     </row>
     <row r="835" spans="1:4">
@@ -14815,7 +14815,7 @@
         <v>0</v>
       </c>
       <c r="D835">
-        <v>76044.00000000001</v>
+        <v>76044</v>
       </c>
     </row>
     <row r="836" spans="1:4">
@@ -14843,7 +14843,7 @@
         <v>0</v>
       </c>
       <c r="D837">
-        <v>111577.0000000001</v>
+        <v>111577</v>
       </c>
     </row>
     <row r="838" spans="1:4">
@@ -14857,7 +14857,7 @@
         <v>0</v>
       </c>
       <c r="D838">
-        <v>89955.99999999993</v>
+        <v>89955</v>
       </c>
     </row>
     <row r="839" spans="1:4">
@@ -14868,10 +14868,10 @@
         <v>840</v>
       </c>
       <c r="C839">
-        <v>22337.83393269143</v>
+        <v>22105</v>
       </c>
       <c r="D839">
-        <v>105411.8339326915</v>
+        <v>105179</v>
       </c>
     </row>
     <row r="840" spans="1:4">
@@ -14882,10 +14882,10 @@
         <v>841</v>
       </c>
       <c r="C840">
-        <v>2157.945656053504</v>
+        <v>2300</v>
       </c>
       <c r="D840">
-        <v>103801.9456560535</v>
+        <v>103943</v>
       </c>
     </row>
     <row r="841" spans="1:4">
@@ -14899,7 +14899,7 @@
         <v>0</v>
       </c>
       <c r="D841">
-        <v>116120.0000000001</v>
+        <v>116120</v>
       </c>
     </row>
     <row r="842" spans="1:4">
@@ -14913,7 +14913,7 @@
         <v>0</v>
       </c>
       <c r="D842">
-        <v>153188.0000000001</v>
+        <v>153188</v>
       </c>
     </row>
     <row r="843" spans="1:4">
@@ -14924,10 +14924,10 @@
         <v>844</v>
       </c>
       <c r="C843">
-        <v>10118.10826328922</v>
+        <v>10275</v>
       </c>
       <c r="D843">
-        <v>88084.10826328926</v>
+        <v>88241</v>
       </c>
     </row>
     <row r="844" spans="1:4">
@@ -14941,7 +14941,7 @@
         <v>0</v>
       </c>
       <c r="D844">
-        <v>106367.9999999999</v>
+        <v>106367</v>
       </c>
     </row>
     <row r="845" spans="1:4">
@@ -14952,10 +14952,10 @@
         <v>846</v>
       </c>
       <c r="C845">
-        <v>16081.30285046282</v>
+        <v>16405</v>
       </c>
       <c r="D845">
-        <v>146436.3028504628</v>
+        <v>146759</v>
       </c>
     </row>
     <row r="846" spans="1:4">
@@ -14966,10 +14966,10 @@
         <v>847</v>
       </c>
       <c r="C846">
-        <v>43741.29747570259</v>
+        <v>43683</v>
       </c>
       <c r="D846">
-        <v>150966.2974757026</v>
+        <v>150907</v>
       </c>
     </row>
     <row r="847" spans="1:4">
@@ -14983,7 +14983,7 @@
         <v>0</v>
       </c>
       <c r="D847">
-        <v>167136.0000000001</v>
+        <v>167136</v>
       </c>
     </row>
     <row r="848" spans="1:4">
@@ -14997,7 +14997,7 @@
         <v>0</v>
       </c>
       <c r="D848">
-        <v>96063.99999999994</v>
+        <v>96063</v>
       </c>
     </row>
     <row r="849" spans="1:4">
@@ -15011,7 +15011,7 @@
         <v>0</v>
       </c>
       <c r="D849">
-        <v>110040.0000000001</v>
+        <v>110040</v>
       </c>
     </row>
     <row r="850" spans="1:4">
@@ -15022,10 +15022,10 @@
         <v>851</v>
       </c>
       <c r="C850">
-        <v>32884.00825646687</v>
+        <v>32699</v>
       </c>
       <c r="D850">
-        <v>106805.0082564668</v>
+        <v>106619</v>
       </c>
     </row>
     <row r="851" spans="1:4">
@@ -15039,7 +15039,7 @@
         <v>0</v>
       </c>
       <c r="D851">
-        <v>66808.99999999997</v>
+        <v>66808</v>
       </c>
     </row>
     <row r="852" spans="1:4">
@@ -15053,7 +15053,7 @@
         <v>0</v>
       </c>
       <c r="D852">
-        <v>102876</v>
+        <v>102875</v>
       </c>
     </row>
     <row r="853" spans="1:4">
@@ -15067,7 +15067,7 @@
         <v>0</v>
       </c>
       <c r="D853">
-        <v>127173.9999999999</v>
+        <v>127173</v>
       </c>
     </row>
     <row r="854" spans="1:4">
@@ -15081,7 +15081,7 @@
         <v>0</v>
       </c>
       <c r="D854">
-        <v>75413.00000000004</v>
+        <v>75413</v>
       </c>
     </row>
     <row r="855" spans="1:4">
@@ -15109,7 +15109,7 @@
         <v>0</v>
       </c>
       <c r="D856">
-        <v>114178</v>
+        <v>114177</v>
       </c>
     </row>
     <row r="857" spans="1:4">
@@ -15123,7 +15123,7 @@
         <v>0</v>
       </c>
       <c r="D857">
-        <v>118528.9999999999</v>
+        <v>118528</v>
       </c>
     </row>
     <row r="858" spans="1:4">
@@ -15134,10 +15134,10 @@
         <v>859</v>
       </c>
       <c r="C858">
-        <v>7430.077048204112</v>
+        <v>7545</v>
       </c>
       <c r="D858">
-        <v>66536.0770482041</v>
+        <v>66650</v>
       </c>
     </row>
     <row r="859" spans="1:4">
@@ -15148,10 +15148,10 @@
         <v>860</v>
       </c>
       <c r="C859">
-        <v>17302.44276262782</v>
+        <v>17184</v>
       </c>
       <c r="D859">
-        <v>88416.44276262779</v>
+        <v>88297</v>
       </c>
     </row>
     <row r="860" spans="1:4">
@@ -15179,7 +15179,7 @@
         <v>0</v>
       </c>
       <c r="D861">
-        <v>86897.99999999994</v>
+        <v>86897</v>
       </c>
     </row>
     <row r="862" spans="1:4">
@@ -15193,7 +15193,7 @@
         <v>0</v>
       </c>
       <c r="D862">
-        <v>79632.00000000001</v>
+        <v>79632</v>
       </c>
     </row>
     <row r="863" spans="1:4">
@@ -15207,7 +15207,7 @@
         <v>0</v>
       </c>
       <c r="D863">
-        <v>115265</v>
+        <v>115264</v>
       </c>
     </row>
     <row r="864" spans="1:4">
@@ -15218,10 +15218,10 @@
         <v>865</v>
       </c>
       <c r="C864">
-        <v>9640.28863712879</v>
+        <v>9718</v>
       </c>
       <c r="D864">
-        <v>105215.2886371287</v>
+        <v>105292</v>
       </c>
     </row>
     <row r="865" spans="1:4">
@@ -15235,7 +15235,7 @@
         <v>0</v>
       </c>
       <c r="D865">
-        <v>63856.99999999996</v>
+        <v>63856</v>
       </c>
     </row>
     <row r="866" spans="1:4">
@@ -15249,7 +15249,7 @@
         <v>0</v>
       </c>
       <c r="D866">
-        <v>97501.99999999997</v>
+        <v>97501</v>
       </c>
     </row>
     <row r="867" spans="1:4">
@@ -15263,7 +15263,7 @@
         <v>0</v>
       </c>
       <c r="D867">
-        <v>97346.00000000007</v>
+        <v>97346</v>
       </c>
     </row>
     <row r="868" spans="1:4">
@@ -15274,10 +15274,10 @@
         <v>869</v>
       </c>
       <c r="C868">
-        <v>12901.91416120463</v>
+        <v>12744</v>
       </c>
       <c r="D868">
-        <v>66756.91416120461</v>
+        <v>66598</v>
       </c>
     </row>
     <row r="869" spans="1:4">
@@ -15288,10 +15288,10 @@
         <v>870</v>
       </c>
       <c r="C869">
-        <v>12854.16604228169</v>
+        <v>13037</v>
       </c>
       <c r="D869">
-        <v>91274.16604228172</v>
+        <v>91457</v>
       </c>
     </row>
     <row r="870" spans="1:4">
@@ -15305,7 +15305,7 @@
         <v>0</v>
       </c>
       <c r="D870">
-        <v>117941.0000000001</v>
+        <v>117941</v>
       </c>
     </row>
     <row r="871" spans="1:4">
@@ -15319,7 +15319,7 @@
         <v>0</v>
       </c>
       <c r="D871">
-        <v>107362.0000000001</v>
+        <v>107362</v>
       </c>
     </row>
     <row r="872" spans="1:4">
@@ -15330,10 +15330,10 @@
         <v>873</v>
       </c>
       <c r="C872">
-        <v>4506.412826396634</v>
+        <v>4415</v>
       </c>
       <c r="D872">
-        <v>65987.41282639664</v>
+        <v>65896</v>
       </c>
     </row>
     <row r="873" spans="1:4">
@@ -15344,10 +15344,10 @@
         <v>874</v>
       </c>
       <c r="C873">
-        <v>17214.58188142774</v>
+        <v>17209</v>
       </c>
       <c r="D873">
-        <v>87922.58188142776</v>
+        <v>87917</v>
       </c>
     </row>
     <row r="874" spans="1:4">
@@ -15361,7 +15361,7 @@
         <v>0</v>
       </c>
       <c r="D874">
-        <v>68744.99999999997</v>
+        <v>68744</v>
       </c>
     </row>
     <row r="875" spans="1:4">
@@ -15372,10 +15372,10 @@
         <v>876</v>
       </c>
       <c r="C875">
-        <v>31358.413630378</v>
+        <v>31589</v>
       </c>
       <c r="D875">
-        <v>104916.4136303779</v>
+        <v>105146</v>
       </c>
     </row>
     <row r="876" spans="1:4">
@@ -15386,10 +15386,10 @@
         <v>877</v>
       </c>
       <c r="C876">
-        <v>1881.825217707505</v>
+        <v>2037</v>
       </c>
       <c r="D876">
-        <v>89021.82521770743</v>
+        <v>89176</v>
       </c>
     </row>
     <row r="877" spans="1:4">
@@ -15417,7 +15417,7 @@
         <v>0</v>
       </c>
       <c r="D878">
-        <v>102941.0000000001</v>
+        <v>102941</v>
       </c>
     </row>
     <row r="879" spans="1:4">
@@ -15428,10 +15428,10 @@
         <v>880</v>
       </c>
       <c r="C879">
-        <v>25041.81145852782</v>
+        <v>25010</v>
       </c>
       <c r="D879">
-        <v>88231.81145852782</v>
+        <v>88200</v>
       </c>
     </row>
     <row r="880" spans="1:4">
@@ -15445,7 +15445,7 @@
         <v>0</v>
       </c>
       <c r="D880">
-        <v>71981.00000000001</v>
+        <v>71981</v>
       </c>
     </row>
     <row r="881" spans="1:4">
@@ -15473,7 +15473,7 @@
         <v>0</v>
       </c>
       <c r="D882">
-        <v>65952.00000000003</v>
+        <v>65952</v>
       </c>
     </row>
     <row r="883" spans="1:4">
@@ -15484,10 +15484,10 @@
         <v>884</v>
       </c>
       <c r="C883">
-        <v>4904.192763103383</v>
+        <v>4844</v>
       </c>
       <c r="D883">
-        <v>66606.19276310343</v>
+        <v>66546</v>
       </c>
     </row>
     <row r="884" spans="1:4">
@@ -15501,7 +15501,7 @@
         <v>0</v>
       </c>
       <c r="D884">
-        <v>194514.9999999999</v>
+        <v>194514</v>
       </c>
     </row>
     <row r="885" spans="1:4">
@@ -15515,7 +15515,7 @@
         <v>0</v>
       </c>
       <c r="D885">
-        <v>91322.00000000006</v>
+        <v>91322</v>
       </c>
     </row>
     <row r="886" spans="1:4">
@@ -15543,7 +15543,7 @@
         <v>0</v>
       </c>
       <c r="D887">
-        <v>109997</v>
+        <v>109996</v>
       </c>
     </row>
     <row r="888" spans="1:4">
@@ -15557,7 +15557,7 @@
         <v>0</v>
       </c>
       <c r="D888">
-        <v>97585.99999999993</v>
+        <v>97585</v>
       </c>
     </row>
     <row r="889" spans="1:4">
@@ -15571,7 +15571,7 @@
         <v>0</v>
       </c>
       <c r="D889">
-        <v>97754.00000000003</v>
+        <v>97754</v>
       </c>
     </row>
     <row r="890" spans="1:4">
@@ -15585,7 +15585,7 @@
         <v>0</v>
       </c>
       <c r="D890">
-        <v>60348.99999999996</v>
+        <v>60348</v>
       </c>
     </row>
     <row r="891" spans="1:4">
@@ -15599,7 +15599,7 @@
         <v>0</v>
       </c>
       <c r="D891">
-        <v>84832.99999999994</v>
+        <v>84832</v>
       </c>
     </row>
     <row r="892" spans="1:4">
@@ -15613,7 +15613,7 @@
         <v>0</v>
       </c>
       <c r="D892">
-        <v>66518.99999999994</v>
+        <v>66518</v>
       </c>
     </row>
     <row r="893" spans="1:4">
@@ -15627,7 +15627,7 @@
         <v>0</v>
       </c>
       <c r="D893">
-        <v>88935.99999999999</v>
+        <v>88935</v>
       </c>
     </row>
     <row r="894" spans="1:4">
@@ -15655,7 +15655,7 @@
         <v>0</v>
       </c>
       <c r="D895">
-        <v>137254.9999999999</v>
+        <v>137254</v>
       </c>
     </row>
     <row r="896" spans="1:4">
@@ -15669,7 +15669,7 @@
         <v>0</v>
       </c>
       <c r="D896">
-        <v>122170.9999999999</v>
+        <v>122170</v>
       </c>
     </row>
     <row r="897" spans="1:4">
@@ -15683,7 +15683,7 @@
         <v>0</v>
       </c>
       <c r="D897">
-        <v>71869.99999999994</v>
+        <v>71869</v>
       </c>
     </row>
     <row r="898" spans="1:4">
@@ -15697,7 +15697,7 @@
         <v>0</v>
       </c>
       <c r="D898">
-        <v>61844.00000000001</v>
+        <v>61844</v>
       </c>
     </row>
     <row r="899" spans="1:4">
@@ -15725,7 +15725,7 @@
         <v>0</v>
       </c>
       <c r="D900">
-        <v>68986.99999999994</v>
+        <v>68986</v>
       </c>
     </row>
     <row r="901" spans="1:4">
@@ -15739,7 +15739,7 @@
         <v>0</v>
       </c>
       <c r="D901">
-        <v>86355.99999999999</v>
+        <v>86355</v>
       </c>
     </row>
     <row r="902" spans="1:4">
@@ -15753,7 +15753,7 @@
         <v>0</v>
       </c>
       <c r="D902">
-        <v>66891.00000000001</v>
+        <v>66891</v>
       </c>
     </row>
     <row r="903" spans="1:4">
@@ -15781,7 +15781,7 @@
         <v>0</v>
       </c>
       <c r="D904">
-        <v>87310.99999999997</v>
+        <v>87310</v>
       </c>
     </row>
     <row r="905" spans="1:4">
@@ -15795,7 +15795,7 @@
         <v>0</v>
       </c>
       <c r="D905">
-        <v>95789.99999999997</v>
+        <v>95789</v>
       </c>
     </row>
     <row r="906" spans="1:4">
@@ -15809,7 +15809,7 @@
         <v>0</v>
       </c>
       <c r="D906">
-        <v>86157.99999999993</v>
+        <v>86157</v>
       </c>
     </row>
     <row r="907" spans="1:4">
@@ -15823,7 +15823,7 @@
         <v>0</v>
       </c>
       <c r="D907">
-        <v>65024.00000000004</v>
+        <v>65024</v>
       </c>
     </row>
     <row r="908" spans="1:4">
@@ -15837,7 +15837,7 @@
         <v>0</v>
       </c>
       <c r="D908">
-        <v>66285.99999999999</v>
+        <v>66285</v>
       </c>
     </row>
     <row r="909" spans="1:4">
@@ -15851,7 +15851,7 @@
         <v>0</v>
       </c>
       <c r="D909">
-        <v>85814.00000000006</v>
+        <v>85814</v>
       </c>
     </row>
     <row r="910" spans="1:4">
@@ -15893,7 +15893,7 @@
         <v>0</v>
       </c>
       <c r="D912">
-        <v>70997.99999999999</v>
+        <v>70997</v>
       </c>
     </row>
     <row r="913" spans="1:4">
@@ -15907,7 +15907,7 @@
         <v>0</v>
       </c>
       <c r="D913">
-        <v>84814.00000000006</v>
+        <v>84814</v>
       </c>
     </row>
     <row r="914" spans="1:4">
@@ -15935,7 +15935,7 @@
         <v>0</v>
       </c>
       <c r="D915">
-        <v>77112.99999999993</v>
+        <v>77112</v>
       </c>
     </row>
     <row r="916" spans="1:4">
@@ -15949,7 +15949,7 @@
         <v>0</v>
       </c>
       <c r="D916">
-        <v>91437.99999999996</v>
+        <v>91437</v>
       </c>
     </row>
   </sheetData>
